--- a/backend/django_cemos2028/apps/perguntas/fixtures/flashcards.xlsx
+++ b/backend/django_cemos2028/apps/perguntas/fixtures/flashcards.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\guilh\projeto\cemos-2028\backend\django_cemos2028\apps\perguntas\fixtures\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F91ACB3D-BC09-4A7E-9840-61725D271ED4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{640191F3-2608-4C1A-B68A-B062B5C19973}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38290" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="397" uniqueCount="267">
   <si>
     <t>pergunta</t>
   </si>
@@ -419,6 +419,410 @@
   </si>
   <si>
     <t>bibliografia_id</t>
+  </si>
+  <si>
+    <t>Índia</t>
+  </si>
+  <si>
+    <t>Segundo o texto, qual país está se tornando o "Estado-pivô" essencial na rivalidade entre Estados Unidos e China?</t>
+  </si>
+  <si>
+    <t>De acordo com Spykman, a Índia é o exemplo máximo de poder terrestre do _____.</t>
+  </si>
+  <si>
+    <t>Rimland</t>
+  </si>
+  <si>
+    <t>Qual a visão de Mahan sobre a importância estratégica da Índia no Oceano Índico?</t>
+  </si>
+  <si>
+    <t>Ele a considerava crucial para a penetração tanto do Oriente Médio quanto da China em direção ao mar.</t>
+  </si>
+  <si>
+    <t>Quais são os quatro grandes centros demográficos localizados nas margens do supercontinente eurasiano?</t>
+  </si>
+  <si>
+    <t>Europa, Índia, Sudeste Asiático e China.</t>
+  </si>
+  <si>
+    <t>Como a geografia indiana, com suas diversas bacias hídricas além do Ganges, impactou a unificação política do subcontinente?</t>
+  </si>
+  <si>
+    <t>Qual foi a teoria de James Fairgrieve sobre como o clima quente da Índia afetou seu desenvolvimento político</t>
+  </si>
+  <si>
+    <t>Ele sugeriu que o clima poupou seus habitantes da necessidade de erguer estruturas políticas complexas para a organização de recursos, em contraste com chineses e europeus.</t>
+  </si>
+  <si>
+    <t>A tarefa de governar o Sul a partir do Norte era dificultada pelo fato de os rios correrem majoritariamente de Oeste para Leste em um subcontinente que se estende do Norte para o Sul, o que resultava em poucas vias de conexão geográfica entre o Norte e o Sul da Índia</t>
+  </si>
+  <si>
+    <t>Qual foi a região de fronteira da Índia historicamente mais exposta a invasões concentradas?</t>
+  </si>
+  <si>
+    <t>A fronteira Noroeste, onde a Índia se aproxima das estepes centro-asiáticas e do planalto persa-afegão.</t>
+  </si>
+  <si>
+    <t>Segundo Mackinder, qual era a única região de fronteira no Império Britânico que precisava estar sempre pronta para a guerra?</t>
+  </si>
+  <si>
+    <t>A Fronteira Noroeste da Índia.</t>
+  </si>
+  <si>
+    <t>Até que ano o persa foi o idioma oficial da Índia, evidenciando a forte influência cultural iraniana?</t>
+  </si>
+  <si>
+    <t>Até 1835.</t>
+  </si>
+  <si>
+    <t>O que é o "dilema" central da Índia em relação às suas fronteiras, segundo o texto?</t>
+  </si>
+  <si>
+    <t>O dilema central da Índia em relação às suas fronteiras consiste no fato de o país estar cercado por vizinhos instáveis (Paquistão, Afeganistão e Bangladesh) e, em muitos casos, hostis, o que o obriga a dividir sua atenção estratégica em múltiplas direções.</t>
+  </si>
+  <si>
+    <t>Qual o conceito, mencionado por André Wink, que descreve a região culturalmente fluida do leste do Irã ao oeste da Índia como um "organismo cultural"?</t>
+  </si>
+  <si>
+    <t>A fronteira de Al-Hind.</t>
+  </si>
+  <si>
+    <t>Qual império, fundado por Chandragupta Máuria em 321 a.C., deu impulso pela primeira vez à ideia da Índia como uma entidade política unificada?</t>
+  </si>
+  <si>
+    <t>Qual império, fundado por Chandragupta Máuria em 321 a.C., deu impulso pela primeira vez à ideia da Índia como uma entidade política unificada?
+Veja a resposta
+O Império Máuria.</t>
+  </si>
+  <si>
+    <t>Qual ameaça externa, segundo Burton Stein, inspirou em parte a unificação do Império Máuria?</t>
+  </si>
+  <si>
+    <t>A ameaça representada pela iminente conquista de Alexandre, o Grande.</t>
+  </si>
+  <si>
+    <t>Quem foi Kautilya e qual sua principal obra?</t>
+  </si>
+  <si>
+    <t>Kautilya foi o conselheiro de Chandragupta Máuria e autor do clássico político "Arthashastra" ou "Livro do Estado".</t>
+  </si>
+  <si>
+    <t>Qual era a estratégia de Kautilya no Arthashastra para a expansão de um império?</t>
+  </si>
+  <si>
+    <t>Considerar inimiga qualquer cidade-estado adjacente e amiga uma cidade-estado distante que fizesse fronteira com um rival.</t>
+  </si>
+  <si>
+    <t>Qual foi a característica da administração do Império Máuria, mesmo em seu auge?</t>
+  </si>
+  <si>
+    <t>Era um império descentralizado, com um núcleo no leste da planície do Ganges e quatro centros regionais.</t>
+  </si>
+  <si>
+    <t>Qual império do século I d.C. tinha um território que sobrepunha a Ásia Central, Afeganistão, Paquistão e norte da Índia, desafiando as fronteiras modernas?</t>
+  </si>
+  <si>
+    <t>O Império dos Kushana.</t>
+  </si>
+  <si>
+    <t>Apesar de unificar parte do subcontinente, qual grande região o Império Gupta (320–550 d.C.) não conseguiu controlar?</t>
+  </si>
+  <si>
+    <t>A maior parte do Sul do subcontinente.</t>
+  </si>
+  <si>
+    <t>O que caracterizava a região do Sul da Índia peninsular, separando-a do Norte?</t>
+  </si>
+  <si>
+    <t>Era marcada por idiomas dravidianos, separada pelo planalto do Decão e sob influência marítima do Oriente Médio e da Indochina.</t>
+  </si>
+  <si>
+    <t>Segundo Fairgrieve, por qual rota os turcos invadiram a Índia a partir do ano 1000 d.C.?</t>
+  </si>
+  <si>
+    <t>Através do planalto do Irã e do Afeganistão.</t>
+  </si>
+  <si>
+    <t>Qual guerreiro turcomano, baseado no Afeganistão, uniu em seu império do século XI territórios que iam do Curdistão iraquiano ao noroeste da Índia?</t>
+  </si>
+  <si>
+    <t>Mahmud de Ghazni.</t>
+  </si>
+  <si>
+    <t>Por que a cidade de Déli foi escolhida como capital por sucessivos invasores muçulmanos?</t>
+  </si>
+  <si>
+    <t>Sua localização na saída de uma passagem estreita entre o deserto indiano e o Himalaia, com o mundo islâmico às costas e o mundo hindu à frente.</t>
+  </si>
+  <si>
+    <t>Quem foi o fundador do Império Mogol?</t>
+  </si>
+  <si>
+    <t>Záhir Ud-din Mohammad Babur, um turco chagatai nascido no atual Uzbequistão.</t>
+  </si>
+  <si>
+    <t>Onde se encontra o túmulo de Babur, fundador do Império Mogol?</t>
+  </si>
+  <si>
+    <t>Em Cabul, no Afeganistão, e não em Déli.</t>
+  </si>
+  <si>
+    <t>Qual imperador mogol levou o império ao seu ápice de expansão, mas morreu sem conseguir subjugar os rebeldes Maratha no sul?</t>
+  </si>
+  <si>
+    <t>Aurangzeb.</t>
+  </si>
+  <si>
+    <t>Qual foi a consequência da prolongada rebelião dos Maratha no sul para o Império Mogol?</t>
+  </si>
+  <si>
+    <t>Solapou a coesão e o moral da dinastia e facilitou o estabelecimento das Companhias das Índias Orientais europeias no litoral.</t>
+  </si>
+  <si>
+    <t>Como a abordagem dos britânicos para conquistar a Índia diferiu da dos governantes anteriores?</t>
+  </si>
+  <si>
+    <t>Os britânicos eram um poder naval que conquistou a Índia a partir do mar, enquanto os governantes anteriores eram poderes terrestres que invadiram pelo noroeste.</t>
+  </si>
+  <si>
+    <t>Qual tecnologia permitiu aos britânicos unificar finalmente o vasto espaço interior do subcontinente indiano?</t>
+  </si>
+  <si>
+    <t>A instalação de uma vasta rede de linhas férreas.</t>
+  </si>
+  <si>
+    <t>Como a partida apressada dos britânicos em 1947 impactou o subcontinente indiano?</t>
+  </si>
+  <si>
+    <t>Contribuiu para dividi-lo novamente de uma maneira mais profunda e formalizada do que qualquer derrocada imperial anterior.</t>
+  </si>
+  <si>
+    <t>Do ponto de vista histórico-geográfico da Índia, o que o Paquistão representa?</t>
+  </si>
+  <si>
+    <t>É a encarnação geográfica e nacional de todas as invasões muçulmanas que se abateram sobre a Índia ao longo de sua história.</t>
+  </si>
+  <si>
+    <t>Por que a relação entre a Índia e o Paquistão é descrita como de caráter existencial?</t>
+  </si>
+  <si>
+    <t>Porque o Paquistão, como república islâmica, representa uma afronta aos princípios seculares da Índia e encarna uma ameaça histórica, enquanto a Índia representa uma ameaça à própria ideologia fundadora do Paquistão.</t>
+  </si>
+  <si>
+    <t>Para as elites indianas, por que é natural e historicamente justificável considerar o Afeganistão como parte do seu "torrão natal"?</t>
+  </si>
+  <si>
+    <t>Porque, historicamente, a região que hoje compreende o norte da Índia, Paquistão e grande parte do Afeganistão esteve frequentemente sob um mesmo corpo político.</t>
+  </si>
+  <si>
+    <t>Qual é a principal razão para a fronteira entre o Afeganistão e o Paquistão ser extremamente permeável e quase uma "miragem"?</t>
+  </si>
+  <si>
+    <t>As mesmas tribos vivem de ambos os lados da fronteira e a diferença entre os estados é tênue, por pertencerem a mundos comuns indo-islâmico e indo-pérsico.</t>
+  </si>
+  <si>
+    <t>Como o território do Paquistão é descrito em termos de sua lógica geográfica?</t>
+  </si>
+  <si>
+    <t>Como um quebra-cabeça artificial, escarrapachado nos limites entre o planalto iraniano-afegão e as baixadas do subcontinente.</t>
+  </si>
+  <si>
+    <t>Qual instituição, dominada pelos punjabis, é essencial para a existência do Paquistão como Estado?</t>
+  </si>
+  <si>
+    <t>O Exército.</t>
+  </si>
+  <si>
+    <t>Qual foi a premissa ideológica sobre a qual o Paquistão foi construído em 1947?</t>
+  </si>
+  <si>
+    <t>Ser um lar para os muçulmanos do subcontinente indiano.</t>
+  </si>
+  <si>
+    <t>Por que a ideologia fundadora do Paquistão é considerada falha, de acordo com o texto?</t>
+  </si>
+  <si>
+    <t>Porque dezenas de milhões de muçulmanos permaneceram na própria Índia após a partição, contradizendo a ideia de um lar exclusivo.</t>
+  </si>
+  <si>
+    <t>Qual é a perspectiva alternativa, defendida por Aitzaz Ahsan, sobre a lógica geográfica do Paquistão?</t>
+  </si>
+  <si>
+    <t>Ele argumenta que o Paquistão se origina no centro demográfico do rio Indo e que a fronteira histórica fundamental do subcontinente se aproxima da atual fronteira indo-paquistanesa.</t>
+  </si>
+  <si>
+    <t>Qual peculiaridade histórica sem precedentes a geografia política atual da região apresenta, segundo o texto?</t>
+  </si>
+  <si>
+    <t>Um Estado do vale do Indo (Paquistão) e um poderoso Estado gengético (Índia) disputando o controle da Ásia Central independentemente.</t>
+  </si>
+  <si>
+    <t>O que o texto sugere que poderia ser um realinhamento histórico futuro para o Afeganistão?</t>
+  </si>
+  <si>
+    <t>O país poderia ser riscado do mapa, com o Hindu Kush formando a fronteira entre um "Pachtunistão" e um "Grande Tadjiquistão".</t>
+  </si>
+  <si>
+    <t>Qual era a principal razão para a Índia apoiar o regime pró-soviético de Mohammad Najibullah no Afeganistão durante a década de 1980?</t>
+  </si>
+  <si>
+    <t>O regime era secular e se opunha aos mujahidin islamistas pró-paquistaneses que o combatiam.</t>
+  </si>
+  <si>
+    <t>Qual seria o maior pesadelo estratégico para a Índia se o Afeganistão caísse nas mãos do Talibã?</t>
+  </si>
+  <si>
+    <t>A criação de uma sucessão de sociedades islâmicas radicais da fronteira indo-paquistanesa até a Ásia Central, conferindo ao Paquistão um "império clandestino".</t>
+  </si>
+  <si>
+    <t>Qual projeto de infraestrutura financiado pela Índia no Afeganistão o conecta a um porto iraniano no Mar da Arábia?</t>
+  </si>
+  <si>
+    <t>A autoestrada Zaranj-Delaram, que liga o oeste do Afeganistão ao porto iraniano de Chabahar.</t>
+  </si>
+  <si>
+    <t>A rivalidade indiano-chinesa é descrita como uma disputa sem a "força da História por trás". Por quê?</t>
+  </si>
+  <si>
+    <t>Porque as interações históricas entre as duas civilizações foram em geral produtivas, e a alta muralha do Himalaia as isolava fisicamente.</t>
+  </si>
+  <si>
+    <t>O que impulsiona a nova geografia do conflito entre Índia e China nas últimas décadas?</t>
+  </si>
+  <si>
+    <t>O desenvolvimento de poder marítimo, aéreo e de mísseis, que elimina as distâncias e cria um novo campo de batalha em toda a Eurásia.</t>
+  </si>
+  <si>
+    <t>Como o desenvolvimento econômico da Índia e da China contribui para a tensão entre os dois países?</t>
+  </si>
+  <si>
+    <t>O intenso desenvolvimento econômico permite que ambos os países invistam em dispendiosas plataformas militares navais e aéreas, aumentando a capacidade de projeção de poder.</t>
+  </si>
+  <si>
+    <t>Qual é a principal diferença na organização e governança entre a China e a Índia, apesar da falta de democracia chinesa?</t>
+  </si>
+  <si>
+    <t>A China continua sendo mais bem organizada e governada com mais eficiência, como evidenciado pela construção de infraestrutura e pela burocracia mais ágil.</t>
+  </si>
+  <si>
+    <t>Que tipo de insurreições violentas assolam a Índia, especialmente no centro e leste do país?</t>
+  </si>
+  <si>
+    <t>As insurreições dos naxalitas, de tendências maoístas.</t>
+  </si>
+  <si>
+    <t>Qual é a principal vulnerabilidade do Nepal em relação à sua fronteira com a Índia?</t>
+  </si>
+  <si>
+    <t>O grosso da população vive nas baixadas úmidas ao longo de uma fronteira mal policiada, que é geograficamente indistinguível da planície do Ganges.</t>
+  </si>
+  <si>
+    <t>Por que Bangladesh é descrito como uma "bolha artificial de território" sem defesas geográficas?</t>
+  </si>
+  <si>
+    <t>Porque a mesma paisagem lisa e aquática se apresenta dos dois lados da fronteira com a Índia, e os postos fronteiriços são desorganizados.</t>
+  </si>
+  <si>
+    <t>Quais quatro países disputam ou administram partes do território da Caxemira?</t>
+  </si>
+  <si>
+    <t>Paquistão, Afeganistão, Índia e China.</t>
+  </si>
+  <si>
+    <t>Qual foi a razão da guerra entre China e Índia em 1962 na região da Caxemira?</t>
+  </si>
+  <si>
+    <t>A China queria construir uma estrada de Xinjiang ao Tibete que atravessaria o leste da Caxemira (Aksai Chin).</t>
+  </si>
+  <si>
+    <t>Qual é a condição para a Índia se tornar uma grande potência, em vez de apenas uma potência regional?</t>
+  </si>
+  <si>
+    <t>Ela precisa transcender sua geografia, superando os desafios impostos por suas fronteiras e vizinhos instáveis.</t>
+  </si>
+  <si>
+    <t>Que grupo étnico predomina na Província da Fronteira Noroeste do Paquistão e se estende pelo Afeganistão?</t>
+  </si>
+  <si>
+    <t>Os pachtos.</t>
+  </si>
+  <si>
+    <t>O desenvolvimento da civilização indiana é descrito como inteiramente diverso do europeu e chinês. Qual a principal diferença apontada?</t>
+  </si>
+  <si>
+    <t>A falta de um centro singular de organização demográfica, como os vales do Wei e do Amarelo na China, a partir do qual um corpo político pudesse se irradiar.</t>
+  </si>
+  <si>
+    <t>Qual rio no sul da Índia tem um papel análogo ao do Ganges para os povos de língua hindi, sendo o núcleo da vida dravidiana?</t>
+  </si>
+  <si>
+    <t>O rio Kaveri (especificamente o Delta do Kaveri).</t>
+  </si>
+  <si>
+    <t>Além de ser um subcontinente, o texto argumenta que a Índia também é uma extremidade vital do _____.</t>
+  </si>
+  <si>
+    <t>O Grande Oriente Médio</t>
+  </si>
+  <si>
+    <t>Na Era moderna, qual é a terceira maior população islâmica do mundo?</t>
+  </si>
+  <si>
+    <t>A população muçulmana da Índia, com 154 milhões de pessoas.</t>
+  </si>
+  <si>
+    <t>Qual é a principal diferença filosófica entre o Estado indiano e o Estado paquistanês em relação à diversidade religiosa e étnica?</t>
+  </si>
+  <si>
+    <t>A filosofia do Estado indiano aceita e celebra essa realidade (democracia secular), enquanto a filosofia do Estado paquistanês é muito menos inclusiva (república islâmica).</t>
+  </si>
+  <si>
+    <t>Apesar do Afeganistão ser considerado parte da Ásia Central pelo Ocidente, como os indianos o percebem geograficamente?</t>
+  </si>
+  <si>
+    <t>Para os indianos, o Afeganistão faz parte de seu subcontinente.</t>
+  </si>
+  <si>
+    <t>Qual é o verdadeiro núcleo geográfico da planície norte subcontinental, que se encontra dividido entre Índia e Paquistão?</t>
+  </si>
+  <si>
+    <t>O Punjab</t>
+  </si>
+  <si>
+    <t>Qual organização de inteligência paquistanesa, segundo o texto, está interessada em controlar o sul e o leste do Afeganistão?</t>
+  </si>
+  <si>
+    <t>O Diretório para os Inter-Serviços de Inteligência (ISI).</t>
+  </si>
+  <si>
+    <t>Qual cordilheira é descrita como a "verdadeira fronteira Noroeste do subcontinente" indiano?</t>
+  </si>
+  <si>
+    <t>O Hindu Kush.</t>
+  </si>
+  <si>
+    <t>A expansão do porto marítimo indiano de Karwar foi uma resposta à possibilidade de um centro naval sino-paquistanês em qual localidade?</t>
+  </si>
+  <si>
+    <t>Em Gwadar, no Paquistão, próximo à entrada do Golfo Pérsico.</t>
+  </si>
+  <si>
+    <t>Qual religião se disseminou da Índia para a China na Antiguidade, tornando-se um exemplo de interação produtiva entre as duas civilizações?</t>
+  </si>
+  <si>
+    <t>O budismo.</t>
+  </si>
+  <si>
+    <t>A nova rixa entre Índia e China é uma demonstração da tese de Bracken de que as tecnologias da guerra e a geração de riqueza caminham juntas e que o _____ da Terra é um fator de instabilidade.</t>
+  </si>
+  <si>
+    <t>Tamanho Finito</t>
+  </si>
+  <si>
+    <t>Qual região do norte da Caxemira, administrada pela China e reivindicada pela Índia, foi o local da guerra de 1962?</t>
+  </si>
+  <si>
+    <t>A região de Aksai Chin.</t>
   </si>
 </sst>
 </file>
@@ -489,7 +893,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -508,6 +912,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -813,10 +1220,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D65"/>
+  <dimension ref="A1:D132"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B6" sqref="B5:B6"/>
+    <sheetView tabSelected="1" topLeftCell="A107" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A115" sqref="A115:A132"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1738,6 +2145,944 @@
         <v>2</v>
       </c>
     </row>
+    <row r="66" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="A66" s="3">
+        <v>2</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="A67" s="3">
+        <v>2</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="A68" s="3">
+        <v>2</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="A69" s="3">
+        <v>2</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" ht="58" x14ac:dyDescent="0.35">
+      <c r="A70" s="3">
+        <v>2</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A71" s="3">
+        <v>2</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="A72" s="3">
+        <v>2</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A73" s="3">
+        <v>2</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="A74" s="3">
+        <v>2</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="D74" s="2" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" ht="58" x14ac:dyDescent="0.35">
+      <c r="A75" s="3">
+        <v>2</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="D75" s="2" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A76" s="3">
+        <v>2</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="D76" s="2" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A77" s="3">
+        <v>2</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="D77" s="2" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="A78" s="3">
+        <v>2</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="D78" s="2" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="A79" s="3">
+        <v>2</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="D79" s="2" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="A80" s="3">
+        <v>2</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="D80" s="2" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="A81" s="3">
+        <v>2</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="D81" s="2" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A82" s="3">
+        <v>2</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="D82" s="2" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A83" s="3">
+        <v>2</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="D83" s="2" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="A84" s="3">
+        <v>2</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="D84" s="2" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="A85" s="3">
+        <v>2</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="D85" s="2" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A86" s="3">
+        <v>2</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="D86" s="2" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="A87" s="3">
+        <v>2</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="D87" s="2" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="A88" s="3">
+        <v>2</v>
+      </c>
+      <c r="B88" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="D88" s="2" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="A89" s="3">
+        <v>2</v>
+      </c>
+      <c r="B89" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="D89" s="2" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A90" s="3">
+        <v>2</v>
+      </c>
+      <c r="B90" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="D90" s="2" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="A91" s="3">
+        <v>2</v>
+      </c>
+      <c r="B91" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="D91" s="2" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A92" s="3">
+        <v>2</v>
+      </c>
+      <c r="B92" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="D92" s="2" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="A93" s="3">
+        <v>2</v>
+      </c>
+      <c r="B93" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="D93" s="2" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="A94" s="3">
+        <v>2</v>
+      </c>
+      <c r="B94" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="D94" s="2" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="A95" s="3">
+        <v>2</v>
+      </c>
+      <c r="B95" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="D95" s="2" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A96" s="3">
+        <v>2</v>
+      </c>
+      <c r="B96" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="D96" s="2" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A97" s="3">
+        <v>2</v>
+      </c>
+      <c r="B97" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="D97" s="2" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A98" s="3">
+        <v>2</v>
+      </c>
+      <c r="B98" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="C98" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="D98" s="2" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="A99" s="3">
+        <v>2</v>
+      </c>
+      <c r="B99" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="D99" s="2" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="A100" s="3">
+        <v>2</v>
+      </c>
+      <c r="B100" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="C100" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="D100" s="2" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="A101" s="3">
+        <v>2</v>
+      </c>
+      <c r="B101" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="C101" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="D101" s="2" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="A102" s="3">
+        <v>2</v>
+      </c>
+      <c r="B102" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="C102" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="D102" s="2" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A103" s="3">
+        <v>2</v>
+      </c>
+      <c r="B103" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="C103" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="D103" s="2" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="A104" s="3">
+        <v>2</v>
+      </c>
+      <c r="B104" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="C104" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="D104" s="2" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="A105" s="3">
+        <v>2</v>
+      </c>
+      <c r="B105" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="C105" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="D105" s="2" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A106" s="3">
+        <v>2</v>
+      </c>
+      <c r="B106" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="C106" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="D106" s="2" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A107" s="3">
+        <v>2</v>
+      </c>
+      <c r="B107" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="C107" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="D107" s="2" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A108" s="3">
+        <v>2</v>
+      </c>
+      <c r="B108" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="C108" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="D108" s="2" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="A109" s="3">
+        <v>2</v>
+      </c>
+      <c r="B109" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="C109" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="D109" s="2" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="A110" s="3">
+        <v>2</v>
+      </c>
+      <c r="B110" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="C110" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="D110" s="2" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A111" s="3">
+        <v>2</v>
+      </c>
+      <c r="B111" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="C111" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="D111" s="2" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A112" s="3">
+        <v>2</v>
+      </c>
+      <c r="B112" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="C112" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="D112" s="2" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="A113" s="3">
+        <v>2</v>
+      </c>
+      <c r="B113" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="C113" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="D113" s="2" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="A114" s="3">
+        <v>2</v>
+      </c>
+      <c r="B114" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="C114" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="D114" s="2" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="A115" s="7">
+        <v>2</v>
+      </c>
+      <c r="B115" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="C115" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="D115" s="2" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="A116" s="7">
+        <v>2</v>
+      </c>
+      <c r="B116" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="C116" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="D116" s="2" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="A117" s="7">
+        <v>2</v>
+      </c>
+      <c r="B117" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="C117" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="D117" s="2" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="A118" s="7">
+        <v>2</v>
+      </c>
+      <c r="B118" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="C118" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="D118" s="2" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="A119" s="7">
+        <v>2</v>
+      </c>
+      <c r="B119" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="C119" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="D119" s="2" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A120" s="7">
+        <v>2</v>
+      </c>
+      <c r="B120" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="C120" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="D120" s="2" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A121" s="7">
+        <v>2</v>
+      </c>
+      <c r="B121" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="C121" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="D121" s="2" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="A122" s="7">
+        <v>2</v>
+      </c>
+      <c r="B122" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="C122" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="D122" s="2" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="A123" s="7">
+        <v>2</v>
+      </c>
+      <c r="B123" s="6" t="s">
+        <v>247</v>
+      </c>
+      <c r="C123" s="6" t="s">
+        <v>248</v>
+      </c>
+      <c r="D123" s="2" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A124" s="7">
+        <v>2</v>
+      </c>
+      <c r="B124" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="C124" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="D124" s="2" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A125" s="7">
+        <v>2</v>
+      </c>
+      <c r="B125" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="C125" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="D125" s="2" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A126" s="7">
+        <v>2</v>
+      </c>
+      <c r="B126" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="C126" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="D126" s="2" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A127" s="7">
+        <v>2</v>
+      </c>
+      <c r="B127" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="C127" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="D127" s="2" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="A128" s="7">
+        <v>2</v>
+      </c>
+      <c r="B128" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="C128" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="D128" s="2" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A129" s="7">
+        <v>2</v>
+      </c>
+      <c r="B129" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="C129" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="D129" s="2" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A130" s="7">
+        <v>2</v>
+      </c>
+      <c r="B130" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="C130" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="D130" s="2" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" ht="58" x14ac:dyDescent="0.35">
+      <c r="A131" s="7">
+        <v>2</v>
+      </c>
+      <c r="B131" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="C131" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="D131" s="2" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="A132" s="7">
+        <v>2</v>
+      </c>
+      <c r="B132" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="C132" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="D132" s="2" t="s">
+        <v>133</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/backend/django_cemos2028/apps/perguntas/fixtures/flashcards.xlsx
+++ b/backend/django_cemos2028/apps/perguntas/fixtures/flashcards.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="670" uniqueCount="450">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="751" uniqueCount="505">
   <si>
     <t xml:space="preserve">bibliografia_id</t>
   </si>
@@ -1146,69 +1146,13 @@
     <t xml:space="preserve">Fator Político</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Como </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Maurice Duverger</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve"> define "Política" em termos práticos?</t>
-    </r>
+    <t xml:space="preserve">Como Maurice Duverger define "Política" em termos práticos?</t>
   </si>
   <si>
     <t xml:space="preserve">É a arte de escolher e conquistar objetivos.</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Como </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Maurice Duverger </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">define "Poder" em termos práticos?</t>
-    </r>
+    <t xml:space="preserve">Como Maurice Duverger define "Poder" em termos práticos?</t>
   </si>
   <si>
     <t xml:space="preserve">A existência de meios, de recursos, materiais e psicológicos, a serem empenhados para obter objetivos.</t>
@@ -1428,6 +1372,173 @@
   </si>
   <si>
     <t xml:space="preserve">A civilização muçulmana.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Segundo o texto, quem é reconhecido como o principal inovador dos estudos da ciência histórica?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O italiano Giovanni Vico (1668-1744).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">História Moderna</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Como Vico alterou o método de estudo da História, que antes era predominantemente descritivo e factual?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ele introduziu a análise do ambiente sociológico e o enfoque psicológico dos personagens principais.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">De acordo com o historiador Edmund Wilson, o que Vico foi o primeiro a apreender sobre a história da sociedade humana?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O caráter orgânico da história da sociedade humana e a importância de reintegrar suas diversas forças e fatores.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Complete a citação de Vico: 'Onde quer que as mesmas circunstâncias estejam pre­sentes surgirão os _____ e não quaisquer outros.'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mesmos fenômenos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Segundo o pensamento de Vico, ao que os governos se adaptam necessariamente?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">À natureza dos governados.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Qual princípio essencial fundamenta o pensamento de Giovanni Vico?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O princípio da unidade orgânica da História.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Qual historiador francês, seguidor de Vico, engajou-se na tarefa de escrever a História da Revolução Francesa aplicando seu método?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jules Michelet (1798-1874).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Como a obra de Michelet sobre a Revolução de 1789 é considerada pelos historiadores franceses modernos?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">É consagrada como o mais completo estudo histórico sobre o evento.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Qual é a monumental obra em sete volumes do historiador inglês Arnold Toynbee?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Study of History.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quantas civilizações Arnold Toynbee analisou em sua obra 'Study of History'?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ele analisou a história de 21 civilizações.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Que teoria própria Arnold Toynbee acrescentou ao método interpretativo de Vico em suas pesquisas?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A 'teoria do desafio e da resposta'.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">De acordo com a 'teoria do desafio e da resposta' de Toynbee, o que diferenciou as sociedades vitoriosas das fracassadas?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">As vitoriosas foram capazes de responder ao desafio do meio físico (geografia) e de suas próprias contradições, enquanto as fracassadas não.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Na teoria de Toynbee, qual é o papel da geografia e qual é o papel do homem?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A geografia apresenta os desafios, e cabe ao homem respondê-los e superá-los, ou não respondê-los e ser derrotado.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Que tipo de doutrinas a teoria de Toynbee elimina?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">As doutrinas etnocentristas e geocentristas.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O que as doutrinas etnocentristas e geocentristas negavam às sociedades de raças não brancas ou de certas latitudes?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Negavam a capacidade de virem a criar uma civilização.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Qual critério Toynbee utilizou para definir o escopo de sua pesquisa, que ele apelidou de 'campo inteligível do estudo histórico'?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ele definia um espaço a ser investigado para cada sociedade, estudando-a a partir de suas raízes culturais e étnicas.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Das 21 civilizações que estudou, quais são as cinco sociedades que Toynbee considerou sobreviventes?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A ocidental, a cristã ortodoxa, a islâmica, a hindu e a chinesa.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quais são os três critérios principais do método de investigação histórica de Toynbee?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) Definição de um 'campo inteligível de estudo histórico';
+2) uso da teoria do 'desafio e da resposta';
+3) separação da teologia da política nas avaliações.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Qual o nome da escola historiográfica francesa, seguidora de Michelet, que se reuniu em torno da revista 'Annales'?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Escola de Annales</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quem foram os fundadores da chamada 'escola de Annales' em 1929?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Os historiadores Lucien Febvres e Marc Bloch.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Qual é a característica particular da 'escola de Annales' em relação ao estudo da História?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sua discordância em dar predominância ao fato político, defendendo a abrangência da historiografia a outros campos como geografia, sociologia e economia.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quais dois conceitos de Toynbee foram principalmente contestados por Ortega y Gasset?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O conceito de 'campo inteligível de estudo da História' e a teoria do 'desafio e da resposta'.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Qual foi a refutação de Ortega y Gasset à teoria do 'desafio e da resposta' de Toynbee?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ele argumentou que Toynbee transformou em princípio fenômenos históricos que ocorreram apenas algumas vezes.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">De forma sintetizada, qual foi a crítica de Ortega y Gasset à doutrina de Toynbee?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Considerou que Toynbee metodizou demais uma ciência social que é 'permanente inquietação, surpresa e mudança'.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">De acordo com o texto, quem é considerada a mais bem-sucedida historiadora dos Estados Unidos na atualidade?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Barbara Tuchman.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cite um dos livros de história de grande sucesso de Barbara Tuchman mencionados no texto.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Os Canhões de Agosto, A Marcha da Insensatez, ou Um Espelho Distante.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Segundo Barbara Tuchman, qual é a tarefa do historiador na sociedade moderna?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ser o principal intérprete do papel do homem na sociedade, satisfazendo o interesse público e proporcionando compreensão humana.</t>
   </si>
 </sst>
 </file>
@@ -1437,7 +1548,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1467,12 +1578,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -1536,7 +1641,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1575,6 +1680,10 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
@@ -1773,10 +1882,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D223"/>
+  <dimension ref="A1:D251"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1048553" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A224" activeCellId="0" sqref="A224"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A243" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B250" activeCellId="0" sqref="B250"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4350,7 +4459,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="184" customFormat="false" ht="30.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="184" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A184" s="1" t="n">
         <v>1</v>
       </c>
@@ -4368,24 +4477,24 @@
       <c r="A185" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B185" s="10" t="s">
+      <c r="B185" s="9" t="s">
         <v>371</v>
       </c>
-      <c r="C185" s="10" t="s">
+      <c r="C185" s="9" t="s">
         <v>372</v>
       </c>
       <c r="D185" s="2" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="186" customFormat="false" ht="16.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="186" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A186" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B186" s="10" t="s">
+      <c r="B186" s="9" t="s">
         <v>374</v>
       </c>
-      <c r="C186" s="10" t="s">
+      <c r="C186" s="9" t="s">
         <v>375</v>
       </c>
       <c r="D186" s="2" t="s">
@@ -4396,10 +4505,10 @@
       <c r="A187" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B187" s="10" t="s">
+      <c r="B187" s="9" t="s">
         <v>376</v>
       </c>
-      <c r="C187" s="10" t="s">
+      <c r="C187" s="9" t="s">
         <v>377</v>
       </c>
       <c r="D187" s="2" t="s">
@@ -4410,10 +4519,10 @@
       <c r="A188" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B188" s="10" t="s">
+      <c r="B188" s="9" t="s">
         <v>378</v>
       </c>
-      <c r="C188" s="10" t="s">
+      <c r="C188" s="9" t="s">
         <v>379</v>
       </c>
       <c r="D188" s="2" t="s">
@@ -4424,10 +4533,10 @@
       <c r="A189" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B189" s="10" t="s">
+      <c r="B189" s="9" t="s">
         <v>380</v>
       </c>
-      <c r="C189" s="10" t="s">
+      <c r="C189" s="9" t="s">
         <v>381</v>
       </c>
       <c r="D189" s="2" t="s">
@@ -4438,10 +4547,10 @@
       <c r="A190" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B190" s="10" t="s">
+      <c r="B190" s="9" t="s">
         <v>382</v>
       </c>
-      <c r="C190" s="10" t="s">
+      <c r="C190" s="9" t="s">
         <v>383</v>
       </c>
       <c r="D190" s="2" t="s">
@@ -4452,10 +4561,10 @@
       <c r="A191" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B191" s="10" t="s">
+      <c r="B191" s="9" t="s">
         <v>384</v>
       </c>
-      <c r="C191" s="10" t="s">
+      <c r="C191" s="9" t="s">
         <v>385</v>
       </c>
       <c r="D191" s="2" t="s">
@@ -4466,10 +4575,10 @@
       <c r="A192" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B192" s="10" t="s">
+      <c r="B192" s="9" t="s">
         <v>386</v>
       </c>
-      <c r="C192" s="10" t="s">
+      <c r="C192" s="9" t="s">
         <v>387</v>
       </c>
       <c r="D192" s="2" t="s">
@@ -4480,38 +4589,38 @@
       <c r="A193" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B193" s="10" t="s">
+      <c r="B193" s="9" t="s">
         <v>388</v>
       </c>
-      <c r="C193" s="10" t="s">
+      <c r="C193" s="9" t="s">
         <v>389</v>
       </c>
       <c r="D193" s="2" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="194" customFormat="false" ht="30.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="194" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A194" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B194" s="10" t="s">
+      <c r="B194" s="9" t="s">
         <v>390</v>
       </c>
-      <c r="C194" s="10" t="s">
+      <c r="C194" s="9" t="s">
         <v>391</v>
       </c>
       <c r="D194" s="2" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="195" customFormat="false" ht="30.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="195" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A195" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B195" s="10" t="s">
+      <c r="B195" s="9" t="s">
         <v>392</v>
       </c>
-      <c r="C195" s="10" t="s">
+      <c r="C195" s="9" t="s">
         <v>393</v>
       </c>
       <c r="D195" s="2" t="s">
@@ -4522,10 +4631,10 @@
       <c r="A196" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B196" s="10" t="s">
+      <c r="B196" s="9" t="s">
         <v>394</v>
       </c>
-      <c r="C196" s="10" t="s">
+      <c r="C196" s="9" t="s">
         <v>395</v>
       </c>
       <c r="D196" s="2" t="s">
@@ -4536,10 +4645,10 @@
       <c r="A197" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B197" s="10" t="s">
+      <c r="B197" s="9" t="s">
         <v>396</v>
       </c>
-      <c r="C197" s="10" t="s">
+      <c r="C197" s="9" t="s">
         <v>397</v>
       </c>
       <c r="D197" s="2" t="s">
@@ -4550,24 +4659,24 @@
       <c r="A198" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B198" s="10" t="s">
+      <c r="B198" s="9" t="s">
         <v>398</v>
       </c>
-      <c r="C198" s="10" t="s">
+      <c r="C198" s="9" t="s">
         <v>399</v>
       </c>
       <c r="D198" s="2" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="199" customFormat="false" ht="30.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="199" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A199" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B199" s="10" t="s">
+      <c r="B199" s="9" t="s">
         <v>400</v>
       </c>
-      <c r="C199" s="10" t="s">
+      <c r="C199" s="9" t="s">
         <v>401</v>
       </c>
       <c r="D199" s="2" t="s">
@@ -4578,24 +4687,24 @@
       <c r="A200" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B200" s="10" t="s">
+      <c r="B200" s="9" t="s">
         <v>402</v>
       </c>
-      <c r="C200" s="10" t="s">
+      <c r="C200" s="9" t="s">
         <v>403</v>
       </c>
       <c r="D200" s="2" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="201" customFormat="false" ht="30.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="201" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A201" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B201" s="10" t="s">
+      <c r="B201" s="9" t="s">
         <v>404</v>
       </c>
-      <c r="C201" s="10" t="s">
+      <c r="C201" s="9" t="s">
         <v>405</v>
       </c>
       <c r="D201" s="2" t="s">
@@ -4606,10 +4715,10 @@
       <c r="A202" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B202" s="10" t="s">
+      <c r="B202" s="9" t="s">
         <v>406</v>
       </c>
-      <c r="C202" s="10" t="s">
+      <c r="C202" s="9" t="s">
         <v>407</v>
       </c>
       <c r="D202" s="2" t="s">
@@ -4620,10 +4729,10 @@
       <c r="A203" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B203" s="10" t="s">
+      <c r="B203" s="9" t="s">
         <v>408</v>
       </c>
-      <c r="C203" s="10" t="s">
+      <c r="C203" s="9" t="s">
         <v>409</v>
       </c>
       <c r="D203" s="2" t="s">
@@ -4634,10 +4743,10 @@
       <c r="A204" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B204" s="10" t="s">
+      <c r="B204" s="9" t="s">
         <v>410</v>
       </c>
-      <c r="C204" s="10" t="s">
+      <c r="C204" s="9" t="s">
         <v>411</v>
       </c>
       <c r="D204" s="2" t="s">
@@ -4648,10 +4757,10 @@
       <c r="A205" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B205" s="10" t="s">
+      <c r="B205" s="9" t="s">
         <v>412</v>
       </c>
-      <c r="C205" s="10" t="s">
+      <c r="C205" s="9" t="s">
         <v>413</v>
       </c>
       <c r="D205" s="2" t="s">
@@ -4662,10 +4771,10 @@
       <c r="A206" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B206" s="10" t="s">
+      <c r="B206" s="9" t="s">
         <v>414</v>
       </c>
-      <c r="C206" s="10" t="s">
+      <c r="C206" s="9" t="s">
         <v>415</v>
       </c>
       <c r="D206" s="2" t="s">
@@ -4676,10 +4785,10 @@
       <c r="A207" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B207" s="10" t="s">
+      <c r="B207" s="9" t="s">
         <v>416</v>
       </c>
-      <c r="C207" s="10" t="s">
+      <c r="C207" s="9" t="s">
         <v>417</v>
       </c>
       <c r="D207" s="2" t="s">
@@ -4690,10 +4799,10 @@
       <c r="A208" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B208" s="10" t="s">
+      <c r="B208" s="9" t="s">
         <v>418</v>
       </c>
-      <c r="C208" s="10" t="s">
+      <c r="C208" s="9" t="s">
         <v>419</v>
       </c>
       <c r="D208" s="2" t="s">
@@ -4704,10 +4813,10 @@
       <c r="A209" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B209" s="10" t="s">
+      <c r="B209" s="9" t="s">
         <v>420</v>
       </c>
-      <c r="C209" s="10" t="s">
+      <c r="C209" s="9" t="s">
         <v>421</v>
       </c>
       <c r="D209" s="2" t="s">
@@ -4718,10 +4827,10 @@
       <c r="A210" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B210" s="10" t="s">
+      <c r="B210" s="9" t="s">
         <v>422</v>
       </c>
-      <c r="C210" s="10" t="s">
+      <c r="C210" s="9" t="s">
         <v>423</v>
       </c>
       <c r="D210" s="2" t="s">
@@ -4732,10 +4841,10 @@
       <c r="A211" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B211" s="10" t="s">
+      <c r="B211" s="9" t="s">
         <v>424</v>
       </c>
-      <c r="C211" s="10" t="s">
+      <c r="C211" s="9" t="s">
         <v>425</v>
       </c>
       <c r="D211" s="2" t="s">
@@ -4746,10 +4855,10 @@
       <c r="A212" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B212" s="10" t="s">
+      <c r="B212" s="9" t="s">
         <v>426</v>
       </c>
-      <c r="C212" s="10" t="s">
+      <c r="C212" s="9" t="s">
         <v>427</v>
       </c>
       <c r="D212" s="2" t="s">
@@ -4760,10 +4869,10 @@
       <c r="A213" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B213" s="10" t="s">
+      <c r="B213" s="9" t="s">
         <v>428</v>
       </c>
-      <c r="C213" s="10" t="s">
+      <c r="C213" s="9" t="s">
         <v>429</v>
       </c>
       <c r="D213" s="2" t="s">
@@ -4774,10 +4883,10 @@
       <c r="A214" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B214" s="10" t="s">
+      <c r="B214" s="9" t="s">
         <v>430</v>
       </c>
-      <c r="C214" s="10" t="s">
+      <c r="C214" s="9" t="s">
         <v>431</v>
       </c>
       <c r="D214" s="2" t="s">
@@ -4788,10 +4897,10 @@
       <c r="A215" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B215" s="10" t="s">
+      <c r="B215" s="9" t="s">
         <v>432</v>
       </c>
-      <c r="C215" s="10" t="s">
+      <c r="C215" s="9" t="s">
         <v>433</v>
       </c>
       <c r="D215" s="2" t="s">
@@ -4802,10 +4911,10 @@
       <c r="A216" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B216" s="10" t="s">
+      <c r="B216" s="9" t="s">
         <v>434</v>
       </c>
-      <c r="C216" s="10" t="s">
+      <c r="C216" s="9" t="s">
         <v>435</v>
       </c>
       <c r="D216" s="2" t="s">
@@ -4816,10 +4925,10 @@
       <c r="A217" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B217" s="10" t="s">
+      <c r="B217" s="9" t="s">
         <v>436</v>
       </c>
-      <c r="C217" s="10" t="s">
+      <c r="C217" s="9" t="s">
         <v>437</v>
       </c>
       <c r="D217" s="2" t="s">
@@ -4830,10 +4939,10 @@
       <c r="A218" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B218" s="10" t="s">
+      <c r="B218" s="9" t="s">
         <v>438</v>
       </c>
-      <c r="C218" s="10" t="s">
+      <c r="C218" s="9" t="s">
         <v>439</v>
       </c>
       <c r="D218" s="2" t="s">
@@ -4844,10 +4953,10 @@
       <c r="A219" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B219" s="10" t="s">
+      <c r="B219" s="9" t="s">
         <v>440</v>
       </c>
-      <c r="C219" s="10" t="s">
+      <c r="C219" s="9" t="s">
         <v>441</v>
       </c>
       <c r="D219" s="2" t="s">
@@ -4858,10 +4967,10 @@
       <c r="A220" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B220" s="10" t="s">
+      <c r="B220" s="9" t="s">
         <v>442</v>
       </c>
-      <c r="C220" s="10" t="s">
+      <c r="C220" s="9" t="s">
         <v>443</v>
       </c>
       <c r="D220" s="2" t="s">
@@ -4872,10 +4981,10 @@
       <c r="A221" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B221" s="10" t="s">
+      <c r="B221" s="9" t="s">
         <v>444</v>
       </c>
-      <c r="C221" s="10" t="s">
+      <c r="C221" s="9" t="s">
         <v>445</v>
       </c>
       <c r="D221" s="2" t="s">
@@ -4886,10 +4995,10 @@
       <c r="A222" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B222" s="10" t="s">
+      <c r="B222" s="9" t="s">
         <v>446</v>
       </c>
-      <c r="C222" s="10" t="s">
+      <c r="C222" s="9" t="s">
         <v>447</v>
       </c>
       <c r="D222" s="2" t="s">
@@ -4900,14 +5009,397 @@
       <c r="A223" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B223" s="10" t="s">
+      <c r="B223" s="9" t="s">
         <v>448</v>
       </c>
-      <c r="C223" s="10" t="s">
+      <c r="C223" s="9" t="s">
         <v>449</v>
       </c>
       <c r="D223" s="2" t="s">
         <v>373</v>
+      </c>
+    </row>
+    <row r="224" customFormat="false" ht="30.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A224" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B224" s="10" t="s">
+        <v>450</v>
+      </c>
+      <c r="C224" s="10" t="s">
+        <v>451</v>
+      </c>
+      <c r="D224" s="2" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="225" customFormat="false" ht="30.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A225" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B225" s="11" t="s">
+        <v>453</v>
+      </c>
+      <c r="C225" s="11" t="s">
+        <v>454</v>
+      </c>
+      <c r="D225" s="2" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="226" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A226" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B226" s="11" t="s">
+        <v>455</v>
+      </c>
+      <c r="C226" s="11" t="s">
+        <v>456</v>
+      </c>
+      <c r="D226" s="2" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="227" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A227" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B227" s="11" t="s">
+        <v>457</v>
+      </c>
+      <c r="C227" s="11" t="s">
+        <v>458</v>
+      </c>
+      <c r="D227" s="2" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="228" customFormat="false" ht="30.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A228" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B228" s="10" t="s">
+        <v>459</v>
+      </c>
+      <c r="C228" s="11" t="s">
+        <v>460</v>
+      </c>
+      <c r="D228" s="2" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="229" customFormat="false" ht="30.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A229" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B229" s="11" t="s">
+        <v>461</v>
+      </c>
+      <c r="C229" s="11" t="s">
+        <v>462</v>
+      </c>
+      <c r="D229" s="2" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="230" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A230" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B230" s="11" t="s">
+        <v>463</v>
+      </c>
+      <c r="C230" s="11" t="s">
+        <v>464</v>
+      </c>
+      <c r="D230" s="2" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="231" customFormat="false" ht="30.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A231" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B231" s="11" t="s">
+        <v>465</v>
+      </c>
+      <c r="C231" s="11" t="s">
+        <v>466</v>
+      </c>
+      <c r="D231" s="2" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="232" customFormat="false" ht="30.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A232" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B232" s="11" t="s">
+        <v>467</v>
+      </c>
+      <c r="C232" s="11" t="s">
+        <v>468</v>
+      </c>
+      <c r="D232" s="2" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="233" customFormat="false" ht="30.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A233" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B233" s="11" t="s">
+        <v>469</v>
+      </c>
+      <c r="C233" s="11" t="s">
+        <v>470</v>
+      </c>
+      <c r="D233" s="2" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="234" customFormat="false" ht="30.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A234" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B234" s="11" t="s">
+        <v>471</v>
+      </c>
+      <c r="C234" s="11" t="s">
+        <v>472</v>
+      </c>
+      <c r="D234" s="2" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="235" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A235" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B235" s="11" t="s">
+        <v>473</v>
+      </c>
+      <c r="C235" s="11" t="s">
+        <v>474</v>
+      </c>
+      <c r="D235" s="2" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="236" customFormat="false" ht="30.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A236" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B236" s="11" t="s">
+        <v>475</v>
+      </c>
+      <c r="C236" s="11" t="s">
+        <v>476</v>
+      </c>
+      <c r="D236" s="2" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="237" customFormat="false" ht="30.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A237" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B237" s="11" t="s">
+        <v>477</v>
+      </c>
+      <c r="C237" s="11" t="s">
+        <v>478</v>
+      </c>
+      <c r="D237" s="2" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="238" customFormat="false" ht="30.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A238" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B238" s="11" t="s">
+        <v>479</v>
+      </c>
+      <c r="C238" s="11" t="s">
+        <v>480</v>
+      </c>
+      <c r="D238" s="2" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="239" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A239" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B239" s="11" t="s">
+        <v>481</v>
+      </c>
+      <c r="C239" s="11" t="s">
+        <v>482</v>
+      </c>
+      <c r="D239" s="2" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="240" customFormat="false" ht="30.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A240" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B240" s="11" t="s">
+        <v>483</v>
+      </c>
+      <c r="C240" s="11" t="s">
+        <v>484</v>
+      </c>
+      <c r="D240" s="2" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="241" customFormat="false" ht="45.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A241" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B241" s="11" t="s">
+        <v>485</v>
+      </c>
+      <c r="C241" s="11" t="s">
+        <v>486</v>
+      </c>
+      <c r="D241" s="2" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="242" customFormat="false" ht="30.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A242" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B242" s="11" t="s">
+        <v>487</v>
+      </c>
+      <c r="C242" s="2" t="s">
+        <v>488</v>
+      </c>
+      <c r="D242" s="2" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="243" customFormat="false" ht="30.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A243" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B243" s="11" t="s">
+        <v>489</v>
+      </c>
+      <c r="C243" s="11" t="s">
+        <v>490</v>
+      </c>
+      <c r="D243" s="2" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="244" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A244" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B244" s="11" t="s">
+        <v>491</v>
+      </c>
+      <c r="C244" s="11" t="s">
+        <v>492</v>
+      </c>
+      <c r="D244" s="2" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="245" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A245" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B245" s="11" t="s">
+        <v>493</v>
+      </c>
+      <c r="C245" s="11" t="s">
+        <v>494</v>
+      </c>
+      <c r="D245" s="2" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="246" customFormat="false" ht="30.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A246" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B246" s="11" t="s">
+        <v>495</v>
+      </c>
+      <c r="C246" s="11" t="s">
+        <v>496</v>
+      </c>
+      <c r="D246" s="2" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="247" customFormat="false" ht="30.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A247" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B247" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="C247" s="11" t="s">
+        <v>498</v>
+      </c>
+      <c r="D247" s="2" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="248" customFormat="false" ht="30.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A248" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B248" s="11" t="s">
+        <v>499</v>
+      </c>
+      <c r="C248" s="11" t="s">
+        <v>500</v>
+      </c>
+      <c r="D248" s="2" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="249" customFormat="false" ht="30.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A249" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B249" s="11" t="s">
+        <v>501</v>
+      </c>
+      <c r="C249" s="11" t="s">
+        <v>502</v>
+      </c>
+      <c r="D249" s="2" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="250" customFormat="false" ht="30.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A250" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B250" s="11" t="s">
+        <v>503</v>
+      </c>
+      <c r="C250" s="11" t="s">
+        <v>504</v>
+      </c>
+      <c r="D250" s="2" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="251" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A251" s="1" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/backend/django_cemos2028/apps/perguntas/fixtures/flashcards.xlsx
+++ b/backend/django_cemos2028/apps/perguntas/fixtures/flashcards.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="751" uniqueCount="505">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="827" uniqueCount="557">
   <si>
     <t xml:space="preserve">bibliografia_id</t>
   </si>
@@ -31,9 +31,40 @@
     <t xml:space="preserve">resposta</t>
   </si>
   <si>
+    <t xml:space="preserve">prova</t>
+  </si>
+  <si>
     <t xml:space="preserve">assunto</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Em 1991, quando a URSS foi desmantelada. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Que zona geopolitica relevante deveria ser retomado pela Rússia segundo Gennady Zyganov, da “velha guarda” soviética, entusiasta do pensamento neo-mackindeirano?</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Heartland.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rússia</t>
+  </si>
+  <si>
     <t xml:space="preserve">Qual referência perturbadora Mackinder faz à China no final de seu artigo “The Geographical Pivot of History”?</t>
   </si>
   <si>
@@ -275,6 +306,12 @@
   </si>
   <si>
     <t xml:space="preserve">Sugere uma asserção do direito do país à soberania sobre as águas circundantes, ao estilo da Doutrina Monroe, indo além da mera dissuasão.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">“Os chineses estão construindo uma base naval no extremo sul da ilha de Hainan (…). ” Os planos da China para o Mar da China Meridional, nas últimas décadas, descrevem a construção de que tipo de Marinha?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Uma Marinha de Águas Azuis.</t>
   </si>
   <si>
     <t xml:space="preserve">Por que a Oceania, especialmente Guam, está ganhando importância estratégica para os Estados Unidos?</t>
@@ -1008,6 +1045,12 @@
     <t xml:space="preserve">Karl von Haushofer.</t>
   </si>
   <si>
+    <t xml:space="preserve">O imperialismo da Alemanha de Hitler buscou, nos  estudos acadêmicos do Instituto de Geopolítica de Munique, um endosso científico para as suas teses expansionistas. O pensamento geopolítico de (1)_____ é uma combinação das teses de Kjellen, Mackinder e Mahan. Visualiza o planeta dividido em quatro grandes regiões naturais, cada uma submetida a um (2)_____.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Karl von Haushofer. Estado Diretor</t>
+  </si>
+  <si>
     <t xml:space="preserve">O que Karl von Haushofer criou na Universidade de Munique que empolgou Hitler e os líderes nazistas?</t>
   </si>
   <si>
@@ -1539,6 +1582,138 @@
   </si>
   <si>
     <t xml:space="preserve">Ser o principal intérprete do papel do homem na sociedade, satisfazendo o interesse público e proporcionando compreensão humana.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Qual dos três principais ramos da Geopolítica foi o que recebeu o maior impacto modificador da modernidade?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O ramo geográfico.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Geopolítica na Modernidade</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quais são os três principais ramos de conhecimento que compõem a Geopolítica?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O geográfico, o político e o histórico.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quais três áreas tecnológicas favoreceram enormemente o uso do meio geográfico pelo homem no último século?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Engenharia de transportes, telecomunicações e informática.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Qual foi o principal efeito dos avanços tecnológicos sobre as distâncias e a informação em escala planetária?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">As distâncias se encurtaram e a informação visual e sonora tornou-se quase instantânea.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Além da via horizontal, qual nova via de exploração do espaço geográfico foi aberta pelos meios eletrônicos?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A via vertical, por onde transitam mensagens e imagens.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quais são os dois fatores principais considerados na utilização política do meio geográfico?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sua extensão e sua posição.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O valor da extensão de um território tem um peso político de natureza _____.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">quantitativo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O peso político quantitativo da extensão de um território é determinado pela _____ e _____ que pode abrigar.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">população, riquezas naturais</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O valor da posição de um território tem um peso político de natureza _____.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">qualitativo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Por que fator a localização geodésica de um território é importante para seu peso qualitativo?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Porque determina as condições climáticas.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cite três características que definem o peso qualitativo da posição de um território.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sua localização geodésica, a natureza do solo, sua característica de maritimidade ou continentalidade, ou sua localização relativa a outros centros de poder.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Qual dos elementos do binômio espaço-tempo foi mais intensamente atingido pela tecnologia moderna?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tempo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O que a tecnologia moderna fez com o fator tempo, segundo o texto?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Volatizou o fator tempo.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Que filósofo é citado pela sua afirmação: "O espaço é concreto, o tempo não"?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Descartes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Que pensador, impressionado com a fugacidade do tempo, abordou suas três divisões no livro "As Confissões"?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Santo Agostinho.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Qual filósofo mais recente, citado no texto, considerou a relatividade do tempo?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Einstein</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Qual dos fatores do binômio espaço-tempo tem se apresentado como o mais estável?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Espaço</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cite quatro inovações tecnológicas do século XX mencionadas no texto que não existiam no século XIX.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O avião, os satélites, o rádio, a televisão (ou eletrônica, fax, informática, energia nuclear).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Como o homem "tecnotrônico" moderno invade o espaço de todos os quadrantes do planeta?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Através dos modernos meios de comunicação, com suas mensagens faladas e escritas.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Qual historiador francês é mencionado como uma contribuição para o pensamento geopolítico moderno?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lucien Febvres.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Qual historiadora norte-americana é citada por seu estilo modernizante que enriqueceu a História na Geopolítica?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Qual é a conclusão sobre o estado dos três ramos científicos da Geopolítica após a "batalha da modernidade"?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Todos saíram enriquecidos, assegurando a plena vitalidade da Geopolítica.</t>
   </si>
 </sst>
 </file>
@@ -1548,7 +1723,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1578,6 +1753,25 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -1641,7 +1835,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="17">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1670,7 +1864,19 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1682,8 +1888,16 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
@@ -1882,19 +2096,19 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D251"/>
+  <dimension ref="A1:E277"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A243" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B250" activeCellId="0" sqref="B250"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A157" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B14" activeCellId="0" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="28.18"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="8.1"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="52.73"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="65.63"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="2" width="14.91"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="3" width="16.9"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="4" style="2" width="14.91"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="3" width="16.9"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1907,22 +2121,28 @@
       <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E1" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="60.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="2" t="s">
+      <c r="B2" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="C2" s="8" t="s">
         <v>6</v>
+      </c>
+      <c r="D2" s="2" t="n">
+        <v>2024</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1930,27 +2150,27 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>9</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>6</v>
+        <v>12</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1958,13 +2178,13 @@
         <v>2</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>6</v>
+        <v>14</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1972,13 +2192,13 @@
         <v>2</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>6</v>
+        <v>16</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1986,13 +2206,13 @@
         <v>2</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>6</v>
+        <v>18</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2000,125 +2220,128 @@
         <v>2</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>20</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>22</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>24</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>26</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B12" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>6</v>
+      <c r="B12" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B13" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>6</v>
+      <c r="B13" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D13" s="9"/>
+      <c r="E13" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B14" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>6</v>
+      <c r="B14" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="D14" s="9"/>
+      <c r="E14" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B15" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B15" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="D15" s="9"/>
+      <c r="E15" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>6</v>
+        <v>36</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2126,13 +2349,13 @@
         <v>2</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>6</v>
+        <v>38</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2140,41 +2363,41 @@
         <v>2</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>40</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>42</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>6</v>
+        <v>44</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2182,13 +2405,13 @@
         <v>2</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>6</v>
+        <v>46</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2196,13 +2419,13 @@
         <v>2</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>6</v>
+        <v>48</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2210,13 +2433,13 @@
         <v>2</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>6</v>
+        <v>50</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2224,13 +2447,13 @@
         <v>2</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>6</v>
+        <v>52</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2238,41 +2461,41 @@
         <v>2</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>54</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>56</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>6</v>
+        <v>58</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2280,41 +2503,41 @@
         <v>2</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>60</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>62</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>6</v>
+        <v>64</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2322,13 +2545,13 @@
         <v>2</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>6</v>
+        <v>66</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2336,13 +2559,13 @@
         <v>2</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>6</v>
+        <v>68</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2350,13 +2573,13 @@
         <v>2</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>6</v>
+        <v>70</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2364,27 +2587,27 @@
         <v>2</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="35" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>72</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>6</v>
+        <v>74</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2392,13 +2615,13 @@
         <v>2</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>6</v>
+        <v>76</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2406,27 +2629,27 @@
         <v>2</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="38" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>78</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>6</v>
+        <v>80</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2434,13 +2657,13 @@
         <v>2</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>6</v>
+        <v>82</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2448,13 +2671,13 @@
         <v>2</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>6</v>
+        <v>84</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2462,69 +2685,72 @@
         <v>2</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="42" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>86</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="45.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="D42" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="43" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>88</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="60.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B43" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="D43" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="44" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B43" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="C43" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="D43" s="2" t="n">
+        <v>2024</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="D44" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="45" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>92</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="D45" s="1" t="s">
-        <v>6</v>
+        <v>94</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2532,27 +2758,27 @@
         <v>2</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="D46" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="47" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>96</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="D47" s="1" t="s">
-        <v>6</v>
+        <v>98</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2560,13 +2786,13 @@
         <v>2</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="D48" s="1" t="s">
-        <v>6</v>
+        <v>100</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2574,27 +2800,27 @@
         <v>2</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="D49" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="50" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>102</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="D50" s="1" t="s">
-        <v>6</v>
+        <v>104</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2602,13 +2828,13 @@
         <v>2</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="D51" s="1" t="s">
-        <v>6</v>
+        <v>106</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2616,27 +2842,27 @@
         <v>2</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="D52" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="53" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>108</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="D53" s="1" t="s">
-        <v>6</v>
+        <v>110</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2644,13 +2870,13 @@
         <v>2</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="D54" s="1" t="s">
-        <v>6</v>
+        <v>112</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2658,27 +2884,27 @@
         <v>2</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="D55" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="56" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>114</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="D56" s="1" t="s">
-        <v>6</v>
+        <v>116</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2686,13 +2912,13 @@
         <v>2</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="D57" s="1" t="s">
-        <v>6</v>
+        <v>118</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2700,27 +2926,27 @@
         <v>2</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="D58" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="59" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>120</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="D59" s="1" t="s">
-        <v>6</v>
+        <v>122</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2728,13 +2954,13 @@
         <v>2</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="D60" s="1" t="s">
-        <v>6</v>
+        <v>124</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2742,27 +2968,27 @@
         <v>2</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="D61" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="62" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>126</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="D62" s="1" t="s">
-        <v>6</v>
+        <v>128</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2770,55 +2996,55 @@
         <v>2</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="D63" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="64" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>130</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="D64" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="65" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>132</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="D65" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="66" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>134</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="D66" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2826,13 +3052,13 @@
         <v>2</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="D67" s="2" t="s">
-        <v>134</v>
+        <v>138</v>
+      </c>
+      <c r="E67" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2840,13 +3066,13 @@
         <v>2</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="D68" s="2" t="s">
-        <v>134</v>
+        <v>140</v>
+      </c>
+      <c r="E68" s="2" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2854,55 +3080,55 @@
         <v>2</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="D69" s="2" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="70" customFormat="false" ht="61.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>142</v>
+      </c>
+      <c r="E69" s="2" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="D70" s="2" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="71" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>144</v>
+      </c>
+      <c r="E70" s="2" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="D71" s="2" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="72" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>146</v>
+      </c>
+      <c r="E71" s="2" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="61.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="D72" s="2" t="s">
-        <v>134</v>
+        <v>148</v>
+      </c>
+      <c r="E72" s="2" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2910,13 +3136,13 @@
         <v>2</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="D73" s="2" t="s">
-        <v>134</v>
+        <v>150</v>
+      </c>
+      <c r="E73" s="2" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2924,83 +3150,83 @@
         <v>2</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="D74" s="2" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="75" customFormat="false" ht="61.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>152</v>
+      </c>
+      <c r="E74" s="2" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="D75" s="2" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="76" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>154</v>
+      </c>
+      <c r="E75" s="2" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="D76" s="2" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="77" customFormat="false" ht="76.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>156</v>
+      </c>
+      <c r="E76" s="2" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="77" customFormat="false" ht="61.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="D77" s="2" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="78" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>158</v>
+      </c>
+      <c r="E77" s="2" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="78" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="D78" s="2" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="79" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>160</v>
+      </c>
+      <c r="E78" s="2" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="79" customFormat="false" ht="76.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="D79" s="2" t="s">
-        <v>134</v>
+        <v>162</v>
+      </c>
+      <c r="E79" s="2" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3008,13 +3234,13 @@
         <v>2</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="D80" s="2" t="s">
-        <v>134</v>
+        <v>164</v>
+      </c>
+      <c r="E80" s="2" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3022,83 +3248,83 @@
         <v>2</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="D81" s="2" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="82" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>166</v>
+      </c>
+      <c r="E81" s="2" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="82" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="D82" s="2" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="83" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>168</v>
+      </c>
+      <c r="E82" s="2" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="83" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="D83" s="2" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="84" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>170</v>
+      </c>
+      <c r="E83" s="2" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="84" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="D84" s="2" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="85" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>172</v>
+      </c>
+      <c r="E84" s="2" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="85" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="D85" s="2" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="86" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>174</v>
+      </c>
+      <c r="E85" s="2" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="86" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="D86" s="2" t="s">
-        <v>134</v>
+        <v>176</v>
+      </c>
+      <c r="E86" s="2" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3106,27 +3332,27 @@
         <v>2</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="D87" s="2" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="88" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>178</v>
+      </c>
+      <c r="E87" s="2" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="88" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="D88" s="2" t="s">
-        <v>134</v>
+        <v>180</v>
+      </c>
+      <c r="E88" s="2" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3134,27 +3360,27 @@
         <v>2</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="D89" s="2" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="90" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>182</v>
+      </c>
+      <c r="E89" s="2" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="90" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="D90" s="2" t="s">
-        <v>134</v>
+        <v>184</v>
+      </c>
+      <c r="E90" s="2" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3162,13 +3388,13 @@
         <v>2</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="D91" s="2" t="s">
-        <v>134</v>
+        <v>186</v>
+      </c>
+      <c r="E91" s="2" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3176,13 +3402,13 @@
         <v>2</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="D92" s="2" t="s">
-        <v>134</v>
+        <v>188</v>
+      </c>
+      <c r="E92" s="2" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3190,27 +3416,27 @@
         <v>2</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="D93" s="2" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="94" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>190</v>
+      </c>
+      <c r="E93" s="2" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="94" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="D94" s="2" t="s">
-        <v>134</v>
+        <v>192</v>
+      </c>
+      <c r="E94" s="2" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3218,41 +3444,41 @@
         <v>2</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="D95" s="2" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="96" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>194</v>
+      </c>
+      <c r="E95" s="2" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="96" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="D96" s="2" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="97" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>196</v>
+      </c>
+      <c r="E96" s="2" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="97" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="D97" s="2" t="s">
-        <v>134</v>
+        <v>198</v>
+      </c>
+      <c r="E97" s="2" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3260,41 +3486,41 @@
         <v>2</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="D98" s="2" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="99" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>200</v>
+      </c>
+      <c r="E98" s="2" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="99" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="D99" s="2" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="100" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>202</v>
+      </c>
+      <c r="E99" s="2" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="100" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="D100" s="2" t="s">
-        <v>134</v>
+        <v>204</v>
+      </c>
+      <c r="E100" s="2" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3302,13 +3528,13 @@
         <v>2</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="D101" s="2" t="s">
-        <v>134</v>
+        <v>206</v>
+      </c>
+      <c r="E101" s="2" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3316,27 +3542,27 @@
         <v>2</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="D102" s="2" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="103" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>208</v>
+      </c>
+      <c r="E102" s="2" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="103" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="D103" s="2" t="s">
-        <v>134</v>
+        <v>210</v>
+      </c>
+      <c r="E103" s="2" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3344,55 +3570,55 @@
         <v>2</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>210</v>
-      </c>
-      <c r="D104" s="2" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="105" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>212</v>
+      </c>
+      <c r="E104" s="2" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="105" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="D105" s="2" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="106" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>214</v>
+      </c>
+      <c r="E105" s="2" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="106" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="D106" s="2" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="107" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>216</v>
+      </c>
+      <c r="E106" s="2" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="107" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="D107" s="2" t="s">
-        <v>134</v>
+        <v>218</v>
+      </c>
+      <c r="E107" s="2" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3400,83 +3626,83 @@
         <v>2</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="D108" s="2" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="109" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>220</v>
+      </c>
+      <c r="E108" s="2" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="109" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="D109" s="2" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="110" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>222</v>
+      </c>
+      <c r="E109" s="2" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="110" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="D110" s="2" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="111" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>224</v>
+      </c>
+      <c r="E110" s="2" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="111" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>224</v>
-      </c>
-      <c r="D111" s="2" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="112" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>226</v>
+      </c>
+      <c r="E111" s="2" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="112" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="D112" s="2" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="113" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>228</v>
+      </c>
+      <c r="E112" s="2" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="113" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="D113" s="2" t="s">
-        <v>134</v>
+        <v>230</v>
+      </c>
+      <c r="E113" s="2" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3484,1921 +3710,2409 @@
         <v>2</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>230</v>
-      </c>
-      <c r="D114" s="2" t="s">
-        <v>134</v>
+        <v>232</v>
+      </c>
+      <c r="E114" s="2" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A115" s="8" t="n">
+      <c r="A115" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="D115" s="2" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="116" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A116" s="8" t="n">
+        <v>234</v>
+      </c>
+      <c r="E115" s="2" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="116" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A116" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="D116" s="2" t="s">
-        <v>134</v>
+        <v>236</v>
+      </c>
+      <c r="E116" s="2" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A117" s="8" t="n">
+      <c r="A117" s="11" t="n">
         <v>2</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>236</v>
-      </c>
-      <c r="D117" s="2" t="s">
-        <v>134</v>
+        <v>238</v>
+      </c>
+      <c r="E117" s="2" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A118" s="8" t="n">
+      <c r="A118" s="11" t="n">
         <v>2</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>238</v>
-      </c>
-      <c r="D118" s="2" t="s">
-        <v>134</v>
+        <v>240</v>
+      </c>
+      <c r="E118" s="2" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A119" s="8" t="n">
+      <c r="A119" s="11" t="n">
         <v>2</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>240</v>
-      </c>
-      <c r="D119" s="2" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="120" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A120" s="8" t="n">
+        <v>242</v>
+      </c>
+      <c r="E119" s="2" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="120" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A120" s="11" t="n">
         <v>2</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>242</v>
-      </c>
-      <c r="D120" s="2" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="121" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A121" s="8" t="n">
+        <v>244</v>
+      </c>
+      <c r="E120" s="2" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="121" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A121" s="11" t="n">
         <v>2</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>244</v>
-      </c>
-      <c r="D121" s="2" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="122" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A122" s="8" t="n">
+        <v>246</v>
+      </c>
+      <c r="E121" s="2" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="122" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A122" s="11" t="n">
         <v>2</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>246</v>
-      </c>
-      <c r="D122" s="2" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="123" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A123" s="8" t="n">
-        <v>2</v>
-      </c>
-      <c r="B123" s="7" t="s">
-        <v>247</v>
-      </c>
-      <c r="C123" s="7" t="s">
         <v>248</v>
       </c>
-      <c r="D123" s="2" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="124" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A124" s="8" t="n">
+      <c r="E122" s="2" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="123" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A123" s="11" t="n">
+        <v>2</v>
+      </c>
+      <c r="B123" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="C123" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="E123" s="2" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="124" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A124" s="11" t="n">
         <v>2</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>250</v>
-      </c>
-      <c r="D124" s="2" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="125" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A125" s="8" t="n">
-        <v>2</v>
-      </c>
-      <c r="B125" s="2" t="s">
-        <v>251</v>
-      </c>
-      <c r="C125" s="2" t="s">
         <v>252</v>
       </c>
-      <c r="D125" s="2" t="s">
-        <v>134</v>
+      <c r="E124" s="2" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="125" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A125" s="11" t="n">
+        <v>2</v>
+      </c>
+      <c r="B125" s="9" t="s">
+        <v>253</v>
+      </c>
+      <c r="C125" s="9" t="s">
+        <v>254</v>
+      </c>
+      <c r="D125" s="9"/>
+      <c r="E125" s="2" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A126" s="8" t="n">
+      <c r="A126" s="11" t="n">
         <v>2</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>254</v>
-      </c>
-      <c r="D126" s="2" t="s">
-        <v>134</v>
+        <v>256</v>
+      </c>
+      <c r="E126" s="2" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A127" s="8" t="n">
+      <c r="A127" s="11" t="n">
         <v>2</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>256</v>
-      </c>
-      <c r="D127" s="2" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="128" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A128" s="8" t="n">
+        <v>258</v>
+      </c>
+      <c r="E127" s="2" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="128" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A128" s="11" t="n">
         <v>2</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>258</v>
-      </c>
-      <c r="D128" s="2" t="s">
-        <v>134</v>
+        <v>260</v>
+      </c>
+      <c r="E128" s="2" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A129" s="8" t="n">
+      <c r="A129" s="11" t="n">
         <v>2</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>260</v>
-      </c>
-      <c r="D129" s="2" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="130" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A130" s="8" t="n">
+        <v>262</v>
+      </c>
+      <c r="E129" s="2" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="130" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A130" s="11" t="n">
         <v>2</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>262</v>
-      </c>
-      <c r="D130" s="2" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="131" customFormat="false" ht="61.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A131" s="8" t="n">
+        <v>264</v>
+      </c>
+      <c r="E130" s="2" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="131" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A131" s="11" t="n">
         <v>2</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>264</v>
-      </c>
-      <c r="D131" s="2" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="132" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A132" s="8" t="n">
+        <v>266</v>
+      </c>
+      <c r="E131" s="2" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="132" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A132" s="11" t="n">
         <v>2</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>266</v>
-      </c>
-      <c r="D132" s="2" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="133" customFormat="false" ht="30.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A133" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B133" s="9" t="s">
-        <v>267</v>
-      </c>
-      <c r="C133" s="9" t="s">
         <v>268</v>
       </c>
-      <c r="D133" s="2" t="s">
+      <c r="E132" s="2" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="133" customFormat="false" ht="61.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A133" s="11" t="n">
+        <v>2</v>
+      </c>
+      <c r="B133" s="2" t="s">
         <v>269</v>
       </c>
-    </row>
-    <row r="134" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A134" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B134" s="9" t="s">
+      <c r="C133" s="2" t="s">
         <v>270</v>
       </c>
-      <c r="C134" s="9" t="s">
+      <c r="E133" s="2" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="134" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A134" s="11" t="n">
+        <v>2</v>
+      </c>
+      <c r="B134" s="2" t="s">
         <v>271</v>
       </c>
-      <c r="D134" s="2" t="s">
-        <v>269</v>
+      <c r="C134" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="E134" s="2" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="30.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B135" s="9" t="s">
-        <v>272</v>
-      </c>
-      <c r="C135" s="9" t="s">
+      <c r="B135" s="12" t="s">
         <v>273</v>
       </c>
-      <c r="D135" s="2" t="s">
-        <v>269</v>
+      <c r="C135" s="12" t="s">
+        <v>274</v>
+      </c>
+      <c r="D135" s="12"/>
+      <c r="E135" s="2" t="s">
+        <v>275</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B136" s="9" t="s">
-        <v>274</v>
-      </c>
-      <c r="C136" s="9" t="s">
+      <c r="B136" s="12" t="s">
+        <v>276</v>
+      </c>
+      <c r="C136" s="12" t="s">
+        <v>277</v>
+      </c>
+      <c r="D136" s="12"/>
+      <c r="E136" s="2" t="s">
         <v>275</v>
       </c>
-      <c r="D136" s="2" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="137" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="137" customFormat="false" ht="30.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B137" s="9" t="s">
-        <v>276</v>
-      </c>
-      <c r="C137" s="2" t="s">
-        <v>277</v>
-      </c>
-      <c r="D137" s="2" t="s">
-        <v>269</v>
+      <c r="B137" s="12" t="s">
+        <v>278</v>
+      </c>
+      <c r="C137" s="12" t="s">
+        <v>279</v>
+      </c>
+      <c r="D137" s="12"/>
+      <c r="E137" s="2" t="s">
+        <v>275</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B138" s="9" t="s">
-        <v>278</v>
-      </c>
-      <c r="C138" s="2" t="s">
-        <v>279</v>
-      </c>
-      <c r="D138" s="2" t="s">
-        <v>269</v>
+      <c r="B138" s="12" t="s">
+        <v>280</v>
+      </c>
+      <c r="C138" s="12" t="s">
+        <v>281</v>
+      </c>
+      <c r="D138" s="12"/>
+      <c r="E138" s="2" t="s">
+        <v>275</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B139" s="9" t="s">
-        <v>280</v>
+      <c r="B139" s="12" t="s">
+        <v>282</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>281</v>
-      </c>
-      <c r="D139" s="2" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="140" customFormat="false" ht="30.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>283</v>
+      </c>
+      <c r="E139" s="2" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="140" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B140" s="9" t="s">
-        <v>282</v>
+      <c r="B140" s="12" t="s">
+        <v>284</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>283</v>
-      </c>
-      <c r="D140" s="2" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="141" customFormat="false" ht="30.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>285</v>
+      </c>
+      <c r="E140" s="2" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="141" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B141" s="2" t="s">
-        <v>284</v>
-      </c>
-      <c r="C141" s="9" t="s">
-        <v>285</v>
-      </c>
-      <c r="D141" s="2" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="142" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B141" s="12" t="s">
+        <v>286</v>
+      </c>
+      <c r="C141" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="E141" s="2" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="142" customFormat="false" ht="30.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B142" s="9" t="s">
-        <v>286</v>
-      </c>
-      <c r="C142" s="9" t="s">
-        <v>287</v>
-      </c>
-      <c r="D142" s="2" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="143" customFormat="false" ht="45.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B142" s="12" t="s">
+        <v>288</v>
+      </c>
+      <c r="C142" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="E142" s="2" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="143" customFormat="false" ht="30.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>288</v>
-      </c>
-      <c r="C143" s="9" t="s">
-        <v>289</v>
-      </c>
-      <c r="D143" s="2" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="144" customFormat="false" ht="45.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>290</v>
+      </c>
+      <c r="C143" s="12" t="s">
+        <v>291</v>
+      </c>
+      <c r="D143" s="12"/>
+      <c r="E143" s="2" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="144" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B144" s="2" t="s">
-        <v>290</v>
-      </c>
-      <c r="C144" s="9" t="s">
-        <v>291</v>
-      </c>
-      <c r="D144" s="2" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="145" customFormat="false" ht="30.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B144" s="12" t="s">
+        <v>292</v>
+      </c>
+      <c r="C144" s="12" t="s">
+        <v>293</v>
+      </c>
+      <c r="D144" s="12"/>
+      <c r="E144" s="2" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="145" customFormat="false" ht="45.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B145" s="9" t="s">
-        <v>292</v>
-      </c>
-      <c r="C145" s="9" t="s">
-        <v>293</v>
-      </c>
-      <c r="D145" s="2" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="146" customFormat="false" ht="30.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B145" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="C145" s="12" t="s">
+        <v>295</v>
+      </c>
+      <c r="D145" s="12"/>
+      <c r="E145" s="2" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="146" customFormat="false" ht="45.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B146" s="9" t="s">
-        <v>294</v>
-      </c>
-      <c r="C146" s="9" t="s">
-        <v>295</v>
-      </c>
-      <c r="D146" s="2" t="s">
-        <v>269</v>
+      <c r="B146" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="C146" s="12" t="s">
+        <v>297</v>
+      </c>
+      <c r="D146" s="12"/>
+      <c r="E146" s="2" t="s">
+        <v>275</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="30.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B147" s="9" t="s">
-        <v>296</v>
-      </c>
-      <c r="C147" s="9" t="s">
-        <v>297</v>
-      </c>
-      <c r="D147" s="2" t="s">
-        <v>269</v>
+      <c r="B147" s="12" t="s">
+        <v>298</v>
+      </c>
+      <c r="C147" s="12" t="s">
+        <v>299</v>
+      </c>
+      <c r="D147" s="12"/>
+      <c r="E147" s="2" t="s">
+        <v>275</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="30.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B148" s="9" t="s">
-        <v>298</v>
-      </c>
-      <c r="C148" s="9" t="s">
-        <v>299</v>
-      </c>
-      <c r="D148" s="2" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="149" customFormat="false" ht="45.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B148" s="12" t="s">
+        <v>300</v>
+      </c>
+      <c r="C148" s="12" t="s">
+        <v>301</v>
+      </c>
+      <c r="D148" s="12"/>
+      <c r="E148" s="2" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="149" customFormat="false" ht="30.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B149" s="2" t="s">
-        <v>300</v>
-      </c>
-      <c r="C149" s="9" t="s">
-        <v>301</v>
-      </c>
-      <c r="D149" s="2" t="s">
-        <v>269</v>
+      <c r="B149" s="12" t="s">
+        <v>302</v>
+      </c>
+      <c r="C149" s="12" t="s">
+        <v>303</v>
+      </c>
+      <c r="D149" s="12"/>
+      <c r="E149" s="2" t="s">
+        <v>275</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="30.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B150" s="2" t="s">
-        <v>302</v>
-      </c>
-      <c r="C150" s="9" t="s">
-        <v>303</v>
-      </c>
-      <c r="D150" s="2" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="151" customFormat="false" ht="30.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B150" s="12" t="s">
+        <v>304</v>
+      </c>
+      <c r="C150" s="12" t="s">
+        <v>305</v>
+      </c>
+      <c r="D150" s="12"/>
+      <c r="E150" s="2" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="151" customFormat="false" ht="45.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B151" s="9" t="s">
-        <v>304</v>
-      </c>
-      <c r="C151" s="9" t="s">
-        <v>305</v>
-      </c>
-      <c r="D151" s="2" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="152" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B151" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="C151" s="12" t="s">
+        <v>307</v>
+      </c>
+      <c r="D151" s="12"/>
+      <c r="E151" s="2" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="152" customFormat="false" ht="30.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B152" s="9" t="s">
-        <v>306</v>
-      </c>
-      <c r="C152" s="9" t="s">
-        <v>307</v>
-      </c>
-      <c r="D152" s="2" t="s">
-        <v>269</v>
+      <c r="B152" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="C152" s="12" t="s">
+        <v>309</v>
+      </c>
+      <c r="D152" s="12"/>
+      <c r="E152" s="2" t="s">
+        <v>275</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="30.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B153" s="9" t="s">
-        <v>308</v>
-      </c>
-      <c r="C153" s="9" t="s">
-        <v>309</v>
-      </c>
-      <c r="D153" s="2" t="s">
-        <v>269</v>
+      <c r="B153" s="12" t="s">
+        <v>310</v>
+      </c>
+      <c r="C153" s="12" t="s">
+        <v>311</v>
+      </c>
+      <c r="D153" s="12"/>
+      <c r="E153" s="2" t="s">
+        <v>275</v>
       </c>
     </row>
     <row r="154" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B154" s="9" t="s">
-        <v>310</v>
-      </c>
-      <c r="C154" s="9" t="s">
-        <v>311</v>
-      </c>
-      <c r="D154" s="2" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="155" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B154" s="12" t="s">
+        <v>312</v>
+      </c>
+      <c r="C154" s="12" t="s">
+        <v>313</v>
+      </c>
+      <c r="D154" s="12"/>
+      <c r="E154" s="2" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="155" customFormat="false" ht="30.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B155" s="9" t="s">
-        <v>312</v>
-      </c>
-      <c r="C155" s="9" t="s">
-        <v>313</v>
-      </c>
-      <c r="D155" s="2" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="156" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B155" s="12" t="s">
+        <v>314</v>
+      </c>
+      <c r="C155" s="12" t="s">
+        <v>315</v>
+      </c>
+      <c r="D155" s="12"/>
+      <c r="E155" s="2" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="156" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B156" s="9" t="s">
-        <v>314</v>
-      </c>
-      <c r="C156" s="9" t="s">
-        <v>315</v>
-      </c>
-      <c r="D156" s="2" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="157" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B156" s="12" t="s">
+        <v>316</v>
+      </c>
+      <c r="C156" s="12" t="s">
+        <v>317</v>
+      </c>
+      <c r="D156" s="12"/>
+      <c r="E156" s="2" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="157" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B157" s="9" t="s">
-        <v>316</v>
-      </c>
-      <c r="C157" s="9" t="s">
-        <v>317</v>
-      </c>
-      <c r="D157" s="2" t="s">
-        <v>269</v>
+      <c r="B157" s="12" t="s">
+        <v>318</v>
+      </c>
+      <c r="C157" s="12" t="s">
+        <v>319</v>
+      </c>
+      <c r="D157" s="12"/>
+      <c r="E157" s="2" t="s">
+        <v>275</v>
       </c>
     </row>
     <row r="158" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B158" s="9" t="s">
-        <v>318</v>
-      </c>
-      <c r="C158" s="9" t="s">
-        <v>319</v>
-      </c>
-      <c r="D158" s="2" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="159" customFormat="false" ht="45.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B158" s="12" t="s">
+        <v>320</v>
+      </c>
+      <c r="C158" s="12" t="s">
+        <v>321</v>
+      </c>
+      <c r="D158" s="12"/>
+      <c r="E158" s="2" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="159" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B159" s="2" t="s">
-        <v>320</v>
-      </c>
-      <c r="C159" s="2" t="s">
-        <v>321</v>
-      </c>
-      <c r="D159" s="2" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="160" customFormat="false" ht="45.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B159" s="12" t="s">
+        <v>322</v>
+      </c>
+      <c r="C159" s="12" t="s">
+        <v>323</v>
+      </c>
+      <c r="D159" s="12"/>
+      <c r="E159" s="2" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="160" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B160" s="2" t="s">
-        <v>322</v>
-      </c>
-      <c r="C160" s="9" t="s">
-        <v>323</v>
-      </c>
-      <c r="D160" s="2" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="161" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B160" s="12" t="s">
+        <v>324</v>
+      </c>
+      <c r="C160" s="12" t="s">
+        <v>325</v>
+      </c>
+      <c r="D160" s="12"/>
+      <c r="E160" s="2" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="161" customFormat="false" ht="45.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B161" s="9" t="s">
-        <v>324</v>
-      </c>
-      <c r="C161" s="9" t="s">
-        <v>325</v>
-      </c>
-      <c r="D161" s="2" t="s">
-        <v>269</v>
+      <c r="B161" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="C161" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="E161" s="2" t="s">
+        <v>275</v>
       </c>
     </row>
     <row r="162" customFormat="false" ht="45.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B162" s="9" t="s">
-        <v>326</v>
-      </c>
-      <c r="C162" s="9" t="s">
-        <v>327</v>
-      </c>
-      <c r="D162" s="2" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="163" customFormat="false" ht="30.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B162" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="C162" s="12" t="s">
+        <v>329</v>
+      </c>
+      <c r="D162" s="12"/>
+      <c r="E162" s="2" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="163" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B163" s="9" t="s">
-        <v>328</v>
-      </c>
-      <c r="C163" s="9" t="s">
-        <v>329</v>
-      </c>
-      <c r="D163" s="2" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="164" customFormat="false" ht="30.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B163" s="12" t="s">
+        <v>330</v>
+      </c>
+      <c r="C163" s="12" t="s">
+        <v>331</v>
+      </c>
+      <c r="D163" s="12"/>
+      <c r="E163" s="2" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="164" customFormat="false" ht="50.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B164" s="9" t="s">
-        <v>330</v>
-      </c>
-      <c r="C164" s="9" t="s">
-        <v>331</v>
-      </c>
-      <c r="D164" s="2" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="165" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B164" s="13" t="s">
+        <v>332</v>
+      </c>
+      <c r="C164" s="12" t="s">
+        <v>333</v>
+      </c>
+      <c r="D164" s="12"/>
+      <c r="E164" s="2" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="165" customFormat="false" ht="115.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B165" s="9" t="s">
-        <v>332</v>
-      </c>
-      <c r="C165" s="9" t="s">
-        <v>333</v>
-      </c>
-      <c r="D165" s="2" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="166" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B165" s="13" t="s">
+        <v>334</v>
+      </c>
+      <c r="C165" s="14" t="s">
+        <v>335</v>
+      </c>
+      <c r="D165" s="15" t="n">
+        <v>2024</v>
+      </c>
+      <c r="E165" s="2" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="166" customFormat="false" ht="30.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B166" s="9" t="s">
-        <v>334</v>
-      </c>
-      <c r="C166" s="9" t="s">
-        <v>335</v>
-      </c>
-      <c r="D166" s="2" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="167" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B166" s="12" t="s">
+        <v>336</v>
+      </c>
+      <c r="C166" s="12" t="s">
+        <v>337</v>
+      </c>
+      <c r="D166" s="12"/>
+      <c r="E166" s="2" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="167" customFormat="false" ht="30.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B167" s="9" t="s">
-        <v>336</v>
-      </c>
-      <c r="C167" s="9" t="s">
-        <v>337</v>
-      </c>
-      <c r="D167" s="2" t="s">
-        <v>269</v>
+      <c r="B167" s="12" t="s">
+        <v>338</v>
+      </c>
+      <c r="C167" s="12" t="s">
+        <v>339</v>
+      </c>
+      <c r="D167" s="12"/>
+      <c r="E167" s="2" t="s">
+        <v>275</v>
       </c>
     </row>
     <row r="168" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B168" s="9" t="s">
-        <v>338</v>
-      </c>
-      <c r="C168" s="9" t="s">
-        <v>339</v>
-      </c>
-      <c r="D168" s="2" t="s">
-        <v>269</v>
+      <c r="B168" s="12" t="s">
+        <v>340</v>
+      </c>
+      <c r="C168" s="12" t="s">
+        <v>341</v>
+      </c>
+      <c r="D168" s="12"/>
+      <c r="E168" s="2" t="s">
+        <v>275</v>
       </c>
     </row>
     <row r="169" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B169" s="9" t="s">
-        <v>340</v>
-      </c>
-      <c r="C169" s="9" t="s">
-        <v>341</v>
-      </c>
-      <c r="D169" s="2" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="170" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B169" s="12" t="s">
+        <v>342</v>
+      </c>
+      <c r="C169" s="12" t="s">
+        <v>343</v>
+      </c>
+      <c r="D169" s="12"/>
+      <c r="E169" s="2" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="170" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B170" s="9" t="s">
-        <v>342</v>
-      </c>
-      <c r="C170" s="9" t="s">
-        <v>343</v>
-      </c>
-      <c r="D170" s="2" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="171" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B170" s="12" t="s">
+        <v>344</v>
+      </c>
+      <c r="C170" s="12" t="s">
+        <v>345</v>
+      </c>
+      <c r="D170" s="12"/>
+      <c r="E170" s="2" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="171" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A171" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B171" s="9" t="s">
-        <v>344</v>
-      </c>
-      <c r="C171" s="9" t="s">
-        <v>345</v>
-      </c>
-      <c r="D171" s="2" t="s">
-        <v>269</v>
+      <c r="B171" s="12" t="s">
+        <v>346</v>
+      </c>
+      <c r="C171" s="12" t="s">
+        <v>347</v>
+      </c>
+      <c r="D171" s="12"/>
+      <c r="E171" s="2" t="s">
+        <v>275</v>
       </c>
     </row>
     <row r="172" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A172" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B172" s="9" t="s">
-        <v>346</v>
-      </c>
-      <c r="C172" s="9" t="s">
-        <v>347</v>
-      </c>
-      <c r="D172" s="2" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="173" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B172" s="12" t="s">
+        <v>348</v>
+      </c>
+      <c r="C172" s="12" t="s">
+        <v>349</v>
+      </c>
+      <c r="D172" s="12"/>
+      <c r="E172" s="2" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="173" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B173" s="9" t="s">
-        <v>348</v>
-      </c>
-      <c r="C173" s="9" t="s">
-        <v>349</v>
-      </c>
-      <c r="D173" s="2" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="174" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B173" s="12" t="s">
+        <v>350</v>
+      </c>
+      <c r="C173" s="12" t="s">
+        <v>351</v>
+      </c>
+      <c r="D173" s="12"/>
+      <c r="E173" s="2" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="174" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B174" s="9" t="s">
-        <v>350</v>
-      </c>
-      <c r="C174" s="9" t="s">
-        <v>351</v>
-      </c>
-      <c r="D174" s="2" t="s">
-        <v>269</v>
+      <c r="B174" s="12" t="s">
+        <v>352</v>
+      </c>
+      <c r="C174" s="12" t="s">
+        <v>353</v>
+      </c>
+      <c r="D174" s="12"/>
+      <c r="E174" s="2" t="s">
+        <v>275</v>
       </c>
     </row>
     <row r="175" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A175" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B175" s="9" t="s">
-        <v>352</v>
-      </c>
-      <c r="C175" s="9" t="s">
-        <v>353</v>
-      </c>
-      <c r="D175" s="2" t="s">
-        <v>269</v>
+      <c r="B175" s="12" t="s">
+        <v>354</v>
+      </c>
+      <c r="C175" s="12" t="s">
+        <v>355</v>
+      </c>
+      <c r="D175" s="12"/>
+      <c r="E175" s="2" t="s">
+        <v>275</v>
       </c>
     </row>
     <row r="176" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A176" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B176" s="9" t="s">
-        <v>354</v>
-      </c>
-      <c r="C176" s="9" t="s">
-        <v>355</v>
-      </c>
-      <c r="D176" s="2" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="177" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B176" s="12" t="s">
+        <v>356</v>
+      </c>
+      <c r="C176" s="12" t="s">
+        <v>357</v>
+      </c>
+      <c r="D176" s="12"/>
+      <c r="E176" s="2" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="177" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A177" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B177" s="9" t="s">
-        <v>356</v>
-      </c>
-      <c r="C177" s="9" t="s">
-        <v>357</v>
-      </c>
-      <c r="D177" s="2" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="178" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B177" s="12" t="s">
+        <v>358</v>
+      </c>
+      <c r="C177" s="12" t="s">
+        <v>359</v>
+      </c>
+      <c r="D177" s="12"/>
+      <c r="E177" s="2" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="178" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A178" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B178" s="9" t="s">
-        <v>358</v>
-      </c>
-      <c r="C178" s="9" t="s">
-        <v>359</v>
-      </c>
-      <c r="D178" s="2" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="179" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B178" s="12" t="s">
+        <v>360</v>
+      </c>
+      <c r="C178" s="12" t="s">
+        <v>361</v>
+      </c>
+      <c r="D178" s="12"/>
+      <c r="E178" s="2" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="179" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A179" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B179" s="9" t="s">
-        <v>360</v>
-      </c>
-      <c r="C179" s="9" t="s">
-        <v>333</v>
-      </c>
-      <c r="D179" s="2" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="180" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B179" s="12" t="s">
+        <v>362</v>
+      </c>
+      <c r="C179" s="12" t="s">
+        <v>363</v>
+      </c>
+      <c r="D179" s="12"/>
+      <c r="E179" s="2" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="180" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A180" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B180" s="9" t="s">
-        <v>361</v>
-      </c>
-      <c r="C180" s="9" t="s">
-        <v>362</v>
-      </c>
-      <c r="D180" s="2" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="181" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B180" s="12" t="s">
+        <v>364</v>
+      </c>
+      <c r="C180" s="12" t="s">
+        <v>365</v>
+      </c>
+      <c r="D180" s="12"/>
+      <c r="E180" s="2" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="181" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A181" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B181" s="9" t="s">
-        <v>363</v>
-      </c>
-      <c r="C181" s="9" t="s">
-        <v>364</v>
-      </c>
-      <c r="D181" s="2" t="s">
-        <v>269</v>
+      <c r="B181" s="12" t="s">
+        <v>366</v>
+      </c>
+      <c r="C181" s="12" t="s">
+        <v>367</v>
+      </c>
+      <c r="D181" s="12"/>
+      <c r="E181" s="2" t="s">
+        <v>275</v>
       </c>
     </row>
     <row r="182" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A182" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B182" s="9" t="s">
-        <v>365</v>
-      </c>
-      <c r="C182" s="9" t="s">
-        <v>366</v>
-      </c>
-      <c r="D182" s="2" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="183" customFormat="false" ht="45.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B182" s="12" t="s">
+        <v>368</v>
+      </c>
+      <c r="C182" s="12" t="s">
+        <v>341</v>
+      </c>
+      <c r="D182" s="12"/>
+      <c r="E182" s="2" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="183" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A183" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B183" s="9" t="s">
-        <v>367</v>
-      </c>
-      <c r="C183" s="9" t="s">
-        <v>368</v>
-      </c>
-      <c r="D183" s="2" t="s">
-        <v>269</v>
+      <c r="B183" s="12" t="s">
+        <v>369</v>
+      </c>
+      <c r="C183" s="12" t="s">
+        <v>370</v>
+      </c>
+      <c r="D183" s="12"/>
+      <c r="E183" s="2" t="s">
+        <v>275</v>
       </c>
     </row>
     <row r="184" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A184" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B184" s="9" t="s">
-        <v>369</v>
-      </c>
-      <c r="C184" s="9" t="s">
-        <v>370</v>
-      </c>
-      <c r="D184" s="2" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="185" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B184" s="12" t="s">
+        <v>371</v>
+      </c>
+      <c r="C184" s="12" t="s">
+        <v>372</v>
+      </c>
+      <c r="D184" s="12"/>
+      <c r="E184" s="2" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="185" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A185" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B185" s="9" t="s">
-        <v>371</v>
-      </c>
-      <c r="C185" s="9" t="s">
-        <v>372</v>
-      </c>
-      <c r="D185" s="2" t="s">
+      <c r="B185" s="12" t="s">
         <v>373</v>
       </c>
-    </row>
-    <row r="186" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C185" s="12" t="s">
+        <v>374</v>
+      </c>
+      <c r="D185" s="12"/>
+      <c r="E185" s="2" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="186" customFormat="false" ht="45.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A186" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B186" s="9" t="s">
-        <v>374</v>
-      </c>
-      <c r="C186" s="9" t="s">
+      <c r="B186" s="12" t="s">
         <v>375</v>
       </c>
-      <c r="D186" s="2" t="s">
-        <v>373</v>
+      <c r="C186" s="12" t="s">
+        <v>376</v>
+      </c>
+      <c r="D186" s="12"/>
+      <c r="E186" s="2" t="s">
+        <v>275</v>
       </c>
     </row>
     <row r="187" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A187" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B187" s="9" t="s">
-        <v>376</v>
-      </c>
-      <c r="C187" s="9" t="s">
+      <c r="B187" s="12" t="s">
         <v>377</v>
       </c>
-      <c r="D187" s="2" t="s">
-        <v>373</v>
+      <c r="C187" s="12" t="s">
+        <v>378</v>
+      </c>
+      <c r="D187" s="12"/>
+      <c r="E187" s="2" t="s">
+        <v>275</v>
       </c>
     </row>
     <row r="188" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A188" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B188" s="9" t="s">
-        <v>378</v>
-      </c>
-      <c r="C188" s="9" t="s">
+      <c r="B188" s="12" t="s">
         <v>379</v>
       </c>
-      <c r="D188" s="2" t="s">
-        <v>373</v>
+      <c r="C188" s="12" t="s">
+        <v>380</v>
+      </c>
+      <c r="D188" s="12"/>
+      <c r="E188" s="2" t="s">
+        <v>381</v>
       </c>
     </row>
     <row r="189" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A189" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B189" s="9" t="s">
-        <v>380</v>
-      </c>
-      <c r="C189" s="9" t="s">
+      <c r="B189" s="12" t="s">
+        <v>382</v>
+      </c>
+      <c r="C189" s="12" t="s">
+        <v>383</v>
+      </c>
+      <c r="D189" s="12"/>
+      <c r="E189" s="2" t="s">
         <v>381</v>
-      </c>
-      <c r="D189" s="2" t="s">
-        <v>373</v>
       </c>
     </row>
     <row r="190" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A190" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B190" s="9" t="s">
-        <v>382</v>
-      </c>
-      <c r="C190" s="9" t="s">
-        <v>383</v>
-      </c>
-      <c r="D190" s="2" t="s">
-        <v>373</v>
+      <c r="B190" s="12" t="s">
+        <v>384</v>
+      </c>
+      <c r="C190" s="12" t="s">
+        <v>385</v>
+      </c>
+      <c r="D190" s="12"/>
+      <c r="E190" s="2" t="s">
+        <v>381</v>
       </c>
     </row>
     <row r="191" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A191" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B191" s="9" t="s">
-        <v>384</v>
-      </c>
-      <c r="C191" s="9" t="s">
-        <v>385</v>
-      </c>
-      <c r="D191" s="2" t="s">
-        <v>373</v>
+      <c r="B191" s="12" t="s">
+        <v>386</v>
+      </c>
+      <c r="C191" s="12" t="s">
+        <v>387</v>
+      </c>
+      <c r="D191" s="12"/>
+      <c r="E191" s="2" t="s">
+        <v>381</v>
       </c>
     </row>
     <row r="192" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A192" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B192" s="9" t="s">
-        <v>386</v>
-      </c>
-      <c r="C192" s="9" t="s">
-        <v>387</v>
-      </c>
-      <c r="D192" s="2" t="s">
-        <v>373</v>
+      <c r="B192" s="12" t="s">
+        <v>388</v>
+      </c>
+      <c r="C192" s="12" t="s">
+        <v>389</v>
+      </c>
+      <c r="D192" s="12"/>
+      <c r="E192" s="2" t="s">
+        <v>381</v>
       </c>
     </row>
     <row r="193" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A193" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B193" s="9" t="s">
-        <v>388</v>
-      </c>
-      <c r="C193" s="9" t="s">
-        <v>389</v>
-      </c>
-      <c r="D193" s="2" t="s">
-        <v>373</v>
+      <c r="B193" s="12" t="s">
+        <v>390</v>
+      </c>
+      <c r="C193" s="12" t="s">
+        <v>391</v>
+      </c>
+      <c r="D193" s="12"/>
+      <c r="E193" s="2" t="s">
+        <v>381</v>
       </c>
     </row>
     <row r="194" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A194" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B194" s="9" t="s">
-        <v>390</v>
-      </c>
-      <c r="C194" s="9" t="s">
-        <v>391</v>
-      </c>
-      <c r="D194" s="2" t="s">
-        <v>373</v>
+      <c r="B194" s="12" t="s">
+        <v>392</v>
+      </c>
+      <c r="C194" s="12" t="s">
+        <v>393</v>
+      </c>
+      <c r="D194" s="12"/>
+      <c r="E194" s="2" t="s">
+        <v>381</v>
       </c>
     </row>
     <row r="195" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A195" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B195" s="9" t="s">
-        <v>392</v>
-      </c>
-      <c r="C195" s="9" t="s">
-        <v>393</v>
-      </c>
-      <c r="D195" s="2" t="s">
-        <v>373</v>
+      <c r="B195" s="12" t="s">
+        <v>394</v>
+      </c>
+      <c r="C195" s="12" t="s">
+        <v>395</v>
+      </c>
+      <c r="D195" s="12"/>
+      <c r="E195" s="2" t="s">
+        <v>381</v>
       </c>
     </row>
     <row r="196" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A196" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B196" s="9" t="s">
-        <v>394</v>
-      </c>
-      <c r="C196" s="9" t="s">
-        <v>395</v>
-      </c>
-      <c r="D196" s="2" t="s">
-        <v>373</v>
+      <c r="B196" s="12" t="s">
+        <v>396</v>
+      </c>
+      <c r="C196" s="12" t="s">
+        <v>397</v>
+      </c>
+      <c r="D196" s="12"/>
+      <c r="E196" s="2" t="s">
+        <v>381</v>
       </c>
     </row>
     <row r="197" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A197" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B197" s="9" t="s">
-        <v>396</v>
-      </c>
-      <c r="C197" s="9" t="s">
-        <v>397</v>
-      </c>
-      <c r="D197" s="2" t="s">
-        <v>373</v>
+      <c r="B197" s="12" t="s">
+        <v>398</v>
+      </c>
+      <c r="C197" s="12" t="s">
+        <v>399</v>
+      </c>
+      <c r="D197" s="12"/>
+      <c r="E197" s="2" t="s">
+        <v>381</v>
       </c>
     </row>
     <row r="198" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A198" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B198" s="9" t="s">
-        <v>398</v>
-      </c>
-      <c r="C198" s="9" t="s">
-        <v>399</v>
-      </c>
-      <c r="D198" s="2" t="s">
-        <v>373</v>
+      <c r="B198" s="12" t="s">
+        <v>400</v>
+      </c>
+      <c r="C198" s="12" t="s">
+        <v>401</v>
+      </c>
+      <c r="D198" s="12"/>
+      <c r="E198" s="2" t="s">
+        <v>381</v>
       </c>
     </row>
     <row r="199" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A199" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B199" s="9" t="s">
-        <v>400</v>
-      </c>
-      <c r="C199" s="9" t="s">
-        <v>401</v>
-      </c>
-      <c r="D199" s="2" t="s">
-        <v>373</v>
+      <c r="B199" s="12" t="s">
+        <v>402</v>
+      </c>
+      <c r="C199" s="12" t="s">
+        <v>403</v>
+      </c>
+      <c r="D199" s="12"/>
+      <c r="E199" s="2" t="s">
+        <v>381</v>
       </c>
     </row>
     <row r="200" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A200" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B200" s="9" t="s">
-        <v>402</v>
-      </c>
-      <c r="C200" s="9" t="s">
-        <v>403</v>
-      </c>
-      <c r="D200" s="2" t="s">
-        <v>373</v>
+      <c r="B200" s="12" t="s">
+        <v>404</v>
+      </c>
+      <c r="C200" s="12" t="s">
+        <v>405</v>
+      </c>
+      <c r="D200" s="12"/>
+      <c r="E200" s="2" t="s">
+        <v>381</v>
       </c>
     </row>
     <row r="201" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A201" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B201" s="9" t="s">
-        <v>404</v>
-      </c>
-      <c r="C201" s="9" t="s">
-        <v>405</v>
-      </c>
-      <c r="D201" s="2" t="s">
-        <v>373</v>
+      <c r="B201" s="12" t="s">
+        <v>406</v>
+      </c>
+      <c r="C201" s="12" t="s">
+        <v>407</v>
+      </c>
+      <c r="D201" s="12"/>
+      <c r="E201" s="2" t="s">
+        <v>381</v>
       </c>
     </row>
     <row r="202" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A202" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B202" s="9" t="s">
-        <v>406</v>
-      </c>
-      <c r="C202" s="9" t="s">
-        <v>407</v>
-      </c>
-      <c r="D202" s="2" t="s">
-        <v>373</v>
+      <c r="B202" s="12" t="s">
+        <v>408</v>
+      </c>
+      <c r="C202" s="12" t="s">
+        <v>409</v>
+      </c>
+      <c r="D202" s="12"/>
+      <c r="E202" s="2" t="s">
+        <v>381</v>
       </c>
     </row>
     <row r="203" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A203" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B203" s="9" t="s">
-        <v>408</v>
-      </c>
-      <c r="C203" s="9" t="s">
-        <v>409</v>
-      </c>
-      <c r="D203" s="2" t="s">
-        <v>373</v>
+      <c r="B203" s="12" t="s">
+        <v>410</v>
+      </c>
+      <c r="C203" s="12" t="s">
+        <v>411</v>
+      </c>
+      <c r="D203" s="12"/>
+      <c r="E203" s="2" t="s">
+        <v>381</v>
       </c>
     </row>
     <row r="204" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A204" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B204" s="9" t="s">
-        <v>410</v>
-      </c>
-      <c r="C204" s="9" t="s">
-        <v>411</v>
-      </c>
-      <c r="D204" s="2" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="205" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B204" s="12" t="s">
+        <v>412</v>
+      </c>
+      <c r="C204" s="12" t="s">
+        <v>413</v>
+      </c>
+      <c r="D204" s="12"/>
+      <c r="E204" s="2" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="205" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A205" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B205" s="9" t="s">
-        <v>412</v>
-      </c>
-      <c r="C205" s="9" t="s">
-        <v>413</v>
-      </c>
-      <c r="D205" s="2" t="s">
-        <v>373</v>
+      <c r="B205" s="12" t="s">
+        <v>414</v>
+      </c>
+      <c r="C205" s="12" t="s">
+        <v>415</v>
+      </c>
+      <c r="D205" s="12"/>
+      <c r="E205" s="2" t="s">
+        <v>381</v>
       </c>
     </row>
     <row r="206" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A206" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B206" s="9" t="s">
-        <v>414</v>
-      </c>
-      <c r="C206" s="9" t="s">
-        <v>415</v>
-      </c>
-      <c r="D206" s="2" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="207" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B206" s="12" t="s">
+        <v>416</v>
+      </c>
+      <c r="C206" s="12" t="s">
+        <v>417</v>
+      </c>
+      <c r="D206" s="12"/>
+      <c r="E206" s="2" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="207" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A207" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B207" s="9" t="s">
-        <v>416</v>
-      </c>
-      <c r="C207" s="9" t="s">
-        <v>417</v>
-      </c>
-      <c r="D207" s="2" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="208" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B207" s="12" t="s">
+        <v>418</v>
+      </c>
+      <c r="C207" s="12" t="s">
+        <v>419</v>
+      </c>
+      <c r="D207" s="12"/>
+      <c r="E207" s="2" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="208" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A208" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B208" s="9" t="s">
-        <v>418</v>
-      </c>
-      <c r="C208" s="9" t="s">
-        <v>419</v>
-      </c>
-      <c r="D208" s="2" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="209" customFormat="false" ht="30.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B208" s="12" t="s">
+        <v>420</v>
+      </c>
+      <c r="C208" s="12" t="s">
+        <v>421</v>
+      </c>
+      <c r="D208" s="12"/>
+      <c r="E208" s="2" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="209" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A209" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B209" s="9" t="s">
-        <v>420</v>
-      </c>
-      <c r="C209" s="9" t="s">
-        <v>421</v>
-      </c>
-      <c r="D209" s="2" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="210" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B209" s="12" t="s">
+        <v>422</v>
+      </c>
+      <c r="C209" s="12" t="s">
+        <v>423</v>
+      </c>
+      <c r="D209" s="12"/>
+      <c r="E209" s="2" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="210" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A210" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B210" s="9" t="s">
-        <v>422</v>
-      </c>
-      <c r="C210" s="9" t="s">
-        <v>423</v>
-      </c>
-      <c r="D210" s="2" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="211" customFormat="false" ht="30.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B210" s="12" t="s">
+        <v>424</v>
+      </c>
+      <c r="C210" s="12" t="s">
+        <v>425</v>
+      </c>
+      <c r="D210" s="12"/>
+      <c r="E210" s="2" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="211" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A211" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B211" s="9" t="s">
-        <v>424</v>
-      </c>
-      <c r="C211" s="9" t="s">
-        <v>425</v>
-      </c>
-      <c r="D211" s="2" t="s">
-        <v>373</v>
+      <c r="B211" s="12" t="s">
+        <v>426</v>
+      </c>
+      <c r="C211" s="12" t="s">
+        <v>427</v>
+      </c>
+      <c r="D211" s="12"/>
+      <c r="E211" s="2" t="s">
+        <v>381</v>
       </c>
     </row>
     <row r="212" customFormat="false" ht="30.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A212" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B212" s="9" t="s">
-        <v>426</v>
-      </c>
-      <c r="C212" s="9" t="s">
-        <v>427</v>
-      </c>
-      <c r="D212" s="2" t="s">
-        <v>373</v>
+      <c r="B212" s="12" t="s">
+        <v>428</v>
+      </c>
+      <c r="C212" s="12" t="s">
+        <v>429</v>
+      </c>
+      <c r="D212" s="12"/>
+      <c r="E212" s="2" t="s">
+        <v>381</v>
       </c>
     </row>
     <row r="213" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A213" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B213" s="9" t="s">
-        <v>428</v>
-      </c>
-      <c r="C213" s="9" t="s">
-        <v>429</v>
-      </c>
-      <c r="D213" s="2" t="s">
-        <v>373</v>
+      <c r="B213" s="12" t="s">
+        <v>430</v>
+      </c>
+      <c r="C213" s="12" t="s">
+        <v>431</v>
+      </c>
+      <c r="D213" s="12"/>
+      <c r="E213" s="2" t="s">
+        <v>381</v>
       </c>
     </row>
     <row r="214" customFormat="false" ht="30.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A214" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B214" s="9" t="s">
-        <v>430</v>
-      </c>
-      <c r="C214" s="9" t="s">
-        <v>431</v>
-      </c>
-      <c r="D214" s="2" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="215" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B214" s="12" t="s">
+        <v>432</v>
+      </c>
+      <c r="C214" s="12" t="s">
+        <v>433</v>
+      </c>
+      <c r="D214" s="12"/>
+      <c r="E214" s="2" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="215" customFormat="false" ht="30.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A215" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B215" s="9" t="s">
-        <v>432</v>
-      </c>
-      <c r="C215" s="9" t="s">
-        <v>433</v>
-      </c>
-      <c r="D215" s="2" t="s">
-        <v>373</v>
+      <c r="B215" s="12" t="s">
+        <v>434</v>
+      </c>
+      <c r="C215" s="12" t="s">
+        <v>435</v>
+      </c>
+      <c r="D215" s="12"/>
+      <c r="E215" s="2" t="s">
+        <v>381</v>
       </c>
     </row>
     <row r="216" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A216" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B216" s="9" t="s">
-        <v>434</v>
-      </c>
-      <c r="C216" s="9" t="s">
-        <v>435</v>
-      </c>
-      <c r="D216" s="2" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="217" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B216" s="12" t="s">
+        <v>436</v>
+      </c>
+      <c r="C216" s="12" t="s">
+        <v>437</v>
+      </c>
+      <c r="D216" s="12"/>
+      <c r="E216" s="2" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="217" customFormat="false" ht="30.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A217" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B217" s="9" t="s">
-        <v>436</v>
-      </c>
-      <c r="C217" s="9" t="s">
-        <v>437</v>
-      </c>
-      <c r="D217" s="2" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="218" customFormat="false" ht="30.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B217" s="12" t="s">
+        <v>438</v>
+      </c>
+      <c r="C217" s="12" t="s">
+        <v>439</v>
+      </c>
+      <c r="D217" s="12"/>
+      <c r="E217" s="2" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="218" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A218" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B218" s="9" t="s">
-        <v>438</v>
-      </c>
-      <c r="C218" s="9" t="s">
-        <v>439</v>
-      </c>
-      <c r="D218" s="2" t="s">
-        <v>373</v>
+      <c r="B218" s="12" t="s">
+        <v>440</v>
+      </c>
+      <c r="C218" s="12" t="s">
+        <v>441</v>
+      </c>
+      <c r="D218" s="12"/>
+      <c r="E218" s="2" t="s">
+        <v>381</v>
       </c>
     </row>
     <row r="219" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A219" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B219" s="9" t="s">
-        <v>440</v>
-      </c>
-      <c r="C219" s="9" t="s">
-        <v>441</v>
-      </c>
-      <c r="D219" s="2" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="220" customFormat="false" ht="45.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B219" s="12" t="s">
+        <v>442</v>
+      </c>
+      <c r="C219" s="12" t="s">
+        <v>443</v>
+      </c>
+      <c r="D219" s="12"/>
+      <c r="E219" s="2" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="220" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A220" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B220" s="9" t="s">
-        <v>442</v>
-      </c>
-      <c r="C220" s="9" t="s">
-        <v>443</v>
-      </c>
-      <c r="D220" s="2" t="s">
-        <v>373</v>
+      <c r="B220" s="12" t="s">
+        <v>444</v>
+      </c>
+      <c r="C220" s="12" t="s">
+        <v>445</v>
+      </c>
+      <c r="D220" s="12"/>
+      <c r="E220" s="2" t="s">
+        <v>381</v>
       </c>
     </row>
     <row r="221" customFormat="false" ht="30.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A221" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B221" s="9" t="s">
-        <v>444</v>
-      </c>
-      <c r="C221" s="9" t="s">
-        <v>445</v>
-      </c>
-      <c r="D221" s="2" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="222" customFormat="false" ht="30.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B221" s="12" t="s">
+        <v>446</v>
+      </c>
+      <c r="C221" s="12" t="s">
+        <v>447</v>
+      </c>
+      <c r="D221" s="12"/>
+      <c r="E221" s="2" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="222" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A222" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B222" s="9" t="s">
-        <v>446</v>
-      </c>
-      <c r="C222" s="9" t="s">
-        <v>447</v>
-      </c>
-      <c r="D222" s="2" t="s">
-        <v>373</v>
+      <c r="B222" s="12" t="s">
+        <v>448</v>
+      </c>
+      <c r="C222" s="12" t="s">
+        <v>449</v>
+      </c>
+      <c r="D222" s="12"/>
+      <c r="E222" s="2" t="s">
+        <v>381</v>
       </c>
     </row>
     <row r="223" customFormat="false" ht="45.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A223" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B223" s="9" t="s">
-        <v>448</v>
-      </c>
-      <c r="C223" s="9" t="s">
-        <v>449</v>
-      </c>
-      <c r="D223" s="2" t="s">
-        <v>373</v>
+      <c r="B223" s="12" t="s">
+        <v>450</v>
+      </c>
+      <c r="C223" s="12" t="s">
+        <v>451</v>
+      </c>
+      <c r="D223" s="12"/>
+      <c r="E223" s="2" t="s">
+        <v>381</v>
       </c>
     </row>
     <row r="224" customFormat="false" ht="30.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A224" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B224" s="10" t="s">
-        <v>450</v>
-      </c>
-      <c r="C224" s="10" t="s">
-        <v>451</v>
-      </c>
-      <c r="D224" s="2" t="s">
+      <c r="B224" s="12" t="s">
         <v>452</v>
+      </c>
+      <c r="C224" s="12" t="s">
+        <v>453</v>
+      </c>
+      <c r="D224" s="12"/>
+      <c r="E224" s="2" t="s">
+        <v>381</v>
       </c>
     </row>
     <row r="225" customFormat="false" ht="30.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A225" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B225" s="11" t="s">
-        <v>453</v>
-      </c>
-      <c r="C225" s="11" t="s">
+      <c r="B225" s="12" t="s">
         <v>454</v>
       </c>
-      <c r="D225" s="2" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="226" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C225" s="12" t="s">
+        <v>455</v>
+      </c>
+      <c r="D225" s="12"/>
+      <c r="E225" s="2" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="226" customFormat="false" ht="45.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A226" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B226" s="11" t="s">
-        <v>455</v>
-      </c>
-      <c r="C226" s="11" t="s">
+      <c r="B226" s="12" t="s">
         <v>456</v>
       </c>
-      <c r="D226" s="2" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="227" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C226" s="12" t="s">
+        <v>457</v>
+      </c>
+      <c r="D226" s="12"/>
+      <c r="E226" s="2" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="227" customFormat="false" ht="30.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A227" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B227" s="11" t="s">
-        <v>457</v>
-      </c>
-      <c r="C227" s="11" t="s">
+      <c r="B227" s="7" t="s">
         <v>458</v>
       </c>
-      <c r="D227" s="2" t="s">
-        <v>452</v>
+      <c r="C227" s="7" t="s">
+        <v>459</v>
+      </c>
+      <c r="D227" s="7"/>
+      <c r="E227" s="2" t="s">
+        <v>460</v>
       </c>
     </row>
     <row r="228" customFormat="false" ht="30.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A228" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B228" s="10" t="s">
-        <v>459</v>
-      </c>
-      <c r="C228" s="11" t="s">
+      <c r="B228" s="16" t="s">
+        <v>461</v>
+      </c>
+      <c r="C228" s="16" t="s">
+        <v>462</v>
+      </c>
+      <c r="D228" s="16"/>
+      <c r="E228" s="2" t="s">
         <v>460</v>
       </c>
-      <c r="D228" s="2" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="229" customFormat="false" ht="30.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="229" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A229" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B229" s="11" t="s">
-        <v>461</v>
-      </c>
-      <c r="C229" s="11" t="s">
-        <v>462</v>
-      </c>
-      <c r="D229" s="2" t="s">
-        <v>452</v>
+      <c r="B229" s="16" t="s">
+        <v>463</v>
+      </c>
+      <c r="C229" s="16" t="s">
+        <v>464</v>
+      </c>
+      <c r="D229" s="16"/>
+      <c r="E229" s="2" t="s">
+        <v>460</v>
       </c>
     </row>
     <row r="230" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A230" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B230" s="11" t="s">
-        <v>463</v>
-      </c>
-      <c r="C230" s="11" t="s">
-        <v>464</v>
-      </c>
-      <c r="D230" s="2" t="s">
-        <v>452</v>
+      <c r="B230" s="16" t="s">
+        <v>465</v>
+      </c>
+      <c r="C230" s="16" t="s">
+        <v>466</v>
+      </c>
+      <c r="D230" s="16"/>
+      <c r="E230" s="2" t="s">
+        <v>460</v>
       </c>
     </row>
     <row r="231" customFormat="false" ht="30.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A231" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B231" s="11" t="s">
-        <v>465</v>
-      </c>
-      <c r="C231" s="11" t="s">
-        <v>466</v>
-      </c>
-      <c r="D231" s="2" t="s">
-        <v>452</v>
+      <c r="B231" s="7" t="s">
+        <v>467</v>
+      </c>
+      <c r="C231" s="16" t="s">
+        <v>468</v>
+      </c>
+      <c r="D231" s="16"/>
+      <c r="E231" s="2" t="s">
+        <v>460</v>
       </c>
     </row>
     <row r="232" customFormat="false" ht="30.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A232" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B232" s="11" t="s">
-        <v>467</v>
-      </c>
-      <c r="C232" s="11" t="s">
-        <v>468</v>
-      </c>
-      <c r="D232" s="2" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="233" customFormat="false" ht="30.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B232" s="16" t="s">
+        <v>469</v>
+      </c>
+      <c r="C232" s="16" t="s">
+        <v>470</v>
+      </c>
+      <c r="D232" s="16"/>
+      <c r="E232" s="2" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="233" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A233" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B233" s="11" t="s">
-        <v>469</v>
-      </c>
-      <c r="C233" s="11" t="s">
-        <v>470</v>
-      </c>
-      <c r="D233" s="2" t="s">
-        <v>452</v>
+      <c r="B233" s="16" t="s">
+        <v>471</v>
+      </c>
+      <c r="C233" s="16" t="s">
+        <v>472</v>
+      </c>
+      <c r="D233" s="16"/>
+      <c r="E233" s="2" t="s">
+        <v>460</v>
       </c>
     </row>
     <row r="234" customFormat="false" ht="30.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A234" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B234" s="11" t="s">
-        <v>471</v>
-      </c>
-      <c r="C234" s="11" t="s">
-        <v>472</v>
-      </c>
-      <c r="D234" s="2" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="235" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B234" s="16" t="s">
+        <v>473</v>
+      </c>
+      <c r="C234" s="16" t="s">
+        <v>474</v>
+      </c>
+      <c r="D234" s="16"/>
+      <c r="E234" s="2" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="235" customFormat="false" ht="30.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A235" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B235" s="11" t="s">
-        <v>473</v>
-      </c>
-      <c r="C235" s="11" t="s">
-        <v>474</v>
-      </c>
-      <c r="D235" s="2" t="s">
-        <v>452</v>
+      <c r="B235" s="16" t="s">
+        <v>475</v>
+      </c>
+      <c r="C235" s="16" t="s">
+        <v>476</v>
+      </c>
+      <c r="D235" s="16"/>
+      <c r="E235" s="2" t="s">
+        <v>460</v>
       </c>
     </row>
     <row r="236" customFormat="false" ht="30.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A236" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B236" s="11" t="s">
-        <v>475</v>
-      </c>
-      <c r="C236" s="11" t="s">
-        <v>476</v>
-      </c>
-      <c r="D236" s="2" t="s">
-        <v>452</v>
+      <c r="B236" s="16" t="s">
+        <v>477</v>
+      </c>
+      <c r="C236" s="16" t="s">
+        <v>478</v>
+      </c>
+      <c r="D236" s="16"/>
+      <c r="E236" s="2" t="s">
+        <v>460</v>
       </c>
     </row>
     <row r="237" customFormat="false" ht="30.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A237" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B237" s="11" t="s">
-        <v>477</v>
-      </c>
-      <c r="C237" s="11" t="s">
-        <v>478</v>
-      </c>
-      <c r="D237" s="2" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="238" customFormat="false" ht="30.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B237" s="16" t="s">
+        <v>479</v>
+      </c>
+      <c r="C237" s="16" t="s">
+        <v>480</v>
+      </c>
+      <c r="D237" s="16"/>
+      <c r="E237" s="2" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="238" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A238" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B238" s="11" t="s">
-        <v>479</v>
-      </c>
-      <c r="C238" s="11" t="s">
-        <v>480</v>
-      </c>
-      <c r="D238" s="2" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="239" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B238" s="16" t="s">
+        <v>481</v>
+      </c>
+      <c r="C238" s="16" t="s">
+        <v>482</v>
+      </c>
+      <c r="D238" s="16"/>
+      <c r="E238" s="2" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="239" customFormat="false" ht="30.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A239" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B239" s="11" t="s">
-        <v>481</v>
-      </c>
-      <c r="C239" s="11" t="s">
-        <v>482</v>
-      </c>
-      <c r="D239" s="2" t="s">
-        <v>452</v>
+      <c r="B239" s="16" t="s">
+        <v>483</v>
+      </c>
+      <c r="C239" s="16" t="s">
+        <v>484</v>
+      </c>
+      <c r="D239" s="16"/>
+      <c r="E239" s="2" t="s">
+        <v>460</v>
       </c>
     </row>
     <row r="240" customFormat="false" ht="30.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A240" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B240" s="11" t="s">
-        <v>483</v>
-      </c>
-      <c r="C240" s="11" t="s">
-        <v>484</v>
-      </c>
-      <c r="D240" s="2" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="241" customFormat="false" ht="45.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B240" s="16" t="s">
+        <v>485</v>
+      </c>
+      <c r="C240" s="16" t="s">
+        <v>486</v>
+      </c>
+      <c r="D240" s="16"/>
+      <c r="E240" s="2" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="241" customFormat="false" ht="30.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A241" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B241" s="11" t="s">
-        <v>485</v>
-      </c>
-      <c r="C241" s="11" t="s">
-        <v>486</v>
-      </c>
-      <c r="D241" s="2" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="242" customFormat="false" ht="30.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B241" s="16" t="s">
+        <v>487</v>
+      </c>
+      <c r="C241" s="16" t="s">
+        <v>488</v>
+      </c>
+      <c r="D241" s="16"/>
+      <c r="E241" s="2" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="242" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A242" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B242" s="11" t="s">
-        <v>487</v>
-      </c>
-      <c r="C242" s="2" t="s">
-        <v>488</v>
-      </c>
-      <c r="D242" s="2" t="s">
-        <v>452</v>
+      <c r="B242" s="16" t="s">
+        <v>489</v>
+      </c>
+      <c r="C242" s="16" t="s">
+        <v>490</v>
+      </c>
+      <c r="D242" s="16"/>
+      <c r="E242" s="2" t="s">
+        <v>460</v>
       </c>
     </row>
     <row r="243" customFormat="false" ht="30.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A243" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B243" s="11" t="s">
-        <v>489</v>
-      </c>
-      <c r="C243" s="11" t="s">
-        <v>490</v>
-      </c>
-      <c r="D243" s="2" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="244" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B243" s="16" t="s">
+        <v>491</v>
+      </c>
+      <c r="C243" s="16" t="s">
+        <v>492</v>
+      </c>
+      <c r="D243" s="16"/>
+      <c r="E243" s="2" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="244" customFormat="false" ht="45.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A244" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B244" s="11" t="s">
-        <v>491</v>
-      </c>
-      <c r="C244" s="11" t="s">
-        <v>492</v>
-      </c>
-      <c r="D244" s="2" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="245" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B244" s="16" t="s">
+        <v>493</v>
+      </c>
+      <c r="C244" s="16" t="s">
+        <v>494</v>
+      </c>
+      <c r="D244" s="16"/>
+      <c r="E244" s="2" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="245" customFormat="false" ht="30.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A245" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B245" s="11" t="s">
-        <v>493</v>
-      </c>
-      <c r="C245" s="11" t="s">
-        <v>494</v>
-      </c>
-      <c r="D245" s="2" t="s">
-        <v>452</v>
+      <c r="B245" s="16" t="s">
+        <v>495</v>
+      </c>
+      <c r="C245" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="E245" s="2" t="s">
+        <v>460</v>
       </c>
     </row>
     <row r="246" customFormat="false" ht="30.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A246" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B246" s="11" t="s">
-        <v>495</v>
-      </c>
-      <c r="C246" s="11" t="s">
-        <v>496</v>
-      </c>
-      <c r="D246" s="2" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="247" customFormat="false" ht="30.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B246" s="16" t="s">
+        <v>497</v>
+      </c>
+      <c r="C246" s="16" t="s">
+        <v>498</v>
+      </c>
+      <c r="D246" s="16"/>
+      <c r="E246" s="2" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="247" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A247" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B247" s="11" t="s">
-        <v>497</v>
-      </c>
-      <c r="C247" s="11" t="s">
-        <v>498</v>
-      </c>
-      <c r="D247" s="2" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="248" customFormat="false" ht="30.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B247" s="16" t="s">
+        <v>499</v>
+      </c>
+      <c r="C247" s="16" t="s">
+        <v>500</v>
+      </c>
+      <c r="D247" s="16"/>
+      <c r="E247" s="2" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="248" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A248" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B248" s="11" t="s">
-        <v>499</v>
-      </c>
-      <c r="C248" s="11" t="s">
-        <v>500</v>
-      </c>
-      <c r="D248" s="2" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="249" customFormat="false" ht="30.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B248" s="16" t="s">
+        <v>501</v>
+      </c>
+      <c r="C248" s="16" t="s">
+        <v>502</v>
+      </c>
+      <c r="D248" s="16"/>
+      <c r="E248" s="2" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="249" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A249" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B249" s="11" t="s">
-        <v>501</v>
-      </c>
-      <c r="C249" s="11" t="s">
-        <v>502</v>
-      </c>
-      <c r="D249" s="2" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="250" customFormat="false" ht="30.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B249" s="16" t="s">
+        <v>503</v>
+      </c>
+      <c r="C249" s="16" t="s">
+        <v>504</v>
+      </c>
+      <c r="D249" s="16"/>
+      <c r="E249" s="2" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="250" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A250" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B250" s="11" t="s">
-        <v>503</v>
-      </c>
-      <c r="C250" s="11" t="s">
-        <v>504</v>
-      </c>
-      <c r="D250" s="2" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="251" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B250" s="16" t="s">
+        <v>505</v>
+      </c>
+      <c r="C250" s="16" t="s">
+        <v>506</v>
+      </c>
+      <c r="D250" s="16"/>
+      <c r="E250" s="2" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="251" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A251" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B251" s="16" t="s">
+        <v>507</v>
+      </c>
+      <c r="C251" s="16" t="s">
+        <v>508</v>
+      </c>
+      <c r="D251" s="16"/>
+      <c r="E251" s="2" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="252" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A252" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B252" s="16" t="s">
+        <v>509</v>
+      </c>
+      <c r="C252" s="16" t="s">
+        <v>510</v>
+      </c>
+      <c r="D252" s="16"/>
+      <c r="E252" s="2" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="253" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A253" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B253" s="16" t="s">
+        <v>511</v>
+      </c>
+      <c r="C253" s="16" t="s">
+        <v>512</v>
+      </c>
+      <c r="D253" s="16"/>
+      <c r="E253" s="2" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="254" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A254" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B254" s="16" t="s">
+        <v>513</v>
+      </c>
+      <c r="C254" s="16" t="s">
+        <v>514</v>
+      </c>
+      <c r="D254" s="16"/>
+      <c r="E254" s="2" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="255" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A255" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B255" s="16" t="s">
+        <v>516</v>
+      </c>
+      <c r="C255" s="16" t="s">
+        <v>517</v>
+      </c>
+      <c r="D255" s="16"/>
+      <c r="E255" s="2" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="256" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A256" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B256" s="16" t="s">
+        <v>518</v>
+      </c>
+      <c r="C256" s="16" t="s">
+        <v>519</v>
+      </c>
+      <c r="D256" s="16"/>
+      <c r="E256" s="2" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="257" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A257" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B257" s="16" t="s">
+        <v>520</v>
+      </c>
+      <c r="C257" s="16" t="s">
+        <v>521</v>
+      </c>
+      <c r="D257" s="16"/>
+      <c r="E257" s="2" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="258" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A258" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B258" s="16" t="s">
+        <v>522</v>
+      </c>
+      <c r="C258" s="16" t="s">
+        <v>523</v>
+      </c>
+      <c r="D258" s="16"/>
+      <c r="E258" s="2" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="259" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A259" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B259" s="16" t="s">
+        <v>524</v>
+      </c>
+      <c r="C259" s="16" t="s">
+        <v>525</v>
+      </c>
+      <c r="D259" s="16"/>
+      <c r="E259" s="2" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="260" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A260" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B260" s="16" t="s">
+        <v>526</v>
+      </c>
+      <c r="C260" s="2" t="s">
+        <v>527</v>
+      </c>
+      <c r="E260" s="2" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="261" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A261" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B261" s="16" t="s">
+        <v>528</v>
+      </c>
+      <c r="C261" s="16" t="s">
+        <v>529</v>
+      </c>
+      <c r="D261" s="16"/>
+      <c r="E261" s="2" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="262" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A262" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B262" s="16" t="s">
+        <v>530</v>
+      </c>
+      <c r="C262" s="2" t="s">
+        <v>531</v>
+      </c>
+      <c r="E262" s="2" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="263" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A263" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B263" s="16" t="s">
+        <v>532</v>
+      </c>
+      <c r="C263" s="16" t="s">
+        <v>533</v>
+      </c>
+      <c r="D263" s="16"/>
+      <c r="E263" s="2" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="264" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A264" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B264" s="16" t="s">
+        <v>534</v>
+      </c>
+      <c r="C264" s="16" t="s">
+        <v>535</v>
+      </c>
+      <c r="D264" s="16"/>
+      <c r="E264" s="2" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="265" customFormat="false" ht="30.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A265" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B265" s="16" t="s">
+        <v>536</v>
+      </c>
+      <c r="C265" s="2" t="s">
+        <v>537</v>
+      </c>
+      <c r="E265" s="2" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="266" customFormat="false" ht="30.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A266" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B266" s="16" t="s">
+        <v>538</v>
+      </c>
+      <c r="C266" s="16" t="s">
+        <v>539</v>
+      </c>
+      <c r="D266" s="16"/>
+      <c r="E266" s="2" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="267" customFormat="false" ht="30.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A267" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B267" s="16" t="s">
+        <v>540</v>
+      </c>
+      <c r="C267" s="2" t="s">
+        <v>541</v>
+      </c>
+      <c r="E267" s="2" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="268" customFormat="false" ht="30.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A268" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B268" s="16" t="s">
+        <v>542</v>
+      </c>
+      <c r="C268" s="16" t="s">
+        <v>543</v>
+      </c>
+      <c r="D268" s="16"/>
+      <c r="E268" s="2" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="269" customFormat="false" ht="30.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A269" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B269" s="16" t="s">
+        <v>544</v>
+      </c>
+      <c r="C269" s="2" t="s">
+        <v>545</v>
+      </c>
+      <c r="E269" s="2" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="270" customFormat="false" ht="30.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A270" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B270" s="16" t="s">
+        <v>546</v>
+      </c>
+      <c r="C270" s="2" t="s">
+        <v>547</v>
+      </c>
+      <c r="E270" s="2" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="271" customFormat="false" ht="30.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A271" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B271" s="16" t="s">
+        <v>548</v>
+      </c>
+      <c r="C271" s="16" t="s">
+        <v>549</v>
+      </c>
+      <c r="D271" s="16"/>
+      <c r="E271" s="2" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="272" customFormat="false" ht="30.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A272" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B272" s="16" t="s">
+        <v>550</v>
+      </c>
+      <c r="C272" s="2" t="s">
+        <v>551</v>
+      </c>
+      <c r="E272" s="2" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="273" customFormat="false" ht="30.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A273" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B273" s="16" t="s">
+        <v>552</v>
+      </c>
+      <c r="C273" s="16" t="s">
+        <v>553</v>
+      </c>
+      <c r="D273" s="16"/>
+      <c r="E273" s="2" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="274" customFormat="false" ht="30.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A274" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B274" s="16" t="s">
+        <v>554</v>
+      </c>
+      <c r="C274" s="16" t="s">
+        <v>508</v>
+      </c>
+      <c r="D274" s="16"/>
+      <c r="E274" s="2" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="275" customFormat="false" ht="30.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A275" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B275" s="16" t="s">
+        <v>555</v>
+      </c>
+      <c r="C275" s="16" t="s">
+        <v>556</v>
+      </c>
+      <c r="D275" s="16"/>
+      <c r="E275" s="2" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="276" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A276" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C276" s="0"/>
+      <c r="D276" s="0"/>
+    </row>
+    <row r="277" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A277" s="1" t="n">
         <v>1</v>
       </c>
     </row>

--- a/backend/django_cemos2028/apps/perguntas/fixtures/flashcards.xlsx
+++ b/backend/django_cemos2028/apps/perguntas/fixtures/flashcards.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="827" uniqueCount="557">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="839" uniqueCount="564">
   <si>
     <t xml:space="preserve">bibliografia_id</t>
   </si>
@@ -925,6 +925,20 @@
     <t xml:space="preserve">Geografia Humana (ou Antropogeografia), Geografia Política e, finalmente, a Geopolítica.</t>
   </si>
   <si>
+    <t xml:space="preserve">Quais os principais autores da Escola “Determinista” e quais os seus aspectos?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ratzel, Kjellen, Haushofer, Mahan, Mackynder, etc.
+Preponderância do fator geográfico (extensão, relevo, clima, disponibilidade de recursos). O ambiente físico exerce influência determinante.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quais os principais autores da Escola “Possibilista” e quais os seus aspectos?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">La Blanche, Brunhes, Vallaux.
+Preponderância do fator político. O ambiente físico apresenta uma gama de possibilidades, cabendo ao homem escolher o seu destino.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Quem foi o autor dos livros "Antropogeografia" e "Geografia Política", obras fundamentais para o surgimento da Geopolítica?</t>
   </si>
   <si>
@@ -982,7 +996,7 @@
     <t xml:space="preserve">Como era chamada a escola de pensamento alemã que considerava o fator geográfico preponderante na interação homem-geografia?</t>
   </si>
   <si>
-    <t xml:space="preserve">Escola "determinista".</t>
+    <t xml:space="preserve">Escola "determinista".         </t>
   </si>
   <si>
     <t xml:space="preserve">Por que a escola alemã de geopolítica foi chamada de "determinista"?</t>
@@ -1009,6 +1023,12 @@
     <t xml:space="preserve">O Almirante norte-americano Alfred Thayer Mahan.</t>
   </si>
   <si>
+    <t xml:space="preserve">Qual autor foi inspirado por uma onda de construções de ferrovias na Rússia, na segunda metade do Século XIX?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Halford J. Mackinder. Teoria do Heartland (Área Pivô)</t>
+  </si>
+  <si>
     <t xml:space="preserve">Quem foi o autor inglês de "Geographical Pivot of History" (1904), obra fundamental da geopolítica do Poder Continental?</t>
   </si>
   <si>
@@ -1135,10 +1155,13 @@
     <t xml:space="preserve">A União Soviética.</t>
   </si>
   <si>
+    <t xml:space="preserve">De quem foi a teoria de instalação de bases navais russas em águas quentes, visando evitar o isolamento estratégico da Russia?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Almirante Gorshkov.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Qual almirante russo criou uma doutrina para justificar a instalação de bases navais soviéticas globais para conter o domínio marítimo do Ocidente?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Almirante Gorshkov.</t>
   </si>
   <si>
     <t xml:space="preserve">Durante a Guerra Fria, a estratégia de Washington se baseava no domínio dos mares e das _____, enquanto a de Moscou buscava a conquista de toda a _____.</t>
@@ -1766,6 +1789,7 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1888,20 +1912,20 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -2096,10 +2120,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E277"/>
+  <dimension ref="A1:E281"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A157" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B14" activeCellId="0" sqref="B14"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A178" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C186" activeCellId="0" sqref="C186"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4146,11 +4170,11 @@
         <v>275</v>
       </c>
     </row>
-    <row r="145" customFormat="false" ht="45.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="145" customFormat="false" ht="60.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B145" s="2" t="s">
+      <c r="B145" s="12" t="s">
         <v>294</v>
       </c>
       <c r="C145" s="12" t="s">
@@ -4165,10 +4189,10 @@
       <c r="A146" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B146" s="2" t="s">
+      <c r="B146" s="13" t="s">
         <v>296</v>
       </c>
-      <c r="C146" s="12" t="s">
+      <c r="C146" s="14" t="s">
         <v>297</v>
       </c>
       <c r="D146" s="12"/>
@@ -4176,11 +4200,11 @@
         <v>275</v>
       </c>
     </row>
-    <row r="147" customFormat="false" ht="30.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="147" customFormat="false" ht="45.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B147" s="12" t="s">
+      <c r="B147" s="2" t="s">
         <v>298</v>
       </c>
       <c r="C147" s="12" t="s">
@@ -4191,11 +4215,11 @@
         <v>275</v>
       </c>
     </row>
-    <row r="148" customFormat="false" ht="30.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="148" customFormat="false" ht="45.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B148" s="12" t="s">
+      <c r="B148" s="2" t="s">
         <v>300</v>
       </c>
       <c r="C148" s="12" t="s">
@@ -4236,11 +4260,11 @@
         <v>275</v>
       </c>
     </row>
-    <row r="151" customFormat="false" ht="45.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="151" customFormat="false" ht="30.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B151" s="2" t="s">
+      <c r="B151" s="12" t="s">
         <v>306</v>
       </c>
       <c r="C151" s="12" t="s">
@@ -4255,7 +4279,7 @@
       <c r="A152" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B152" s="2" t="s">
+      <c r="B152" s="12" t="s">
         <v>308</v>
       </c>
       <c r="C152" s="12" t="s">
@@ -4266,11 +4290,11 @@
         <v>275</v>
       </c>
     </row>
-    <row r="153" customFormat="false" ht="30.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="153" customFormat="false" ht="45.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B153" s="12" t="s">
+      <c r="B153" s="2" t="s">
         <v>310</v>
       </c>
       <c r="C153" s="12" t="s">
@@ -4281,11 +4305,11 @@
         <v>275</v>
       </c>
     </row>
-    <row r="154" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="154" customFormat="false" ht="30.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B154" s="12" t="s">
+      <c r="B154" s="2" t="s">
         <v>312</v>
       </c>
       <c r="C154" s="12" t="s">
@@ -4326,7 +4350,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="157" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="157" customFormat="false" ht="30.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="1" t="n">
         <v>1</v>
       </c>
@@ -4341,7 +4365,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="158" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="158" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="1" t="n">
         <v>1</v>
       </c>
@@ -4356,7 +4380,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="159" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="159" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="1" t="n">
         <v>1</v>
       </c>
@@ -4386,25 +4410,26 @@
         <v>275</v>
       </c>
     </row>
-    <row r="161" customFormat="false" ht="45.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="161" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B161" s="2" t="s">
+      <c r="B161" s="12" t="s">
         <v>326</v>
       </c>
-      <c r="C161" s="2" t="s">
+      <c r="C161" s="12" t="s">
         <v>327</v>
       </c>
+      <c r="D161" s="12"/>
       <c r="E161" s="2" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="162" customFormat="false" ht="45.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="162" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B162" s="2" t="s">
+      <c r="B162" s="12" t="s">
         <v>328</v>
       </c>
       <c r="C162" s="12" t="s">
@@ -4415,7 +4440,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="163" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="163" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="1" t="n">
         <v>1</v>
       </c>
@@ -4430,39 +4455,36 @@
         <v>275</v>
       </c>
     </row>
-    <row r="164" customFormat="false" ht="50.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="164" customFormat="false" ht="45.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B164" s="13" t="s">
+      <c r="B164" s="2" t="s">
         <v>332</v>
       </c>
-      <c r="C164" s="12" t="s">
+      <c r="C164" s="2" t="s">
         <v>333</v>
       </c>
-      <c r="D164" s="12"/>
       <c r="E164" s="2" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="165" customFormat="false" ht="115.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="165" customFormat="false" ht="45.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B165" s="13" t="s">
+      <c r="B165" s="2" t="s">
         <v>334</v>
       </c>
-      <c r="C165" s="14" t="s">
+      <c r="C165" s="12" t="s">
         <v>335</v>
       </c>
-      <c r="D165" s="15" t="n">
-        <v>2024</v>
-      </c>
+      <c r="D165" s="12"/>
       <c r="E165" s="2" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="166" customFormat="false" ht="30.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="166" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="1" t="n">
         <v>1</v>
       </c>
@@ -4477,11 +4499,11 @@
         <v>275</v>
       </c>
     </row>
-    <row r="167" customFormat="false" ht="30.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="167" customFormat="false" ht="50.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B167" s="12" t="s">
+      <c r="B167" s="15" t="s">
         <v>338</v>
       </c>
       <c r="C167" s="12" t="s">
@@ -4492,22 +4514,24 @@
         <v>275</v>
       </c>
     </row>
-    <row r="168" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="168" customFormat="false" ht="115.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B168" s="12" t="s">
+      <c r="B168" s="15" t="s">
         <v>340</v>
       </c>
       <c r="C168" s="12" t="s">
         <v>341</v>
       </c>
-      <c r="D168" s="12"/>
+      <c r="D168" s="16" t="n">
+        <v>2024</v>
+      </c>
       <c r="E168" s="2" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="169" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="169" customFormat="false" ht="30.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="1" t="n">
         <v>1</v>
       </c>
@@ -4522,7 +4546,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="170" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="170" customFormat="false" ht="30.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="1" t="n">
         <v>1</v>
       </c>
@@ -4567,7 +4591,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="173" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="173" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="1" t="n">
         <v>1</v>
       </c>
@@ -4582,7 +4606,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="174" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="174" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="1" t="n">
         <v>1</v>
       </c>
@@ -4612,7 +4636,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="176" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="176" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A176" s="1" t="n">
         <v>1</v>
       </c>
@@ -4627,7 +4651,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="177" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="177" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A177" s="1" t="n">
         <v>1</v>
       </c>
@@ -4672,7 +4696,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="180" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="180" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A180" s="1" t="n">
         <v>1</v>
       </c>
@@ -4687,7 +4711,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="181" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="181" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A181" s="1" t="n">
         <v>1</v>
       </c>
@@ -4702,7 +4726,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="182" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="182" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A182" s="1" t="n">
         <v>1</v>
       </c>
@@ -4710,37 +4734,37 @@
         <v>368</v>
       </c>
       <c r="C182" s="12" t="s">
-        <v>341</v>
+        <v>369</v>
       </c>
       <c r="D182" s="12"/>
       <c r="E182" s="2" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="183" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="183" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A183" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B183" s="12" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="C183" s="12" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="D183" s="12"/>
       <c r="E183" s="2" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="184" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="184" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A184" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B184" s="12" t="s">
+        <v>372</v>
+      </c>
+      <c r="C184" s="12" t="s">
         <v>371</v>
-      </c>
-      <c r="C184" s="12" t="s">
-        <v>372</v>
       </c>
       <c r="D184" s="12"/>
       <c r="E184" s="2" t="s">
@@ -4762,7 +4786,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="186" customFormat="false" ht="45.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="186" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A186" s="1" t="n">
         <v>1</v>
       </c>
@@ -4770,7 +4794,7 @@
         <v>375</v>
       </c>
       <c r="C186" s="12" t="s">
-        <v>376</v>
+        <v>347</v>
       </c>
       <c r="D186" s="12"/>
       <c r="E186" s="2" t="s">
@@ -4782,10 +4806,10 @@
         <v>1</v>
       </c>
       <c r="B187" s="12" t="s">
+        <v>376</v>
+      </c>
+      <c r="C187" s="12" t="s">
         <v>377</v>
-      </c>
-      <c r="C187" s="12" t="s">
-        <v>378</v>
       </c>
       <c r="D187" s="12"/>
       <c r="E187" s="2" t="s">
@@ -4797,44 +4821,44 @@
         <v>1</v>
       </c>
       <c r="B188" s="12" t="s">
+        <v>378</v>
+      </c>
+      <c r="C188" s="12" t="s">
         <v>379</v>
-      </c>
-      <c r="C188" s="12" t="s">
-        <v>380</v>
       </c>
       <c r="D188" s="12"/>
       <c r="E188" s="2" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="189" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A189" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B189" s="12" t="s">
+        <v>380</v>
+      </c>
+      <c r="C189" s="12" t="s">
         <v>381</v>
-      </c>
-    </row>
-    <row r="189" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A189" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B189" s="12" t="s">
-        <v>382</v>
-      </c>
-      <c r="C189" s="12" t="s">
-        <v>383</v>
       </c>
       <c r="D189" s="12"/>
       <c r="E189" s="2" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="190" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="190" customFormat="false" ht="45.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A190" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B190" s="12" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="C190" s="12" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="D190" s="12"/>
       <c r="E190" s="2" t="s">
-        <v>381</v>
+        <v>275</v>
       </c>
     </row>
     <row r="191" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4842,14 +4866,14 @@
         <v>1</v>
       </c>
       <c r="B191" s="12" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="C191" s="12" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="D191" s="12"/>
       <c r="E191" s="2" t="s">
-        <v>381</v>
+        <v>275</v>
       </c>
     </row>
     <row r="192" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4857,14 +4881,14 @@
         <v>1</v>
       </c>
       <c r="B192" s="12" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="C192" s="12" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="D192" s="12"/>
       <c r="E192" s="2" t="s">
-        <v>381</v>
+        <v>388</v>
       </c>
     </row>
     <row r="193" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4872,14 +4896,14 @@
         <v>1</v>
       </c>
       <c r="B193" s="12" t="s">
+        <v>389</v>
+      </c>
+      <c r="C193" s="12" t="s">
         <v>390</v>
-      </c>
-      <c r="C193" s="12" t="s">
-        <v>391</v>
       </c>
       <c r="D193" s="12"/>
       <c r="E193" s="2" t="s">
-        <v>381</v>
+        <v>388</v>
       </c>
     </row>
     <row r="194" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4887,14 +4911,14 @@
         <v>1</v>
       </c>
       <c r="B194" s="12" t="s">
+        <v>391</v>
+      </c>
+      <c r="C194" s="12" t="s">
         <v>392</v>
-      </c>
-      <c r="C194" s="12" t="s">
-        <v>393</v>
       </c>
       <c r="D194" s="12"/>
       <c r="E194" s="2" t="s">
-        <v>381</v>
+        <v>388</v>
       </c>
     </row>
     <row r="195" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4902,14 +4926,14 @@
         <v>1</v>
       </c>
       <c r="B195" s="12" t="s">
+        <v>393</v>
+      </c>
+      <c r="C195" s="12" t="s">
         <v>394</v>
-      </c>
-      <c r="C195" s="12" t="s">
-        <v>395</v>
       </c>
       <c r="D195" s="12"/>
       <c r="E195" s="2" t="s">
-        <v>381</v>
+        <v>388</v>
       </c>
     </row>
     <row r="196" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4917,14 +4941,14 @@
         <v>1</v>
       </c>
       <c r="B196" s="12" t="s">
+        <v>395</v>
+      </c>
+      <c r="C196" s="12" t="s">
         <v>396</v>
-      </c>
-      <c r="C196" s="12" t="s">
-        <v>397</v>
       </c>
       <c r="D196" s="12"/>
       <c r="E196" s="2" t="s">
-        <v>381</v>
+        <v>388</v>
       </c>
     </row>
     <row r="197" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4932,14 +4956,14 @@
         <v>1</v>
       </c>
       <c r="B197" s="12" t="s">
+        <v>397</v>
+      </c>
+      <c r="C197" s="12" t="s">
         <v>398</v>
-      </c>
-      <c r="C197" s="12" t="s">
-        <v>399</v>
       </c>
       <c r="D197" s="12"/>
       <c r="E197" s="2" t="s">
-        <v>381</v>
+        <v>388</v>
       </c>
     </row>
     <row r="198" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4947,14 +4971,14 @@
         <v>1</v>
       </c>
       <c r="B198" s="12" t="s">
+        <v>399</v>
+      </c>
+      <c r="C198" s="12" t="s">
         <v>400</v>
-      </c>
-      <c r="C198" s="12" t="s">
-        <v>401</v>
       </c>
       <c r="D198" s="12"/>
       <c r="E198" s="2" t="s">
-        <v>381</v>
+        <v>388</v>
       </c>
     </row>
     <row r="199" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4962,14 +4986,14 @@
         <v>1</v>
       </c>
       <c r="B199" s="12" t="s">
+        <v>401</v>
+      </c>
+      <c r="C199" s="12" t="s">
         <v>402</v>
-      </c>
-      <c r="C199" s="12" t="s">
-        <v>403</v>
       </c>
       <c r="D199" s="12"/>
       <c r="E199" s="2" t="s">
-        <v>381</v>
+        <v>388</v>
       </c>
     </row>
     <row r="200" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4977,14 +5001,14 @@
         <v>1</v>
       </c>
       <c r="B200" s="12" t="s">
+        <v>403</v>
+      </c>
+      <c r="C200" s="12" t="s">
         <v>404</v>
-      </c>
-      <c r="C200" s="12" t="s">
-        <v>405</v>
       </c>
       <c r="D200" s="12"/>
       <c r="E200" s="2" t="s">
-        <v>381</v>
+        <v>388</v>
       </c>
     </row>
     <row r="201" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4992,14 +5016,14 @@
         <v>1</v>
       </c>
       <c r="B201" s="12" t="s">
+        <v>405</v>
+      </c>
+      <c r="C201" s="12" t="s">
         <v>406</v>
-      </c>
-      <c r="C201" s="12" t="s">
-        <v>407</v>
       </c>
       <c r="D201" s="12"/>
       <c r="E201" s="2" t="s">
-        <v>381</v>
+        <v>388</v>
       </c>
     </row>
     <row r="202" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5007,14 +5031,14 @@
         <v>1</v>
       </c>
       <c r="B202" s="12" t="s">
+        <v>407</v>
+      </c>
+      <c r="C202" s="12" t="s">
         <v>408</v>
-      </c>
-      <c r="C202" s="12" t="s">
-        <v>409</v>
       </c>
       <c r="D202" s="12"/>
       <c r="E202" s="2" t="s">
-        <v>381</v>
+        <v>388</v>
       </c>
     </row>
     <row r="203" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5022,14 +5046,14 @@
         <v>1</v>
       </c>
       <c r="B203" s="12" t="s">
+        <v>409</v>
+      </c>
+      <c r="C203" s="12" t="s">
         <v>410</v>
-      </c>
-      <c r="C203" s="12" t="s">
-        <v>411</v>
       </c>
       <c r="D203" s="12"/>
       <c r="E203" s="2" t="s">
-        <v>381</v>
+        <v>388</v>
       </c>
     </row>
     <row r="204" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5037,14 +5061,14 @@
         <v>1</v>
       </c>
       <c r="B204" s="12" t="s">
+        <v>411</v>
+      </c>
+      <c r="C204" s="12" t="s">
         <v>412</v>
-      </c>
-      <c r="C204" s="12" t="s">
-        <v>413</v>
       </c>
       <c r="D204" s="12"/>
       <c r="E204" s="2" t="s">
-        <v>381</v>
+        <v>388</v>
       </c>
     </row>
     <row r="205" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5052,14 +5076,14 @@
         <v>1</v>
       </c>
       <c r="B205" s="12" t="s">
+        <v>413</v>
+      </c>
+      <c r="C205" s="12" t="s">
         <v>414</v>
-      </c>
-      <c r="C205" s="12" t="s">
-        <v>415</v>
       </c>
       <c r="D205" s="12"/>
       <c r="E205" s="2" t="s">
-        <v>381</v>
+        <v>388</v>
       </c>
     </row>
     <row r="206" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5067,14 +5091,14 @@
         <v>1</v>
       </c>
       <c r="B206" s="12" t="s">
+        <v>415</v>
+      </c>
+      <c r="C206" s="12" t="s">
         <v>416</v>
-      </c>
-      <c r="C206" s="12" t="s">
-        <v>417</v>
       </c>
       <c r="D206" s="12"/>
       <c r="E206" s="2" t="s">
-        <v>381</v>
+        <v>388</v>
       </c>
     </row>
     <row r="207" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5082,29 +5106,29 @@
         <v>1</v>
       </c>
       <c r="B207" s="12" t="s">
+        <v>417</v>
+      </c>
+      <c r="C207" s="12" t="s">
         <v>418</v>
-      </c>
-      <c r="C207" s="12" t="s">
-        <v>419</v>
       </c>
       <c r="D207" s="12"/>
       <c r="E207" s="2" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="208" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="208" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A208" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B208" s="12" t="s">
+        <v>419</v>
+      </c>
+      <c r="C208" s="12" t="s">
         <v>420</v>
-      </c>
-      <c r="C208" s="12" t="s">
-        <v>421</v>
       </c>
       <c r="D208" s="12"/>
       <c r="E208" s="2" t="s">
-        <v>381</v>
+        <v>388</v>
       </c>
     </row>
     <row r="209" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5112,29 +5136,29 @@
         <v>1</v>
       </c>
       <c r="B209" s="12" t="s">
+        <v>421</v>
+      </c>
+      <c r="C209" s="12" t="s">
         <v>422</v>
-      </c>
-      <c r="C209" s="12" t="s">
-        <v>423</v>
       </c>
       <c r="D209" s="12"/>
       <c r="E209" s="2" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="210" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="210" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A210" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B210" s="12" t="s">
+        <v>423</v>
+      </c>
+      <c r="C210" s="12" t="s">
         <v>424</v>
-      </c>
-      <c r="C210" s="12" t="s">
-        <v>425</v>
       </c>
       <c r="D210" s="12"/>
       <c r="E210" s="2" t="s">
-        <v>381</v>
+        <v>388</v>
       </c>
     </row>
     <row r="211" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5142,29 +5166,29 @@
         <v>1</v>
       </c>
       <c r="B211" s="12" t="s">
+        <v>425</v>
+      </c>
+      <c r="C211" s="12" t="s">
         <v>426</v>
-      </c>
-      <c r="C211" s="12" t="s">
-        <v>427</v>
       </c>
       <c r="D211" s="12"/>
       <c r="E211" s="2" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="212" customFormat="false" ht="30.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="212" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A212" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B212" s="12" t="s">
+        <v>427</v>
+      </c>
+      <c r="C212" s="12" t="s">
         <v>428</v>
-      </c>
-      <c r="C212" s="12" t="s">
-        <v>429</v>
       </c>
       <c r="D212" s="12"/>
       <c r="E212" s="2" t="s">
-        <v>381</v>
+        <v>388</v>
       </c>
     </row>
     <row r="213" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5172,119 +5196,119 @@
         <v>1</v>
       </c>
       <c r="B213" s="12" t="s">
+        <v>429</v>
+      </c>
+      <c r="C213" s="12" t="s">
         <v>430</v>
-      </c>
-      <c r="C213" s="12" t="s">
-        <v>431</v>
       </c>
       <c r="D213" s="12"/>
       <c r="E213" s="2" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="214" customFormat="false" ht="30.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="214" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A214" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B214" s="12" t="s">
+        <v>431</v>
+      </c>
+      <c r="C214" s="12" t="s">
         <v>432</v>
-      </c>
-      <c r="C214" s="12" t="s">
-        <v>433</v>
       </c>
       <c r="D214" s="12"/>
       <c r="E214" s="2" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="215" customFormat="false" ht="30.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="215" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A215" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B215" s="12" t="s">
+        <v>433</v>
+      </c>
+      <c r="C215" s="12" t="s">
         <v>434</v>
-      </c>
-      <c r="C215" s="12" t="s">
-        <v>435</v>
       </c>
       <c r="D215" s="12"/>
       <c r="E215" s="2" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="216" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="216" customFormat="false" ht="30.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A216" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B216" s="12" t="s">
+        <v>435</v>
+      </c>
+      <c r="C216" s="12" t="s">
         <v>436</v>
-      </c>
-      <c r="C216" s="12" t="s">
-        <v>437</v>
       </c>
       <c r="D216" s="12"/>
       <c r="E216" s="2" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="217" customFormat="false" ht="30.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="217" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A217" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B217" s="12" t="s">
+        <v>437</v>
+      </c>
+      <c r="C217" s="12" t="s">
         <v>438</v>
-      </c>
-      <c r="C217" s="12" t="s">
-        <v>439</v>
       </c>
       <c r="D217" s="12"/>
       <c r="E217" s="2" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="218" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="218" customFormat="false" ht="30.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A218" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B218" s="12" t="s">
+        <v>439</v>
+      </c>
+      <c r="C218" s="12" t="s">
         <v>440</v>
-      </c>
-      <c r="C218" s="12" t="s">
-        <v>441</v>
       </c>
       <c r="D218" s="12"/>
       <c r="E218" s="2" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="219" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="219" customFormat="false" ht="30.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A219" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B219" s="12" t="s">
+        <v>441</v>
+      </c>
+      <c r="C219" s="12" t="s">
         <v>442</v>
-      </c>
-      <c r="C219" s="12" t="s">
-        <v>443</v>
       </c>
       <c r="D219" s="12"/>
       <c r="E219" s="2" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="220" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="220" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A220" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B220" s="12" t="s">
+        <v>443</v>
+      </c>
+      <c r="C220" s="12" t="s">
         <v>444</v>
-      </c>
-      <c r="C220" s="12" t="s">
-        <v>445</v>
       </c>
       <c r="D220" s="12"/>
       <c r="E220" s="2" t="s">
-        <v>381</v>
+        <v>388</v>
       </c>
     </row>
     <row r="221" customFormat="false" ht="30.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5292,14 +5316,14 @@
         <v>1</v>
       </c>
       <c r="B221" s="12" t="s">
+        <v>445</v>
+      </c>
+      <c r="C221" s="12" t="s">
         <v>446</v>
-      </c>
-      <c r="C221" s="12" t="s">
-        <v>447</v>
       </c>
       <c r="D221" s="12"/>
       <c r="E221" s="2" t="s">
-        <v>381</v>
+        <v>388</v>
       </c>
     </row>
     <row r="222" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5307,44 +5331,44 @@
         <v>1</v>
       </c>
       <c r="B222" s="12" t="s">
+        <v>447</v>
+      </c>
+      <c r="C222" s="12" t="s">
         <v>448</v>
-      </c>
-      <c r="C222" s="12" t="s">
-        <v>449</v>
       </c>
       <c r="D222" s="12"/>
       <c r="E222" s="2" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="223" customFormat="false" ht="45.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="223" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A223" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B223" s="12" t="s">
+        <v>449</v>
+      </c>
+      <c r="C223" s="12" t="s">
         <v>450</v>
-      </c>
-      <c r="C223" s="12" t="s">
-        <v>451</v>
       </c>
       <c r="D223" s="12"/>
       <c r="E223" s="2" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="224" customFormat="false" ht="30.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="224" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A224" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B224" s="12" t="s">
+        <v>451</v>
+      </c>
+      <c r="C224" s="12" t="s">
         <v>452</v>
-      </c>
-      <c r="C224" s="12" t="s">
-        <v>453</v>
       </c>
       <c r="D224" s="12"/>
       <c r="E224" s="2" t="s">
-        <v>381</v>
+        <v>388</v>
       </c>
     </row>
     <row r="225" customFormat="false" ht="30.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5352,89 +5376,89 @@
         <v>1</v>
       </c>
       <c r="B225" s="12" t="s">
+        <v>453</v>
+      </c>
+      <c r="C225" s="12" t="s">
         <v>454</v>
-      </c>
-      <c r="C225" s="12" t="s">
-        <v>455</v>
       </c>
       <c r="D225" s="12"/>
       <c r="E225" s="2" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="226" customFormat="false" ht="45.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="226" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A226" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B226" s="12" t="s">
+        <v>455</v>
+      </c>
+      <c r="C226" s="12" t="s">
         <v>456</v>
-      </c>
-      <c r="C226" s="12" t="s">
-        <v>457</v>
       </c>
       <c r="D226" s="12"/>
       <c r="E226" s="2" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="227" customFormat="false" ht="30.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="227" customFormat="false" ht="45.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A227" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B227" s="7" t="s">
+      <c r="B227" s="12" t="s">
+        <v>457</v>
+      </c>
+      <c r="C227" s="12" t="s">
         <v>458</v>
       </c>
-      <c r="C227" s="7" t="s">
-        <v>459</v>
-      </c>
-      <c r="D227" s="7"/>
+      <c r="D227" s="12"/>
       <c r="E227" s="2" t="s">
-        <v>460</v>
+        <v>388</v>
       </c>
     </row>
     <row r="228" customFormat="false" ht="30.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A228" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B228" s="16" t="s">
+      <c r="B228" s="12" t="s">
+        <v>459</v>
+      </c>
+      <c r="C228" s="12" t="s">
+        <v>460</v>
+      </c>
+      <c r="D228" s="12"/>
+      <c r="E228" s="2" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="229" customFormat="false" ht="30.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A229" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B229" s="12" t="s">
         <v>461</v>
       </c>
-      <c r="C228" s="16" t="s">
+      <c r="C229" s="12" t="s">
         <v>462</v>
       </c>
-      <c r="D228" s="16"/>
-      <c r="E228" s="2" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="229" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A229" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B229" s="16" t="s">
+      <c r="D229" s="12"/>
+      <c r="E229" s="2" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="230" customFormat="false" ht="45.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A230" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B230" s="12" t="s">
         <v>463</v>
       </c>
-      <c r="C229" s="16" t="s">
+      <c r="C230" s="12" t="s">
         <v>464</v>
       </c>
-      <c r="D229" s="16"/>
-      <c r="E229" s="2" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="230" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A230" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B230" s="16" t="s">
-        <v>465</v>
-      </c>
-      <c r="C230" s="16" t="s">
-        <v>466</v>
-      </c>
-      <c r="D230" s="16"/>
+      <c r="D230" s="12"/>
       <c r="E230" s="2" t="s">
-        <v>460</v>
+        <v>388</v>
       </c>
     </row>
     <row r="231" customFormat="false" ht="30.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5442,677 +5466,737 @@
         <v>1</v>
       </c>
       <c r="B231" s="7" t="s">
+        <v>465</v>
+      </c>
+      <c r="C231" s="7" t="s">
+        <v>466</v>
+      </c>
+      <c r="D231" s="7"/>
+      <c r="E231" s="2" t="s">
         <v>467</v>
-      </c>
-      <c r="C231" s="16" t="s">
-        <v>468</v>
-      </c>
-      <c r="D231" s="16"/>
-      <c r="E231" s="2" t="s">
-        <v>460</v>
       </c>
     </row>
     <row r="232" customFormat="false" ht="30.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A232" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B232" s="16" t="s">
+      <c r="B232" s="12" t="s">
+        <v>468</v>
+      </c>
+      <c r="C232" s="12" t="s">
         <v>469</v>
       </c>
-      <c r="C232" s="16" t="s">
-        <v>470</v>
-      </c>
-      <c r="D232" s="16"/>
+      <c r="D232" s="12"/>
       <c r="E232" s="2" t="s">
-        <v>460</v>
+        <v>467</v>
       </c>
     </row>
     <row r="233" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A233" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B233" s="16" t="s">
+      <c r="B233" s="12" t="s">
+        <v>470</v>
+      </c>
+      <c r="C233" s="12" t="s">
         <v>471</v>
       </c>
-      <c r="C233" s="16" t="s">
+      <c r="D233" s="12"/>
+      <c r="E233" s="2" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="234" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A234" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B234" s="12" t="s">
         <v>472</v>
       </c>
-      <c r="D233" s="16"/>
-      <c r="E233" s="2" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="234" customFormat="false" ht="30.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A234" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B234" s="16" t="s">
+      <c r="C234" s="12" t="s">
         <v>473</v>
       </c>
-      <c r="C234" s="16" t="s">
-        <v>474</v>
-      </c>
-      <c r="D234" s="16"/>
+      <c r="D234" s="12"/>
       <c r="E234" s="2" t="s">
-        <v>460</v>
+        <v>467</v>
       </c>
     </row>
     <row r="235" customFormat="false" ht="30.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A235" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B235" s="16" t="s">
+      <c r="B235" s="7" t="s">
+        <v>474</v>
+      </c>
+      <c r="C235" s="12" t="s">
         <v>475</v>
       </c>
-      <c r="C235" s="16" t="s">
-        <v>476</v>
-      </c>
-      <c r="D235" s="16"/>
+      <c r="D235" s="12"/>
       <c r="E235" s="2" t="s">
-        <v>460</v>
+        <v>467</v>
       </c>
     </row>
     <row r="236" customFormat="false" ht="30.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A236" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B236" s="16" t="s">
+      <c r="B236" s="12" t="s">
+        <v>476</v>
+      </c>
+      <c r="C236" s="12" t="s">
         <v>477</v>
       </c>
-      <c r="C236" s="16" t="s">
+      <c r="D236" s="12"/>
+      <c r="E236" s="2" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="237" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A237" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B237" s="12" t="s">
         <v>478</v>
       </c>
-      <c r="D236" s="16"/>
-      <c r="E236" s="2" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="237" customFormat="false" ht="30.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A237" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B237" s="16" t="s">
+      <c r="C237" s="12" t="s">
         <v>479</v>
       </c>
-      <c r="C237" s="16" t="s">
+      <c r="D237" s="12"/>
+      <c r="E237" s="2" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="238" customFormat="false" ht="30.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A238" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B238" s="12" t="s">
         <v>480</v>
       </c>
-      <c r="D237" s="16"/>
-      <c r="E237" s="2" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="238" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A238" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B238" s="16" t="s">
+      <c r="C238" s="12" t="s">
         <v>481</v>
       </c>
-      <c r="C238" s="16" t="s">
-        <v>482</v>
-      </c>
-      <c r="D238" s="16"/>
+      <c r="D238" s="12"/>
       <c r="E238" s="2" t="s">
-        <v>460</v>
+        <v>467</v>
       </c>
     </row>
     <row r="239" customFormat="false" ht="30.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A239" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B239" s="16" t="s">
+      <c r="B239" s="12" t="s">
+        <v>482</v>
+      </c>
+      <c r="C239" s="12" t="s">
         <v>483</v>
       </c>
-      <c r="C239" s="16" t="s">
-        <v>484</v>
-      </c>
-      <c r="D239" s="16"/>
+      <c r="D239" s="12"/>
       <c r="E239" s="2" t="s">
-        <v>460</v>
+        <v>467</v>
       </c>
     </row>
     <row r="240" customFormat="false" ht="30.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A240" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B240" s="16" t="s">
+      <c r="B240" s="12" t="s">
+        <v>484</v>
+      </c>
+      <c r="C240" s="12" t="s">
         <v>485</v>
       </c>
-      <c r="C240" s="16" t="s">
-        <v>486</v>
-      </c>
-      <c r="D240" s="16"/>
+      <c r="D240" s="12"/>
       <c r="E240" s="2" t="s">
-        <v>460</v>
+        <v>467</v>
       </c>
     </row>
     <row r="241" customFormat="false" ht="30.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A241" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B241" s="16" t="s">
+      <c r="B241" s="12" t="s">
+        <v>486</v>
+      </c>
+      <c r="C241" s="12" t="s">
         <v>487</v>
       </c>
-      <c r="C241" s="16" t="s">
-        <v>488</v>
-      </c>
-      <c r="D241" s="16"/>
+      <c r="D241" s="12"/>
       <c r="E241" s="2" t="s">
-        <v>460</v>
+        <v>467</v>
       </c>
     </row>
     <row r="242" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A242" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B242" s="16" t="s">
+      <c r="B242" s="12" t="s">
+        <v>488</v>
+      </c>
+      <c r="C242" s="12" t="s">
         <v>489</v>
       </c>
-      <c r="C242" s="16" t="s">
-        <v>490</v>
-      </c>
-      <c r="D242" s="16"/>
+      <c r="D242" s="12"/>
       <c r="E242" s="2" t="s">
-        <v>460</v>
+        <v>467</v>
       </c>
     </row>
     <row r="243" customFormat="false" ht="30.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A243" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B243" s="16" t="s">
+      <c r="B243" s="12" t="s">
+        <v>490</v>
+      </c>
+      <c r="C243" s="12" t="s">
         <v>491</v>
       </c>
-      <c r="C243" s="16" t="s">
+      <c r="D243" s="12"/>
+      <c r="E243" s="2" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="244" customFormat="false" ht="30.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A244" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B244" s="12" t="s">
         <v>492</v>
       </c>
-      <c r="D243" s="16"/>
-      <c r="E243" s="2" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="244" customFormat="false" ht="45.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A244" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B244" s="16" t="s">
+      <c r="C244" s="12" t="s">
         <v>493</v>
       </c>
-      <c r="C244" s="16" t="s">
-        <v>494</v>
-      </c>
-      <c r="D244" s="16"/>
+      <c r="D244" s="12"/>
       <c r="E244" s="2" t="s">
-        <v>460</v>
+        <v>467</v>
       </c>
     </row>
     <row r="245" customFormat="false" ht="30.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A245" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B245" s="16" t="s">
+      <c r="B245" s="12" t="s">
+        <v>494</v>
+      </c>
+      <c r="C245" s="12" t="s">
         <v>495</v>
       </c>
-      <c r="C245" s="2" t="s">
+      <c r="D245" s="12"/>
+      <c r="E245" s="2" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="246" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A246" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B246" s="12" t="s">
         <v>496</v>
       </c>
-      <c r="E245" s="2" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="246" customFormat="false" ht="30.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A246" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B246" s="16" t="s">
+      <c r="C246" s="12" t="s">
         <v>497</v>
       </c>
-      <c r="C246" s="16" t="s">
+      <c r="D246" s="12"/>
+      <c r="E246" s="2" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="247" customFormat="false" ht="30.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A247" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B247" s="12" t="s">
         <v>498</v>
       </c>
-      <c r="D246" s="16"/>
-      <c r="E246" s="2" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="247" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A247" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B247" s="16" t="s">
+      <c r="C247" s="12" t="s">
         <v>499</v>
       </c>
-      <c r="C247" s="16" t="s">
+      <c r="D247" s="12"/>
+      <c r="E247" s="2" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="248" customFormat="false" ht="45.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A248" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B248" s="12" t="s">
         <v>500</v>
       </c>
-      <c r="D247" s="16"/>
-      <c r="E247" s="2" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="248" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A248" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B248" s="16" t="s">
+      <c r="C248" s="12" t="s">
         <v>501</v>
       </c>
-      <c r="C248" s="16" t="s">
+      <c r="D248" s="12"/>
+      <c r="E248" s="2" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="249" customFormat="false" ht="30.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A249" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B249" s="12" t="s">
         <v>502</v>
       </c>
-      <c r="D248" s="16"/>
-      <c r="E248" s="2" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="249" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A249" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B249" s="16" t="s">
+      <c r="C249" s="2" t="s">
         <v>503</v>
       </c>
-      <c r="C249" s="16" t="s">
+      <c r="E249" s="2" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="250" customFormat="false" ht="30.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A250" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B250" s="12" t="s">
         <v>504</v>
       </c>
-      <c r="D249" s="16"/>
-      <c r="E249" s="2" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="250" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A250" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B250" s="16" t="s">
+      <c r="C250" s="12" t="s">
         <v>505</v>
       </c>
-      <c r="C250" s="16" t="s">
+      <c r="D250" s="12"/>
+      <c r="E250" s="2" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="251" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A251" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B251" s="12" t="s">
         <v>506</v>
       </c>
-      <c r="D250" s="16"/>
-      <c r="E250" s="2" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="251" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A251" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B251" s="16" t="s">
+      <c r="C251" s="12" t="s">
         <v>507</v>
       </c>
-      <c r="C251" s="16" t="s">
-        <v>508</v>
-      </c>
-      <c r="D251" s="16"/>
+      <c r="D251" s="12"/>
       <c r="E251" s="2" t="s">
-        <v>460</v>
+        <v>467</v>
       </c>
     </row>
     <row r="252" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A252" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B252" s="16" t="s">
+      <c r="B252" s="12" t="s">
+        <v>508</v>
+      </c>
+      <c r="C252" s="12" t="s">
         <v>509</v>
       </c>
-      <c r="C252" s="16" t="s">
-        <v>510</v>
-      </c>
-      <c r="D252" s="16"/>
+      <c r="D252" s="12"/>
       <c r="E252" s="2" t="s">
-        <v>460</v>
+        <v>467</v>
       </c>
     </row>
     <row r="253" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A253" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B253" s="16" t="s">
+      <c r="B253" s="12" t="s">
+        <v>510</v>
+      </c>
+      <c r="C253" s="12" t="s">
         <v>511</v>
       </c>
-      <c r="C253" s="16" t="s">
-        <v>512</v>
-      </c>
-      <c r="D253" s="16"/>
+      <c r="D253" s="12"/>
       <c r="E253" s="2" t="s">
-        <v>460</v>
+        <v>467</v>
       </c>
     </row>
     <row r="254" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A254" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B254" s="16" t="s">
+      <c r="B254" s="12" t="s">
+        <v>512</v>
+      </c>
+      <c r="C254" s="12" t="s">
         <v>513</v>
       </c>
-      <c r="C254" s="16" t="s">
-        <v>514</v>
-      </c>
-      <c r="D254" s="16"/>
+      <c r="D254" s="12"/>
       <c r="E254" s="2" t="s">
-        <v>515</v>
+        <v>467</v>
       </c>
     </row>
     <row r="255" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A255" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B255" s="16" t="s">
-        <v>516</v>
-      </c>
-      <c r="C255" s="16" t="s">
-        <v>517</v>
-      </c>
-      <c r="D255" s="16"/>
+      <c r="B255" s="12" t="s">
+        <v>514</v>
+      </c>
+      <c r="C255" s="12" t="s">
+        <v>515</v>
+      </c>
+      <c r="D255" s="12"/>
       <c r="E255" s="2" t="s">
-        <v>515</v>
+        <v>467</v>
       </c>
     </row>
     <row r="256" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A256" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B256" s="16" t="s">
-        <v>518</v>
-      </c>
-      <c r="C256" s="16" t="s">
-        <v>519</v>
-      </c>
-      <c r="D256" s="16"/>
+      <c r="B256" s="12" t="s">
+        <v>516</v>
+      </c>
+      <c r="C256" s="12" t="s">
+        <v>517</v>
+      </c>
+      <c r="D256" s="12"/>
       <c r="E256" s="2" t="s">
-        <v>515</v>
+        <v>467</v>
       </c>
     </row>
     <row r="257" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A257" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B257" s="16" t="s">
-        <v>520</v>
-      </c>
-      <c r="C257" s="16" t="s">
-        <v>521</v>
-      </c>
-      <c r="D257" s="16"/>
+      <c r="B257" s="12" t="s">
+        <v>518</v>
+      </c>
+      <c r="C257" s="12" t="s">
+        <v>519</v>
+      </c>
+      <c r="D257" s="12"/>
       <c r="E257" s="2" t="s">
-        <v>515</v>
+        <v>467</v>
       </c>
     </row>
     <row r="258" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A258" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B258" s="16" t="s">
+      <c r="B258" s="12" t="s">
+        <v>520</v>
+      </c>
+      <c r="C258" s="12" t="s">
+        <v>521</v>
+      </c>
+      <c r="D258" s="12"/>
+      <c r="E258" s="2" t="s">
         <v>522</v>
-      </c>
-      <c r="C258" s="16" t="s">
-        <v>523</v>
-      </c>
-      <c r="D258" s="16"/>
-      <c r="E258" s="2" t="s">
-        <v>515</v>
       </c>
     </row>
     <row r="259" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A259" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B259" s="16" t="s">
+      <c r="B259" s="12" t="s">
+        <v>523</v>
+      </c>
+      <c r="C259" s="12" t="s">
         <v>524</v>
       </c>
-      <c r="C259" s="16" t="s">
-        <v>525</v>
-      </c>
-      <c r="D259" s="16"/>
+      <c r="D259" s="12"/>
       <c r="E259" s="2" t="s">
-        <v>515</v>
+        <v>522</v>
       </c>
     </row>
     <row r="260" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A260" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B260" s="16" t="s">
+      <c r="B260" s="12" t="s">
+        <v>525</v>
+      </c>
+      <c r="C260" s="12" t="s">
         <v>526</v>
       </c>
-      <c r="C260" s="2" t="s">
-        <v>527</v>
-      </c>
+      <c r="D260" s="12"/>
       <c r="E260" s="2" t="s">
-        <v>515</v>
+        <v>522</v>
       </c>
     </row>
     <row r="261" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A261" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B261" s="16" t="s">
+      <c r="B261" s="12" t="s">
+        <v>527</v>
+      </c>
+      <c r="C261" s="12" t="s">
         <v>528</v>
       </c>
-      <c r="C261" s="16" t="s">
-        <v>529</v>
-      </c>
-      <c r="D261" s="16"/>
+      <c r="D261" s="12"/>
       <c r="E261" s="2" t="s">
-        <v>515</v>
+        <v>522</v>
       </c>
     </row>
     <row r="262" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A262" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B262" s="16" t="s">
+      <c r="B262" s="12" t="s">
+        <v>529</v>
+      </c>
+      <c r="C262" s="12" t="s">
         <v>530</v>
       </c>
-      <c r="C262" s="2" t="s">
-        <v>531</v>
-      </c>
+      <c r="D262" s="12"/>
       <c r="E262" s="2" t="s">
-        <v>515</v>
+        <v>522</v>
       </c>
     </row>
     <row r="263" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A263" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B263" s="16" t="s">
+      <c r="B263" s="12" t="s">
+        <v>531</v>
+      </c>
+      <c r="C263" s="12" t="s">
         <v>532</v>
       </c>
-      <c r="C263" s="16" t="s">
+      <c r="D263" s="12"/>
+      <c r="E263" s="2" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="264" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A264" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B264" s="12" t="s">
         <v>533</v>
       </c>
-      <c r="D263" s="16"/>
-      <c r="E263" s="2" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="264" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A264" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B264" s="16" t="s">
+      <c r="C264" s="2" t="s">
         <v>534</v>
       </c>
-      <c r="C264" s="16" t="s">
+      <c r="E264" s="2" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="265" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A265" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B265" s="12" t="s">
         <v>535</v>
       </c>
-      <c r="D264" s="16"/>
-      <c r="E264" s="2" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="265" customFormat="false" ht="30.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A265" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B265" s="16" t="s">
+      <c r="C265" s="12" t="s">
         <v>536</v>
       </c>
-      <c r="C265" s="2" t="s">
+      <c r="D265" s="12"/>
+      <c r="E265" s="2" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="266" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A266" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B266" s="12" t="s">
         <v>537</v>
       </c>
-      <c r="E265" s="2" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="266" customFormat="false" ht="30.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A266" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B266" s="16" t="s">
+      <c r="C266" s="2" t="s">
         <v>538</v>
       </c>
-      <c r="C266" s="16" t="s">
+      <c r="E266" s="2" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="267" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A267" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B267" s="12" t="s">
         <v>539</v>
       </c>
-      <c r="D266" s="16"/>
-      <c r="E266" s="2" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="267" customFormat="false" ht="30.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A267" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B267" s="16" t="s">
+      <c r="C267" s="12" t="s">
         <v>540</v>
       </c>
-      <c r="C267" s="2" t="s">
+      <c r="D267" s="12"/>
+      <c r="E267" s="2" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="268" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A268" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B268" s="12" t="s">
         <v>541</v>
       </c>
-      <c r="E267" s="2" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="268" customFormat="false" ht="30.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A268" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B268" s="16" t="s">
+      <c r="C268" s="12" t="s">
         <v>542</v>
       </c>
-      <c r="C268" s="16" t="s">
-        <v>543</v>
-      </c>
-      <c r="D268" s="16"/>
+      <c r="D268" s="12"/>
       <c r="E268" s="2" t="s">
-        <v>515</v>
+        <v>522</v>
       </c>
     </row>
     <row r="269" customFormat="false" ht="30.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A269" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B269" s="16" t="s">
+      <c r="B269" s="12" t="s">
+        <v>543</v>
+      </c>
+      <c r="C269" s="2" t="s">
         <v>544</v>
       </c>
-      <c r="C269" s="2" t="s">
-        <v>545</v>
-      </c>
       <c r="E269" s="2" t="s">
-        <v>515</v>
+        <v>522</v>
       </c>
     </row>
     <row r="270" customFormat="false" ht="30.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A270" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B270" s="16" t="s">
+      <c r="B270" s="12" t="s">
+        <v>545</v>
+      </c>
+      <c r="C270" s="12" t="s">
         <v>546</v>
       </c>
-      <c r="C270" s="2" t="s">
-        <v>547</v>
-      </c>
+      <c r="D270" s="12"/>
       <c r="E270" s="2" t="s">
-        <v>515</v>
+        <v>522</v>
       </c>
     </row>
     <row r="271" customFormat="false" ht="30.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A271" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B271" s="16" t="s">
+      <c r="B271" s="12" t="s">
+        <v>547</v>
+      </c>
+      <c r="C271" s="2" t="s">
         <v>548</v>
       </c>
-      <c r="C271" s="16" t="s">
-        <v>549</v>
-      </c>
-      <c r="D271" s="16"/>
       <c r="E271" s="2" t="s">
-        <v>515</v>
+        <v>522</v>
       </c>
     </row>
     <row r="272" customFormat="false" ht="30.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A272" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B272" s="16" t="s">
+      <c r="B272" s="12" t="s">
+        <v>549</v>
+      </c>
+      <c r="C272" s="12" t="s">
         <v>550</v>
       </c>
-      <c r="C272" s="2" t="s">
-        <v>551</v>
-      </c>
+      <c r="D272" s="12"/>
       <c r="E272" s="2" t="s">
-        <v>515</v>
+        <v>522</v>
       </c>
     </row>
     <row r="273" customFormat="false" ht="30.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A273" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B273" s="16" t="s">
+      <c r="B273" s="12" t="s">
+        <v>551</v>
+      </c>
+      <c r="C273" s="2" t="s">
         <v>552</v>
       </c>
-      <c r="C273" s="16" t="s">
-        <v>553</v>
-      </c>
-      <c r="D273" s="16"/>
       <c r="E273" s="2" t="s">
-        <v>515</v>
+        <v>522</v>
       </c>
     </row>
     <row r="274" customFormat="false" ht="30.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A274" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B274" s="16" t="s">
+      <c r="B274" s="12" t="s">
+        <v>553</v>
+      </c>
+      <c r="C274" s="2" t="s">
         <v>554</v>
       </c>
-      <c r="C274" s="16" t="s">
-        <v>508</v>
-      </c>
-      <c r="D274" s="16"/>
       <c r="E274" s="2" t="s">
-        <v>515</v>
+        <v>522</v>
       </c>
     </row>
     <row r="275" customFormat="false" ht="30.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A275" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B275" s="16" t="s">
+      <c r="B275" s="12" t="s">
         <v>555</v>
       </c>
-      <c r="C275" s="16" t="s">
+      <c r="C275" s="12" t="s">
         <v>556</v>
       </c>
-      <c r="D275" s="16"/>
+      <c r="D275" s="12"/>
       <c r="E275" s="2" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="276" customFormat="false" ht="30.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A276" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B276" s="12" t="s">
+        <v>557</v>
+      </c>
+      <c r="C276" s="2" t="s">
+        <v>558</v>
+      </c>
+      <c r="E276" s="2" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="277" customFormat="false" ht="30.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A277" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B277" s="12" t="s">
+        <v>559</v>
+      </c>
+      <c r="C277" s="12" t="s">
+        <v>560</v>
+      </c>
+      <c r="D277" s="12"/>
+      <c r="E277" s="2" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="278" customFormat="false" ht="30.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A278" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B278" s="12" t="s">
+        <v>561</v>
+      </c>
+      <c r="C278" s="12" t="s">
         <v>515</v>
       </c>
-    </row>
-    <row r="276" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A276" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="C276" s="0"/>
-      <c r="D276" s="0"/>
-    </row>
-    <row r="277" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A277" s="1" t="n">
+      <c r="D278" s="12"/>
+      <c r="E278" s="2" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="279" customFormat="false" ht="30.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A279" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B279" s="12" t="s">
+        <v>562</v>
+      </c>
+      <c r="C279" s="12" t="s">
+        <v>563</v>
+      </c>
+      <c r="D279" s="12"/>
+      <c r="E279" s="2" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="280" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A280" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C280" s="3"/>
+      <c r="D280" s="3"/>
+    </row>
+    <row r="281" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A281" s="1" t="n">
         <v>1</v>
       </c>
     </row>

--- a/backend/django_cemos2028/apps/perguntas/fixtures/flashcards.xlsx
+++ b/backend/django_cemos2028/apps/perguntas/fixtures/flashcards.xlsx
@@ -10,6 +10,9 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Sheet1!$A$1:$E$369</definedName>
+  </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
@@ -20,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="839" uniqueCount="564">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1108" uniqueCount="744">
   <si>
     <t xml:space="preserve">bibliografia_id</t>
   </si>
@@ -766,6 +769,18 @@
     <t xml:space="preserve">Paquistão, Afeganistão, Índia e China.</t>
   </si>
   <si>
+    <t xml:space="preserve">Por que os estados indianos de Jammu e da Caxemira são considerados regiões de tensão para a Índia?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Porque possuem uma maioria islâmica de cerca de 75%, o que tem contribuído para rebeliões jihadistas e transformado a região em base para atentados terroristas contra a Índia.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Por que a Caxemira tem vital importância para a Índia e países vizinhos?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A Caxemira é vital por seus recursos hídricos (nascentes dos rios Ganges e Indo), essenciais para o abastecimento do subcontinente indiano.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Qual foi a razão da guerra entre China e Índia em 1962 na região da Caxemira?</t>
   </si>
   <si>
@@ -868,7 +883,7 @@
     <t xml:space="preserve">É o produto da observação da ação do homem na exploração do meio natural.</t>
   </si>
   <si>
-    <t xml:space="preserve">Raízes da Geopolítica</t>
+    <t xml:space="preserve">Raízes</t>
   </si>
   <si>
     <t xml:space="preserve">Qual pensador desenvolveu a Teoria do Método Experimental, fundamental para o caminho científico da Geopolítica?</t>
@@ -1613,7 +1628,7 @@
     <t xml:space="preserve">O ramo geográfico.</t>
   </si>
   <si>
-    <t xml:space="preserve">Geopolítica na Modernidade</t>
+    <t xml:space="preserve">Modernidade</t>
   </si>
   <si>
     <t xml:space="preserve">Quais são os três principais ramos de conhecimento que compõem a Geopolítica?</t>
@@ -1737,6 +1752,537 @@
   </si>
   <si>
     <t xml:space="preserve">Todos saíram enriquecidos, assegurando a plena vitalidade da Geopolítica.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Desde que século os colonos russos tentam subjugar os diversos povos do Cáucaso?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Desde o século XVII.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cite dois grandes problemas internos chineses (Os Planaltos contíguos).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ásia Central Turcomana (Xinjiang) e Tibet.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Onde está localizado o istmo montanhoso do Cáucaso, que inspirou temor e reverência nos russos?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Entre os mares Negro e Cáspio.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cite quatro povos que os russos tentaram subjugar na região do Cáucaso.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tchetchenos, inguches, ossetas, daguestaneses (e também abecazes, kartvelianos, armênios, azeris, etc.).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Qual é a principal via de acesso da Rússia ao mar e qual o seu principal obstáculo?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">É pelo Norte, mas encontra-se bloqueado pelo gelo ártico durante vários meses do ano.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Segundo Mahan, por que as potências terrestres vivem em permanente insegurança?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Porque, sem mares que as protejam, são obrigadas a se expandir continuamente para não serem conquistadas.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">De acordo com Mackinder, qual é um dos temas centrais da história russa relacionado à sua geografia?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O temor de uma invasão por terra, devido ao seu território plano e quase sem fronteiras naturais.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Qual foi o Estado que a Rússia marchou em busca de águas mais quentes do Índico?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Afeganistão</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Por que a Rússia marchou sobre o Afeganistão, de acordo com o texto?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Para fazer frente aos britânicos na Índia e buscar acesso às águas mais quentes do Oceano Índico.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Qual característica do clima russo, segundo o historiador Philip Longworth, desenvolveu nos russos um "comunalismo" e uma disposição para o sacrifício individual?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A intensidade do frio e a curta estação de cultivo, que impunham interdependência e esforço coletivo.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A _____ é uma região congelada e sem árvores no cinturão norte da Rússia, coberta de musgo e líquens.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tundra</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Qual é a maior floresta de coníferas do mundo, que se estende do Báltico ao Pacífico na Rússia?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Taiga</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Como W. Bruce Lincoln descreve as estepes, a maior área de campinas do mundo?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Como "a grande estrada de grama".</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Qual fator principal, relacionado à presença mongol, foi responsável por negar à Rússia a experiência do Renascimento?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A prolongada e humilhante presença dos mongóis (Horda Dourada e Horda Azul).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">De acordo com o historiador G. Patrick March, que duas características o jugo tártaro instilou nos russos?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Uma maior tolerância à tirania e um medo paranoico de invasões.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Segundo James H. Billington, qual é a emoção nacional russa quintessencial?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A insegurança.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Para James H. Billington, o que dominou o pensamento russo mais do que a história?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A geografia, com seus ciclos sazonais inóspitos e a vastidão da planície.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Qual padrão histórico a geografia e a história da Rússia demonstram repetidamente?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O Império Russo expandiu-se, ruiu e renasceu vezes sem conta.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Qual foi o primeiro grande império da Rússia e o primeiro grande corpo político do Leste Europeu?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O Principado de Kiev.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Qual império influenciou a conversão do Principado de Kiev ao cristianismo ortodoxo?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O Império Bizantino.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quem foi o primeiro grande imperialista da Rússia, cujo papel foi imposto em parte pela história e geografia?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ivan IV, “o Terrível”.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Qual evento em 1453 levou refugiados de Constantinopla a Moscou, trazendo conhecimento para a construção de um império?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A devastação de Bizâncio pelos turcos otomanos.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Qual foi a conquista fundamental de Ivan IV que lhe deu acesso aos Urais e abriu caminho para a Sibéria?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A derrota dos tártaros de Cazã.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Para o escritor Nikolai Gogol, qual era a "Rússia verdadeira e primordial"?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A Ucrânia (palavra que significa “terra de fronteira”).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Qual era o título que a Moscóvia medieval se autointitulava, como sucessora de Roma e Constantinopla?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A “Terceira Roma”.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Qual dinastia iniciou um novo capítulo na história russa em 1613, após o "Tempo de Dificuldades"?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A dinastia Romanov, com Miguel Romanov.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cite duas grandes guerras em que o Império Russo sofreu reveses durante a dinastia Romanov.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A Guerra da Crimeia (1853–1856) e a Guerra Russo-Japonesa (1904–1905).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quem foi para a dinastia Romanov o que Ivan IV foi para a Moscóvia medieval, demonstrando que a geografia é apenas parte da história?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pedro, o Grande.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Qual foi a grande realização de Pedro, o Grande, que envolveu uma guerra contra o Império Sueco?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A construção de São Petersburgo e a consolidação do litoral báltico russo.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Qual tática militar os russos usaram contra Napoleão e Hitler, que já havia sido empregada na guerra contra a Suécia?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A tática de terra arrasada, queimando suas próprias safras.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Apesar dos esforços de Pedro, o Grande, para europeizar a Rússia, o país continuou sendo o arquétipo do país _____.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eurasiano</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quem foi o autor da citação sobre os russos olharem para os europeus com um sentimento de inferioridade?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aleksandr Herzen.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Que povo muçulmano da Ciscaucásia enfrentou os exércitos de Catarina, a Grande, e sucessivos czares ao longo do século XIX?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Os tchetchenos.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O que inspirou Mackinder a formular sua teoria do pivô na segunda metade do século XIX?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Um surto de construção de ferrovias na Rússia, que conectaram vastas áreas do seu território.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A investida imperial russa na Ásia Central no século XIX integrou-se ao que foi chamado de _____ disputado com a Grã-Bretanha.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">“Grande Jogo”</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Qual foi a principal motivação por trás da versão russa do "Destino Manifesto"?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A insegurança de um poder terrestre que precisava se manter em exploração para não ser sobrepujado.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Qual rio siberiano, o sexto maior do mundo, é considerado a verdadeira linha divisória entre as metades Oeste e Leste da Sibéria?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O Rio Ienissei.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Qual rio constitui a fronteira atual entre o Extremo Oriente russo e a Manchúria chinesa?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O Rio Amur.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Em 1860, uma China enfraquecida foi forçada a aceitar a transferência de 905.000 km² de seu território para qual país?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Para a Rússia.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Qual foi a consequência da Guerra Russo-Japonesa (1904–1905) para a China, mesmo sendo uma guerra entre Rússia e Japão?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Foi uma humilhação, pois a guerra foi disputada em território (Manchúria) que os manchus consideravam seu patrimônio.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Por que o retorno da capital russa para Moscou pelos bolcheviques foi significativo em termos geográficos e culturais?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Restaurou o caráter essencialmente asiático que sempre foi central à realidade russa, em contraste com a "janela para o Ocidente" de São Petersburgo.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Qual foi o resultado direto da Segunda Guerra Mundial em termos geopolíticos, segundo o texto?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O estabelecimento da potência do Heartland (Rússia soviética) justaposta ao poder marítimo (Estados Unidos).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Qual doutrina oitocentista os russos começaram a ressuscitar na década de 1990 como uma alternativa ao comunismo?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O eurasianismo.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Qual é um dos maiores desafios demográficos da Rússia no século XXI, que pode impactar sua capacidade de ressurgir como império?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O acentuado declínio de sua população devido a baixos índices de natalidade e alta mortalidade.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">De acordo com Dmitri Trenin, que tipo de poder a Rússia deveria usar no século XXI para projetar sua influência?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O "poder brando" (soft power), baseado na atração cultural e econômica, em vez da coação.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Para Dmitri Trenin, qual cidade russa deveria ser considerada sua 'capital do século XXI' para se integrar à região de maior dinamismo econômico do mundo?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vladivostok.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O autoritarismo de Vladimir Putin é interpretado no texto como um repúdio a quê?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ao experimento com a democracia ocidental e o capitalismo de mercado da caótica década de 1990.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Para Zbigniew Brzezinski, qual país é o pivô capaz de transformar a Rússia em um império predominantemente asiático se ficar independente, ou em um desafio à Europa se voltar à sua esfera de dominação?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A Ucrânia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Qual país da Ásia Central é descrito como o "verdadeiro Heartland de Mackinder" por sua localização e vasta riqueza de recursos naturais?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O Cazaquistão.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Qual é o nome da nova capital do Cazaquistão, construída no norte do país, de predominância étnica russa?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Astana.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A qual organização, que pretende unir potências eurasianas para contrabalançar a influência dos EUA, a Rússia, China e Cazaquistão pertencem?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">À Organização para Cooperação de Xangai (OCX).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Qual característica geográfica da Rússia é fundamental para entender a "emoção nacional russa quintessencial" de insegurança, de acordo com Mackinder?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A planura de seu território, quase desprovido de fronteiras naturais.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Qual é a complexa reação emocional que o Cáucaso historicamente inspirou nos russos?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Temor e reverência, sendo ao mesmo tempo uma ameaça e uma fonte de fascínio.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Qual é a principal ferramenta que Vladimir Putin utiliza para projetar seu poder e construir um "novo império"?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A riqueza proveniente de seus imensos recursos naturais, especialmente petróleo e gás.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Que grupo de pessoas, tornou-se fundamental para a expansão russa como unidades irregulares do exército de Ivan IV?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Os cossacos.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Qual foi o destino do "primeiro grande império da Rússia", o Principado de Kiev?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Foi devastado pelos mongóis do século XIII.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Corredores de Exportação</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Geopolítica-BR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Segundo o Embaixador Meira Penna, qual tratado já havia traçado as grandes servidões da geopolítica brasileira em 1494?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O Tratado de Tordesilhas.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quem, em 1587, fez a mais antiga visão prospectiva sobre o futuro do Brasil, prevendo que nele se poderia edificar "hum grande Imperio"?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O historiador português Gabriel Soares de Sousa.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Qual era a principal preocupação de José Bonifácio em seu documento "Lembranças e Apontamentos"?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A preservação da unidade nacional quando viesse a Independência.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quem é considerado o inspirador do Tratado de Madri de 1750, que legitimou as conquistas dos bandeirantes?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alexandre de Gusmão.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Segundo o historiador Jaime Cortezão, Alexandre de Gusmão deu ao Brasil de jure o que os _____ já haviam dado de fato.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bandeirantes.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quem são os três precursores "intuitivos" da geopolítica brasileira, segundo o texto?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gabriel Soares de Sousa, Alexandre de Gusmão e José Bonifácio de Andrada e Silva.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quem são os dois autores considerados os pioneiros da Geopolítica científica no Brasil?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O Capitão Mario Travassos e o Professor Everardo Backheuser.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Qual obra de Mario Travassos, segundo Ronald de Carvalho, foi a primeira de Geopolítica publicada no Brasil?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Projeção Continental do Brasil (1931).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Qual triângulo geopolítico na Bolívia foi destacado por Mario Travassos como um polo de convergência de influências e chave para o domínio da política continental?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O triângulo Santa Cruz de la Sierra-Cochabamba-Sucre.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Que solução principal Mario Travassos sugeriu para superar os desequilíbrios geográficos sul-americanos a favor do Brasil?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A realização de uma política de transportes, especialmente uma rede ferroviária, que neutralizasse a atração da bacia platina.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quem é considerado o precursor dos estudos de geopolítica no Brasil e o teórico que deu um método e sistematizou a matéria?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O Professor Everardo Backheuser.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Qual foi a principal tese de Everardo Backheuser sobre a política de fronteiras?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ele prescreveu que a política de fronteira não deve ser atribuição regional, mas federal, subordinada diretamente ao poder central.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">As ideias de Everardo Backheuser foram decisivas para a criação de quais territórios federais?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Amapá, Roraima, Rondônia, Fernando de Noronha, Ponta Porã e Foz do Iguaçu.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quem foi o autor do livro "Geopolítica do Brasil" (1947), que destacou o papel da aviação para o desenvolvimento de áreas longínquas?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O Brigadeiro Lysias Rodrigues.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Qual obra de Cassiano Ricardo, na década de 1940, avivou a face continentalista do destino brasileiro?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A obra "Marcha para o Oeste".</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Como Golbery do Couto e Silva descreve o Brasil em seu enfoque global do território?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Como um "Império", vasto e compacto, com "insularidade em proporções continentais".</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Qual instituição formulou a doutrina de Segurança Nacional que foi aplicada pelos governos após a Revolução de 1964?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A Escola Superior de Guerra (ESG).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Qual binômio se tornou o tema dominante no programa doutrinário da Escola Superior de Guerra (ESG)?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Segurança e Desenvolvimento.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Segundo a doutrina de Castello Branco, qual a principal diferença entre o conceito de Segurança Nacional e o de Defesa Nacional?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A Segurança Nacional é mais abrangente, incluindo aspectos internos como subversão ideológica, enquanto a Defesa Nacional foca mais em agressão externa e aspectos militares.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A doutrina da ESG estabelece uma relação de mútua causalidade entre _____ e _____.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">desenvolvimento, segurança.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No caso brasileiro, a longa tradição pacifista leva a uma doutrina de segurança essencialmente _____.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">defensiva.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Qual professora e pesquisadora se destacou nos estudos da geopolítica brasileira na década de 1970, com foco no Atlântico Sul e Antártica?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Therezinha de Castro.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Therezinha de Castro foi uma das vozes pioneiras que mais insistiu na necessidade de o Brasil instalar uma base na _____.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Antártica.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Que princípio Therezinha de Castro defendia para que o Brasil participasse territorialmente da comunidade antártica?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O princípio de defrontação.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A que conclusão Meira Mattos chegou em seu primeiro livro, "Projeção Mundial do Brasil"?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Que o Brasil tinha condições de, no futuro, alinhar-se entre as grandes potências do mundo.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Qual teoria do historiador Arnold Toynbee foi usada por Meira Mattos como instrumento de avaliação estratégica?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A teoria do "Desafio e Resposta".</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Na fórmula de Ray Cline, o que representam as variáveis C, E e M? Poder Perceptível: Pp = (C+E+M) X (S+W).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C = massa crítica (população + território), E = economia e tecnologia, 
+M = militar.
+S = estratégia (projeto nacional) e 
+W = vontade nacional.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A crise mundial provocada pela criação da _____ em 1973 desequilibrou a economia brasileira e desritmou o Plano de Desenvolvimento da década de 70.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OPEP (Organização dos Países Exportadores de Petróleo).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Qual era a proposta central de Meira Mattos em "Uma Geopolítica Pan-Amazônica" para o desenvolvimento da região?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Uma estratégia regional comum, com abordagem em três frentes e a criação de polos binacionais de desenvolvimento nas fronteiras.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Meira Mattos contesta as teorias deterministas sobre a impropriedade das regiões tropicais, utilizando qual teoria de Arnold Toynbee?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A teoria do desafio e da resposta, que afirma não haver raça superior ou clima completamente hostil.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Meira Mattos retoma a proposta de fortalecer as fronteiras, animado pela criação de qual projeto governamental em 1985?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O Projeto Calha Norte.</t>
   </si>
 </sst>
 </file>
@@ -1792,10 +2338,10 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="10"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="4">
@@ -1859,7 +2405,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1908,16 +2454,16 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
@@ -1926,6 +2472,10 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -1937,7 +2487,44 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
+  <dxfs count="4">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFF00"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF000000"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF0000"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2120,22 +2707,22 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E281"/>
+  <dimension ref="A1:E369"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A178" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C186" activeCellId="0" sqref="C186"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E369" activeCellId="0" sqref="E369"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="8.1"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="52.73"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="65.63"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="27.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="28.09"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="4" style="2" width="14.91"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="3" width="16.9"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="16.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -2152,7 +2739,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="60.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="120.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="n">
         <v>2</v>
       </c>
@@ -2169,7 +2756,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="105.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="n">
         <v>2</v>
       </c>
@@ -2183,7 +2770,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="90.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
@@ -2197,7 +2784,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="60.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="n">
         <v>2</v>
       </c>
@@ -2211,7 +2798,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="60.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="n">
         <v>2</v>
       </c>
@@ -2225,7 +2812,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="60.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="n">
         <v>2</v>
       </c>
@@ -2239,7 +2826,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="45.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="n">
         <v>2</v>
       </c>
@@ -2253,7 +2840,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="60.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="n">
         <v>2</v>
       </c>
@@ -2267,7 +2854,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="75.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="n">
         <v>2</v>
       </c>
@@ -2281,7 +2868,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="60.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="n">
         <v>2</v>
       </c>
@@ -2295,7 +2882,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="75.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="n">
         <v>2</v>
       </c>
@@ -2309,7 +2896,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="60.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="n">
         <v>2</v>
       </c>
@@ -2324,7 +2911,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="75.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="n">
         <v>2</v>
       </c>
@@ -2339,7 +2926,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="60.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="n">
         <v>2</v>
       </c>
@@ -2354,7 +2941,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="75.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="n">
         <v>2</v>
       </c>
@@ -2368,7 +2955,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="75.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="n">
         <v>2</v>
       </c>
@@ -2382,7 +2969,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="75.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="n">
         <v>2</v>
       </c>
@@ -2396,7 +2983,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="75.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="n">
         <v>2</v>
       </c>
@@ -2410,7 +2997,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="75.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="n">
         <v>2</v>
       </c>
@@ -2424,7 +3011,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="75.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="n">
         <v>2</v>
       </c>
@@ -2438,7 +3025,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="75.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="n">
         <v>2</v>
       </c>
@@ -2452,7 +3039,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="105.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="n">
         <v>2</v>
       </c>
@@ -2466,7 +3053,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="75.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="n">
         <v>2</v>
       </c>
@@ -2480,7 +3067,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="75.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="n">
         <v>2</v>
       </c>
@@ -2494,7 +3081,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" ht="105.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="n">
         <v>2</v>
       </c>
@@ -2508,7 +3095,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" ht="45.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="n">
         <v>2</v>
       </c>
@@ -2522,7 +3109,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" ht="75.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="n">
         <v>2</v>
       </c>
@@ -2536,7 +3123,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" customFormat="false" ht="90.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="n">
         <v>2</v>
       </c>
@@ -2550,7 +3137,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" customFormat="false" ht="60.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="n">
         <v>2</v>
       </c>
@@ -2564,7 +3151,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" customFormat="false" ht="75.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="n">
         <v>2</v>
       </c>
@@ -2578,7 +3165,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" customFormat="false" ht="90.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="n">
         <v>2</v>
       </c>
@@ -2592,7 +3179,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" customFormat="false" ht="105.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="n">
         <v>2</v>
       </c>
@@ -2606,7 +3193,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" customFormat="false" ht="75.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="n">
         <v>2</v>
       </c>
@@ -2620,7 +3207,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" customFormat="false" ht="105.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="n">
         <v>2</v>
       </c>
@@ -2634,7 +3221,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" customFormat="false" ht="75.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="n">
         <v>2</v>
       </c>
@@ -2648,7 +3235,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" customFormat="false" ht="60.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="n">
         <v>2</v>
       </c>
@@ -2662,7 +3249,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" customFormat="false" ht="75.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="n">
         <v>2</v>
       </c>
@@ -2676,7 +3263,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" customFormat="false" ht="105.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="n">
         <v>2</v>
       </c>
@@ -2690,7 +3277,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" customFormat="false" ht="75.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="1" t="n">
         <v>2</v>
       </c>
@@ -2704,7 +3291,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" customFormat="false" ht="75.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="n">
         <v>2</v>
       </c>
@@ -2718,7 +3305,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="45.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" customFormat="false" ht="75.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="1" t="n">
         <v>2</v>
       </c>
@@ -2732,7 +3319,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="60.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" customFormat="false" ht="120.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="1" t="n">
         <v>2</v>
       </c>
@@ -2749,7 +3336,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" customFormat="false" ht="75.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="1" t="n">
         <v>2</v>
       </c>
@@ -2763,7 +3350,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="45" customFormat="false" ht="75.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="1" t="n">
         <v>2</v>
       </c>
@@ -2777,7 +3364,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="46" customFormat="false" ht="105.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="1" t="n">
         <v>2</v>
       </c>
@@ -2791,7 +3378,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="47" customFormat="false" ht="60.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="1" t="n">
         <v>2</v>
       </c>
@@ -2805,7 +3392,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="48" customFormat="false" ht="75.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="1" t="n">
         <v>2</v>
       </c>
@@ -2819,7 +3406,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="49" customFormat="false" ht="75.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="1" t="n">
         <v>2</v>
       </c>
@@ -2833,7 +3420,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="50" customFormat="false" ht="75.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="1" t="n">
         <v>2</v>
       </c>
@@ -2847,7 +3434,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="51" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="51" customFormat="false" ht="75.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="1" t="n">
         <v>2</v>
       </c>
@@ -2861,7 +3448,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="52" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="52" customFormat="false" ht="75.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="1" t="n">
         <v>2</v>
       </c>
@@ -2875,7 +3462,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="53" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="53" customFormat="false" ht="90.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="1" t="n">
         <v>2</v>
       </c>
@@ -2889,7 +3476,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="54" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="54" customFormat="false" ht="60.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="1" t="n">
         <v>2</v>
       </c>
@@ -2903,7 +3490,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="55" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="55" customFormat="false" ht="45.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="1" t="n">
         <v>2</v>
       </c>
@@ -2917,7 +3504,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="56" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="56" customFormat="false" ht="60.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="1" t="n">
         <v>2</v>
       </c>
@@ -2931,7 +3518,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="57" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="57" customFormat="false" ht="75.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="1" t="n">
         <v>2</v>
       </c>
@@ -2945,7 +3532,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="58" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="58" customFormat="false" ht="75.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="1" t="n">
         <v>2</v>
       </c>
@@ -2959,7 +3546,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="59" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="59" customFormat="false" ht="45.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="1" t="n">
         <v>2</v>
       </c>
@@ -2973,7 +3560,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="60" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="60" customFormat="false" ht="90.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="1" t="n">
         <v>2</v>
       </c>
@@ -2987,7 +3574,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="61" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="61" customFormat="false" ht="75.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="1" t="n">
         <v>2</v>
       </c>
@@ -3001,7 +3588,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="62" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="62" customFormat="false" ht="75.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="1" t="n">
         <v>2</v>
       </c>
@@ -3015,7 +3602,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="63" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="63" customFormat="false" ht="105.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="1" t="n">
         <v>2</v>
       </c>
@@ -3029,7 +3616,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="64" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="64" customFormat="false" ht="30.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="1" t="n">
         <v>2</v>
       </c>
@@ -3043,7 +3630,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="65" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="65" customFormat="false" ht="75.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="1" t="n">
         <v>2</v>
       </c>
@@ -3057,7 +3644,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="66" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="66" customFormat="false" ht="90.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="1" t="n">
         <v>2</v>
       </c>
@@ -3071,7 +3658,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="67" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="67" customFormat="false" ht="60.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="1" t="n">
         <v>2</v>
       </c>
@@ -3085,7 +3672,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="68" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="68" customFormat="false" ht="60.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="1" t="n">
         <v>2</v>
       </c>
@@ -3099,7 +3686,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="69" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="69" customFormat="false" ht="45.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="1" t="n">
         <v>2</v>
       </c>
@@ -3113,7 +3700,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="70" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="70" customFormat="false" ht="60.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="1" t="n">
         <v>2</v>
       </c>
@@ -3127,7 +3714,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="71" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="71" customFormat="false" ht="60.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="1" t="n">
         <v>2</v>
       </c>
@@ -3141,7 +3728,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="72" customFormat="false" ht="61.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="72" customFormat="false" ht="135.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="1" t="n">
         <v>2</v>
       </c>
@@ -3155,7 +3742,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="73" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="73" customFormat="false" ht="90.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="1" t="n">
         <v>2</v>
       </c>
@@ -3169,7 +3756,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="74" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="74" customFormat="false" ht="60.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="1" t="n">
         <v>2</v>
       </c>
@@ -3183,7 +3770,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="75" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="75" customFormat="false" ht="75.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="1" t="n">
         <v>2</v>
       </c>
@@ -3197,7 +3784,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="76" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="76" customFormat="false" ht="60.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="1" t="n">
         <v>2</v>
       </c>
@@ -3211,7 +3798,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="77" customFormat="false" ht="61.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="77" customFormat="false" ht="135.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="1" t="n">
         <v>2</v>
       </c>
@@ -3225,7 +3812,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="78" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="78" customFormat="false" ht="90.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="1" t="n">
         <v>2</v>
       </c>
@@ -3239,7 +3826,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="79" customFormat="false" ht="76.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="79" customFormat="false" ht="120.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="1" t="n">
         <v>2</v>
       </c>
@@ -3253,7 +3840,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="80" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="80" customFormat="false" ht="60.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="1" t="n">
         <v>2</v>
       </c>
@@ -3267,7 +3854,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="81" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="81" customFormat="false" ht="75.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="1" t="n">
         <v>2</v>
       </c>
@@ -3281,7 +3868,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="82" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="82" customFormat="false" ht="75.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="1" t="n">
         <v>2</v>
       </c>
@@ -3295,7 +3882,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="83" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="83" customFormat="false" ht="75.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="1" t="n">
         <v>2</v>
       </c>
@@ -3309,7 +3896,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="84" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="84" customFormat="false" ht="90.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="1" t="n">
         <v>2</v>
       </c>
@@ -3323,7 +3910,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="85" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="85" customFormat="false" ht="75.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="1" t="n">
         <v>2</v>
       </c>
@@ -3337,7 +3924,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="86" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="86" customFormat="false" ht="75.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="1" t="n">
         <v>2</v>
       </c>
@@ -3351,7 +3938,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="87" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="87" customFormat="false" ht="45.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="1" t="n">
         <v>2</v>
       </c>
@@ -3365,7 +3952,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="88" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="88" customFormat="false" ht="90.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="1" t="n">
         <v>2</v>
       </c>
@@ -3379,7 +3966,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="89" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="89" customFormat="false" ht="90.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="1" t="n">
         <v>2</v>
       </c>
@@ -3393,7 +3980,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="90" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="90" customFormat="false" ht="45.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="1" t="n">
         <v>2</v>
       </c>
@@ -3407,7 +3994,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="91" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="91" customFormat="false" ht="45.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="1" t="n">
         <v>2</v>
       </c>
@@ -3421,7 +4008,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="92" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="92" customFormat="false" ht="75.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="1" t="n">
         <v>2</v>
       </c>
@@ -3435,7 +4022,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="93" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="93" customFormat="false" ht="75.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="1" t="n">
         <v>2</v>
       </c>
@@ -3449,7 +4036,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="94" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="94" customFormat="false" ht="90.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="1" t="n">
         <v>2</v>
       </c>
@@ -3463,7 +4050,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="95" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="95" customFormat="false" ht="60.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="1" t="n">
         <v>2</v>
       </c>
@@ -3477,7 +4064,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="96" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="96" customFormat="false" ht="75.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="1" t="n">
         <v>2</v>
       </c>
@@ -3491,7 +4078,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="97" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="97" customFormat="false" ht="75.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="1" t="n">
         <v>2</v>
       </c>
@@ -3505,7 +4092,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="98" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="98" customFormat="false" ht="135.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="1" t="n">
         <v>2</v>
       </c>
@@ -3519,7 +4106,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="99" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="99" customFormat="false" ht="90.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="1" t="n">
         <v>2</v>
       </c>
@@ -3533,7 +4120,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="100" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="100" customFormat="false" ht="90.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="1" t="n">
         <v>2</v>
       </c>
@@ -3547,7 +4134,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="101" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="101" customFormat="false" ht="75.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="1" t="n">
         <v>2</v>
       </c>
@@ -3561,7 +4148,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="102" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="102" customFormat="false" ht="60.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="1" t="n">
         <v>2</v>
       </c>
@@ -3575,7 +4162,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="103" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="103" customFormat="false" ht="45.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="1" t="n">
         <v>2</v>
       </c>
@@ -3589,7 +4176,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="104" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="104" customFormat="false" ht="75.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="1" t="n">
         <v>2</v>
       </c>
@@ -3603,7 +4190,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="105" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="105" customFormat="false" ht="105.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="1" t="n">
         <v>2</v>
       </c>
@@ -3617,7 +4204,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="106" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="106" customFormat="false" ht="75.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="1" t="n">
         <v>2</v>
       </c>
@@ -3631,7 +4218,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="107" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="107" customFormat="false" ht="75.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="1" t="n">
         <v>2</v>
       </c>
@@ -3645,7 +4232,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="108" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="108" customFormat="false" ht="75.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="1" t="n">
         <v>2</v>
       </c>
@@ -3659,7 +4246,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="109" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="109" customFormat="false" ht="90.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="1" t="n">
         <v>2</v>
       </c>
@@ -3673,7 +4260,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="110" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="110" customFormat="false" ht="75.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="1" t="n">
         <v>2</v>
       </c>
@@ -3687,7 +4274,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="111" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="111" customFormat="false" ht="75.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="1" t="n">
         <v>2</v>
       </c>
@@ -3701,7 +4288,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="112" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="112" customFormat="false" ht="75.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="1" t="n">
         <v>2</v>
       </c>
@@ -3715,7 +4302,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="113" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="113" customFormat="false" ht="105.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="1" t="n">
         <v>2</v>
       </c>
@@ -3729,7 +4316,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="114" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="114" customFormat="false" ht="90.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="1" t="n">
         <v>2</v>
       </c>
@@ -3743,7 +4330,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="115" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="115" customFormat="false" ht="60.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="1" t="n">
         <v>2</v>
       </c>
@@ -3757,7 +4344,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="116" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="116" customFormat="false" ht="90.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="1" t="n">
         <v>2</v>
       </c>
@@ -3771,7 +4358,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="117" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="117" customFormat="false" ht="75.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="11" t="n">
         <v>2</v>
       </c>
@@ -3785,7 +4372,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="118" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="118" customFormat="false" ht="45.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="11" t="n">
         <v>2</v>
       </c>
@@ -3799,35 +4386,35 @@
         <v>140</v>
       </c>
     </row>
-    <row r="119" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="119" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="11" t="n">
         <v>2</v>
       </c>
       <c r="B119" s="2" t="s">
         <v>241</v>
       </c>
-      <c r="C119" s="2" t="s">
+      <c r="C119" s="12" t="s">
         <v>242</v>
       </c>
       <c r="E119" s="2" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="120" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="120" customFormat="false" ht="120.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="11" t="n">
         <v>2</v>
       </c>
       <c r="B120" s="2" t="s">
         <v>243</v>
       </c>
-      <c r="C120" s="2" t="s">
+      <c r="C120" s="12" t="s">
         <v>244</v>
       </c>
       <c r="E120" s="2" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="121" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="121" customFormat="false" ht="60.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="11" t="n">
         <v>2</v>
       </c>
@@ -3841,7 +4428,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="122" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="122" customFormat="false" ht="60.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="11" t="n">
         <v>2</v>
       </c>
@@ -3855,7 +4442,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="123" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="123" customFormat="false" ht="60.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="11" t="n">
         <v>2</v>
       </c>
@@ -3869,7 +4456,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="124" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="124" customFormat="false" ht="90.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="11" t="n">
         <v>2</v>
       </c>
@@ -3883,22 +4470,21 @@
         <v>140</v>
       </c>
     </row>
-    <row r="125" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="125" customFormat="false" ht="75.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="11" t="n">
         <v>2</v>
       </c>
-      <c r="B125" s="9" t="s">
+      <c r="B125" s="2" t="s">
         <v>253</v>
       </c>
-      <c r="C125" s="9" t="s">
+      <c r="C125" s="2" t="s">
         <v>254</v>
       </c>
-      <c r="D125" s="9"/>
       <c r="E125" s="2" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="126" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="126" customFormat="false" ht="60.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="11" t="n">
         <v>2</v>
       </c>
@@ -3912,21 +4498,22 @@
         <v>140</v>
       </c>
     </row>
-    <row r="127" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="127" customFormat="false" ht="45.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="11" t="n">
         <v>2</v>
       </c>
-      <c r="B127" s="2" t="s">
+      <c r="B127" s="9" t="s">
         <v>257</v>
       </c>
-      <c r="C127" s="2" t="s">
+      <c r="C127" s="9" t="s">
         <v>258</v>
       </c>
+      <c r="D127" s="9"/>
       <c r="E127" s="2" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="128" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="128" customFormat="false" ht="90.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="11" t="n">
         <v>2</v>
       </c>
@@ -3940,7 +4527,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="129" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="129" customFormat="false" ht="75.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="11" t="n">
         <v>2</v>
       </c>
@@ -3954,7 +4541,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="130" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="130" customFormat="false" ht="75.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="11" t="n">
         <v>2</v>
       </c>
@@ -3968,7 +4555,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="131" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="131" customFormat="false" ht="75.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="11" t="n">
         <v>2</v>
       </c>
@@ -3982,7 +4569,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="132" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="132" customFormat="false" ht="60.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="11" t="n">
         <v>2</v>
       </c>
@@ -3996,7 +4583,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="133" customFormat="false" ht="61.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="133" customFormat="false" ht="75.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="11" t="n">
         <v>2</v>
       </c>
@@ -4010,7 +4597,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="134" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="134" customFormat="false" ht="90.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="11" t="n">
         <v>2</v>
       </c>
@@ -4024,2183 +4611,3429 @@
         <v>140</v>
       </c>
     </row>
-    <row r="135" customFormat="false" ht="30.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A135" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B135" s="12" t="s">
+    <row r="135" customFormat="false" ht="105.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A135" s="11" t="n">
+        <v>2</v>
+      </c>
+      <c r="B135" s="2" t="s">
         <v>273</v>
       </c>
-      <c r="C135" s="12" t="s">
+      <c r="C135" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="D135" s="12"/>
       <c r="E135" s="2" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="136" customFormat="false" ht="60.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A136" s="11" t="n">
+        <v>2</v>
+      </c>
+      <c r="B136" s="2" t="s">
         <v>275</v>
       </c>
-    </row>
-    <row r="136" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A136" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B136" s="12" t="s">
+      <c r="C136" s="2" t="s">
         <v>276</v>
       </c>
-      <c r="C136" s="12" t="s">
+      <c r="E136" s="2" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="137" customFormat="false" ht="60.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A137" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B137" s="13" t="s">
         <v>277</v>
       </c>
-      <c r="D136" s="12"/>
-      <c r="E136" s="2" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="137" customFormat="false" ht="30.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A137" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B137" s="12" t="s">
+      <c r="C137" s="13" t="s">
         <v>278</v>
       </c>
-      <c r="C137" s="12" t="s">
+      <c r="D137" s="13"/>
+      <c r="E137" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="D137" s="12"/>
-      <c r="E137" s="2" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="138" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="138" customFormat="false" ht="75.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B138" s="12" t="s">
+      <c r="B138" s="13" t="s">
         <v>280</v>
       </c>
-      <c r="C138" s="12" t="s">
+      <c r="C138" s="13" t="s">
         <v>281</v>
       </c>
-      <c r="D138" s="12"/>
+      <c r="D138" s="13"/>
       <c r="E138" s="2" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="139" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="139" customFormat="false" ht="60.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B139" s="12" t="s">
+      <c r="B139" s="13" t="s">
         <v>282</v>
       </c>
-      <c r="C139" s="2" t="s">
+      <c r="C139" s="13" t="s">
         <v>283</v>
       </c>
+      <c r="D139" s="13"/>
       <c r="E139" s="2" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="140" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="140" customFormat="false" ht="75.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B140" s="12" t="s">
+      <c r="B140" s="13" t="s">
         <v>284</v>
       </c>
-      <c r="C140" s="2" t="s">
+      <c r="C140" s="13" t="s">
         <v>285</v>
       </c>
+      <c r="D140" s="13"/>
       <c r="E140" s="2" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="141" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="141" customFormat="false" ht="75.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B141" s="12" t="s">
+      <c r="B141" s="13" t="s">
         <v>286</v>
       </c>
       <c r="C141" s="2" t="s">
         <v>287</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="142" customFormat="false" ht="30.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="142" customFormat="false" ht="75.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B142" s="12" t="s">
+      <c r="B142" s="13" t="s">
         <v>288</v>
       </c>
       <c r="C142" s="2" t="s">
         <v>289</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="143" customFormat="false" ht="30.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="143" customFormat="false" ht="90.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B143" s="2" t="s">
+      <c r="B143" s="13" t="s">
         <v>290</v>
       </c>
-      <c r="C143" s="12" t="s">
+      <c r="C143" s="2" t="s">
         <v>291</v>
       </c>
-      <c r="D143" s="12"/>
       <c r="E143" s="2" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="144" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="144" customFormat="false" ht="60.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B144" s="12" t="s">
+      <c r="B144" s="13" t="s">
         <v>292</v>
       </c>
-      <c r="C144" s="12" t="s">
+      <c r="C144" s="2" t="s">
         <v>293</v>
       </c>
-      <c r="D144" s="12"/>
       <c r="E144" s="2" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="60.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B145" s="12" t="s">
+      <c r="B145" s="2" t="s">
         <v>294</v>
       </c>
-      <c r="C145" s="12" t="s">
+      <c r="C145" s="13" t="s">
         <v>295</v>
       </c>
-      <c r="D145" s="12"/>
+      <c r="D145" s="13"/>
       <c r="E145" s="2" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="146" customFormat="false" ht="45.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="146" customFormat="false" ht="75.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B146" s="13" t="s">
         <v>296</v>
       </c>
-      <c r="C146" s="14" t="s">
+      <c r="C146" s="13" t="s">
         <v>297</v>
       </c>
-      <c r="D146" s="12"/>
+      <c r="D146" s="13"/>
       <c r="E146" s="2" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="147" customFormat="false" ht="45.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="147" customFormat="false" ht="105.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B147" s="2" t="s">
+      <c r="B147" s="13" t="s">
         <v>298</v>
       </c>
-      <c r="C147" s="12" t="s">
+      <c r="C147" s="13" t="s">
         <v>299</v>
       </c>
-      <c r="D147" s="12"/>
+      <c r="D147" s="13"/>
       <c r="E147" s="2" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="148" customFormat="false" ht="45.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="148" customFormat="false" ht="90.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B148" s="2" t="s">
+      <c r="B148" s="14" t="s">
         <v>300</v>
       </c>
-      <c r="C148" s="12" t="s">
+      <c r="C148" s="13" t="s">
         <v>301</v>
       </c>
-      <c r="D148" s="12"/>
+      <c r="D148" s="13"/>
       <c r="E148" s="2" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="149" customFormat="false" ht="30.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="149" customFormat="false" ht="75.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B149" s="12" t="s">
+      <c r="B149" s="2" t="s">
         <v>302</v>
       </c>
-      <c r="C149" s="12" t="s">
+      <c r="C149" s="13" t="s">
         <v>303</v>
       </c>
-      <c r="D149" s="12"/>
+      <c r="D149" s="13"/>
       <c r="E149" s="2" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="150" customFormat="false" ht="30.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="150" customFormat="false" ht="90.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B150" s="12" t="s">
+      <c r="B150" s="2" t="s">
         <v>304</v>
       </c>
-      <c r="C150" s="12" t="s">
+      <c r="C150" s="13" t="s">
         <v>305</v>
       </c>
-      <c r="D150" s="12"/>
+      <c r="D150" s="13"/>
       <c r="E150" s="2" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="151" customFormat="false" ht="30.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="151" customFormat="false" ht="60.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B151" s="12" t="s">
+      <c r="B151" s="13" t="s">
         <v>306</v>
       </c>
-      <c r="C151" s="12" t="s">
+      <c r="C151" s="13" t="s">
         <v>307</v>
       </c>
-      <c r="D151" s="12"/>
+      <c r="D151" s="13"/>
       <c r="E151" s="2" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="152" customFormat="false" ht="30.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="152" customFormat="false" ht="45.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B152" s="12" t="s">
+      <c r="B152" s="13" t="s">
         <v>308</v>
       </c>
-      <c r="C152" s="12" t="s">
+      <c r="C152" s="13" t="s">
         <v>309</v>
       </c>
-      <c r="D152" s="12"/>
+      <c r="D152" s="13"/>
       <c r="E152" s="2" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="45.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B153" s="2" t="s">
+      <c r="B153" s="13" t="s">
         <v>310</v>
       </c>
-      <c r="C153" s="12" t="s">
+      <c r="C153" s="13" t="s">
         <v>311</v>
       </c>
-      <c r="D153" s="12"/>
+      <c r="D153" s="13"/>
       <c r="E153" s="2" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="154" customFormat="false" ht="30.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="154" customFormat="false" ht="45.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B154" s="2" t="s">
+      <c r="B154" s="13" t="s">
         <v>312</v>
       </c>
-      <c r="C154" s="12" t="s">
+      <c r="C154" s="13" t="s">
         <v>313</v>
       </c>
-      <c r="D154" s="12"/>
+      <c r="D154" s="13"/>
       <c r="E154" s="2" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="155" customFormat="false" ht="30.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="155" customFormat="false" ht="90.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B155" s="12" t="s">
+      <c r="B155" s="2" t="s">
         <v>314</v>
       </c>
-      <c r="C155" s="12" t="s">
+      <c r="C155" s="13" t="s">
         <v>315</v>
       </c>
-      <c r="D155" s="12"/>
+      <c r="D155" s="13"/>
       <c r="E155" s="2" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="156" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="156" customFormat="false" ht="60.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B156" s="12" t="s">
+      <c r="B156" s="2" t="s">
         <v>316</v>
       </c>
-      <c r="C156" s="12" t="s">
+      <c r="C156" s="13" t="s">
         <v>317</v>
       </c>
-      <c r="D156" s="12"/>
+      <c r="D156" s="13"/>
       <c r="E156" s="2" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="157" customFormat="false" ht="30.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="157" customFormat="false" ht="60.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B157" s="12" t="s">
+      <c r="B157" s="13" t="s">
         <v>318</v>
       </c>
-      <c r="C157" s="12" t="s">
+      <c r="C157" s="13" t="s">
         <v>319</v>
       </c>
-      <c r="D157" s="12"/>
+      <c r="D157" s="13"/>
       <c r="E157" s="2" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="158" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="158" customFormat="false" ht="75.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B158" s="12" t="s">
+      <c r="B158" s="13" t="s">
         <v>320</v>
       </c>
-      <c r="C158" s="12" t="s">
+      <c r="C158" s="13" t="s">
         <v>321</v>
       </c>
-      <c r="D158" s="12"/>
+      <c r="D158" s="13"/>
       <c r="E158" s="2" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="159" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="159" customFormat="false" ht="45.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B159" s="12" t="s">
+      <c r="B159" s="13" t="s">
         <v>322</v>
       </c>
-      <c r="C159" s="12" t="s">
+      <c r="C159" s="13" t="s">
         <v>323</v>
       </c>
-      <c r="D159" s="12"/>
+      <c r="D159" s="13"/>
       <c r="E159" s="2" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="160" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="160" customFormat="false" ht="75.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B160" s="12" t="s">
+      <c r="B160" s="13" t="s">
         <v>324</v>
       </c>
-      <c r="C160" s="12" t="s">
+      <c r="C160" s="13" t="s">
         <v>325</v>
       </c>
-      <c r="D160" s="12"/>
+      <c r="D160" s="13"/>
       <c r="E160" s="2" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="161" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="161" customFormat="false" ht="45.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B161" s="12" t="s">
+      <c r="B161" s="13" t="s">
         <v>326</v>
       </c>
-      <c r="C161" s="12" t="s">
+      <c r="C161" s="13" t="s">
         <v>327</v>
       </c>
-      <c r="D161" s="12"/>
+      <c r="D161" s="13"/>
       <c r="E161" s="2" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="162" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="162" customFormat="false" ht="60.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B162" s="12" t="s">
+      <c r="B162" s="13" t="s">
         <v>328</v>
       </c>
-      <c r="C162" s="12" t="s">
+      <c r="C162" s="13" t="s">
         <v>329</v>
       </c>
-      <c r="D162" s="12"/>
+      <c r="D162" s="13"/>
       <c r="E162" s="2" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="163" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="163" customFormat="false" ht="75.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B163" s="12" t="s">
+      <c r="B163" s="13" t="s">
         <v>330</v>
       </c>
-      <c r="C163" s="12" t="s">
+      <c r="C163" s="13" t="s">
         <v>331</v>
       </c>
-      <c r="D163" s="12"/>
+      <c r="D163" s="13"/>
       <c r="E163" s="2" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="164" customFormat="false" ht="45.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="164" customFormat="false" ht="75.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B164" s="2" t="s">
+      <c r="B164" s="13" t="s">
         <v>332</v>
       </c>
-      <c r="C164" s="2" t="s">
+      <c r="C164" s="13" t="s">
         <v>333</v>
       </c>
+      <c r="D164" s="13"/>
       <c r="E164" s="2" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
     </row>
     <row r="165" customFormat="false" ht="45.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B165" s="2" t="s">
+      <c r="B165" s="13" t="s">
         <v>334</v>
       </c>
-      <c r="C165" s="12" t="s">
+      <c r="C165" s="13" t="s">
         <v>335</v>
       </c>
-      <c r="D165" s="12"/>
+      <c r="D165" s="13"/>
       <c r="E165" s="2" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="166" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="166" customFormat="false" ht="75.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B166" s="12" t="s">
+      <c r="B166" s="2" t="s">
         <v>336</v>
       </c>
-      <c r="C166" s="12" t="s">
+      <c r="C166" s="2" t="s">
         <v>337</v>
       </c>
-      <c r="D166" s="12"/>
       <c r="E166" s="2" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="167" customFormat="false" ht="50.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="167" customFormat="false" ht="75.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B167" s="15" t="s">
+      <c r="B167" s="2" t="s">
         <v>338</v>
       </c>
-      <c r="C167" s="12" t="s">
+      <c r="C167" s="13" t="s">
         <v>339</v>
       </c>
-      <c r="D167" s="12"/>
+      <c r="D167" s="13"/>
       <c r="E167" s="2" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="168" customFormat="false" ht="115.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="168" customFormat="false" ht="60.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B168" s="15" t="s">
+      <c r="B168" s="13" t="s">
         <v>340</v>
       </c>
-      <c r="C168" s="12" t="s">
+      <c r="C168" s="13" t="s">
         <v>341</v>
       </c>
-      <c r="D168" s="16" t="n">
+      <c r="D168" s="13"/>
+      <c r="E168" s="2" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="169" customFormat="false" ht="99.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A169" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B169" s="15" t="s">
+        <v>342</v>
+      </c>
+      <c r="C169" s="13" t="s">
+        <v>343</v>
+      </c>
+      <c r="D169" s="13"/>
+      <c r="E169" s="2" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="170" customFormat="false" ht="247.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A170" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B170" s="15" t="s">
+        <v>344</v>
+      </c>
+      <c r="C170" s="13" t="s">
+        <v>345</v>
+      </c>
+      <c r="D170" s="16" t="n">
         <v>2024</v>
       </c>
-      <c r="E168" s="2" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="169" customFormat="false" ht="30.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A169" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B169" s="12" t="s">
-        <v>342</v>
-      </c>
-      <c r="C169" s="12" t="s">
-        <v>343</v>
-      </c>
-      <c r="D169" s="12"/>
-      <c r="E169" s="2" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="170" customFormat="false" ht="30.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A170" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B170" s="12" t="s">
-        <v>344</v>
-      </c>
-      <c r="C170" s="12" t="s">
-        <v>345</v>
-      </c>
-      <c r="D170" s="12"/>
       <c r="E170" s="2" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="171" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="171" customFormat="false" ht="60.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A171" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B171" s="12" t="s">
+      <c r="B171" s="13" t="s">
         <v>346</v>
       </c>
-      <c r="C171" s="12" t="s">
+      <c r="C171" s="13" t="s">
         <v>347</v>
       </c>
-      <c r="D171" s="12"/>
+      <c r="D171" s="13"/>
       <c r="E171" s="2" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="172" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="172" customFormat="false" ht="60.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A172" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B172" s="12" t="s">
+      <c r="B172" s="13" t="s">
         <v>348</v>
       </c>
-      <c r="C172" s="12" t="s">
+      <c r="C172" s="13" t="s">
         <v>349</v>
       </c>
-      <c r="D172" s="12"/>
+      <c r="D172" s="13"/>
       <c r="E172" s="2" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="173" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="173" customFormat="false" ht="60.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B173" s="12" t="s">
+      <c r="B173" s="13" t="s">
         <v>350</v>
       </c>
-      <c r="C173" s="12" t="s">
+      <c r="C173" s="13" t="s">
         <v>351</v>
       </c>
-      <c r="D173" s="12"/>
+      <c r="D173" s="13"/>
       <c r="E173" s="2" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="174" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="174" customFormat="false" ht="60.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B174" s="12" t="s">
+      <c r="B174" s="13" t="s">
         <v>352</v>
       </c>
-      <c r="C174" s="12" t="s">
+      <c r="C174" s="13" t="s">
         <v>353</v>
       </c>
-      <c r="D174" s="12"/>
+      <c r="D174" s="13"/>
       <c r="E174" s="2" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="175" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="175" customFormat="false" ht="60.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A175" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B175" s="12" t="s">
+      <c r="B175" s="13" t="s">
         <v>354</v>
       </c>
-      <c r="C175" s="12" t="s">
+      <c r="C175" s="13" t="s">
         <v>355</v>
       </c>
-      <c r="D175" s="12"/>
+      <c r="D175" s="13"/>
       <c r="E175" s="2" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="176" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="176" customFormat="false" ht="60.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A176" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B176" s="12" t="s">
+      <c r="B176" s="13" t="s">
         <v>356</v>
       </c>
-      <c r="C176" s="12" t="s">
+      <c r="C176" s="13" t="s">
         <v>357</v>
       </c>
-      <c r="D176" s="12"/>
+      <c r="D176" s="13"/>
       <c r="E176" s="2" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="177" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="177" customFormat="false" ht="60.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A177" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B177" s="12" t="s">
+      <c r="B177" s="13" t="s">
         <v>358</v>
       </c>
-      <c r="C177" s="12" t="s">
+      <c r="C177" s="13" t="s">
         <v>359</v>
       </c>
-      <c r="D177" s="12"/>
+      <c r="D177" s="13"/>
       <c r="E177" s="2" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="178" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="178" customFormat="false" ht="90.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A178" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B178" s="12" t="s">
+      <c r="B178" s="13" t="s">
         <v>360</v>
       </c>
-      <c r="C178" s="12" t="s">
+      <c r="C178" s="13" t="s">
         <v>361</v>
       </c>
-      <c r="D178" s="12"/>
+      <c r="D178" s="13"/>
       <c r="E178" s="2" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="179" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="179" customFormat="false" ht="75.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A179" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B179" s="12" t="s">
+      <c r="B179" s="13" t="s">
         <v>362</v>
       </c>
-      <c r="C179" s="12" t="s">
+      <c r="C179" s="13" t="s">
         <v>363</v>
       </c>
-      <c r="D179" s="12"/>
+      <c r="D179" s="13"/>
       <c r="E179" s="2" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="180" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="180" customFormat="false" ht="60.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A180" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B180" s="12" t="s">
+      <c r="B180" s="13" t="s">
         <v>364</v>
       </c>
-      <c r="C180" s="12" t="s">
+      <c r="C180" s="13" t="s">
         <v>365</v>
       </c>
-      <c r="D180" s="12"/>
+      <c r="D180" s="13"/>
       <c r="E180" s="2" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="181" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="181" customFormat="false" ht="60.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A181" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B181" s="12" t="s">
+      <c r="B181" s="13" t="s">
         <v>366</v>
       </c>
-      <c r="C181" s="12" t="s">
+      <c r="C181" s="13" t="s">
         <v>367</v>
       </c>
-      <c r="D181" s="12"/>
+      <c r="D181" s="13"/>
       <c r="E181" s="2" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="182" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="182" customFormat="false" ht="60.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A182" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B182" s="12" t="s">
+      <c r="B182" s="13" t="s">
         <v>368</v>
       </c>
-      <c r="C182" s="12" t="s">
+      <c r="C182" s="13" t="s">
         <v>369</v>
       </c>
-      <c r="D182" s="12"/>
+      <c r="D182" s="13"/>
       <c r="E182" s="2" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="183" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="183" customFormat="false" ht="75.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A183" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B183" s="12" t="s">
+      <c r="B183" s="13" t="s">
         <v>370</v>
       </c>
-      <c r="C183" s="12" t="s">
+      <c r="C183" s="13" t="s">
         <v>371</v>
       </c>
-      <c r="D183" s="12"/>
+      <c r="D183" s="13"/>
       <c r="E183" s="2" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="184" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="184" customFormat="false" ht="60.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A184" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B184" s="12" t="s">
+      <c r="B184" s="13" t="s">
         <v>372</v>
       </c>
-      <c r="C184" s="12" t="s">
-        <v>371</v>
-      </c>
-      <c r="D184" s="12"/>
+      <c r="C184" s="13" t="s">
+        <v>373</v>
+      </c>
+      <c r="D184" s="13"/>
       <c r="E184" s="2" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="185" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="185" customFormat="false" ht="75.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A185" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B185" s="12" t="s">
-        <v>373</v>
-      </c>
-      <c r="C185" s="12" t="s">
+      <c r="B185" s="13" t="s">
         <v>374</v>
       </c>
-      <c r="D185" s="12"/>
+      <c r="C185" s="13" t="s">
+        <v>375</v>
+      </c>
+      <c r="D185" s="13"/>
       <c r="E185" s="2" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="186" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="186" customFormat="false" ht="90.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A186" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B186" s="12" t="s">
+      <c r="B186" s="13" t="s">
+        <v>376</v>
+      </c>
+      <c r="C186" s="13" t="s">
         <v>375</v>
       </c>
-      <c r="C186" s="12" t="s">
-        <v>347</v>
-      </c>
-      <c r="D186" s="12"/>
+      <c r="D186" s="13"/>
       <c r="E186" s="2" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="187" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="187" customFormat="false" ht="90.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A187" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B187" s="12" t="s">
-        <v>376</v>
-      </c>
-      <c r="C187" s="12" t="s">
+      <c r="B187" s="13" t="s">
         <v>377</v>
       </c>
-      <c r="D187" s="12"/>
+      <c r="C187" s="13" t="s">
+        <v>378</v>
+      </c>
+      <c r="D187" s="13"/>
       <c r="E187" s="2" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="188" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="188" customFormat="false" ht="75.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A188" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B188" s="12" t="s">
-        <v>378</v>
-      </c>
-      <c r="C188" s="12" t="s">
+      <c r="B188" s="13" t="s">
         <v>379</v>
       </c>
-      <c r="D188" s="12"/>
+      <c r="C188" s="13" t="s">
+        <v>351</v>
+      </c>
+      <c r="D188" s="13"/>
       <c r="E188" s="2" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="189" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="189" customFormat="false" ht="60.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A189" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B189" s="12" t="s">
+      <c r="B189" s="13" t="s">
         <v>380</v>
       </c>
-      <c r="C189" s="12" t="s">
+      <c r="C189" s="13" t="s">
         <v>381</v>
       </c>
-      <c r="D189" s="12"/>
+      <c r="D189" s="13"/>
       <c r="E189" s="2" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
     </row>
     <row r="190" customFormat="false" ht="45.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A190" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B190" s="12" t="s">
+      <c r="B190" s="13" t="s">
         <v>382</v>
       </c>
-      <c r="C190" s="12" t="s">
+      <c r="C190" s="13" t="s">
         <v>383</v>
       </c>
-      <c r="D190" s="12"/>
+      <c r="D190" s="13"/>
       <c r="E190" s="2" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="191" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="191" customFormat="false" ht="60.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A191" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B191" s="12" t="s">
+      <c r="B191" s="13" t="s">
         <v>384</v>
       </c>
-      <c r="C191" s="12" t="s">
+      <c r="C191" s="13" t="s">
         <v>385</v>
       </c>
-      <c r="D191" s="12"/>
+      <c r="D191" s="13"/>
       <c r="E191" s="2" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="192" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="192" customFormat="false" ht="75.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A192" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B192" s="12" t="s">
+      <c r="B192" s="13" t="s">
         <v>386</v>
       </c>
-      <c r="C192" s="12" t="s">
+      <c r="C192" s="13" t="s">
         <v>387</v>
       </c>
-      <c r="D192" s="12"/>
+      <c r="D192" s="13"/>
       <c r="E192" s="2" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="193" customFormat="false" ht="60.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A193" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B193" s="13" t="s">
         <v>388</v>
       </c>
-    </row>
-    <row r="193" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A193" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B193" s="12" t="s">
+      <c r="C193" s="13" t="s">
         <v>389</v>
       </c>
-      <c r="C193" s="12" t="s">
+      <c r="D193" s="13"/>
+      <c r="E193" s="2" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="194" customFormat="false" ht="45.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A194" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B194" s="13" t="s">
         <v>390</v>
       </c>
-      <c r="D193" s="12"/>
-      <c r="E193" s="2" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="194" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A194" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B194" s="12" t="s">
+      <c r="C194" s="13" t="s">
         <v>391</v>
       </c>
-      <c r="C194" s="12" t="s">
+      <c r="D194" s="13"/>
+      <c r="E194" s="2" t="s">
         <v>392</v>
       </c>
-      <c r="D194" s="12"/>
-      <c r="E194" s="2" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="195" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="195" customFormat="false" ht="45.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A195" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B195" s="12" t="s">
+      <c r="B195" s="13" t="s">
         <v>393</v>
       </c>
-      <c r="C195" s="12" t="s">
+      <c r="C195" s="13" t="s">
         <v>394</v>
       </c>
-      <c r="D195" s="12"/>
+      <c r="D195" s="13"/>
       <c r="E195" s="2" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="196" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="196" customFormat="false" ht="75.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A196" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B196" s="12" t="s">
+      <c r="B196" s="13" t="s">
         <v>395</v>
       </c>
-      <c r="C196" s="12" t="s">
+      <c r="C196" s="13" t="s">
         <v>396</v>
       </c>
-      <c r="D196" s="12"/>
+      <c r="D196" s="13"/>
       <c r="E196" s="2" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="197" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="197" customFormat="false" ht="60.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A197" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B197" s="12" t="s">
+      <c r="B197" s="13" t="s">
         <v>397</v>
       </c>
-      <c r="C197" s="12" t="s">
+      <c r="C197" s="13" t="s">
         <v>398</v>
       </c>
-      <c r="D197" s="12"/>
+      <c r="D197" s="13"/>
       <c r="E197" s="2" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="198" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="198" customFormat="false" ht="60.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A198" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B198" s="12" t="s">
+      <c r="B198" s="13" t="s">
         <v>399</v>
       </c>
-      <c r="C198" s="12" t="s">
+      <c r="C198" s="13" t="s">
         <v>400</v>
       </c>
-      <c r="D198" s="12"/>
+      <c r="D198" s="13"/>
       <c r="E198" s="2" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="199" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="199" customFormat="false" ht="60.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A199" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B199" s="12" t="s">
+      <c r="B199" s="13" t="s">
         <v>401</v>
       </c>
-      <c r="C199" s="12" t="s">
+      <c r="C199" s="13" t="s">
         <v>402</v>
       </c>
-      <c r="D199" s="12"/>
+      <c r="D199" s="13"/>
       <c r="E199" s="2" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="200" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="200" customFormat="false" ht="60.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A200" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B200" s="12" t="s">
+      <c r="B200" s="13" t="s">
         <v>403</v>
       </c>
-      <c r="C200" s="12" t="s">
+      <c r="C200" s="13" t="s">
         <v>404</v>
       </c>
-      <c r="D200" s="12"/>
+      <c r="D200" s="13"/>
       <c r="E200" s="2" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="201" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="201" customFormat="false" ht="60.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A201" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B201" s="12" t="s">
+      <c r="B201" s="13" t="s">
         <v>405</v>
       </c>
-      <c r="C201" s="12" t="s">
+      <c r="C201" s="13" t="s">
         <v>406</v>
       </c>
-      <c r="D201" s="12"/>
+      <c r="D201" s="13"/>
       <c r="E201" s="2" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="202" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="202" customFormat="false" ht="60.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A202" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B202" s="12" t="s">
+      <c r="B202" s="13" t="s">
         <v>407</v>
       </c>
-      <c r="C202" s="12" t="s">
+      <c r="C202" s="13" t="s">
         <v>408</v>
       </c>
-      <c r="D202" s="12"/>
+      <c r="D202" s="13"/>
       <c r="E202" s="2" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="203" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="203" customFormat="false" ht="60.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A203" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B203" s="12" t="s">
+      <c r="B203" s="13" t="s">
         <v>409</v>
       </c>
-      <c r="C203" s="12" t="s">
+      <c r="C203" s="13" t="s">
         <v>410</v>
       </c>
-      <c r="D203" s="12"/>
+      <c r="D203" s="13"/>
       <c r="E203" s="2" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="204" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="204" customFormat="false" ht="45.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A204" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B204" s="12" t="s">
+      <c r="B204" s="13" t="s">
         <v>411</v>
       </c>
-      <c r="C204" s="12" t="s">
+      <c r="C204" s="13" t="s">
         <v>412</v>
       </c>
-      <c r="D204" s="12"/>
+      <c r="D204" s="13"/>
       <c r="E204" s="2" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="205" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="205" customFormat="false" ht="60.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A205" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B205" s="12" t="s">
+      <c r="B205" s="13" t="s">
         <v>413</v>
       </c>
-      <c r="C205" s="12" t="s">
+      <c r="C205" s="13" t="s">
         <v>414</v>
       </c>
-      <c r="D205" s="12"/>
+      <c r="D205" s="13"/>
       <c r="E205" s="2" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="206" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="206" customFormat="false" ht="75.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A206" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B206" s="12" t="s">
+      <c r="B206" s="13" t="s">
         <v>415</v>
       </c>
-      <c r="C206" s="12" t="s">
+      <c r="C206" s="13" t="s">
         <v>416</v>
       </c>
-      <c r="D206" s="12"/>
+      <c r="D206" s="13"/>
       <c r="E206" s="2" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="207" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="207" customFormat="false" ht="60.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A207" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B207" s="12" t="s">
+      <c r="B207" s="13" t="s">
         <v>417</v>
       </c>
-      <c r="C207" s="12" t="s">
+      <c r="C207" s="13" t="s">
         <v>418</v>
       </c>
-      <c r="D207" s="12"/>
+      <c r="D207" s="13"/>
       <c r="E207" s="2" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="208" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="208" customFormat="false" ht="45.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A208" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B208" s="12" t="s">
+      <c r="B208" s="13" t="s">
         <v>419</v>
       </c>
-      <c r="C208" s="12" t="s">
+      <c r="C208" s="13" t="s">
         <v>420</v>
       </c>
-      <c r="D208" s="12"/>
+      <c r="D208" s="13"/>
       <c r="E208" s="2" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="209" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="209" customFormat="false" ht="45.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A209" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B209" s="12" t="s">
+      <c r="B209" s="13" t="s">
         <v>421</v>
       </c>
-      <c r="C209" s="12" t="s">
+      <c r="C209" s="13" t="s">
         <v>422</v>
       </c>
-      <c r="D209" s="12"/>
+      <c r="D209" s="13"/>
       <c r="E209" s="2" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="210" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="210" customFormat="false" ht="75.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A210" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B210" s="12" t="s">
+      <c r="B210" s="13" t="s">
         <v>423</v>
       </c>
-      <c r="C210" s="12" t="s">
+      <c r="C210" s="13" t="s">
         <v>424</v>
       </c>
-      <c r="D210" s="12"/>
+      <c r="D210" s="13"/>
       <c r="E210" s="2" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="211" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="211" customFormat="false" ht="60.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A211" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B211" s="12" t="s">
+      <c r="B211" s="13" t="s">
         <v>425</v>
       </c>
-      <c r="C211" s="12" t="s">
+      <c r="C211" s="13" t="s">
         <v>426</v>
       </c>
-      <c r="D211" s="12"/>
+      <c r="D211" s="13"/>
       <c r="E211" s="2" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="212" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="212" customFormat="false" ht="60.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A212" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B212" s="12" t="s">
+      <c r="B212" s="13" t="s">
         <v>427</v>
       </c>
-      <c r="C212" s="12" t="s">
+      <c r="C212" s="13" t="s">
         <v>428</v>
       </c>
-      <c r="D212" s="12"/>
+      <c r="D212" s="13"/>
       <c r="E212" s="2" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="213" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="213" customFormat="false" ht="45.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A213" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B213" s="12" t="s">
+      <c r="B213" s="13" t="s">
         <v>429</v>
       </c>
-      <c r="C213" s="12" t="s">
+      <c r="C213" s="13" t="s">
         <v>430</v>
       </c>
-      <c r="D213" s="12"/>
+      <c r="D213" s="13"/>
       <c r="E213" s="2" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="214" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="214" customFormat="false" ht="75.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A214" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B214" s="12" t="s">
+      <c r="B214" s="13" t="s">
         <v>431</v>
       </c>
-      <c r="C214" s="12" t="s">
+      <c r="C214" s="13" t="s">
         <v>432</v>
       </c>
-      <c r="D214" s="12"/>
+      <c r="D214" s="13"/>
       <c r="E214" s="2" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="215" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="215" customFormat="false" ht="75.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A215" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B215" s="12" t="s">
+      <c r="B215" s="13" t="s">
         <v>433</v>
       </c>
-      <c r="C215" s="12" t="s">
+      <c r="C215" s="13" t="s">
         <v>434</v>
       </c>
-      <c r="D215" s="12"/>
+      <c r="D215" s="13"/>
       <c r="E215" s="2" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="216" customFormat="false" ht="30.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="216" customFormat="false" ht="75.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A216" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B216" s="12" t="s">
+      <c r="B216" s="13" t="s">
         <v>435</v>
       </c>
-      <c r="C216" s="12" t="s">
+      <c r="C216" s="13" t="s">
         <v>436</v>
       </c>
-      <c r="D216" s="12"/>
+      <c r="D216" s="13"/>
       <c r="E216" s="2" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="217" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="217" customFormat="false" ht="60.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A217" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B217" s="12" t="s">
+      <c r="B217" s="13" t="s">
         <v>437</v>
       </c>
-      <c r="C217" s="12" t="s">
+      <c r="C217" s="13" t="s">
         <v>438</v>
       </c>
-      <c r="D217" s="12"/>
+      <c r="D217" s="13"/>
       <c r="E217" s="2" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="218" customFormat="false" ht="30.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="218" customFormat="false" ht="60.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A218" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B218" s="12" t="s">
+      <c r="B218" s="13" t="s">
         <v>439</v>
       </c>
-      <c r="C218" s="12" t="s">
+      <c r="C218" s="13" t="s">
         <v>440</v>
       </c>
-      <c r="D218" s="12"/>
+      <c r="D218" s="13"/>
       <c r="E218" s="2" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="219" customFormat="false" ht="30.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="219" customFormat="false" ht="60.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A219" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B219" s="12" t="s">
+      <c r="B219" s="13" t="s">
         <v>441</v>
       </c>
-      <c r="C219" s="12" t="s">
+      <c r="C219" s="13" t="s">
         <v>442</v>
       </c>
-      <c r="D219" s="12"/>
+      <c r="D219" s="13"/>
       <c r="E219" s="2" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="220" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="220" customFormat="false" ht="60.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A220" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B220" s="12" t="s">
+      <c r="B220" s="13" t="s">
         <v>443</v>
       </c>
-      <c r="C220" s="12" t="s">
+      <c r="C220" s="13" t="s">
         <v>444</v>
       </c>
-      <c r="D220" s="12"/>
+      <c r="D220" s="13"/>
       <c r="E220" s="2" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="221" customFormat="false" ht="30.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="221" customFormat="false" ht="60.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A221" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B221" s="12" t="s">
+      <c r="B221" s="13" t="s">
         <v>445</v>
       </c>
-      <c r="C221" s="12" t="s">
+      <c r="C221" s="13" t="s">
         <v>446</v>
       </c>
-      <c r="D221" s="12"/>
+      <c r="D221" s="13"/>
       <c r="E221" s="2" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="222" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="222" customFormat="false" ht="60.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A222" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B222" s="12" t="s">
+      <c r="B222" s="13" t="s">
         <v>447</v>
       </c>
-      <c r="C222" s="12" t="s">
+      <c r="C222" s="13" t="s">
         <v>448</v>
       </c>
-      <c r="D222" s="12"/>
+      <c r="D222" s="13"/>
       <c r="E222" s="2" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="223" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="223" customFormat="false" ht="60.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A223" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B223" s="12" t="s">
+      <c r="B223" s="13" t="s">
         <v>449</v>
       </c>
-      <c r="C223" s="12" t="s">
+      <c r="C223" s="13" t="s">
         <v>450</v>
       </c>
-      <c r="D223" s="12"/>
+      <c r="D223" s="13"/>
       <c r="E223" s="2" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="224" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="224" customFormat="false" ht="60.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A224" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B224" s="12" t="s">
+      <c r="B224" s="13" t="s">
         <v>451</v>
       </c>
-      <c r="C224" s="12" t="s">
+      <c r="C224" s="13" t="s">
         <v>452</v>
       </c>
-      <c r="D224" s="12"/>
+      <c r="D224" s="13"/>
       <c r="E224" s="2" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="225" customFormat="false" ht="30.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="225" customFormat="false" ht="75.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A225" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B225" s="12" t="s">
+      <c r="B225" s="13" t="s">
         <v>453</v>
       </c>
-      <c r="C225" s="12" t="s">
+      <c r="C225" s="13" t="s">
         <v>454</v>
       </c>
-      <c r="D225" s="12"/>
+      <c r="D225" s="13"/>
       <c r="E225" s="2" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="226" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="226" customFormat="false" ht="75.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A226" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B226" s="12" t="s">
+      <c r="B226" s="13" t="s">
         <v>455</v>
       </c>
-      <c r="C226" s="12" t="s">
+      <c r="C226" s="13" t="s">
         <v>456</v>
       </c>
-      <c r="D226" s="12"/>
+      <c r="D226" s="13"/>
       <c r="E226" s="2" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="227" customFormat="false" ht="45.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="227" customFormat="false" ht="75.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A227" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B227" s="12" t="s">
+      <c r="B227" s="13" t="s">
         <v>457</v>
       </c>
-      <c r="C227" s="12" t="s">
+      <c r="C227" s="13" t="s">
         <v>458</v>
       </c>
-      <c r="D227" s="12"/>
+      <c r="D227" s="13"/>
       <c r="E227" s="2" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="228" customFormat="false" ht="30.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="228" customFormat="false" ht="60.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A228" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B228" s="12" t="s">
+      <c r="B228" s="13" t="s">
         <v>459</v>
       </c>
-      <c r="C228" s="12" t="s">
+      <c r="C228" s="13" t="s">
         <v>460</v>
       </c>
-      <c r="D228" s="12"/>
+      <c r="D228" s="13"/>
       <c r="E228" s="2" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="229" customFormat="false" ht="30.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="229" customFormat="false" ht="75.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A229" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B229" s="12" t="s">
+      <c r="B229" s="13" t="s">
         <v>461</v>
       </c>
-      <c r="C229" s="12" t="s">
+      <c r="C229" s="13" t="s">
         <v>462</v>
       </c>
-      <c r="D229" s="12"/>
+      <c r="D229" s="13"/>
       <c r="E229" s="2" t="s">
-        <v>388</v>
+        <v>392</v>
       </c>
     </row>
     <row r="230" customFormat="false" ht="45.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A230" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B230" s="12" t="s">
+      <c r="B230" s="13" t="s">
         <v>463</v>
       </c>
-      <c r="C230" s="12" t="s">
+      <c r="C230" s="13" t="s">
         <v>464</v>
       </c>
-      <c r="D230" s="12"/>
+      <c r="D230" s="13"/>
       <c r="E230" s="2" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="231" customFormat="false" ht="30.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="231" customFormat="false" ht="60.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A231" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B231" s="7" t="s">
+      <c r="B231" s="13" t="s">
         <v>465</v>
       </c>
-      <c r="C231" s="7" t="s">
+      <c r="C231" s="13" t="s">
         <v>466</v>
       </c>
-      <c r="D231" s="7"/>
+      <c r="D231" s="13"/>
       <c r="E231" s="2" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="232" customFormat="false" ht="75.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A232" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B232" s="13" t="s">
         <v>467</v>
       </c>
-    </row>
-    <row r="232" customFormat="false" ht="30.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A232" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B232" s="12" t="s">
+      <c r="C232" s="13" t="s">
         <v>468</v>
       </c>
-      <c r="C232" s="12" t="s">
+      <c r="D232" s="13"/>
+      <c r="E232" s="2" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="233" customFormat="false" ht="60.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A233" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B233" s="7" t="s">
         <v>469</v>
       </c>
-      <c r="D232" s="12"/>
-      <c r="E232" s="2" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="233" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A233" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B233" s="12" t="s">
+      <c r="C233" s="7" t="s">
         <v>470</v>
       </c>
-      <c r="C233" s="12" t="s">
+      <c r="D233" s="7"/>
+      <c r="E233" s="2" t="s">
         <v>471</v>
       </c>
-      <c r="D233" s="12"/>
-      <c r="E233" s="2" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="234" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="234" customFormat="false" ht="60.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A234" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B234" s="12" t="s">
+      <c r="B234" s="13" t="s">
         <v>472</v>
       </c>
-      <c r="C234" s="12" t="s">
+      <c r="C234" s="13" t="s">
         <v>473</v>
       </c>
-      <c r="D234" s="12"/>
+      <c r="D234" s="13"/>
       <c r="E234" s="2" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="235" customFormat="false" ht="30.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="235" customFormat="false" ht="60.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A235" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B235" s="7" t="s">
+      <c r="B235" s="13" t="s">
         <v>474</v>
       </c>
-      <c r="C235" s="12" t="s">
+      <c r="C235" s="13" t="s">
         <v>475</v>
       </c>
-      <c r="D235" s="12"/>
+      <c r="D235" s="13"/>
       <c r="E235" s="2" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="236" customFormat="false" ht="30.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="236" customFormat="false" ht="75.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A236" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B236" s="12" t="s">
+      <c r="B236" s="13" t="s">
         <v>476</v>
       </c>
-      <c r="C236" s="12" t="s">
+      <c r="C236" s="13" t="s">
         <v>477</v>
       </c>
-      <c r="D236" s="12"/>
+      <c r="D236" s="13"/>
       <c r="E236" s="2" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="237" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="237" customFormat="false" ht="45.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A237" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B237" s="12" t="s">
+      <c r="B237" s="7" t="s">
         <v>478</v>
       </c>
-      <c r="C237" s="12" t="s">
+      <c r="C237" s="13" t="s">
         <v>479</v>
       </c>
-      <c r="D237" s="12"/>
+      <c r="D237" s="13"/>
       <c r="E237" s="2" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="238" customFormat="false" ht="30.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="238" customFormat="false" ht="45.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A238" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B238" s="12" t="s">
+      <c r="B238" s="13" t="s">
         <v>480</v>
       </c>
-      <c r="C238" s="12" t="s">
+      <c r="C238" s="13" t="s">
         <v>481</v>
       </c>
-      <c r="D238" s="12"/>
+      <c r="D238" s="13"/>
       <c r="E238" s="2" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="239" customFormat="false" ht="30.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="239" customFormat="false" ht="75.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A239" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B239" s="12" t="s">
+      <c r="B239" s="13" t="s">
         <v>482</v>
       </c>
-      <c r="C239" s="12" t="s">
+      <c r="C239" s="13" t="s">
         <v>483</v>
       </c>
-      <c r="D239" s="12"/>
+      <c r="D239" s="13"/>
       <c r="E239" s="2" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="240" customFormat="false" ht="30.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="240" customFormat="false" ht="75.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A240" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B240" s="12" t="s">
+      <c r="B240" s="13" t="s">
         <v>484</v>
       </c>
-      <c r="C240" s="12" t="s">
+      <c r="C240" s="13" t="s">
         <v>485</v>
       </c>
-      <c r="D240" s="12"/>
+      <c r="D240" s="13"/>
       <c r="E240" s="2" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="241" customFormat="false" ht="30.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="241" customFormat="false" ht="45.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A241" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B241" s="12" t="s">
+      <c r="B241" s="13" t="s">
         <v>486</v>
       </c>
-      <c r="C241" s="12" t="s">
+      <c r="C241" s="13" t="s">
         <v>487</v>
       </c>
-      <c r="D241" s="12"/>
+      <c r="D241" s="13"/>
       <c r="E241" s="2" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="242" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="242" customFormat="false" ht="45.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A242" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B242" s="12" t="s">
+      <c r="B242" s="13" t="s">
         <v>488</v>
       </c>
-      <c r="C242" s="12" t="s">
+      <c r="C242" s="13" t="s">
         <v>489</v>
       </c>
-      <c r="D242" s="12"/>
+      <c r="D242" s="13"/>
       <c r="E242" s="2" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="243" customFormat="false" ht="30.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="243" customFormat="false" ht="60.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A243" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B243" s="12" t="s">
+      <c r="B243" s="13" t="s">
         <v>490</v>
       </c>
-      <c r="C243" s="12" t="s">
+      <c r="C243" s="13" t="s">
         <v>491</v>
       </c>
-      <c r="D243" s="12"/>
+      <c r="D243" s="13"/>
       <c r="E243" s="2" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="244" customFormat="false" ht="30.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="244" customFormat="false" ht="75.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A244" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B244" s="12" t="s">
+      <c r="B244" s="13" t="s">
         <v>492</v>
       </c>
-      <c r="C244" s="12" t="s">
+      <c r="C244" s="13" t="s">
         <v>493</v>
       </c>
-      <c r="D244" s="12"/>
+      <c r="D244" s="13"/>
       <c r="E244" s="2" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="245" customFormat="false" ht="30.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="245" customFormat="false" ht="75.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A245" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B245" s="12" t="s">
+      <c r="B245" s="13" t="s">
         <v>494</v>
       </c>
-      <c r="C245" s="12" t="s">
+      <c r="C245" s="13" t="s">
         <v>495</v>
       </c>
-      <c r="D245" s="12"/>
+      <c r="D245" s="13"/>
       <c r="E245" s="2" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="246" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="246" customFormat="false" ht="30.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A246" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B246" s="12" t="s">
+      <c r="B246" s="13" t="s">
         <v>496</v>
       </c>
-      <c r="C246" s="12" t="s">
+      <c r="C246" s="13" t="s">
         <v>497</v>
       </c>
-      <c r="D246" s="12"/>
+      <c r="D246" s="13"/>
       <c r="E246" s="2" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="247" customFormat="false" ht="30.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="247" customFormat="false" ht="75.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A247" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B247" s="12" t="s">
+      <c r="B247" s="13" t="s">
         <v>498</v>
       </c>
-      <c r="C247" s="12" t="s">
+      <c r="C247" s="13" t="s">
         <v>499</v>
       </c>
-      <c r="D247" s="12"/>
+      <c r="D247" s="13"/>
       <c r="E247" s="2" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="248" customFormat="false" ht="45.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="248" customFormat="false" ht="75.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A248" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B248" s="12" t="s">
+      <c r="B248" s="13" t="s">
         <v>500</v>
       </c>
-      <c r="C248" s="12" t="s">
+      <c r="C248" s="13" t="s">
         <v>501</v>
       </c>
-      <c r="D248" s="12"/>
+      <c r="D248" s="13"/>
       <c r="E248" s="2" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="249" customFormat="false" ht="30.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="249" customFormat="false" ht="60.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A249" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B249" s="12" t="s">
+      <c r="B249" s="13" t="s">
         <v>502</v>
       </c>
-      <c r="C249" s="2" t="s">
+      <c r="C249" s="13" t="s">
         <v>503</v>
       </c>
+      <c r="D249" s="13"/>
       <c r="E249" s="2" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="250" customFormat="false" ht="30.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="250" customFormat="false" ht="90.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A250" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B250" s="12" t="s">
+      <c r="B250" s="13" t="s">
         <v>504</v>
       </c>
-      <c r="C250" s="12" t="s">
+      <c r="C250" s="13" t="s">
         <v>505</v>
       </c>
-      <c r="D250" s="12"/>
+      <c r="D250" s="13"/>
       <c r="E250" s="2" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="251" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="251" customFormat="false" ht="75.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A251" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B251" s="12" t="s">
+      <c r="B251" s="13" t="s">
         <v>506</v>
       </c>
-      <c r="C251" s="12" t="s">
+      <c r="C251" s="2" t="s">
         <v>507</v>
       </c>
-      <c r="D251" s="12"/>
       <c r="E251" s="2" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="252" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="252" customFormat="false" ht="45.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A252" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B252" s="12" t="s">
+      <c r="B252" s="13" t="s">
         <v>508</v>
       </c>
-      <c r="C252" s="12" t="s">
+      <c r="C252" s="13" t="s">
         <v>509</v>
       </c>
-      <c r="D252" s="12"/>
+      <c r="D252" s="13"/>
       <c r="E252" s="2" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="253" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="253" customFormat="false" ht="90.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A253" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B253" s="12" t="s">
+      <c r="B253" s="13" t="s">
         <v>510</v>
       </c>
-      <c r="C253" s="12" t="s">
+      <c r="C253" s="13" t="s">
         <v>511</v>
       </c>
-      <c r="D253" s="12"/>
+      <c r="D253" s="13"/>
       <c r="E253" s="2" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="254" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="254" customFormat="false" ht="60.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A254" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B254" s="12" t="s">
+      <c r="B254" s="13" t="s">
         <v>512</v>
       </c>
-      <c r="C254" s="12" t="s">
+      <c r="C254" s="13" t="s">
         <v>513</v>
       </c>
-      <c r="D254" s="12"/>
+      <c r="D254" s="13"/>
       <c r="E254" s="2" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="255" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="255" customFormat="false" ht="75.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A255" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B255" s="12" t="s">
+      <c r="B255" s="13" t="s">
         <v>514</v>
       </c>
-      <c r="C255" s="12" t="s">
+      <c r="C255" s="13" t="s">
         <v>515</v>
       </c>
-      <c r="D255" s="12"/>
+      <c r="D255" s="13"/>
       <c r="E255" s="2" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="256" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="256" customFormat="false" ht="75.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A256" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B256" s="12" t="s">
+      <c r="B256" s="13" t="s">
         <v>516</v>
       </c>
-      <c r="C256" s="12" t="s">
+      <c r="C256" s="13" t="s">
         <v>517</v>
       </c>
-      <c r="D256" s="12"/>
+      <c r="D256" s="13"/>
       <c r="E256" s="2" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="257" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="257" customFormat="false" ht="60.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A257" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B257" s="12" t="s">
+      <c r="B257" s="13" t="s">
         <v>518</v>
       </c>
-      <c r="C257" s="12" t="s">
+      <c r="C257" s="13" t="s">
         <v>519</v>
       </c>
-      <c r="D257" s="12"/>
+      <c r="D257" s="13"/>
       <c r="E257" s="2" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="258" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="258" customFormat="false" ht="60.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A258" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B258" s="12" t="s">
+      <c r="B258" s="13" t="s">
         <v>520</v>
       </c>
-      <c r="C258" s="12" t="s">
+      <c r="C258" s="13" t="s">
         <v>521</v>
       </c>
-      <c r="D258" s="12"/>
+      <c r="D258" s="13"/>
       <c r="E258" s="2" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="259" customFormat="false" ht="75.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A259" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B259" s="13" t="s">
         <v>522</v>
       </c>
-    </row>
-    <row r="259" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A259" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B259" s="12" t="s">
+      <c r="C259" s="13" t="s">
         <v>523</v>
       </c>
-      <c r="C259" s="12" t="s">
+      <c r="D259" s="13"/>
+      <c r="E259" s="2" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="260" customFormat="false" ht="60.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A260" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B260" s="13" t="s">
         <v>524</v>
       </c>
-      <c r="D259" s="12"/>
-      <c r="E259" s="2" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="260" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A260" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B260" s="12" t="s">
+      <c r="C260" s="13" t="s">
         <v>525</v>
       </c>
-      <c r="C260" s="12" t="s">
+      <c r="D260" s="13"/>
+      <c r="E260" s="2" t="s">
         <v>526</v>
       </c>
-      <c r="D260" s="12"/>
-      <c r="E260" s="2" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="261" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="261" customFormat="false" ht="45.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A261" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B261" s="12" t="s">
+      <c r="B261" s="13" t="s">
         <v>527</v>
       </c>
-      <c r="C261" s="12" t="s">
+      <c r="C261" s="13" t="s">
         <v>528</v>
       </c>
-      <c r="D261" s="12"/>
+      <c r="D261" s="13"/>
       <c r="E261" s="2" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="262" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="262" customFormat="false" ht="60.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A262" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B262" s="12" t="s">
+      <c r="B262" s="13" t="s">
         <v>529</v>
       </c>
-      <c r="C262" s="12" t="s">
+      <c r="C262" s="13" t="s">
         <v>530</v>
       </c>
-      <c r="D262" s="12"/>
+      <c r="D262" s="13"/>
       <c r="E262" s="2" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="263" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="263" customFormat="false" ht="60.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A263" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B263" s="12" t="s">
+      <c r="B263" s="13" t="s">
         <v>531</v>
       </c>
-      <c r="C263" s="12" t="s">
+      <c r="C263" s="13" t="s">
         <v>532</v>
       </c>
-      <c r="D263" s="12"/>
+      <c r="D263" s="13"/>
       <c r="E263" s="2" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="264" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="264" customFormat="false" ht="60.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A264" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B264" s="12" t="s">
+      <c r="B264" s="13" t="s">
         <v>533</v>
       </c>
-      <c r="C264" s="2" t="s">
+      <c r="C264" s="13" t="s">
         <v>534</v>
       </c>
+      <c r="D264" s="13"/>
       <c r="E264" s="2" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="265" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="265" customFormat="false" ht="60.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A265" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B265" s="12" t="s">
+      <c r="B265" s="13" t="s">
         <v>535</v>
       </c>
-      <c r="C265" s="12" t="s">
+      <c r="C265" s="13" t="s">
         <v>536</v>
       </c>
-      <c r="D265" s="12"/>
+      <c r="D265" s="13"/>
       <c r="E265" s="2" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="266" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="266" customFormat="false" ht="45.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A266" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B266" s="12" t="s">
+      <c r="B266" s="13" t="s">
         <v>537</v>
       </c>
       <c r="C266" s="2" t="s">
         <v>538</v>
       </c>
       <c r="E266" s="2" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="267" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="267" customFormat="false" ht="60.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A267" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B267" s="12" t="s">
+      <c r="B267" s="13" t="s">
         <v>539</v>
       </c>
-      <c r="C267" s="12" t="s">
+      <c r="C267" s="13" t="s">
         <v>540</v>
       </c>
-      <c r="D267" s="12"/>
+      <c r="D267" s="13"/>
       <c r="E267" s="2" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="268" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="268" customFormat="false" ht="45.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A268" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B268" s="12" t="s">
+      <c r="B268" s="13" t="s">
         <v>541</v>
       </c>
-      <c r="C268" s="12" t="s">
+      <c r="C268" s="2" t="s">
         <v>542</v>
       </c>
-      <c r="D268" s="12"/>
       <c r="E268" s="2" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="269" customFormat="false" ht="30.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="269" customFormat="false" ht="60.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A269" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B269" s="12" t="s">
+      <c r="B269" s="13" t="s">
         <v>543</v>
       </c>
-      <c r="C269" s="2" t="s">
+      <c r="C269" s="13" t="s">
         <v>544</v>
       </c>
+      <c r="D269" s="13"/>
       <c r="E269" s="2" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="270" customFormat="false" ht="30.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="270" customFormat="false" ht="90.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A270" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B270" s="12" t="s">
+      <c r="B270" s="13" t="s">
         <v>545</v>
       </c>
-      <c r="C270" s="12" t="s">
+      <c r="C270" s="13" t="s">
         <v>546</v>
       </c>
-      <c r="D270" s="12"/>
+      <c r="D270" s="13"/>
       <c r="E270" s="2" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="271" customFormat="false" ht="30.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="271" customFormat="false" ht="60.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A271" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B271" s="12" t="s">
+      <c r="B271" s="13" t="s">
         <v>547</v>
       </c>
       <c r="C271" s="2" t="s">
         <v>548</v>
       </c>
       <c r="E271" s="2" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="272" customFormat="false" ht="30.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="272" customFormat="false" ht="45.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A272" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B272" s="12" t="s">
+      <c r="B272" s="13" t="s">
         <v>549</v>
       </c>
-      <c r="C272" s="12" t="s">
+      <c r="C272" s="13" t="s">
         <v>550</v>
       </c>
-      <c r="D272" s="12"/>
+      <c r="D272" s="13"/>
       <c r="E272" s="2" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="273" customFormat="false" ht="30.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="273" customFormat="false" ht="45.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A273" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B273" s="12" t="s">
+      <c r="B273" s="13" t="s">
         <v>551</v>
       </c>
       <c r="C273" s="2" t="s">
         <v>552</v>
       </c>
       <c r="E273" s="2" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="274" customFormat="false" ht="30.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="274" customFormat="false" ht="60.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A274" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B274" s="12" t="s">
+      <c r="B274" s="13" t="s">
         <v>553</v>
       </c>
-      <c r="C274" s="2" t="s">
+      <c r="C274" s="13" t="s">
         <v>554</v>
       </c>
+      <c r="D274" s="13"/>
       <c r="E274" s="2" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="275" customFormat="false" ht="30.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="275" customFormat="false" ht="45.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A275" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B275" s="12" t="s">
+      <c r="B275" s="13" t="s">
         <v>555</v>
       </c>
-      <c r="C275" s="12" t="s">
+      <c r="C275" s="2" t="s">
         <v>556</v>
       </c>
-      <c r="D275" s="12"/>
       <c r="E275" s="2" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="276" customFormat="false" ht="30.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="276" customFormat="false" ht="60.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A276" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B276" s="12" t="s">
+      <c r="B276" s="13" t="s">
         <v>557</v>
       </c>
       <c r="C276" s="2" t="s">
         <v>558</v>
       </c>
       <c r="E276" s="2" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="277" customFormat="false" ht="30.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="277" customFormat="false" ht="60.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A277" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B277" s="12" t="s">
+      <c r="B277" s="13" t="s">
         <v>559</v>
       </c>
-      <c r="C277" s="12" t="s">
+      <c r="C277" s="13" t="s">
         <v>560</v>
       </c>
-      <c r="D277" s="12"/>
+      <c r="D277" s="13"/>
       <c r="E277" s="2" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="278" customFormat="false" ht="30.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="278" customFormat="false" ht="60.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A278" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B278" s="12" t="s">
+      <c r="B278" s="13" t="s">
         <v>561</v>
       </c>
-      <c r="C278" s="12" t="s">
-        <v>515</v>
-      </c>
-      <c r="D278" s="12"/>
+      <c r="C278" s="2" t="s">
+        <v>562</v>
+      </c>
       <c r="E278" s="2" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="279" customFormat="false" ht="30.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="279" customFormat="false" ht="75.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A279" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B279" s="12" t="s">
-        <v>562</v>
-      </c>
-      <c r="C279" s="12" t="s">
+      <c r="B279" s="13" t="s">
         <v>563</v>
       </c>
-      <c r="D279" s="12"/>
+      <c r="C279" s="13" t="s">
+        <v>564</v>
+      </c>
+      <c r="D279" s="13"/>
       <c r="E279" s="2" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="280" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="280" customFormat="false" ht="75.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A280" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="C280" s="3"/>
-      <c r="D280" s="3"/>
-    </row>
-    <row r="281" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B280" s="13" t="s">
+        <v>565</v>
+      </c>
+      <c r="C280" s="13" t="s">
+        <v>519</v>
+      </c>
+      <c r="D280" s="13"/>
+      <c r="E280" s="2" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="281" customFormat="false" ht="60.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A281" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="B281" s="13" t="s">
+        <v>566</v>
+      </c>
+      <c r="C281" s="13" t="s">
+        <v>567</v>
+      </c>
+      <c r="D281" s="13"/>
+      <c r="E281" s="2" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="282" customFormat="false" ht="45.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A282" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B282" s="2" t="s">
+        <v>568</v>
+      </c>
+      <c r="C282" s="12" t="s">
+        <v>569</v>
+      </c>
+      <c r="E282" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="283" customFormat="false" ht="45.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A283" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B283" s="2" t="s">
+        <v>570</v>
+      </c>
+      <c r="C283" s="2" t="s">
+        <v>571</v>
+      </c>
+      <c r="E283" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="284" customFormat="false" ht="60.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A284" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B284" s="2" t="s">
+        <v>572</v>
+      </c>
+      <c r="C284" s="2" t="s">
+        <v>573</v>
+      </c>
+      <c r="E284" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="285" customFormat="false" ht="60.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A285" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B285" s="12" t="s">
+        <v>574</v>
+      </c>
+      <c r="C285" s="12" t="s">
+        <v>575</v>
+      </c>
+      <c r="E285" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="286" customFormat="false" ht="45.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A286" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B286" s="2" t="s">
+        <v>576</v>
+      </c>
+      <c r="C286" s="2" t="s">
+        <v>577</v>
+      </c>
+      <c r="E286" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="287" customFormat="false" ht="60.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A287" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B287" s="12" t="s">
+        <v>578</v>
+      </c>
+      <c r="C287" s="12" t="s">
+        <v>579</v>
+      </c>
+      <c r="E287" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="288" customFormat="false" ht="60.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A288" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B288" s="12" t="s">
+        <v>580</v>
+      </c>
+      <c r="C288" s="12" t="s">
+        <v>581</v>
+      </c>
+      <c r="E288" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="289" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A289" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B289" s="12" t="s">
+        <v>582</v>
+      </c>
+      <c r="C289" s="12" t="s">
+        <v>583</v>
+      </c>
+      <c r="E289" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="290" customFormat="false" ht="60.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A290" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B290" s="12" t="s">
+        <v>584</v>
+      </c>
+      <c r="C290" s="12" t="s">
+        <v>585</v>
+      </c>
+      <c r="E290" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="291" customFormat="false" ht="90.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A291" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B291" s="12" t="s">
+        <v>586</v>
+      </c>
+      <c r="C291" s="12" t="s">
+        <v>587</v>
+      </c>
+      <c r="E291" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="292" customFormat="false" ht="60.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A292" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B292" s="2" t="s">
+        <v>588</v>
+      </c>
+      <c r="C292" s="2" t="s">
+        <v>589</v>
+      </c>
+      <c r="E292" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="293" customFormat="false" ht="60.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A293" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B293" s="12" t="s">
+        <v>590</v>
+      </c>
+      <c r="C293" s="2" t="s">
+        <v>591</v>
+      </c>
+      <c r="E293" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="294" customFormat="false" ht="45.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A294" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B294" s="12" t="s">
+        <v>592</v>
+      </c>
+      <c r="C294" s="12" t="s">
+        <v>593</v>
+      </c>
+      <c r="E294" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="295" customFormat="false" ht="75.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A295" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B295" s="12" t="s">
+        <v>594</v>
+      </c>
+      <c r="C295" s="12" t="s">
+        <v>595</v>
+      </c>
+      <c r="E295" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="296" customFormat="false" ht="60.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A296" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B296" s="12" t="s">
+        <v>596</v>
+      </c>
+      <c r="C296" s="12" t="s">
+        <v>597</v>
+      </c>
+      <c r="E296" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="297" customFormat="false" ht="45.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A297" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B297" s="12" t="s">
+        <v>598</v>
+      </c>
+      <c r="C297" s="12" t="s">
+        <v>599</v>
+      </c>
+      <c r="E297" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="298" customFormat="false" ht="45.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A298" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B298" s="12" t="s">
+        <v>600</v>
+      </c>
+      <c r="C298" s="12" t="s">
+        <v>601</v>
+      </c>
+      <c r="E298" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="299" customFormat="false" ht="61.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A299" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B299" s="12" t="s">
+        <v>602</v>
+      </c>
+      <c r="C299" s="12" t="s">
+        <v>603</v>
+      </c>
+      <c r="E299" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="300" customFormat="false" ht="61.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A300" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B300" s="12" t="s">
+        <v>604</v>
+      </c>
+      <c r="C300" s="12" t="s">
+        <v>605</v>
+      </c>
+      <c r="E300" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="301" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A301" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B301" s="12" t="s">
+        <v>606</v>
+      </c>
+      <c r="C301" s="12" t="s">
+        <v>607</v>
+      </c>
+      <c r="E301" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="302" customFormat="false" ht="60.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A302" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B302" s="12" t="s">
+        <v>608</v>
+      </c>
+      <c r="C302" s="12" t="s">
+        <v>609</v>
+      </c>
+      <c r="E302" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="303" customFormat="false" ht="76.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A303" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B303" s="12" t="s">
+        <v>610</v>
+      </c>
+      <c r="C303" s="12" t="s">
+        <v>611</v>
+      </c>
+      <c r="E303" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="304" customFormat="false" ht="60.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A304" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B304" s="12" t="s">
+        <v>612</v>
+      </c>
+      <c r="C304" s="12" t="s">
+        <v>613</v>
+      </c>
+      <c r="E304" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="305" customFormat="false" ht="45.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A305" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B305" s="2" t="s">
+        <v>614</v>
+      </c>
+      <c r="C305" s="12" t="s">
+        <v>615</v>
+      </c>
+      <c r="E305" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="306" customFormat="false" ht="61.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A306" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B306" s="12" t="s">
+        <v>616</v>
+      </c>
+      <c r="C306" s="12" t="s">
+        <v>617</v>
+      </c>
+      <c r="E306" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="307" customFormat="false" ht="60.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A307" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B307" s="12" t="s">
+        <v>618</v>
+      </c>
+      <c r="C307" s="12" t="s">
+        <v>619</v>
+      </c>
+      <c r="E307" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="308" customFormat="false" ht="60.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A308" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B308" s="12" t="s">
+        <v>620</v>
+      </c>
+      <c r="C308" s="12" t="s">
+        <v>621</v>
+      </c>
+      <c r="E308" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="309" customFormat="false" ht="75.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A309" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B309" s="12" t="s">
+        <v>622</v>
+      </c>
+      <c r="C309" s="12" t="s">
+        <v>623</v>
+      </c>
+      <c r="E309" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="310" customFormat="false" ht="60.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A310" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B310" s="12" t="s">
+        <v>624</v>
+      </c>
+      <c r="C310" s="12" t="s">
+        <v>625</v>
+      </c>
+      <c r="E310" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="311" customFormat="false" ht="76.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A311" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B311" s="12" t="s">
+        <v>626</v>
+      </c>
+      <c r="C311" s="12" t="s">
+        <v>627</v>
+      </c>
+      <c r="E311" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="312" customFormat="false" ht="61.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A312" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B312" s="12" t="s">
+        <v>628</v>
+      </c>
+      <c r="C312" s="2" t="s">
+        <v>629</v>
+      </c>
+      <c r="E312" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="313" customFormat="false" ht="60.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A313" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B313" s="12" t="s">
+        <v>630</v>
+      </c>
+      <c r="C313" s="2" t="s">
+        <v>631</v>
+      </c>
+      <c r="E313" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="314" customFormat="false" ht="75.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A314" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B314" s="2" t="s">
+        <v>632</v>
+      </c>
+      <c r="C314" s="12" t="s">
+        <v>633</v>
+      </c>
+      <c r="E314" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="315" customFormat="false" ht="61.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A315" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B315" s="12" t="s">
+        <v>634</v>
+      </c>
+      <c r="C315" s="12" t="s">
+        <v>635</v>
+      </c>
+      <c r="E315" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="316" customFormat="false" ht="76.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A316" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B316" s="12" t="s">
+        <v>636</v>
+      </c>
+      <c r="C316" s="12" t="s">
+        <v>637</v>
+      </c>
+      <c r="E316" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="317" customFormat="false" ht="61.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A317" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B317" s="12" t="s">
+        <v>638</v>
+      </c>
+      <c r="C317" s="12" t="s">
+        <v>639</v>
+      </c>
+      <c r="E317" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="318" customFormat="false" ht="75.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A318" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B318" s="12" t="s">
+        <v>640</v>
+      </c>
+      <c r="C318" s="12" t="s">
+        <v>641</v>
+      </c>
+      <c r="E318" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="319" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A319" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B319" s="12" t="s">
+        <v>642</v>
+      </c>
+      <c r="C319" s="12" t="s">
+        <v>643</v>
+      </c>
+      <c r="E319" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="320" customFormat="false" ht="76.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A320" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B320" s="12" t="s">
+        <v>644</v>
+      </c>
+      <c r="C320" s="12" t="s">
+        <v>645</v>
+      </c>
+      <c r="E320" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="321" customFormat="false" ht="76.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A321" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B321" s="12" t="s">
+        <v>646</v>
+      </c>
+      <c r="C321" s="12" t="s">
+        <v>647</v>
+      </c>
+      <c r="E321" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="322" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A322" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B322" s="12" t="s">
+        <v>648</v>
+      </c>
+      <c r="C322" s="12" t="s">
+        <v>649</v>
+      </c>
+      <c r="E322" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="323" customFormat="false" ht="61.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A323" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B323" s="12" t="s">
+        <v>650</v>
+      </c>
+      <c r="C323" s="12" t="s">
+        <v>651</v>
+      </c>
+      <c r="E323" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="324" customFormat="false" ht="76.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A324" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B324" s="12" t="s">
+        <v>652</v>
+      </c>
+      <c r="C324" s="12" t="s">
+        <v>653</v>
+      </c>
+      <c r="E324" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="325" customFormat="false" ht="76.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A325" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B325" s="12" t="s">
+        <v>654</v>
+      </c>
+      <c r="C325" s="12" t="s">
+        <v>655</v>
+      </c>
+      <c r="E325" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="326" customFormat="false" ht="61.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A326" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B326" s="12" t="s">
+        <v>656</v>
+      </c>
+      <c r="C326" s="12" t="s">
+        <v>657</v>
+      </c>
+      <c r="E326" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="327" customFormat="false" ht="90.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A327" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B327" s="12" t="s">
+        <v>658</v>
+      </c>
+      <c r="C327" s="12" t="s">
+        <v>659</v>
+      </c>
+      <c r="E327" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="328" customFormat="false" ht="61.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A328" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B328" s="12" t="s">
+        <v>660</v>
+      </c>
+      <c r="C328" s="12" t="s">
+        <v>661</v>
+      </c>
+      <c r="E328" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="329" customFormat="false" ht="120.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A329" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B329" s="12" t="s">
+        <v>662</v>
+      </c>
+      <c r="C329" s="0" t="s">
+        <v>663</v>
+      </c>
+      <c r="E329" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="330" customFormat="false" ht="76.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A330" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B330" s="12" t="s">
+        <v>664</v>
+      </c>
+      <c r="C330" s="12" t="s">
+        <v>665</v>
+      </c>
+      <c r="E330" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="331" customFormat="false" ht="61.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A331" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B331" s="12" t="s">
+        <v>666</v>
+      </c>
+      <c r="C331" s="12" t="s">
+        <v>667</v>
+      </c>
+      <c r="E331" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="332" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A332" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B332" s="12" t="s">
+        <v>668</v>
+      </c>
+      <c r="C332" s="12" t="s">
+        <v>669</v>
+      </c>
+      <c r="E332" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="333" customFormat="false" ht="90.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A333" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B333" s="12" t="s">
+        <v>670</v>
+      </c>
+      <c r="C333" s="2" t="s">
+        <v>671</v>
+      </c>
+      <c r="E333" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="334" customFormat="false" ht="60.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A334" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B334" s="12" t="s">
+        <v>672</v>
+      </c>
+      <c r="C334" s="2" t="s">
+        <v>673</v>
+      </c>
+      <c r="E334" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="335" customFormat="false" ht="105.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A335" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B335" s="12" t="s">
+        <v>674</v>
+      </c>
+      <c r="C335" s="2" t="s">
+        <v>675</v>
+      </c>
+      <c r="E335" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="336" customFormat="false" ht="120.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A336" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B336" s="12" t="s">
+        <v>676</v>
+      </c>
+      <c r="C336" s="2" t="s">
+        <v>677</v>
+      </c>
+      <c r="E336" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="337" customFormat="false" ht="45.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A337" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B337" s="12" t="s">
+        <v>678</v>
+      </c>
+      <c r="C337" s="2" t="s">
+        <v>679</v>
+      </c>
+      <c r="E337" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="338" customFormat="false" ht="16.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A338" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C338" s="2" t="s">
+        <v>680</v>
+      </c>
+      <c r="E338" s="2" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="339" customFormat="false" ht="75.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A339" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B339" s="12" t="s">
+        <v>682</v>
+      </c>
+      <c r="C339" s="12" t="s">
+        <v>683</v>
+      </c>
+      <c r="E339" s="2" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="340" customFormat="false" ht="76.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A340" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B340" s="12" t="s">
+        <v>684</v>
+      </c>
+      <c r="C340" s="12" t="s">
+        <v>685</v>
+      </c>
+      <c r="E340" s="2" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="341" customFormat="false" ht="76.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A341" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B341" s="12" t="s">
+        <v>686</v>
+      </c>
+      <c r="C341" s="12" t="s">
+        <v>687</v>
+      </c>
+      <c r="E341" s="2" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="342" customFormat="false" ht="76.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A342" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B342" s="12" t="s">
+        <v>688</v>
+      </c>
+      <c r="C342" s="12" t="s">
+        <v>689</v>
+      </c>
+      <c r="E342" s="2" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="343" customFormat="false" ht="75.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A343" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B343" s="12" t="s">
+        <v>690</v>
+      </c>
+      <c r="C343" s="12" t="s">
+        <v>691</v>
+      </c>
+      <c r="E343" s="2" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="344" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A344" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B344" s="12" t="s">
+        <v>692</v>
+      </c>
+      <c r="C344" s="12" t="s">
+        <v>693</v>
+      </c>
+      <c r="E344" s="2" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="345" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A345" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B345" s="12" t="s">
+        <v>694</v>
+      </c>
+      <c r="C345" s="12" t="s">
+        <v>695</v>
+      </c>
+      <c r="E345" s="2" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="346" customFormat="false" ht="61.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A346" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B346" s="12" t="s">
+        <v>696</v>
+      </c>
+      <c r="C346" s="12" t="s">
+        <v>697</v>
+      </c>
+      <c r="E346" s="2" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="347" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A347" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B347" s="12" t="s">
+        <v>698</v>
+      </c>
+      <c r="C347" s="12" t="s">
+        <v>699</v>
+      </c>
+      <c r="E347" s="2" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="348" customFormat="false" ht="76.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A348" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B348" s="12" t="s">
+        <v>700</v>
+      </c>
+      <c r="C348" s="12" t="s">
+        <v>701</v>
+      </c>
+      <c r="E348" s="2" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="349" customFormat="false" ht="76.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A349" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B349" s="12" t="s">
+        <v>702</v>
+      </c>
+      <c r="C349" s="12" t="s">
+        <v>703</v>
+      </c>
+      <c r="E349" s="2" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="350" customFormat="false" ht="76.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A350" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B350" s="12" t="s">
+        <v>704</v>
+      </c>
+      <c r="C350" s="12" t="s">
+        <v>705</v>
+      </c>
+      <c r="E350" s="2" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="351" customFormat="false" ht="61.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A351" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B351" s="12" t="s">
+        <v>706</v>
+      </c>
+      <c r="C351" s="12" t="s">
+        <v>707</v>
+      </c>
+      <c r="E351" s="2" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="352" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A352" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B352" s="12" t="s">
+        <v>708</v>
+      </c>
+      <c r="C352" s="12" t="s">
+        <v>709</v>
+      </c>
+      <c r="E352" s="2" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="353" customFormat="false" ht="61.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A353" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B353" s="12" t="s">
+        <v>710</v>
+      </c>
+      <c r="C353" s="12" t="s">
+        <v>711</v>
+      </c>
+      <c r="E353" s="2" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="354" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A354" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B354" s="12" t="s">
+        <v>712</v>
+      </c>
+      <c r="C354" s="12" t="s">
+        <v>713</v>
+      </c>
+      <c r="E354" s="2" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="355" customFormat="false" ht="76.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A355" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B355" s="12" t="s">
+        <v>714</v>
+      </c>
+      <c r="C355" s="12" t="s">
+        <v>715</v>
+      </c>
+      <c r="E355" s="2" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="356" customFormat="false" ht="61.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A356" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B356" s="12" t="s">
+        <v>716</v>
+      </c>
+      <c r="C356" s="12" t="s">
+        <v>717</v>
+      </c>
+      <c r="E356" s="2" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="357" customFormat="false" ht="105.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A357" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B357" s="12" t="s">
+        <v>718</v>
+      </c>
+      <c r="C357" s="12" t="s">
+        <v>719</v>
+      </c>
+      <c r="E357" s="2" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="358" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A358" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B358" s="12" t="s">
+        <v>720</v>
+      </c>
+      <c r="C358" s="12" t="s">
+        <v>721</v>
+      </c>
+      <c r="E358" s="2" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="359" customFormat="false" ht="61.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A359" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B359" s="12" t="s">
+        <v>722</v>
+      </c>
+      <c r="C359" s="12" t="s">
+        <v>723</v>
+      </c>
+      <c r="E359" s="2" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="360" customFormat="false" ht="90.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A360" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B360" s="12" t="s">
+        <v>724</v>
+      </c>
+      <c r="C360" s="12" t="s">
+        <v>725</v>
+      </c>
+      <c r="E360" s="2" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="361" customFormat="false" ht="75.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A361" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B361" s="12" t="s">
+        <v>726</v>
+      </c>
+      <c r="C361" s="12" t="s">
+        <v>727</v>
+      </c>
+      <c r="E361" s="2" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="362" customFormat="false" ht="75.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A362" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B362" s="12" t="s">
+        <v>728</v>
+      </c>
+      <c r="C362" s="12" t="s">
+        <v>729</v>
+      </c>
+      <c r="E362" s="2" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="363" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A363" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B363" s="12" t="s">
+        <v>730</v>
+      </c>
+      <c r="C363" s="12" t="s">
+        <v>731</v>
+      </c>
+      <c r="E363" s="2" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="364" customFormat="false" ht="76.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A364" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B364" s="12" t="s">
+        <v>732</v>
+      </c>
+      <c r="C364" s="12" t="s">
+        <v>733</v>
+      </c>
+      <c r="E364" s="2" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="365" customFormat="false" ht="60.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A365" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B365" s="12" t="s">
+        <v>734</v>
+      </c>
+      <c r="C365" s="17" t="s">
+        <v>735</v>
+      </c>
+      <c r="E365" s="2" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="366" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A366" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B366" s="12" t="s">
+        <v>736</v>
+      </c>
+      <c r="C366" s="12" t="s">
+        <v>737</v>
+      </c>
+      <c r="E366" s="2" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="367" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A367" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B367" s="12" t="s">
+        <v>738</v>
+      </c>
+      <c r="C367" s="12" t="s">
+        <v>739</v>
+      </c>
+      <c r="E367" s="2" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="368" customFormat="false" ht="105.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A368" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B368" s="12" t="s">
+        <v>740</v>
+      </c>
+      <c r="C368" s="12" t="s">
+        <v>741</v>
+      </c>
+      <c r="E368" s="2" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="369" customFormat="false" ht="75.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A369" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B369" s="12" t="s">
+        <v>742</v>
+      </c>
+      <c r="C369" s="12" t="s">
+        <v>743</v>
+      </c>
+      <c r="E369" s="2" t="s">
+        <v>681</v>
+      </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:E369"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -6208,5 +8041,6 @@
     <oddHeader/>
     <oddFooter/>
   </headerFooter>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/backend/django_cemos2028/apps/perguntas/fixtures/flashcards.xlsx
+++ b/backend/django_cemos2028/apps/perguntas/fixtures/flashcards.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1108" uniqueCount="744">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1492" uniqueCount="1001">
   <si>
     <t xml:space="preserve">bibliografia_id</t>
   </si>
@@ -2284,6 +2284,803 @@
   <si>
     <t xml:space="preserve">O Projeto Calha Norte.</t>
   </si>
+  <si>
+    <t xml:space="preserve">De acordo com a teoria das relações internacionais, qual filósofo introduziu a análise de classe e o raciocínio dialético, que se tornaram bases para analistas marxistas?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Platão.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Qual filósofo foi o primeiro a utilizar o método comparativo de análise em estudos que influenciaram as relações internacionais?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aristóteles.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Em sua obra "O Leviatã", como Thomas Hobbes descreveu a vida do Homem em um estado de natureza sem autoridade governamental?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Como solitária, egoísta e mesmo brutal.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jean-Jacques Rousseau descreveu o estado de natureza como egocêntrico, onde a preocupação primária do homem é a _____.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Autopreservação.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Que solução Immanuel Kant propôs como meio de conquistar a paz internacional, em oposição a um "superleviatã"?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Uma federação de Estados (repúblicas) baseada no Estado de Direito.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O que o behaviorismo busca no estudo das Relações Internacionais?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Um estudo mais científico, partindo do pressuposto de que indivíduos e grupos agem de maneira padronizada e previsível, utilizando o método científico.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Iniciado em 1963, qual projeto de pesquisa é um exemplo notável da aplicação do behaviorismo para investigar as causas da guerra?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O projeto Correlatos da Guerra (COW).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Qual abordagem alternativa em Relações Internacionais busca desconstruir conceitos básicos como Estado e racionalidade, procurando significados ocultos nos textos?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O Pós-modernismo.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Em Relações Internacionais, os pós-modernistas empenham-se em encontrar as vozes daqueles que foram privados de direitos e marginalizados, referidos como os "_____."</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Outros.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Qual teoria postula que os Estados existem em um sistema internacional anárquico e baseiam suas políticas no interesse nacional definido em termos de poder?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Realismo.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Qual teoria tem origem em tradições filosóficas que postulam que a natureza humana é essencialmente boa e que os Estados geralmente cooperam?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Liberalismo.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A teoria radical, com raízes no Marxismo, afirma que os atos dos indivíduos são determinados em grande parte pela _____ a que pertencem.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Classe econômica.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Qual teoria argumenta que as estruturas fundamentais do sistema estatal são de caráter não material, mas intersubjetivo e social, com interesses estatais maleáveis?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O Construtivismo.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Segundo Thomas Hobbes, na ausência de autoridade internacional, a sociedade encontra-se em um "estado de natureza" ou _____.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Anarquia.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A história do cervo e da lebre, usada por Rousseau, ilustra o dilema dos Estados entre visar seus próprios interesses de curto prazo ou reconhecer os benefícios do _____.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Interesse Comum.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Qual o objetivo do uso da História para distinguir entre as causas subjacentes e imediatas das guerras, como fez Tucídides?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Permitir a análise de causas e a identificação de padrões para explicar relações entre eventos.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O que são "externalidades negativas" no contexto de questões ambientais e desenvolvimento econômico?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Consequências imprevistas e onerosas para todos, como a poluição gerada pela indústria.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O que é sustentabilidade (ou desenvolvimento sustentável) como perspectiva conceitual nas Relações Internacionais?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fomentar a sobrevivência e o bem-estar sem causar danos duradouros ao meio ambiente, protegendo a qualidade de vida das gerações futuras.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Qual tratado internacional foi considerado um sucesso relativo na reversão da destruição da camada de ozônio ao proibir os clorofluorcarbonos (CFCs)?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O Protocolo de Montreal de 1987.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Por que o governo de George W. Bush se recusou a ratificar o Protocolo de Kyoto de 1997?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alegou que os custos econômicos seriam muito altos e que países em desenvolvimento como China e Índia teriam uma vantagem econômica injusta por terem menos restrições.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O que é o dilema de Malthus?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A postulação de que o crescimento populacional (geométrico) superaria a produção de alimentos (aritmética), levando a crises como fome e guerras.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O que é o fenômeno da "transição demográfica"?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O processo em que, com a melhoria do padrão de vida e educação, as taxas de natalidade caem após uma queda inicial nas taxas de mortalidade.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">De acordo com os realistas, que ameaças as tendências demográficas (população crescente no Sul e estagnada no Norte) podem gerar para o equilíbrio de poder?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Estados com população crescente e alimentação insuficiente podem recorrer à guerra para expandir território, ou a população masculina excedente pode ser canalizada para conflitos agressivos.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Qual foi a primeira vez que o Conselho de Segurança da ONU identificou uma questão de saúde como uma ameaça à segurança global?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Em 2000, quando identificou o HIV/AIDS como tal.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">O que é o narcoterrorismo?
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> (Cap 11)</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Termo que sublinha a relação entre o terrorismo como estratégia política e o narcotráfico como método eficaz de financiamento do terrorismo.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quais são as duas categorias gerais de cibercrimes que se tornaram grandes questões transnacionais? (Cap 11)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O cibervandalismo e os roubos cibernéticos.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Por que os Tratados de Vestfália (1648) são considerados um marco para as relações internacionais contemporâneas? (Cap 1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Porque estabeleceram os conceitos de soberania do Estado, autoridade secular e o princípio de não ingerência nos assuntos internos de outros Estados.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Segundo Jean Bodin, a soberania é idealmente absoluta, mas na prática é limitada pela lei divina, pela lei natural, pelo tipo de regime e pelos _____.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pactos e Tratados.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Qual economista escocês, em "A Riqueza das Nações", argumentou que a "mão invisível" do mercado funciona quando indivíduos agem em busca de seus próprios interesses racionais?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adam Smith.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quais foram os dois princípios básicos que surgiram da Guerra de Independência Americana e da Revolução Francesa? (Cap 2)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A submissão do governo absolutista a limites impostos pelo homem (legitimidade) e a ideia de que um povo compartilha uma identidade comum e destino político (nacionalismo).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Qual é a tese central de John Locke sobre a origem do poder político? (Cap 2)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O poder político reside nas mãos do povo, e a legitimidade do governante deriva do consentimento dos governados.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O que é o "equilíbrio de poder" como política para gerenciar a insegurança na Europa do século XIX?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A formação de alianças para fazer frente a qualquer Estado ou facção potencialmente hegemônica, dissuadindo a guerra por meio de um poderio militar relativamente equilibrado.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conceito: Imperialismo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A anexação de territórios remotos e seus habitantes a um império, geralmente pela força.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conceito: Colonialismo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O estabelecimento de pessoas do país de origem entre os nativos de um território distante, que muitas vezes se seguia ao imperialismo.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Por que o fenômeno do imperialismo/colonialismo no século XIX ajudou a manter a paz na Europa?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Atuou como uma "válvula de segurança", permitindo que a rivalidade e a competição entre os Estados europeus se materializassem longe do continente, em disputas por colônias.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O que foi o Plano Schlieffen? (Cap 2)
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O plano estratégico alemão no início da Primeira Guerra Mundial, que previa uma guerra rápida e decisiva contra a França e a Rússia, mas que falhou, resultando em uma guerra de trincheiras.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Que conceito de política externa dos EUA, articulado por George Kennan, defendia que a União Soviética deveria ser contida para evitar sua expansão agressiva?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A política de contenção.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A situação na qual um confronto nuclear entre duas superpotências resultaria na devastação de ambos os lados foi denominada _____. (Cap 2 e 8)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Destruição Mútua Garantida [Mutual Assured Destruction - MAD].</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O que é o "efeito dominó", teoria usada para justificar a intervenção dos EUA no Vietnã? (Cap 2)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A crença de que a queda de um país para o comunismo levaria à queda de países vizinhos, como peças de dominó.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Qual foi a consequência do colapso do sistema colonial após a Segunda Guerra Mundial?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A ascensão de dezenas de novos Estados independentes na África e Ásia, que alteraram a dinâmica da política internacional e da ONU.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No contexto da teoria de sistemas em R.I., o que é a "polaridade"?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A distribuição de recursos e poder entre os Estados do sistema internacional, contabilizando o número de "polos" onde o poder se concentra.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Um sistema internacional com vários atores influentes e com paridade de poder relativa é classificado como _____.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Multipolar.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O período da Guerra Fria é o exemplo clássico de um sistema internacional _____, dominado pelos Estados Unidos e pela União Soviética.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bipolar.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Segundo os teóricos da estabilidade hegemônica, qual tipo de polaridade de sistema leva a maior estabilidade internacional?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A unipolaridade, onde um ator hegemônico se dispõe a impor as normas do sistema.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O que é a estratificação do sistema internacional, um conceito vital para os radicais?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A divisão desigual de poder e recursos, resultando em uma hierarquia entre os Estados privilegiados (Norte) e os desprovidos (Sul).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">De acordo com os liberais, de onde provém a mudança no sistema internacional? (Cap 4)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">De fontes como desenvolvimentos tecnológicos exógenos e mudanças na importância relativa de diferentes áreas (economia, meio ambiente, etc.).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A "ascensão pacífica" é um termo usado para descrever a política externa de qual país? (Cap 4)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Da China, focada no crescimento econômico e na integração ao sistema internacional sem buscar a dominação militar.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quais são as quatro condições jurídicas fundamentais para que uma entidade seja considerada um Estado?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Possuir uma base territorial, uma população estável, um governo ao qual a população obedece e reconhecimento diplomático por outros Estados.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O que distingue uma "nação" de um "Estado"?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Uma nação é um grupo de pessoas que compartilham características comuns (história, língua, cultura), enquanto um Estado é uma entidade política com território e soberania.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conceito: Estado-nação</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Uma entidade política em que há uma coincidência entre o Estado (território soberano) e a nação (povo com identidade compartilhada).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O que é o irredentismo?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A aspiração de um grupo etnonacional de anexar um território habitado por seu povo a um Estado vizinho com o qual compartilha essa identidade.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Para os realistas, o Estado age como um ator _____ autônomo, com um interesse nacional consistente definido em termos de poder.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unitário.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Como a perspectiva construtivista vê o Estado e seus interesses?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Como constructos sociais, com interesses e identidades nacionais que são maleáveis e evoluem em resposta a normas e ideias internas e internacionais.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Qual geógrafo alemão influenciou a expansão nazista com suas teorias geopolíticas sobre o controle do "coração" da Eurásia? (Cap 5)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Karl Haushofer.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O que Joseph S. Nye define como "poder brando" (soft power)? (Cap 5)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A capacidade de atrair os outros por meio da legitimidade dos valores ou políticas de um Estado, em vez de usar coerção.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O que Joseph S. Nye define como "poder inteligente" (smart power)?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A combinação do poder duro (coerção e economia) com o poder brando (persuasão e atração), ajustada ao contexto.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O que é o "jogo de dois níveis" de Robert Putnam na diplomacia? (Cap 5)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O processo em que os negociadores de um Estado devem lidar simultaneamente com negociações internacionais e com as pressões de seus públicos internos para ratificar acordos.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O que é a diplomacia pública?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Uma técnica que visa influenciar a opinião pública e as elites estrangeiras para criar uma imagem que ajude um país a alcançar seus objetivos diplomáticos.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Qual é a diferença entre sanções econômicas positivas e negativas?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sanções positivas oferecem incentivos (como status comercial favorável) para encorajar uma mudança de comportamento, enquanto sanções negativas aplicam punições (como embargos) para o mesmo fim.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A hipótese da _____ afirma que democracias não entram em guerra umas contra as outras.  (Cap 5)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Paz democrática.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No modelo _____ de tomada de decisões, a política externa é concebida como escolhas feitas por um governo nacional unitário para maximizar suas metas estratégicas.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Racional.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nos modelos _____/_____, as decisões de política externa resultam de negociações e compromissos entre diferentes agências governamentais com interesses próprios.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Burocrático/Organizacional.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O que são organizações intergovernamentais (OIGs)?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Organizações formadas por Estados para cooperar na resolução de problemas comuns, funcionando como arenas de interação.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Qual é a ideia central do funcionalismo nas Relações Internacionais?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A crença de que a cooperação em áreas técnicas e não políticas pode transbordar para a cooperação política, diminuindo as causas da guerra.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O que é a "tragédia dos comuns", descrita por Garrett Hardin? (Cap 7 e 11)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Um dilema em que indivíduos agindo racionalmente em seu próprio interesse esgotam um recurso compartilhado (bem coletivo), prejudicando a todos no longo prazo.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quais são os três princípios fundamentais sobre os quais a Organização das Nações Unidas (ONU) foi fundada? (Cap 7)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A igualdade soberana dos Estados, a jurisdição limitada a problemas internacionais e a manutenção da paz e segurança como objetivo primário.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quais são os cinco membros permanentes do Conselho de Segurança da ONU que possuem poder de veto?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Estados Unidos, Grã-Bretanha, França, Rússia e China.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Qual é a diferença entre a manutenção da paz tradicional e a complexa? (Cap 7)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A tradicional contém conflitos entre Estados com o consentimento das partes, enquanto a complexa responde a guerras civis e conflitos etnonacionais, muitas vezes sem consentimento e com um mandato mais amplo (construção da paz).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Que tratado de 1997, assinado no âmbito da União Europeia, concedeu mais poder ao Parlamento Europeu e deu maior ênfase aos direitos individuais e à cidadania?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O Tratado de Amsterdã.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O que é o princípio da jurisdição universal no direito internacional? (Cap 7)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O princípio que permite aos Estados reivindicarem jurisdição sobre um réu se sua conduta for tão hedionda (ex: genocídio) que viole as leis de todos os Estados.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Como a perspectiva radical vê o direito e as organizações internacionais?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Como produtos do capitalismo ocidental que servem aos interesses das classes e Estados dominantes, sendo tendenciosos contra os fracos.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O que é o dilema da segurança?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Uma situação em que as ações de um Estado para aumentar sua própria segurança (como aumentar seu poderio militar) fazem com que outros Estados se sintam menos seguros, levando a uma espiral de tensão e corrida armamentista.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O que é uma guerra diversionista? (Cap 8)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Um conflito externo iniciado por um líder para desviar a atenção do público de problemas internos, como crises econômicas ou escândalos.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">De acordo com a teoria da transição de poder, quando a guerra é mais provável de ocorrer?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quando há uma expectativa de mudança no equilíbrio relativo de poder entre uma potência hegemônica e um desafiante em ascensão.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Qual é a diferença entre guerra total e guerra limitada?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A guerra total envolve a mobilização de todos os recursos nacionais para buscar a rendição incondicional do inimigo, enquanto a guerra limitada é travada por objetivos e com meios mais restritos.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Um conflito assimétrico é caracterizado pela disparidade de poder entre os beligerantes, onde o ator mais fraco frequentemente recorre a táticas de guerra _____.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">não convencional (ou de guerrilha).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O que são armas de destruição em massa (ADM)?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Armas (nucleares, químicas e biológicas) cujos efeitos destrutivos não podem ser limitados no tempo e no espaço, sendo consideradas indiscriminadas.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O que é a imunidade dos não combatentes, um princípio central do jus in bello? (Cap 8)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A proteção de todos os civis que não portam armas, prisioneiros de guerra e outros indivíduos que não participam diretamente das hostilidades.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Qual tratado busca impedir a disseminação de armas nucleares para novos países e promover o desarmamento dos Estados já nuclearizados? (Cap 8)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O Tratado de Não Proliferação de Armas Nucleares (TNP).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Qual organização é a guardiã do TNP, responsável por inspecionar instalações nucleares e garantir o uso pacífico da energia atômica? (Cap 7 e 8)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A Agência Internacional de Energia Atômica (AIEA).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Qual é a principal função da História no estudo das Relações Internacionais?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fornecer contexto crucial para questões atuais, testar generalizações, explicar padrões e analisar as causas subjacentes e imediatas dos eventos.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No estudo das Relações Internacionais, a filosofia clássica, como a de Platão, introduziu quais dois conceitos cruciais que se tornaram base para analistas marxistas?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A análise de classe e o raciocínio dialético.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O que os pós-modernistas procuram fazer com os conceitos básicos da área de Relações Internacionais, como 'Estado' e 'soberania'?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Procuram desconstruí-los, buscando significados ocultos nos textos e substituindo a ordem por uma multiplicidade de retratos.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Para os construtivistas, as estruturas fundamentais do sistema estatal são de caráter _____, em vez de material, e os interesses dos Estados são maleáveis.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">intersubjetivo e social</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O que foi a Doutrina Truman, implementada em 1947 pelos Estados Unidos?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Foi a política de apoiar povos livres que resistiam à subjugação por minorias armadas ou pressões externas, efetivando o conceito de contenção contra a União Soviética.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O que foi a 'Primavera Árabe' de 2011?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Uma onda de manifestações em massa contra ditadores corruptos e brutais no mundo árabe, que começou na Tunísia e se espalhou para países como Egito, Líbia e Síria.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quais são as três fontes naturais de poder mais importantes para um Estado?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tamanho e posição geográfica, recursos naturais e população.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Qual é a diferença entre 'coerção' e 'dissuasão' como ferramentas do uso da força?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coerção visa obrigar um Estado a fazer ou desfazer algo usando ameaças, enquanto dissuasão visa impedir um Estado de tomar uma ação indesejável através da ameaça de punição.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O que caracteriza um 'Estado falido'?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A incapacidade do governo de prover funções básicas, como a proteção de seu povo, resultando em ilegalidade generalizada e ineficácia.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Que tipo de ator ganhou importância na área da saúde global, sendo composto por especialistas e técnicos de diversas organizações com um conjunto de crenças comuns?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Comunidades epistêmicas.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O que é a 'responsabilidade de proteger' (R2P)? (Cap 3 e 8)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Uma norma emergente que afirma que a comunidade internacional tem a responsabilidade de intervir, inclusive militarmente, para proteger populações de genocídio, crimes de guerra ou crimes contra a humanidade, mesmo que isso viole a soberania de um Estado.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O que caracterizou o período da 'détente' durante a Guerra Fria?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Um alívio nas tensões entre as superpotências (EUA e URSS), marcado por reuniões de cúpula e tratados de limitação de armas, como o SALT I.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O que são 'fontes tangíveis de poder' de um Estado?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Recursos mensuráveis como desenvolvimento industrial, infraestrutura e o tamanho e qualidade das forças armadas.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O que são 'fontes intangíveis de poder' de um Estado?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Recursos imateriais como a qualidade do governo, apoio público, liderança, moral nacional e imagem internacional.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O Tratado de _____ de 1992 transformou a Comunidade Europeia na União Europeia e estabeleceu as bases para uma moeda única e políticas externas e de defesa comuns. (Cap 7)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maastricht</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O que foi a 'Revolução Laranja' na Ucrânia em 2004-2005?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Uma série de protestos e eventos políticos que levaram à anulação dos resultados de uma eleição presidencial fraudulenta e à realização de uma nova votação.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Qual teórico é associado à obra "História da Guerra do Peloponeso" e a quatro premissas básicas do realismo?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tucídides é o teórico associado a esta obra e às premissas realistas, como o Estado sendo o principal ator unitário e racional.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Qual teórico desenvolveu o Neorrealismo (ou realismo estrutural), argumentando que a estrutura do sistema internacional, e não a natureza humana, explica o comportamento dos Estados?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kenneth Waltz.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Qual teórico do realismo clássico, em sua obra seminal do pós-Segunda Guerra Mundial, caracterizou a política internacional como uma disputa por poder?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hans Morgenthau.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Qual teórico realista, em "War and Change in World Politics", concebe a História como uma série de ciclos de nascimento, expansão e derrocada de potências dominantes?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Robert Gilpin.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Qual teórico construtivista popularizou a ideia de que "a anarquia é o que os Estados fazem dela", enfatizando a construção social das identidades e interesses?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alexander Wendt.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quais cientistas políticos são expoentes do institucionalismo neoliberal, investigando por que os Estados cooperam mesmo em um sistema anárquico?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Robert Axelrod e Robert O. Keohane.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Qual cientista político cunhou os termos "soft power" (poder brando) e "smart power" (poder inteligente) para descrever formas não coercitivas de influência estatal?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Joseph S. Nye.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Qual cientista político descreveu a negociação diplomática como um "jogo de dois níveis", ocorrendo simultaneamente nas esferas internacional e doméstica?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Robert Putnam.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Como o realismo caracteriza o Sistema Internacional (SI)?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O SI é caracterizado como anárquico, implicando um permanente risco de guerra.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Qual é o conceito chave do realismo para gerenciar a insegurança no sistema internacional?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O equilíbrio de poder (balance of power).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Segundo os neorrealistas, a estabilidade do sistema internacional aumenta à medida que a distribuição de poder se aproxima da _____.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">unipolaridade (ou o surgimento de um "leviatã")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Os _____ defensivos acreditam que a guerra raramente beneficia o Estado que a inicia, pois os outros Estados tendem a se equilibrar contra o agressor.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Realistas.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Os realistas _____ acreditam que a conquista compensa, pois a demonstração de poder pode levar outros Estados a se aliarem ao agressor (bandwagoning).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ofensivos.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A teoria da _____ argumenta que o subdesenvolvimento é uma posição funcional e imutável dentro da economia mundial capitalista.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dependência.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Qual é a visão do sistema internacional segundo os teóricos radicais?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">É um sistema com alto grau de estratificação, dominado pelo sistema capitalista internacional.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A principal proposição dos construtivistas é que os significados dos objetos e conceitos são construídos através de _____.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">interações sociais</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Enquanto realistas e liberais veem o poder em termos materiais, os construtivistas também o encaram em termos _____, como o poder das ideias, da cultura e da linguagem.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">discursivos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Para os construtivistas, a soberania do Estado não é absoluta, mas sim um conceito _____, que muda com o tempo e as normas sociais.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">socialmente construído</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Os dois princípios essenciais que surgiram com as revoluções americana e francesa e que moldaram a política dos séculos XIX e XX foram a legitimidade e o _____.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nacionalismo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quais foram os dois processos de reforma interna na União Soviética, liderados por Mikhail Gorbachev, que contribuíram para o fim da Guerra Fria?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A glasnost (abertura política) e a perestroika (reestruturação econômica).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Que tipo de ator de RI é caracterizado por ter membros que são indivíduos ou associações, advogar por políticas em questões transnacionais e mobilizar públicos de massa?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Organizações Não Governamentais (ONGs).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Que tipo de ator de RI tem Estados como membros e lidera a criação de regras e princípios internacionais?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Organizações Intergovernamentais (OIGs).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Qual é a definição de guerra para a maioria dos estudiosos de RI? (Cap 8)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">É a violência organizada e deliberada por uma autoridade política, resultando em pelo menos mil mortes em um ano, com ambos os lados tendo capacidade de causar dano.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">As guerras que ocorrem dentro das fronteiras de um Estado, como conflitos civis, são classificadas como guerras _____.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">intraestatais</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Qual é a principal premissa da Teoria da Dissuasão (Deterrence)?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A posse de uma ameaça crível de retaliação (especialmente nuclear) impede que um ator racional inicie uma agressão, pois o custo esperado supera o ganho.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">As três principais abordagens metodológicas para estudar Relações Internacionais são: História, Filosofia e _____ (Behaviorismo).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Método Científico</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Qual abordagem alternativa em RI procura desconstruir conceitos como "Estado" e "soberania", buscando significados ocultos e as vozes dos marginalizados?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O pós-modernismo.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Em que nível de análise se encaixa a explicação de um evento de RI baseada na personalidade ou nas escolhas de líderes como George W. Bush ou Saddam Hussein?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No nível individual.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Uma explicação para a guerra baseada no tipo de governo de um país (democracia vs. autoritarismo) pertence a qual nível de análise?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ao nível do Estado (ou fatores internos).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Explicar um conflito pela distribuição de poder no sistema internacional (ex: bipolaridade) é uma análise de qual nível?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Do nível do Sistema Internacional.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O que são "sanções inteligentes"?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">São sanções direcionadas a indivíduos, grupos ou setores específicos (como commodities) para evitar os altos custos humanitários de sanções genéricas.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conceito: Guerra Justa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conjunto de critérios éticos e morais para determinar quando é justo ir à guerra (jus ad bellum) e qual a conduta moral durante a guerra (jus in bello). Requer uma causa justa, proporcionalidade e a proteção de não combatentes.</t>
+  </si>
 </sst>
 </file>
 
@@ -2292,7 +3089,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2342,6 +3139,20 @@
       <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="4">
@@ -2405,7 +3216,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2454,10 +3265,6 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2475,6 +3282,14 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2707,10 +3522,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E369"/>
+  <dimension ref="A1:E498"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E369" activeCellId="0" sqref="E369"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A492" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A498" activeCellId="0" sqref="A498"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3067,7 +3882,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="75.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="n">
         <v>2</v>
       </c>
@@ -3319,7 +4134,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="120.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="1" t="n">
         <v>2</v>
       </c>
@@ -3336,7 +4151,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="75.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="1" t="n">
         <v>2</v>
       </c>
@@ -3434,7 +4249,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="51" customFormat="false" ht="75.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="51" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="1" t="n">
         <v>2</v>
       </c>
@@ -3728,7 +4543,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="72" customFormat="false" ht="135.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="72" customFormat="false" ht="150.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="1" t="n">
         <v>2</v>
       </c>
@@ -4400,7 +5215,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="120" customFormat="false" ht="120.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="120" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="11" t="n">
         <v>2</v>
       </c>
@@ -4643,13 +5458,13 @@
       <c r="A137" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B137" s="13" t="s">
+      <c r="B137" s="12" t="s">
         <v>277</v>
       </c>
-      <c r="C137" s="13" t="s">
+      <c r="C137" s="12" t="s">
         <v>278</v>
       </c>
-      <c r="D137" s="13"/>
+      <c r="D137" s="12"/>
       <c r="E137" s="2" t="s">
         <v>279</v>
       </c>
@@ -4658,13 +5473,13 @@
       <c r="A138" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B138" s="13" t="s">
+      <c r="B138" s="12" t="s">
         <v>280</v>
       </c>
-      <c r="C138" s="13" t="s">
+      <c r="C138" s="12" t="s">
         <v>281</v>
       </c>
-      <c r="D138" s="13"/>
+      <c r="D138" s="12"/>
       <c r="E138" s="2" t="s">
         <v>279</v>
       </c>
@@ -4673,13 +5488,13 @@
       <c r="A139" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B139" s="13" t="s">
+      <c r="B139" s="12" t="s">
         <v>282</v>
       </c>
-      <c r="C139" s="13" t="s">
+      <c r="C139" s="12" t="s">
         <v>283</v>
       </c>
-      <c r="D139" s="13"/>
+      <c r="D139" s="12"/>
       <c r="E139" s="2" t="s">
         <v>279</v>
       </c>
@@ -4688,13 +5503,13 @@
       <c r="A140" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B140" s="13" t="s">
+      <c r="B140" s="12" t="s">
         <v>284</v>
       </c>
-      <c r="C140" s="13" t="s">
+      <c r="C140" s="12" t="s">
         <v>285</v>
       </c>
-      <c r="D140" s="13"/>
+      <c r="D140" s="12"/>
       <c r="E140" s="2" t="s">
         <v>279</v>
       </c>
@@ -4703,7 +5518,7 @@
       <c r="A141" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B141" s="13" t="s">
+      <c r="B141" s="12" t="s">
         <v>286</v>
       </c>
       <c r="C141" s="2" t="s">
@@ -4717,7 +5532,7 @@
       <c r="A142" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B142" s="13" t="s">
+      <c r="B142" s="12" t="s">
         <v>288</v>
       </c>
       <c r="C142" s="2" t="s">
@@ -4731,7 +5546,7 @@
       <c r="A143" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B143" s="13" t="s">
+      <c r="B143" s="12" t="s">
         <v>290</v>
       </c>
       <c r="C143" s="2" t="s">
@@ -4745,7 +5560,7 @@
       <c r="A144" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B144" s="13" t="s">
+      <c r="B144" s="12" t="s">
         <v>292</v>
       </c>
       <c r="C144" s="2" t="s">
@@ -4762,10 +5577,10 @@
       <c r="B145" s="2" t="s">
         <v>294</v>
       </c>
-      <c r="C145" s="13" t="s">
+      <c r="C145" s="12" t="s">
         <v>295</v>
       </c>
-      <c r="D145" s="13"/>
+      <c r="D145" s="12"/>
       <c r="E145" s="2" t="s">
         <v>279</v>
       </c>
@@ -4774,13 +5589,13 @@
       <c r="A146" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B146" s="13" t="s">
+      <c r="B146" s="12" t="s">
         <v>296</v>
       </c>
-      <c r="C146" s="13" t="s">
+      <c r="C146" s="12" t="s">
         <v>297</v>
       </c>
-      <c r="D146" s="13"/>
+      <c r="D146" s="12"/>
       <c r="E146" s="2" t="s">
         <v>279</v>
       </c>
@@ -4789,13 +5604,13 @@
       <c r="A147" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B147" s="13" t="s">
+      <c r="B147" s="12" t="s">
         <v>298</v>
       </c>
-      <c r="C147" s="13" t="s">
+      <c r="C147" s="12" t="s">
         <v>299</v>
       </c>
-      <c r="D147" s="13"/>
+      <c r="D147" s="12"/>
       <c r="E147" s="2" t="s">
         <v>279</v>
       </c>
@@ -4804,13 +5619,13 @@
       <c r="A148" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B148" s="14" t="s">
+      <c r="B148" s="13" t="s">
         <v>300</v>
       </c>
-      <c r="C148" s="13" t="s">
+      <c r="C148" s="12" t="s">
         <v>301</v>
       </c>
-      <c r="D148" s="13"/>
+      <c r="D148" s="12"/>
       <c r="E148" s="2" t="s">
         <v>279</v>
       </c>
@@ -4822,10 +5637,10 @@
       <c r="B149" s="2" t="s">
         <v>302</v>
       </c>
-      <c r="C149" s="13" t="s">
+      <c r="C149" s="12" t="s">
         <v>303</v>
       </c>
-      <c r="D149" s="13"/>
+      <c r="D149" s="12"/>
       <c r="E149" s="2" t="s">
         <v>279</v>
       </c>
@@ -4837,10 +5652,10 @@
       <c r="B150" s="2" t="s">
         <v>304</v>
       </c>
-      <c r="C150" s="13" t="s">
+      <c r="C150" s="12" t="s">
         <v>305</v>
       </c>
-      <c r="D150" s="13"/>
+      <c r="D150" s="12"/>
       <c r="E150" s="2" t="s">
         <v>279</v>
       </c>
@@ -4849,13 +5664,13 @@
       <c r="A151" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B151" s="13" t="s">
+      <c r="B151" s="12" t="s">
         <v>306</v>
       </c>
-      <c r="C151" s="13" t="s">
+      <c r="C151" s="12" t="s">
         <v>307</v>
       </c>
-      <c r="D151" s="13"/>
+      <c r="D151" s="12"/>
       <c r="E151" s="2" t="s">
         <v>279</v>
       </c>
@@ -4864,13 +5679,13 @@
       <c r="A152" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B152" s="13" t="s">
+      <c r="B152" s="12" t="s">
         <v>308</v>
       </c>
-      <c r="C152" s="13" t="s">
+      <c r="C152" s="12" t="s">
         <v>309</v>
       </c>
-      <c r="D152" s="13"/>
+      <c r="D152" s="12"/>
       <c r="E152" s="2" t="s">
         <v>279</v>
       </c>
@@ -4879,13 +5694,13 @@
       <c r="A153" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B153" s="13" t="s">
+      <c r="B153" s="12" t="s">
         <v>310</v>
       </c>
-      <c r="C153" s="13" t="s">
+      <c r="C153" s="12" t="s">
         <v>311</v>
       </c>
-      <c r="D153" s="13"/>
+      <c r="D153" s="12"/>
       <c r="E153" s="2" t="s">
         <v>279</v>
       </c>
@@ -4894,13 +5709,13 @@
       <c r="A154" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B154" s="13" t="s">
+      <c r="B154" s="12" t="s">
         <v>312</v>
       </c>
-      <c r="C154" s="13" t="s">
+      <c r="C154" s="12" t="s">
         <v>313</v>
       </c>
-      <c r="D154" s="13"/>
+      <c r="D154" s="12"/>
       <c r="E154" s="2" t="s">
         <v>279</v>
       </c>
@@ -4912,10 +5727,10 @@
       <c r="B155" s="2" t="s">
         <v>314</v>
       </c>
-      <c r="C155" s="13" t="s">
+      <c r="C155" s="12" t="s">
         <v>315</v>
       </c>
-      <c r="D155" s="13"/>
+      <c r="D155" s="12"/>
       <c r="E155" s="2" t="s">
         <v>279</v>
       </c>
@@ -4927,10 +5742,10 @@
       <c r="B156" s="2" t="s">
         <v>316</v>
       </c>
-      <c r="C156" s="13" t="s">
+      <c r="C156" s="12" t="s">
         <v>317</v>
       </c>
-      <c r="D156" s="13"/>
+      <c r="D156" s="12"/>
       <c r="E156" s="2" t="s">
         <v>279</v>
       </c>
@@ -4939,13 +5754,13 @@
       <c r="A157" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B157" s="13" t="s">
+      <c r="B157" s="12" t="s">
         <v>318</v>
       </c>
-      <c r="C157" s="13" t="s">
+      <c r="C157" s="12" t="s">
         <v>319</v>
       </c>
-      <c r="D157" s="13"/>
+      <c r="D157" s="12"/>
       <c r="E157" s="2" t="s">
         <v>279</v>
       </c>
@@ -4954,13 +5769,13 @@
       <c r="A158" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B158" s="13" t="s">
+      <c r="B158" s="12" t="s">
         <v>320</v>
       </c>
-      <c r="C158" s="13" t="s">
+      <c r="C158" s="12" t="s">
         <v>321</v>
       </c>
-      <c r="D158" s="13"/>
+      <c r="D158" s="12"/>
       <c r="E158" s="2" t="s">
         <v>279</v>
       </c>
@@ -4969,13 +5784,13 @@
       <c r="A159" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B159" s="13" t="s">
+      <c r="B159" s="12" t="s">
         <v>322</v>
       </c>
-      <c r="C159" s="13" t="s">
+      <c r="C159" s="12" t="s">
         <v>323</v>
       </c>
-      <c r="D159" s="13"/>
+      <c r="D159" s="12"/>
       <c r="E159" s="2" t="s">
         <v>279</v>
       </c>
@@ -4984,13 +5799,13 @@
       <c r="A160" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B160" s="13" t="s">
+      <c r="B160" s="12" t="s">
         <v>324</v>
       </c>
-      <c r="C160" s="13" t="s">
+      <c r="C160" s="12" t="s">
         <v>325</v>
       </c>
-      <c r="D160" s="13"/>
+      <c r="D160" s="12"/>
       <c r="E160" s="2" t="s">
         <v>279</v>
       </c>
@@ -4999,58 +5814,58 @@
       <c r="A161" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B161" s="13" t="s">
+      <c r="B161" s="12" t="s">
         <v>326</v>
       </c>
-      <c r="C161" s="13" t="s">
+      <c r="C161" s="12" t="s">
         <v>327</v>
       </c>
-      <c r="D161" s="13"/>
+      <c r="D161" s="12"/>
       <c r="E161" s="2" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="162" customFormat="false" ht="60.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="162" customFormat="false" ht="76.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B162" s="13" t="s">
+      <c r="B162" s="12" t="s">
         <v>328</v>
       </c>
-      <c r="C162" s="13" t="s">
+      <c r="C162" s="12" t="s">
         <v>329</v>
       </c>
-      <c r="D162" s="13"/>
+      <c r="D162" s="12"/>
       <c r="E162" s="2" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="163" customFormat="false" ht="75.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="163" customFormat="false" ht="76.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B163" s="13" t="s">
+      <c r="B163" s="12" t="s">
         <v>330</v>
       </c>
-      <c r="C163" s="13" t="s">
+      <c r="C163" s="12" t="s">
         <v>331</v>
       </c>
-      <c r="D163" s="13"/>
+      <c r="D163" s="12"/>
       <c r="E163" s="2" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="164" customFormat="false" ht="75.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="164" customFormat="false" ht="76.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B164" s="13" t="s">
+      <c r="B164" s="12" t="s">
         <v>332</v>
       </c>
-      <c r="C164" s="13" t="s">
+      <c r="C164" s="12" t="s">
         <v>333</v>
       </c>
-      <c r="D164" s="13"/>
+      <c r="D164" s="12"/>
       <c r="E164" s="2" t="s">
         <v>279</v>
       </c>
@@ -5059,13 +5874,13 @@
       <c r="A165" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B165" s="13" t="s">
+      <c r="B165" s="12" t="s">
         <v>334</v>
       </c>
-      <c r="C165" s="13" t="s">
+      <c r="C165" s="12" t="s">
         <v>335</v>
       </c>
-      <c r="D165" s="13"/>
+      <c r="D165" s="12"/>
       <c r="E165" s="2" t="s">
         <v>279</v>
       </c>
@@ -5091,10 +5906,10 @@
       <c r="B167" s="2" t="s">
         <v>338</v>
       </c>
-      <c r="C167" s="13" t="s">
+      <c r="C167" s="12" t="s">
         <v>339</v>
       </c>
-      <c r="D167" s="13"/>
+      <c r="D167" s="12"/>
       <c r="E167" s="2" t="s">
         <v>279</v>
       </c>
@@ -5103,13 +5918,13 @@
       <c r="A168" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B168" s="13" t="s">
+      <c r="B168" s="12" t="s">
         <v>340</v>
       </c>
-      <c r="C168" s="13" t="s">
+      <c r="C168" s="12" t="s">
         <v>341</v>
       </c>
-      <c r="D168" s="13"/>
+      <c r="D168" s="12"/>
       <c r="E168" s="2" t="s">
         <v>279</v>
       </c>
@@ -5118,13 +5933,13 @@
       <c r="A169" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B169" s="15" t="s">
+      <c r="B169" s="14" t="s">
         <v>342</v>
       </c>
-      <c r="C169" s="13" t="s">
+      <c r="C169" s="12" t="s">
         <v>343</v>
       </c>
-      <c r="D169" s="13"/>
+      <c r="D169" s="12"/>
       <c r="E169" s="2" t="s">
         <v>279</v>
       </c>
@@ -5133,13 +5948,13 @@
       <c r="A170" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B170" s="15" t="s">
+      <c r="B170" s="14" t="s">
         <v>344</v>
       </c>
-      <c r="C170" s="13" t="s">
+      <c r="C170" s="12" t="s">
         <v>345</v>
       </c>
-      <c r="D170" s="16" t="n">
+      <c r="D170" s="15" t="n">
         <v>2024</v>
       </c>
       <c r="E170" s="2" t="s">
@@ -5150,13 +5965,13 @@
       <c r="A171" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B171" s="13" t="s">
+      <c r="B171" s="12" t="s">
         <v>346</v>
       </c>
-      <c r="C171" s="13" t="s">
+      <c r="C171" s="12" t="s">
         <v>347</v>
       </c>
-      <c r="D171" s="13"/>
+      <c r="D171" s="12"/>
       <c r="E171" s="2" t="s">
         <v>279</v>
       </c>
@@ -5165,13 +5980,13 @@
       <c r="A172" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B172" s="13" t="s">
+      <c r="B172" s="12" t="s">
         <v>348</v>
       </c>
-      <c r="C172" s="13" t="s">
+      <c r="C172" s="12" t="s">
         <v>349</v>
       </c>
-      <c r="D172" s="13"/>
+      <c r="D172" s="12"/>
       <c r="E172" s="2" t="s">
         <v>279</v>
       </c>
@@ -5180,28 +5995,28 @@
       <c r="A173" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B173" s="13" t="s">
+      <c r="B173" s="12" t="s">
         <v>350</v>
       </c>
-      <c r="C173" s="13" t="s">
+      <c r="C173" s="12" t="s">
         <v>351</v>
       </c>
-      <c r="D173" s="13"/>
+      <c r="D173" s="12"/>
       <c r="E173" s="2" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="174" customFormat="false" ht="60.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="174" customFormat="false" ht="76.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B174" s="13" t="s">
+      <c r="B174" s="12" t="s">
         <v>352</v>
       </c>
-      <c r="C174" s="13" t="s">
+      <c r="C174" s="12" t="s">
         <v>353</v>
       </c>
-      <c r="D174" s="13"/>
+      <c r="D174" s="12"/>
       <c r="E174" s="2" t="s">
         <v>279</v>
       </c>
@@ -5210,13 +6025,13 @@
       <c r="A175" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B175" s="13" t="s">
+      <c r="B175" s="12" t="s">
         <v>354</v>
       </c>
-      <c r="C175" s="13" t="s">
+      <c r="C175" s="12" t="s">
         <v>355</v>
       </c>
-      <c r="D175" s="13"/>
+      <c r="D175" s="12"/>
       <c r="E175" s="2" t="s">
         <v>279</v>
       </c>
@@ -5225,13 +6040,13 @@
       <c r="A176" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B176" s="13" t="s">
+      <c r="B176" s="12" t="s">
         <v>356</v>
       </c>
-      <c r="C176" s="13" t="s">
+      <c r="C176" s="12" t="s">
         <v>357</v>
       </c>
-      <c r="D176" s="13"/>
+      <c r="D176" s="12"/>
       <c r="E176" s="2" t="s">
         <v>279</v>
       </c>
@@ -5240,13 +6055,13 @@
       <c r="A177" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B177" s="13" t="s">
+      <c r="B177" s="12" t="s">
         <v>358</v>
       </c>
-      <c r="C177" s="13" t="s">
+      <c r="C177" s="12" t="s">
         <v>359</v>
       </c>
-      <c r="D177" s="13"/>
+      <c r="D177" s="12"/>
       <c r="E177" s="2" t="s">
         <v>279</v>
       </c>
@@ -5255,13 +6070,13 @@
       <c r="A178" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B178" s="13" t="s">
+      <c r="B178" s="12" t="s">
         <v>360</v>
       </c>
-      <c r="C178" s="13" t="s">
+      <c r="C178" s="12" t="s">
         <v>361</v>
       </c>
-      <c r="D178" s="13"/>
+      <c r="D178" s="12"/>
       <c r="E178" s="2" t="s">
         <v>279</v>
       </c>
@@ -5270,13 +6085,13 @@
       <c r="A179" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B179" s="13" t="s">
+      <c r="B179" s="12" t="s">
         <v>362</v>
       </c>
-      <c r="C179" s="13" t="s">
+      <c r="C179" s="12" t="s">
         <v>363</v>
       </c>
-      <c r="D179" s="13"/>
+      <c r="D179" s="12"/>
       <c r="E179" s="2" t="s">
         <v>279</v>
       </c>
@@ -5285,13 +6100,13 @@
       <c r="A180" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B180" s="13" t="s">
+      <c r="B180" s="12" t="s">
         <v>364</v>
       </c>
-      <c r="C180" s="13" t="s">
+      <c r="C180" s="12" t="s">
         <v>365</v>
       </c>
-      <c r="D180" s="13"/>
+      <c r="D180" s="12"/>
       <c r="E180" s="2" t="s">
         <v>279</v>
       </c>
@@ -5300,13 +6115,13 @@
       <c r="A181" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B181" s="13" t="s">
+      <c r="B181" s="12" t="s">
         <v>366</v>
       </c>
-      <c r="C181" s="13" t="s">
+      <c r="C181" s="12" t="s">
         <v>367</v>
       </c>
-      <c r="D181" s="13"/>
+      <c r="D181" s="12"/>
       <c r="E181" s="2" t="s">
         <v>279</v>
       </c>
@@ -5315,13 +6130,13 @@
       <c r="A182" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B182" s="13" t="s">
+      <c r="B182" s="12" t="s">
         <v>368</v>
       </c>
-      <c r="C182" s="13" t="s">
+      <c r="C182" s="12" t="s">
         <v>369</v>
       </c>
-      <c r="D182" s="13"/>
+      <c r="D182" s="12"/>
       <c r="E182" s="2" t="s">
         <v>279</v>
       </c>
@@ -5330,13 +6145,13 @@
       <c r="A183" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B183" s="13" t="s">
+      <c r="B183" s="12" t="s">
         <v>370</v>
       </c>
-      <c r="C183" s="13" t="s">
+      <c r="C183" s="12" t="s">
         <v>371</v>
       </c>
-      <c r="D183" s="13"/>
+      <c r="D183" s="12"/>
       <c r="E183" s="2" t="s">
         <v>279</v>
       </c>
@@ -5345,13 +6160,13 @@
       <c r="A184" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B184" s="13" t="s">
+      <c r="B184" s="12" t="s">
         <v>372</v>
       </c>
-      <c r="C184" s="13" t="s">
+      <c r="C184" s="12" t="s">
         <v>373</v>
       </c>
-      <c r="D184" s="13"/>
+      <c r="D184" s="12"/>
       <c r="E184" s="2" t="s">
         <v>279</v>
       </c>
@@ -5360,13 +6175,13 @@
       <c r="A185" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B185" s="13" t="s">
+      <c r="B185" s="12" t="s">
         <v>374</v>
       </c>
-      <c r="C185" s="13" t="s">
+      <c r="C185" s="12" t="s">
         <v>375</v>
       </c>
-      <c r="D185" s="13"/>
+      <c r="D185" s="12"/>
       <c r="E185" s="2" t="s">
         <v>279</v>
       </c>
@@ -5375,13 +6190,13 @@
       <c r="A186" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B186" s="13" t="s">
+      <c r="B186" s="12" t="s">
         <v>376</v>
       </c>
-      <c r="C186" s="13" t="s">
+      <c r="C186" s="12" t="s">
         <v>375</v>
       </c>
-      <c r="D186" s="13"/>
+      <c r="D186" s="12"/>
       <c r="E186" s="2" t="s">
         <v>279</v>
       </c>
@@ -5390,13 +6205,13 @@
       <c r="A187" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B187" s="13" t="s">
+      <c r="B187" s="12" t="s">
         <v>377</v>
       </c>
-      <c r="C187" s="13" t="s">
+      <c r="C187" s="12" t="s">
         <v>378</v>
       </c>
-      <c r="D187" s="13"/>
+      <c r="D187" s="12"/>
       <c r="E187" s="2" t="s">
         <v>279</v>
       </c>
@@ -5405,58 +6220,58 @@
       <c r="A188" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B188" s="13" t="s">
+      <c r="B188" s="12" t="s">
         <v>379</v>
       </c>
-      <c r="C188" s="13" t="s">
+      <c r="C188" s="12" t="s">
         <v>351</v>
       </c>
-      <c r="D188" s="13"/>
+      <c r="D188" s="12"/>
       <c r="E188" s="2" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="189" customFormat="false" ht="60.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="189" customFormat="false" ht="61.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A189" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B189" s="13" t="s">
+      <c r="B189" s="12" t="s">
         <v>380</v>
       </c>
-      <c r="C189" s="13" t="s">
+      <c r="C189" s="12" t="s">
         <v>381</v>
       </c>
-      <c r="D189" s="13"/>
+      <c r="D189" s="12"/>
       <c r="E189" s="2" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="190" customFormat="false" ht="45.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="190" customFormat="false" ht="61.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A190" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B190" s="13" t="s">
+      <c r="B190" s="12" t="s">
         <v>382</v>
       </c>
-      <c r="C190" s="13" t="s">
+      <c r="C190" s="12" t="s">
         <v>383</v>
       </c>
-      <c r="D190" s="13"/>
+      <c r="D190" s="12"/>
       <c r="E190" s="2" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="191" customFormat="false" ht="60.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="191" customFormat="false" ht="61.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A191" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B191" s="13" t="s">
+      <c r="B191" s="12" t="s">
         <v>384</v>
       </c>
-      <c r="C191" s="13" t="s">
+      <c r="C191" s="12" t="s">
         <v>385</v>
       </c>
-      <c r="D191" s="13"/>
+      <c r="D191" s="12"/>
       <c r="E191" s="2" t="s">
         <v>279</v>
       </c>
@@ -5465,13 +6280,13 @@
       <c r="A192" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B192" s="13" t="s">
+      <c r="B192" s="12" t="s">
         <v>386</v>
       </c>
-      <c r="C192" s="13" t="s">
+      <c r="C192" s="12" t="s">
         <v>387</v>
       </c>
-      <c r="D192" s="13"/>
+      <c r="D192" s="12"/>
       <c r="E192" s="2" t="s">
         <v>279</v>
       </c>
@@ -5480,13 +6295,13 @@
       <c r="A193" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B193" s="13" t="s">
+      <c r="B193" s="12" t="s">
         <v>388</v>
       </c>
-      <c r="C193" s="13" t="s">
+      <c r="C193" s="12" t="s">
         <v>389</v>
       </c>
-      <c r="D193" s="13"/>
+      <c r="D193" s="12"/>
       <c r="E193" s="2" t="s">
         <v>279</v>
       </c>
@@ -5495,13 +6310,13 @@
       <c r="A194" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B194" s="13" t="s">
+      <c r="B194" s="12" t="s">
         <v>390</v>
       </c>
-      <c r="C194" s="13" t="s">
+      <c r="C194" s="12" t="s">
         <v>391</v>
       </c>
-      <c r="D194" s="13"/>
+      <c r="D194" s="12"/>
       <c r="E194" s="2" t="s">
         <v>392</v>
       </c>
@@ -5510,13 +6325,13 @@
       <c r="A195" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B195" s="13" t="s">
+      <c r="B195" s="12" t="s">
         <v>393</v>
       </c>
-      <c r="C195" s="13" t="s">
+      <c r="C195" s="12" t="s">
         <v>394</v>
       </c>
-      <c r="D195" s="13"/>
+      <c r="D195" s="12"/>
       <c r="E195" s="2" t="s">
         <v>392</v>
       </c>
@@ -5525,13 +6340,13 @@
       <c r="A196" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B196" s="13" t="s">
+      <c r="B196" s="12" t="s">
         <v>395</v>
       </c>
-      <c r="C196" s="13" t="s">
+      <c r="C196" s="12" t="s">
         <v>396</v>
       </c>
-      <c r="D196" s="13"/>
+      <c r="D196" s="12"/>
       <c r="E196" s="2" t="s">
         <v>392</v>
       </c>
@@ -5540,13 +6355,13 @@
       <c r="A197" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B197" s="13" t="s">
+      <c r="B197" s="12" t="s">
         <v>397</v>
       </c>
-      <c r="C197" s="13" t="s">
+      <c r="C197" s="12" t="s">
         <v>398</v>
       </c>
-      <c r="D197" s="13"/>
+      <c r="D197" s="12"/>
       <c r="E197" s="2" t="s">
         <v>392</v>
       </c>
@@ -5555,13 +6370,13 @@
       <c r="A198" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B198" s="13" t="s">
+      <c r="B198" s="12" t="s">
         <v>399</v>
       </c>
-      <c r="C198" s="13" t="s">
+      <c r="C198" s="12" t="s">
         <v>400</v>
       </c>
-      <c r="D198" s="13"/>
+      <c r="D198" s="12"/>
       <c r="E198" s="2" t="s">
         <v>392</v>
       </c>
@@ -5570,13 +6385,13 @@
       <c r="A199" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B199" s="13" t="s">
+      <c r="B199" s="12" t="s">
         <v>401</v>
       </c>
-      <c r="C199" s="13" t="s">
+      <c r="C199" s="12" t="s">
         <v>402</v>
       </c>
-      <c r="D199" s="13"/>
+      <c r="D199" s="12"/>
       <c r="E199" s="2" t="s">
         <v>392</v>
       </c>
@@ -5585,13 +6400,13 @@
       <c r="A200" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B200" s="13" t="s">
+      <c r="B200" s="12" t="s">
         <v>403</v>
       </c>
-      <c r="C200" s="13" t="s">
+      <c r="C200" s="12" t="s">
         <v>404</v>
       </c>
-      <c r="D200" s="13"/>
+      <c r="D200" s="12"/>
       <c r="E200" s="2" t="s">
         <v>392</v>
       </c>
@@ -5600,13 +6415,13 @@
       <c r="A201" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B201" s="13" t="s">
+      <c r="B201" s="12" t="s">
         <v>405</v>
       </c>
-      <c r="C201" s="13" t="s">
+      <c r="C201" s="12" t="s">
         <v>406</v>
       </c>
-      <c r="D201" s="13"/>
+      <c r="D201" s="12"/>
       <c r="E201" s="2" t="s">
         <v>392</v>
       </c>
@@ -5615,13 +6430,13 @@
       <c r="A202" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B202" s="13" t="s">
+      <c r="B202" s="12" t="s">
         <v>407</v>
       </c>
-      <c r="C202" s="13" t="s">
+      <c r="C202" s="12" t="s">
         <v>408</v>
       </c>
-      <c r="D202" s="13"/>
+      <c r="D202" s="12"/>
       <c r="E202" s="2" t="s">
         <v>392</v>
       </c>
@@ -5630,13 +6445,13 @@
       <c r="A203" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B203" s="13" t="s">
+      <c r="B203" s="12" t="s">
         <v>409</v>
       </c>
-      <c r="C203" s="13" t="s">
+      <c r="C203" s="12" t="s">
         <v>410</v>
       </c>
-      <c r="D203" s="13"/>
+      <c r="D203" s="12"/>
       <c r="E203" s="2" t="s">
         <v>392</v>
       </c>
@@ -5645,13 +6460,13 @@
       <c r="A204" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B204" s="13" t="s">
+      <c r="B204" s="12" t="s">
         <v>411</v>
       </c>
-      <c r="C204" s="13" t="s">
+      <c r="C204" s="12" t="s">
         <v>412</v>
       </c>
-      <c r="D204" s="13"/>
+      <c r="D204" s="12"/>
       <c r="E204" s="2" t="s">
         <v>392</v>
       </c>
@@ -5660,13 +6475,13 @@
       <c r="A205" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B205" s="13" t="s">
+      <c r="B205" s="12" t="s">
         <v>413</v>
       </c>
-      <c r="C205" s="13" t="s">
+      <c r="C205" s="12" t="s">
         <v>414</v>
       </c>
-      <c r="D205" s="13"/>
+      <c r="D205" s="12"/>
       <c r="E205" s="2" t="s">
         <v>392</v>
       </c>
@@ -5675,13 +6490,13 @@
       <c r="A206" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B206" s="13" t="s">
+      <c r="B206" s="12" t="s">
         <v>415</v>
       </c>
-      <c r="C206" s="13" t="s">
+      <c r="C206" s="12" t="s">
         <v>416</v>
       </c>
-      <c r="D206" s="13"/>
+      <c r="D206" s="12"/>
       <c r="E206" s="2" t="s">
         <v>392</v>
       </c>
@@ -5690,13 +6505,13 @@
       <c r="A207" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B207" s="13" t="s">
+      <c r="B207" s="12" t="s">
         <v>417</v>
       </c>
-      <c r="C207" s="13" t="s">
+      <c r="C207" s="12" t="s">
         <v>418</v>
       </c>
-      <c r="D207" s="13"/>
+      <c r="D207" s="12"/>
       <c r="E207" s="2" t="s">
         <v>392</v>
       </c>
@@ -5705,13 +6520,13 @@
       <c r="A208" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B208" s="13" t="s">
+      <c r="B208" s="12" t="s">
         <v>419</v>
       </c>
-      <c r="C208" s="13" t="s">
+      <c r="C208" s="12" t="s">
         <v>420</v>
       </c>
-      <c r="D208" s="13"/>
+      <c r="D208" s="12"/>
       <c r="E208" s="2" t="s">
         <v>392</v>
       </c>
@@ -5720,13 +6535,13 @@
       <c r="A209" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B209" s="13" t="s">
+      <c r="B209" s="12" t="s">
         <v>421</v>
       </c>
-      <c r="C209" s="13" t="s">
+      <c r="C209" s="12" t="s">
         <v>422</v>
       </c>
-      <c r="D209" s="13"/>
+      <c r="D209" s="12"/>
       <c r="E209" s="2" t="s">
         <v>392</v>
       </c>
@@ -5735,13 +6550,13 @@
       <c r="A210" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B210" s="13" t="s">
+      <c r="B210" s="12" t="s">
         <v>423</v>
       </c>
-      <c r="C210" s="13" t="s">
+      <c r="C210" s="12" t="s">
         <v>424</v>
       </c>
-      <c r="D210" s="13"/>
+      <c r="D210" s="12"/>
       <c r="E210" s="2" t="s">
         <v>392</v>
       </c>
@@ -5750,13 +6565,13 @@
       <c r="A211" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B211" s="13" t="s">
+      <c r="B211" s="12" t="s">
         <v>425</v>
       </c>
-      <c r="C211" s="13" t="s">
+      <c r="C211" s="12" t="s">
         <v>426</v>
       </c>
-      <c r="D211" s="13"/>
+      <c r="D211" s="12"/>
       <c r="E211" s="2" t="s">
         <v>392</v>
       </c>
@@ -5765,13 +6580,13 @@
       <c r="A212" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B212" s="13" t="s">
+      <c r="B212" s="12" t="s">
         <v>427</v>
       </c>
-      <c r="C212" s="13" t="s">
+      <c r="C212" s="12" t="s">
         <v>428</v>
       </c>
-      <c r="D212" s="13"/>
+      <c r="D212" s="12"/>
       <c r="E212" s="2" t="s">
         <v>392</v>
       </c>
@@ -5780,13 +6595,13 @@
       <c r="A213" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B213" s="13" t="s">
+      <c r="B213" s="12" t="s">
         <v>429</v>
       </c>
-      <c r="C213" s="13" t="s">
+      <c r="C213" s="12" t="s">
         <v>430</v>
       </c>
-      <c r="D213" s="13"/>
+      <c r="D213" s="12"/>
       <c r="E213" s="2" t="s">
         <v>392</v>
       </c>
@@ -5795,13 +6610,13 @@
       <c r="A214" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B214" s="13" t="s">
+      <c r="B214" s="12" t="s">
         <v>431</v>
       </c>
-      <c r="C214" s="13" t="s">
+      <c r="C214" s="12" t="s">
         <v>432</v>
       </c>
-      <c r="D214" s="13"/>
+      <c r="D214" s="12"/>
       <c r="E214" s="2" t="s">
         <v>392</v>
       </c>
@@ -5810,13 +6625,13 @@
       <c r="A215" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B215" s="13" t="s">
+      <c r="B215" s="12" t="s">
         <v>433</v>
       </c>
-      <c r="C215" s="13" t="s">
+      <c r="C215" s="12" t="s">
         <v>434</v>
       </c>
-      <c r="D215" s="13"/>
+      <c r="D215" s="12"/>
       <c r="E215" s="2" t="s">
         <v>392</v>
       </c>
@@ -5825,13 +6640,13 @@
       <c r="A216" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B216" s="13" t="s">
+      <c r="B216" s="12" t="s">
         <v>435</v>
       </c>
-      <c r="C216" s="13" t="s">
+      <c r="C216" s="12" t="s">
         <v>436</v>
       </c>
-      <c r="D216" s="13"/>
+      <c r="D216" s="12"/>
       <c r="E216" s="2" t="s">
         <v>392</v>
       </c>
@@ -5840,13 +6655,13 @@
       <c r="A217" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B217" s="13" t="s">
+      <c r="B217" s="12" t="s">
         <v>437</v>
       </c>
-      <c r="C217" s="13" t="s">
+      <c r="C217" s="12" t="s">
         <v>438</v>
       </c>
-      <c r="D217" s="13"/>
+      <c r="D217" s="12"/>
       <c r="E217" s="2" t="s">
         <v>392</v>
       </c>
@@ -5855,13 +6670,13 @@
       <c r="A218" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B218" s="13" t="s">
+      <c r="B218" s="12" t="s">
         <v>439</v>
       </c>
-      <c r="C218" s="13" t="s">
+      <c r="C218" s="12" t="s">
         <v>440</v>
       </c>
-      <c r="D218" s="13"/>
+      <c r="D218" s="12"/>
       <c r="E218" s="2" t="s">
         <v>392</v>
       </c>
@@ -5870,13 +6685,13 @@
       <c r="A219" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B219" s="13" t="s">
+      <c r="B219" s="12" t="s">
         <v>441</v>
       </c>
-      <c r="C219" s="13" t="s">
+      <c r="C219" s="12" t="s">
         <v>442</v>
       </c>
-      <c r="D219" s="13"/>
+      <c r="D219" s="12"/>
       <c r="E219" s="2" t="s">
         <v>392</v>
       </c>
@@ -5885,13 +6700,13 @@
       <c r="A220" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B220" s="13" t="s">
+      <c r="B220" s="12" t="s">
         <v>443</v>
       </c>
-      <c r="C220" s="13" t="s">
+      <c r="C220" s="12" t="s">
         <v>444</v>
       </c>
-      <c r="D220" s="13"/>
+      <c r="D220" s="12"/>
       <c r="E220" s="2" t="s">
         <v>392</v>
       </c>
@@ -5900,13 +6715,13 @@
       <c r="A221" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B221" s="13" t="s">
+      <c r="B221" s="12" t="s">
         <v>445</v>
       </c>
-      <c r="C221" s="13" t="s">
+      <c r="C221" s="12" t="s">
         <v>446</v>
       </c>
-      <c r="D221" s="13"/>
+      <c r="D221" s="12"/>
       <c r="E221" s="2" t="s">
         <v>392</v>
       </c>
@@ -5915,13 +6730,13 @@
       <c r="A222" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B222" s="13" t="s">
+      <c r="B222" s="12" t="s">
         <v>447</v>
       </c>
-      <c r="C222" s="13" t="s">
+      <c r="C222" s="12" t="s">
         <v>448</v>
       </c>
-      <c r="D222" s="13"/>
+      <c r="D222" s="12"/>
       <c r="E222" s="2" t="s">
         <v>392</v>
       </c>
@@ -5930,13 +6745,13 @@
       <c r="A223" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B223" s="13" t="s">
+      <c r="B223" s="12" t="s">
         <v>449</v>
       </c>
-      <c r="C223" s="13" t="s">
+      <c r="C223" s="12" t="s">
         <v>450</v>
       </c>
-      <c r="D223" s="13"/>
+      <c r="D223" s="12"/>
       <c r="E223" s="2" t="s">
         <v>392</v>
       </c>
@@ -5945,13 +6760,13 @@
       <c r="A224" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B224" s="13" t="s">
+      <c r="B224" s="12" t="s">
         <v>451</v>
       </c>
-      <c r="C224" s="13" t="s">
+      <c r="C224" s="12" t="s">
         <v>452</v>
       </c>
-      <c r="D224" s="13"/>
+      <c r="D224" s="12"/>
       <c r="E224" s="2" t="s">
         <v>392</v>
       </c>
@@ -5960,13 +6775,13 @@
       <c r="A225" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B225" s="13" t="s">
+      <c r="B225" s="12" t="s">
         <v>453</v>
       </c>
-      <c r="C225" s="13" t="s">
+      <c r="C225" s="12" t="s">
         <v>454</v>
       </c>
-      <c r="D225" s="13"/>
+      <c r="D225" s="12"/>
       <c r="E225" s="2" t="s">
         <v>392</v>
       </c>
@@ -5975,13 +6790,13 @@
       <c r="A226" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B226" s="13" t="s">
+      <c r="B226" s="12" t="s">
         <v>455</v>
       </c>
-      <c r="C226" s="13" t="s">
+      <c r="C226" s="12" t="s">
         <v>456</v>
       </c>
-      <c r="D226" s="13"/>
+      <c r="D226" s="12"/>
       <c r="E226" s="2" t="s">
         <v>392</v>
       </c>
@@ -5990,13 +6805,13 @@
       <c r="A227" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B227" s="13" t="s">
+      <c r="B227" s="12" t="s">
         <v>457</v>
       </c>
-      <c r="C227" s="13" t="s">
+      <c r="C227" s="12" t="s">
         <v>458</v>
       </c>
-      <c r="D227" s="13"/>
+      <c r="D227" s="12"/>
       <c r="E227" s="2" t="s">
         <v>392</v>
       </c>
@@ -6005,13 +6820,13 @@
       <c r="A228" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B228" s="13" t="s">
+      <c r="B228" s="12" t="s">
         <v>459</v>
       </c>
-      <c r="C228" s="13" t="s">
+      <c r="C228" s="12" t="s">
         <v>460</v>
       </c>
-      <c r="D228" s="13"/>
+      <c r="D228" s="12"/>
       <c r="E228" s="2" t="s">
         <v>392</v>
       </c>
@@ -6020,43 +6835,43 @@
       <c r="A229" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B229" s="13" t="s">
+      <c r="B229" s="12" t="s">
         <v>461</v>
       </c>
-      <c r="C229" s="13" t="s">
+      <c r="C229" s="12" t="s">
         <v>462</v>
       </c>
-      <c r="D229" s="13"/>
+      <c r="D229" s="12"/>
       <c r="E229" s="2" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="230" customFormat="false" ht="45.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="230" customFormat="false" ht="61.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A230" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B230" s="13" t="s">
+      <c r="B230" s="12" t="s">
         <v>463</v>
       </c>
-      <c r="C230" s="13" t="s">
+      <c r="C230" s="12" t="s">
         <v>464</v>
       </c>
-      <c r="D230" s="13"/>
+      <c r="D230" s="12"/>
       <c r="E230" s="2" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="231" customFormat="false" ht="60.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="231" customFormat="false" ht="61.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A231" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B231" s="13" t="s">
+      <c r="B231" s="12" t="s">
         <v>465</v>
       </c>
-      <c r="C231" s="13" t="s">
+      <c r="C231" s="12" t="s">
         <v>466</v>
       </c>
-      <c r="D231" s="13"/>
+      <c r="D231" s="12"/>
       <c r="E231" s="2" t="s">
         <v>392</v>
       </c>
@@ -6065,13 +6880,13 @@
       <c r="A232" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B232" s="13" t="s">
+      <c r="B232" s="12" t="s">
         <v>467</v>
       </c>
-      <c r="C232" s="13" t="s">
+      <c r="C232" s="12" t="s">
         <v>468</v>
       </c>
-      <c r="D232" s="13"/>
+      <c r="D232" s="12"/>
       <c r="E232" s="2" t="s">
         <v>392</v>
       </c>
@@ -6095,43 +6910,43 @@
       <c r="A234" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B234" s="13" t="s">
+      <c r="B234" s="12" t="s">
         <v>472</v>
       </c>
-      <c r="C234" s="13" t="s">
+      <c r="C234" s="12" t="s">
         <v>473</v>
       </c>
-      <c r="D234" s="13"/>
+      <c r="D234" s="12"/>
       <c r="E234" s="2" t="s">
         <v>471</v>
       </c>
     </row>
-    <row r="235" customFormat="false" ht="60.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="235" customFormat="false" ht="76.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A235" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B235" s="13" t="s">
+      <c r="B235" s="12" t="s">
         <v>474</v>
       </c>
-      <c r="C235" s="13" t="s">
+      <c r="C235" s="12" t="s">
         <v>475</v>
       </c>
-      <c r="D235" s="13"/>
+      <c r="D235" s="12"/>
       <c r="E235" s="2" t="s">
         <v>471</v>
       </c>
     </row>
-    <row r="236" customFormat="false" ht="75.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="236" customFormat="false" ht="76.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A236" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B236" s="13" t="s">
+      <c r="B236" s="12" t="s">
         <v>476</v>
       </c>
-      <c r="C236" s="13" t="s">
+      <c r="C236" s="12" t="s">
         <v>477</v>
       </c>
-      <c r="D236" s="13"/>
+      <c r="D236" s="12"/>
       <c r="E236" s="2" t="s">
         <v>471</v>
       </c>
@@ -6143,10 +6958,10 @@
       <c r="B237" s="7" t="s">
         <v>478</v>
       </c>
-      <c r="C237" s="13" t="s">
+      <c r="C237" s="12" t="s">
         <v>479</v>
       </c>
-      <c r="D237" s="13"/>
+      <c r="D237" s="12"/>
       <c r="E237" s="2" t="s">
         <v>471</v>
       </c>
@@ -6155,13 +6970,13 @@
       <c r="A238" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B238" s="13" t="s">
+      <c r="B238" s="12" t="s">
         <v>480</v>
       </c>
-      <c r="C238" s="13" t="s">
+      <c r="C238" s="12" t="s">
         <v>481</v>
       </c>
-      <c r="D238" s="13"/>
+      <c r="D238" s="12"/>
       <c r="E238" s="2" t="s">
         <v>471</v>
       </c>
@@ -6170,13 +6985,13 @@
       <c r="A239" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B239" s="13" t="s">
+      <c r="B239" s="12" t="s">
         <v>482</v>
       </c>
-      <c r="C239" s="13" t="s">
+      <c r="C239" s="12" t="s">
         <v>483</v>
       </c>
-      <c r="D239" s="13"/>
+      <c r="D239" s="12"/>
       <c r="E239" s="2" t="s">
         <v>471</v>
       </c>
@@ -6185,13 +7000,13 @@
       <c r="A240" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B240" s="13" t="s">
+      <c r="B240" s="12" t="s">
         <v>484</v>
       </c>
-      <c r="C240" s="13" t="s">
+      <c r="C240" s="12" t="s">
         <v>485</v>
       </c>
-      <c r="D240" s="13"/>
+      <c r="D240" s="12"/>
       <c r="E240" s="2" t="s">
         <v>471</v>
       </c>
@@ -6200,13 +7015,13 @@
       <c r="A241" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B241" s="13" t="s">
+      <c r="B241" s="12" t="s">
         <v>486</v>
       </c>
-      <c r="C241" s="13" t="s">
+      <c r="C241" s="12" t="s">
         <v>487</v>
       </c>
-      <c r="D241" s="13"/>
+      <c r="D241" s="12"/>
       <c r="E241" s="2" t="s">
         <v>471</v>
       </c>
@@ -6215,13 +7030,13 @@
       <c r="A242" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B242" s="13" t="s">
+      <c r="B242" s="12" t="s">
         <v>488</v>
       </c>
-      <c r="C242" s="13" t="s">
+      <c r="C242" s="12" t="s">
         <v>489</v>
       </c>
-      <c r="D242" s="13"/>
+      <c r="D242" s="12"/>
       <c r="E242" s="2" t="s">
         <v>471</v>
       </c>
@@ -6230,13 +7045,13 @@
       <c r="A243" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B243" s="13" t="s">
+      <c r="B243" s="12" t="s">
         <v>490</v>
       </c>
-      <c r="C243" s="13" t="s">
+      <c r="C243" s="12" t="s">
         <v>491</v>
       </c>
-      <c r="D243" s="13"/>
+      <c r="D243" s="12"/>
       <c r="E243" s="2" t="s">
         <v>471</v>
       </c>
@@ -6245,13 +7060,13 @@
       <c r="A244" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B244" s="13" t="s">
+      <c r="B244" s="12" t="s">
         <v>492</v>
       </c>
-      <c r="C244" s="13" t="s">
+      <c r="C244" s="12" t="s">
         <v>493</v>
       </c>
-      <c r="D244" s="13"/>
+      <c r="D244" s="12"/>
       <c r="E244" s="2" t="s">
         <v>471</v>
       </c>
@@ -6260,13 +7075,13 @@
       <c r="A245" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B245" s="13" t="s">
+      <c r="B245" s="12" t="s">
         <v>494</v>
       </c>
-      <c r="C245" s="13" t="s">
+      <c r="C245" s="12" t="s">
         <v>495</v>
       </c>
-      <c r="D245" s="13"/>
+      <c r="D245" s="12"/>
       <c r="E245" s="2" t="s">
         <v>471</v>
       </c>
@@ -6275,13 +7090,13 @@
       <c r="A246" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B246" s="13" t="s">
+      <c r="B246" s="12" t="s">
         <v>496</v>
       </c>
-      <c r="C246" s="13" t="s">
+      <c r="C246" s="12" t="s">
         <v>497</v>
       </c>
-      <c r="D246" s="13"/>
+      <c r="D246" s="12"/>
       <c r="E246" s="2" t="s">
         <v>471</v>
       </c>
@@ -6290,13 +7105,13 @@
       <c r="A247" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B247" s="13" t="s">
+      <c r="B247" s="12" t="s">
         <v>498</v>
       </c>
-      <c r="C247" s="13" t="s">
+      <c r="C247" s="12" t="s">
         <v>499</v>
       </c>
-      <c r="D247" s="13"/>
+      <c r="D247" s="12"/>
       <c r="E247" s="2" t="s">
         <v>471</v>
       </c>
@@ -6305,13 +7120,13 @@
       <c r="A248" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B248" s="13" t="s">
+      <c r="B248" s="12" t="s">
         <v>500</v>
       </c>
-      <c r="C248" s="13" t="s">
+      <c r="C248" s="12" t="s">
         <v>501</v>
       </c>
-      <c r="D248" s="13"/>
+      <c r="D248" s="12"/>
       <c r="E248" s="2" t="s">
         <v>471</v>
       </c>
@@ -6320,13 +7135,13 @@
       <c r="A249" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B249" s="13" t="s">
+      <c r="B249" s="12" t="s">
         <v>502</v>
       </c>
-      <c r="C249" s="13" t="s">
+      <c r="C249" s="12" t="s">
         <v>503</v>
       </c>
-      <c r="D249" s="13"/>
+      <c r="D249" s="12"/>
       <c r="E249" s="2" t="s">
         <v>471</v>
       </c>
@@ -6335,13 +7150,13 @@
       <c r="A250" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B250" s="13" t="s">
+      <c r="B250" s="12" t="s">
         <v>504</v>
       </c>
-      <c r="C250" s="13" t="s">
+      <c r="C250" s="12" t="s">
         <v>505</v>
       </c>
-      <c r="D250" s="13"/>
+      <c r="D250" s="12"/>
       <c r="E250" s="2" t="s">
         <v>471</v>
       </c>
@@ -6350,7 +7165,7 @@
       <c r="A251" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B251" s="13" t="s">
+      <c r="B251" s="12" t="s">
         <v>506</v>
       </c>
       <c r="C251" s="2" t="s">
@@ -6364,13 +7179,13 @@
       <c r="A252" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B252" s="13" t="s">
+      <c r="B252" s="12" t="s">
         <v>508</v>
       </c>
-      <c r="C252" s="13" t="s">
+      <c r="C252" s="12" t="s">
         <v>509</v>
       </c>
-      <c r="D252" s="13"/>
+      <c r="D252" s="12"/>
       <c r="E252" s="2" t="s">
         <v>471</v>
       </c>
@@ -6379,13 +7194,13 @@
       <c r="A253" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B253" s="13" t="s">
+      <c r="B253" s="12" t="s">
         <v>510</v>
       </c>
-      <c r="C253" s="13" t="s">
+      <c r="C253" s="12" t="s">
         <v>511</v>
       </c>
-      <c r="D253" s="13"/>
+      <c r="D253" s="12"/>
       <c r="E253" s="2" t="s">
         <v>471</v>
       </c>
@@ -6394,13 +7209,13 @@
       <c r="A254" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B254" s="13" t="s">
+      <c r="B254" s="12" t="s">
         <v>512</v>
       </c>
-      <c r="C254" s="13" t="s">
+      <c r="C254" s="12" t="s">
         <v>513</v>
       </c>
-      <c r="D254" s="13"/>
+      <c r="D254" s="12"/>
       <c r="E254" s="2" t="s">
         <v>471</v>
       </c>
@@ -6409,13 +7224,13 @@
       <c r="A255" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B255" s="13" t="s">
+      <c r="B255" s="12" t="s">
         <v>514</v>
       </c>
-      <c r="C255" s="13" t="s">
+      <c r="C255" s="12" t="s">
         <v>515</v>
       </c>
-      <c r="D255" s="13"/>
+      <c r="D255" s="12"/>
       <c r="E255" s="2" t="s">
         <v>471</v>
       </c>
@@ -6424,13 +7239,13 @@
       <c r="A256" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B256" s="13" t="s">
+      <c r="B256" s="12" t="s">
         <v>516</v>
       </c>
-      <c r="C256" s="13" t="s">
+      <c r="C256" s="12" t="s">
         <v>517</v>
       </c>
-      <c r="D256" s="13"/>
+      <c r="D256" s="12"/>
       <c r="E256" s="2" t="s">
         <v>471</v>
       </c>
@@ -6439,13 +7254,13 @@
       <c r="A257" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B257" s="13" t="s">
+      <c r="B257" s="12" t="s">
         <v>518</v>
       </c>
-      <c r="C257" s="13" t="s">
+      <c r="C257" s="12" t="s">
         <v>519</v>
       </c>
-      <c r="D257" s="13"/>
+      <c r="D257" s="12"/>
       <c r="E257" s="2" t="s">
         <v>471</v>
       </c>
@@ -6454,13 +7269,13 @@
       <c r="A258" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B258" s="13" t="s">
+      <c r="B258" s="12" t="s">
         <v>520</v>
       </c>
-      <c r="C258" s="13" t="s">
+      <c r="C258" s="12" t="s">
         <v>521</v>
       </c>
-      <c r="D258" s="13"/>
+      <c r="D258" s="12"/>
       <c r="E258" s="2" t="s">
         <v>471</v>
       </c>
@@ -6469,13 +7284,13 @@
       <c r="A259" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B259" s="13" t="s">
+      <c r="B259" s="12" t="s">
         <v>522</v>
       </c>
-      <c r="C259" s="13" t="s">
+      <c r="C259" s="12" t="s">
         <v>523</v>
       </c>
-      <c r="D259" s="13"/>
+      <c r="D259" s="12"/>
       <c r="E259" s="2" t="s">
         <v>471</v>
       </c>
@@ -6484,13 +7299,13 @@
       <c r="A260" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B260" s="13" t="s">
+      <c r="B260" s="12" t="s">
         <v>524</v>
       </c>
-      <c r="C260" s="13" t="s">
+      <c r="C260" s="12" t="s">
         <v>525</v>
       </c>
-      <c r="D260" s="13"/>
+      <c r="D260" s="12"/>
       <c r="E260" s="2" t="s">
         <v>526</v>
       </c>
@@ -6499,13 +7314,13 @@
       <c r="A261" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B261" s="13" t="s">
+      <c r="B261" s="12" t="s">
         <v>527</v>
       </c>
-      <c r="C261" s="13" t="s">
+      <c r="C261" s="12" t="s">
         <v>528</v>
       </c>
-      <c r="D261" s="13"/>
+      <c r="D261" s="12"/>
       <c r="E261" s="2" t="s">
         <v>526</v>
       </c>
@@ -6514,13 +7329,13 @@
       <c r="A262" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B262" s="13" t="s">
+      <c r="B262" s="12" t="s">
         <v>529</v>
       </c>
-      <c r="C262" s="13" t="s">
+      <c r="C262" s="12" t="s">
         <v>530</v>
       </c>
-      <c r="D262" s="13"/>
+      <c r="D262" s="12"/>
       <c r="E262" s="2" t="s">
         <v>526</v>
       </c>
@@ -6529,13 +7344,13 @@
       <c r="A263" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B263" s="13" t="s">
+      <c r="B263" s="12" t="s">
         <v>531</v>
       </c>
-      <c r="C263" s="13" t="s">
+      <c r="C263" s="12" t="s">
         <v>532</v>
       </c>
-      <c r="D263" s="13"/>
+      <c r="D263" s="12"/>
       <c r="E263" s="2" t="s">
         <v>526</v>
       </c>
@@ -6544,13 +7359,13 @@
       <c r="A264" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B264" s="13" t="s">
+      <c r="B264" s="12" t="s">
         <v>533</v>
       </c>
-      <c r="C264" s="13" t="s">
+      <c r="C264" s="12" t="s">
         <v>534</v>
       </c>
-      <c r="D264" s="13"/>
+      <c r="D264" s="12"/>
       <c r="E264" s="2" t="s">
         <v>526</v>
       </c>
@@ -6559,13 +7374,13 @@
       <c r="A265" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B265" s="13" t="s">
+      <c r="B265" s="12" t="s">
         <v>535</v>
       </c>
-      <c r="C265" s="13" t="s">
+      <c r="C265" s="12" t="s">
         <v>536</v>
       </c>
-      <c r="D265" s="13"/>
+      <c r="D265" s="12"/>
       <c r="E265" s="2" t="s">
         <v>526</v>
       </c>
@@ -6574,7 +7389,7 @@
       <c r="A266" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B266" s="13" t="s">
+      <c r="B266" s="12" t="s">
         <v>537</v>
       </c>
       <c r="C266" s="2" t="s">
@@ -6588,13 +7403,13 @@
       <c r="A267" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B267" s="13" t="s">
+      <c r="B267" s="12" t="s">
         <v>539</v>
       </c>
-      <c r="C267" s="13" t="s">
+      <c r="C267" s="12" t="s">
         <v>540</v>
       </c>
-      <c r="D267" s="13"/>
+      <c r="D267" s="12"/>
       <c r="E267" s="2" t="s">
         <v>526</v>
       </c>
@@ -6603,7 +7418,7 @@
       <c r="A268" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B268" s="13" t="s">
+      <c r="B268" s="12" t="s">
         <v>541</v>
       </c>
       <c r="C268" s="2" t="s">
@@ -6617,13 +7432,13 @@
       <c r="A269" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B269" s="13" t="s">
+      <c r="B269" s="12" t="s">
         <v>543</v>
       </c>
-      <c r="C269" s="13" t="s">
+      <c r="C269" s="12" t="s">
         <v>544</v>
       </c>
-      <c r="D269" s="13"/>
+      <c r="D269" s="12"/>
       <c r="E269" s="2" t="s">
         <v>526</v>
       </c>
@@ -6632,13 +7447,13 @@
       <c r="A270" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B270" s="13" t="s">
+      <c r="B270" s="12" t="s">
         <v>545</v>
       </c>
-      <c r="C270" s="13" t="s">
+      <c r="C270" s="12" t="s">
         <v>546</v>
       </c>
-      <c r="D270" s="13"/>
+      <c r="D270" s="12"/>
       <c r="E270" s="2" t="s">
         <v>526</v>
       </c>
@@ -6647,7 +7462,7 @@
       <c r="A271" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B271" s="13" t="s">
+      <c r="B271" s="12" t="s">
         <v>547</v>
       </c>
       <c r="C271" s="2" t="s">
@@ -6661,13 +7476,13 @@
       <c r="A272" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B272" s="13" t="s">
+      <c r="B272" s="12" t="s">
         <v>549</v>
       </c>
-      <c r="C272" s="13" t="s">
+      <c r="C272" s="12" t="s">
         <v>550</v>
       </c>
-      <c r="D272" s="13"/>
+      <c r="D272" s="12"/>
       <c r="E272" s="2" t="s">
         <v>526</v>
       </c>
@@ -6676,7 +7491,7 @@
       <c r="A273" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B273" s="13" t="s">
+      <c r="B273" s="12" t="s">
         <v>551</v>
       </c>
       <c r="C273" s="2" t="s">
@@ -6690,13 +7505,13 @@
       <c r="A274" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B274" s="13" t="s">
+      <c r="B274" s="12" t="s">
         <v>553</v>
       </c>
-      <c r="C274" s="13" t="s">
+      <c r="C274" s="12" t="s">
         <v>554</v>
       </c>
-      <c r="D274" s="13"/>
+      <c r="D274" s="12"/>
       <c r="E274" s="2" t="s">
         <v>526</v>
       </c>
@@ -6705,7 +7520,7 @@
       <c r="A275" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B275" s="13" t="s">
+      <c r="B275" s="12" t="s">
         <v>555</v>
       </c>
       <c r="C275" s="2" t="s">
@@ -6719,7 +7534,7 @@
       <c r="A276" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B276" s="13" t="s">
+      <c r="B276" s="12" t="s">
         <v>557</v>
       </c>
       <c r="C276" s="2" t="s">
@@ -6733,13 +7548,13 @@
       <c r="A277" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B277" s="13" t="s">
+      <c r="B277" s="12" t="s">
         <v>559</v>
       </c>
-      <c r="C277" s="13" t="s">
+      <c r="C277" s="12" t="s">
         <v>560</v>
       </c>
-      <c r="D277" s="13"/>
+      <c r="D277" s="12"/>
       <c r="E277" s="2" t="s">
         <v>526</v>
       </c>
@@ -6748,7 +7563,7 @@
       <c r="A278" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B278" s="13" t="s">
+      <c r="B278" s="12" t="s">
         <v>561</v>
       </c>
       <c r="C278" s="2" t="s">
@@ -6762,13 +7577,13 @@
       <c r="A279" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B279" s="13" t="s">
+      <c r="B279" s="12" t="s">
         <v>563</v>
       </c>
-      <c r="C279" s="13" t="s">
+      <c r="C279" s="12" t="s">
         <v>564</v>
       </c>
-      <c r="D279" s="13"/>
+      <c r="D279" s="12"/>
       <c r="E279" s="2" t="s">
         <v>526</v>
       </c>
@@ -6777,13 +7592,13 @@
       <c r="A280" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B280" s="13" t="s">
+      <c r="B280" s="12" t="s">
         <v>565</v>
       </c>
-      <c r="C280" s="13" t="s">
+      <c r="C280" s="12" t="s">
         <v>519</v>
       </c>
-      <c r="D280" s="13"/>
+      <c r="D280" s="12"/>
       <c r="E280" s="2" t="s">
         <v>526</v>
       </c>
@@ -6792,13 +7607,13 @@
       <c r="A281" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B281" s="13" t="s">
+      <c r="B281" s="12" t="s">
         <v>566</v>
       </c>
-      <c r="C281" s="13" t="s">
+      <c r="C281" s="12" t="s">
         <v>567</v>
       </c>
-      <c r="D281" s="13"/>
+      <c r="D281" s="12"/>
       <c r="E281" s="2" t="s">
         <v>526</v>
       </c>
@@ -7468,7 +8283,7 @@
       <c r="B329" s="12" t="s">
         <v>662</v>
       </c>
-      <c r="C329" s="0" t="s">
+      <c r="C329" s="3" t="s">
         <v>663</v>
       </c>
       <c r="E329" s="2" t="s">
@@ -7531,7 +8346,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="334" customFormat="false" ht="60.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="334" customFormat="false" ht="61.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A334" s="1" t="n">
         <v>2</v>
       </c>
@@ -7545,7 +8360,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="335" customFormat="false" ht="105.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="335" customFormat="false" ht="61.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A335" s="1" t="n">
         <v>2</v>
       </c>
@@ -7559,7 +8374,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="336" customFormat="false" ht="120.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="336" customFormat="false" ht="76.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A336" s="1" t="n">
         <v>2</v>
       </c>
@@ -7969,7 +8784,7 @@
       <c r="B365" s="12" t="s">
         <v>734</v>
       </c>
-      <c r="C365" s="17" t="s">
+      <c r="C365" s="16" t="s">
         <v>735</v>
       </c>
       <c r="E365" s="2" t="s">
@@ -8004,7 +8819,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="368" customFormat="false" ht="105.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="368" customFormat="false" ht="76.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A368" s="1" t="n">
         <v>1</v>
       </c>
@@ -8018,7 +8833,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="369" customFormat="false" ht="75.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="369" customFormat="false" ht="76.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A369" s="1" t="n">
         <v>1</v>
       </c>
@@ -8032,6 +8847,1799 @@
         <v>681</v>
       </c>
     </row>
+    <row r="370" customFormat="false" ht="57.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A370" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B370" s="17" t="s">
+        <v>744</v>
+      </c>
+      <c r="C370" s="17" t="s">
+        <v>745</v>
+      </c>
+      <c r="E370" s="2" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="371" customFormat="false" ht="45.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A371" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B371" s="17" t="s">
+        <v>747</v>
+      </c>
+      <c r="C371" s="17" t="s">
+        <v>748</v>
+      </c>
+      <c r="E371" s="2" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="372" customFormat="false" ht="45.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A372" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B372" s="17" t="s">
+        <v>749</v>
+      </c>
+      <c r="C372" s="17" t="s">
+        <v>750</v>
+      </c>
+      <c r="E372" s="2" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="373" customFormat="false" ht="45.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A373" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B373" s="17" t="s">
+        <v>751</v>
+      </c>
+      <c r="C373" s="17" t="s">
+        <v>752</v>
+      </c>
+      <c r="E373" s="2" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="374" customFormat="false" ht="44.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A374" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B374" s="17" t="s">
+        <v>753</v>
+      </c>
+      <c r="C374" s="17" t="s">
+        <v>754</v>
+      </c>
+      <c r="E374" s="2" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="375" customFormat="false" ht="45.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A375" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B375" s="17" t="s">
+        <v>755</v>
+      </c>
+      <c r="C375" s="17" t="s">
+        <v>756</v>
+      </c>
+      <c r="E375" s="2" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="376" customFormat="false" ht="45.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A376" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B376" s="17" t="s">
+        <v>757</v>
+      </c>
+      <c r="C376" s="17" t="s">
+        <v>758</v>
+      </c>
+      <c r="E376" s="2" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="377" customFormat="false" ht="57.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A377" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B377" s="17" t="s">
+        <v>759</v>
+      </c>
+      <c r="C377" s="17" t="s">
+        <v>760</v>
+      </c>
+      <c r="E377" s="2" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="378" customFormat="false" ht="57.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A378" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B378" s="17" t="s">
+        <v>761</v>
+      </c>
+      <c r="C378" s="2" t="s">
+        <v>762</v>
+      </c>
+      <c r="E378" s="2" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="379" customFormat="false" ht="57.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A379" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B379" s="17" t="s">
+        <v>763</v>
+      </c>
+      <c r="C379" s="17" t="s">
+        <v>764</v>
+      </c>
+      <c r="E379" s="2" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="380" customFormat="false" ht="45.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A380" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B380" s="17" t="s">
+        <v>765</v>
+      </c>
+      <c r="C380" s="2" t="s">
+        <v>766</v>
+      </c>
+      <c r="E380" s="2" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="381" customFormat="false" ht="45.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A381" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B381" s="17" t="s">
+        <v>767</v>
+      </c>
+      <c r="C381" s="17" t="s">
+        <v>768</v>
+      </c>
+      <c r="E381" s="2" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="382" customFormat="false" ht="45.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A382" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B382" s="17" t="s">
+        <v>769</v>
+      </c>
+      <c r="C382" s="17" t="s">
+        <v>770</v>
+      </c>
+      <c r="E382" s="2" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="383" customFormat="false" ht="45.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A383" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B383" s="17" t="s">
+        <v>771</v>
+      </c>
+      <c r="C383" s="2" t="s">
+        <v>772</v>
+      </c>
+      <c r="E383" s="2" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="384" customFormat="false" ht="57.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A384" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B384" s="17" t="s">
+        <v>773</v>
+      </c>
+      <c r="C384" s="2" t="s">
+        <v>774</v>
+      </c>
+      <c r="E384" s="2" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="385" customFormat="false" ht="45.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A385" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B385" s="17" t="s">
+        <v>775</v>
+      </c>
+      <c r="C385" s="17" t="s">
+        <v>776</v>
+      </c>
+      <c r="E385" s="2" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="386" customFormat="false" ht="35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A386" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B386" s="17" t="s">
+        <v>777</v>
+      </c>
+      <c r="C386" s="17" t="s">
+        <v>778</v>
+      </c>
+      <c r="E386" s="2" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="387" customFormat="false" ht="45.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A387" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B387" s="17" t="s">
+        <v>779</v>
+      </c>
+      <c r="C387" s="17" t="s">
+        <v>780</v>
+      </c>
+      <c r="E387" s="2" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="388" customFormat="false" ht="45.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A388" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B388" s="17" t="s">
+        <v>781</v>
+      </c>
+      <c r="C388" s="17" t="s">
+        <v>782</v>
+      </c>
+      <c r="E388" s="2" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="389" customFormat="false" ht="57.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A389" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B389" s="17" t="s">
+        <v>783</v>
+      </c>
+      <c r="C389" s="17" t="s">
+        <v>784</v>
+      </c>
+      <c r="E389" s="2" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="390" customFormat="false" ht="45.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A390" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B390" s="17" t="s">
+        <v>785</v>
+      </c>
+      <c r="C390" s="17" t="s">
+        <v>786</v>
+      </c>
+      <c r="E390" s="2" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="391" customFormat="false" ht="45.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A391" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B391" s="17" t="s">
+        <v>787</v>
+      </c>
+      <c r="C391" s="17" t="s">
+        <v>788</v>
+      </c>
+      <c r="E391" s="2" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="392" customFormat="false" ht="57.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A392" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B392" s="17" t="s">
+        <v>789</v>
+      </c>
+      <c r="C392" s="17" t="s">
+        <v>790</v>
+      </c>
+      <c r="E392" s="2" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="393" customFormat="false" ht="45.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A393" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B393" s="17" t="s">
+        <v>791</v>
+      </c>
+      <c r="C393" s="17" t="s">
+        <v>792</v>
+      </c>
+      <c r="E393" s="2" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="394" customFormat="false" ht="45.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A394" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B394" s="18" t="s">
+        <v>793</v>
+      </c>
+      <c r="C394" s="17" t="s">
+        <v>794</v>
+      </c>
+      <c r="E394" s="2" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="395" customFormat="false" ht="35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A395" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B395" s="17" t="s">
+        <v>795</v>
+      </c>
+      <c r="C395" s="17" t="s">
+        <v>796</v>
+      </c>
+      <c r="E395" s="2" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="396" customFormat="false" ht="45.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A396" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B396" s="17" t="s">
+        <v>797</v>
+      </c>
+      <c r="C396" s="17" t="s">
+        <v>798</v>
+      </c>
+      <c r="E396" s="2" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="397" customFormat="false" ht="45.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A397" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B397" s="17" t="s">
+        <v>799</v>
+      </c>
+      <c r="C397" s="17" t="s">
+        <v>800</v>
+      </c>
+      <c r="E397" s="2" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="398" customFormat="false" ht="57.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A398" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B398" s="17" t="s">
+        <v>801</v>
+      </c>
+      <c r="C398" s="2" t="s">
+        <v>802</v>
+      </c>
+      <c r="E398" s="2" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="399" customFormat="false" ht="57.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A399" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B399" s="17" t="s">
+        <v>803</v>
+      </c>
+      <c r="C399" s="17" t="s">
+        <v>804</v>
+      </c>
+      <c r="E399" s="2" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="400" customFormat="false" ht="35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A400" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B400" s="17" t="s">
+        <v>805</v>
+      </c>
+      <c r="C400" s="17" t="s">
+        <v>806</v>
+      </c>
+      <c r="E400" s="2" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="401" customFormat="false" ht="57.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A401" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B401" s="17" t="s">
+        <v>807</v>
+      </c>
+      <c r="C401" s="17" t="s">
+        <v>808</v>
+      </c>
+      <c r="E401" s="2" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="402" customFormat="false" ht="35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A402" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B402" s="17" t="s">
+        <v>809</v>
+      </c>
+      <c r="C402" s="17" t="s">
+        <v>810</v>
+      </c>
+      <c r="E402" s="2" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="403" customFormat="false" ht="45.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A403" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B403" s="17" t="s">
+        <v>811</v>
+      </c>
+      <c r="C403" s="17" t="s">
+        <v>812</v>
+      </c>
+      <c r="E403" s="2" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="404" customFormat="false" ht="57.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A404" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B404" s="17" t="s">
+        <v>813</v>
+      </c>
+      <c r="C404" s="17" t="s">
+        <v>814</v>
+      </c>
+      <c r="E404" s="2" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="405" customFormat="false" ht="57.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A405" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B405" s="18" t="s">
+        <v>815</v>
+      </c>
+      <c r="C405" s="17" t="s">
+        <v>816</v>
+      </c>
+      <c r="E405" s="2" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="406" customFormat="false" ht="57.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A406" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B406" s="17" t="s">
+        <v>817</v>
+      </c>
+      <c r="C406" s="17" t="s">
+        <v>818</v>
+      </c>
+      <c r="E406" s="2" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="407" customFormat="false" ht="45.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A407" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B407" s="17" t="s">
+        <v>819</v>
+      </c>
+      <c r="C407" s="17" t="s">
+        <v>820</v>
+      </c>
+      <c r="E407" s="2" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="408" customFormat="false" ht="35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A408" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B408" s="17" t="s">
+        <v>821</v>
+      </c>
+      <c r="C408" s="17" t="s">
+        <v>822</v>
+      </c>
+      <c r="E408" s="2" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="409" customFormat="false" ht="45.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A409" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B409" s="17" t="s">
+        <v>823</v>
+      </c>
+      <c r="C409" s="17" t="s">
+        <v>824</v>
+      </c>
+      <c r="E409" s="2" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="410" customFormat="false" ht="45.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A410" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B410" s="17" t="s">
+        <v>825</v>
+      </c>
+      <c r="C410" s="17" t="s">
+        <v>826</v>
+      </c>
+      <c r="E410" s="2" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="411" customFormat="false" ht="35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A411" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B411" s="17" t="s">
+        <v>827</v>
+      </c>
+      <c r="C411" s="2" t="s">
+        <v>828</v>
+      </c>
+      <c r="E411" s="2" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="412" customFormat="false" ht="45.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A412" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B412" s="17" t="s">
+        <v>829</v>
+      </c>
+      <c r="C412" s="2" t="s">
+        <v>830</v>
+      </c>
+      <c r="E412" s="2" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="413" customFormat="false" ht="45.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A413" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B413" s="17" t="s">
+        <v>831</v>
+      </c>
+      <c r="C413" s="17" t="s">
+        <v>832</v>
+      </c>
+      <c r="E413" s="2" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="414" customFormat="false" ht="45.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A414" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B414" s="17" t="s">
+        <v>833</v>
+      </c>
+      <c r="C414" s="17" t="s">
+        <v>834</v>
+      </c>
+      <c r="E414" s="2" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="415" customFormat="false" ht="45.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A415" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B415" s="17" t="s">
+        <v>835</v>
+      </c>
+      <c r="C415" s="17" t="s">
+        <v>836</v>
+      </c>
+      <c r="E415" s="2" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="416" customFormat="false" ht="45.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A416" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B416" s="17" t="s">
+        <v>837</v>
+      </c>
+      <c r="C416" s="17" t="s">
+        <v>838</v>
+      </c>
+      <c r="E416" s="2" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="417" customFormat="false" ht="45.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A417" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B417" s="17" t="s">
+        <v>839</v>
+      </c>
+      <c r="C417" s="17" t="s">
+        <v>840</v>
+      </c>
+      <c r="E417" s="2" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="418" customFormat="false" ht="57.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A418" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B418" s="17" t="s">
+        <v>841</v>
+      </c>
+      <c r="C418" s="17" t="s">
+        <v>842</v>
+      </c>
+      <c r="E418" s="2" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="419" customFormat="false" ht="45.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A419" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B419" s="17" t="s">
+        <v>843</v>
+      </c>
+      <c r="C419" s="17" t="s">
+        <v>844</v>
+      </c>
+      <c r="E419" s="2" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="420" customFormat="false" ht="45.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A420" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B420" s="17" t="s">
+        <v>845</v>
+      </c>
+      <c r="C420" s="17" t="s">
+        <v>846</v>
+      </c>
+      <c r="E420" s="2" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="421" customFormat="false" ht="45.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A421" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B421" s="17" t="s">
+        <v>847</v>
+      </c>
+      <c r="C421" s="2" t="s">
+        <v>848</v>
+      </c>
+      <c r="E421" s="2" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="422" customFormat="false" ht="45.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A422" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B422" s="18" t="s">
+        <v>849</v>
+      </c>
+      <c r="C422" s="17" t="s">
+        <v>850</v>
+      </c>
+      <c r="E422" s="2" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="423" customFormat="false" ht="45.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A423" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B423" s="17" t="s">
+        <v>851</v>
+      </c>
+      <c r="C423" s="17" t="s">
+        <v>852</v>
+      </c>
+      <c r="E423" s="2" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="424" customFormat="false" ht="35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A424" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B424" s="17" t="s">
+        <v>853</v>
+      </c>
+      <c r="C424" s="17" t="s">
+        <v>854</v>
+      </c>
+      <c r="E424" s="2" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="425" customFormat="false" ht="35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A425" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B425" s="17" t="s">
+        <v>855</v>
+      </c>
+      <c r="C425" s="17" t="s">
+        <v>856</v>
+      </c>
+      <c r="E425" s="2" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="426" customFormat="false" ht="57.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A426" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B426" s="17" t="s">
+        <v>857</v>
+      </c>
+      <c r="C426" s="17" t="s">
+        <v>858</v>
+      </c>
+      <c r="E426" s="2" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="427" customFormat="false" ht="45.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A427" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B427" s="17" t="s">
+        <v>859</v>
+      </c>
+      <c r="C427" s="17" t="s">
+        <v>860</v>
+      </c>
+      <c r="E427" s="2" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="428" customFormat="false" ht="68.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A428" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B428" s="17" t="s">
+        <v>861</v>
+      </c>
+      <c r="C428" s="17" t="s">
+        <v>862</v>
+      </c>
+      <c r="E428" s="2" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="429" customFormat="false" ht="35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A429" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B429" s="17" t="s">
+        <v>863</v>
+      </c>
+      <c r="C429" s="18" t="s">
+        <v>864</v>
+      </c>
+      <c r="E429" s="2" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="430" customFormat="false" ht="57.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A430" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B430" s="17" t="s">
+        <v>865</v>
+      </c>
+      <c r="C430" s="17" t="s">
+        <v>866</v>
+      </c>
+      <c r="E430" s="2" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="431" customFormat="false" ht="55.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A431" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B431" s="17" t="s">
+        <v>867</v>
+      </c>
+      <c r="C431" s="17" t="s">
+        <v>868</v>
+      </c>
+      <c r="E431" s="2" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="432" customFormat="false" ht="45.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A432" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B432" s="17" t="s">
+        <v>869</v>
+      </c>
+      <c r="C432" s="17" t="s">
+        <v>870</v>
+      </c>
+      <c r="E432" s="2" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="433" customFormat="false" ht="45.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A433" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B433" s="17" t="s">
+        <v>871</v>
+      </c>
+      <c r="C433" s="17" t="s">
+        <v>872</v>
+      </c>
+      <c r="E433" s="2" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="434" customFormat="false" ht="57.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A434" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B434" s="17" t="s">
+        <v>873</v>
+      </c>
+      <c r="C434" s="17" t="s">
+        <v>874</v>
+      </c>
+      <c r="E434" s="2" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="435" customFormat="false" ht="45.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A435" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B435" s="17" t="s">
+        <v>875</v>
+      </c>
+      <c r="C435" s="17" t="s">
+        <v>876</v>
+      </c>
+      <c r="E435" s="2" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="436" customFormat="false" ht="35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A436" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B436" s="17" t="s">
+        <v>877</v>
+      </c>
+      <c r="C436" s="17" t="s">
+        <v>878</v>
+      </c>
+      <c r="E436" s="2" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="437" customFormat="false" ht="68.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A437" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B437" s="17" t="s">
+        <v>879</v>
+      </c>
+      <c r="C437" s="17" t="s">
+        <v>880</v>
+      </c>
+      <c r="E437" s="2" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="438" customFormat="false" ht="57.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A438" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B438" s="17" t="s">
+        <v>881</v>
+      </c>
+      <c r="C438" s="17" t="s">
+        <v>882</v>
+      </c>
+      <c r="E438" s="2" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="439" customFormat="false" ht="57.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A439" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B439" s="17" t="s">
+        <v>883</v>
+      </c>
+      <c r="C439" s="17" t="s">
+        <v>884</v>
+      </c>
+      <c r="E439" s="2" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="440" customFormat="false" ht="45.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A440" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B440" s="17" t="s">
+        <v>885</v>
+      </c>
+      <c r="C440" s="17" t="s">
+        <v>886</v>
+      </c>
+      <c r="E440" s="2" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="441" customFormat="false" ht="68.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A441" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B441" s="17" t="s">
+        <v>887</v>
+      </c>
+      <c r="C441" s="17" t="s">
+        <v>888</v>
+      </c>
+      <c r="E441" s="2" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="442" customFormat="false" ht="45.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A442" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B442" s="17" t="s">
+        <v>889</v>
+      </c>
+      <c r="C442" s="17" t="s">
+        <v>890</v>
+      </c>
+      <c r="E442" s="2" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="443" customFormat="false" ht="45.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A443" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B443" s="17" t="s">
+        <v>891</v>
+      </c>
+      <c r="C443" s="17" t="s">
+        <v>892</v>
+      </c>
+      <c r="E443" s="2" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="444" customFormat="false" ht="57.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A444" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B444" s="17" t="s">
+        <v>893</v>
+      </c>
+      <c r="C444" s="17" t="s">
+        <v>894</v>
+      </c>
+      <c r="E444" s="2" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="445" customFormat="false" ht="57.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A445" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B445" s="17" t="s">
+        <v>895</v>
+      </c>
+      <c r="C445" s="17" t="s">
+        <v>896</v>
+      </c>
+      <c r="E445" s="2" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="446" customFormat="false" ht="45.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A446" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B446" s="17" t="s">
+        <v>897</v>
+      </c>
+      <c r="C446" s="17" t="s">
+        <v>898</v>
+      </c>
+      <c r="E446" s="2" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="447" customFormat="false" ht="45.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A447" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B447" s="17" t="s">
+        <v>899</v>
+      </c>
+      <c r="C447" s="17" t="s">
+        <v>900</v>
+      </c>
+      <c r="E447" s="2" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="448" customFormat="false" ht="45.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A448" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B448" s="17" t="s">
+        <v>901</v>
+      </c>
+      <c r="C448" s="17" t="s">
+        <v>902</v>
+      </c>
+      <c r="E448" s="2" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="449" customFormat="false" ht="45.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A449" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B449" s="17" t="s">
+        <v>903</v>
+      </c>
+      <c r="C449" s="17" t="s">
+        <v>904</v>
+      </c>
+      <c r="E449" s="2" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="450" customFormat="false" ht="45.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A450" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B450" s="17" t="s">
+        <v>905</v>
+      </c>
+      <c r="C450" s="17" t="s">
+        <v>906</v>
+      </c>
+      <c r="E450" s="2" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="451" customFormat="false" ht="57.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A451" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B451" s="17" t="s">
+        <v>907</v>
+      </c>
+      <c r="C451" s="17" t="s">
+        <v>908</v>
+      </c>
+      <c r="E451" s="2" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="452" customFormat="false" ht="45.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A452" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B452" s="17" t="s">
+        <v>909</v>
+      </c>
+      <c r="C452" s="17" t="s">
+        <v>910</v>
+      </c>
+      <c r="E452" s="2" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="453" customFormat="false" ht="45.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A453" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B453" s="17" t="s">
+        <v>911</v>
+      </c>
+      <c r="C453" s="17" t="s">
+        <v>912</v>
+      </c>
+      <c r="E453" s="2" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="454" customFormat="false" ht="57.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A454" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B454" s="17" t="s">
+        <v>913</v>
+      </c>
+      <c r="C454" s="17" t="s">
+        <v>914</v>
+      </c>
+      <c r="E454" s="2" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="455" customFormat="false" ht="57.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A455" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B455" s="17" t="s">
+        <v>915</v>
+      </c>
+      <c r="C455" s="17" t="s">
+        <v>916</v>
+      </c>
+      <c r="E455" s="2" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="456" customFormat="false" ht="23.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A456" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B456" s="17" t="s">
+        <v>917</v>
+      </c>
+      <c r="C456" s="17" t="s">
+        <v>918</v>
+      </c>
+      <c r="E456" s="2" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="457" customFormat="false" ht="57.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A457" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B457" s="17" t="s">
+        <v>919</v>
+      </c>
+      <c r="C457" s="17" t="s">
+        <v>920</v>
+      </c>
+      <c r="E457" s="2" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="458" customFormat="false" ht="45.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A458" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B458" s="17" t="s">
+        <v>921</v>
+      </c>
+      <c r="C458" s="17" t="s">
+        <v>922</v>
+      </c>
+      <c r="E458" s="2" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="459" customFormat="false" ht="57.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A459" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B459" s="17" t="s">
+        <v>923</v>
+      </c>
+      <c r="C459" s="17" t="s">
+        <v>924</v>
+      </c>
+      <c r="E459" s="2" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="460" customFormat="false" ht="79.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A460" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B460" s="17" t="s">
+        <v>925</v>
+      </c>
+      <c r="C460" s="17" t="s">
+        <v>926</v>
+      </c>
+      <c r="E460" s="2" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="461" customFormat="false" ht="45.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A461" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B461" s="17" t="s">
+        <v>927</v>
+      </c>
+      <c r="C461" s="17" t="s">
+        <v>928</v>
+      </c>
+      <c r="E461" s="2" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="462" customFormat="false" ht="44.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A462" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B462" s="18" t="s">
+        <v>929</v>
+      </c>
+      <c r="C462" s="17" t="s">
+        <v>930</v>
+      </c>
+      <c r="E462" s="2" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="463" customFormat="false" ht="35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A463" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B463" s="17" t="s">
+        <v>931</v>
+      </c>
+      <c r="C463" s="17" t="s">
+        <v>932</v>
+      </c>
+      <c r="E463" s="2" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="464" customFormat="false" ht="57.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A464" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B464" s="17" t="s">
+        <v>933</v>
+      </c>
+      <c r="C464" s="17" t="s">
+        <v>934</v>
+      </c>
+      <c r="E464" s="2" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="465" customFormat="false" ht="45.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A465" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B465" s="17" t="s">
+        <v>935</v>
+      </c>
+      <c r="C465" s="17" t="s">
+        <v>936</v>
+      </c>
+      <c r="E465" s="2" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="466" customFormat="false" ht="35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A466" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B466" s="17" t="s">
+        <v>937</v>
+      </c>
+      <c r="C466" s="17" t="s">
+        <v>938</v>
+      </c>
+      <c r="E466" s="2" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="467" customFormat="false" ht="57.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A467" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B467" s="17" t="s">
+        <v>939</v>
+      </c>
+      <c r="C467" s="17" t="s">
+        <v>940</v>
+      </c>
+      <c r="E467" s="2" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="468" customFormat="false" ht="57.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A468" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B468" s="17" t="s">
+        <v>941</v>
+      </c>
+      <c r="C468" s="18" t="s">
+        <v>942</v>
+      </c>
+      <c r="E468" s="2" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="469" customFormat="false" ht="95.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A469" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B469" s="18" t="s">
+        <v>943</v>
+      </c>
+      <c r="C469" s="17" t="s">
+        <v>944</v>
+      </c>
+      <c r="E469" s="2" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="470" customFormat="false" ht="57.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A470" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B470" s="17" t="s">
+        <v>945</v>
+      </c>
+      <c r="C470" s="17" t="s">
+        <v>946</v>
+      </c>
+      <c r="E470" s="2" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="471" customFormat="false" ht="57.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A471" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B471" s="17" t="s">
+        <v>947</v>
+      </c>
+      <c r="C471" s="17" t="s">
+        <v>948</v>
+      </c>
+      <c r="E471" s="2" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="472" customFormat="false" ht="57.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A472" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B472" s="17" t="s">
+        <v>949</v>
+      </c>
+      <c r="C472" s="17" t="s">
+        <v>950</v>
+      </c>
+      <c r="E472" s="2" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="473" customFormat="false" ht="57.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A473" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B473" s="17" t="s">
+        <v>951</v>
+      </c>
+      <c r="C473" s="17" t="s">
+        <v>952</v>
+      </c>
+      <c r="E473" s="2" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="474" customFormat="false" ht="33.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A474" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B474" s="17" t="s">
+        <v>953</v>
+      </c>
+      <c r="C474" s="17" t="s">
+        <v>954</v>
+      </c>
+      <c r="E474" s="2" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="475" customFormat="false" ht="35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A475" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B475" s="17" t="s">
+        <v>955</v>
+      </c>
+      <c r="C475" s="17" t="s">
+        <v>956</v>
+      </c>
+      <c r="E475" s="2" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="476" customFormat="false" ht="45.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A476" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B476" s="17" t="s">
+        <v>957</v>
+      </c>
+      <c r="C476" s="17" t="s">
+        <v>958</v>
+      </c>
+      <c r="E476" s="2" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="477" customFormat="false" ht="45.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A477" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B477" s="17" t="s">
+        <v>959</v>
+      </c>
+      <c r="C477" s="2" t="s">
+        <v>960</v>
+      </c>
+      <c r="E477" s="2" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="478" customFormat="false" ht="45.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A478" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B478" s="17" t="s">
+        <v>961</v>
+      </c>
+      <c r="C478" s="2" t="s">
+        <v>962</v>
+      </c>
+      <c r="E478" s="2" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="479" customFormat="false" ht="45.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A479" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B479" s="17" t="s">
+        <v>963</v>
+      </c>
+      <c r="C479" s="17" t="s">
+        <v>964</v>
+      </c>
+      <c r="E479" s="2" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="480" customFormat="false" ht="35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A480" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B480" s="17" t="s">
+        <v>965</v>
+      </c>
+      <c r="C480" s="17" t="s">
+        <v>966</v>
+      </c>
+      <c r="E480" s="2" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="481" customFormat="false" ht="45.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A481" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B481" s="17" t="s">
+        <v>967</v>
+      </c>
+      <c r="C481" s="17" t="s">
+        <v>968</v>
+      </c>
+      <c r="E481" s="2" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="482" customFormat="false" ht="57.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A482" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B482" s="17" t="s">
+        <v>969</v>
+      </c>
+      <c r="C482" s="17" t="s">
+        <v>970</v>
+      </c>
+      <c r="E482" s="2" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="483" customFormat="false" ht="45.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A483" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B483" s="17" t="s">
+        <v>971</v>
+      </c>
+      <c r="C483" s="17" t="s">
+        <v>972</v>
+      </c>
+      <c r="E483" s="2" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="484" customFormat="false" ht="57.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A484" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B484" s="17" t="s">
+        <v>973</v>
+      </c>
+      <c r="C484" s="17" t="s">
+        <v>974</v>
+      </c>
+      <c r="E484" s="2" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="485" customFormat="false" ht="45.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A485" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B485" s="17" t="s">
+        <v>975</v>
+      </c>
+      <c r="C485" s="17" t="s">
+        <v>976</v>
+      </c>
+      <c r="E485" s="2" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="486" customFormat="false" ht="57.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A486" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B486" s="17" t="s">
+        <v>977</v>
+      </c>
+      <c r="C486" s="17" t="s">
+        <v>978</v>
+      </c>
+      <c r="E486" s="2" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="487" customFormat="false" ht="35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A487" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B487" s="17" t="s">
+        <v>979</v>
+      </c>
+      <c r="C487" s="17" t="s">
+        <v>980</v>
+      </c>
+      <c r="E487" s="2" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="488" customFormat="false" ht="57.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A488" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B488" s="17" t="s">
+        <v>981</v>
+      </c>
+      <c r="C488" s="17" t="s">
+        <v>982</v>
+      </c>
+      <c r="E488" s="2" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="489" customFormat="false" ht="68.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A489" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B489" s="18" t="s">
+        <v>983</v>
+      </c>
+      <c r="C489" s="17" t="s">
+        <v>984</v>
+      </c>
+      <c r="E489" s="2" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="490" customFormat="false" ht="45.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A490" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B490" s="17" t="s">
+        <v>985</v>
+      </c>
+      <c r="C490" s="17" t="s">
+        <v>986</v>
+      </c>
+      <c r="E490" s="2" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="491" customFormat="false" ht="45.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A491" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B491" s="17" t="s">
+        <v>987</v>
+      </c>
+      <c r="C491" s="17" t="s">
+        <v>988</v>
+      </c>
+      <c r="E491" s="2" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="492" customFormat="false" ht="57.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A492" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B492" s="17" t="s">
+        <v>989</v>
+      </c>
+      <c r="C492" s="17" t="s">
+        <v>990</v>
+      </c>
+      <c r="E492" s="2" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="493" customFormat="false" ht="57.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A493" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B493" s="17" t="s">
+        <v>991</v>
+      </c>
+      <c r="C493" s="17" t="s">
+        <v>992</v>
+      </c>
+      <c r="E493" s="2" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="494" customFormat="false" ht="45.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A494" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B494" s="17" t="s">
+        <v>993</v>
+      </c>
+      <c r="C494" s="17" t="s">
+        <v>994</v>
+      </c>
+      <c r="E494" s="2" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="495" customFormat="false" ht="35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A495" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B495" s="17" t="s">
+        <v>995</v>
+      </c>
+      <c r="C495" s="17" t="s">
+        <v>996</v>
+      </c>
+      <c r="E495" s="2" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="496" customFormat="false" ht="45.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A496" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B496" s="17" t="s">
+        <v>997</v>
+      </c>
+      <c r="C496" s="17" t="s">
+        <v>998</v>
+      </c>
+      <c r="E496" s="2" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="497" customFormat="false" ht="68.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A497" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B497" s="17" t="s">
+        <v>999</v>
+      </c>
+      <c r="C497" s="17" t="s">
+        <v>1000</v>
+      </c>
+      <c r="E497" s="2" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="498" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <autoFilter ref="A1:E369"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/backend/django_cemos2028/apps/perguntas/fixtures/flashcards.xlsx
+++ b/backend/django_cemos2028/apps/perguntas/fixtures/flashcards.xlsx
@@ -4537,8 +4537,8 @@
   </sheetPr>
   <dimension ref="A1:F1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F3" activeCellId="0" sqref="F3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A156" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B160" activeCellId="0" sqref="B160"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.60546875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/backend/django_cemos2028/apps/perguntas/fixtures/flashcards.xlsx
+++ b/backend/django_cemos2028/apps/perguntas/fixtures/flashcards.xlsx
@@ -9,9 +9,10 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Planilha2" sheetId="2" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Sheet1!$A$1:$F$682</definedName>
+    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Sheet1!$A$1:$F$681</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -23,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2050" uniqueCount="1376">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2173" uniqueCount="1460">
   <si>
     <t xml:space="preserve">bibliografia_id</t>
   </si>
@@ -1061,46 +1062,10 @@
     <t xml:space="preserve">No livro "Leis do Crescimento Territorial dos Estados".</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">O fato histórico está sempre relacionado a dois fatores: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> _____ e  _____.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">‘</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">espaço’ e ‘tempo’</t>
-    </r>
+    <t xml:space="preserve">O fato histórico está sempre relacionado a dois fatores:  _____ e  _____.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‘espaço’ e ‘tempo’</t>
   </si>
   <si>
     <t xml:space="preserve">Qual é a primeira das "Sete Leis do Expansionismo" de Ratzel?</t>
@@ -1505,35 +1470,7 @@
     <t xml:space="preserve">No respeito aos princípios de soberania nacional e autodeterminação dos povos.</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">O “Desaparecimento da grande ameaça bélica, mas multiplicação dos conflitos armados” e o “desarmamento nuclear e químico, mas proliferação atómica e balística” e “</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">hegemonia norte-americana, mas multipolarização do planeta”</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve"> segundo Pascal Boniface são características de qual fenômeno?</t>
-    </r>
+    <t xml:space="preserve">O “Desaparecimento da grande ameaça bélica, mas multiplicação dos conflitos armados” e o “desarmamento nuclear e químico, mas proliferação atómica e balística” e “hegemonia norte-americana, mas multipolarização do planeta” segundo Pascal Boniface são características de qual fenômeno?</t>
   </si>
   <si>
     <t xml:space="preserve">Fenômeno de Transição e as principais características desse
@@ -1866,54 +1803,7 @@
     <t xml:space="preserve">Volatizou o fator tempo.</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Segundo Milton Santos, “O território hoje pode ser formado de </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">_____</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve"> e de </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">_____.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">”</t>
-    </r>
+    <t xml:space="preserve">Segundo Milton Santos, “O território hoje pode ser formado de _____ e de _____.”</t>
   </si>
   <si>
     <t xml:space="preserve">'lugares contíguos’ e de ‘lugares em rede’</t>
@@ -2300,26 +2190,8 @@
     <t xml:space="preserve">Porque muitas ONGs passaram a apresentar comportamentos semelhantes aos de outros atores políticos e econômicos, agindo com menos altruísmo, priorizando seus próprios interesses e ganhos financeiros em vez de metas sociais, o que coloca em dúvida sua legitimidade e compromisso democrático.</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Após dez anos de instabilidade
-política e económica, agora, sob a liderança do Presidente Putin, a Federação Russa anuncia sua nova estratégia </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">_____.</t>
-    </r>
+    <t xml:space="preserve">Após dez anos de instabilidade
+política e económica, agora, sob a liderança do Presidente Putin, a Federação Russa anuncia sua nova estratégia _____.</t>
   </si>
   <si>
     <t xml:space="preserve">Para Dmitri Trenin, qual cidade russa deveria ser considerada sua 'capital do século XXI' para se integrar à região de maior dinamismo econômico do mundo?</t>
@@ -2412,19 +2284,13 @@
     <t xml:space="preserve">Foi devastado pelos mongóis do século XIII.</t>
   </si>
   <si>
-    <t xml:space="preserve">Segundo o Embaixador Meira Penna, qual tratado já havia traçado as grandes servidões da geopolítica brasileira em 1494?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">O Tratado de Tordesilhas.</t>
+    <t xml:space="preserve">Quem, em 1587, fez a mais antiga visão prospectiva sobre o futuro do Brasil, prevendo que nele se poderia edificar "hum grande Imperio"?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O historiador português Gabriel Soares de Sousa.</t>
   </si>
   <si>
     <t xml:space="preserve">Geopolítica-BR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Quem, em 1587, fez a mais antiga visão prospectiva sobre o futuro do Brasil, prevendo que nele se poderia edificar "hum grande Imperio"?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">O historiador português Gabriel Soares de Sousa.</t>
   </si>
   <si>
     <t xml:space="preserve">Qual era a principal preocupação de José Bonifácio em seu documento "Lembranças e Apontamentos"?</t>
@@ -4408,6 +4274,264 @@
   <si>
     <t xml:space="preserve">“Lugares em Rede”</t>
   </si>
+  <si>
+    <t xml:space="preserve">Segundo Meira Penna, qual tratado esboçou a visão estrutural da geopolítica brasileira na época colonial?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O Tratado de Tordesilhas.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Predecessores</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Qual historiador seiscentista, ao chegar ao Brasil, traduziu seu deslumbramento na ideia de que o país "será um dos estados do Mundo"?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gabriel Soares de Sousa (1578).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Qual diplomata brasileiro a serviço de Portugal conseguiu legitimar as conquistas dos bandeirantes no Tratado de Madri (1750)?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Um ano antes da Independência, quem preconizou a interiorização da capital e a criação de um sistema de transportes convergente para ela?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">José Bonifácio de Andrada e Silva.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Qual era o principal objetivo de José Bonifácio ao propor a interiorização da capital e um novo sistema de transportes?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A integração territorial do Brasil.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nas décadas de 1910 e 1920, que pensador brasileiro debateu a necessidade do governo ajustar sua política às realidades geográficas do País?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alberto Torres.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Que pensador, atuante nas décadas de 1920 a 1940, continuou o debate sobre a necessidade de ajustar a política às realidades geográficas do Brasil?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oliveira Vianna.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Qual era o principal objetivo dos projetos geopolíticos propostos por Mario Travassos em sua obra?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Elevar o Brasil à posição de primeira potência do subcontinente austral.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mario Travassos propôs uma política de transportes para contrariar a atração natural de qual bacia hidrográfica sobre as regiões interiores do Brasil?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A bacia hidrográfica do Prata, que converge para Buenos Aires.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O que Mario Travassos propôs que hoje é conhecido como "corredores de exportação"?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Uma política de transportes para carrear para os portos sulinos do Brasil o interesse econômico do território platino brasileiro.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Além dos corredores de exportação, o que mais Mario Travassos idealizou para a articulação dos transportes sul-americanos?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conexões Atlântico-Pacífico pela transposição da Cordilheira dos Andes nos "nudos" (regiões de abaixamento).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Que modo de transporte Mario Travassos anteviu como importante para longas distâncias e sistemas intermodais?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A aviação.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O Professor Backheuser operou sobre um Brasil de qual época e com qual característica principal?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Décadas de 1930 e 1940, um "gigante desconjuntado".</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Qual era a fraqueza mais inquietante do Brasil apontada por Backheuser?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O quase abandono da imensa fronteira continental, com vigilância precária.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Qual foi a proposta geopolítica de Backheuser para fortalecer as áreas lindeiras do Brasil?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A criação de territórios federais.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Como Lysias Rodrigues avançou na proposta de Travassos sobre a aviação?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ele viu o emprego da aviação como forma de aliviar o isolamento da Amazônia e da região Oeste.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Qual era o principal objetivo da obra "Marcha para o Oeste" de Cassiano Ricardo?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Revigorar o espírito nacional para a necessidade de interiorização e desbravamento dos sertões e florestas.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">As ideias de Golbery do Couto e Silva vêm sendo atendidas pela política governamental, como exemplificado pelo projeto ____.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Avança Brasil</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Além de Gabriel Soares de Souza, quais outras duas figuras históricas repetiram a visão do Brasil como um 'Império'?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Marquês de Pombal e o diplomata Alexandre de Gusmão.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Síntese-BR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Qual geopolítico brasileiro moderno repetiu a visão de 'Império', no sentido de 'vasta extensão para governar'?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Golbery do Couto e Silva.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A preocupação com uma estratégia no Atlântico Sul conduziu a política brasileira a se interessar por qual continente?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pela Antártica, devido à sua posição no extremo austral da bacia atlântica.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Segundo o economista Mário Henrique Simonsen, qual foi o período em que o Brasil deu seu 'grande salto' em desenvolvimento?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O período de 1964-84.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Qual era a posição do Brasil no PIB mundial em 1964 e qual passou a ser em 1984, segundo o artigo de Mário Henrique Simonsen?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O Brasil passou da 48ª posição no PIB mundial em 1964 para a 8ª posição em 1984.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Qual foi a taxa média de crescimento anual do Brasil durante o período de 1964-84?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O Brasil cresceu, em média anual, 6,6%.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Qual ferrovia, projetada no Governo Sarney, visava ligar o sistema ferroviário de Carajás ao sistema sul em Anápolis (GO)?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A Ferro-Norte.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Qual programa do Governo Sarney foi elaborado para conter a campanha ambientalista internacional contrária aos projetos na Amazônia?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O Programa Nossa Natureza.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cite três das cinco principais diretrizes estratégicas propostas pelos geopolíticos brasileiros, conforme resumidas no texto.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Interiorização; 2. Integração Territorial; 3. Fortalecimento no Atlântico Sul; 4. Desenvolvimento Econômico e Social; 5. Segurança Externa e Interna.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Segundo o autor, para se livrar dos pesados encargos do frete pago em moeda estrangeira, o Brasil precisa implantar uma política de _____ do transporte marítimo.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nacionalização.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Em agosto de 2000, ocorreu um encontro em Brasília que reuniu pela primeira vez os presidentes de quantos países sul-americanos?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reuniu os 12 presidentes dos países sul-americanos.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Uma força militar de dissuasão na Amazônia deve possuir completa _____, ou seja, ter toda a sua necessidade logística garantida pela indústria nacional.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">autonomia estratégica</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Qual rodovia internacional teve sua conclusão acelerada por um acordo entre os presidentes José Sarney e Carlos Andrés Perez?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A rodovia internacional Boa Vista-Caracas.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Qual meio de transporte foi o elo de preservação da unidade nacional ao levar socorro às populações mais longínquas?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A aviação, através do Correio Aéreo Nacional (CAN).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Os 12 eixos do programa 'Avança Brasil' respondem a antigos anseios geopolíticos, como interiorização, integração e criação de _____.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">corredores de exportação</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O Projeto Calha Norte previa a ocupação da área por unidades de ministérios civis. Qual foi o resultado dessa previsão?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Não foi possível efetivar a participação dos ministérios civis; somente as Forças Armadas cumpriram seus compromissos.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RI-BR-Futuro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O que se impõe para a indústria naval brasileira, segundo o autor, a fim de diminuir os encargos com fretes pagos em moeda estrangeira?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Revitalizar a indústria naval e implantar uma política de nacionalização do transporte marítimo.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Qual foi o papel histórico do Correio Aéreo Nacional (CAN) na integração do Brasil?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Levou socorro às populações mais longínquas e foi o elo de preservação da unidade nacional.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O texto cita o programa "Avança Brasil" (1998) como um conjunto de projetos de infraestrutura a serem complementados. Cite 5 eixos de desenvolvimento ele continha?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(1) Saída Norte para o Caribe / (2) Saída para o Atlântico Norte-hidrovia Madeira-Amazonas / (3) Araguaia-Tocantins - Norte-Sul e Carajás / (4) Costeiro Nordeste / (5) Rio São Francisco / (6) Transnordestino / (7) Oeste / (8) Centro Leste / (9) Eixo São Paulo/ (10) Costeiro Sul / (11) Franja Fronteira / (12) hidrovia Paraná-Paraguai</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Qual eixo do programa "Avança Brasil" visava a integração com a região do Caribe?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O Eixo de Saída Norte para o Caribe.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O que o texto afirma sobre o programa energético brasileiro a partir da década de 1980?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Que o programa, lançado na década de 1970, foi interrompido, levando à ameaça de uma crise energética.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Segundo o texto, pressões internacionais levaram governos passados a cometer fraquezas em relação a quais duas questões soberanas?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A renúncia à plenitude do uso da energia nuclear e a aceitação de ingerência externa na delimitação de terras indígenas.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Para o autor, a modernidade e a tecnologia vieram aumentar a capacidade do _____, tornando mais ágil o uso do território.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">homo operandi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Em um planeta "apequenado", qual ferramenta de Estado assume relevância excepcional para a preservação dos interesses nacionais?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A Diplomacia.</t>
+  </si>
 </sst>
 </file>
 
@@ -4416,7 +4540,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -4446,12 +4570,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -4523,7 +4641,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -4552,19 +4670,15 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -4613,13 +4727,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F683"/>
+  <dimension ref="A1:F1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A229" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C238" activeCellId="0" sqref="C238"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A712" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A721" activeCellId="0" sqref="A721:A724"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.61328125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="16.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="57.23"/>
@@ -7403,7 +7517,7 @@
       <c r="B169" s="2" t="s">
         <v>343</v>
       </c>
-      <c r="C169" s="7" t="s">
+      <c r="C169" s="6" t="s">
         <v>344</v>
       </c>
       <c r="D169" s="1"/>
@@ -9367,7 +9481,7 @@
       <c r="B291" s="2" t="s">
         <v>588</v>
       </c>
-      <c r="C291" s="7" t="s">
+      <c r="C291" s="6" t="s">
         <v>589</v>
       </c>
       <c r="D291" s="1"/>
@@ -9616,7 +9730,7 @@
       </c>
       <c r="D306" s="1"/>
       <c r="E306" s="1"/>
-      <c r="F306" s="8" t="s">
+      <c r="F306" s="7" t="s">
         <v>427</v>
       </c>
     </row>
@@ -10696,7 +10810,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="371" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="371" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A371" s="1" t="n">
         <v>1</v>
       </c>
@@ -10712,7 +10826,7 @@
         <v>749</v>
       </c>
     </row>
-    <row r="372" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="372" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A372" s="1" t="n">
         <v>1</v>
       </c>
@@ -10760,7 +10874,7 @@
         <v>749</v>
       </c>
     </row>
-    <row r="375" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="375" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A375" s="1" t="n">
         <v>1</v>
       </c>
@@ -10792,7 +10906,7 @@
         <v>749</v>
       </c>
     </row>
-    <row r="377" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="377" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A377" s="1" t="n">
         <v>1</v>
       </c>
@@ -10808,7 +10922,7 @@
         <v>749</v>
       </c>
     </row>
-    <row r="378" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="378" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A378" s="1" t="n">
         <v>1</v>
       </c>
@@ -10834,13 +10948,17 @@
       <c r="C379" s="2" t="s">
         <v>765</v>
       </c>
-      <c r="D379" s="1"/>
-      <c r="E379" s="1"/>
+      <c r="D379" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E379" s="1" t="n">
+        <v>2021</v>
+      </c>
       <c r="F379" s="1" t="s">
         <v>749</v>
       </c>
     </row>
-    <row r="380" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="380" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A380" s="1" t="n">
         <v>1</v>
       </c>
@@ -10854,13 +10972,13 @@
         <v>1</v>
       </c>
       <c r="E380" s="1" t="n">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="F380" s="1" t="s">
         <v>749</v>
       </c>
     </row>
-    <row r="381" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="381" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A381" s="1" t="n">
         <v>1</v>
       </c>
@@ -10874,13 +10992,13 @@
         <v>1</v>
       </c>
       <c r="E381" s="1" t="n">
-        <v>2020</v>
+        <v>2022</v>
       </c>
       <c r="F381" s="1" t="s">
         <v>749</v>
       </c>
     </row>
-    <row r="382" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="382" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A382" s="1" t="n">
         <v>1</v>
       </c>
@@ -10894,13 +11012,13 @@
         <v>1</v>
       </c>
       <c r="E382" s="1" t="n">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="F382" s="1" t="s">
         <v>749</v>
       </c>
     </row>
-    <row r="383" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="383" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A383" s="1" t="n">
         <v>1</v>
       </c>
@@ -10914,13 +11032,13 @@
         <v>1</v>
       </c>
       <c r="E383" s="1" t="n">
-        <v>2021</v>
+        <v>2019</v>
       </c>
       <c r="F383" s="1" t="s">
         <v>749</v>
       </c>
     </row>
-    <row r="384" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="384" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A384" s="1" t="n">
         <v>1</v>
       </c>
@@ -10950,17 +11068,13 @@
       <c r="C385" s="2" t="s">
         <v>777</v>
       </c>
-      <c r="D385" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="E385" s="1" t="n">
-        <v>2019</v>
-      </c>
+      <c r="D385" s="1"/>
+      <c r="E385" s="1"/>
       <c r="F385" s="1" t="s">
         <v>749</v>
       </c>
     </row>
-    <row r="386" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="386" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A386" s="1" t="n">
         <v>1</v>
       </c>
@@ -10976,7 +11090,7 @@
         <v>749</v>
       </c>
     </row>
-    <row r="387" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="387" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A387" s="1" t="n">
         <v>1</v>
       </c>
@@ -10986,13 +11100,17 @@
       <c r="C387" s="2" t="s">
         <v>781</v>
       </c>
-      <c r="D387" s="1"/>
-      <c r="E387" s="1"/>
+      <c r="D387" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E387" s="1" t="n">
+        <v>2019</v>
+      </c>
       <c r="F387" s="1" t="s">
         <v>749</v>
       </c>
     </row>
-    <row r="388" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="388" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A388" s="1" t="n">
         <v>1</v>
       </c>
@@ -11002,17 +11120,13 @@
       <c r="C388" s="2" t="s">
         <v>783</v>
       </c>
-      <c r="D388" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="E388" s="1" t="n">
-        <v>2019</v>
-      </c>
+      <c r="D388" s="1"/>
+      <c r="E388" s="1"/>
       <c r="F388" s="1" t="s">
         <v>749</v>
       </c>
     </row>
-    <row r="389" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="389" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A389" s="1" t="n">
         <v>1</v>
       </c>
@@ -11028,7 +11142,7 @@
         <v>749</v>
       </c>
     </row>
-    <row r="390" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="390" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A390" s="1" t="n">
         <v>1</v>
       </c>
@@ -11044,7 +11158,7 @@
         <v>749</v>
       </c>
     </row>
-    <row r="391" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="391" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A391" s="1" t="n">
         <v>1</v>
       </c>
@@ -11054,13 +11168,17 @@
       <c r="C391" s="2" t="s">
         <v>789</v>
       </c>
-      <c r="D391" s="1"/>
-      <c r="E391" s="1"/>
+      <c r="D391" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E391" s="1" t="n">
+        <v>2020</v>
+      </c>
       <c r="F391" s="1" t="s">
         <v>749</v>
       </c>
     </row>
-    <row r="392" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="392" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A392" s="1" t="n">
         <v>1</v>
       </c>
@@ -11070,12 +11188,8 @@
       <c r="C392" s="2" t="s">
         <v>791</v>
       </c>
-      <c r="D392" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="E392" s="1" t="n">
-        <v>2020</v>
-      </c>
+      <c r="D392" s="1"/>
+      <c r="E392" s="1"/>
       <c r="F392" s="1" t="s">
         <v>749</v>
       </c>
@@ -11112,7 +11226,7 @@
         <v>749</v>
       </c>
     </row>
-    <row r="395" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="395" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A395" s="1" t="n">
         <v>1</v>
       </c>
@@ -11128,7 +11242,7 @@
         <v>749</v>
       </c>
     </row>
-    <row r="396" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="396" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A396" s="1" t="n">
         <v>1</v>
       </c>
@@ -11144,7 +11258,7 @@
         <v>749</v>
       </c>
     </row>
-    <row r="397" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="397" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A397" s="1" t="n">
         <v>1</v>
       </c>
@@ -11170,13 +11284,17 @@
       <c r="C398" s="2" t="s">
         <v>803</v>
       </c>
-      <c r="D398" s="1"/>
-      <c r="E398" s="1"/>
+      <c r="D398" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E398" s="1" t="n">
+        <v>2019</v>
+      </c>
       <c r="F398" s="1" t="s">
         <v>749</v>
       </c>
     </row>
-    <row r="399" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="399" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A399" s="1" t="n">
         <v>1</v>
       </c>
@@ -11186,17 +11304,13 @@
       <c r="C399" s="2" t="s">
         <v>805</v>
       </c>
-      <c r="D399" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="E399" s="1" t="n">
-        <v>2019</v>
-      </c>
+      <c r="D399" s="1"/>
+      <c r="E399" s="1"/>
       <c r="F399" s="1" t="s">
         <v>749</v>
       </c>
     </row>
-    <row r="400" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="400" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A400" s="1" t="n">
         <v>1</v>
       </c>
@@ -11206,13 +11320,17 @@
       <c r="C400" s="2" t="s">
         <v>807</v>
       </c>
-      <c r="D400" s="1"/>
-      <c r="E400" s="1"/>
+      <c r="D400" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E400" s="1" t="n">
+        <v>2022</v>
+      </c>
       <c r="F400" s="1" t="s">
         <v>749</v>
       </c>
     </row>
-    <row r="401" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="401" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A401" s="1" t="n">
         <v>1</v>
       </c>
@@ -11242,12 +11360,8 @@
       <c r="C402" s="2" t="s">
         <v>811</v>
       </c>
-      <c r="D402" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="E402" s="1" t="n">
-        <v>2022</v>
-      </c>
+      <c r="D402" s="1"/>
+      <c r="E402" s="1"/>
       <c r="F402" s="1" t="s">
         <v>749</v>
       </c>
@@ -11268,7 +11382,7 @@
         <v>749</v>
       </c>
     </row>
-    <row r="404" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="404" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A404" s="1" t="n">
         <v>1</v>
       </c>
@@ -11300,7 +11414,7 @@
         <v>749</v>
       </c>
     </row>
-    <row r="406" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="406" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A406" s="1" t="n">
         <v>1</v>
       </c>
@@ -11326,13 +11440,17 @@
       <c r="C407" s="2" t="s">
         <v>821</v>
       </c>
-      <c r="D407" s="1"/>
-      <c r="E407" s="1"/>
+      <c r="D407" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E407" s="1" t="n">
+        <v>2023</v>
+      </c>
       <c r="F407" s="1" t="s">
         <v>749</v>
       </c>
     </row>
-    <row r="408" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="408" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A408" s="1" t="n">
         <v>1</v>
       </c>
@@ -11342,17 +11460,13 @@
       <c r="C408" s="2" t="s">
         <v>823</v>
       </c>
-      <c r="D408" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="E408" s="1" t="n">
-        <v>2023</v>
-      </c>
+      <c r="D408" s="1"/>
+      <c r="E408" s="1"/>
       <c r="F408" s="1" t="s">
         <v>749</v>
       </c>
     </row>
-    <row r="409" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="409" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A409" s="1" t="n">
         <v>1</v>
       </c>
@@ -11368,9 +11482,9 @@
         <v>749</v>
       </c>
     </row>
-    <row r="410" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="410" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A410" s="1" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B410" s="2" t="s">
         <v>826</v>
@@ -11381,10 +11495,10 @@
       <c r="D410" s="1"/>
       <c r="E410" s="1"/>
       <c r="F410" s="1" t="s">
-        <v>749</v>
-      </c>
-    </row>
-    <row r="411" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="411" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A411" s="1" t="n">
         <v>4</v>
       </c>
@@ -11400,7 +11514,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="412" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="412" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A412" s="1" t="n">
         <v>4</v>
       </c>
@@ -11410,13 +11524,17 @@
       <c r="C412" s="2" t="s">
         <v>831</v>
       </c>
-      <c r="D412" s="1"/>
-      <c r="E412" s="1"/>
+      <c r="D412" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E412" s="1" t="n">
+        <v>2024</v>
+      </c>
       <c r="F412" s="1" t="s">
         <v>713</v>
       </c>
     </row>
-    <row r="413" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="413" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A413" s="1" t="n">
         <v>4</v>
       </c>
@@ -11436,7 +11554,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="414" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="414" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A414" s="1" t="n">
         <v>4</v>
       </c>
@@ -11452,9 +11570,7 @@
       <c r="E414" s="1" t="n">
         <v>2024</v>
       </c>
-      <c r="F414" s="1" t="s">
-        <v>713</v>
-      </c>
+      <c r="F414" s="1"/>
     </row>
     <row r="415" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A415" s="1" t="n">
@@ -11472,44 +11588,42 @@
       <c r="E415" s="1" t="n">
         <v>2024</v>
       </c>
-      <c r="F415" s="1"/>
-    </row>
-    <row r="416" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F415" s="1" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="416" customFormat="false" ht="47" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A416" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B416" s="2" t="s">
         <v>838</v>
       </c>
-      <c r="C416" s="2" t="s">
+      <c r="C416" s="8" t="s">
         <v>839</v>
       </c>
       <c r="D416" s="1" t="n">
         <v>1</v>
       </c>
       <c r="E416" s="1" t="n">
-        <v>2024</v>
+        <v>2020</v>
       </c>
       <c r="F416" s="1" t="s">
         <v>713</v>
       </c>
     </row>
-    <row r="417" customFormat="false" ht="47" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="417" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A417" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B417" s="2" t="s">
         <v>840</v>
       </c>
-      <c r="C417" s="9" t="s">
+      <c r="C417" s="2" t="s">
         <v>841</v>
       </c>
-      <c r="D417" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="E417" s="1" t="n">
-        <v>2020</v>
-      </c>
+      <c r="D417" s="1"/>
+      <c r="E417" s="1"/>
       <c r="F417" s="1" t="s">
         <v>713</v>
       </c>
@@ -11540,13 +11654,17 @@
       <c r="C419" s="2" t="s">
         <v>845</v>
       </c>
-      <c r="D419" s="1"/>
-      <c r="E419" s="1"/>
+      <c r="D419" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E419" s="1" t="n">
+        <v>2022</v>
+      </c>
       <c r="F419" s="1" t="s">
         <v>713</v>
       </c>
     </row>
-    <row r="420" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="420" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A420" s="1" t="n">
         <v>4</v>
       </c>
@@ -11556,17 +11674,13 @@
       <c r="C420" s="2" t="s">
         <v>847</v>
       </c>
-      <c r="D420" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="E420" s="1" t="n">
-        <v>2022</v>
-      </c>
+      <c r="D420" s="1"/>
+      <c r="E420" s="1"/>
       <c r="F420" s="1" t="s">
         <v>713</v>
       </c>
     </row>
-    <row r="421" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="421" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A421" s="1" t="n">
         <v>4</v>
       </c>
@@ -11582,7 +11696,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="422" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="422" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A422" s="1" t="n">
         <v>4</v>
       </c>
@@ -11678,7 +11792,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="428" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="428" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A428" s="1" t="n">
         <v>4</v>
       </c>
@@ -11710,7 +11824,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="430" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="430" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A430" s="1" t="n">
         <v>4</v>
       </c>
@@ -11742,7 +11856,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="432" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="432" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A432" s="1" t="n">
         <v>4</v>
       </c>
@@ -11790,7 +11904,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="435" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="435" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A435" s="1" t="n">
         <v>4</v>
       </c>
@@ -11822,11 +11936,11 @@
         <v>713</v>
       </c>
     </row>
-    <row r="437" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="437" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A437" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B437" s="2" t="s">
+      <c r="B437" s="9" t="s">
         <v>880</v>
       </c>
       <c r="C437" s="2" t="s">
@@ -11842,7 +11956,7 @@
       <c r="A438" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B438" s="10" t="s">
+      <c r="B438" s="2" t="s">
         <v>882</v>
       </c>
       <c r="C438" s="2" t="s">
@@ -11870,7 +11984,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="440" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="440" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A440" s="1" t="n">
         <v>4</v>
       </c>
@@ -11886,18 +12000,22 @@
         <v>713</v>
       </c>
     </row>
-    <row r="441" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="441" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A441" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B441" s="2" t="s">
+      <c r="B441" s="8" t="s">
         <v>888</v>
       </c>
-      <c r="C441" s="2" t="s">
+      <c r="C441" s="8" t="s">
         <v>889</v>
       </c>
-      <c r="D441" s="1"/>
-      <c r="E441" s="1"/>
+      <c r="D441" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E441" s="1" t="n">
+        <v>2022</v>
+      </c>
       <c r="F441" s="1" t="s">
         <v>713</v>
       </c>
@@ -11906,23 +12024,19 @@
       <c r="A442" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B442" s="9" t="s">
+      <c r="B442" s="2" t="s">
         <v>890</v>
       </c>
-      <c r="C442" s="9" t="s">
+      <c r="C442" s="2" t="s">
         <v>891</v>
       </c>
-      <c r="D442" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="E442" s="1" t="n">
-        <v>2022</v>
-      </c>
+      <c r="D442" s="1"/>
+      <c r="E442" s="1"/>
       <c r="F442" s="1" t="s">
         <v>713</v>
       </c>
     </row>
-    <row r="443" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="443" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A443" s="1" t="n">
         <v>4</v>
       </c>
@@ -11938,7 +12052,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="444" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="444" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A444" s="1" t="n">
         <v>4</v>
       </c>
@@ -11954,7 +12068,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="445" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="445" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A445" s="1" t="n">
         <v>4</v>
       </c>
@@ -11964,13 +12078,17 @@
       <c r="C445" s="2" t="s">
         <v>897</v>
       </c>
-      <c r="D445" s="1"/>
-      <c r="E445" s="1"/>
+      <c r="D445" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E445" s="1" t="n">
+        <v>2019</v>
+      </c>
       <c r="F445" s="1" t="s">
         <v>713</v>
       </c>
     </row>
-    <row r="446" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="446" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A446" s="1" t="n">
         <v>4</v>
       </c>
@@ -11990,7 +12108,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="447" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="447" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A447" s="1" t="n">
         <v>4</v>
       </c>
@@ -12000,12 +12118,8 @@
       <c r="C447" s="2" t="s">
         <v>901</v>
       </c>
-      <c r="D447" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="E447" s="1" t="n">
-        <v>2019</v>
-      </c>
+      <c r="D447" s="1"/>
+      <c r="E447" s="1"/>
       <c r="F447" s="1" t="s">
         <v>713</v>
       </c>
@@ -12026,7 +12140,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="449" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="449" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A449" s="1" t="n">
         <v>4</v>
       </c>
@@ -12058,7 +12172,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="451" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="451" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A451" s="1" t="n">
         <v>4</v>
       </c>
@@ -12068,8 +12182,12 @@
       <c r="C451" s="2" t="s">
         <v>909</v>
       </c>
-      <c r="D451" s="1"/>
-      <c r="E451" s="1"/>
+      <c r="D451" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E451" s="1" t="n">
+        <v>2020</v>
+      </c>
       <c r="F451" s="1" t="s">
         <v>713</v>
       </c>
@@ -12084,17 +12202,13 @@
       <c r="C452" s="2" t="s">
         <v>911</v>
       </c>
-      <c r="D452" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="E452" s="1" t="n">
-        <v>2020</v>
-      </c>
+      <c r="D452" s="1"/>
+      <c r="E452" s="1"/>
       <c r="F452" s="1" t="s">
         <v>713</v>
       </c>
     </row>
-    <row r="453" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="453" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A453" s="1" t="n">
         <v>4</v>
       </c>
@@ -12158,7 +12272,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="457" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="457" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A457" s="1" t="n">
         <v>4</v>
       </c>
@@ -12184,20 +12298,24 @@
       <c r="C458" s="2" t="s">
         <v>923</v>
       </c>
-      <c r="D458" s="1"/>
-      <c r="E458" s="1"/>
+      <c r="D458" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E458" s="1" t="n">
+        <v>2020</v>
+      </c>
       <c r="F458" s="1" t="s">
         <v>713</v>
       </c>
     </row>
-    <row r="459" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="459" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A459" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B459" s="2" t="s">
         <v>924</v>
       </c>
-      <c r="C459" s="2" t="s">
+      <c r="C459" s="8" t="s">
         <v>925</v>
       </c>
       <c r="D459" s="1" t="n">
@@ -12210,14 +12328,14 @@
         <v>713</v>
       </c>
     </row>
-    <row r="460" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="460" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A460" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B460" s="2" t="s">
         <v>926</v>
       </c>
-      <c r="C460" s="9" t="s">
+      <c r="C460" s="8" t="s">
         <v>927</v>
       </c>
       <c r="D460" s="1" t="n">
@@ -12230,27 +12348,23 @@
         <v>713</v>
       </c>
     </row>
-    <row r="461" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="461" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A461" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B461" s="2" t="s">
         <v>928</v>
       </c>
-      <c r="C461" s="9" t="s">
+      <c r="C461" s="2" t="s">
         <v>929</v>
       </c>
-      <c r="D461" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="E461" s="1" t="n">
-        <v>2020</v>
-      </c>
+      <c r="D461" s="1"/>
+      <c r="E461" s="1"/>
       <c r="F461" s="1" t="s">
         <v>713</v>
       </c>
     </row>
-    <row r="462" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="462" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A462" s="1" t="n">
         <v>4</v>
       </c>
@@ -12260,13 +12374,17 @@
       <c r="C462" s="2" t="s">
         <v>931</v>
       </c>
-      <c r="D462" s="1"/>
-      <c r="E462" s="1"/>
+      <c r="D462" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E462" s="1" t="n">
+        <v>2019</v>
+      </c>
       <c r="F462" s="1" t="s">
         <v>713</v>
       </c>
     </row>
-    <row r="463" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="463" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A463" s="1" t="n">
         <v>4</v>
       </c>
@@ -12276,12 +12394,8 @@
       <c r="C463" s="2" t="s">
         <v>933</v>
       </c>
-      <c r="D463" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="E463" s="1" t="n">
-        <v>2019</v>
-      </c>
+      <c r="D463" s="1"/>
+      <c r="E463" s="1"/>
       <c r="F463" s="1" t="s">
         <v>713</v>
       </c>
@@ -12293,7 +12407,7 @@
       <c r="B464" s="2" t="s">
         <v>934</v>
       </c>
-      <c r="C464" s="2" t="s">
+      <c r="C464" s="6" t="s">
         <v>935</v>
       </c>
       <c r="D464" s="1"/>
@@ -12312,8 +12426,12 @@
       <c r="C465" s="6" t="s">
         <v>937</v>
       </c>
-      <c r="D465" s="1"/>
-      <c r="E465" s="1"/>
+      <c r="D465" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E465" s="1" t="n">
+        <v>2019</v>
+      </c>
       <c r="F465" s="1" t="s">
         <v>713</v>
       </c>
@@ -12325,7 +12443,7 @@
       <c r="B466" s="2" t="s">
         <v>938</v>
       </c>
-      <c r="C466" s="6" t="s">
+      <c r="C466" s="2" t="s">
         <v>939</v>
       </c>
       <c r="D466" s="1" t="n">
@@ -12338,7 +12456,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="467" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="467" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A467" s="1" t="n">
         <v>4</v>
       </c>
@@ -12348,12 +12466,8 @@
       <c r="C467" s="2" t="s">
         <v>941</v>
       </c>
-      <c r="D467" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="E467" s="1" t="n">
-        <v>2019</v>
-      </c>
+      <c r="D467" s="1"/>
+      <c r="E467" s="1"/>
       <c r="F467" s="1" t="s">
         <v>713</v>
       </c>
@@ -12470,7 +12584,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="475" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="475" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A475" s="1" t="n">
         <v>4</v>
       </c>
@@ -12480,8 +12594,12 @@
       <c r="C475" s="2" t="s">
         <v>957</v>
       </c>
-      <c r="D475" s="1"/>
-      <c r="E475" s="1"/>
+      <c r="D475" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E475" s="1" t="n">
+        <v>2017</v>
+      </c>
       <c r="F475" s="1" t="s">
         <v>713</v>
       </c>
@@ -12506,7 +12624,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="477" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="477" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A477" s="1" t="n">
         <v>4</v>
       </c>
@@ -12516,17 +12634,13 @@
       <c r="C477" s="2" t="s">
         <v>961</v>
       </c>
-      <c r="D477" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="E477" s="1" t="n">
-        <v>2017</v>
-      </c>
+      <c r="D477" s="1"/>
+      <c r="E477" s="1"/>
       <c r="F477" s="1" t="s">
         <v>713</v>
       </c>
     </row>
-    <row r="478" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="478" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A478" s="1" t="n">
         <v>4</v>
       </c>
@@ -12536,13 +12650,17 @@
       <c r="C478" s="2" t="s">
         <v>963</v>
       </c>
-      <c r="D478" s="1"/>
-      <c r="E478" s="1"/>
+      <c r="D478" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E478" s="1" t="n">
+        <v>2017</v>
+      </c>
       <c r="F478" s="1" t="s">
         <v>713</v>
       </c>
     </row>
-    <row r="479" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="479" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A479" s="1" t="n">
         <v>4</v>
       </c>
@@ -12552,17 +12670,13 @@
       <c r="C479" s="2" t="s">
         <v>965</v>
       </c>
-      <c r="D479" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="E479" s="1" t="n">
-        <v>2017</v>
-      </c>
+      <c r="D479" s="1"/>
+      <c r="E479" s="1"/>
       <c r="F479" s="1" t="s">
         <v>713</v>
       </c>
     </row>
-    <row r="480" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="480" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A480" s="1" t="n">
         <v>4</v>
       </c>
@@ -12578,7 +12692,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="481" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="481" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A481" s="1" t="n">
         <v>4</v>
       </c>
@@ -12594,7 +12708,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="482" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="482" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A482" s="1" t="n">
         <v>4</v>
       </c>
@@ -12626,7 +12740,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="484" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="484" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A484" s="1" t="n">
         <v>4</v>
       </c>
@@ -12642,7 +12756,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="485" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="485" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A485" s="1" t="n">
         <v>4</v>
       </c>
@@ -12706,7 +12820,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="489" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="489" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A489" s="1" t="n">
         <v>4</v>
       </c>
@@ -12722,7 +12836,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="490" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="490" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A490" s="1" t="n">
         <v>4</v>
       </c>
@@ -12732,13 +12846,17 @@
       <c r="C490" s="2" t="s">
         <v>987</v>
       </c>
-      <c r="D490" s="1"/>
-      <c r="E490" s="1"/>
+      <c r="D490" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E490" s="1" t="n">
+        <v>2023</v>
+      </c>
       <c r="F490" s="1" t="s">
         <v>713</v>
       </c>
     </row>
-    <row r="491" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="491" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A491" s="1" t="n">
         <v>4</v>
       </c>
@@ -12748,64 +12866,64 @@
       <c r="C491" s="2" t="s">
         <v>989</v>
       </c>
-      <c r="D491" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="E491" s="1" t="n">
-        <v>2023</v>
-      </c>
+      <c r="D491" s="1"/>
+      <c r="E491" s="1"/>
       <c r="F491" s="1" t="s">
         <v>713</v>
       </c>
     </row>
-    <row r="492" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="492" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A492" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B492" s="2" t="s">
         <v>990</v>
       </c>
-      <c r="C492" s="2" t="s">
+      <c r="C492" s="6" t="s">
         <v>991</v>
       </c>
-      <c r="D492" s="1"/>
-      <c r="E492" s="1"/>
+      <c r="D492" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E492" s="1" t="n">
+        <v>2022</v>
+      </c>
       <c r="F492" s="1" t="s">
         <v>713</v>
       </c>
     </row>
-    <row r="493" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="493" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A493" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B493" s="2" t="s">
+      <c r="B493" s="8" t="s">
         <v>992</v>
       </c>
-      <c r="C493" s="6" t="s">
+      <c r="C493" s="2" t="s">
         <v>993</v>
       </c>
-      <c r="D493" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="E493" s="1" t="n">
-        <v>2022</v>
-      </c>
+      <c r="D493" s="1"/>
+      <c r="E493" s="1"/>
       <c r="F493" s="1" t="s">
         <v>713</v>
       </c>
     </row>
-    <row r="494" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="494" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A494" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B494" s="9" t="s">
+      <c r="B494" s="2" t="s">
         <v>994</v>
       </c>
       <c r="C494" s="2" t="s">
         <v>995</v>
       </c>
-      <c r="D494" s="1"/>
-      <c r="E494" s="1"/>
+      <c r="D494" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E494" s="1" t="n">
+        <v>2020</v>
+      </c>
       <c r="F494" s="1" t="s">
         <v>713</v>
       </c>
@@ -12824,13 +12942,13 @@
         <v>1</v>
       </c>
       <c r="E495" s="1" t="n">
-        <v>2020</v>
+        <v>2024</v>
       </c>
       <c r="F495" s="1" t="s">
         <v>713</v>
       </c>
     </row>
-    <row r="496" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="496" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A496" s="1" t="n">
         <v>4</v>
       </c>
@@ -12844,13 +12962,13 @@
         <v>1</v>
       </c>
       <c r="E496" s="1" t="n">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="F496" s="1" t="s">
         <v>713</v>
       </c>
     </row>
-    <row r="497" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="497" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A497" s="1" t="n">
         <v>4</v>
       </c>
@@ -12864,13 +12982,13 @@
         <v>1</v>
       </c>
       <c r="E497" s="1" t="n">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="F497" s="1" t="s">
         <v>713</v>
       </c>
     </row>
-    <row r="498" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="498" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A498" s="1" t="n">
         <v>4</v>
       </c>
@@ -12884,13 +13002,13 @@
         <v>1</v>
       </c>
       <c r="E498" s="1" t="n">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="F498" s="1" t="s">
         <v>713</v>
       </c>
     </row>
-    <row r="499" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="499" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A499" s="1" t="n">
         <v>4</v>
       </c>
@@ -12904,13 +13022,13 @@
         <v>1</v>
       </c>
       <c r="E499" s="1" t="n">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="F499" s="1" t="s">
         <v>713</v>
       </c>
     </row>
-    <row r="500" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="500" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A500" s="1" t="n">
         <v>4</v>
       </c>
@@ -12920,17 +13038,13 @@
       <c r="C500" s="2" t="s">
         <v>1007</v>
       </c>
-      <c r="D500" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="E500" s="1" t="n">
-        <v>2024</v>
-      </c>
+      <c r="D500" s="1"/>
+      <c r="E500" s="1"/>
       <c r="F500" s="1" t="s">
         <v>713</v>
       </c>
     </row>
-    <row r="501" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="501" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A501" s="1" t="n">
         <v>4</v>
       </c>
@@ -12962,7 +13076,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="503" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="503" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A503" s="1" t="n">
         <v>4</v>
       </c>
@@ -12972,8 +13086,12 @@
       <c r="C503" s="2" t="s">
         <v>1013</v>
       </c>
-      <c r="D503" s="1"/>
-      <c r="E503" s="1"/>
+      <c r="D503" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E503" s="1" t="n">
+        <v>2024</v>
+      </c>
       <c r="F503" s="1" t="s">
         <v>713</v>
       </c>
@@ -12988,12 +13106,8 @@
       <c r="C504" s="2" t="s">
         <v>1015</v>
       </c>
-      <c r="D504" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="E504" s="1" t="n">
-        <v>2024</v>
-      </c>
+      <c r="D504" s="1"/>
+      <c r="E504" s="1"/>
       <c r="F504" s="1" t="s">
         <v>713</v>
       </c>
@@ -13014,11 +13128,11 @@
         <v>713</v>
       </c>
     </row>
-    <row r="506" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="506" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A506" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B506" s="2" t="s">
+      <c r="B506" s="8" t="s">
         <v>1018</v>
       </c>
       <c r="C506" s="2" t="s">
@@ -13030,11 +13144,11 @@
         <v>713</v>
       </c>
     </row>
-    <row r="507" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="507" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A507" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B507" s="9" t="s">
+      <c r="B507" s="2" t="s">
         <v>1020</v>
       </c>
       <c r="C507" s="2" t="s">
@@ -13078,7 +13192,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="510" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="510" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A510" s="1" t="n">
         <v>4</v>
       </c>
@@ -13094,7 +13208,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="511" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="511" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A511" s="1" t="n">
         <v>4</v>
       </c>
@@ -13126,14 +13240,14 @@
         <v>713</v>
       </c>
     </row>
-    <row r="513" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="513" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A513" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B513" s="2" t="s">
+      <c r="B513" s="6" t="s">
         <v>1032</v>
       </c>
-      <c r="C513" s="2" t="s">
+      <c r="C513" s="6" t="s">
         <v>1033</v>
       </c>
       <c r="D513" s="1"/>
@@ -13142,11 +13256,11 @@
         <v>713</v>
       </c>
     </row>
-    <row r="514" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="514" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A514" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B514" s="6" t="s">
+      <c r="B514" s="2" t="s">
         <v>1034</v>
       </c>
       <c r="C514" s="6" t="s">
@@ -13158,7 +13272,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="515" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="515" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A515" s="1" t="n">
         <v>4</v>
       </c>
@@ -13168,13 +13282,17 @@
       <c r="C515" s="6" t="s">
         <v>1037</v>
       </c>
-      <c r="D515" s="1"/>
-      <c r="E515" s="1"/>
+      <c r="D515" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E515" s="1" t="n">
+        <v>2020</v>
+      </c>
       <c r="F515" s="1" t="s">
         <v>713</v>
       </c>
     </row>
-    <row r="516" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="516" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A516" s="1" t="n">
         <v>4</v>
       </c>
@@ -13194,7 +13312,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="517" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="517" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A517" s="1" t="n">
         <v>4</v>
       </c>
@@ -13204,17 +13322,13 @@
       <c r="C517" s="6" t="s">
         <v>1041</v>
       </c>
-      <c r="D517" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="E517" s="1" t="n">
-        <v>2020</v>
-      </c>
+      <c r="D517" s="1"/>
+      <c r="E517" s="1"/>
       <c r="F517" s="1" t="s">
         <v>713</v>
       </c>
     </row>
-    <row r="518" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="518" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A518" s="1" t="n">
         <v>4</v>
       </c>
@@ -13230,7 +13344,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="519" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="519" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A519" s="1" t="n">
         <v>4</v>
       </c>
@@ -13242,23 +13356,23 @@
       </c>
       <c r="D519" s="1"/>
       <c r="E519" s="1"/>
-      <c r="F519" s="1" t="s">
-        <v>713</v>
-      </c>
-    </row>
-    <row r="520" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F519" s="1"/>
+    </row>
+    <row r="520" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A520" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B520" s="2" t="s">
         <v>1046</v>
       </c>
-      <c r="C520" s="6" t="s">
+      <c r="C520" s="2" t="s">
         <v>1047</v>
       </c>
       <c r="D520" s="1"/>
       <c r="E520" s="1"/>
-      <c r="F520" s="1"/>
+      <c r="F520" s="1" t="s">
+        <v>713</v>
+      </c>
     </row>
     <row r="521" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A521" s="1" t="n">
@@ -13276,7 +13390,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="522" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="522" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A522" s="1" t="n">
         <v>4</v>
       </c>
@@ -13292,7 +13406,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="523" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="523" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A523" s="1" t="n">
         <v>4</v>
       </c>
@@ -13302,13 +13416,17 @@
       <c r="C523" s="2" t="s">
         <v>1053</v>
       </c>
-      <c r="D523" s="1"/>
-      <c r="E523" s="1"/>
+      <c r="D523" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E523" s="1" t="n">
+        <v>2022</v>
+      </c>
       <c r="F523" s="1" t="s">
         <v>713</v>
       </c>
     </row>
-    <row r="524" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="524" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A524" s="1" t="n">
         <v>4</v>
       </c>
@@ -13318,17 +13436,13 @@
       <c r="C524" s="2" t="s">
         <v>1055</v>
       </c>
-      <c r="D524" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="E524" s="1" t="n">
-        <v>2022</v>
-      </c>
+      <c r="D524" s="1"/>
+      <c r="E524" s="1"/>
       <c r="F524" s="1" t="s">
         <v>713</v>
       </c>
     </row>
-    <row r="525" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="525" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A525" s="1" t="n">
         <v>4</v>
       </c>
@@ -13344,94 +13458,98 @@
         <v>713</v>
       </c>
     </row>
-    <row r="526" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="526" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A526" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B526" s="2" t="s">
+      <c r="B526" s="8" t="s">
         <v>1058</v>
       </c>
-      <c r="C526" s="2" t="s">
+      <c r="C526" s="8" t="s">
         <v>1059</v>
       </c>
-      <c r="D526" s="1"/>
-      <c r="E526" s="1"/>
+      <c r="D526" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E526" s="1" t="n">
+        <v>2023</v>
+      </c>
       <c r="F526" s="1" t="s">
         <v>713</v>
       </c>
     </row>
-    <row r="527" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="527" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A527" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B527" s="9" t="s">
+      <c r="B527" s="8" t="s">
         <v>1060</v>
       </c>
-      <c r="C527" s="9" t="s">
+      <c r="C527" s="8" t="s">
         <v>1061</v>
       </c>
       <c r="D527" s="1" t="n">
         <v>1</v>
       </c>
       <c r="E527" s="1" t="n">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="F527" s="1" t="s">
         <v>713</v>
       </c>
     </row>
-    <row r="528" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="528" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A528" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B528" s="9" t="s">
+      <c r="B528" s="8" t="s">
         <v>1062</v>
       </c>
-      <c r="C528" s="9" t="s">
+      <c r="C528" s="8" t="s">
         <v>1063</v>
       </c>
       <c r="D528" s="1" t="n">
         <v>1</v>
       </c>
       <c r="E528" s="1" t="n">
-        <v>2022</v>
+        <v>2020</v>
       </c>
       <c r="F528" s="1" t="s">
         <v>713</v>
       </c>
     </row>
-    <row r="529" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="529" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A529" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B529" s="9" t="s">
+      <c r="B529" s="8" t="s">
         <v>1064</v>
       </c>
-      <c r="C529" s="9" t="s">
+      <c r="C529" s="2" t="s">
         <v>1065</v>
       </c>
-      <c r="D529" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="E529" s="1" t="n">
-        <v>2020</v>
-      </c>
+      <c r="D529" s="1"/>
+      <c r="E529" s="1"/>
       <c r="F529" s="1" t="s">
         <v>713</v>
       </c>
     </row>
-    <row r="530" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="530" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A530" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B530" s="9" t="s">
+      <c r="B530" s="8" t="s">
         <v>1066</v>
       </c>
-      <c r="C530" s="2" t="s">
+      <c r="C530" s="8" t="s">
         <v>1067</v>
       </c>
-      <c r="D530" s="1"/>
-      <c r="E530" s="1"/>
+      <c r="D530" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E530" s="1" t="n">
+        <v>2017</v>
+      </c>
       <c r="F530" s="1" t="s">
         <v>713</v>
       </c>
@@ -13440,10 +13558,10 @@
       <c r="A531" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B531" s="9" t="s">
+      <c r="B531" s="8" t="s">
         <v>1068</v>
       </c>
-      <c r="C531" s="9" t="s">
+      <c r="C531" s="8" t="s">
         <v>1069</v>
       </c>
       <c r="D531" s="1" t="n">
@@ -13456,14 +13574,14 @@
         <v>713</v>
       </c>
     </row>
-    <row r="532" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="532" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A532" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B532" s="9" t="s">
+      <c r="B532" s="8" t="s">
         <v>1070</v>
       </c>
-      <c r="C532" s="9" t="s">
+      <c r="C532" s="2" t="s">
         <v>1071</v>
       </c>
       <c r="D532" s="1" t="n">
@@ -13476,11 +13594,11 @@
         <v>713</v>
       </c>
     </row>
-    <row r="533" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="533" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A533" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B533" s="9" t="s">
+      <c r="B533" s="8" t="s">
         <v>1072</v>
       </c>
       <c r="C533" s="2" t="s">
@@ -13490,17 +13608,17 @@
         <v>1</v>
       </c>
       <c r="E533" s="1" t="n">
-        <v>2017</v>
+        <v>2023</v>
       </c>
       <c r="F533" s="1" t="s">
         <v>713</v>
       </c>
     </row>
-    <row r="534" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="534" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A534" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B534" s="9" t="s">
+      <c r="B534" s="8" t="s">
         <v>1074</v>
       </c>
       <c r="C534" s="2" t="s">
@@ -13516,11 +13634,11 @@
         <v>713</v>
       </c>
     </row>
-    <row r="535" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="535" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A535" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B535" s="9" t="s">
+      <c r="B535" s="8" t="s">
         <v>1076</v>
       </c>
       <c r="C535" s="2" t="s">
@@ -13536,11 +13654,11 @@
         <v>713</v>
       </c>
     </row>
-    <row r="536" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="536" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A536" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B536" s="9" t="s">
+      <c r="B536" s="8" t="s">
         <v>1078</v>
       </c>
       <c r="C536" s="2" t="s">
@@ -13556,27 +13674,23 @@
         <v>713</v>
       </c>
     </row>
-    <row r="537" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="537" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A537" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B537" s="9" t="s">
+      <c r="B537" s="2" t="s">
         <v>1080</v>
       </c>
       <c r="C537" s="2" t="s">
         <v>1081</v>
       </c>
-      <c r="D537" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="E537" s="1" t="n">
-        <v>2023</v>
-      </c>
+      <c r="D537" s="1"/>
+      <c r="E537" s="1"/>
       <c r="F537" s="1" t="s">
         <v>713</v>
       </c>
     </row>
-    <row r="538" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="538" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A538" s="1" t="n">
         <v>4</v>
       </c>
@@ -13592,7 +13706,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="539" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="539" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A539" s="1" t="n">
         <v>4</v>
       </c>
@@ -13608,18 +13722,22 @@
         <v>713</v>
       </c>
     </row>
-    <row r="540" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="540" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A540" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B540" s="2" t="s">
+      <c r="B540" s="8" t="s">
         <v>1086</v>
       </c>
-      <c r="C540" s="2" t="s">
+      <c r="C540" s="8" t="s">
         <v>1087</v>
       </c>
-      <c r="D540" s="1"/>
-      <c r="E540" s="1"/>
+      <c r="D540" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E540" s="1" t="n">
+        <v>2023</v>
+      </c>
       <c r="F540" s="1" t="s">
         <v>713</v>
       </c>
@@ -13628,17 +13746,17 @@
       <c r="A541" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B541" s="9" t="s">
+      <c r="B541" s="8" t="s">
         <v>1088</v>
       </c>
-      <c r="C541" s="9" t="s">
+      <c r="C541" s="8" t="s">
         <v>1089</v>
       </c>
       <c r="D541" s="1" t="n">
         <v>1</v>
       </c>
       <c r="E541" s="1" t="n">
-        <v>2023</v>
+        <v>2018</v>
       </c>
       <c r="F541" s="1" t="s">
         <v>713</v>
@@ -13648,17 +13766,17 @@
       <c r="A542" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B542" s="9" t="s">
+      <c r="B542" s="2" t="s">
         <v>1090</v>
       </c>
-      <c r="C542" s="9" t="s">
+      <c r="C542" s="2" t="s">
         <v>1091</v>
       </c>
       <c r="D542" s="1" t="n">
         <v>1</v>
       </c>
       <c r="E542" s="1" t="n">
-        <v>2018</v>
+        <v>2023</v>
       </c>
       <c r="F542" s="1" t="s">
         <v>713</v>
@@ -13684,7 +13802,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="544" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="544" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A544" s="1" t="n">
         <v>4</v>
       </c>
@@ -13698,13 +13816,13 @@
         <v>1</v>
       </c>
       <c r="E544" s="1" t="n">
-        <v>2023</v>
+        <v>2018</v>
       </c>
       <c r="F544" s="1" t="s">
         <v>713</v>
       </c>
     </row>
-    <row r="545" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="545" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A545" s="1" t="n">
         <v>4</v>
       </c>
@@ -13714,17 +13832,13 @@
       <c r="C545" s="2" t="s">
         <v>1097</v>
       </c>
-      <c r="D545" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="E545" s="1" t="n">
-        <v>2018</v>
-      </c>
+      <c r="D545" s="1"/>
+      <c r="E545" s="1"/>
       <c r="F545" s="1" t="s">
         <v>713</v>
       </c>
     </row>
-    <row r="546" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="546" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A546" s="1" t="n">
         <v>4</v>
       </c>
@@ -13734,13 +13848,17 @@
       <c r="C546" s="2" t="s">
         <v>1099</v>
       </c>
-      <c r="D546" s="1"/>
-      <c r="E546" s="1"/>
+      <c r="D546" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E546" s="1" t="n">
+        <v>2020</v>
+      </c>
       <c r="F546" s="1" t="s">
         <v>713</v>
       </c>
     </row>
-    <row r="547" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="547" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A547" s="1" t="n">
         <v>4</v>
       </c>
@@ -13760,7 +13878,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="548" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="548" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A548" s="1" t="n">
         <v>4</v>
       </c>
@@ -13770,12 +13888,8 @@
       <c r="C548" s="2" t="s">
         <v>1103</v>
       </c>
-      <c r="D548" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="E548" s="1" t="n">
-        <v>2020</v>
-      </c>
+      <c r="D548" s="1"/>
+      <c r="E548" s="1"/>
       <c r="F548" s="1" t="s">
         <v>713</v>
       </c>
@@ -13790,13 +13904,17 @@
       <c r="C549" s="2" t="s">
         <v>1105</v>
       </c>
-      <c r="D549" s="1"/>
-      <c r="E549" s="1"/>
+      <c r="D549" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E549" s="1" t="n">
+        <v>2024</v>
+      </c>
       <c r="F549" s="1" t="s">
         <v>713</v>
       </c>
     </row>
-    <row r="550" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="550" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A550" s="1" t="n">
         <v>4</v>
       </c>
@@ -13820,63 +13938,59 @@
       <c r="A551" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B551" s="2" t="s">
+      <c r="B551" s="8" t="s">
         <v>1108</v>
       </c>
-      <c r="C551" s="2" t="s">
+      <c r="C551" s="8" t="s">
         <v>1109</v>
       </c>
       <c r="D551" s="1" t="n">
         <v>1</v>
       </c>
       <c r="E551" s="1" t="n">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="F551" s="1" t="s">
         <v>713</v>
       </c>
     </row>
-    <row r="552" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="552" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A552" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B552" s="9" t="s">
+      <c r="B552" s="8" t="s">
         <v>1110</v>
       </c>
-      <c r="C552" s="9" t="s">
+      <c r="C552" s="8" t="s">
         <v>1111</v>
       </c>
       <c r="D552" s="1" t="n">
         <v>1</v>
       </c>
       <c r="E552" s="1" t="n">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="F552" s="1" t="s">
         <v>713</v>
       </c>
     </row>
-    <row r="553" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="553" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A553" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B553" s="9" t="s">
+      <c r="B553" s="2" t="s">
         <v>1112</v>
       </c>
-      <c r="C553" s="9" t="s">
+      <c r="C553" s="2" t="s">
         <v>1113</v>
       </c>
-      <c r="D553" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="E553" s="1" t="n">
-        <v>2022</v>
-      </c>
+      <c r="D553" s="1"/>
+      <c r="E553" s="1"/>
       <c r="F553" s="1" t="s">
         <v>713</v>
       </c>
     </row>
-    <row r="554" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="554" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A554" s="1" t="n">
         <v>4</v>
       </c>
@@ -13892,7 +14006,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="555" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="555" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A555" s="1" t="n">
         <v>4</v>
       </c>
@@ -13908,7 +14022,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="556" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="556" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A556" s="1" t="n">
         <v>4</v>
       </c>
@@ -13950,8 +14064,12 @@
       <c r="C558" s="2" t="s">
         <v>1123</v>
       </c>
-      <c r="D558" s="1"/>
-      <c r="E558" s="1"/>
+      <c r="D558" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E558" s="1" t="n">
+        <v>2017</v>
+      </c>
       <c r="F558" s="1" t="s">
         <v>713</v>
       </c>
@@ -13966,17 +14084,13 @@
       <c r="C559" s="2" t="s">
         <v>1125</v>
       </c>
-      <c r="D559" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="E559" s="1" t="n">
-        <v>2017</v>
-      </c>
+      <c r="D559" s="1"/>
+      <c r="E559" s="1"/>
       <c r="F559" s="1" t="s">
         <v>713</v>
       </c>
     </row>
-    <row r="560" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="560" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A560" s="1" t="n">
         <v>4</v>
       </c>
@@ -13992,7 +14106,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="561" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="561" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A561" s="1" t="n">
         <v>4</v>
       </c>
@@ -14002,8 +14116,12 @@
       <c r="C561" s="2" t="s">
         <v>1129</v>
       </c>
-      <c r="D561" s="1"/>
-      <c r="E561" s="1"/>
+      <c r="D561" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E561" s="1" t="n">
+        <v>2019</v>
+      </c>
       <c r="F561" s="1" t="s">
         <v>713</v>
       </c>
@@ -14018,17 +14136,13 @@
       <c r="C562" s="2" t="s">
         <v>1131</v>
       </c>
-      <c r="D562" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="E562" s="1" t="n">
-        <v>2019</v>
-      </c>
+      <c r="D562" s="1"/>
+      <c r="E562" s="1"/>
       <c r="F562" s="1" t="s">
         <v>713</v>
       </c>
     </row>
-    <row r="563" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="563" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A563" s="1" t="n">
         <v>4</v>
       </c>
@@ -14038,20 +14152,24 @@
       <c r="C563" s="2" t="s">
         <v>1133</v>
       </c>
-      <c r="D563" s="1"/>
-      <c r="E563" s="1"/>
+      <c r="D563" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E563" s="1" t="n">
+        <v>2021</v>
+      </c>
       <c r="F563" s="1" t="s">
         <v>713</v>
       </c>
     </row>
-    <row r="564" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="564" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A564" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B564" s="2" t="s">
+      <c r="B564" s="8" t="s">
         <v>1134</v>
       </c>
-      <c r="C564" s="2" t="s">
+      <c r="C564" s="8" t="s">
         <v>1135</v>
       </c>
       <c r="D564" s="1" t="n">
@@ -14064,14 +14182,14 @@
         <v>713</v>
       </c>
     </row>
-    <row r="565" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="565" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A565" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B565" s="9" t="s">
+      <c r="B565" s="2" t="s">
         <v>1136</v>
       </c>
-      <c r="C565" s="9" t="s">
+      <c r="C565" s="2" t="s">
         <v>1137</v>
       </c>
       <c r="D565" s="1" t="n">
@@ -14088,10 +14206,10 @@
       <c r="A566" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B566" s="2" t="s">
+      <c r="B566" s="8" t="s">
         <v>1138</v>
       </c>
-      <c r="C566" s="2" t="s">
+      <c r="C566" s="8" t="s">
         <v>1139</v>
       </c>
       <c r="D566" s="1" t="n">
@@ -14108,17 +14226,17 @@
       <c r="A567" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B567" s="9" t="s">
+      <c r="B567" s="8" t="s">
         <v>1140</v>
       </c>
-      <c r="C567" s="9" t="s">
+      <c r="C567" s="8" t="s">
         <v>1141</v>
       </c>
       <c r="D567" s="1" t="n">
         <v>1</v>
       </c>
       <c r="E567" s="1" t="n">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="F567" s="1" t="s">
         <v>713</v>
@@ -14128,23 +14246,23 @@
       <c r="A568" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B568" s="9" t="s">
+      <c r="B568" s="2" t="s">
         <v>1142</v>
       </c>
-      <c r="C568" s="9" t="s">
+      <c r="C568" s="2" t="s">
         <v>1143</v>
       </c>
       <c r="D568" s="1" t="n">
         <v>1</v>
       </c>
       <c r="E568" s="1" t="n">
-        <v>2020</v>
+        <v>2017</v>
       </c>
       <c r="F568" s="1" t="s">
         <v>713</v>
       </c>
     </row>
-    <row r="569" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="569" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A569" s="1" t="n">
         <v>4</v>
       </c>
@@ -14164,7 +14282,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="570" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="570" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A570" s="1" t="n">
         <v>4</v>
       </c>
@@ -14174,40 +14292,40 @@
       <c r="C570" s="2" t="s">
         <v>1147</v>
       </c>
-      <c r="D570" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="E570" s="1" t="n">
-        <v>2017</v>
-      </c>
+      <c r="D570" s="1"/>
+      <c r="E570" s="1"/>
       <c r="F570" s="1" t="s">
         <v>713</v>
       </c>
     </row>
-    <row r="571" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="571" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A571" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B571" s="2" t="s">
+      <c r="B571" s="8" t="s">
         <v>1148</v>
       </c>
-      <c r="C571" s="2" t="s">
+      <c r="C571" s="8" t="s">
         <v>1149</v>
       </c>
-      <c r="D571" s="1"/>
-      <c r="E571" s="1"/>
+      <c r="D571" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E571" s="1" t="n">
+        <v>2019</v>
+      </c>
       <c r="F571" s="1" t="s">
         <v>713</v>
       </c>
     </row>
-    <row r="572" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="572" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A572" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B572" s="9" t="s">
+      <c r="B572" s="8" t="s">
         <v>1150</v>
       </c>
-      <c r="C572" s="9" t="s">
+      <c r="C572" s="8" t="s">
         <v>1151</v>
       </c>
       <c r="D572" s="1" t="n">
@@ -14220,14 +14338,14 @@
         <v>713</v>
       </c>
     </row>
-    <row r="573" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="573" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A573" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B573" s="9" t="s">
+      <c r="B573" s="8" t="s">
         <v>1152</v>
       </c>
-      <c r="C573" s="9" t="s">
+      <c r="C573" s="8" t="s">
         <v>1153</v>
       </c>
       <c r="D573" s="1" t="n">
@@ -14240,14 +14358,14 @@
         <v>713</v>
       </c>
     </row>
-    <row r="574" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="574" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A574" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B574" s="9" t="s">
+      <c r="B574" s="8" t="s">
         <v>1154</v>
       </c>
-      <c r="C574" s="9" t="s">
+      <c r="C574" s="8" t="s">
         <v>1155</v>
       </c>
       <c r="D574" s="1" t="n">
@@ -14260,27 +14378,23 @@
         <v>713</v>
       </c>
     </row>
-    <row r="575" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="575" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A575" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B575" s="9" t="s">
+      <c r="B575" s="2" t="s">
         <v>1156</v>
       </c>
-      <c r="C575" s="9" t="s">
+      <c r="C575" s="2" t="s">
         <v>1157</v>
       </c>
-      <c r="D575" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="E575" s="1" t="n">
-        <v>2019</v>
-      </c>
+      <c r="D575" s="1"/>
+      <c r="E575" s="1"/>
       <c r="F575" s="1" t="s">
         <v>713</v>
       </c>
     </row>
-    <row r="576" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="576" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A576" s="1" t="n">
         <v>4</v>
       </c>
@@ -14319,11 +14433,15 @@
       <c r="B578" s="2" t="s">
         <v>1162</v>
       </c>
-      <c r="C578" s="2" t="s">
+      <c r="C578" s="6" t="s">
         <v>1163</v>
       </c>
-      <c r="D578" s="1"/>
-      <c r="E578" s="1"/>
+      <c r="D578" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E578" s="1" t="n">
+        <v>2019</v>
+      </c>
       <c r="F578" s="1" t="s">
         <v>713</v>
       </c>
@@ -14332,10 +14450,10 @@
       <c r="A579" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B579" s="2" t="s">
+      <c r="B579" s="8" t="s">
         <v>1164</v>
       </c>
-      <c r="C579" s="6" t="s">
+      <c r="C579" s="2" t="s">
         <v>1165</v>
       </c>
       <c r="D579" s="1" t="n">
@@ -14348,42 +14466,38 @@
         <v>713</v>
       </c>
     </row>
-    <row r="580" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="580" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A580" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B580" s="9" t="s">
+      <c r="B580" s="8" t="s">
         <v>1166</v>
       </c>
-      <c r="C580" s="2" t="s">
+      <c r="C580" s="8" t="s">
         <v>1167</v>
       </c>
       <c r="D580" s="1" t="n">
         <v>1</v>
       </c>
       <c r="E580" s="1" t="n">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="F580" s="1" t="s">
         <v>713</v>
       </c>
     </row>
-    <row r="581" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="581" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A581" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B581" s="9" t="s">
+      <c r="B581" s="2" t="s">
         <v>1168</v>
       </c>
-      <c r="C581" s="9" t="s">
+      <c r="C581" s="8" t="s">
         <v>1169</v>
       </c>
-      <c r="D581" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="E581" s="1" t="n">
-        <v>2020</v>
-      </c>
+      <c r="D581" s="1"/>
+      <c r="E581" s="1"/>
       <c r="F581" s="1" t="s">
         <v>713</v>
       </c>
@@ -14395,16 +14509,16 @@
       <c r="B582" s="2" t="s">
         <v>1170</v>
       </c>
-      <c r="C582" s="9" t="s">
+      <c r="C582" s="2" t="s">
         <v>1171</v>
       </c>
-      <c r="D582" s="1"/>
-      <c r="E582" s="1"/>
+      <c r="D582" s="3"/>
+      <c r="E582" s="3"/>
       <c r="F582" s="1" t="s">
         <v>713</v>
       </c>
     </row>
-    <row r="583" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="583" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A583" s="1" t="n">
         <v>4</v>
       </c>
@@ -14414,13 +14528,13 @@
       <c r="C583" s="2" t="s">
         <v>1173</v>
       </c>
-      <c r="D583" s="3"/>
-      <c r="E583" s="3"/>
+      <c r="D583" s="1"/>
+      <c r="E583" s="1"/>
       <c r="F583" s="1" t="s">
         <v>713</v>
       </c>
     </row>
-    <row r="584" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="584" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A584" s="1" t="n">
         <v>4</v>
       </c>
@@ -14452,7 +14566,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="586" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="586" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A586" s="1" t="n">
         <v>4</v>
       </c>
@@ -14468,7 +14582,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="587" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="587" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A587" s="1" t="n">
         <v>4</v>
       </c>
@@ -14494,13 +14608,17 @@
       <c r="C588" s="2" t="s">
         <v>1183</v>
       </c>
-      <c r="D588" s="1"/>
-      <c r="E588" s="1"/>
+      <c r="D588" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E588" s="1" t="n">
+        <v>2022</v>
+      </c>
       <c r="F588" s="1" t="s">
         <v>713</v>
       </c>
     </row>
-    <row r="589" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="589" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A589" s="1" t="n">
         <v>4</v>
       </c>
@@ -14524,17 +14642,17 @@
       <c r="A590" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B590" s="2" t="s">
+      <c r="B590" s="8" t="s">
         <v>1186</v>
       </c>
-      <c r="C590" s="2" t="s">
+      <c r="C590" s="8" t="s">
         <v>1187</v>
       </c>
       <c r="D590" s="1" t="n">
         <v>1</v>
       </c>
       <c r="E590" s="1" t="n">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F590" s="1" t="s">
         <v>713</v>
@@ -14544,17 +14662,17 @@
       <c r="A591" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B591" s="9" t="s">
+      <c r="B591" s="8" t="s">
         <v>1188</v>
       </c>
-      <c r="C591" s="9" t="s">
+      <c r="C591" s="8" t="s">
         <v>1189</v>
       </c>
       <c r="D591" s="1" t="n">
         <v>1</v>
       </c>
       <c r="E591" s="1" t="n">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="F591" s="1" t="s">
         <v>713</v>
@@ -14564,10 +14682,10 @@
       <c r="A592" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B592" s="9" t="s">
+      <c r="B592" s="8" t="s">
         <v>1190</v>
       </c>
-      <c r="C592" s="9" t="s">
+      <c r="C592" s="8" t="s">
         <v>1191</v>
       </c>
       <c r="D592" s="1" t="n">
@@ -14584,17 +14702,17 @@
       <c r="A593" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B593" s="9" t="s">
+      <c r="B593" s="2" t="s">
         <v>1192</v>
       </c>
-      <c r="C593" s="9" t="s">
+      <c r="C593" s="2" t="s">
         <v>1193</v>
       </c>
       <c r="D593" s="1" t="n">
         <v>1</v>
       </c>
       <c r="E593" s="1" t="n">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F593" s="1" t="s">
         <v>713</v>
@@ -14614,13 +14732,13 @@
         <v>1</v>
       </c>
       <c r="E594" s="1" t="n">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="F594" s="1" t="s">
         <v>713</v>
       </c>
     </row>
-    <row r="595" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="595" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A595" s="1" t="n">
         <v>4</v>
       </c>
@@ -14634,129 +14752,125 @@
         <v>1</v>
       </c>
       <c r="E595" s="1" t="n">
-        <v>2022</v>
+        <v>2019</v>
       </c>
       <c r="F595" s="1" t="s">
         <v>713</v>
       </c>
     </row>
-    <row r="596" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="596" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A596" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B596" s="2" t="s">
+      <c r="B596" s="8" t="s">
         <v>1198</v>
       </c>
-      <c r="C596" s="2" t="s">
+      <c r="C596" s="8" t="s">
         <v>1199</v>
       </c>
       <c r="D596" s="1" t="n">
         <v>1</v>
       </c>
       <c r="E596" s="1" t="n">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="F596" s="1" t="s">
         <v>713</v>
       </c>
     </row>
-    <row r="597" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="597" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A597" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B597" s="9" t="s">
+      <c r="B597" s="2" t="s">
         <v>1200</v>
       </c>
-      <c r="C597" s="9" t="s">
+      <c r="C597" s="2" t="s">
         <v>1201</v>
       </c>
-      <c r="D597" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="E597" s="1" t="n">
+      <c r="D597" s="1"/>
+      <c r="E597" s="1"/>
+      <c r="F597" s="1" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="598" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A598" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B598" s="8" t="s">
+        <v>1202</v>
+      </c>
+      <c r="C598" s="8" t="s">
+        <v>1203</v>
+      </c>
+      <c r="D598" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E598" s="1" t="n">
         <v>2020</v>
       </c>
-      <c r="F597" s="1" t="s">
-        <v>713</v>
-      </c>
-    </row>
-    <row r="598" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A598" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B598" s="2" t="s">
-        <v>1202</v>
-      </c>
-      <c r="C598" s="2" t="s">
-        <v>1203</v>
-      </c>
-      <c r="D598" s="1"/>
-      <c r="E598" s="1"/>
       <c r="F598" s="1" t="s">
         <v>713</v>
       </c>
     </row>
-    <row r="599" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="599" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A599" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B599" s="9" t="s">
+      <c r="B599" s="8" t="s">
         <v>1204</v>
       </c>
-      <c r="C599" s="9" t="s">
+      <c r="C599" s="8" t="s">
         <v>1205</v>
       </c>
       <c r="D599" s="1" t="n">
         <v>1</v>
       </c>
       <c r="E599" s="1" t="n">
-        <v>2020</v>
+        <v>2023</v>
       </c>
       <c r="F599" s="1" t="s">
         <v>713</v>
       </c>
     </row>
-    <row r="600" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="600" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A600" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B600" s="9" t="s">
+      <c r="B600" s="8" t="s">
         <v>1206</v>
       </c>
-      <c r="C600" s="9" t="s">
+      <c r="C600" s="8" t="s">
         <v>1207</v>
       </c>
       <c r="D600" s="1" t="n">
         <v>1</v>
       </c>
       <c r="E600" s="1" t="n">
-        <v>2023</v>
+        <v>2018</v>
       </c>
       <c r="F600" s="1" t="s">
         <v>713</v>
       </c>
     </row>
-    <row r="601" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="601" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A601" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B601" s="9" t="s">
+      <c r="B601" s="2" t="s">
         <v>1208</v>
       </c>
-      <c r="C601" s="9" t="s">
+      <c r="C601" s="2" t="s">
         <v>1209</v>
       </c>
-      <c r="D601" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="E601" s="1" t="n">
-        <v>2018</v>
-      </c>
+      <c r="D601" s="1"/>
+      <c r="E601" s="1"/>
       <c r="F601" s="1" t="s">
         <v>713</v>
       </c>
     </row>
-    <row r="602" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="602" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A602" s="1" t="n">
         <v>4</v>
       </c>
@@ -14766,13 +14880,17 @@
       <c r="C602" s="2" t="s">
         <v>1211</v>
       </c>
-      <c r="D602" s="1"/>
-      <c r="E602" s="1"/>
+      <c r="D602" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E602" s="1" t="n">
+        <v>2024</v>
+      </c>
       <c r="F602" s="1" t="s">
         <v>713</v>
       </c>
     </row>
-    <row r="603" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="603" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A603" s="1" t="n">
         <v>4</v>
       </c>
@@ -14786,13 +14904,13 @@
         <v>1</v>
       </c>
       <c r="E603" s="1" t="n">
-        <v>2024</v>
+        <v>2022</v>
       </c>
       <c r="F603" s="1" t="s">
         <v>713</v>
       </c>
     </row>
-    <row r="604" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="604" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A604" s="1" t="n">
         <v>4</v>
       </c>
@@ -14806,13 +14924,13 @@
         <v>1</v>
       </c>
       <c r="E604" s="1" t="n">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F604" s="1" t="s">
         <v>713</v>
       </c>
     </row>
-    <row r="605" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="605" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A605" s="1" t="n">
         <v>4</v>
       </c>
@@ -14834,214 +14952,214 @@
     </row>
     <row r="606" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A606" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B606" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B606" s="8" t="s">
         <v>1218</v>
       </c>
-      <c r="C606" s="2" t="s">
+      <c r="C606" s="8" t="s">
         <v>1219</v>
       </c>
-      <c r="D606" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="E606" s="1" t="n">
-        <v>2023</v>
-      </c>
-      <c r="F606" s="1" t="s">
-        <v>713</v>
+      <c r="F606" s="2" t="s">
+        <v>1220</v>
       </c>
     </row>
     <row r="607" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A607" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B607" s="9" t="s">
+      <c r="B607" s="8" t="s">
+        <v>1221</v>
+      </c>
+      <c r="C607" s="8" t="s">
+        <v>1222</v>
+      </c>
+      <c r="F607" s="2" t="s">
         <v>1220</v>
       </c>
-      <c r="C607" s="9" t="s">
-        <v>1221</v>
-      </c>
-      <c r="F607" s="2" t="s">
-        <v>1222</v>
-      </c>
-    </row>
-    <row r="608" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="608" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A608" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B608" s="9" t="s">
+      <c r="B608" s="8" t="s">
         <v>1223</v>
       </c>
-      <c r="C608" s="9" t="s">
+      <c r="C608" s="8" t="s">
         <v>1224</v>
       </c>
       <c r="F608" s="2" t="s">
-        <v>1222</v>
-      </c>
-    </row>
-    <row r="609" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1220</v>
+      </c>
+    </row>
+    <row r="609" customFormat="false" ht="45.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A609" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B609" s="9" t="s">
+      <c r="B609" s="8" t="s">
         <v>1225</v>
       </c>
       <c r="C609" s="9" t="s">
         <v>1226</v>
       </c>
       <c r="F609" s="2" t="s">
-        <v>1222</v>
-      </c>
-    </row>
-    <row r="610" customFormat="false" ht="45.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1220</v>
+      </c>
+    </row>
+    <row r="610" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A610" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B610" s="9" t="s">
+      <c r="B610" s="8" t="s">
         <v>1227</v>
       </c>
-      <c r="C610" s="10" t="s">
+      <c r="C610" s="8" t="s">
         <v>1228</v>
       </c>
       <c r="F610" s="2" t="s">
-        <v>1222</v>
-      </c>
-    </row>
-    <row r="611" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1220</v>
+      </c>
+    </row>
+    <row r="611" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A611" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B611" s="9" t="s">
+      <c r="B611" s="8" t="s">
         <v>1229</v>
       </c>
-      <c r="C611" s="9" t="s">
+      <c r="C611" s="8" t="s">
         <v>1230</v>
       </c>
       <c r="F611" s="2" t="s">
-        <v>1222</v>
-      </c>
-    </row>
-    <row r="612" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1220</v>
+      </c>
+    </row>
+    <row r="612" customFormat="false" ht="23.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A612" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B612" s="9" t="s">
+      <c r="B612" s="8" t="s">
         <v>1231</v>
       </c>
-      <c r="C612" s="9" t="s">
+      <c r="C612" s="8" t="s">
         <v>1232</v>
       </c>
       <c r="F612" s="2" t="s">
-        <v>1222</v>
+        <v>1220</v>
       </c>
     </row>
     <row r="613" customFormat="false" ht="23.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A613" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B613" s="9" t="s">
+      <c r="B613" s="8" t="s">
         <v>1233</v>
       </c>
-      <c r="C613" s="9" t="s">
+      <c r="C613" s="2" t="s">
         <v>1234</v>
       </c>
       <c r="F613" s="2" t="s">
-        <v>1222</v>
-      </c>
-    </row>
-    <row r="614" customFormat="false" ht="23.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1220</v>
+      </c>
+    </row>
+    <row r="614" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A614" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B614" s="9" t="s">
+      <c r="B614" s="8" t="s">
         <v>1235</v>
       </c>
-      <c r="C614" s="2" t="s">
+      <c r="C614" s="8" t="s">
         <v>1236</v>
       </c>
       <c r="F614" s="2" t="s">
-        <v>1222</v>
+        <v>1220</v>
       </c>
     </row>
     <row r="615" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A615" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B615" s="9" t="s">
+      <c r="B615" s="8" t="s">
         <v>1237</v>
       </c>
-      <c r="C615" s="9" t="s">
+      <c r="C615" s="8" t="s">
         <v>1238</v>
       </c>
       <c r="F615" s="2" t="s">
-        <v>1222</v>
+        <v>1220</v>
       </c>
     </row>
     <row r="616" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A616" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B616" s="9" t="s">
+      <c r="B616" s="8" t="s">
         <v>1239</v>
       </c>
-      <c r="C616" s="9" t="s">
+      <c r="C616" s="8" t="s">
         <v>1240</v>
       </c>
       <c r="F616" s="2" t="s">
-        <v>1222</v>
+        <v>1220</v>
       </c>
     </row>
     <row r="617" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A617" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B617" s="9" t="s">
+      <c r="B617" s="8" t="s">
         <v>1241</v>
       </c>
-      <c r="C617" s="9" t="s">
+      <c r="C617" s="8" t="s">
         <v>1242</v>
       </c>
       <c r="F617" s="2" t="s">
-        <v>1222</v>
+        <v>1220</v>
       </c>
     </row>
     <row r="618" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A618" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B618" s="9" t="s">
+      <c r="B618" s="8" t="s">
         <v>1243</v>
       </c>
-      <c r="C618" s="9" t="s">
+      <c r="C618" s="8" t="s">
         <v>1244</v>
       </c>
       <c r="F618" s="2" t="s">
-        <v>1222</v>
-      </c>
-    </row>
-    <row r="619" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1220</v>
+      </c>
+    </row>
+    <row r="619" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A619" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B619" s="9" t="s">
+      <c r="B619" s="8" t="s">
         <v>1245</v>
       </c>
-      <c r="C619" s="9" t="s">
+      <c r="C619" s="8" t="s">
         <v>1246</v>
       </c>
+      <c r="D619" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E619" s="2" t="n">
+        <v>2024</v>
+      </c>
       <c r="F619" s="2" t="s">
-        <v>1222</v>
-      </c>
-    </row>
-    <row r="620" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1220</v>
+      </c>
+    </row>
+    <row r="620" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A620" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B620" s="9" t="s">
+      <c r="B620" s="8" t="s">
         <v>1247</v>
       </c>
-      <c r="C620" s="9" t="s">
+      <c r="C620" s="8" t="s">
         <v>1248</v>
       </c>
       <c r="D620" s="2" t="n">
@@ -15051,217 +15169,217 @@
         <v>2024</v>
       </c>
       <c r="F620" s="2" t="s">
-        <v>1222</v>
-      </c>
-    </row>
-    <row r="621" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1220</v>
+      </c>
+    </row>
+    <row r="621" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A621" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B621" s="9" t="s">
+      <c r="B621" s="8" t="s">
         <v>1249</v>
       </c>
-      <c r="C621" s="9" t="s">
+      <c r="C621" s="8" t="s">
         <v>1250</v>
       </c>
-      <c r="D621" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E621" s="2" t="n">
-        <v>2024</v>
-      </c>
       <c r="F621" s="2" t="s">
-        <v>1222</v>
+        <v>1220</v>
       </c>
     </row>
     <row r="622" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A622" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B622" s="9" t="s">
+      <c r="B622" s="8" t="s">
         <v>1251</v>
       </c>
-      <c r="C622" s="9" t="s">
+      <c r="C622" s="8" t="s">
         <v>1252</v>
       </c>
       <c r="F622" s="2" t="s">
-        <v>1222</v>
-      </c>
-    </row>
-    <row r="623" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1220</v>
+      </c>
+    </row>
+    <row r="623" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A623" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B623" s="9" t="s">
+      <c r="B623" s="8" t="s">
         <v>1253</v>
       </c>
-      <c r="C623" s="9" t="s">
+      <c r="C623" s="8" t="s">
         <v>1254</v>
       </c>
       <c r="F623" s="2" t="s">
-        <v>1222</v>
-      </c>
-    </row>
-    <row r="624" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1220</v>
+      </c>
+    </row>
+    <row r="624" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A624" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B624" s="9" t="s">
+      <c r="B624" s="8" t="s">
         <v>1255</v>
       </c>
-      <c r="C624" s="9" t="s">
+      <c r="C624" s="8" t="s">
         <v>1256</v>
       </c>
+      <c r="D624" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E624" s="2" t="n">
+        <v>2023</v>
+      </c>
       <c r="F624" s="2" t="s">
-        <v>1222</v>
+        <v>1220</v>
       </c>
     </row>
     <row r="625" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A625" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B625" s="9" t="s">
+      <c r="B625" s="8" t="s">
         <v>1257</v>
       </c>
       <c r="C625" s="9" t="s">
         <v>1258</v>
       </c>
-      <c r="D625" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E625" s="2" t="n">
-        <v>2023</v>
-      </c>
       <c r="F625" s="2" t="s">
-        <v>1222</v>
-      </c>
-    </row>
-    <row r="626" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1220</v>
+      </c>
+    </row>
+    <row r="626" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A626" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B626" s="9" t="s">
         <v>1259</v>
       </c>
-      <c r="C626" s="10" t="s">
+      <c r="C626" s="8" t="s">
         <v>1260</v>
       </c>
       <c r="F626" s="2" t="s">
-        <v>1222</v>
-      </c>
-    </row>
-    <row r="627" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1220</v>
+      </c>
+    </row>
+    <row r="627" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A627" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B627" s="10" t="s">
+      <c r="B627" s="8" t="s">
         <v>1261</v>
       </c>
-      <c r="C627" s="9" t="s">
+      <c r="C627" s="8" t="s">
         <v>1262</v>
       </c>
       <c r="F627" s="2" t="s">
-        <v>1222</v>
+        <v>1220</v>
       </c>
     </row>
     <row r="628" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A628" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B628" s="9" t="s">
+      <c r="B628" s="8" t="s">
         <v>1263</v>
       </c>
-      <c r="C628" s="9" t="s">
+      <c r="C628" s="8" t="s">
         <v>1264</v>
       </c>
       <c r="F628" s="2" t="s">
-        <v>1222</v>
-      </c>
-    </row>
-    <row r="629" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1220</v>
+      </c>
+    </row>
+    <row r="629" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A629" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B629" s="9" t="s">
+      <c r="B629" s="8" t="s">
         <v>1265</v>
       </c>
-      <c r="C629" s="9" t="s">
+      <c r="C629" s="8" t="s">
         <v>1266</v>
       </c>
       <c r="F629" s="2" t="s">
-        <v>1222</v>
-      </c>
-    </row>
-    <row r="630" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1220</v>
+      </c>
+    </row>
+    <row r="630" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A630" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B630" s="9" t="s">
+      <c r="B630" s="8" t="s">
         <v>1267</v>
       </c>
-      <c r="C630" s="9" t="s">
+      <c r="C630" s="8" t="s">
         <v>1268</v>
       </c>
       <c r="F630" s="2" t="s">
-        <v>1222</v>
-      </c>
-    </row>
-    <row r="631" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1220</v>
+      </c>
+    </row>
+    <row r="631" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A631" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B631" s="9" t="s">
+      <c r="B631" s="8" t="s">
         <v>1269</v>
       </c>
-      <c r="C631" s="9" t="s">
+      <c r="C631" s="8" t="s">
         <v>1270</v>
       </c>
       <c r="F631" s="2" t="s">
-        <v>1222</v>
-      </c>
-    </row>
-    <row r="632" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1220</v>
+      </c>
+    </row>
+    <row r="632" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A632" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B632" s="9" t="s">
+      <c r="B632" s="8" t="s">
         <v>1271</v>
       </c>
-      <c r="C632" s="9" t="s">
+      <c r="C632" s="8" t="s">
         <v>1272</v>
       </c>
+      <c r="D632" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E632" s="2" t="n">
+        <v>2024</v>
+      </c>
       <c r="F632" s="2" t="s">
-        <v>1222</v>
-      </c>
-    </row>
-    <row r="633" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1220</v>
+      </c>
+    </row>
+    <row r="633" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A633" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B633" s="9" t="s">
+      <c r="B633" s="8" t="s">
         <v>1273</v>
       </c>
-      <c r="C633" s="9" t="s">
+      <c r="C633" s="8" t="s">
         <v>1274</v>
       </c>
       <c r="D633" s="2" t="n">
         <v>1</v>
       </c>
       <c r="E633" s="2" t="n">
-        <v>2024</v>
+        <v>2020</v>
       </c>
       <c r="F633" s="2" t="s">
-        <v>1222</v>
+        <v>1220</v>
       </c>
     </row>
     <row r="634" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A634" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B634" s="9" t="s">
+      <c r="B634" s="8" t="s">
         <v>1275</v>
       </c>
-      <c r="C634" s="9" t="s">
+      <c r="C634" s="8" t="s">
         <v>1276</v>
       </c>
       <c r="D634" s="2" t="n">
@@ -15271,724 +15389,724 @@
         <v>2020</v>
       </c>
       <c r="F634" s="2" t="s">
-        <v>1222</v>
-      </c>
-    </row>
-    <row r="635" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1220</v>
+      </c>
+    </row>
+    <row r="635" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A635" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B635" s="9" t="s">
+      <c r="B635" s="8" t="s">
         <v>1277</v>
       </c>
-      <c r="C635" s="9" t="s">
+      <c r="C635" s="8" t="s">
         <v>1278</v>
       </c>
       <c r="D635" s="2" t="n">
         <v>1</v>
       </c>
       <c r="E635" s="2" t="n">
-        <v>2020</v>
+        <v>2023</v>
       </c>
       <c r="F635" s="2" t="s">
-        <v>1222</v>
-      </c>
-    </row>
-    <row r="636" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1220</v>
+      </c>
+    </row>
+    <row r="636" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A636" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B636" s="9" t="s">
+      <c r="B636" s="8" t="s">
         <v>1279</v>
       </c>
-      <c r="C636" s="9" t="s">
+      <c r="C636" s="8" t="s">
         <v>1280</v>
       </c>
       <c r="D636" s="2" t="n">
         <v>1</v>
       </c>
       <c r="E636" s="2" t="n">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="F636" s="2" t="s">
-        <v>1222</v>
+        <v>1220</v>
       </c>
     </row>
     <row r="637" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A637" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B637" s="9" t="s">
+      <c r="B637" s="8" t="s">
         <v>1281</v>
       </c>
-      <c r="C637" s="9" t="s">
+      <c r="C637" s="8" t="s">
         <v>1282</v>
       </c>
       <c r="D637" s="2" t="n">
         <v>1</v>
       </c>
       <c r="E637" s="2" t="n">
-        <v>2022</v>
+        <v>2020</v>
       </c>
       <c r="F637" s="2" t="s">
-        <v>1222</v>
-      </c>
-    </row>
-    <row r="638" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1220</v>
+      </c>
+    </row>
+    <row r="638" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A638" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B638" s="9" t="s">
+      <c r="B638" s="8" t="s">
         <v>1283</v>
       </c>
-      <c r="C638" s="9" t="s">
+      <c r="C638" s="8" t="s">
         <v>1284</v>
       </c>
       <c r="D638" s="2" t="n">
         <v>1</v>
       </c>
       <c r="E638" s="2" t="n">
-        <v>2020</v>
+        <v>2024</v>
       </c>
       <c r="F638" s="2" t="s">
-        <v>1222</v>
-      </c>
-    </row>
-    <row r="639" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1220</v>
+      </c>
+    </row>
+    <row r="639" customFormat="false" ht="35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A639" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B639" s="9" t="s">
+      <c r="B639" s="8" t="s">
         <v>1285</v>
       </c>
-      <c r="C639" s="9" t="s">
+      <c r="C639" s="8" t="s">
         <v>1286</v>
       </c>
-      <c r="D639" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E639" s="2" t="n">
-        <v>2024</v>
-      </c>
       <c r="F639" s="2" t="s">
-        <v>1222</v>
-      </c>
-    </row>
-    <row r="640" customFormat="false" ht="35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1220</v>
+      </c>
+    </row>
+    <row r="640" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A640" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B640" s="9" t="s">
+      <c r="B640" s="8" t="s">
         <v>1287</v>
       </c>
-      <c r="C640" s="9" t="s">
+      <c r="C640" s="8" t="s">
         <v>1288</v>
       </c>
+      <c r="D640" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E640" s="2" t="n">
+        <v>2023</v>
+      </c>
       <c r="F640" s="2" t="s">
-        <v>1222</v>
-      </c>
-    </row>
-    <row r="641" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1220</v>
+      </c>
+    </row>
+    <row r="641" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A641" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B641" s="9" t="s">
+      <c r="B641" s="8" t="s">
         <v>1289</v>
       </c>
-      <c r="C641" s="9" t="s">
+      <c r="C641" s="8" t="s">
         <v>1290</v>
       </c>
       <c r="D641" s="2" t="n">
         <v>1</v>
       </c>
       <c r="E641" s="2" t="n">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="F641" s="2" t="s">
-        <v>1222</v>
-      </c>
-    </row>
-    <row r="642" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1220</v>
+      </c>
+    </row>
+    <row r="642" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A642" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B642" s="9" t="s">
+      <c r="B642" s="8" t="s">
         <v>1291</v>
       </c>
-      <c r="C642" s="9" t="s">
+      <c r="C642" s="8" t="s">
         <v>1292</v>
       </c>
       <c r="D642" s="2" t="n">
         <v>1</v>
       </c>
       <c r="E642" s="2" t="n">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F642" s="2" t="s">
-        <v>1222</v>
-      </c>
-    </row>
-    <row r="643" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1220</v>
+      </c>
+    </row>
+    <row r="643" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A643" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B643" s="9" t="s">
+      <c r="B643" s="8" t="s">
         <v>1293</v>
       </c>
-      <c r="C643" s="9" t="s">
+      <c r="C643" s="8" t="s">
         <v>1294</v>
       </c>
-      <c r="D643" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E643" s="2" t="n">
-        <v>2023</v>
-      </c>
       <c r="F643" s="2" t="s">
-        <v>1222</v>
-      </c>
-    </row>
-    <row r="644" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1220</v>
+      </c>
+    </row>
+    <row r="644" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A644" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B644" s="9" t="s">
+      <c r="B644" s="8" t="s">
         <v>1295</v>
       </c>
-      <c r="C644" s="9" t="s">
+      <c r="C644" s="8" t="s">
         <v>1296</v>
       </c>
+      <c r="D644" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E644" s="2" t="n">
+        <v>2023</v>
+      </c>
       <c r="F644" s="2" t="s">
-        <v>1222</v>
-      </c>
-    </row>
-    <row r="645" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1220</v>
+      </c>
+    </row>
+    <row r="645" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A645" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B645" s="9" t="s">
+      <c r="B645" s="8" t="s">
         <v>1297</v>
       </c>
-      <c r="C645" s="9" t="s">
+      <c r="C645" s="8" t="s">
         <v>1298</v>
       </c>
-      <c r="D645" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E645" s="2" t="n">
-        <v>2023</v>
-      </c>
       <c r="F645" s="2" t="s">
-        <v>1222</v>
-      </c>
-    </row>
-    <row r="646" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1220</v>
+      </c>
+    </row>
+    <row r="646" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A646" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B646" s="9" t="s">
+      <c r="B646" s="8" t="s">
         <v>1299</v>
       </c>
-      <c r="C646" s="9" t="s">
+      <c r="C646" s="8" t="s">
         <v>1300</v>
       </c>
       <c r="F646" s="2" t="s">
-        <v>1222</v>
-      </c>
-    </row>
-    <row r="647" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1220</v>
+      </c>
+    </row>
+    <row r="647" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A647" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B647" s="9" t="s">
+      <c r="B647" s="8" t="s">
         <v>1301</v>
       </c>
-      <c r="C647" s="9" t="s">
+      <c r="C647" s="8" t="s">
         <v>1302</v>
       </c>
       <c r="F647" s="2" t="s">
-        <v>1222</v>
-      </c>
-    </row>
-    <row r="648" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1220</v>
+      </c>
+    </row>
+    <row r="648" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A648" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B648" s="9" t="s">
+      <c r="B648" s="8" t="s">
         <v>1303</v>
       </c>
-      <c r="C648" s="9" t="s">
+      <c r="C648" s="8" t="s">
         <v>1304</v>
       </c>
       <c r="F648" s="2" t="s">
-        <v>1222</v>
+        <v>1220</v>
       </c>
     </row>
     <row r="649" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A649" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B649" s="9" t="s">
+      <c r="B649" s="8" t="s">
         <v>1305</v>
       </c>
-      <c r="C649" s="9" t="s">
+      <c r="C649" s="8" t="s">
         <v>1306</v>
       </c>
       <c r="F649" s="2" t="s">
-        <v>1222</v>
-      </c>
-    </row>
-    <row r="650" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1220</v>
+      </c>
+    </row>
+    <row r="650" customFormat="false" ht="30.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A650" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B650" s="9" t="s">
         <v>1307</v>
       </c>
-      <c r="C650" s="9" t="s">
+      <c r="C650" s="8" t="s">
         <v>1308</v>
       </c>
       <c r="F650" s="2" t="s">
-        <v>1222</v>
-      </c>
-    </row>
-    <row r="651" customFormat="false" ht="30.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1220</v>
+      </c>
+    </row>
+    <row r="651" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A651" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B651" s="10" t="s">
+      <c r="B651" s="8" t="s">
         <v>1309</v>
       </c>
-      <c r="C651" s="9" t="s">
+      <c r="C651" s="8" t="s">
         <v>1310</v>
       </c>
       <c r="F651" s="2" t="s">
-        <v>1222</v>
-      </c>
-    </row>
-    <row r="652" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1220</v>
+      </c>
+    </row>
+    <row r="652" customFormat="false" ht="23.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A652" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B652" s="9" t="s">
+      <c r="B652" s="8" t="s">
         <v>1311</v>
       </c>
-      <c r="C652" s="9" t="s">
+      <c r="C652" s="8" t="s">
         <v>1312</v>
       </c>
       <c r="F652" s="2" t="s">
-        <v>1222</v>
-      </c>
-    </row>
-    <row r="653" customFormat="false" ht="23.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1220</v>
+      </c>
+    </row>
+    <row r="653" customFormat="false" ht="45.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A653" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B653" s="9" t="s">
+      <c r="B653" s="8" t="s">
         <v>1313</v>
       </c>
-      <c r="C653" s="9" t="s">
+      <c r="C653" s="8" t="s">
         <v>1314</v>
       </c>
       <c r="F653" s="2" t="s">
-        <v>1222</v>
-      </c>
-    </row>
-    <row r="654" customFormat="false" ht="45.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1220</v>
+      </c>
+    </row>
+    <row r="654" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A654" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B654" s="9" t="s">
+      <c r="B654" s="8" t="s">
         <v>1315</v>
       </c>
-      <c r="C654" s="9" t="s">
+      <c r="C654" s="8" t="s">
         <v>1316</v>
       </c>
       <c r="F654" s="2" t="s">
-        <v>1222</v>
-      </c>
-    </row>
-    <row r="655" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1220</v>
+      </c>
+    </row>
+    <row r="655" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A655" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B655" s="9" t="s">
+      <c r="B655" s="8" t="s">
         <v>1317</v>
       </c>
-      <c r="C655" s="9" t="s">
+      <c r="C655" s="8" t="s">
         <v>1318</v>
       </c>
       <c r="F655" s="2" t="s">
-        <v>1222</v>
-      </c>
-    </row>
-    <row r="656" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1220</v>
+      </c>
+    </row>
+    <row r="656" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A656" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B656" s="9" t="s">
+      <c r="B656" s="8" t="s">
         <v>1319</v>
       </c>
-      <c r="C656" s="9" t="s">
+      <c r="C656" s="8" t="s">
         <v>1320</v>
       </c>
       <c r="F656" s="2" t="s">
-        <v>1222</v>
+        <v>1220</v>
       </c>
     </row>
     <row r="657" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A657" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B657" s="9" t="s">
+      <c r="B657" s="8" t="s">
         <v>1321</v>
       </c>
-      <c r="C657" s="9" t="s">
+      <c r="C657" s="8" t="s">
         <v>1322</v>
       </c>
       <c r="F657" s="2" t="s">
-        <v>1222</v>
+        <v>1220</v>
       </c>
     </row>
     <row r="658" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A658" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B658" s="9" t="s">
+      <c r="B658" s="8" t="s">
         <v>1323</v>
       </c>
-      <c r="C658" s="9" t="s">
+      <c r="C658" s="8" t="s">
         <v>1324</v>
       </c>
       <c r="F658" s="2" t="s">
-        <v>1222</v>
-      </c>
-    </row>
-    <row r="659" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1220</v>
+      </c>
+    </row>
+    <row r="659" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A659" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B659" s="9" t="s">
         <v>1325</v>
       </c>
-      <c r="C659" s="9" t="s">
+      <c r="C659" s="8" t="s">
         <v>1326</v>
       </c>
       <c r="F659" s="2" t="s">
-        <v>1222</v>
-      </c>
-    </row>
-    <row r="660" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1220</v>
+      </c>
+    </row>
+    <row r="660" customFormat="false" ht="35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A660" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B660" s="10" t="s">
+      <c r="B660" s="8" t="s">
         <v>1327</v>
       </c>
-      <c r="C660" s="9" t="s">
+      <c r="C660" s="8" t="s">
         <v>1328</v>
       </c>
       <c r="F660" s="2" t="s">
-        <v>1222</v>
+        <v>1220</v>
       </c>
     </row>
     <row r="661" customFormat="false" ht="35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A661" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B661" s="9" t="s">
+      <c r="B661" s="8" t="s">
         <v>1329</v>
       </c>
-      <c r="C661" s="9" t="s">
+      <c r="C661" s="8" t="s">
         <v>1330</v>
       </c>
       <c r="F661" s="2" t="s">
-        <v>1222</v>
-      </c>
-    </row>
-    <row r="662" customFormat="false" ht="35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1220</v>
+      </c>
+    </row>
+    <row r="662" customFormat="false" ht="23.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A662" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B662" s="9" t="s">
+      <c r="B662" s="8" t="s">
         <v>1331</v>
       </c>
-      <c r="C662" s="9" t="s">
+      <c r="C662" s="8" t="s">
         <v>1332</v>
       </c>
       <c r="F662" s="2" t="s">
-        <v>1222</v>
-      </c>
-    </row>
-    <row r="663" customFormat="false" ht="23.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1220</v>
+      </c>
+    </row>
+    <row r="663" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A663" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B663" s="9" t="s">
+      <c r="B663" s="8" t="s">
         <v>1333</v>
       </c>
-      <c r="C663" s="9" t="s">
+      <c r="C663" s="8" t="s">
         <v>1334</v>
       </c>
+      <c r="D663" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E663" s="2" t="n">
+        <v>2019</v>
+      </c>
       <c r="F663" s="2" t="s">
-        <v>1222</v>
+        <v>1220</v>
       </c>
     </row>
     <row r="664" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A664" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B664" s="9" t="s">
+      <c r="B664" s="8" t="s">
         <v>1335</v>
       </c>
-      <c r="C664" s="9" t="s">
+      <c r="C664" s="8" t="s">
         <v>1336</v>
       </c>
-      <c r="D664" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E664" s="2" t="n">
-        <v>2019</v>
-      </c>
       <c r="F664" s="2" t="s">
-        <v>1222</v>
+        <v>1220</v>
       </c>
     </row>
     <row r="665" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A665" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B665" s="9" t="s">
+      <c r="B665" s="8" t="s">
         <v>1337</v>
       </c>
-      <c r="C665" s="9" t="s">
+      <c r="C665" s="8" t="s">
         <v>1338</v>
       </c>
+      <c r="D665" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E665" s="2" t="n">
+        <v>2019</v>
+      </c>
       <c r="F665" s="2" t="s">
-        <v>1222</v>
-      </c>
-    </row>
-    <row r="666" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1220</v>
+      </c>
+    </row>
+    <row r="666" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A666" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B666" s="9" t="s">
+      <c r="B666" s="8" t="s">
         <v>1339</v>
       </c>
-      <c r="C666" s="9" t="s">
+      <c r="C666" s="8" t="s">
         <v>1340</v>
       </c>
       <c r="D666" s="2" t="n">
         <v>1</v>
       </c>
       <c r="E666" s="2" t="n">
-        <v>2019</v>
+        <v>2022</v>
       </c>
       <c r="F666" s="2" t="s">
-        <v>1222</v>
-      </c>
-    </row>
-    <row r="667" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1220</v>
+      </c>
+    </row>
+    <row r="667" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A667" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B667" s="9" t="s">
+      <c r="B667" s="8" t="s">
         <v>1341</v>
       </c>
-      <c r="C667" s="9" t="s">
+      <c r="C667" s="2" t="s">
         <v>1342</v>
       </c>
-      <c r="D667" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E667" s="2" t="n">
-        <v>2022</v>
-      </c>
       <c r="F667" s="2" t="s">
-        <v>1222</v>
-      </c>
-    </row>
-    <row r="668" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1220</v>
+      </c>
+    </row>
+    <row r="668" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A668" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B668" s="9" t="s">
+      <c r="B668" s="8" t="s">
         <v>1343</v>
       </c>
-      <c r="C668" s="2" t="s">
+      <c r="C668" s="8" t="s">
         <v>1344</v>
       </c>
+      <c r="D668" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E668" s="2" t="n">
+        <v>2019</v>
+      </c>
       <c r="F668" s="2" t="s">
-        <v>1222</v>
-      </c>
-    </row>
-    <row r="669" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1220</v>
+      </c>
+    </row>
+    <row r="669" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A669" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B669" s="9" t="s">
+      <c r="B669" s="8" t="s">
         <v>1345</v>
       </c>
-      <c r="C669" s="9" t="s">
+      <c r="C669" s="8" t="s">
         <v>1346</v>
       </c>
-      <c r="D669" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E669" s="2" t="n">
-        <v>2019</v>
-      </c>
       <c r="F669" s="2" t="s">
-        <v>1222</v>
+        <v>1220</v>
       </c>
     </row>
     <row r="670" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A670" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B670" s="9" t="s">
+      <c r="B670" s="8" t="s">
         <v>1347</v>
       </c>
-      <c r="C670" s="9" t="s">
+      <c r="C670" s="8" t="s">
         <v>1348</v>
       </c>
       <c r="F670" s="2" t="s">
-        <v>1222</v>
-      </c>
-    </row>
-    <row r="671" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1220</v>
+      </c>
+    </row>
+    <row r="671" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A671" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B671" s="9" t="s">
+      <c r="B671" s="8" t="s">
         <v>1349</v>
       </c>
-      <c r="C671" s="9" t="s">
+      <c r="C671" s="2" t="s">
         <v>1350</v>
       </c>
+      <c r="D671" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E671" s="2" t="n">
+        <v>2019</v>
+      </c>
       <c r="F671" s="2" t="s">
-        <v>1222</v>
-      </c>
-    </row>
-    <row r="672" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1220</v>
+      </c>
+    </row>
+    <row r="672" customFormat="false" ht="23.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A672" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B672" s="9" t="s">
+      <c r="B672" s="8" t="s">
         <v>1351</v>
       </c>
-      <c r="C672" s="2" t="s">
+      <c r="C672" s="8" t="s">
         <v>1352</v>
       </c>
-      <c r="D672" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E672" s="2" t="n">
-        <v>2019</v>
-      </c>
       <c r="F672" s="2" t="s">
-        <v>1222</v>
-      </c>
-    </row>
-    <row r="673" customFormat="false" ht="23.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1220</v>
+      </c>
+    </row>
+    <row r="673" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A673" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B673" s="9" t="s">
+      <c r="B673" s="8" t="s">
         <v>1353</v>
       </c>
-      <c r="C673" s="9" t="s">
+      <c r="C673" s="8" t="s">
         <v>1354</v>
       </c>
       <c r="F673" s="2" t="s">
-        <v>1222</v>
+        <v>1220</v>
       </c>
     </row>
     <row r="674" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A674" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B674" s="9" t="s">
+      <c r="B674" s="8" t="s">
         <v>1355</v>
       </c>
-      <c r="C674" s="9" t="s">
+      <c r="C674" s="8" t="s">
         <v>1356</v>
       </c>
       <c r="F674" s="2" t="s">
-        <v>1222</v>
-      </c>
-    </row>
-    <row r="675" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1220</v>
+      </c>
+    </row>
+    <row r="675" customFormat="false" ht="24.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A675" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B675" s="9" t="s">
+      <c r="B675" s="8" t="s">
         <v>1357</v>
       </c>
-      <c r="C675" s="9" t="s">
+      <c r="C675" s="8" t="s">
         <v>1358</v>
       </c>
+      <c r="D675" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E675" s="2" t="n">
+        <v>2024</v>
+      </c>
       <c r="F675" s="2" t="s">
-        <v>1222</v>
-      </c>
-    </row>
-    <row r="676" customFormat="false" ht="24.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1220</v>
+      </c>
+    </row>
+    <row r="676" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A676" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B676" s="9" t="s">
+      <c r="B676" s="8" t="s">
         <v>1359</v>
       </c>
-      <c r="C676" s="9" t="s">
+      <c r="C676" s="8" t="s">
         <v>1360</v>
       </c>
-      <c r="D676" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E676" s="2" t="n">
-        <v>2024</v>
-      </c>
       <c r="F676" s="2" t="s">
-        <v>1222</v>
+        <v>1220</v>
       </c>
     </row>
     <row r="677" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A677" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B677" s="9" t="s">
+      <c r="B677" s="8" t="s">
         <v>1361</v>
       </c>
-      <c r="C677" s="9" t="s">
+      <c r="C677" s="8" t="s">
         <v>1362</v>
       </c>
       <c r="F677" s="2" t="s">
-        <v>1222</v>
+        <v>1220</v>
       </c>
     </row>
     <row r="678" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A678" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B678" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B678" s="2" t="s">
         <v>1363</v>
       </c>
-      <c r="C678" s="9" t="s">
+      <c r="C678" s="6" t="s">
         <v>1364</v>
       </c>
+      <c r="D678" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E678" s="2" t="n">
+        <v>2024</v>
+      </c>
       <c r="F678" s="2" t="s">
-        <v>1222</v>
-      </c>
-    </row>
-    <row r="679" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1365</v>
+      </c>
+    </row>
+    <row r="679" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A679" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B679" s="2" t="s">
-        <v>1365</v>
-      </c>
-      <c r="C679" s="6" t="s">
         <v>1366</v>
+      </c>
+      <c r="C679" s="2" t="s">
+        <v>1367</v>
       </c>
       <c r="D679" s="2" t="n">
         <v>1</v>
@@ -15997,17 +16115,17 @@
         <v>2024</v>
       </c>
       <c r="F679" s="2" t="s">
-        <v>1367</v>
-      </c>
-    </row>
-    <row r="680" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1365</v>
+      </c>
+    </row>
+    <row r="680" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A680" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B680" s="2" t="s">
         <v>1368</v>
       </c>
-      <c r="C680" s="2" t="s">
+      <c r="C680" s="6" t="s">
         <v>1369</v>
       </c>
       <c r="D680" s="2" t="n">
@@ -16017,17 +16135,17 @@
         <v>2024</v>
       </c>
       <c r="F680" s="2" t="s">
-        <v>1367</v>
-      </c>
-    </row>
-    <row r="681" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1365</v>
+      </c>
+    </row>
+    <row r="681" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A681" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B681" s="2" t="s">
         <v>1370</v>
       </c>
-      <c r="C681" s="6" t="s">
+      <c r="C681" s="2" t="s">
         <v>1371</v>
       </c>
       <c r="D681" s="2" t="n">
@@ -16037,10 +16155,10 @@
         <v>2024</v>
       </c>
       <c r="F681" s="2" t="s">
-        <v>1367</v>
-      </c>
-    </row>
-    <row r="682" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1365</v>
+      </c>
+    </row>
+    <row r="682" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A682" s="1" t="n">
         <v>1</v>
       </c>
@@ -16050,17 +16168,11 @@
       <c r="C682" s="2" t="s">
         <v>1373</v>
       </c>
-      <c r="D682" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E682" s="2" t="n">
-        <v>2024</v>
-      </c>
       <c r="F682" s="2" t="s">
-        <v>1367</v>
-      </c>
-    </row>
-    <row r="683" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1365</v>
+      </c>
+    </row>
+    <row r="683" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A683" s="1" t="n">
         <v>1</v>
       </c>
@@ -16071,11 +16183,592 @@
         <v>1375</v>
       </c>
       <c r="F683" s="2" t="s">
-        <v>1367</v>
-      </c>
-    </row>
+        <v>1376</v>
+      </c>
+    </row>
+    <row r="684" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A684" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B684" s="2" t="s">
+        <v>1377</v>
+      </c>
+      <c r="C684" s="2" t="s">
+        <v>1378</v>
+      </c>
+      <c r="F684" s="2" t="s">
+        <v>1376</v>
+      </c>
+    </row>
+    <row r="685" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A685" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B685" s="2" t="s">
+        <v>1379</v>
+      </c>
+      <c r="C685" s="2" t="s">
+        <v>753</v>
+      </c>
+      <c r="F685" s="2" t="s">
+        <v>1376</v>
+      </c>
+    </row>
+    <row r="686" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A686" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B686" s="2" t="s">
+        <v>1380</v>
+      </c>
+      <c r="C686" s="2" t="s">
+        <v>1381</v>
+      </c>
+      <c r="F686" s="2" t="s">
+        <v>1376</v>
+      </c>
+    </row>
+    <row r="687" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A687" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B687" s="2" t="s">
+        <v>1382</v>
+      </c>
+      <c r="C687" s="2" t="s">
+        <v>1383</v>
+      </c>
+      <c r="F687" s="2" t="s">
+        <v>1376</v>
+      </c>
+    </row>
+    <row r="688" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A688" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B688" s="2" t="s">
+        <v>1384</v>
+      </c>
+      <c r="C688" s="2" t="s">
+        <v>1385</v>
+      </c>
+      <c r="F688" s="2" t="s">
+        <v>1376</v>
+      </c>
+    </row>
+    <row r="689" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A689" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B689" s="2" t="s">
+        <v>1386</v>
+      </c>
+      <c r="C689" s="2" t="s">
+        <v>1387</v>
+      </c>
+      <c r="F689" s="2" t="s">
+        <v>1376</v>
+      </c>
+    </row>
+    <row r="690" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A690" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B690" s="2" t="s">
+        <v>1388</v>
+      </c>
+      <c r="C690" s="2" t="s">
+        <v>1389</v>
+      </c>
+      <c r="F690" s="2" t="s">
+        <v>1376</v>
+      </c>
+    </row>
+    <row r="691" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A691" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B691" s="2" t="s">
+        <v>1390</v>
+      </c>
+      <c r="C691" s="2" t="s">
+        <v>1391</v>
+      </c>
+      <c r="F691" s="2" t="s">
+        <v>1376</v>
+      </c>
+    </row>
+    <row r="692" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A692" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B692" s="2" t="s">
+        <v>1392</v>
+      </c>
+      <c r="C692" s="2" t="s">
+        <v>1393</v>
+      </c>
+      <c r="F692" s="2" t="s">
+        <v>1376</v>
+      </c>
+    </row>
+    <row r="693" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A693" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B693" s="2" t="s">
+        <v>1394</v>
+      </c>
+      <c r="C693" s="2" t="s">
+        <v>1395</v>
+      </c>
+      <c r="F693" s="2" t="s">
+        <v>1376</v>
+      </c>
+    </row>
+    <row r="694" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A694" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B694" s="2" t="s">
+        <v>1396</v>
+      </c>
+      <c r="C694" s="2" t="s">
+        <v>1397</v>
+      </c>
+      <c r="F694" s="2" t="s">
+        <v>1376</v>
+      </c>
+    </row>
+    <row r="695" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A695" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B695" s="2" t="s">
+        <v>1398</v>
+      </c>
+      <c r="C695" s="2" t="s">
+        <v>1399</v>
+      </c>
+      <c r="F695" s="2" t="s">
+        <v>1376</v>
+      </c>
+    </row>
+    <row r="696" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A696" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B696" s="2" t="s">
+        <v>1400</v>
+      </c>
+      <c r="C696" s="2" t="s">
+        <v>1401</v>
+      </c>
+      <c r="F696" s="2" t="s">
+        <v>1376</v>
+      </c>
+    </row>
+    <row r="697" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A697" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B697" s="2" t="s">
+        <v>1402</v>
+      </c>
+      <c r="C697" s="2" t="s">
+        <v>1403</v>
+      </c>
+      <c r="F697" s="2" t="s">
+        <v>1376</v>
+      </c>
+    </row>
+    <row r="698" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A698" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B698" s="2" t="s">
+        <v>1404</v>
+      </c>
+      <c r="C698" s="2" t="s">
+        <v>1405</v>
+      </c>
+      <c r="F698" s="2" t="s">
+        <v>1376</v>
+      </c>
+    </row>
+    <row r="699" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A699" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B699" s="2" t="s">
+        <v>1406</v>
+      </c>
+      <c r="C699" s="2" t="s">
+        <v>1407</v>
+      </c>
+      <c r="F699" s="2" t="s">
+        <v>1376</v>
+      </c>
+    </row>
+    <row r="700" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A700" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B700" s="2" t="s">
+        <v>1408</v>
+      </c>
+      <c r="C700" s="2" t="s">
+        <v>1409</v>
+      </c>
+      <c r="F700" s="2" t="s">
+        <v>1376</v>
+      </c>
+    </row>
+    <row r="701" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A701" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B701" s="2" t="s">
+        <v>1410</v>
+      </c>
+      <c r="C701" s="2" t="s">
+        <v>1411</v>
+      </c>
+      <c r="F701" s="2" t="s">
+        <v>1412</v>
+      </c>
+    </row>
+    <row r="702" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A702" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B702" s="2" t="s">
+        <v>1413</v>
+      </c>
+      <c r="C702" s="2" t="s">
+        <v>1414</v>
+      </c>
+      <c r="F702" s="2" t="s">
+        <v>1412</v>
+      </c>
+    </row>
+    <row r="703" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A703" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B703" s="2" t="s">
+        <v>1415</v>
+      </c>
+      <c r="C703" s="2" t="s">
+        <v>1416</v>
+      </c>
+      <c r="F703" s="2" t="s">
+        <v>1412</v>
+      </c>
+    </row>
+    <row r="704" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A704" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B704" s="2" t="s">
+        <v>1417</v>
+      </c>
+      <c r="C704" s="2" t="s">
+        <v>1418</v>
+      </c>
+      <c r="F704" s="2" t="s">
+        <v>1412</v>
+      </c>
+    </row>
+    <row r="705" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A705" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B705" s="2" t="s">
+        <v>1419</v>
+      </c>
+      <c r="C705" s="2" t="s">
+        <v>1420</v>
+      </c>
+      <c r="F705" s="2" t="s">
+        <v>1412</v>
+      </c>
+    </row>
+    <row r="706" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A706" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B706" s="2" t="s">
+        <v>1421</v>
+      </c>
+      <c r="C706" s="2" t="s">
+        <v>1422</v>
+      </c>
+      <c r="F706" s="2" t="s">
+        <v>1412</v>
+      </c>
+    </row>
+    <row r="707" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A707" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B707" s="2" t="s">
+        <v>1423</v>
+      </c>
+      <c r="C707" s="2" t="s">
+        <v>1424</v>
+      </c>
+      <c r="F707" s="2" t="s">
+        <v>1412</v>
+      </c>
+    </row>
+    <row r="708" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A708" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B708" s="2" t="s">
+        <v>1425</v>
+      </c>
+      <c r="C708" s="2" t="s">
+        <v>1426</v>
+      </c>
+      <c r="F708" s="2" t="s">
+        <v>1412</v>
+      </c>
+    </row>
+    <row r="709" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A709" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B709" s="2" t="s">
+        <v>1427</v>
+      </c>
+      <c r="C709" s="2" t="s">
+        <v>1428</v>
+      </c>
+      <c r="F709" s="2" t="s">
+        <v>1412</v>
+      </c>
+    </row>
+    <row r="710" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A710" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B710" s="2" t="s">
+        <v>1429</v>
+      </c>
+      <c r="C710" s="2" t="s">
+        <v>1430</v>
+      </c>
+      <c r="F710" s="2" t="s">
+        <v>1412</v>
+      </c>
+    </row>
+    <row r="711" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A711" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B711" s="2" t="s">
+        <v>1431</v>
+      </c>
+      <c r="C711" s="2" t="s">
+        <v>1432</v>
+      </c>
+      <c r="F711" s="2" t="s">
+        <v>1412</v>
+      </c>
+    </row>
+    <row r="712" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A712" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B712" s="2" t="s">
+        <v>1433</v>
+      </c>
+      <c r="C712" s="2" t="s">
+        <v>1434</v>
+      </c>
+      <c r="F712" s="2" t="s">
+        <v>1412</v>
+      </c>
+    </row>
+    <row r="713" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A713" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B713" s="2" t="s">
+        <v>1435</v>
+      </c>
+      <c r="C713" s="2" t="s">
+        <v>1436</v>
+      </c>
+      <c r="F713" s="2" t="s">
+        <v>1412</v>
+      </c>
+    </row>
+    <row r="714" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A714" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B714" s="2" t="s">
+        <v>1437</v>
+      </c>
+      <c r="C714" s="2" t="s">
+        <v>1438</v>
+      </c>
+      <c r="F714" s="2" t="s">
+        <v>1412</v>
+      </c>
+    </row>
+    <row r="715" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A715" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B715" s="2" t="s">
+        <v>1439</v>
+      </c>
+      <c r="C715" s="2" t="s">
+        <v>1440</v>
+      </c>
+      <c r="F715" s="2" t="s">
+        <v>1412</v>
+      </c>
+    </row>
+    <row r="716" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A716" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B716" s="2" t="s">
+        <v>1441</v>
+      </c>
+      <c r="C716" s="2" t="s">
+        <v>1442</v>
+      </c>
+      <c r="F716" s="2" t="s">
+        <v>1443</v>
+      </c>
+    </row>
+    <row r="717" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A717" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B717" s="2" t="s">
+        <v>1444</v>
+      </c>
+      <c r="C717" s="2" t="s">
+        <v>1445</v>
+      </c>
+      <c r="F717" s="2" t="s">
+        <v>1443</v>
+      </c>
+    </row>
+    <row r="718" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A718" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B718" s="2" t="s">
+        <v>1446</v>
+      </c>
+      <c r="C718" s="2" t="s">
+        <v>1447</v>
+      </c>
+      <c r="F718" s="2" t="s">
+        <v>1443</v>
+      </c>
+    </row>
+    <row r="719" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A719" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B719" s="2" t="s">
+        <v>1448</v>
+      </c>
+      <c r="C719" s="2" t="s">
+        <v>1449</v>
+      </c>
+      <c r="F719" s="2" t="s">
+        <v>1443</v>
+      </c>
+    </row>
+    <row r="720" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A720" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B720" s="2" t="s">
+        <v>1450</v>
+      </c>
+      <c r="C720" s="2" t="s">
+        <v>1451</v>
+      </c>
+      <c r="F720" s="2" t="s">
+        <v>1443</v>
+      </c>
+    </row>
+    <row r="721" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A721" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B721" s="2" t="s">
+        <v>1452</v>
+      </c>
+      <c r="C721" s="2" t="s">
+        <v>1453</v>
+      </c>
+      <c r="F721" s="2" t="s">
+        <v>1443</v>
+      </c>
+    </row>
+    <row r="722" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A722" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B722" s="2" t="s">
+        <v>1454</v>
+      </c>
+      <c r="C722" s="2" t="s">
+        <v>1455</v>
+      </c>
+      <c r="F722" s="2" t="s">
+        <v>1443</v>
+      </c>
+    </row>
+    <row r="723" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A723" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B723" s="2" t="s">
+        <v>1456</v>
+      </c>
+      <c r="C723" s="2" t="s">
+        <v>1457</v>
+      </c>
+      <c r="F723" s="2" t="s">
+        <v>1443</v>
+      </c>
+    </row>
+    <row r="724" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A724" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B724" s="2" t="s">
+        <v>1458</v>
+      </c>
+      <c r="C724" s="2" t="s">
+        <v>1459</v>
+      </c>
+      <c r="F724" s="2" t="s">
+        <v>1443</v>
+      </c>
+    </row>
+    <row r="1048570" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048571" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <autoFilter ref="A1:F682"/>
+  <autoFilter ref="A1:F681"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" scale="65" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -16085,4 +16778,27 @@
   </headerFooter>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="A721:A724 A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;Kffffff&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;KffffffPágina &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>
--- a/backend/django_cemos2028/apps/perguntas/fixtures/flashcards.xlsx
+++ b/backend/django_cemos2028/apps/perguntas/fixtures/flashcards.xlsx
@@ -8,11 +8,11 @@
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="Planilha2" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId3"/>
+    <sheet name="Planilha2" sheetId="2" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Sheet1!$A$1:$F$681</definedName>
+    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Sheet1!$A$1:$F$724</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2173" uniqueCount="1460">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2573" uniqueCount="1460">
   <si>
     <t xml:space="preserve">bibliografia_id</t>
   </si>
@@ -4696,21 +4696,22 @@
       <fill>
         <patternFill patternType="solid">
           <fgColor rgb="FFFFFF00"/>
+          <bgColor rgb="FF000000"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor rgb="00FFFFFF"/>
+          <bgColor rgb="FF000000"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor rgb="FF3D3D3D"/>
-          <bgColor rgb="FFFFFFFF"/>
+          <fgColor rgb="FF000000"/>
+          <bgColor rgb="FF000000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -4722,18 +4723,124 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office">
+  <a:themeElements>
+    <a:clrScheme name="LibreOffice">
+      <a:dk1>
+        <a:srgbClr val="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:srgbClr val="ffffff"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="000000"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="ffffff"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="18a303"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="0369a3"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="a33e03"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8e03a3"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="c99c00"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="c9211e"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000ee"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="551a8b"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:ea typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+        <a:cs typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:ea typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+        <a:cs typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme>
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:prstDash val="solid"/>
+          <a:miter/>
+        </a:ln>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:prstDash val="solid"/>
+          <a:miter/>
+        </a:ln>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:prstDash val="solid"/>
+          <a:miter/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="true">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:F1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A712" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A721" activeCellId="0" sqref="A721:A724"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A557" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C605" activeCellId="0" sqref="C557:D605"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.62890625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="16.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="57.23"/>
@@ -4742,7 +4849,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="3" width="16.9"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -4762,7 +4869,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="61.15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="n">
         <v>1</v>
       </c>
@@ -4778,7 +4885,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="61.15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="n">
         <v>2</v>
       </c>
@@ -4798,7 +4905,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="46.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
@@ -4814,7 +4921,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="46.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="n">
         <v>2</v>
       </c>
@@ -4830,7 +4937,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="31.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="n">
         <v>2</v>
       </c>
@@ -4846,7 +4953,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="31.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="n">
         <v>2</v>
       </c>
@@ -4862,7 +4969,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="31.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="n">
         <v>2</v>
       </c>
@@ -4878,7 +4985,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="31.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="n">
         <v>2</v>
       </c>
@@ -4894,7 +5001,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="31.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="n">
         <v>2</v>
       </c>
@@ -4910,7 +5017,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="46.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="n">
         <v>2</v>
       </c>
@@ -4926,7 +5033,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="31.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="n">
         <v>2</v>
       </c>
@@ -4942,7 +5049,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="46.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="n">
         <v>2</v>
       </c>
@@ -4958,7 +5065,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="31.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="n">
         <v>2</v>
       </c>
@@ -4974,7 +5081,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="31.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="n">
         <v>2</v>
       </c>
@@ -4990,7 +5097,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="31.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="n">
         <v>2</v>
       </c>
@@ -5006,7 +5113,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="31.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="n">
         <v>2</v>
       </c>
@@ -5022,7 +5129,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="46.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="n">
         <v>2</v>
       </c>
@@ -5038,7 +5145,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="31.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="n">
         <v>2</v>
       </c>
@@ -5054,7 +5161,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="46.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="n">
         <v>2</v>
       </c>
@@ -5070,7 +5177,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="46.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="n">
         <v>2</v>
       </c>
@@ -5086,7 +5193,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="46.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="n">
         <v>2</v>
       </c>
@@ -5102,7 +5209,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="46.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="n">
         <v>2</v>
       </c>
@@ -5118,7 +5225,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="46.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="n">
         <v>2</v>
       </c>
@@ -5134,7 +5241,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="46.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="n">
         <v>2</v>
       </c>
@@ -5150,7 +5257,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" ht="46.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="n">
         <v>2</v>
       </c>
@@ -5166,7 +5273,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" ht="46.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="n">
         <v>2</v>
       </c>
@@ -5182,7 +5289,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" ht="31.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="n">
         <v>2</v>
       </c>
@@ -5198,7 +5305,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" customFormat="false" ht="46.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="n">
         <v>2</v>
       </c>
@@ -5214,7 +5321,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" customFormat="false" ht="46.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="n">
         <v>2</v>
       </c>
@@ -5230,7 +5337,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" customFormat="false" ht="31.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="n">
         <v>2</v>
       </c>
@@ -5246,7 +5353,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" customFormat="false" ht="46.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="n">
         <v>2</v>
       </c>
@@ -5262,7 +5369,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" customFormat="false" ht="46.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="n">
         <v>2</v>
       </c>
@@ -5278,7 +5385,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" customFormat="false" ht="46.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="n">
         <v>2</v>
       </c>
@@ -5294,7 +5401,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" customFormat="false" ht="46.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="n">
         <v>2</v>
       </c>
@@ -5310,7 +5417,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" customFormat="false" ht="61.15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="n">
         <v>2</v>
       </c>
@@ -5330,7 +5437,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" customFormat="false" ht="76.1" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="n">
         <v>2</v>
       </c>
@@ -5350,7 +5457,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" customFormat="false" ht="76.1" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="n">
         <v>2</v>
       </c>
@@ -5370,7 +5477,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" customFormat="false" ht="91" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="n">
         <v>2</v>
       </c>
@@ -5390,7 +5497,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" customFormat="false" ht="46.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="1" t="n">
         <v>2</v>
       </c>
@@ -5410,7 +5517,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" customFormat="false" ht="46.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="n">
         <v>2</v>
       </c>
@@ -5430,7 +5537,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" customFormat="false" ht="46.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="1" t="n">
         <v>2</v>
       </c>
@@ -5450,7 +5557,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" customFormat="false" ht="61.15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="1" t="n">
         <v>2</v>
       </c>
@@ -5470,7 +5577,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" customFormat="false" ht="61.15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="1" t="n">
         <v>2</v>
       </c>
@@ -5490,7 +5597,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="45" customFormat="false" ht="46.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="1" t="n">
         <v>2</v>
       </c>
@@ -5510,7 +5617,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="46" customFormat="false" ht="76.1" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="1" t="n">
         <v>2</v>
       </c>
@@ -5530,7 +5637,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="47" customFormat="false" ht="61.15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="1" t="n">
         <v>2</v>
       </c>
@@ -5550,7 +5657,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="48" customFormat="false" ht="76.1" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="1" t="n">
         <v>2</v>
       </c>
@@ -5570,7 +5677,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="49" customFormat="false" ht="46.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="1" t="n">
         <v>2</v>
       </c>
@@ -5590,7 +5697,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="50" customFormat="false" ht="31.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="1" t="n">
         <v>2</v>
       </c>
@@ -5606,7 +5713,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="51" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="51" customFormat="false" ht="31.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="1" t="n">
         <v>2</v>
       </c>
@@ -5622,7 +5729,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="52" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="52" customFormat="false" ht="46.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="1" t="n">
         <v>2</v>
       </c>
@@ -5638,7 +5745,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="53" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="53" customFormat="false" ht="61.15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="1" t="n">
         <v>2</v>
       </c>
@@ -5654,7 +5761,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="54" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="54" customFormat="false" ht="31.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="1" t="n">
         <v>2</v>
       </c>
@@ -5670,7 +5777,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="55" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="55" customFormat="false" ht="46.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="1" t="n">
         <v>2</v>
       </c>
@@ -5686,7 +5793,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="56" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="56" customFormat="false" ht="46.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="1" t="n">
         <v>2</v>
       </c>
@@ -5702,7 +5809,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="57" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="57" customFormat="false" ht="61.15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="1" t="n">
         <v>2</v>
       </c>
@@ -5722,7 +5829,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="58" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="58" customFormat="false" ht="46.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="1" t="n">
         <v>2</v>
       </c>
@@ -5738,7 +5845,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="59" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="59" customFormat="false" ht="31.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="1" t="n">
         <v>2</v>
       </c>
@@ -5754,7 +5861,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="60" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="60" customFormat="false" ht="46.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="1" t="n">
         <v>2</v>
       </c>
@@ -5770,7 +5877,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="61" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="61" customFormat="false" ht="31.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="1" t="n">
         <v>2</v>
       </c>
@@ -5786,7 +5893,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="62" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="62" customFormat="false" ht="46.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="1" t="n">
         <v>2</v>
       </c>
@@ -5802,7 +5909,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="63" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="63" customFormat="false" ht="46.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="1" t="n">
         <v>2</v>
       </c>
@@ -5818,7 +5925,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="64" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="64" customFormat="false" ht="31.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="1" t="n">
         <v>2</v>
       </c>
@@ -5834,7 +5941,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="65" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="65" customFormat="false" ht="46.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="1" t="n">
         <v>2</v>
       </c>
@@ -5850,7 +5957,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="66" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="66" customFormat="false" ht="76.1" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="1" t="n">
         <v>2</v>
       </c>
@@ -5870,7 +5977,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="67" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="67" customFormat="false" ht="31.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="1" t="n">
         <v>2</v>
       </c>
@@ -5886,7 +5993,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="68" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="68" customFormat="false" ht="46.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="1" t="n">
         <v>2</v>
       </c>
@@ -5902,7 +6009,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="69" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="69" customFormat="false" ht="31.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="1" t="n">
         <v>2</v>
       </c>
@@ -5918,7 +6025,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="70" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="70" customFormat="false" ht="31.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="1" t="n">
         <v>2</v>
       </c>
@@ -5938,7 +6045,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="71" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="71" customFormat="false" ht="31.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="1" t="n">
         <v>2</v>
       </c>
@@ -5958,7 +6065,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="72" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="72" customFormat="false" ht="31.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="1" t="n">
         <v>2</v>
       </c>
@@ -5974,7 +6081,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="73" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="73" customFormat="false" ht="31.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="1" t="n">
         <v>2</v>
       </c>
@@ -5990,7 +6097,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="74" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="74" customFormat="false" ht="31.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="1" t="n">
         <v>2</v>
       </c>
@@ -6006,7 +6113,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="75" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="75" customFormat="false" ht="46.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="1" t="n">
         <v>2</v>
       </c>
@@ -6022,7 +6129,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="76" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="76" customFormat="false" ht="31.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="1" t="n">
         <v>2</v>
       </c>
@@ -6038,7 +6145,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="77" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="77" customFormat="false" ht="46.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="1" t="n">
         <v>2</v>
       </c>
@@ -6054,7 +6161,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="78" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="78" customFormat="false" ht="46.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="1" t="n">
         <v>2</v>
       </c>
@@ -6070,7 +6177,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="79" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="79" customFormat="false" ht="16.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="1" t="n">
         <v>2</v>
       </c>
@@ -6086,7 +6193,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="80" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="80" customFormat="false" ht="46.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="1" t="n">
         <v>2</v>
       </c>
@@ -6102,7 +6209,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="81" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="81" customFormat="false" ht="46.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="1" t="n">
         <v>2</v>
       </c>
@@ -6118,7 +6225,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="82" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="82" customFormat="false" ht="31.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="1" t="n">
         <v>2</v>
       </c>
@@ -6134,7 +6241,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="83" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="83" customFormat="false" ht="31.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="1" t="n">
         <v>2</v>
       </c>
@@ -6150,7 +6257,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="84" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="84" customFormat="false" ht="31.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="1" t="n">
         <v>2</v>
       </c>
@@ -6166,7 +6273,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="85" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="85" customFormat="false" ht="31.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="1" t="n">
         <v>2</v>
       </c>
@@ -6182,7 +6289,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="86" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="86" customFormat="false" ht="31.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="1" t="n">
         <v>2</v>
       </c>
@@ -6198,7 +6305,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="87" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="87" customFormat="false" ht="76.1" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="1" t="n">
         <v>2</v>
       </c>
@@ -6214,7 +6321,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="88" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="88" customFormat="false" ht="46.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="1" t="n">
         <v>2</v>
       </c>
@@ -6230,7 +6337,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="89" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="89" customFormat="false" ht="31.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="1" t="n">
         <v>2</v>
       </c>
@@ -6246,7 +6353,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="90" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="90" customFormat="false" ht="46.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="1" t="n">
         <v>2</v>
       </c>
@@ -6262,7 +6369,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="91" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="91" customFormat="false" ht="31.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="1" t="n">
         <v>2</v>
       </c>
@@ -6278,7 +6385,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="92" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="92" customFormat="false" ht="61.15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="1" t="n">
         <v>2</v>
       </c>
@@ -6294,7 +6401,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="93" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="93" customFormat="false" ht="46.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="1" t="n">
         <v>2</v>
       </c>
@@ -6310,7 +6417,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="94" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="94" customFormat="false" ht="91" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="1" t="n">
         <v>2</v>
       </c>
@@ -6326,7 +6433,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="95" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="95" customFormat="false" ht="31.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="1" t="n">
         <v>2</v>
       </c>
@@ -6342,7 +6449,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="96" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="96" customFormat="false" ht="31.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="1" t="n">
         <v>2</v>
       </c>
@@ -6358,7 +6465,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="97" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="97" customFormat="false" ht="31.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="1" t="n">
         <v>2</v>
       </c>
@@ -6374,7 +6481,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="98" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="98" customFormat="false" ht="31.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="1" t="n">
         <v>2</v>
       </c>
@@ -6390,7 +6497,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="99" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="99" customFormat="false" ht="46.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="1" t="n">
         <v>2</v>
       </c>
@@ -6406,7 +6513,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="100" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="100" customFormat="false" ht="31.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="1" t="n">
         <v>2</v>
       </c>
@@ -6422,7 +6529,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="101" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="101" customFormat="false" ht="31.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="1" t="n">
         <v>2</v>
       </c>
@@ -6438,7 +6545,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="102" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="102" customFormat="false" ht="31.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="1" t="n">
         <v>2</v>
       </c>
@@ -6454,7 +6561,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="103" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="103" customFormat="false" ht="46.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="1" t="n">
         <v>2</v>
       </c>
@@ -6470,7 +6577,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="104" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="104" customFormat="false" ht="46.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="1" t="n">
         <v>2</v>
       </c>
@@ -6486,7 +6593,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="105" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="105" customFormat="false" ht="31.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="1" t="n">
         <v>2</v>
       </c>
@@ -6502,7 +6609,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="106" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="106" customFormat="false" ht="31.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="1" t="n">
         <v>2</v>
       </c>
@@ -6518,7 +6625,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="107" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="107" customFormat="false" ht="46.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="1" t="n">
         <v>2</v>
       </c>
@@ -6534,7 +6641,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="108" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="108" customFormat="false" ht="46.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="1" t="n">
         <v>2</v>
       </c>
@@ -6550,7 +6657,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="109" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="109" customFormat="false" ht="46.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="1" t="n">
         <v>2</v>
       </c>
@@ -6566,7 +6673,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="110" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="110" customFormat="false" ht="31.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="1" t="n">
         <v>2</v>
       </c>
@@ -6582,7 +6689,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="111" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="111" customFormat="false" ht="46.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="1" t="n">
         <v>2</v>
       </c>
@@ -6598,7 +6705,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="112" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="112" customFormat="false" ht="46.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="1" t="n">
         <v>2</v>
       </c>
@@ -6614,7 +6721,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="113" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="113" customFormat="false" ht="61.15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="1" t="n">
         <v>2</v>
       </c>
@@ -6630,7 +6737,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="114" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="114" customFormat="false" ht="46.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="1" t="n">
         <v>2</v>
       </c>
@@ -6646,7 +6753,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="115" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="115" customFormat="false" ht="46.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="1" t="n">
         <v>2</v>
       </c>
@@ -6662,7 +6769,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="116" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="116" customFormat="false" ht="31.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="1" t="n">
         <v>2</v>
       </c>
@@ -6678,7 +6785,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="117" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="117" customFormat="false" ht="31.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="1" t="n">
         <v>2</v>
       </c>
@@ -6694,7 +6801,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="118" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="118" customFormat="false" ht="31.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="1" t="n">
         <v>2</v>
       </c>
@@ -6710,7 +6817,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="119" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="119" customFormat="false" ht="46.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="1" t="n">
         <v>2</v>
       </c>
@@ -6726,7 +6833,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="120" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="120" customFormat="false" ht="46.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="1" t="n">
         <v>2</v>
       </c>
@@ -6742,7 +6849,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="121" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="121" customFormat="false" ht="46.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="1" t="n">
         <v>2</v>
       </c>
@@ -6758,7 +6865,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="122" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="122" customFormat="false" ht="31.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="1" t="n">
         <v>2</v>
       </c>
@@ -6774,7 +6881,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="123" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="123" customFormat="false" ht="46.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="1" t="n">
         <v>2</v>
       </c>
@@ -6790,7 +6897,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="124" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="124" customFormat="false" ht="46.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="1" t="n">
         <v>2</v>
       </c>
@@ -6806,7 +6913,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="125" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="125" customFormat="false" ht="31.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="1" t="n">
         <v>2</v>
       </c>
@@ -6822,7 +6929,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="126" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="126" customFormat="false" ht="46.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="1" t="n">
         <v>2</v>
       </c>
@@ -6838,7 +6945,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="127" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="127" customFormat="false" ht="46.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="1" t="n">
         <v>2</v>
       </c>
@@ -6854,7 +6961,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="128" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="128" customFormat="false" ht="46.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="1" t="n">
         <v>2</v>
       </c>
@@ -6870,7 +6977,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="129" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="129" customFormat="false" ht="46.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="1" t="n">
         <v>2</v>
       </c>
@@ -6886,7 +6993,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="130" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="130" customFormat="false" ht="31.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="1" t="n">
         <v>2</v>
       </c>
@@ -6902,7 +7009,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="131" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="131" customFormat="false" ht="46.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="1" t="n">
         <v>2</v>
       </c>
@@ -6918,7 +7025,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="132" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="132" customFormat="false" ht="46.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="1" t="n">
         <v>2</v>
       </c>
@@ -6934,7 +7041,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="133" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="133" customFormat="false" ht="31.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="1" t="n">
         <v>2</v>
       </c>
@@ -6950,7 +7057,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="134" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="134" customFormat="false" ht="46.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="1" t="n">
         <v>2</v>
       </c>
@@ -6966,7 +7073,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="135" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="135" customFormat="false" ht="46.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="1" t="n">
         <v>2</v>
       </c>
@@ -6982,7 +7089,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="136" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="136" customFormat="false" ht="31.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="1" t="n">
         <v>2</v>
       </c>
@@ -6998,7 +7105,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="137" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="137" customFormat="false" ht="31.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="1" t="n">
         <v>2</v>
       </c>
@@ -7014,7 +7121,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="138" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="138" customFormat="false" ht="31.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="1" t="n">
         <v>2</v>
       </c>
@@ -7030,7 +7137,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="139" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="139" customFormat="false" ht="46.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="1" t="n">
         <v>2</v>
       </c>
@@ -7046,7 +7153,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="140" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="140" customFormat="false" ht="31.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="1" t="n">
         <v>2</v>
       </c>
@@ -7062,7 +7169,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="141" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="141" customFormat="false" ht="31.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="1" t="n">
         <v>2</v>
       </c>
@@ -7078,7 +7185,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="142" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="142" customFormat="false" ht="31.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="1" t="n">
         <v>2</v>
       </c>
@@ -7094,7 +7201,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="143" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="143" customFormat="false" ht="46.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="1" t="n">
         <v>2</v>
       </c>
@@ -7110,7 +7217,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="144" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="144" customFormat="false" ht="31.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="1" t="n">
         <v>2</v>
       </c>
@@ -7126,7 +7233,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="145" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="145" customFormat="false" ht="31.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="1" t="n">
         <v>2</v>
       </c>
@@ -7142,7 +7249,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="146" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="146" customFormat="false" ht="31.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="1" t="n">
         <v>2</v>
       </c>
@@ -7158,7 +7265,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="147" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="147" customFormat="false" ht="31.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="1" t="n">
         <v>2</v>
       </c>
@@ -7174,7 +7281,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="148" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="148" customFormat="false" ht="46.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="1" t="n">
         <v>2</v>
       </c>
@@ -7190,7 +7297,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="149" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="149" customFormat="false" ht="46.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="1" t="n">
         <v>2</v>
       </c>
@@ -7206,7 +7313,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="150" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="150" customFormat="false" ht="61.15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="1" t="n">
         <v>2</v>
       </c>
@@ -7222,7 +7329,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="151" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="151" customFormat="false" ht="31.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="1" t="n">
         <v>2</v>
       </c>
@@ -7238,7 +7345,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="152" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="152" customFormat="false" ht="31.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="1" t="n">
         <v>1</v>
       </c>
@@ -7254,7 +7361,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="153" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="153" customFormat="false" ht="31.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="1" t="n">
         <v>1</v>
       </c>
@@ -7270,7 +7377,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="154" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="154" customFormat="false" ht="31.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="1" t="n">
         <v>1</v>
       </c>
@@ -7286,7 +7393,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="155" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="155" customFormat="false" ht="31.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="1" t="n">
         <v>1</v>
       </c>
@@ -7302,7 +7409,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="156" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="156" customFormat="false" ht="31.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="1" t="n">
         <v>1</v>
       </c>
@@ -7318,7 +7425,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="157" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="157" customFormat="false" ht="31.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="1" t="n">
         <v>1</v>
       </c>
@@ -7334,7 +7441,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="158" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="158" customFormat="false" ht="46.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="1" t="n">
         <v>1</v>
       </c>
@@ -7350,7 +7457,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="159" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="159" customFormat="false" ht="31.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="1" t="n">
         <v>1</v>
       </c>
@@ -7366,7 +7473,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="160" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="160" customFormat="false" ht="31.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="1" t="n">
         <v>1</v>
       </c>
@@ -7382,7 +7489,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="161" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="161" customFormat="false" ht="46.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="1" t="n">
         <v>1</v>
       </c>
@@ -7398,7 +7505,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="162" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="162" customFormat="false" ht="61.15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="1" t="n">
         <v>1</v>
       </c>
@@ -7414,7 +7521,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="163" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="163" customFormat="false" ht="61.15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="1" t="n">
         <v>1</v>
       </c>
@@ -7430,7 +7537,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="164" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="164" customFormat="false" ht="31.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="1" t="n">
         <v>1</v>
       </c>
@@ -7446,7 +7553,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="165" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="165" customFormat="false" ht="46.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="1" t="n">
         <v>1</v>
       </c>
@@ -7462,7 +7569,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="166" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="166" customFormat="false" ht="31.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="1" t="n">
         <v>1</v>
       </c>
@@ -7478,7 +7585,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="167" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="167" customFormat="false" ht="31.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="1" t="n">
         <v>1</v>
       </c>
@@ -7494,7 +7601,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="168" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="168" customFormat="false" ht="31.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="1" t="n">
         <v>1</v>
       </c>
@@ -7510,7 +7617,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="169" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="169" customFormat="false" ht="31.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="1" t="n">
         <v>1</v>
       </c>
@@ -7526,7 +7633,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="170" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="170" customFormat="false" ht="16.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="1" t="n">
         <v>1</v>
       </c>
@@ -7542,7 +7649,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="171" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="171" customFormat="false" ht="46.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A171" s="1" t="n">
         <v>1</v>
       </c>
@@ -7558,7 +7665,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="172" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="172" customFormat="false" ht="31.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A172" s="1" t="n">
         <v>1</v>
       </c>
@@ -7574,7 +7681,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="173" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="173" customFormat="false" ht="31.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="1" t="n">
         <v>1</v>
       </c>
@@ -7590,7 +7697,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="174" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="174" customFormat="false" ht="46.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="1" t="n">
         <v>1</v>
       </c>
@@ -7606,7 +7713,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="175" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="175" customFormat="false" ht="31.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A175" s="1" t="n">
         <v>1</v>
       </c>
@@ -7622,7 +7729,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="176" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="176" customFormat="false" ht="46.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A176" s="1" t="n">
         <v>1</v>
       </c>
@@ -7638,7 +7745,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="177" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="177" customFormat="false" ht="16.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A177" s="1" t="n">
         <v>1</v>
       </c>
@@ -7654,7 +7761,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="178" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="178" customFormat="false" ht="31.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A178" s="1" t="n">
         <v>1</v>
       </c>
@@ -7670,7 +7777,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="179" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="179" customFormat="false" ht="31.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A179" s="1" t="n">
         <v>1</v>
       </c>
@@ -7686,7 +7793,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="180" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="180" customFormat="false" ht="31.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A180" s="1" t="n">
         <v>1</v>
       </c>
@@ -7702,7 +7809,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="181" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="181" customFormat="false" ht="31.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A181" s="1" t="n">
         <v>1</v>
       </c>
@@ -7718,7 +7825,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="182" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="182" customFormat="false" ht="46.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A182" s="1" t="n">
         <v>1</v>
       </c>
@@ -7734,7 +7841,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="183" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="183" customFormat="false" ht="46.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A183" s="1" t="n">
         <v>1</v>
       </c>
@@ -7750,7 +7857,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="184" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="184" customFormat="false" ht="31.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A184" s="1" t="n">
         <v>1</v>
       </c>
@@ -7766,7 +7873,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="185" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="185" customFormat="false" ht="46.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A185" s="1" t="n">
         <v>1</v>
       </c>
@@ -7782,7 +7889,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="186" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="186" customFormat="false" ht="31.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A186" s="1" t="n">
         <v>1</v>
       </c>
@@ -7802,7 +7909,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="187" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="187" customFormat="false" ht="61.15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A187" s="1" t="n">
         <v>1</v>
       </c>
@@ -7822,7 +7929,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="188" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="188" customFormat="false" ht="31.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A188" s="1" t="n">
         <v>1</v>
       </c>
@@ -7838,7 +7945,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="189" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="189" customFormat="false" ht="31.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A189" s="1" t="n">
         <v>1</v>
       </c>
@@ -7854,7 +7961,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="190" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="190" customFormat="false" ht="31.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A190" s="1" t="n">
         <v>1</v>
       </c>
@@ -7870,7 +7977,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="191" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="191" customFormat="false" ht="31.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A191" s="1" t="n">
         <v>1</v>
       </c>
@@ -7886,7 +7993,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="192" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="192" customFormat="false" ht="31.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A192" s="1" t="n">
         <v>1</v>
       </c>
@@ -7902,7 +8009,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="193" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="193" customFormat="false" ht="31.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A193" s="1" t="n">
         <v>1</v>
       </c>
@@ -7918,7 +8025,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="194" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="194" customFormat="false" ht="31.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A194" s="1" t="n">
         <v>1</v>
       </c>
@@ -7934,7 +8041,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="195" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="195" customFormat="false" ht="46.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A195" s="1" t="n">
         <v>1</v>
       </c>
@@ -7950,7 +8057,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="196" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="196" customFormat="false" ht="46.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A196" s="1" t="n">
         <v>1</v>
       </c>
@@ -7966,7 +8073,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="197" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="197" customFormat="false" ht="31.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A197" s="1" t="n">
         <v>1</v>
       </c>
@@ -7982,7 +8089,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="198" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="198" customFormat="false" ht="31.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A198" s="1" t="n">
         <v>1</v>
       </c>
@@ -7998,7 +8105,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="199" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="199" customFormat="false" ht="31.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A199" s="1" t="n">
         <v>1</v>
       </c>
@@ -8014,7 +8121,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="200" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="200" customFormat="false" ht="31.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A200" s="1" t="n">
         <v>1</v>
       </c>
@@ -8030,7 +8137,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="201" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="201" customFormat="false" ht="31.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A201" s="1" t="n">
         <v>1</v>
       </c>
@@ -8046,7 +8153,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="202" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="202" customFormat="false" ht="46.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A202" s="1" t="n">
         <v>1</v>
       </c>
@@ -8062,7 +8169,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="203" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="203" customFormat="false" ht="46.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A203" s="1" t="n">
         <v>1</v>
       </c>
@@ -8078,7 +8185,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="204" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="204" customFormat="false" ht="46.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A204" s="1" t="n">
         <v>1</v>
       </c>
@@ -8094,7 +8201,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="205" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="205" customFormat="false" ht="31.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A205" s="1" t="n">
         <v>1</v>
       </c>
@@ -8110,7 +8217,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="206" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="206" customFormat="false" ht="31.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A206" s="1" t="n">
         <v>1</v>
       </c>
@@ -8126,7 +8233,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="207" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="207" customFormat="false" ht="31.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A207" s="1" t="n">
         <v>1</v>
       </c>
@@ -8142,7 +8249,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="208" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="208" customFormat="false" ht="31.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A208" s="1" t="n">
         <v>1</v>
       </c>
@@ -8158,7 +8265,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="209" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="209" customFormat="false" ht="31.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A209" s="1" t="n">
         <v>1</v>
       </c>
@@ -8174,7 +8281,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="210" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="210" customFormat="false" ht="31.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A210" s="1" t="n">
         <v>1</v>
       </c>
@@ -8190,7 +8297,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="211" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="211" customFormat="false" ht="31.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A211" s="1" t="n">
         <v>1</v>
       </c>
@@ -8206,7 +8313,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="212" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="212" customFormat="false" ht="16.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A212" s="1" t="n">
         <v>1</v>
       </c>
@@ -8222,7 +8329,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="213" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="213" customFormat="false" ht="31.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A213" s="1" t="n">
         <v>1</v>
       </c>
@@ -8238,7 +8345,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="214" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="214" customFormat="false" ht="31.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A214" s="1" t="n">
         <v>1</v>
       </c>
@@ -8254,7 +8361,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="215" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="215" customFormat="false" ht="31.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A215" s="1" t="n">
         <v>1</v>
       </c>
@@ -8270,7 +8377,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="216" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="216" customFormat="false" ht="31.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A216" s="1" t="n">
         <v>1</v>
       </c>
@@ -8286,7 +8393,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="217" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="217" customFormat="false" ht="31.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A217" s="1" t="n">
         <v>1</v>
       </c>
@@ -8302,7 +8409,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="218" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="218" customFormat="false" ht="31.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A218" s="1" t="n">
         <v>1</v>
       </c>
@@ -8318,7 +8425,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="219" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="219" customFormat="false" ht="31.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A219" s="1" t="n">
         <v>1</v>
       </c>
@@ -8334,7 +8441,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="220" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="220" customFormat="false" ht="31.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A220" s="1" t="n">
         <v>1</v>
       </c>
@@ -8350,7 +8457,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="221" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="221" customFormat="false" ht="31.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A221" s="1" t="n">
         <v>1</v>
       </c>
@@ -8366,7 +8473,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="222" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="222" customFormat="false" ht="31.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A222" s="1" t="n">
         <v>1</v>
       </c>
@@ -8382,7 +8489,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="223" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="223" customFormat="false" ht="46.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A223" s="1" t="n">
         <v>1</v>
       </c>
@@ -8398,7 +8505,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="224" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="224" customFormat="false" ht="31.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A224" s="1" t="n">
         <v>1</v>
       </c>
@@ -8414,7 +8521,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="225" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="225" customFormat="false" ht="31.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A225" s="1" t="n">
         <v>1</v>
       </c>
@@ -8430,7 +8537,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="226" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="226" customFormat="false" ht="31.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A226" s="1" t="n">
         <v>1</v>
       </c>
@@ -8446,7 +8553,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="227" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="227" customFormat="false" ht="46.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A227" s="1" t="n">
         <v>1</v>
       </c>
@@ -8462,7 +8569,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="228" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="228" customFormat="false" ht="31.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A228" s="1" t="n">
         <v>1</v>
       </c>
@@ -8478,7 +8585,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="229" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="229" customFormat="false" ht="31.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A229" s="1" t="n">
         <v>1</v>
       </c>
@@ -8494,7 +8601,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="230" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="230" customFormat="false" ht="31.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A230" s="1" t="n">
         <v>1</v>
       </c>
@@ -8510,7 +8617,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="231" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="231" customFormat="false" ht="31.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A231" s="1" t="n">
         <v>1</v>
       </c>
@@ -8526,7 +8633,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="232" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="232" customFormat="false" ht="31.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A232" s="1" t="n">
         <v>1</v>
       </c>
@@ -8542,7 +8649,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="233" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="233" customFormat="false" ht="46.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A233" s="1" t="n">
         <v>1</v>
       </c>
@@ -8558,7 +8665,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="234" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="234" customFormat="false" ht="31.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A234" s="1" t="n">
         <v>1</v>
       </c>
@@ -8574,7 +8681,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="235" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="235" customFormat="false" ht="61.15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A235" s="1" t="n">
         <v>1</v>
       </c>
@@ -8590,7 +8697,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="236" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="236" customFormat="false" ht="31.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A236" s="1" t="n">
         <v>1</v>
       </c>
@@ -8606,7 +8713,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="237" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="237" customFormat="false" ht="76.1" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A237" s="1" t="n">
         <v>1</v>
       </c>
@@ -8622,7 +8729,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="238" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="238" customFormat="false" ht="31.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A238" s="1" t="n">
         <v>1</v>
       </c>
@@ -8638,7 +8745,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="239" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="239" customFormat="false" ht="31.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A239" s="1" t="n">
         <v>1</v>
       </c>
@@ -8654,7 +8761,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="240" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="240" customFormat="false" ht="31.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A240" s="1" t="n">
         <v>1</v>
       </c>
@@ -8670,7 +8777,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="241" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="241" customFormat="false" ht="31.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A241" s="1" t="n">
         <v>1</v>
       </c>
@@ -8686,7 +8793,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="242" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="242" customFormat="false" ht="31.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A242" s="1" t="n">
         <v>1</v>
       </c>
@@ -8702,7 +8809,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="243" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="243" customFormat="false" ht="46.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A243" s="1" t="n">
         <v>1</v>
       </c>
@@ -8718,7 +8825,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="244" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="244" customFormat="false" ht="31.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A244" s="1" t="n">
         <v>1</v>
       </c>
@@ -8734,7 +8841,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="245" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="245" customFormat="false" ht="31.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A245" s="1" t="n">
         <v>1</v>
       </c>
@@ -8750,7 +8857,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="246" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="246" customFormat="false" ht="31.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A246" s="1" t="n">
         <v>1</v>
       </c>
@@ -8766,7 +8873,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="247" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="247" customFormat="false" ht="46.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A247" s="1" t="n">
         <v>1</v>
       </c>
@@ -8782,7 +8889,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="248" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="248" customFormat="false" ht="31.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A248" s="1" t="n">
         <v>1</v>
       </c>
@@ -8798,7 +8905,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="249" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="249" customFormat="false" ht="31.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A249" s="1" t="n">
         <v>1</v>
       </c>
@@ -8814,7 +8921,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="250" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="250" customFormat="false" ht="31.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A250" s="1" t="n">
         <v>1</v>
       </c>
@@ -8830,7 +8937,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="251" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="251" customFormat="false" ht="31.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A251" s="1" t="n">
         <v>1</v>
       </c>
@@ -8846,7 +8953,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="252" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="252" customFormat="false" ht="31.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A252" s="1" t="n">
         <v>1</v>
       </c>
@@ -8862,7 +8969,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="253" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="253" customFormat="false" ht="31.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A253" s="1" t="n">
         <v>1</v>
       </c>
@@ -8882,7 +8989,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="254" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="254" customFormat="false" ht="46.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A254" s="1" t="n">
         <v>1</v>
       </c>
@@ -8898,7 +9005,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="255" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="255" customFormat="false" ht="31.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A255" s="1" t="n">
         <v>1</v>
       </c>
@@ -8914,7 +9021,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="256" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="256" customFormat="false" ht="31.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A256" s="1" t="n">
         <v>1</v>
       </c>
@@ -8930,7 +9037,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="257" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="257" customFormat="false" ht="46.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A257" s="1" t="n">
         <v>1</v>
       </c>
@@ -8946,7 +9053,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="258" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="258" customFormat="false" ht="31.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A258" s="1" t="n">
         <v>1</v>
       </c>
@@ -8962,7 +9069,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="259" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="259" customFormat="false" ht="31.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A259" s="1" t="n">
         <v>1</v>
       </c>
@@ -8978,7 +9085,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="260" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="260" customFormat="false" ht="31.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A260" s="1" t="n">
         <v>1</v>
       </c>
@@ -8994,7 +9101,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="261" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="261" customFormat="false" ht="31.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A261" s="1" t="n">
         <v>1</v>
       </c>
@@ -9010,7 +9117,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="262" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="262" customFormat="false" ht="46.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A262" s="1" t="n">
         <v>1</v>
       </c>
@@ -9026,7 +9133,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="263" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="263" customFormat="false" ht="31.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A263" s="1" t="n">
         <v>1</v>
       </c>
@@ -9042,7 +9149,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="264" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="264" customFormat="false" ht="16.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A264" s="1" t="n">
         <v>1</v>
       </c>
@@ -9058,7 +9165,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="265" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="265" customFormat="false" ht="31.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A265" s="1" t="n">
         <v>1</v>
       </c>
@@ -9074,7 +9181,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="266" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="266" customFormat="false" ht="46.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A266" s="1" t="n">
         <v>1</v>
       </c>
@@ -9090,7 +9197,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="267" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="267" customFormat="false" ht="31.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A267" s="1" t="n">
         <v>1</v>
       </c>
@@ -9106,7 +9213,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="268" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="268" customFormat="false" ht="46.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A268" s="1" t="n">
         <v>1</v>
       </c>
@@ -9122,7 +9229,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="269" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="269" customFormat="false" ht="31.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A269" s="1" t="n">
         <v>1</v>
       </c>
@@ -9138,7 +9245,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="270" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="270" customFormat="false" ht="31.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A270" s="1" t="n">
         <v>1</v>
       </c>
@@ -9154,7 +9261,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="271" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="271" customFormat="false" ht="46.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A271" s="1" t="n">
         <v>1</v>
       </c>
@@ -9170,7 +9277,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="272" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="272" customFormat="false" ht="31.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A272" s="1" t="n">
         <v>1</v>
       </c>
@@ -9186,7 +9293,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="273" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="273" customFormat="false" ht="31.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A273" s="1" t="n">
         <v>1</v>
       </c>
@@ -9202,7 +9309,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="274" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="274" customFormat="false" ht="31.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A274" s="1" t="n">
         <v>1</v>
       </c>
@@ -9218,7 +9325,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="275" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="275" customFormat="false" ht="31.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A275" s="1" t="n">
         <v>1</v>
       </c>
@@ -9234,7 +9341,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="276" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="276" customFormat="false" ht="31.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A276" s="1" t="n">
         <v>1</v>
       </c>
@@ -9250,7 +9357,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="277" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="277" customFormat="false" ht="46.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A277" s="1" t="n">
         <v>1</v>
       </c>
@@ -9266,7 +9373,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="278" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="278" customFormat="false" ht="31.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A278" s="1" t="n">
         <v>1</v>
       </c>
@@ -9282,7 +9389,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="279" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="279" customFormat="false" ht="31.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A279" s="1" t="n">
         <v>1</v>
       </c>
@@ -9298,7 +9405,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="280" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="280" customFormat="false" ht="31.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A280" s="1" t="n">
         <v>1</v>
       </c>
@@ -9314,7 +9421,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="281" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="281" customFormat="false" ht="31.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A281" s="1" t="n">
         <v>1</v>
       </c>
@@ -9330,7 +9437,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="282" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="282" customFormat="false" ht="31.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A282" s="1" t="n">
         <v>1</v>
       </c>
@@ -9346,7 +9453,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="283" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="283" customFormat="false" ht="31.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A283" s="1" t="n">
         <v>1</v>
       </c>
@@ -9362,7 +9469,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="284" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="284" customFormat="false" ht="31.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A284" s="1" t="n">
         <v>1</v>
       </c>
@@ -9378,7 +9485,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="285" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="285" customFormat="false" ht="31.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A285" s="1" t="n">
         <v>1</v>
       </c>
@@ -9394,7 +9501,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="286" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="286" customFormat="false" ht="31.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A286" s="1" t="n">
         <v>1</v>
       </c>
@@ -9410,7 +9517,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="287" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="287" customFormat="false" ht="31.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A287" s="1" t="n">
         <v>1</v>
       </c>
@@ -9426,7 +9533,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="288" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="288" customFormat="false" ht="46.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A288" s="1" t="n">
         <v>1</v>
       </c>
@@ -9442,7 +9549,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="289" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="289" customFormat="false" ht="31.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A289" s="1" t="n">
         <v>1</v>
       </c>
@@ -9458,7 +9565,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="290" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="290" customFormat="false" ht="31.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A290" s="1" t="n">
         <v>1</v>
       </c>
@@ -9474,7 +9581,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="291" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="291" customFormat="false" ht="31.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A291" s="1" t="n">
         <v>1</v>
       </c>
@@ -9490,7 +9597,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="292" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="292" customFormat="false" ht="61.15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A292" s="1" t="n">
         <v>1</v>
       </c>
@@ -9506,7 +9613,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="293" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="293" customFormat="false" ht="31.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A293" s="1" t="n">
         <v>1</v>
       </c>
@@ -9522,7 +9629,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="294" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="294" customFormat="false" ht="31.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A294" s="1" t="n">
         <v>1</v>
       </c>
@@ -9538,7 +9645,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="295" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="295" customFormat="false" ht="31.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A295" s="1" t="n">
         <v>1</v>
       </c>
@@ -9554,7 +9661,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="296" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="296" customFormat="false" ht="31.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A296" s="1" t="n">
         <v>1</v>
       </c>
@@ -9570,7 +9677,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="297" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="297" customFormat="false" ht="31.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A297" s="1" t="n">
         <v>1</v>
       </c>
@@ -9586,7 +9693,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="298" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="298" customFormat="false" ht="31.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A298" s="1" t="n">
         <v>1</v>
       </c>
@@ -9602,7 +9709,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="299" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="299" customFormat="false" ht="31.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A299" s="1" t="n">
         <v>1</v>
       </c>
@@ -9618,7 +9725,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="300" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="300" customFormat="false" ht="31.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A300" s="1" t="n">
         <v>1</v>
       </c>
@@ -9634,7 +9741,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="301" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="301" customFormat="false" ht="31.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A301" s="1" t="n">
         <v>1</v>
       </c>
@@ -9650,7 +9757,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="302" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="302" customFormat="false" ht="31.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A302" s="1" t="n">
         <v>2</v>
       </c>
@@ -9666,7 +9773,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="303" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="303" customFormat="false" ht="46.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A303" s="1" t="n">
         <v>2</v>
       </c>
@@ -9686,7 +9793,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="304" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="304" customFormat="false" ht="31.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A304" s="1" t="n">
         <v>2</v>
       </c>
@@ -9702,7 +9809,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="305" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="305" customFormat="false" ht="31.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A305" s="1" t="n">
         <v>2</v>
       </c>
@@ -9718,7 +9825,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="306" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="306" customFormat="false" ht="61.15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A306" s="1" t="n">
         <v>1</v>
       </c>
@@ -9734,7 +9841,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="307" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="307" customFormat="false" ht="31.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A307" s="1" t="n">
         <v>2</v>
       </c>
@@ -9750,7 +9857,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="308" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="308" customFormat="false" ht="31.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A308" s="1" t="n">
         <v>2</v>
       </c>
@@ -9766,7 +9873,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="309" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="309" customFormat="false" ht="31.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A309" s="1" t="n">
         <v>2</v>
       </c>
@@ -9782,7 +9889,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="310" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="310" customFormat="false" ht="31.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A310" s="1" t="n">
         <v>2</v>
       </c>
@@ -9798,7 +9905,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="311" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="311" customFormat="false" ht="31.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A311" s="1" t="n">
         <v>2</v>
       </c>
@@ -9814,7 +9921,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="312" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="312" customFormat="false" ht="31.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A312" s="1" t="n">
         <v>2</v>
       </c>
@@ -9830,7 +9937,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="313" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="313" customFormat="false" ht="46.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A313" s="1" t="n">
         <v>2</v>
       </c>
@@ -9846,7 +9953,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="314" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="314" customFormat="false" ht="31.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A314" s="1" t="n">
         <v>2</v>
       </c>
@@ -9862,7 +9969,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="315" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="315" customFormat="false" ht="31.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A315" s="1" t="n">
         <v>2</v>
       </c>
@@ -9878,7 +9985,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="316" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="316" customFormat="false" ht="31.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A316" s="1" t="n">
         <v>2</v>
       </c>
@@ -9894,7 +10001,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="317" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="317" customFormat="false" ht="31.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A317" s="1" t="n">
         <v>2</v>
       </c>
@@ -9910,7 +10017,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="318" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="318" customFormat="false" ht="31.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A318" s="1" t="n">
         <v>2</v>
       </c>
@@ -9926,7 +10033,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="319" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="319" customFormat="false" ht="31.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A319" s="1" t="n">
         <v>2</v>
       </c>
@@ -9942,7 +10049,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="320" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="320" customFormat="false" ht="31.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A320" s="1" t="n">
         <v>2</v>
       </c>
@@ -9958,7 +10065,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="321" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="321" customFormat="false" ht="31.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A321" s="1" t="n">
         <v>2</v>
       </c>
@@ -9974,7 +10081,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="322" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="322" customFormat="false" ht="31.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A322" s="1" t="n">
         <v>2</v>
       </c>
@@ -9990,7 +10097,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="323" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="323" customFormat="false" ht="31.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A323" s="1" t="n">
         <v>2</v>
       </c>
@@ -10006,7 +10113,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="324" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="324" customFormat="false" ht="31.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A324" s="1" t="n">
         <v>2</v>
       </c>
@@ -10022,7 +10129,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="325" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="325" customFormat="false" ht="46.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A325" s="1" t="n">
         <v>2</v>
       </c>
@@ -10038,7 +10145,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="326" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="326" customFormat="false" ht="31.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A326" s="1" t="n">
         <v>2</v>
       </c>
@@ -10054,7 +10161,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="327" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="327" customFormat="false" ht="31.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A327" s="1" t="n">
         <v>2</v>
       </c>
@@ -10070,7 +10177,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="328" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="328" customFormat="false" ht="31.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A328" s="1" t="n">
         <v>2</v>
       </c>
@@ -10086,7 +10193,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="329" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="329" customFormat="false" ht="31.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A329" s="1" t="n">
         <v>2</v>
       </c>
@@ -10102,7 +10209,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="330" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="330" customFormat="false" ht="31.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A330" s="1" t="n">
         <v>2</v>
       </c>
@@ -10118,7 +10225,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="331" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="331" customFormat="false" ht="46.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A331" s="1" t="n">
         <v>2</v>
       </c>
@@ -10134,7 +10241,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="332" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="332" customFormat="false" ht="31.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A332" s="1" t="n">
         <v>2</v>
       </c>
@@ -10150,7 +10257,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="333" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="333" customFormat="false" ht="31.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A333" s="1" t="n">
         <v>2</v>
       </c>
@@ -10166,7 +10273,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="334" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="334" customFormat="false" ht="31.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A334" s="1" t="n">
         <v>2</v>
       </c>
@@ -10182,7 +10289,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="335" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="335" customFormat="false" ht="31.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A335" s="1" t="n">
         <v>2</v>
       </c>
@@ -10198,7 +10305,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="336" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="336" customFormat="false" ht="31.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A336" s="1" t="n">
         <v>2</v>
       </c>
@@ -10214,7 +10321,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="337" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="337" customFormat="false" ht="76.1" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A337" s="1" t="n">
         <v>2</v>
       </c>
@@ -10234,7 +10341,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="338" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="338" customFormat="false" ht="91" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A338" s="1" t="n">
         <v>2</v>
       </c>
@@ -10254,7 +10361,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="339" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="339" customFormat="false" ht="31.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A339" s="1" t="n">
         <v>2</v>
       </c>
@@ -10270,7 +10377,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="340" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="340" customFormat="false" ht="46.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A340" s="1" t="n">
         <v>2</v>
       </c>
@@ -10290,7 +10397,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="341" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="341" customFormat="false" ht="31.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A341" s="1" t="n">
         <v>2</v>
       </c>
@@ -10306,7 +10413,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="342" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="342" customFormat="false" ht="46.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A342" s="1" t="n">
         <v>2</v>
       </c>
@@ -10326,7 +10433,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="343" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="343" customFormat="false" ht="61.15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A343" s="1" t="n">
         <v>2</v>
       </c>
@@ -10346,7 +10453,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="344" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="344" customFormat="false" ht="46.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A344" s="1" t="n">
         <v>2</v>
       </c>
@@ -10362,7 +10469,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="345" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="345" customFormat="false" ht="31.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A345" s="1" t="n">
         <v>2</v>
       </c>
@@ -10378,7 +10485,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="346" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="346" customFormat="false" ht="31.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A346" s="1" t="n">
         <v>2</v>
       </c>
@@ -10394,7 +10501,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="347" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="347" customFormat="false" ht="31.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A347" s="1" t="n">
         <v>2</v>
       </c>
@@ -10410,7 +10517,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="348" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="348" customFormat="false" ht="46.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A348" s="1" t="n">
         <v>2</v>
       </c>
@@ -10426,7 +10533,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="349" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="349" customFormat="false" ht="31.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A349" s="1" t="n">
         <v>2</v>
       </c>
@@ -10442,7 +10549,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="350" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="350" customFormat="false" ht="31.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A350" s="1" t="n">
         <v>2</v>
       </c>
@@ -10458,7 +10565,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="351" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="351" customFormat="false" ht="46.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A351" s="1" t="n">
         <v>2</v>
       </c>
@@ -10474,7 +10581,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="352" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="352" customFormat="false" ht="31.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A352" s="1" t="n">
         <v>2</v>
       </c>
@@ -10490,7 +10597,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="353" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="353" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A353" s="1" t="n">
         <v>4</v>
       </c>
@@ -10510,7 +10617,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="354" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="354" customFormat="false" ht="76.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A354" s="1" t="n">
         <v>4</v>
       </c>
@@ -10530,7 +10637,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="355" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="355" customFormat="false" ht="46.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A355" s="1" t="n">
         <v>2</v>
       </c>
@@ -10546,7 +10653,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="356" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="356" customFormat="false" ht="46.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A356" s="1" t="n">
         <v>2</v>
       </c>
@@ -10562,7 +10669,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="357" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="357" customFormat="false" ht="31.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A357" s="1" t="n">
         <v>2</v>
       </c>
@@ -10578,7 +10685,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="358" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="358" customFormat="false" ht="61.15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A358" s="1" t="n">
         <v>2</v>
       </c>
@@ -10598,7 +10705,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="359" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="359" customFormat="false" ht="46.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A359" s="1" t="n">
         <v>2</v>
       </c>
@@ -10614,7 +10721,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="360" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="360" customFormat="false" ht="31.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A360" s="1" t="n">
         <v>2</v>
       </c>
@@ -10630,7 +10737,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="361" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="361" customFormat="false" ht="46.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A361" s="1" t="n">
         <v>2</v>
       </c>
@@ -10646,7 +10753,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="362" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="362" customFormat="false" ht="76.1" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A362" s="1" t="n">
         <v>2</v>
       </c>
@@ -10666,7 +10773,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="363" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="363" customFormat="false" ht="31.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A363" s="1" t="n">
         <v>2</v>
       </c>
@@ -10682,7 +10789,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="364" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="364" customFormat="false" ht="31.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A364" s="1" t="n">
         <v>2</v>
       </c>
@@ -10698,7 +10805,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="365" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="365" customFormat="false" ht="61.15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A365" s="1" t="n">
         <v>2</v>
       </c>
@@ -10718,7 +10825,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="366" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="366" customFormat="false" ht="31.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A366" s="1" t="n">
         <v>2</v>
       </c>
@@ -10734,7 +10841,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="367" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="367" customFormat="false" ht="91" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A367" s="1" t="n">
         <v>2</v>
       </c>
@@ -10754,7 +10861,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="368" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="368" customFormat="false" ht="46.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A368" s="1" t="n">
         <v>2</v>
       </c>
@@ -10774,7 +10881,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="369" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="369" customFormat="false" ht="61.15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A369" s="1" t="n">
         <v>2</v>
       </c>
@@ -10794,7 +10901,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="370" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="370" customFormat="false" ht="31.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A370" s="1" t="n">
         <v>2</v>
       </c>
@@ -10810,7 +10917,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="371" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="371" customFormat="false" ht="46.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A371" s="1" t="n">
         <v>1</v>
       </c>
@@ -10826,7 +10933,7 @@
         <v>749</v>
       </c>
     </row>
-    <row r="372" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="372" customFormat="false" ht="31.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A372" s="1" t="n">
         <v>1</v>
       </c>
@@ -10842,7 +10949,7 @@
         <v>749</v>
       </c>
     </row>
-    <row r="373" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="373" customFormat="false" ht="31.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A373" s="1" t="n">
         <v>1</v>
       </c>
@@ -10858,7 +10965,7 @@
         <v>749</v>
       </c>
     </row>
-    <row r="374" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="374" customFormat="false" ht="31.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A374" s="1" t="n">
         <v>1</v>
       </c>
@@ -10874,7 +10981,7 @@
         <v>749</v>
       </c>
     </row>
-    <row r="375" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="375" customFormat="false" ht="31.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A375" s="1" t="n">
         <v>1</v>
       </c>
@@ -10890,7 +10997,7 @@
         <v>749</v>
       </c>
     </row>
-    <row r="376" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="376" customFormat="false" ht="31.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A376" s="1" t="n">
         <v>1</v>
       </c>
@@ -10906,7 +11013,7 @@
         <v>749</v>
       </c>
     </row>
-    <row r="377" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="377" customFormat="false" ht="31.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A377" s="1" t="n">
         <v>1</v>
       </c>
@@ -10922,7 +11029,7 @@
         <v>749</v>
       </c>
     </row>
-    <row r="378" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="378" customFormat="false" ht="46.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A378" s="1" t="n">
         <v>1</v>
       </c>
@@ -10938,7 +11045,7 @@
         <v>749</v>
       </c>
     </row>
-    <row r="379" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="379" customFormat="false" ht="61.15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A379" s="1" t="n">
         <v>1</v>
       </c>
@@ -10958,7 +11065,7 @@
         <v>749</v>
       </c>
     </row>
-    <row r="380" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="380" customFormat="false" ht="76.1" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A380" s="1" t="n">
         <v>1</v>
       </c>
@@ -10978,7 +11085,7 @@
         <v>749</v>
       </c>
     </row>
-    <row r="381" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="381" customFormat="false" ht="31.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A381" s="1" t="n">
         <v>1</v>
       </c>
@@ -10998,7 +11105,7 @@
         <v>749</v>
       </c>
     </row>
-    <row r="382" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="382" customFormat="false" ht="76.1" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A382" s="1" t="n">
         <v>1</v>
       </c>
@@ -11018,7 +11125,7 @@
         <v>749</v>
       </c>
     </row>
-    <row r="383" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="383" customFormat="false" ht="91" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A383" s="1" t="n">
         <v>1</v>
       </c>
@@ -11038,7 +11145,7 @@
         <v>749</v>
       </c>
     </row>
-    <row r="384" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="384" customFormat="false" ht="46.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A384" s="1" t="n">
         <v>1</v>
       </c>
@@ -11058,7 +11165,7 @@
         <v>749</v>
       </c>
     </row>
-    <row r="385" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="385" customFormat="false" ht="31.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A385" s="1" t="n">
         <v>1</v>
       </c>
@@ -11074,7 +11181,7 @@
         <v>749</v>
       </c>
     </row>
-    <row r="386" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="386" customFormat="false" ht="31.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A386" s="1" t="n">
         <v>1</v>
       </c>
@@ -11090,7 +11197,7 @@
         <v>749</v>
       </c>
     </row>
-    <row r="387" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="387" customFormat="false" ht="31.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A387" s="1" t="n">
         <v>1</v>
       </c>
@@ -11110,7 +11217,7 @@
         <v>749</v>
       </c>
     </row>
-    <row r="388" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="388" customFormat="false" ht="46.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A388" s="1" t="n">
         <v>1</v>
       </c>
@@ -11126,7 +11233,7 @@
         <v>749</v>
       </c>
     </row>
-    <row r="389" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="389" customFormat="false" ht="31.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A389" s="1" t="n">
         <v>1</v>
       </c>
@@ -11142,7 +11249,7 @@
         <v>749</v>
       </c>
     </row>
-    <row r="390" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="390" customFormat="false" ht="31.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A390" s="1" t="n">
         <v>1</v>
       </c>
@@ -11158,7 +11265,7 @@
         <v>749</v>
       </c>
     </row>
-    <row r="391" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="391" customFormat="false" ht="76.1" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A391" s="1" t="n">
         <v>1</v>
       </c>
@@ -11178,7 +11285,7 @@
         <v>749</v>
       </c>
     </row>
-    <row r="392" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="392" customFormat="false" ht="31.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A392" s="1" t="n">
         <v>1</v>
       </c>
@@ -11194,7 +11301,7 @@
         <v>749</v>
       </c>
     </row>
-    <row r="393" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="393" customFormat="false" ht="31.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A393" s="1" t="n">
         <v>1</v>
       </c>
@@ -11210,7 +11317,7 @@
         <v>749</v>
       </c>
     </row>
-    <row r="394" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="394" customFormat="false" ht="46.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A394" s="1" t="n">
         <v>1</v>
       </c>
@@ -11226,7 +11333,7 @@
         <v>749</v>
       </c>
     </row>
-    <row r="395" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="395" customFormat="false" ht="31.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A395" s="1" t="n">
         <v>1</v>
       </c>
@@ -11242,7 +11349,7 @@
         <v>749</v>
       </c>
     </row>
-    <row r="396" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="396" customFormat="false" ht="31.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A396" s="1" t="n">
         <v>1</v>
       </c>
@@ -11258,7 +11365,7 @@
         <v>749</v>
       </c>
     </row>
-    <row r="397" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="397" customFormat="false" ht="46.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A397" s="1" t="n">
         <v>1</v>
       </c>
@@ -11274,7 +11381,7 @@
         <v>749</v>
       </c>
     </row>
-    <row r="398" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="398" customFormat="false" ht="61.15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A398" s="1" t="n">
         <v>1</v>
       </c>
@@ -11294,7 +11401,7 @@
         <v>749</v>
       </c>
     </row>
-    <row r="399" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="399" customFormat="false" ht="31.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A399" s="1" t="n">
         <v>1</v>
       </c>
@@ -11310,7 +11417,7 @@
         <v>749</v>
       </c>
     </row>
-    <row r="400" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="400" customFormat="false" ht="76.1" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A400" s="1" t="n">
         <v>1</v>
       </c>
@@ -11330,7 +11437,7 @@
         <v>749</v>
       </c>
     </row>
-    <row r="401" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="401" customFormat="false" ht="31.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A401" s="1" t="n">
         <v>1</v>
       </c>
@@ -11350,7 +11457,7 @@
         <v>749</v>
       </c>
     </row>
-    <row r="402" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="402" customFormat="false" ht="31.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A402" s="1" t="n">
         <v>1</v>
       </c>
@@ -11366,7 +11473,7 @@
         <v>749</v>
       </c>
     </row>
-    <row r="403" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="403" customFormat="false" ht="31.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A403" s="1" t="n">
         <v>1</v>
       </c>
@@ -11382,7 +11489,7 @@
         <v>749</v>
       </c>
     </row>
-    <row r="404" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="404" customFormat="false" ht="76.1" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A404" s="1" t="n">
         <v>1</v>
       </c>
@@ -11398,7 +11505,7 @@
         <v>749</v>
       </c>
     </row>
-    <row r="405" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="405" customFormat="false" ht="46.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A405" s="1" t="n">
         <v>1</v>
       </c>
@@ -11414,7 +11521,7 @@
         <v>749</v>
       </c>
     </row>
-    <row r="406" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="406" customFormat="false" ht="46.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A406" s="1" t="n">
         <v>1</v>
       </c>
@@ -11430,7 +11537,7 @@
         <v>749</v>
       </c>
     </row>
-    <row r="407" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="407" customFormat="false" ht="46.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A407" s="1" t="n">
         <v>1</v>
       </c>
@@ -11450,7 +11557,7 @@
         <v>749</v>
       </c>
     </row>
-    <row r="408" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="408" customFormat="false" ht="46.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A408" s="1" t="n">
         <v>1</v>
       </c>
@@ -11466,7 +11573,7 @@
         <v>749</v>
       </c>
     </row>
-    <row r="409" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="409" customFormat="false" ht="31.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A409" s="1" t="n">
         <v>1</v>
       </c>
@@ -11498,7 +11605,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="411" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="411" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A411" s="1" t="n">
         <v>4</v>
       </c>
@@ -11514,7 +11621,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="412" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="412" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A412" s="1" t="n">
         <v>4</v>
       </c>
@@ -11534,7 +11641,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="413" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="413" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A413" s="1" t="n">
         <v>4</v>
       </c>
@@ -11554,7 +11661,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="414" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="414" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A414" s="1" t="n">
         <v>4</v>
       </c>
@@ -11572,7 +11679,7 @@
       </c>
       <c r="F414" s="1"/>
     </row>
-    <row r="415" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="415" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A415" s="1" t="n">
         <v>4</v>
       </c>
@@ -11592,7 +11699,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="416" customFormat="false" ht="47" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="416" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A416" s="1" t="n">
         <v>4</v>
       </c>
@@ -11612,7 +11719,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="417" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="417" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A417" s="1" t="n">
         <v>4</v>
       </c>
@@ -11628,7 +11735,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="418" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="418" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A418" s="1" t="n">
         <v>4</v>
       </c>
@@ -11644,7 +11751,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="419" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="419" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A419" s="1" t="n">
         <v>4</v>
       </c>
@@ -11680,7 +11787,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="421" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="421" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A421" s="1" t="n">
         <v>4</v>
       </c>
@@ -11792,7 +11899,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="428" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="428" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A428" s="1" t="n">
         <v>4</v>
       </c>
@@ -11808,7 +11915,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="429" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="429" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A429" s="1" t="n">
         <v>4</v>
       </c>
@@ -11856,7 +11963,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="432" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="432" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A432" s="1" t="n">
         <v>4</v>
       </c>
@@ -11872,7 +11979,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="433" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="433" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A433" s="1" t="n">
         <v>4</v>
       </c>
@@ -11888,7 +11995,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="434" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="434" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A434" s="1" t="n">
         <v>4</v>
       </c>
@@ -11904,7 +12011,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="435" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="435" customFormat="false" ht="61.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A435" s="1" t="n">
         <v>4</v>
       </c>
@@ -11936,7 +12043,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="437" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="437" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A437" s="1" t="n">
         <v>4</v>
       </c>
@@ -11952,7 +12059,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="438" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="438" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A438" s="1" t="n">
         <v>4</v>
       </c>
@@ -11968,7 +12075,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="439" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="439" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A439" s="1" t="n">
         <v>4</v>
       </c>
@@ -12020,7 +12127,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="442" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="442" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A442" s="1" t="n">
         <v>4</v>
       </c>
@@ -12036,7 +12143,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="443" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="443" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A443" s="1" t="n">
         <v>4</v>
       </c>
@@ -12052,7 +12159,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="444" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="444" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A444" s="1" t="n">
         <v>4</v>
       </c>
@@ -12068,7 +12175,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="445" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="445" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A445" s="1" t="n">
         <v>4</v>
       </c>
@@ -12088,7 +12195,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="446" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="446" customFormat="false" ht="76.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A446" s="1" t="n">
         <v>4</v>
       </c>
@@ -12108,7 +12215,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="447" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="447" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A447" s="1" t="n">
         <v>4</v>
       </c>
@@ -12124,7 +12231,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="448" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="448" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A448" s="1" t="n">
         <v>4</v>
       </c>
@@ -12140,7 +12247,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="449" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="449" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A449" s="1" t="n">
         <v>4</v>
       </c>
@@ -12156,7 +12263,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="450" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="450" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A450" s="1" t="n">
         <v>4</v>
       </c>
@@ -12208,7 +12315,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="453" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="453" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A453" s="1" t="n">
         <v>4</v>
       </c>
@@ -12224,7 +12331,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="454" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="454" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A454" s="1" t="n">
         <v>4</v>
       </c>
@@ -12240,7 +12347,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="455" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="455" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A455" s="1" t="n">
         <v>4</v>
       </c>
@@ -12256,7 +12363,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="456" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="456" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A456" s="1" t="n">
         <v>4</v>
       </c>
@@ -12288,7 +12395,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="458" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="458" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A458" s="1" t="n">
         <v>4</v>
       </c>
@@ -12308,7 +12415,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="459" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="459" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A459" s="1" t="n">
         <v>4</v>
       </c>
@@ -12348,7 +12455,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="461" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="461" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A461" s="1" t="n">
         <v>4</v>
       </c>
@@ -12364,7 +12471,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="462" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="462" customFormat="false" ht="61.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A462" s="1" t="n">
         <v>4</v>
       </c>
@@ -12384,7 +12491,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="463" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="463" customFormat="false" ht="61.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A463" s="1" t="n">
         <v>4</v>
       </c>
@@ -12400,7 +12507,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="464" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="464" customFormat="false" ht="61.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A464" s="1" t="n">
         <v>4</v>
       </c>
@@ -12416,7 +12523,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="465" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="465" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A465" s="1" t="n">
         <v>4</v>
       </c>
@@ -12436,7 +12543,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="466" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="466" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A466" s="1" t="n">
         <v>4</v>
       </c>
@@ -12456,7 +12563,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="467" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="467" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A467" s="1" t="n">
         <v>4</v>
       </c>
@@ -12472,7 +12579,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="468" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="468" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A468" s="1" t="n">
         <v>4</v>
       </c>
@@ -12488,7 +12595,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="469" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="469" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A469" s="1" t="n">
         <v>4</v>
       </c>
@@ -12504,7 +12611,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="470" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="470" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A470" s="1" t="n">
         <v>4</v>
       </c>
@@ -12520,7 +12627,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="471" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="471" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A471" s="1" t="n">
         <v>4</v>
       </c>
@@ -12536,7 +12643,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="472" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="472" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A472" s="1" t="n">
         <v>4</v>
       </c>
@@ -12552,7 +12659,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="473" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="473" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A473" s="1" t="n">
         <v>4</v>
       </c>
@@ -12568,7 +12675,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="474" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="474" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A474" s="1" t="n">
         <v>4</v>
       </c>
@@ -12584,7 +12691,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="475" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="475" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A475" s="1" t="n">
         <v>4</v>
       </c>
@@ -12604,7 +12711,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="476" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="476" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A476" s="1" t="n">
         <v>4</v>
       </c>
@@ -12624,7 +12731,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="477" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="477" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A477" s="1" t="n">
         <v>4</v>
       </c>
@@ -12640,7 +12747,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="478" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="478" customFormat="false" ht="61.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A478" s="1" t="n">
         <v>4</v>
       </c>
@@ -12660,7 +12767,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="479" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="479" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A479" s="1" t="n">
         <v>4</v>
       </c>
@@ -12676,7 +12783,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="480" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="480" customFormat="false" ht="61.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A480" s="1" t="n">
         <v>4</v>
       </c>
@@ -12692,7 +12799,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="481" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="481" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A481" s="1" t="n">
         <v>4</v>
       </c>
@@ -12740,7 +12847,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="484" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="484" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A484" s="1" t="n">
         <v>4</v>
       </c>
@@ -12756,7 +12863,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="485" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="485" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A485" s="1" t="n">
         <v>4</v>
       </c>
@@ -12772,7 +12879,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="486" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="486" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A486" s="1" t="n">
         <v>4</v>
       </c>
@@ -12788,7 +12895,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="487" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="487" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A487" s="1" t="n">
         <v>4</v>
       </c>
@@ -12804,7 +12911,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="488" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="488" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A488" s="1" t="n">
         <v>4</v>
       </c>
@@ -12820,7 +12927,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="489" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="489" customFormat="false" ht="61.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A489" s="1" t="n">
         <v>4</v>
       </c>
@@ -12836,7 +12943,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="490" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="490" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A490" s="1" t="n">
         <v>4</v>
       </c>
@@ -12856,7 +12963,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="491" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="491" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A491" s="1" t="n">
         <v>4</v>
       </c>
@@ -12872,7 +12979,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="492" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="492" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A492" s="1" t="n">
         <v>4</v>
       </c>
@@ -12892,7 +12999,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="493" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="493" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A493" s="1" t="n">
         <v>4</v>
       </c>
@@ -12908,7 +13015,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="494" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="494" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A494" s="1" t="n">
         <v>4</v>
       </c>
@@ -12928,7 +13035,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="495" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="495" customFormat="false" ht="76.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A495" s="1" t="n">
         <v>4</v>
       </c>
@@ -12948,7 +13055,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="496" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="496" customFormat="false" ht="105.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A496" s="1" t="n">
         <v>4</v>
       </c>
@@ -12968,7 +13075,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="497" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="497" customFormat="false" ht="76.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A497" s="1" t="n">
         <v>4</v>
       </c>
@@ -12988,7 +13095,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="498" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="498" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A498" s="1" t="n">
         <v>4</v>
       </c>
@@ -13008,7 +13115,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="499" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="499" customFormat="false" ht="61.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A499" s="1" t="n">
         <v>4</v>
       </c>
@@ -13028,7 +13135,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="500" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="500" customFormat="false" ht="76.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A500" s="1" t="n">
         <v>4</v>
       </c>
@@ -13044,7 +13151,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="501" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="501" customFormat="false" ht="105.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A501" s="1" t="n">
         <v>4</v>
       </c>
@@ -13060,7 +13167,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="502" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="502" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A502" s="1" t="n">
         <v>4</v>
       </c>
@@ -13076,7 +13183,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="503" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="503" customFormat="false" ht="61.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A503" s="1" t="n">
         <v>4</v>
       </c>
@@ -13096,7 +13203,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="504" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="504" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A504" s="1" t="n">
         <v>4</v>
       </c>
@@ -13112,7 +13219,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="505" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="505" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A505" s="1" t="n">
         <v>4</v>
       </c>
@@ -13128,7 +13235,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="506" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="506" customFormat="false" ht="61.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A506" s="1" t="n">
         <v>4</v>
       </c>
@@ -13144,7 +13251,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="507" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="507" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A507" s="1" t="n">
         <v>4</v>
       </c>
@@ -13160,7 +13267,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="508" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="508" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A508" s="1" t="n">
         <v>4</v>
       </c>
@@ -13176,7 +13283,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="509" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="509" customFormat="false" ht="61.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A509" s="1" t="n">
         <v>4</v>
       </c>
@@ -13208,7 +13315,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="511" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="511" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A511" s="1" t="n">
         <v>4</v>
       </c>
@@ -13224,7 +13331,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="512" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="512" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A512" s="1" t="n">
         <v>4</v>
       </c>
@@ -13240,7 +13347,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="513" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="513" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A513" s="1" t="n">
         <v>4</v>
       </c>
@@ -13256,7 +13363,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="514" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="514" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A514" s="1" t="n">
         <v>4</v>
       </c>
@@ -13292,7 +13399,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="516" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="516" customFormat="false" ht="61.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A516" s="1" t="n">
         <v>4</v>
       </c>
@@ -13328,7 +13435,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="518" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="518" customFormat="false" ht="76.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A518" s="1" t="n">
         <v>4</v>
       </c>
@@ -13344,7 +13451,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="519" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="519" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A519" s="1" t="n">
         <v>4</v>
       </c>
@@ -13390,7 +13497,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="522" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="522" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A522" s="1" t="n">
         <v>4</v>
       </c>
@@ -13426,7 +13533,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="524" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="524" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A524" s="1" t="n">
         <v>4</v>
       </c>
@@ -13498,7 +13605,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="528" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="528" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A528" s="1" t="n">
         <v>4</v>
       </c>
@@ -13518,7 +13625,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="529" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="529" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A529" s="1" t="n">
         <v>4</v>
       </c>
@@ -13534,7 +13641,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="530" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="530" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A530" s="1" t="n">
         <v>4</v>
       </c>
@@ -13554,7 +13661,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="531" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="531" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A531" s="1" t="n">
         <v>4</v>
       </c>
@@ -13574,7 +13681,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="532" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="532" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A532" s="1" t="n">
         <v>4</v>
       </c>
@@ -13594,7 +13701,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="533" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="533" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A533" s="1" t="n">
         <v>4</v>
       </c>
@@ -13614,7 +13721,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="534" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="534" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A534" s="1" t="n">
         <v>4</v>
       </c>
@@ -13634,7 +13741,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="535" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="535" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A535" s="1" t="n">
         <v>4</v>
       </c>
@@ -13654,7 +13761,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="536" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="536" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A536" s="1" t="n">
         <v>4</v>
       </c>
@@ -13674,7 +13781,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="537" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="537" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A537" s="1" t="n">
         <v>4</v>
       </c>
@@ -13690,7 +13797,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="538" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="538" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A538" s="1" t="n">
         <v>4</v>
       </c>
@@ -13706,7 +13813,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="539" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="539" customFormat="false" ht="76.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A539" s="1" t="n">
         <v>4</v>
       </c>
@@ -13762,7 +13869,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="542" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="542" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A542" s="1" t="n">
         <v>4</v>
       </c>
@@ -13782,7 +13889,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="543" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="543" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A543" s="1" t="n">
         <v>4</v>
       </c>
@@ -13802,7 +13909,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="544" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="544" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A544" s="1" t="n">
         <v>4</v>
       </c>
@@ -13822,7 +13929,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="545" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="545" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A545" s="1" t="n">
         <v>4</v>
       </c>
@@ -13858,7 +13965,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="547" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="547" customFormat="false" ht="76.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A547" s="1" t="n">
         <v>4</v>
       </c>
@@ -13878,7 +13985,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="548" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="548" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A548" s="1" t="n">
         <v>4</v>
       </c>
@@ -13894,7 +14001,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="549" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="549" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A549" s="1" t="n">
         <v>4</v>
       </c>
@@ -13914,7 +14021,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="550" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="550" customFormat="false" ht="76.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A550" s="1" t="n">
         <v>4</v>
       </c>
@@ -13934,7 +14041,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="551" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="551" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A551" s="1" t="n">
         <v>4</v>
       </c>
@@ -13974,7 +14081,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="553" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="553" customFormat="false" ht="61.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A553" s="1" t="n">
         <v>4</v>
       </c>
@@ -14006,7 +14113,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="555" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="555" customFormat="false" ht="61.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A555" s="1" t="n">
         <v>4</v>
       </c>
@@ -14090,7 +14197,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="560" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="560" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A560" s="1" t="n">
         <v>4</v>
       </c>
@@ -14106,7 +14213,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="561" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="561" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A561" s="1" t="n">
         <v>4</v>
       </c>
@@ -14126,7 +14233,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="562" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="562" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A562" s="1" t="n">
         <v>4</v>
       </c>
@@ -14202,7 +14309,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="566" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="566" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A566" s="1" t="n">
         <v>4</v>
       </c>
@@ -14262,7 +14369,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="569" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="569" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A569" s="1" t="n">
         <v>4</v>
       </c>
@@ -14282,7 +14389,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="570" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="570" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A570" s="1" t="n">
         <v>4</v>
       </c>
@@ -14338,7 +14445,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="573" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="573" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A573" s="1" t="n">
         <v>4</v>
       </c>
@@ -14358,7 +14465,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="574" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="574" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A574" s="1" t="n">
         <v>4</v>
       </c>
@@ -14378,7 +14485,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="575" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="575" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A575" s="1" t="n">
         <v>4</v>
       </c>
@@ -14446,7 +14553,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="579" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="579" customFormat="false" ht="61.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A579" s="1" t="n">
         <v>4</v>
       </c>
@@ -14466,7 +14573,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="580" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="580" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A580" s="1" t="n">
         <v>4</v>
       </c>
@@ -14518,7 +14625,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="583" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="583" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A583" s="1" t="n">
         <v>4</v>
       </c>
@@ -14534,7 +14641,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="584" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="584" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A584" s="1" t="n">
         <v>4</v>
       </c>
@@ -14550,7 +14657,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="585" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="585" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A585" s="1" t="n">
         <v>4</v>
       </c>
@@ -14582,7 +14689,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="587" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="587" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A587" s="1" t="n">
         <v>4</v>
       </c>
@@ -14598,7 +14705,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="588" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="588" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A588" s="1" t="n">
         <v>4</v>
       </c>
@@ -14638,7 +14745,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="590" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="590" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A590" s="1" t="n">
         <v>4</v>
       </c>
@@ -14738,7 +14845,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="595" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="595" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A595" s="1" t="n">
         <v>4</v>
       </c>
@@ -14778,7 +14885,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="597" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="597" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A597" s="1" t="n">
         <v>4</v>
       </c>
@@ -14794,7 +14901,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="598" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="598" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A598" s="1" t="n">
         <v>4</v>
       </c>
@@ -14834,7 +14941,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="600" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="600" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A600" s="1" t="n">
         <v>4</v>
       </c>
@@ -14854,7 +14961,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="601" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="601" customFormat="false" ht="61.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A601" s="1" t="n">
         <v>4</v>
       </c>
@@ -14870,7 +14977,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="602" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="602" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A602" s="1" t="n">
         <v>4</v>
       </c>
@@ -14890,7 +14997,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="603" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="603" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A603" s="1" t="n">
         <v>4</v>
       </c>
@@ -14910,7 +15017,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="604" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="604" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A604" s="1" t="n">
         <v>4</v>
       </c>
@@ -14950,7 +15057,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="606" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="606" customFormat="false" ht="23.85" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A606" s="1" t="n">
         <v>3</v>
       </c>
@@ -14964,7 +15071,7 @@
         <v>1220</v>
       </c>
     </row>
-    <row r="607" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="607" customFormat="false" ht="35.05" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A607" s="1" t="n">
         <v>3</v>
       </c>
@@ -14978,7 +15085,7 @@
         <v>1220</v>
       </c>
     </row>
-    <row r="608" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="608" customFormat="false" ht="23.85" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A608" s="1" t="n">
         <v>3</v>
       </c>
@@ -14992,7 +15099,7 @@
         <v>1220</v>
       </c>
     </row>
-    <row r="609" customFormat="false" ht="45.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="609" customFormat="false" ht="28.35" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A609" s="1" t="n">
         <v>3</v>
       </c>
@@ -15006,7 +15113,7 @@
         <v>1220</v>
       </c>
     </row>
-    <row r="610" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="610" customFormat="false" ht="23.85" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A610" s="1" t="n">
         <v>3</v>
       </c>
@@ -15020,7 +15127,7 @@
         <v>1220</v>
       </c>
     </row>
-    <row r="611" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="611" customFormat="false" ht="23.85" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A611" s="1" t="n">
         <v>3</v>
       </c>
@@ -15034,7 +15141,7 @@
         <v>1220</v>
       </c>
     </row>
-    <row r="612" customFormat="false" ht="23.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="612" customFormat="false" ht="23.85" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A612" s="1" t="n">
         <v>3</v>
       </c>
@@ -15048,7 +15155,7 @@
         <v>1220</v>
       </c>
     </row>
-    <row r="613" customFormat="false" ht="23.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="613" customFormat="false" ht="16.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A613" s="1" t="n">
         <v>3</v>
       </c>
@@ -15062,7 +15169,7 @@
         <v>1220</v>
       </c>
     </row>
-    <row r="614" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="614" customFormat="false" ht="23.85" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A614" s="1" t="n">
         <v>3</v>
       </c>
@@ -15076,7 +15183,7 @@
         <v>1220</v>
       </c>
     </row>
-    <row r="615" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="615" customFormat="false" ht="23.85" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A615" s="1" t="n">
         <v>3</v>
       </c>
@@ -15090,7 +15197,7 @@
         <v>1220</v>
       </c>
     </row>
-    <row r="616" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="616" customFormat="false" ht="23.85" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A616" s="1" t="n">
         <v>3</v>
       </c>
@@ -15104,7 +15211,7 @@
         <v>1220</v>
       </c>
     </row>
-    <row r="617" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="617" customFormat="false" ht="23.85" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A617" s="1" t="n">
         <v>3</v>
       </c>
@@ -15118,7 +15225,7 @@
         <v>1220</v>
       </c>
     </row>
-    <row r="618" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="618" customFormat="false" ht="23.85" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A618" s="1" t="n">
         <v>3</v>
       </c>
@@ -15132,7 +15239,7 @@
         <v>1220</v>
       </c>
     </row>
-    <row r="619" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="619" customFormat="false" ht="23.85" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A619" s="1" t="n">
         <v>3</v>
       </c>
@@ -15152,7 +15259,7 @@
         <v>1220</v>
       </c>
     </row>
-    <row r="620" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="620" customFormat="false" ht="23.85" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A620" s="1" t="n">
         <v>3</v>
       </c>
@@ -15172,7 +15279,7 @@
         <v>1220</v>
       </c>
     </row>
-    <row r="621" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="621" customFormat="false" ht="16.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A621" s="1" t="n">
         <v>3</v>
       </c>
@@ -15186,7 +15293,7 @@
         <v>1220</v>
       </c>
     </row>
-    <row r="622" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="622" customFormat="false" ht="16.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A622" s="1" t="n">
         <v>3</v>
       </c>
@@ -15200,7 +15307,7 @@
         <v>1220</v>
       </c>
     </row>
-    <row r="623" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="623" customFormat="false" ht="23.85" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A623" s="1" t="n">
         <v>3</v>
       </c>
@@ -15214,7 +15321,7 @@
         <v>1220</v>
       </c>
     </row>
-    <row r="624" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="624" customFormat="false" ht="46.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A624" s="1" t="n">
         <v>3</v>
       </c>
@@ -15234,7 +15341,7 @@
         <v>1220</v>
       </c>
     </row>
-    <row r="625" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="625" customFormat="false" ht="23.85" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A625" s="1" t="n">
         <v>3</v>
       </c>
@@ -15248,7 +15355,7 @@
         <v>1220</v>
       </c>
     </row>
-    <row r="626" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="626" customFormat="false" ht="23.85" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A626" s="1" t="n">
         <v>3</v>
       </c>
@@ -15262,7 +15369,7 @@
         <v>1220</v>
       </c>
     </row>
-    <row r="627" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="627" customFormat="false" ht="23.85" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A627" s="1" t="n">
         <v>3</v>
       </c>
@@ -15276,7 +15383,7 @@
         <v>1220</v>
       </c>
     </row>
-    <row r="628" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="628" customFormat="false" ht="23.85" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A628" s="1" t="n">
         <v>3</v>
       </c>
@@ -15290,7 +15397,7 @@
         <v>1220</v>
       </c>
     </row>
-    <row r="629" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="629" customFormat="false" ht="23.85" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A629" s="1" t="n">
         <v>3</v>
       </c>
@@ -15304,7 +15411,7 @@
         <v>1220</v>
       </c>
     </row>
-    <row r="630" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="630" customFormat="false" ht="23.85" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A630" s="1" t="n">
         <v>3</v>
       </c>
@@ -15318,7 +15425,7 @@
         <v>1220</v>
       </c>
     </row>
-    <row r="631" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="631" customFormat="false" ht="23.85" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A631" s="1" t="n">
         <v>3</v>
       </c>
@@ -15332,7 +15439,7 @@
         <v>1220</v>
       </c>
     </row>
-    <row r="632" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="632" customFormat="false" ht="23.85" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A632" s="1" t="n">
         <v>3</v>
       </c>
@@ -15352,7 +15459,7 @@
         <v>1220</v>
       </c>
     </row>
-    <row r="633" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="633" customFormat="false" ht="23.85" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A633" s="1" t="n">
         <v>3</v>
       </c>
@@ -15372,7 +15479,7 @@
         <v>1220</v>
       </c>
     </row>
-    <row r="634" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="634" customFormat="false" ht="23.85" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A634" s="1" t="n">
         <v>3</v>
       </c>
@@ -15392,7 +15499,7 @@
         <v>1220</v>
       </c>
     </row>
-    <row r="635" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="635" customFormat="false" ht="35.05" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A635" s="1" t="n">
         <v>3</v>
       </c>
@@ -15412,7 +15519,7 @@
         <v>1220</v>
       </c>
     </row>
-    <row r="636" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="636" customFormat="false" ht="46.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A636" s="1" t="n">
         <v>3</v>
       </c>
@@ -15432,7 +15539,7 @@
         <v>1220</v>
       </c>
     </row>
-    <row r="637" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="637" customFormat="false" ht="57.45" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A637" s="1" t="n">
         <v>3</v>
       </c>
@@ -15452,7 +15559,7 @@
         <v>1220</v>
       </c>
     </row>
-    <row r="638" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="638" customFormat="false" ht="16.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A638" s="1" t="n">
         <v>3</v>
       </c>
@@ -15472,7 +15579,7 @@
         <v>1220</v>
       </c>
     </row>
-    <row r="639" customFormat="false" ht="35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="639" customFormat="false" ht="23.85" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A639" s="1" t="n">
         <v>3</v>
       </c>
@@ -15486,7 +15593,7 @@
         <v>1220</v>
       </c>
     </row>
-    <row r="640" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="640" customFormat="false" ht="35.05" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A640" s="1" t="n">
         <v>3</v>
       </c>
@@ -15506,7 +15613,7 @@
         <v>1220</v>
       </c>
     </row>
-    <row r="641" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="641" customFormat="false" ht="46.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A641" s="1" t="n">
         <v>3</v>
       </c>
@@ -15526,7 +15633,7 @@
         <v>1220</v>
       </c>
     </row>
-    <row r="642" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="642" customFormat="false" ht="35.05" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A642" s="1" t="n">
         <v>3</v>
       </c>
@@ -15546,7 +15653,7 @@
         <v>1220</v>
       </c>
     </row>
-    <row r="643" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="643" customFormat="false" ht="23.85" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A643" s="1" t="n">
         <v>3</v>
       </c>
@@ -15560,7 +15667,7 @@
         <v>1220</v>
       </c>
     </row>
-    <row r="644" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="644" customFormat="false" ht="46.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A644" s="1" t="n">
         <v>3</v>
       </c>
@@ -15580,7 +15687,7 @@
         <v>1220</v>
       </c>
     </row>
-    <row r="645" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="645" customFormat="false" ht="23.85" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A645" s="1" t="n">
         <v>3</v>
       </c>
@@ -15594,7 +15701,7 @@
         <v>1220</v>
       </c>
     </row>
-    <row r="646" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="646" customFormat="false" ht="16.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A646" s="1" t="n">
         <v>3</v>
       </c>
@@ -15608,7 +15715,7 @@
         <v>1220</v>
       </c>
     </row>
-    <row r="647" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="647" customFormat="false" ht="23.85" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A647" s="1" t="n">
         <v>3</v>
       </c>
@@ -15622,7 +15729,7 @@
         <v>1220</v>
       </c>
     </row>
-    <row r="648" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="648" customFormat="false" ht="23.85" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A648" s="1" t="n">
         <v>3</v>
       </c>
@@ -15636,7 +15743,7 @@
         <v>1220</v>
       </c>
     </row>
-    <row r="649" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="649" customFormat="false" ht="23.85" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A649" s="1" t="n">
         <v>3</v>
       </c>
@@ -15650,7 +15757,7 @@
         <v>1220</v>
       </c>
     </row>
-    <row r="650" customFormat="false" ht="30.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="650" customFormat="false" ht="41.75" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A650" s="1" t="n">
         <v>3</v>
       </c>
@@ -15664,7 +15771,7 @@
         <v>1220</v>
       </c>
     </row>
-    <row r="651" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="651" customFormat="false" ht="23.85" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A651" s="1" t="n">
         <v>3</v>
       </c>
@@ -15678,7 +15785,7 @@
         <v>1220</v>
       </c>
     </row>
-    <row r="652" customFormat="false" ht="23.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="652" customFormat="false" ht="23.85" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A652" s="1" t="n">
         <v>3</v>
       </c>
@@ -15692,7 +15799,7 @@
         <v>1220</v>
       </c>
     </row>
-    <row r="653" customFormat="false" ht="45.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="653" customFormat="false" ht="35.05" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A653" s="1" t="n">
         <v>3</v>
       </c>
@@ -15706,7 +15813,7 @@
         <v>1220</v>
       </c>
     </row>
-    <row r="654" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="654" customFormat="false" ht="23.85" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A654" s="1" t="n">
         <v>3</v>
       </c>
@@ -15720,7 +15827,7 @@
         <v>1220</v>
       </c>
     </row>
-    <row r="655" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="655" customFormat="false" ht="16.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A655" s="1" t="n">
         <v>3</v>
       </c>
@@ -15734,7 +15841,7 @@
         <v>1220</v>
       </c>
     </row>
-    <row r="656" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="656" customFormat="false" ht="23.85" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A656" s="1" t="n">
         <v>3</v>
       </c>
@@ -15748,7 +15855,7 @@
         <v>1220</v>
       </c>
     </row>
-    <row r="657" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="657" customFormat="false" ht="23.85" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A657" s="1" t="n">
         <v>3</v>
       </c>
@@ -15762,7 +15869,7 @@
         <v>1220</v>
       </c>
     </row>
-    <row r="658" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="658" customFormat="false" ht="23.85" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A658" s="1" t="n">
         <v>3</v>
       </c>
@@ -15776,7 +15883,7 @@
         <v>1220</v>
       </c>
     </row>
-    <row r="659" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="659" customFormat="false" ht="57.45" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A659" s="1" t="n">
         <v>3</v>
       </c>
@@ -15790,7 +15897,7 @@
         <v>1220</v>
       </c>
     </row>
-    <row r="660" customFormat="false" ht="35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="660" customFormat="false" ht="23.85" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A660" s="1" t="n">
         <v>3</v>
       </c>
@@ -15804,7 +15911,7 @@
         <v>1220</v>
       </c>
     </row>
-    <row r="661" customFormat="false" ht="35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="661" customFormat="false" ht="23.85" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A661" s="1" t="n">
         <v>3</v>
       </c>
@@ -15818,7 +15925,7 @@
         <v>1220</v>
       </c>
     </row>
-    <row r="662" customFormat="false" ht="23.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="662" customFormat="false" ht="16.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A662" s="1" t="n">
         <v>3</v>
       </c>
@@ -15832,7 +15939,7 @@
         <v>1220</v>
       </c>
     </row>
-    <row r="663" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="663" customFormat="false" ht="35.05" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A663" s="1" t="n">
         <v>3</v>
       </c>
@@ -15852,7 +15959,7 @@
         <v>1220</v>
       </c>
     </row>
-    <row r="664" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="664" customFormat="false" ht="23.85" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A664" s="1" t="n">
         <v>3</v>
       </c>
@@ -15866,7 +15973,7 @@
         <v>1220</v>
       </c>
     </row>
-    <row r="665" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="665" customFormat="false" ht="23.85" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A665" s="1" t="n">
         <v>3</v>
       </c>
@@ -15886,7 +15993,7 @@
         <v>1220</v>
       </c>
     </row>
-    <row r="666" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="666" customFormat="false" ht="35.05" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A666" s="1" t="n">
         <v>3</v>
       </c>
@@ -15906,7 +16013,7 @@
         <v>1220</v>
       </c>
     </row>
-    <row r="667" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="667" customFormat="false" ht="23.85" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A667" s="1" t="n">
         <v>3</v>
       </c>
@@ -15920,7 +16027,7 @@
         <v>1220</v>
       </c>
     </row>
-    <row r="668" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="668" customFormat="false" ht="46.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A668" s="1" t="n">
         <v>3</v>
       </c>
@@ -15940,7 +16047,7 @@
         <v>1220</v>
       </c>
     </row>
-    <row r="669" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="669" customFormat="false" ht="23.85" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A669" s="1" t="n">
         <v>3</v>
       </c>
@@ -15954,7 +16061,7 @@
         <v>1220</v>
       </c>
     </row>
-    <row r="670" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="670" customFormat="false" ht="23.85" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A670" s="1" t="n">
         <v>3</v>
       </c>
@@ -15968,7 +16075,7 @@
         <v>1220</v>
       </c>
     </row>
-    <row r="671" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="671" customFormat="false" ht="61.15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A671" s="1" t="n">
         <v>3</v>
       </c>
@@ -15988,7 +16095,7 @@
         <v>1220</v>
       </c>
     </row>
-    <row r="672" customFormat="false" ht="23.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="672" customFormat="false" ht="23.85" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A672" s="1" t="n">
         <v>3</v>
       </c>
@@ -16002,7 +16109,7 @@
         <v>1220</v>
       </c>
     </row>
-    <row r="673" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="673" customFormat="false" ht="23.85" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A673" s="1" t="n">
         <v>3</v>
       </c>
@@ -16016,7 +16123,7 @@
         <v>1220</v>
       </c>
     </row>
-    <row r="674" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="674" customFormat="false" ht="23.85" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A674" s="1" t="n">
         <v>3</v>
       </c>
@@ -16030,7 +16137,7 @@
         <v>1220</v>
       </c>
     </row>
-    <row r="675" customFormat="false" ht="24.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="675" customFormat="false" ht="31.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A675" s="1" t="n">
         <v>3</v>
       </c>
@@ -16050,7 +16157,7 @@
         <v>1220</v>
       </c>
     </row>
-    <row r="676" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="676" customFormat="false" ht="23.85" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A676" s="1" t="n">
         <v>3</v>
       </c>
@@ -16064,7 +16171,7 @@
         <v>1220</v>
       </c>
     </row>
-    <row r="677" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="677" customFormat="false" ht="23.85" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A677" s="1" t="n">
         <v>3</v>
       </c>
@@ -16078,7 +16185,7 @@
         <v>1220</v>
       </c>
     </row>
-    <row r="678" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="678" customFormat="false" ht="31.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A678" s="1" t="n">
         <v>1</v>
       </c>
@@ -16098,7 +16205,7 @@
         <v>1365</v>
       </c>
     </row>
-    <row r="679" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="679" customFormat="false" ht="61.15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A679" s="1" t="n">
         <v>1</v>
       </c>
@@ -16118,7 +16225,7 @@
         <v>1365</v>
       </c>
     </row>
-    <row r="680" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="680" customFormat="false" ht="31.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A680" s="1" t="n">
         <v>1</v>
       </c>
@@ -16138,7 +16245,7 @@
         <v>1365</v>
       </c>
     </row>
-    <row r="681" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="681" customFormat="false" ht="61.15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A681" s="1" t="n">
         <v>1</v>
       </c>
@@ -16158,7 +16265,7 @@
         <v>1365</v>
       </c>
     </row>
-    <row r="682" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="682" customFormat="false" ht="46.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A682" s="1" t="n">
         <v>1</v>
       </c>
@@ -16172,7 +16279,7 @@
         <v>1365</v>
       </c>
     </row>
-    <row r="683" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="683" customFormat="false" ht="31.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A683" s="1" t="n">
         <v>1</v>
       </c>
@@ -16186,7 +16293,7 @@
         <v>1376</v>
       </c>
     </row>
-    <row r="684" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="684" customFormat="false" ht="46.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A684" s="1" t="n">
         <v>1</v>
       </c>
@@ -16200,7 +16307,7 @@
         <v>1376</v>
       </c>
     </row>
-    <row r="685" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="685" customFormat="false" ht="46.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A685" s="1" t="n">
         <v>1</v>
       </c>
@@ -16214,7 +16321,7 @@
         <v>1376</v>
       </c>
     </row>
-    <row r="686" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="686" customFormat="false" ht="46.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A686" s="1" t="n">
         <v>1</v>
       </c>
@@ -16228,7 +16335,7 @@
         <v>1376</v>
       </c>
     </row>
-    <row r="687" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="687" customFormat="false" ht="31.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A687" s="1" t="n">
         <v>1</v>
       </c>
@@ -16242,7 +16349,7 @@
         <v>1376</v>
       </c>
     </row>
-    <row r="688" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="688" customFormat="false" ht="46.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A688" s="1" t="n">
         <v>1</v>
       </c>
@@ -16256,7 +16363,7 @@
         <v>1376</v>
       </c>
     </row>
-    <row r="689" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="689" customFormat="false" ht="46.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A689" s="1" t="n">
         <v>1</v>
       </c>
@@ -16270,7 +16377,7 @@
         <v>1376</v>
       </c>
     </row>
-    <row r="690" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="690" customFormat="false" ht="31.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A690" s="1" t="n">
         <v>1</v>
       </c>
@@ -16284,7 +16391,7 @@
         <v>1376</v>
       </c>
     </row>
-    <row r="691" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="691" customFormat="false" ht="46.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A691" s="1" t="n">
         <v>1</v>
       </c>
@@ -16298,7 +16405,7 @@
         <v>1376</v>
       </c>
     </row>
-    <row r="692" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="692" customFormat="false" ht="31.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A692" s="1" t="n">
         <v>1</v>
       </c>
@@ -16312,7 +16419,7 @@
         <v>1376</v>
       </c>
     </row>
-    <row r="693" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="693" customFormat="false" ht="31.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A693" s="1" t="n">
         <v>1</v>
       </c>
@@ -16326,7 +16433,7 @@
         <v>1376</v>
       </c>
     </row>
-    <row r="694" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="694" customFormat="false" ht="31.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A694" s="1" t="n">
         <v>1</v>
       </c>
@@ -16340,7 +16447,7 @@
         <v>1376</v>
       </c>
     </row>
-    <row r="695" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="695" customFormat="false" ht="31.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A695" s="1" t="n">
         <v>1</v>
       </c>
@@ -16354,7 +16461,7 @@
         <v>1376</v>
       </c>
     </row>
-    <row r="696" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="696" customFormat="false" ht="31.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A696" s="1" t="n">
         <v>1</v>
       </c>
@@ -16368,7 +16475,7 @@
         <v>1376</v>
       </c>
     </row>
-    <row r="697" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="697" customFormat="false" ht="31.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A697" s="1" t="n">
         <v>1</v>
       </c>
@@ -16382,7 +16489,7 @@
         <v>1376</v>
       </c>
     </row>
-    <row r="698" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="698" customFormat="false" ht="31.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A698" s="1" t="n">
         <v>1</v>
       </c>
@@ -16396,7 +16503,7 @@
         <v>1376</v>
       </c>
     </row>
-    <row r="699" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="699" customFormat="false" ht="31.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A699" s="1" t="n">
         <v>1</v>
       </c>
@@ -16410,7 +16517,7 @@
         <v>1376</v>
       </c>
     </row>
-    <row r="700" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="700" customFormat="false" ht="31.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A700" s="1" t="n">
         <v>1</v>
       </c>
@@ -16424,7 +16531,7 @@
         <v>1376</v>
       </c>
     </row>
-    <row r="701" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="701" customFormat="false" ht="31.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A701" s="1" t="n">
         <v>1</v>
       </c>
@@ -16438,7 +16545,7 @@
         <v>1412</v>
       </c>
     </row>
-    <row r="702" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="702" customFormat="false" ht="31.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A702" s="1" t="n">
         <v>1</v>
       </c>
@@ -16452,7 +16559,7 @@
         <v>1412</v>
       </c>
     </row>
-    <row r="703" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="703" customFormat="false" ht="31.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A703" s="1" t="n">
         <v>1</v>
       </c>
@@ -16466,7 +16573,7 @@
         <v>1412</v>
       </c>
     </row>
-    <row r="704" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="704" customFormat="false" ht="46.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A704" s="1" t="n">
         <v>1</v>
       </c>
@@ -16480,7 +16587,7 @@
         <v>1412</v>
       </c>
     </row>
-    <row r="705" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="705" customFormat="false" ht="46.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A705" s="1" t="n">
         <v>1</v>
       </c>
@@ -16494,7 +16601,7 @@
         <v>1412</v>
       </c>
     </row>
-    <row r="706" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="706" customFormat="false" ht="31.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A706" s="1" t="n">
         <v>1</v>
       </c>
@@ -16508,7 +16615,7 @@
         <v>1412</v>
       </c>
     </row>
-    <row r="707" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="707" customFormat="false" ht="31.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A707" s="1" t="n">
         <v>1</v>
       </c>
@@ -16522,7 +16629,7 @@
         <v>1412</v>
       </c>
     </row>
-    <row r="708" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="708" customFormat="false" ht="46.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A708" s="1" t="n">
         <v>1</v>
       </c>
@@ -16536,7 +16643,7 @@
         <v>1412</v>
       </c>
     </row>
-    <row r="709" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="709" customFormat="false" ht="46.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A709" s="1" t="n">
         <v>1</v>
       </c>
@@ -16550,7 +16657,7 @@
         <v>1412</v>
       </c>
     </row>
-    <row r="710" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="710" customFormat="false" ht="46.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A710" s="1" t="n">
         <v>1</v>
       </c>
@@ -16564,7 +16671,7 @@
         <v>1412</v>
       </c>
     </row>
-    <row r="711" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="711" customFormat="false" ht="46.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A711" s="1" t="n">
         <v>1</v>
       </c>
@@ -16578,7 +16685,7 @@
         <v>1412</v>
       </c>
     </row>
-    <row r="712" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="712" customFormat="false" ht="46.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A712" s="1" t="n">
         <v>1</v>
       </c>
@@ -16592,7 +16699,7 @@
         <v>1412</v>
       </c>
     </row>
-    <row r="713" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="713" customFormat="false" ht="31.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A713" s="1" t="n">
         <v>1</v>
       </c>
@@ -16606,7 +16713,7 @@
         <v>1412</v>
       </c>
     </row>
-    <row r="714" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="714" customFormat="false" ht="31.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A714" s="1" t="n">
         <v>1</v>
       </c>
@@ -16620,7 +16727,7 @@
         <v>1412</v>
       </c>
     </row>
-    <row r="715" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="715" customFormat="false" ht="46.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A715" s="1" t="n">
         <v>1</v>
       </c>
@@ -16634,7 +16741,7 @@
         <v>1412</v>
       </c>
     </row>
-    <row r="716" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="716" customFormat="false" ht="31.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A716" s="1" t="n">
         <v>1</v>
       </c>
@@ -16648,7 +16755,7 @@
         <v>1443</v>
       </c>
     </row>
-    <row r="717" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="717" customFormat="false" ht="46.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A717" s="1" t="n">
         <v>1</v>
       </c>
@@ -16662,7 +16769,7 @@
         <v>1443</v>
       </c>
     </row>
-    <row r="718" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="718" customFormat="false" ht="31.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A718" s="1" t="n">
         <v>1</v>
       </c>
@@ -16676,7 +16783,7 @@
         <v>1443</v>
       </c>
     </row>
-    <row r="719" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="719" customFormat="false" ht="91" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A719" s="1" t="n">
         <v>1</v>
       </c>
@@ -16690,7 +16797,7 @@
         <v>1443</v>
       </c>
     </row>
-    <row r="720" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="720" customFormat="false" ht="31.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A720" s="1" t="n">
         <v>1</v>
       </c>
@@ -16704,7 +16811,7 @@
         <v>1443</v>
       </c>
     </row>
-    <row r="721" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="721" customFormat="false" ht="31.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A721" s="1" t="n">
         <v>1</v>
       </c>
@@ -16718,7 +16825,7 @@
         <v>1443</v>
       </c>
     </row>
-    <row r="722" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="722" customFormat="false" ht="46.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A722" s="1" t="n">
         <v>1</v>
       </c>
@@ -16732,7 +16839,7 @@
         <v>1443</v>
       </c>
     </row>
-    <row r="723" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="723" customFormat="false" ht="31.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A723" s="1" t="n">
         <v>1</v>
       </c>
@@ -16746,7 +16853,7 @@
         <v>1443</v>
       </c>
     </row>
-    <row r="724" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="724" customFormat="false" ht="46.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A724" s="1" t="n">
         <v>1</v>
       </c>
@@ -16768,7 +16875,13 @@
     <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <autoFilter ref="A1:F681"/>
+  <autoFilter ref="A1:F724">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="4"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" scale="65" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -16781,18 +16894,2885 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1"/>
+  <dimension ref="A1:D1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="A721:A724 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="C557:D605 A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="4" min="1" style="2" width="11.53"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="284.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="2" t="s">
+        <v>711</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>712</v>
+      </c>
+      <c r="C2" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" s="1" t="n">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="508.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="2" t="s">
+        <v>714</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>715</v>
+      </c>
+      <c r="C3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" s="1" t="n">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="240" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="2" t="s">
+        <v>826</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>827</v>
+      </c>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+    </row>
+    <row r="5" customFormat="false" ht="210.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="2" t="s">
+        <v>828</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>829</v>
+      </c>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+    </row>
+    <row r="6" customFormat="false" ht="90.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="2" t="s">
+        <v>830</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>831</v>
+      </c>
+      <c r="C6" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D6" s="1" t="n">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="165.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="2" t="s">
+        <v>832</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>833</v>
+      </c>
+      <c r="C7" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D7" s="1" t="n">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="75.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="2" t="s">
+        <v>834</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>835</v>
+      </c>
+      <c r="C8" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D8" s="1" t="n">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="75.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="2" t="s">
+        <v>836</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>837</v>
+      </c>
+      <c r="C9" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D9" s="1" t="n">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="271.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="2" t="s">
+        <v>838</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>839</v>
+      </c>
+      <c r="C10" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D10" s="1" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="180.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="2" t="s">
+        <v>840</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>841</v>
+      </c>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+    </row>
+    <row r="12" customFormat="false" ht="195.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="2" t="s">
+        <v>842</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>843</v>
+      </c>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+    </row>
+    <row r="13" customFormat="false" ht="225.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="2" t="s">
+        <v>844</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>845</v>
+      </c>
+      <c r="C13" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D13" s="1" t="n">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="180.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="2" t="s">
+        <v>846</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>847</v>
+      </c>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+    </row>
+    <row r="15" customFormat="false" ht="254.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="2" t="s">
+        <v>848</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>849</v>
+      </c>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+    </row>
+    <row r="16" customFormat="false" ht="225.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="2" t="s">
+        <v>850</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>851</v>
+      </c>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+    </row>
+    <row r="17" customFormat="false" ht="240" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="2" t="s">
+        <v>852</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>853</v>
+      </c>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+    </row>
+    <row r="18" customFormat="false" ht="210.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="2" t="s">
+        <v>854</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>855</v>
+      </c>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+    </row>
+    <row r="19" customFormat="false" ht="254.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="2" t="s">
+        <v>856</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>857</v>
+      </c>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+    </row>
+    <row r="20" customFormat="false" ht="195.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="2" t="s">
+        <v>858</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>859</v>
+      </c>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+    </row>
+    <row r="21" customFormat="false" ht="269.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="2" t="s">
+        <v>860</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>861</v>
+      </c>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+    </row>
+    <row r="22" customFormat="false" ht="195.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="2" t="s">
+        <v>862</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>863</v>
+      </c>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+    </row>
+    <row r="23" customFormat="false" ht="150.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="2" t="s">
+        <v>864</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>865</v>
+      </c>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+    </row>
+    <row r="24" customFormat="false" ht="210.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="2" t="s">
+        <v>866</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>867</v>
+      </c>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+    </row>
+    <row r="25" customFormat="false" ht="210.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="2" t="s">
+        <v>868</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>869</v>
+      </c>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+    </row>
+    <row r="26" customFormat="false" ht="269.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="2" t="s">
+        <v>870</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>871</v>
+      </c>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+    </row>
+    <row r="27" customFormat="false" ht="195.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="2" t="s">
+        <v>872</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>873</v>
+      </c>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+    </row>
+    <row r="28" customFormat="false" ht="210.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="2" t="s">
+        <v>874</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>875</v>
+      </c>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+    </row>
+    <row r="29" customFormat="false" ht="269.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="2" t="s">
+        <v>876</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>877</v>
+      </c>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+    </row>
+    <row r="30" customFormat="false" ht="195.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="2" t="s">
+        <v>878</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>879</v>
+      </c>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+    </row>
+    <row r="31" customFormat="false" ht="225.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="9" t="s">
+        <v>880</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>881</v>
+      </c>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+    </row>
+    <row r="32" customFormat="false" ht="165.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="2" t="s">
+        <v>882</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>883</v>
+      </c>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
+    </row>
+    <row r="33" customFormat="false" ht="240" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="2" t="s">
+        <v>884</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>885</v>
+      </c>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+    </row>
+    <row r="34" customFormat="false" ht="225.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="2" t="s">
+        <v>886</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>887</v>
+      </c>
+      <c r="C34" s="1"/>
+      <c r="D34" s="1"/>
+    </row>
+    <row r="35" customFormat="false" ht="281.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="8" t="s">
+        <v>888</v>
+      </c>
+      <c r="B35" s="8" t="s">
+        <v>889</v>
+      </c>
+      <c r="C35" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D35" s="1" t="n">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="269.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="2" t="s">
+        <v>890</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>891</v>
+      </c>
+      <c r="C36" s="1"/>
+      <c r="D36" s="1"/>
+    </row>
+    <row r="37" customFormat="false" ht="269.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="2" t="s">
+        <v>892</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>893</v>
+      </c>
+      <c r="C37" s="1"/>
+      <c r="D37" s="1"/>
+    </row>
+    <row r="38" customFormat="false" ht="180.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="2" t="s">
+        <v>894</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>895</v>
+      </c>
+      <c r="C38" s="1"/>
+      <c r="D38" s="1"/>
+    </row>
+    <row r="39" customFormat="false" ht="284.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="2" t="s">
+        <v>896</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>897</v>
+      </c>
+      <c r="C39" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D39" s="1" t="n">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="269.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="2" t="s">
+        <v>898</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>899</v>
+      </c>
+      <c r="C40" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D40" s="1" t="n">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="135.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="2" t="s">
+        <v>900</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>901</v>
+      </c>
+      <c r="C41" s="1"/>
+      <c r="D41" s="1"/>
+    </row>
+    <row r="42" customFormat="false" ht="240" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="2" t="s">
+        <v>902</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>903</v>
+      </c>
+      <c r="C42" s="1"/>
+      <c r="D42" s="1"/>
+    </row>
+    <row r="43" customFormat="false" ht="269.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="2" t="s">
+        <v>904</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>905</v>
+      </c>
+      <c r="C43" s="1"/>
+      <c r="D43" s="1"/>
+    </row>
+    <row r="44" customFormat="false" ht="284.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="2" t="s">
+        <v>906</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>907</v>
+      </c>
+      <c r="C44" s="1"/>
+      <c r="D44" s="1"/>
+    </row>
+    <row r="45" customFormat="false" ht="240" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="2" t="s">
+        <v>908</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>909</v>
+      </c>
+      <c r="C45" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D45" s="1" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="210.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="2" t="s">
+        <v>910</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>911</v>
+      </c>
+      <c r="C46" s="1"/>
+      <c r="D46" s="1"/>
+    </row>
+    <row r="47" customFormat="false" ht="165.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="2" t="s">
+        <v>912</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>913</v>
+      </c>
+      <c r="C47" s="1"/>
+      <c r="D47" s="1"/>
+    </row>
+    <row r="48" customFormat="false" ht="180.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="2" t="s">
+        <v>914</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>915</v>
+      </c>
+      <c r="C48" s="1"/>
+      <c r="D48" s="1"/>
+    </row>
+    <row r="49" customFormat="false" ht="225.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="2" t="s">
+        <v>916</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>917</v>
+      </c>
+      <c r="C49" s="1"/>
+      <c r="D49" s="1"/>
+    </row>
+    <row r="50" customFormat="false" ht="165.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="2" t="s">
+        <v>918</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>919</v>
+      </c>
+      <c r="C50" s="1"/>
+      <c r="D50" s="1"/>
+    </row>
+    <row r="51" customFormat="false" ht="210.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="2" t="s">
+        <v>920</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>921</v>
+      </c>
+      <c r="C51" s="1"/>
+      <c r="D51" s="1"/>
+    </row>
+    <row r="52" customFormat="false" ht="180.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="2" t="s">
+        <v>922</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>923</v>
+      </c>
+      <c r="C52" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D52" s="1" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="210.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="2" t="s">
+        <v>924</v>
+      </c>
+      <c r="B53" s="8" t="s">
+        <v>925</v>
+      </c>
+      <c r="C53" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D53" s="1" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="225.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="2" t="s">
+        <v>926</v>
+      </c>
+      <c r="B54" s="8" t="s">
+        <v>927</v>
+      </c>
+      <c r="C54" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D54" s="1" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="195.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="2" t="s">
+        <v>928</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>929</v>
+      </c>
+      <c r="C55" s="1"/>
+      <c r="D55" s="1"/>
+    </row>
+    <row r="56" customFormat="false" ht="419.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="2" t="s">
+        <v>930</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>931</v>
+      </c>
+      <c r="C56" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D56" s="1" t="n">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="299.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="2" t="s">
+        <v>932</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>933</v>
+      </c>
+      <c r="C57" s="1"/>
+      <c r="D57" s="1"/>
+    </row>
+    <row r="58" customFormat="false" ht="299.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="2" t="s">
+        <v>934</v>
+      </c>
+      <c r="B58" s="6" t="s">
+        <v>935</v>
+      </c>
+      <c r="C58" s="1"/>
+      <c r="D58" s="1"/>
+    </row>
+    <row r="59" customFormat="false" ht="254.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="2" t="s">
+        <v>936</v>
+      </c>
+      <c r="B59" s="6" t="s">
+        <v>937</v>
+      </c>
+      <c r="C59" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D59" s="1" t="n">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="508.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="2" t="s">
+        <v>938</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>939</v>
+      </c>
+      <c r="C60" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D60" s="1" t="n">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="180.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="2" t="s">
+        <v>940</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>941</v>
+      </c>
+      <c r="C61" s="1"/>
+      <c r="D61" s="1"/>
+    </row>
+    <row r="62" customFormat="false" ht="225.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="2" t="s">
+        <v>942</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>943</v>
+      </c>
+      <c r="C62" s="1"/>
+      <c r="D62" s="1"/>
+    </row>
+    <row r="63" customFormat="false" ht="269.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="2" t="s">
+        <v>944</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>945</v>
+      </c>
+      <c r="C63" s="1"/>
+      <c r="D63" s="1"/>
+    </row>
+    <row r="64" customFormat="false" ht="210.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="2" t="s">
+        <v>946</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>947</v>
+      </c>
+      <c r="C64" s="1"/>
+      <c r="D64" s="1"/>
+    </row>
+    <row r="65" customFormat="false" ht="240" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="2" t="s">
+        <v>948</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>949</v>
+      </c>
+      <c r="C65" s="1"/>
+      <c r="D65" s="1"/>
+    </row>
+    <row r="66" customFormat="false" ht="195.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="2" t="s">
+        <v>950</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>951</v>
+      </c>
+      <c r="C66" s="1"/>
+      <c r="D66" s="1"/>
+    </row>
+    <row r="67" customFormat="false" ht="225.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="2" t="s">
+        <v>952</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>953</v>
+      </c>
+      <c r="C67" s="1"/>
+      <c r="D67" s="1"/>
+    </row>
+    <row r="68" customFormat="false" ht="195.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="2" t="s">
+        <v>954</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>955</v>
+      </c>
+      <c r="C68" s="1"/>
+      <c r="D68" s="1"/>
+    </row>
+    <row r="69" customFormat="false" ht="180.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="2" t="s">
+        <v>956</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>957</v>
+      </c>
+      <c r="C69" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D69" s="1" t="n">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="180.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="2" t="s">
+        <v>958</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>959</v>
+      </c>
+      <c r="C70" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D70" s="1" t="n">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="254.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="2" t="s">
+        <v>960</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>961</v>
+      </c>
+      <c r="C71" s="1"/>
+      <c r="D71" s="1"/>
+    </row>
+    <row r="72" customFormat="false" ht="299.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="2" t="s">
+        <v>962</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>963</v>
+      </c>
+      <c r="C72" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D72" s="1" t="n">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="254.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="2" t="s">
+        <v>964</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>965</v>
+      </c>
+      <c r="C73" s="1"/>
+      <c r="D73" s="1"/>
+    </row>
+    <row r="74" customFormat="false" ht="329.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A74" s="2" t="s">
+        <v>966</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>967</v>
+      </c>
+      <c r="C74" s="1"/>
+      <c r="D74" s="1"/>
+    </row>
+    <row r="75" customFormat="false" ht="135.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A75" s="2" t="s">
+        <v>968</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>969</v>
+      </c>
+      <c r="C75" s="1"/>
+      <c r="D75" s="1"/>
+    </row>
+    <row r="76" customFormat="false" ht="254.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="2" t="s">
+        <v>970</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>971</v>
+      </c>
+      <c r="C76" s="1"/>
+      <c r="D76" s="1"/>
+    </row>
+    <row r="77" customFormat="false" ht="254.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="2" t="s">
+        <v>972</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>973</v>
+      </c>
+      <c r="C77" s="1"/>
+      <c r="D77" s="1"/>
+    </row>
+    <row r="78" customFormat="false" ht="180.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A78" s="2" t="s">
+        <v>974</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>975</v>
+      </c>
+      <c r="C78" s="1"/>
+      <c r="D78" s="1"/>
+    </row>
+    <row r="79" customFormat="false" ht="210.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A79" s="2" t="s">
+        <v>976</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>977</v>
+      </c>
+      <c r="C79" s="1"/>
+      <c r="D79" s="1"/>
+    </row>
+    <row r="80" customFormat="false" ht="240" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A80" s="2" t="s">
+        <v>978</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>979</v>
+      </c>
+      <c r="C80" s="1"/>
+      <c r="D80" s="1"/>
+    </row>
+    <row r="81" customFormat="false" ht="210.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A81" s="2" t="s">
+        <v>980</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>981</v>
+      </c>
+      <c r="C81" s="1"/>
+      <c r="D81" s="1"/>
+    </row>
+    <row r="82" customFormat="false" ht="165.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A82" s="2" t="s">
+        <v>982</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>983</v>
+      </c>
+      <c r="C82" s="1"/>
+      <c r="D82" s="1"/>
+    </row>
+    <row r="83" customFormat="false" ht="359.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A83" s="2" t="s">
+        <v>984</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>985</v>
+      </c>
+      <c r="C83" s="1"/>
+      <c r="D83" s="1"/>
+    </row>
+    <row r="84" customFormat="false" ht="314.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A84" s="2" t="s">
+        <v>986</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>987</v>
+      </c>
+      <c r="C84" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D84" s="1" t="n">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="85" customFormat="false" ht="284.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A85" s="2" t="s">
+        <v>988</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>989</v>
+      </c>
+      <c r="C85" s="1"/>
+      <c r="D85" s="1"/>
+    </row>
+    <row r="86" customFormat="false" ht="195.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A86" s="2" t="s">
+        <v>990</v>
+      </c>
+      <c r="B86" s="6" t="s">
+        <v>991</v>
+      </c>
+      <c r="C86" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D86" s="1" t="n">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="87" customFormat="false" ht="146.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A87" s="8" t="s">
+        <v>992</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>993</v>
+      </c>
+      <c r="C87" s="1"/>
+      <c r="D87" s="1"/>
+    </row>
+    <row r="88" customFormat="false" ht="254.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A88" s="2" t="s">
+        <v>994</v>
+      </c>
+      <c r="B88" s="2" t="s">
+        <v>995</v>
+      </c>
+      <c r="C88" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D88" s="1" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="89" customFormat="false" ht="434.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A89" s="2" t="s">
+        <v>996</v>
+      </c>
+      <c r="B89" s="2" t="s">
+        <v>997</v>
+      </c>
+      <c r="C89" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D89" s="1" t="n">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="90" customFormat="false" ht="538.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A90" s="2" t="s">
+        <v>998</v>
+      </c>
+      <c r="B90" s="2" t="s">
+        <v>999</v>
+      </c>
+      <c r="C90" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D90" s="1" t="n">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="91" customFormat="false" ht="419.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A91" s="2" t="s">
+        <v>1000</v>
+      </c>
+      <c r="B91" s="2" t="s">
+        <v>1001</v>
+      </c>
+      <c r="C91" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D91" s="1" t="n">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="92" customFormat="false" ht="463.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A92" s="2" t="s">
+        <v>1002</v>
+      </c>
+      <c r="B92" s="2" t="s">
+        <v>1003</v>
+      </c>
+      <c r="C92" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D92" s="1" t="n">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="93" customFormat="false" ht="374.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A93" s="2" t="s">
+        <v>1004</v>
+      </c>
+      <c r="B93" s="2" t="s">
+        <v>1005</v>
+      </c>
+      <c r="C93" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D93" s="1" t="n">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="94" customFormat="false" ht="478.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A94" s="2" t="s">
+        <v>1006</v>
+      </c>
+      <c r="B94" s="2" t="s">
+        <v>1007</v>
+      </c>
+      <c r="C94" s="1"/>
+      <c r="D94" s="1"/>
+    </row>
+    <row r="95" customFormat="false" ht="538.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A95" s="2" t="s">
+        <v>1008</v>
+      </c>
+      <c r="B95" s="2" t="s">
+        <v>1009</v>
+      </c>
+      <c r="C95" s="1"/>
+      <c r="D95" s="1"/>
+    </row>
+    <row r="96" customFormat="false" ht="508.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A96" s="2" t="s">
+        <v>1010</v>
+      </c>
+      <c r="B96" s="2" t="s">
+        <v>1011</v>
+      </c>
+      <c r="C96" s="1"/>
+      <c r="D96" s="1"/>
+    </row>
+    <row r="97" customFormat="false" ht="299.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A97" s="2" t="s">
+        <v>1012</v>
+      </c>
+      <c r="B97" s="2" t="s">
+        <v>1013</v>
+      </c>
+      <c r="C97" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D97" s="1" t="n">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="98" customFormat="false" ht="225.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A98" s="2" t="s">
+        <v>1014</v>
+      </c>
+      <c r="B98" s="2" t="s">
+        <v>1015</v>
+      </c>
+      <c r="C98" s="1"/>
+      <c r="D98" s="1"/>
+    </row>
+    <row r="99" customFormat="false" ht="210.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A99" s="2" t="s">
+        <v>1016</v>
+      </c>
+      <c r="B99" s="2" t="s">
+        <v>1017</v>
+      </c>
+      <c r="C99" s="1"/>
+      <c r="D99" s="1"/>
+    </row>
+    <row r="100" customFormat="false" ht="359.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A100" s="8" t="s">
+        <v>1018</v>
+      </c>
+      <c r="B100" s="2" t="s">
+        <v>1019</v>
+      </c>
+      <c r="C100" s="1"/>
+      <c r="D100" s="1"/>
+    </row>
+    <row r="101" customFormat="false" ht="195.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A101" s="2" t="s">
+        <v>1020</v>
+      </c>
+      <c r="B101" s="2" t="s">
+        <v>1021</v>
+      </c>
+      <c r="C101" s="1"/>
+      <c r="D101" s="1"/>
+    </row>
+    <row r="102" customFormat="false" ht="210.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A102" s="2" t="s">
+        <v>1022</v>
+      </c>
+      <c r="B102" s="2" t="s">
+        <v>1023</v>
+      </c>
+      <c r="C102" s="1"/>
+      <c r="D102" s="1"/>
+    </row>
+    <row r="103" customFormat="false" ht="284.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A103" s="2" t="s">
+        <v>1024</v>
+      </c>
+      <c r="B103" s="2" t="s">
+        <v>1025</v>
+      </c>
+      <c r="C103" s="1"/>
+      <c r="D103" s="1"/>
+    </row>
+    <row r="104" customFormat="false" ht="225.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A104" s="2" t="s">
+        <v>1026</v>
+      </c>
+      <c r="B104" s="2" t="s">
+        <v>1027</v>
+      </c>
+      <c r="C104" s="1"/>
+      <c r="D104" s="1"/>
+    </row>
+    <row r="105" customFormat="false" ht="225.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A105" s="2" t="s">
+        <v>1028</v>
+      </c>
+      <c r="B105" s="2" t="s">
+        <v>1029</v>
+      </c>
+      <c r="C105" s="1"/>
+      <c r="D105" s="1"/>
+    </row>
+    <row r="106" customFormat="false" ht="210.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A106" s="2" t="s">
+        <v>1030</v>
+      </c>
+      <c r="B106" s="2" t="s">
+        <v>1031</v>
+      </c>
+      <c r="C106" s="1"/>
+      <c r="D106" s="1"/>
+    </row>
+    <row r="107" customFormat="false" ht="120.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A107" s="6" t="s">
+        <v>1032</v>
+      </c>
+      <c r="B107" s="6" t="s">
+        <v>1033</v>
+      </c>
+      <c r="C107" s="1"/>
+      <c r="D107" s="1"/>
+    </row>
+    <row r="108" customFormat="false" ht="165.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A108" s="2" t="s">
+        <v>1034</v>
+      </c>
+      <c r="B108" s="6" t="s">
+        <v>1035</v>
+      </c>
+      <c r="C108" s="1"/>
+      <c r="D108" s="1"/>
+    </row>
+    <row r="109" customFormat="false" ht="478.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A109" s="2" t="s">
+        <v>1036</v>
+      </c>
+      <c r="B109" s="6" t="s">
+        <v>1037</v>
+      </c>
+      <c r="C109" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D109" s="1" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="110" customFormat="false" ht="225.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A110" s="2" t="s">
+        <v>1038</v>
+      </c>
+      <c r="B110" s="6" t="s">
+        <v>1039</v>
+      </c>
+      <c r="C110" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D110" s="1" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="111" customFormat="false" ht="493.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A111" s="2" t="s">
+        <v>1040</v>
+      </c>
+      <c r="B111" s="6" t="s">
+        <v>1041</v>
+      </c>
+      <c r="C111" s="1"/>
+      <c r="D111" s="1"/>
+    </row>
+    <row r="112" customFormat="false" ht="463.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A112" s="2" t="s">
+        <v>1042</v>
+      </c>
+      <c r="B112" s="6" t="s">
+        <v>1043</v>
+      </c>
+      <c r="C112" s="1"/>
+      <c r="D112" s="1"/>
+    </row>
+    <row r="113" customFormat="false" ht="284.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A113" s="2" t="s">
+        <v>1044</v>
+      </c>
+      <c r="B113" s="6" t="s">
+        <v>1045</v>
+      </c>
+      <c r="C113" s="1"/>
+      <c r="D113" s="1"/>
+    </row>
+    <row r="114" customFormat="false" ht="210.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A114" s="2" t="s">
+        <v>1046</v>
+      </c>
+      <c r="B114" s="2" t="s">
+        <v>1047</v>
+      </c>
+      <c r="C114" s="1"/>
+      <c r="D114" s="1"/>
+    </row>
+    <row r="115" customFormat="false" ht="210.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A115" s="2" t="s">
+        <v>1048</v>
+      </c>
+      <c r="B115" s="2" t="s">
+        <v>1049</v>
+      </c>
+      <c r="C115" s="1"/>
+      <c r="D115" s="1"/>
+    </row>
+    <row r="116" customFormat="false" ht="210.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A116" s="2" t="s">
+        <v>1050</v>
+      </c>
+      <c r="B116" s="2" t="s">
+        <v>1051</v>
+      </c>
+      <c r="C116" s="1"/>
+      <c r="D116" s="1"/>
+    </row>
+    <row r="117" customFormat="false" ht="225.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A117" s="2" t="s">
+        <v>1052</v>
+      </c>
+      <c r="B117" s="2" t="s">
+        <v>1053</v>
+      </c>
+      <c r="C117" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D117" s="1" t="n">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="118" customFormat="false" ht="195.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A118" s="2" t="s">
+        <v>1054</v>
+      </c>
+      <c r="B118" s="2" t="s">
+        <v>1055</v>
+      </c>
+      <c r="C118" s="1"/>
+      <c r="D118" s="1"/>
+    </row>
+    <row r="119" customFormat="false" ht="225.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A119" s="2" t="s">
+        <v>1056</v>
+      </c>
+      <c r="B119" s="2" t="s">
+        <v>1057</v>
+      </c>
+      <c r="C119" s="1"/>
+      <c r="D119" s="1"/>
+    </row>
+    <row r="120" customFormat="false" ht="180.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A120" s="8" t="s">
+        <v>1058</v>
+      </c>
+      <c r="B120" s="8" t="s">
+        <v>1059</v>
+      </c>
+      <c r="C120" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D120" s="1" t="n">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="121" customFormat="false" ht="213.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A121" s="8" t="s">
+        <v>1060</v>
+      </c>
+      <c r="B121" s="8" t="s">
+        <v>1061</v>
+      </c>
+      <c r="C121" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D121" s="1" t="n">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="122" customFormat="false" ht="325.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A122" s="8" t="s">
+        <v>1062</v>
+      </c>
+      <c r="B122" s="8" t="s">
+        <v>1063</v>
+      </c>
+      <c r="C122" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D122" s="1" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="123" customFormat="false" ht="240" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A123" s="8" t="s">
+        <v>1064</v>
+      </c>
+      <c r="B123" s="2" t="s">
+        <v>1065</v>
+      </c>
+      <c r="C123" s="1"/>
+      <c r="D123" s="1"/>
+    </row>
+    <row r="124" customFormat="false" ht="202.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A124" s="8" t="s">
+        <v>1066</v>
+      </c>
+      <c r="B124" s="8" t="s">
+        <v>1067</v>
+      </c>
+      <c r="C124" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D124" s="1" t="n">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="125" customFormat="false" ht="269.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A125" s="8" t="s">
+        <v>1068</v>
+      </c>
+      <c r="B125" s="8" t="s">
+        <v>1069</v>
+      </c>
+      <c r="C125" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D125" s="1" t="n">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="126" customFormat="false" ht="254.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A126" s="8" t="s">
+        <v>1070</v>
+      </c>
+      <c r="B126" s="2" t="s">
+        <v>1071</v>
+      </c>
+      <c r="C126" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D126" s="1" t="n">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="127" customFormat="false" ht="90.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A127" s="8" t="s">
+        <v>1072</v>
+      </c>
+      <c r="B127" s="2" t="s">
+        <v>1073</v>
+      </c>
+      <c r="C127" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D127" s="1" t="n">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="128" customFormat="false" ht="254.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A128" s="8" t="s">
+        <v>1074</v>
+      </c>
+      <c r="B128" s="2" t="s">
+        <v>1075</v>
+      </c>
+      <c r="C128" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D128" s="1" t="n">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="129" customFormat="false" ht="434.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A129" s="8" t="s">
+        <v>1076</v>
+      </c>
+      <c r="B129" s="2" t="s">
+        <v>1077</v>
+      </c>
+      <c r="C129" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D129" s="1" t="n">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="130" customFormat="false" ht="568.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A130" s="8" t="s">
+        <v>1078</v>
+      </c>
+      <c r="B130" s="2" t="s">
+        <v>1079</v>
+      </c>
+      <c r="C130" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D130" s="1" t="n">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="131" customFormat="false" ht="240" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A131" s="2" t="s">
+        <v>1080</v>
+      </c>
+      <c r="B131" s="2" t="s">
+        <v>1081</v>
+      </c>
+      <c r="C131" s="1"/>
+      <c r="D131" s="1"/>
+    </row>
+    <row r="132" customFormat="false" ht="254.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A132" s="2" t="s">
+        <v>1082</v>
+      </c>
+      <c r="B132" s="2" t="s">
+        <v>1083</v>
+      </c>
+      <c r="C132" s="1"/>
+      <c r="D132" s="1"/>
+    </row>
+    <row r="133" customFormat="false" ht="419.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A133" s="2" t="s">
+        <v>1084</v>
+      </c>
+      <c r="B133" s="2" t="s">
+        <v>1085</v>
+      </c>
+      <c r="C133" s="1"/>
+      <c r="D133" s="1"/>
+    </row>
+    <row r="134" customFormat="false" ht="180.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A134" s="8" t="s">
+        <v>1086</v>
+      </c>
+      <c r="B134" s="8" t="s">
+        <v>1087</v>
+      </c>
+      <c r="C134" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D134" s="1" t="n">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="135" customFormat="false" ht="159.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A135" s="8" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B135" s="8" t="s">
+        <v>1089</v>
+      </c>
+      <c r="C135" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D135" s="1" t="n">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="136" customFormat="false" ht="210.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A136" s="2" t="s">
+        <v>1090</v>
+      </c>
+      <c r="B136" s="2" t="s">
+        <v>1091</v>
+      </c>
+      <c r="C136" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D136" s="1" t="n">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="137" customFormat="false" ht="180.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A137" s="2" t="s">
+        <v>1092</v>
+      </c>
+      <c r="B137" s="2" t="s">
+        <v>1093</v>
+      </c>
+      <c r="C137" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D137" s="1" t="n">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="138" customFormat="false" ht="195.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A138" s="2" t="s">
+        <v>1094</v>
+      </c>
+      <c r="B138" s="2" t="s">
+        <v>1095</v>
+      </c>
+      <c r="C138" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D138" s="1" t="n">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="139" customFormat="false" ht="284.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A139" s="2" t="s">
+        <v>1096</v>
+      </c>
+      <c r="B139" s="2" t="s">
+        <v>1097</v>
+      </c>
+      <c r="C139" s="1"/>
+      <c r="D139" s="1"/>
+    </row>
+    <row r="140" customFormat="false" ht="225.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A140" s="2" t="s">
+        <v>1098</v>
+      </c>
+      <c r="B140" s="2" t="s">
+        <v>1099</v>
+      </c>
+      <c r="C140" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D140" s="1" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="141" customFormat="false" ht="463.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A141" s="2" t="s">
+        <v>1100</v>
+      </c>
+      <c r="B141" s="2" t="s">
+        <v>1101</v>
+      </c>
+      <c r="C141" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D141" s="1" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="142" customFormat="false" ht="254.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A142" s="2" t="s">
+        <v>1102</v>
+      </c>
+      <c r="B142" s="2" t="s">
+        <v>1103</v>
+      </c>
+      <c r="C142" s="1"/>
+      <c r="D142" s="1"/>
+    </row>
+    <row r="143" customFormat="false" ht="195.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A143" s="2" t="s">
+        <v>1104</v>
+      </c>
+      <c r="B143" s="2" t="s">
+        <v>1105</v>
+      </c>
+      <c r="C143" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D143" s="1" t="n">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="144" customFormat="false" ht="449" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A144" s="2" t="s">
+        <v>1106</v>
+      </c>
+      <c r="B144" s="2" t="s">
+        <v>1107</v>
+      </c>
+      <c r="C144" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D144" s="1" t="n">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="145" customFormat="false" ht="236.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A145" s="8" t="s">
+        <v>1108</v>
+      </c>
+      <c r="B145" s="8" t="s">
+        <v>1109</v>
+      </c>
+      <c r="C145" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D145" s="1" t="n">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="146" customFormat="false" ht="169.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A146" s="8" t="s">
+        <v>1110</v>
+      </c>
+      <c r="B146" s="8" t="s">
+        <v>1111</v>
+      </c>
+      <c r="C146" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D146" s="1" t="n">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="147" customFormat="false" ht="284.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A147" s="2" t="s">
+        <v>1112</v>
+      </c>
+      <c r="B147" s="2" t="s">
+        <v>1113</v>
+      </c>
+      <c r="C147" s="1"/>
+      <c r="D147" s="1"/>
+    </row>
+    <row r="148" customFormat="false" ht="225.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A148" s="2" t="s">
+        <v>1114</v>
+      </c>
+      <c r="B148" s="2" t="s">
+        <v>1115</v>
+      </c>
+      <c r="C148" s="1"/>
+      <c r="D148" s="1"/>
+    </row>
+    <row r="149" customFormat="false" ht="254.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A149" s="2" t="s">
+        <v>1116</v>
+      </c>
+      <c r="B149" s="2" t="s">
+        <v>1117</v>
+      </c>
+      <c r="C149" s="1"/>
+      <c r="D149" s="1"/>
+    </row>
+    <row r="150" customFormat="false" ht="225.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A150" s="2" t="s">
+        <v>1118</v>
+      </c>
+      <c r="B150" s="2" t="s">
+        <v>1119</v>
+      </c>
+      <c r="C150" s="1"/>
+      <c r="D150" s="1"/>
+    </row>
+    <row r="151" customFormat="false" ht="225.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A151" s="2" t="s">
+        <v>1120</v>
+      </c>
+      <c r="B151" s="2" t="s">
+        <v>1121</v>
+      </c>
+      <c r="C151" s="1"/>
+      <c r="D151" s="1"/>
+    </row>
+    <row r="152" customFormat="false" ht="269.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A152" s="2" t="s">
+        <v>1122</v>
+      </c>
+      <c r="B152" s="2" t="s">
+        <v>1123</v>
+      </c>
+      <c r="C152" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D152" s="1" t="n">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="153" customFormat="false" ht="240" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A153" s="2" t="s">
+        <v>1124</v>
+      </c>
+      <c r="B153" s="2" t="s">
+        <v>1125</v>
+      </c>
+      <c r="C153" s="1"/>
+      <c r="D153" s="1"/>
+    </row>
+    <row r="154" customFormat="false" ht="135.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A154" s="2" t="s">
+        <v>1126</v>
+      </c>
+      <c r="B154" s="2" t="s">
+        <v>1127</v>
+      </c>
+      <c r="C154" s="1"/>
+      <c r="D154" s="1"/>
+    </row>
+    <row r="155" customFormat="false" ht="150.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A155" s="2" t="s">
+        <v>1128</v>
+      </c>
+      <c r="B155" s="2" t="s">
+        <v>1129</v>
+      </c>
+      <c r="C155" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D155" s="1" t="n">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="156" customFormat="false" ht="195.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A156" s="2" t="s">
+        <v>1130</v>
+      </c>
+      <c r="B156" s="2" t="s">
+        <v>1131</v>
+      </c>
+      <c r="C156" s="1"/>
+      <c r="D156" s="1"/>
+    </row>
+    <row r="157" customFormat="false" ht="225.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A157" s="2" t="s">
+        <v>1132</v>
+      </c>
+      <c r="B157" s="2" t="s">
+        <v>1133</v>
+      </c>
+      <c r="C157" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D157" s="1" t="n">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="158" customFormat="false" ht="169.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A158" s="8" t="s">
+        <v>1134</v>
+      </c>
+      <c r="B158" s="8" t="s">
+        <v>1135</v>
+      </c>
+      <c r="C158" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D158" s="1" t="n">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="159" customFormat="false" ht="240" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A159" s="2" t="s">
+        <v>1136</v>
+      </c>
+      <c r="B159" s="2" t="s">
+        <v>1137</v>
+      </c>
+      <c r="C159" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D159" s="1" t="n">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="160" customFormat="false" ht="225.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A160" s="8" t="s">
+        <v>1138</v>
+      </c>
+      <c r="B160" s="8" t="s">
+        <v>1139</v>
+      </c>
+      <c r="C160" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D160" s="1" t="n">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="161" customFormat="false" ht="236.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A161" s="8" t="s">
+        <v>1140</v>
+      </c>
+      <c r="B161" s="8" t="s">
+        <v>1141</v>
+      </c>
+      <c r="C161" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D161" s="1" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="162" customFormat="false" ht="195.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A162" s="2" t="s">
+        <v>1142</v>
+      </c>
+      <c r="B162" s="2" t="s">
+        <v>1143</v>
+      </c>
+      <c r="C162" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D162" s="1" t="n">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="163" customFormat="false" ht="284.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A163" s="2" t="s">
+        <v>1144</v>
+      </c>
+      <c r="B163" s="2" t="s">
+        <v>1145</v>
+      </c>
+      <c r="C163" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D163" s="1" t="n">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="164" customFormat="false" ht="135.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A164" s="2" t="s">
+        <v>1146</v>
+      </c>
+      <c r="B164" s="2" t="s">
+        <v>1147</v>
+      </c>
+      <c r="C164" s="1"/>
+      <c r="D164" s="1"/>
+    </row>
+    <row r="165" customFormat="false" ht="292.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A165" s="8" t="s">
+        <v>1148</v>
+      </c>
+      <c r="B165" s="8" t="s">
+        <v>1149</v>
+      </c>
+      <c r="C165" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D165" s="1" t="n">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="166" customFormat="false" ht="202.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A166" s="8" t="s">
+        <v>1150</v>
+      </c>
+      <c r="B166" s="8" t="s">
+        <v>1151</v>
+      </c>
+      <c r="C166" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D166" s="1" t="n">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="167" customFormat="false" ht="328.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A167" s="8" t="s">
+        <v>1152</v>
+      </c>
+      <c r="B167" s="8" t="s">
+        <v>1153</v>
+      </c>
+      <c r="C167" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D167" s="1" t="n">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="168" customFormat="false" ht="286.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A168" s="8" t="s">
+        <v>1154</v>
+      </c>
+      <c r="B168" s="8" t="s">
+        <v>1155</v>
+      </c>
+      <c r="C168" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D168" s="1" t="n">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="169" customFormat="false" ht="180.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A169" s="2" t="s">
+        <v>1156</v>
+      </c>
+      <c r="B169" s="2" t="s">
+        <v>1157</v>
+      </c>
+      <c r="C169" s="1"/>
+      <c r="D169" s="1"/>
+    </row>
+    <row r="170" customFormat="false" ht="240" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A170" s="2" t="s">
+        <v>1158</v>
+      </c>
+      <c r="B170" s="2" t="s">
+        <v>1159</v>
+      </c>
+      <c r="C170" s="1"/>
+      <c r="D170" s="1"/>
+    </row>
+    <row r="171" customFormat="false" ht="210.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A171" s="2" t="s">
+        <v>1160</v>
+      </c>
+      <c r="B171" s="2" t="s">
+        <v>1161</v>
+      </c>
+      <c r="C171" s="1"/>
+      <c r="D171" s="1"/>
+    </row>
+    <row r="172" customFormat="false" ht="240" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A172" s="2" t="s">
+        <v>1162</v>
+      </c>
+      <c r="B172" s="6" t="s">
+        <v>1163</v>
+      </c>
+      <c r="C172" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D172" s="1" t="n">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="173" customFormat="false" ht="359.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A173" s="8" t="s">
+        <v>1164</v>
+      </c>
+      <c r="B173" s="2" t="s">
+        <v>1165</v>
+      </c>
+      <c r="C173" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D173" s="1" t="n">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="174" customFormat="false" ht="381.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A174" s="8" t="s">
+        <v>1166</v>
+      </c>
+      <c r="B174" s="8" t="s">
+        <v>1167</v>
+      </c>
+      <c r="C174" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D174" s="1" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="175" customFormat="false" ht="225.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A175" s="2" t="s">
+        <v>1168</v>
+      </c>
+      <c r="B175" s="8" t="s">
+        <v>1169</v>
+      </c>
+      <c r="C175" s="1"/>
+      <c r="D175" s="1"/>
+    </row>
+    <row r="176" customFormat="false" ht="225.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A176" s="2" t="s">
+        <v>1170</v>
+      </c>
+      <c r="B176" s="2" t="s">
+        <v>1171</v>
+      </c>
+      <c r="C176" s="3"/>
+      <c r="D176" s="3"/>
+    </row>
+    <row r="177" customFormat="false" ht="254.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A177" s="2" t="s">
+        <v>1172</v>
+      </c>
+      <c r="B177" s="2" t="s">
+        <v>1173</v>
+      </c>
+      <c r="C177" s="1"/>
+      <c r="D177" s="1"/>
+    </row>
+    <row r="178" customFormat="false" ht="165.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A178" s="2" t="s">
+        <v>1174</v>
+      </c>
+      <c r="B178" s="2" t="s">
+        <v>1175</v>
+      </c>
+      <c r="C178" s="1"/>
+      <c r="D178" s="1"/>
+    </row>
+    <row r="179" customFormat="false" ht="254.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A179" s="2" t="s">
+        <v>1176</v>
+      </c>
+      <c r="B179" s="2" t="s">
+        <v>1177</v>
+      </c>
+      <c r="C179" s="1"/>
+      <c r="D179" s="1"/>
+    </row>
+    <row r="180" customFormat="false" ht="210.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A180" s="2" t="s">
+        <v>1178</v>
+      </c>
+      <c r="B180" s="2" t="s">
+        <v>1179</v>
+      </c>
+      <c r="C180" s="1"/>
+      <c r="D180" s="1"/>
+    </row>
+    <row r="181" customFormat="false" ht="225.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A181" s="2" t="s">
+        <v>1180</v>
+      </c>
+      <c r="B181" s="2" t="s">
+        <v>1181</v>
+      </c>
+      <c r="C181" s="1"/>
+      <c r="D181" s="1"/>
+    </row>
+    <row r="182" customFormat="false" ht="180.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A182" s="2" t="s">
+        <v>1182</v>
+      </c>
+      <c r="B182" s="2" t="s">
+        <v>1183</v>
+      </c>
+      <c r="C182" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D182" s="1" t="n">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="183" customFormat="false" ht="240" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A183" s="2" t="s">
+        <v>1184</v>
+      </c>
+      <c r="B183" s="2" t="s">
+        <v>1185</v>
+      </c>
+      <c r="C183" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D183" s="1" t="n">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="184" customFormat="false" ht="180.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A184" s="8" t="s">
+        <v>1186</v>
+      </c>
+      <c r="B184" s="8" t="s">
+        <v>1187</v>
+      </c>
+      <c r="C184" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D184" s="1" t="n">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="185" customFormat="false" ht="202.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A185" s="8" t="s">
+        <v>1188</v>
+      </c>
+      <c r="B185" s="8" t="s">
+        <v>1189</v>
+      </c>
+      <c r="C185" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D185" s="1" t="n">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="186" customFormat="false" ht="225.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A186" s="8" t="s">
+        <v>1190</v>
+      </c>
+      <c r="B186" s="8" t="s">
+        <v>1191</v>
+      </c>
+      <c r="C186" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D186" s="1" t="n">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="187" customFormat="false" ht="225.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A187" s="2" t="s">
+        <v>1192</v>
+      </c>
+      <c r="B187" s="2" t="s">
+        <v>1193</v>
+      </c>
+      <c r="C187" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D187" s="1" t="n">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="188" customFormat="false" ht="210.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A188" s="2" t="s">
+        <v>1194</v>
+      </c>
+      <c r="B188" s="2" t="s">
+        <v>1195</v>
+      </c>
+      <c r="C188" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D188" s="1" t="n">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="189" customFormat="false" ht="165.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A189" s="2" t="s">
+        <v>1196</v>
+      </c>
+      <c r="B189" s="2" t="s">
+        <v>1197</v>
+      </c>
+      <c r="C189" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D189" s="1" t="n">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="190" customFormat="false" ht="225.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A190" s="8" t="s">
+        <v>1198</v>
+      </c>
+      <c r="B190" s="8" t="s">
+        <v>1199</v>
+      </c>
+      <c r="C190" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D190" s="1" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="191" customFormat="false" ht="210.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A191" s="2" t="s">
+        <v>1200</v>
+      </c>
+      <c r="B191" s="2" t="s">
+        <v>1201</v>
+      </c>
+      <c r="C191" s="1"/>
+      <c r="D191" s="1"/>
+    </row>
+    <row r="192" customFormat="false" ht="258.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A192" s="8" t="s">
+        <v>1202</v>
+      </c>
+      <c r="B192" s="8" t="s">
+        <v>1203</v>
+      </c>
+      <c r="C192" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D192" s="1" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="193" customFormat="false" ht="236.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A193" s="8" t="s">
+        <v>1204</v>
+      </c>
+      <c r="B193" s="8" t="s">
+        <v>1205</v>
+      </c>
+      <c r="C193" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D193" s="1" t="n">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="194" customFormat="false" ht="269.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A194" s="8" t="s">
+        <v>1206</v>
+      </c>
+      <c r="B194" s="8" t="s">
+        <v>1207</v>
+      </c>
+      <c r="C194" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D194" s="1" t="n">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="195" customFormat="false" ht="344.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A195" s="2" t="s">
+        <v>1208</v>
+      </c>
+      <c r="B195" s="2" t="s">
+        <v>1209</v>
+      </c>
+      <c r="C195" s="1"/>
+      <c r="D195" s="1"/>
+    </row>
+    <row r="196" customFormat="false" ht="269.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A196" s="2" t="s">
+        <v>1210</v>
+      </c>
+      <c r="B196" s="2" t="s">
+        <v>1211</v>
+      </c>
+      <c r="C196" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D196" s="1" t="n">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="197" customFormat="false" ht="75.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A197" s="2" t="s">
+        <v>1212</v>
+      </c>
+      <c r="B197" s="2" t="s">
+        <v>1213</v>
+      </c>
+      <c r="C197" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D197" s="1" t="n">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="198" customFormat="false" ht="75.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A198" s="2" t="s">
+        <v>1214</v>
+      </c>
+      <c r="B198" s="2" t="s">
+        <v>1215</v>
+      </c>
+      <c r="C198" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D198" s="1" t="n">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="199" customFormat="false" ht="254.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A199" s="2" t="s">
+        <v>1216</v>
+      </c>
+      <c r="B199" s="2" t="s">
+        <v>1217</v>
+      </c>
+      <c r="C199" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D199" s="1" t="n">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="1048052" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048053" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048054" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048055" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048056" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048057" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048058" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048059" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048060" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048061" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048062" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048063" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048064" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048065" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048066" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048067" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048068" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048069" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048070" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048071" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048072" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048073" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048074" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048075" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048076" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048077" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048078" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048079" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048080" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048081" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048082" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048083" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048084" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048085" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048086" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048087" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048088" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048089" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048090" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048091" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048092" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048093" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048094" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048095" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048096" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048097" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048098" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048099" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048143" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048144" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048145" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048146" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048147" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048148" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048149" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048150" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048151" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048152" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048153" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048154" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048155" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048156" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048157" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048158" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048159" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048160" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048161" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048162" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048163" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048164" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048165" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048166" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048167" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048168" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048169" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048170" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048171" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048172" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048173" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048174" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048175" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048176" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048177" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048178" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048179" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048180" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048181" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048182" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048183" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048184" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048185" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048186" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048187" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048188" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048189" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048190" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048191" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048192" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048193" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048194" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048195" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048196" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048197" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048198" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048199" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048200" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048201" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048202" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048203" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048204" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048205" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048206" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048207" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048208" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048209" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048210" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048211" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048212" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048213" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048214" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048215" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048216" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048217" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048218" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048219" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048220" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048221" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048222" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048223" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048224" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048225" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048226" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048227" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048228" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048229" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048230" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048231" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048232" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048233" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048234" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048235" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048236" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048237" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048238" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048239" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048240" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048241" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048242" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048243" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048244" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048245" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048246" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048247" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048248" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048249" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048250" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048251" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048252" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048253" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048254" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048255" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048256" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048257" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048258" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048259" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048260" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048261" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048262" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048263" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048264" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048265" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048266" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048267" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048268" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048269" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048270" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048271" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048272" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048273" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048274" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048275" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048276" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048277" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048278" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048279" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048280" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048281" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048282" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048283" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048284" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048285" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048286" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048287" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048288" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048289" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048290" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048291" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048292" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048293" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048294" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048295" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048296" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048297" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048298" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048299" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048300" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048301" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048302" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048303" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048304" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048305" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048306" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048307" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048308" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048309" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048310" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048311" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048312" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048313" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048314" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048315" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048316" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048317" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048318" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048319" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048320" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048321" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048322" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048323" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048324" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048325" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048326" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048327" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048328" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048329" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048330" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048331" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048332" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048333" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048334" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048335" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048336" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048337" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048338" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048339" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048340" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048341" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048342" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048343" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048344" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048345" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048346" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048347" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048348" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048349" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048350" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048351" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048352" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048353" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048354" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048355" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048356" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048357" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048358" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048359" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048360" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048361" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048362" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048363" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048364" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048365" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048366" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048367" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048368" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048369" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048370" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048371" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048372" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048373" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048374" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048375" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048376" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048377" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048378" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048379" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048380" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048381" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048382" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048383" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048384" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048385" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048386" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048387" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048388" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048389" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048390" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048391" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048392" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048393" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048394" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048395" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048396" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048397" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048398" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048399" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048400" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048401" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048402" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048403" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048404" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048405" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048406" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048407" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048408" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048409" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048410" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048411" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048412" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048413" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048414" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048415" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048416" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048417" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048418" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048419" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048420" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048421" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048422" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048423" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048424" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048425" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048426" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048427" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048428" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048429" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048430" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048431" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048432" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048433" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048434" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048435" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048436" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048437" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048438" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048439" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048440" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048441" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048442" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048443" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048444" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048445" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048446" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048447" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048448" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048449" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048450" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048451" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048452" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048453" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048454" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048455" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048456" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048457" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048458" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048459" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048460" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048461" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048462" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048463" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048464" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048465" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048466" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048467" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048468" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048469" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048470" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048471" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048472" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048473" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048474" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048475" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048476" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048477" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048478" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048479" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048480" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048481" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048482" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048483" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048484" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048485" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048486" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048487" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048488" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048489" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048490" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048491" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048492" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048493" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048494" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048495" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048496" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048497" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048498" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048499" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048500" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048501" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048502" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048503" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048504" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048505" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048506" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048507" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048508" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048509" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048510" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048511" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048512" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048513" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048514" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048515" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048516" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048517" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048518" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048519" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048520" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048521" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048522" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048523" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048524" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048525" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048526" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048527" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048528" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048529" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048530" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048531" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048532" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048533" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048534" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048535" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048536" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048537" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048538" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048539" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048540" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048541" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048542" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048543" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048544" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048545" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048546" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048547" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048548" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048549" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048550" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048551" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048552" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048553" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048554" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048555" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048556" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048557" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048558" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048559" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048560" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048561" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048562" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048563" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048564" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048565" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048566" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048567" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048568" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048569" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048570" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048571" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+  </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>

--- a/backend/django_cemos2028/apps/perguntas/fixtures/flashcards.xlsx
+++ b/backend/django_cemos2028/apps/perguntas/fixtures/flashcards.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4409" uniqueCount="2724">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5099" uniqueCount="3041">
   <si>
     <t xml:space="preserve">bibliografia_id</t>
   </si>
@@ -7994,25 +7994,7 @@
     <t xml:space="preserve">um sistema centralizado de exercício do poder, tendo como base um território determinado</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">A _______ deveu-se a </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">concentração de diversos instrumentos (militares, burocráticos, econômicos), em um só centro de poder (o Rei) – Monarquia Absolutista</t>
-    </r>
+    <t xml:space="preserve">A _______ deveu-se a concentração de diversos instrumentos (militares, burocráticos, econômicos), em um só centro de poder (o Rei) – Monarquia Absolutista</t>
   </si>
   <si>
     <t xml:space="preserve">emergência do Estado</t>
@@ -8035,6 +8017,7 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">_______</t>
     </r>
@@ -8137,36 +8120,8 @@
     <t xml:space="preserve">Os fatores que possibilitaram essa monopolização e unidade do poder foram:</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">**TriBuLei a Ex**
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Sistema de **tri**butos, **</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Bu**rocracia, **Ex**ército permanente,  e Única ordem jurídica em todo o território.</t>
-    </r>
+    <t xml:space="preserve">**TriBuLei a Ex**
+Sistema de **tri**butos, **Bu**rocracia, **Ex**ército permanente,  e Única ordem jurídica em todo o território.</t>
   </si>
   <si>
     <t xml:space="preserve">Primeira forma do Estado moderno foi o Estado absolutista → monopólio da força que atua sobre três planos:</t>
@@ -8420,25 +8375,7 @@
 (Grocio)</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Para Rosseau, onde a soberania reside </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">no _______ e não em seus _______.</t>
-    </r>
+    <t xml:space="preserve">Para Rosseau, onde a soberania reside no _______ e não em seus _______.</t>
   </si>
   <si>
     <t xml:space="preserve">Povo , representantes</t>
@@ -8551,6 +8488,957 @@
   </si>
   <si>
     <t xml:space="preserve">As Eleições</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quando a Convenção das Nações Unidas sobre o Direito do Mar (CNUDM) entrou em vigor, definindo os direitos e deveres dos Estados quanto aos espaços marítimos?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A CNUDM entrou em vigor em 16 de novembro de 1994.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FALSE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pág 11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cap. 1 - Divisões Legais dos oceanos e do espaço aéreo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quais conceitos da CNUDM possuem implicações militares diretas?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mar Territorial (MT), Zona Contígua (ZC), Zona Econômica Exclusiva (ZEE) e Plataforma Continental (PC).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Segundo a CNUDM, o que significa o conceito de "Área"?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Área significa o leito do mar, os fundos marinhos, e o seu subsolo além dos limites de jurisdição nacional.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Qual foi o principal objetivo do Acordo de Implementação da Parte XI da CNUDM?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conciliar os interesses dos países industrializados (detentores de tecnologia) para que ratificassem ou acedessem à Convenção.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pág 12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Qual foi a principal alteração introduzida pelo Acordo de Implementação da Parte XI em relação à transferência de tecnologia?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A transferência de tecnologia entre o explotador e a Empresa (ISBA) não é mais obrigatória, devendo se moldar pelas regras do mercado.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Em relação aos fundos marinhos, qual ideia fundamental persiste após as alterações econômicas da Parte XI?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Persiste a ideia dos fundos marinhos como uma herança que pertence a toda a humanidade, gerida por intermédio da ISBA.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Qual o entendimento do Governo brasileiro sobre a realização de exercícios ou manobras militares na ZEE por outros Estados?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A Convenção não autoriza outros Estados a realizar exercícios ou manobras militares na ZEE sem o consentimento do Estado costeiro.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pág 13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Como a CNUDM define a Linha de Base Normal?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">É a linha de baixa-mar ao longo da costa, tal como indicada nas cartas náuticas de grande escala, reconhecidas oficialmente pelo Estado costeiro.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Como a CNUDM define a Linha de Base Reta?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">É a linha que une pontos apropriados onde a costa apresente reentrâncias, recortes profundos ou franja de ilhas. Não podem ser traçadas em direção aos baixios sem farol ou similar.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quais as condições costeiras que permitem a adoção do método de linhas de base retas?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Locais onde a costa apresente recortes profundos e reentrâncias ou onde exista uma franja de ilhas ao longo da costa na sua proximidade imediata.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Qual restrição existe para a aplicação das linhas de base retas em relação aos espaços marítimos de outros Estados?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O sistema não pode ser aplicado de modo a separar o Mar Territorial de outro Estado do alto-mar ou de uma ZEE.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pág 14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Em costas muito instáveis (como deltas), as linhas de base retas escolhidas continuam em vigor se a linha de baixa-mar retroceder?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sim, elas continuam em vigor até que o Estado costeiro as modifique em conformidade com a CNUDM.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pág 15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sob quais condições baixios a descoberto podem ser usados para traçar linhas de base retas?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Apenas se sobre eles houver faróis ou instalações análogas permanentemente acima do nível do mar, ou se o traçado tiver reconhecimento internacional geral.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Qual o critério geométrico (regra do semicírculo) para que uma reentrância seja considerada uma baía?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A sua superfície deve ser igual ou superior à de um semicírculo que tenha por diâmetro a linha traçada através da entrada da referida reentrância.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Se a distância entre os pontos naturais de entrada de uma baía não exceder 24 milhas marítimas, qual o regime jurídico aplicado às águas encerradas?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">As águas encerradas são consideradas águas interiores.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pág 16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O método do semicírculo de classificação de baías se aplica às chamadas "baías históricas"?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Não, o método do semicírculo não se aplica às baías históricas.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pág 17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Como é traçada a linha de base na foz de um rio que deságua diretamente no mar?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">É uma reta traçada através da foz do rio entre os pontos limites da linha de baixa-mar das suas margens.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Para fins de delimitação do Mar Territorial (MT), as instalações portuárias permanentes mais ao largo são consideradas como parte de quê?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">São consideradas como parte da costa.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Em águas interiores, qual é a única hipótese para a aplicação do direito de passagem inocente?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quando o traçado de uma linha de base reta encerra, como águas interiores, águas que anteriormente não eram consideradas como tais (Art. 8º, § 2°).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pág 18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Qual a largura máxima do Mar Territorial (MT) medida a partir das linhas de base?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Doze milhas marítimas.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pág 19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Qual é a extensão da soberania do Estado costeiro no Mar Territorial (MT) em relação ao espaço aéreo?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A soberania estende-se sem restrições ao espaço aéreo sobrejacente, sendo que o direito à passagem inocente não inclui o direito de sobrevoo.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pág 20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A soberania do Estado no MT se estende ao espaço aéreo sobrejacente?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sim, sem restrições, mas o direito à passagem inocente não inclui o direito de sobrevoo.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Qual a regra para um baixio a descoberto situado totalmente além da largura do MT?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Este não possuirá Mar Territorial próprio.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Qual a razão permitida entre a superfície marítima e terrestre para o traçado de linhas de base arquipelágicas?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Deve se situar entre um para um (1:1) e nove para um (9:1).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pág 21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Qual o limite de extensão da Zona Contígua (ZC)?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Doze milhas náuticas (MN) além do limite exterior do Mar Territorial (MT).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pág 22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quais tipos de infrações o Estado costeiro pode fiscalizar e reprimir na Zona Contígua?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Infrações às leis e regulamentos aduaneiros, fiscais, de imigração ou sanitários.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Além dos recursos naturais, quais direitos de soberania o Estado costeiro possui na ZEE?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Exploração e aproveitamento para produção de energia derivada da água, das correntes e dos ventos.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pág 23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Qual o limite exterior máximo da Plataforma Continental (PC) além das 200 MN estabelecido pela CNUDM?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Não pode ultrapassar 350 MN das linhas de base ou 100 MN da isóbata de 2.500m de profundidade.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pág 24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Qual o regime de passagem em estreitos utilizados para navegação internacional?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Passagem em trânsito (liberdade de navegação e sobrevoo para fins de trânsito contínuo e rápido).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pág 25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Qual o regime jurídico aplicado ao Canal de Kiel?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">É considerado parte das Águas Interiores da República Federal Alemã.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pág 26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Qual a distância máxima permitida para as zonas de segurança em torno de instalações nas ZEE e PC?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quinhentos metros (500m), salvo se normas internacionais geralmente aceitas ou recomendadas pela IMO autorizarem distâncias maiores.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pág 27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O que a Convenção de Chicago (1944) reconhece aos Estados contratantes em relação ao espaço aéreo?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A soberania exclusiva e absoluta sobre o espaço aéreo sobrejacente a seu território.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Defina Espaço Aéreo Exterior.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Espaço acima do espaço aéreo nacional ou internacional.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pág 28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cite a diferença entre Zona de Segurança e Área a ser evitada.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Na Área a ser evitada, a navegação, a navegação é permitida, embora não recomendada. Exemplo: Bacia de Campos.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cite duas alterações trazidas pela Convenção das Nações Unidas para o Direito do Mar, relativas à adequação aos aspectos econômicos.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(1) A transferência de tecnologia entre o explotador e a Empresa passou a não ser mais obrigatória; (2) Fim da política de limitação da produção da mineração oceânica, que passou a ter o mesmo regime comercial que a mineração terrestre.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cite os 3 termos da Declaração Interpretativa do Brasil sobre a Convenção das Nações Unidas para o Direito do Mar.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(1) Proíbe ameaça ou uso de força contra a integridade territorial ou independência política; (2) Não autoriza outros Estados a realizar exercícios ou manobras militares, em particular o uso de armas ou explosivos; (3) Tem o direito exclusivo de construir, autorizar e regulamentar a construção, operação e uso de todos os tipos de instalações e estruturas, sem exceção.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Defina o que são Linhas de Base.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Linha imaginária a partir da qual o Mar Territorial e demais espaços marítimos são definidos (Linha de Base Normal e Linha de Base Retas). Para dentro dessa linha ficam as água interiores.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Estado exerce soberania, à exceção do direito de Passagem Inocente. O direito de passagem inocente se inclui o direito de sobrevoo no espaço aéreo sobrejacente ao Mar Territorial?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Não inclui o direito de sobrevoo no espaço aéreo sobrejacente ao Mar Territorial</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No caso de Estados costeiros confrontantes ou adjacentes, qual é o critério aplicado para delimitação do Mar Territorial?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Critério da equidistância.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Na Zona Contígua, o Estado tem direito a quais medidas de fiscalização?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fiscal; Aduaneira; Imigração; Sanitária.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cite os aspectos de soberania a que o Estado tem o direito na Zona Econômica Exclusiva.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Exploração e aproveitamento, conservação e gestão sobre os recursos vivos e não-vivos, no leito e subsolo do mar e águas sobrejacentes.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A Zona Econômica Exclusiva precisa ser declarada ou segue o ordenamento do Mar Territorial e Zona Contígua?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Precisa ser declarada, diferentemente do MT e da ZC.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cite os aspectos de soberania a que o Estado tem o direito na Plataforma Continental.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Exploração e explotação sobre os recursos não-vivos no leito e subsolo marinho, assim como das espécies vivas sedentárias</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Defina Alto-mar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Espaço marítimo que compreende todas as partes que não estão sob jurisdição de Estados.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quais são as liberdades que todos os Estados têm no Alto-Mar? (6 itens)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Navegação; Sobrevoo; Colocação de cabos e dutos submarinos; Construção de ilhas; Pesca; Investigação científica</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pág x</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Defina Área</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Leito do mar, fundo marinho e seu subsolo, além da jurisdição de qualquer Estado; Patrimônio comum da humanidade.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Qual o nome da entidade que faz a gestão dos fundos marinhos e delibera sobre destino e utilização das riquezas da Área?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Autoridade Internacional dos Fundos Marinhos, ISBA.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ilha possui condições de habitabilidade e pode ter MT, ZC, ZEE e PC; Rochedo não é habitável e não pode ter ZEE e PC (somente MT e ZC)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ilha possui condições de habitabilidade e pode ter mar territorial, zona contígua e etc; Rochedo não é habitável e não pode ter MT, ZC, e etc.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ilhas artificiais e Instalações Off-Shore podem possuir MT, ZC e ZEE?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Não, porque não possuem estatuto jurídico de ilha.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Defina Estreito.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Corredor hídrico que integra o MT de um ou mais Estados costeiros, e que assegura a comunicação entre espaços de ZEE ou alto-mar, interessando à navegação internacional</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Defina a Passagem em Trânsito, observada em Estreitos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Liberdade de navegação e sobrevoo exclusivamente para fins de trânsito CONTÍNUO e RÁPIDO.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Defina Zona Militar de Segurança.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zonas além do MT, sem amparo no direito internacional, requeridas por alguns Estados costeiros para regular atividades de navios de guerra e aeronaves militares. Não confundir com Zona de Segurança de Navegação nem com Área a ser Evitada.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Defina Espaço Aéreo Nacional.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">É aquele sobre o território, as águas interiores e Mar Territorial dos Estados; Além disso, denomina-se Espaço Aéreo Internacional.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O limite superior do Espaço Aéreo não é definido pelo direito internacional. Cite como é definido pela prática internacional.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Abaixo do ponto no qual um satélite artificial pode ser mantido em órbita sem cair livremente, altitude de 80 a 120 quilômetros.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O que a CNUDM exige para definir um navio como "navio de guerra"?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ser de combate, pertencente às Forças Armadas; Ostentar sinais exteriores próprios de navio de guerra de sua nacionalidade; Tripulação submetida à Disciplina Militar; Estar sob Comando de um Oficial.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pág 29</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cap. 2 – Normas de navegação para navios de guerra, de Estado, aeronaves militares e públicas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A CNUDM consagra a _____________ dos navios de Estado utilizados para atividades _____________.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"imunidade" e "não comerciais"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Qual a principal característica que define um "navio de Estado" no contexto de serviços governamentais?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Executam serviços governamentais e não comerciais (serviço público de natureza civil, entre eles os navios alfandegários, navios-faróis, navios de saúde, etc.), também são considerados navios de Estado aqueles postos a serviço de soberanos, Chefes de Estado ou representações diplomáticas.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O que significa o princípio da extraterritorialidade aplicado a um navio de guerra?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Os atos e fatos jurídicos a bordo estão sujeitos ao ordenamento jurídico do Estado do seu pavilhão.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Navios de guerra estão sujeitos a sequestro ou detenção em águas internacionais ou nacionais?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Não, eles são imunes a sequestro, arresto ou qualquer tipo de detenção, seja em águas internacionais ou nacionais.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pág 30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quais autoridades estrangeiras podem entrar a bordo de um navio de guerra?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Somente com a permissão do Comandante do navio.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">De acordo com o Decreto n º 56.515/1965 (Regra nº 13), quais são as três categorias de embarcações que o Governo brasileiro considera como "navio de guerra" para fins de visita?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O de combate **efetivamente** incorporado à Força Armada do Estado **cuja bandeira arvorar**; **auxiliar**, destinado exclusivamente ao serviço da Marinha de Guerra e a ela incorporado, com **tripulação militar**; e o **navio mercante** incorporado, **adaptado ao serviço e comandado por oficial da Marinha de Guerra**.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Apesar de tratar apenas de aeronaves civis, como a Convenção de Chicago define as aeronaves utilizadas em serviços militares, alfandegários ou policiais?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aeronaves de "propriedade do governo".</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pág 32</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Segundo o Decreto n º 56.515/1965 (Regra nº 14), qual é a notificação exigida para que um navio mercante adaptado para o serviço de guerra seja reconhecido como navio de guerra pelo Brasil?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O Governo do Estado deve notificar o Governo brasileiro, via diplomática, declarando que o navio não continuará a exercer atos de comércio e que é comandado por Oficial de sua marinha de guerra.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Qual é a consequência, segundo a Regra nº 15 do Decreto nº 56.515/1965, se um navio de guerra for empregado em atividade comercial?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O Governo brasileiro não reconhece o gozo das isenções e regalias normalmente concedidas a este tipo de navio.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O Direito Internacional NÃO prevê que um navio de guerra estrangeiro possa ser abordado por outro do Estado costeiro para fins de _____________ e _____________.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"busca" e "inspeção".</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O Governo brasileiro reconhece as isenções e regalias de um navio de guerra que esteja sendo empregado em atividade comercial?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Não, conforme a Regra nº 15 do Decreto nº 56.515/1965.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Qual é o "temperamento" (limitação) imposto pela CNUDM à imunidade dos navios de guerra?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A responsabilidade do Estado de bandeira por eventuais danos causados em violação às leis locais ou normas do DI.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pág 31</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Navios de guerra de propulsão nuclear, ao exercerem a passagem inocente, devem observar quais medidas especiais?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Devem ter a bordo os documentos e observar as medidas especiais de precaução estabelecidas nos acordos internacionais.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Os procedimentos específicos a serem seguidos quando da visita de navios de guerra de propulsão nuclear a portos brasileiros constam de instrução permanente do _____________.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Comando de Operações Navais (ComOpNav).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">De acordo com a Lei nº 7.542/1986, quando um bem afundado (inclusive um navio de guerra ou aeronave militar) em AJB passa para o domínio da União?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Se, decorridos cinco anos do afundamento, o responsável não tiver solicitado licença para sua remoção, exploração ou demolição.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O art. 303 da CNUDM admite que a remoção dos objetos de caráter _____________ e _____________ na Zona Contígua (ZC) de um Estado costeiro constitui infração cometida no seu território ou no seu MT, das leis e regulamentos previstos no art. 33.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"arqueológico" e "histórico".</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Como o Código Brasileiro de Aeronáutica (CBA) define aeronave militar?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aquela integrante das Forças Armadas de uma nação.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O que são aeronaves públicas, segundo o CBA?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">As que se destinam ao serviço do poder público, inclusive as requisitadas na forma da lei.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Analogamente aos navios de guerra, que privilégio as aeronaves militares e públicas gozam?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gozam de imunidade, sendo isentas de busca e inspeção por parte de autoridade pertencente a Estado estrangeiro.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Qual é o requisito essencial para o acesso de navios e aeronaves estrangeiras a águas interiores?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Exige a permissão do Estado costeiro.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pág 33</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Em que situação, em águas interiores, é aplicado o conceito de direito de "passagem inocente"?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quando linhas de base retas encerram, como águas interiores, águas que anteriormente se constituíam MT ou alto-mar.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A CNUDM estabelece o significado de passagem inocente, aplicável à navegação pelo __________________ quando executada com o propósito de atravessar esse mar sem penetrar nas águas interiores ou fazer escala em um ancoradouro ou instalação portuária situada fora das águas interiores; ou dirigir-se para as ____________________, ou delas sair, ou fazer escala num desses ancoradouros ou instalações portuárias.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Mar Territorial" e "Águas interiores"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A passagem deverá ser _____________ e _____________. Ela compreende, ainda, o _____________ e o _____________, quando estes constituírem incidentes comuns de navegação ou tenham sido impostos por motivo de força maior ou dificuldade grave, ou tenham por fim prestar auxílio (não busca) a pessoas, navios ou aeronaves em perigo ou em dificuldade grave.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"contínua", "rápida", "parar" e "fundear"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Qual a condição fundamental para que a passagem no Mar Territorial seja considerada inocente?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Deverá ser contínua e rápida; sem prejuízo à paz, à ordem e à segurança do Estado costeiro.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Navios de guerra estrangeiros, em visita a portos e às águas territoriais brasileiras, em tempo de paz, devem _______________________________ o governo brasileiro dessa intenção, o que limita esse direito.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"notificar previamente"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pág 34</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A passagem é inocente na medida em que não seja prejudicial à ____________, à _______________ e à ____________ do Estado costeiro. A passagem inocente não inclui o _________________.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"à paz, à ordem e à segurança" e "direito de sobrevoo"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O Decreto nº 56.515/1965 impõe qual limitação ao direito de passagem inocente de navios de guerra estrangeiros no MT brasileiro?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Determina que devem notificar previamente o governo brasileiro dessa intenção.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O direito de passagem inocente no Mar Territorial inclui o direito de sobrevoo?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Não.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cite três atividades que descaracterizam a passagem inocente.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(1) Qualquer ameaça ou uso da força contra a soberania; (2) Qualquer atividade de pesca, (3) Qualquer ato intencional e grave de poluição contrário à CNUDM, entre outros.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Qual é a regra obrigatória da CNUDM para submarinos e outros veículos submersíveis no Mar Territorial (MT)?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Devem navegar à superfície e arvorar a sua bandeira.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pág 35</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cite um dos objetivos pelo qual o Estado costeiro pode promulgar normas relativas ao direito da passagem inocente.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Segurança da navegação e a regulamentação do tráfego marítimo.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O Estado costeiro pode, quando necessário à segurança da navegação, exigir dos navios estrangeiros que exercem o direito de passagem inocente pelo seu MT que utilizem as _________________ e os _________________ estabelecidos para regular a passagem de navios.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"rotas marítimas" e "esquemas de separação de tráfego".</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Qual é uma das proibições impostas às normas do Estado costeiro relativas à passagem inocente?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Não podem encerrar qualquer tipo de discriminação de direito ou de fato contra navios de determinado Estado.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O Estado costeiro pode suspender temporariamente o direito de passagem inocente no MT?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sim, se a medida for indispensável para proteger sua segurança. A proibição só produzirá efeito se for devidamente tornada pública.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pág 36</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Em caso de necessidade de prestar auxílio, é permitida a entrada de navios (e, excepcionalmente, aeronaves) no MT sem permissão imediata?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sim, desde que o local do acidente seja razoavelmente conhecido.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Para a condução de buscas (SAR) para localizar a posição de acidentes marítimos no MT ou espaço aéreo sobrejacente, o que é exigido?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Requer a autorização do Estado costeiro.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Qual é o direito de passagem garantido a navios e aeronaves, civis ou militares, em estreitos que asseguram a comunicação entre alto-mar ou ZEE?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Direito de passagem em trânsito.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pág 37</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O direito de passagem em trânsito através de estreitos internacionais pode ser impedido ou suspenso pelos Estados ribeirinhos em tempo de paz?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Qual organização internacional os Estados ribeirinhos devem consultar ao designar rotas marítimas em estreitos?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A Organização Marítima Internacional (IMO).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Qual regime de passagem se aplica a estreitos que interligam alto-mar ou ZEE com o Mar Territorial (MT) de um Estado estrangeiro?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O regime de "passagem inocente".</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pág 38</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Em quais situações de estreitos utilizados para navegação internacional se aplica o **regime de "passagem inocente"**, e qual regra crucial se aplica a esse direito nesses locais?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O regime de passagem inocente aplica-se aos estreitos que **interliguem uma parte de alto-mar ou uma Zona Econômica Exclusiva (ZEE) com o Mar Territorial (MT) de um Estado estrangeiro**. Nesses estreitos, **não haverá suspensão da passagem inocente**. Ex: Estreito de Tiran entre Arábia Saudita e o Egito.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O que são águas arquipelágicas?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">São aquelas encerradas pelas linhas de base de um Estado arquipélago.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quais tipos de navios e aeronaves gozam do direito de passagem pelas rotas marítimas arquipelágicas?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Todos os navios e aeronaves, incluídos os navios de guerra e as aeronaves militares.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Em uma rota marítima arquipelágica designada, qual a distância máxima que navios e aeronaves podem se afastar das linhas axiais?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Não podem afastar-se mais de 25 milhas náuticas para cada lado das linhas axiais.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pág 39</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fora das rotas marítimas arquipelágicas designadas, existe direito de sobrevoo no espaço aéreo sobrejacente?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Não existe direito de sobrevoo.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O que submarinos devem fazer ao exercer a passagem inocente fora das rotas marítimas arquipelágicas?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Devem navegar na superfície e arvorar seu pavilhão.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Na Zona Contígua (ZC), quais Estados gozam da liberdade de navegação e sobrevoo?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Todos os Estados, incluindo navios de guerra e aeronaves militares.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pág 40</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Para quais fins o Estado costeiro pode tomar medidas de fiscalização na Zona Contígua (ZC)?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Para evitar infrações às leis aduaneiras, fiscais, de imigração ou sanitários cometidas em seu território ou MT.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Em relação à Zona Econômica Exclusiva (ZEE) brasileira, sob qual condição exercícios ou manobras militares com uso de armas podem ser conduzidos?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Só podem ser conduzidas com autorização do Governo brasileiro.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Em alto-mar, navios de guerra e aeronaves militares gozam de qual grau de liberdade de operação?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Completa liberdade de navegação e operação.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pág 41</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O que o Estado executor de manobras perigosas deve publicar para alertar a navegação?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">As áreas e períodos dessas atividades na forma de “AVISO AOS NAVEGANTES” ou “AVISO AOS AERONAVEGANTES”.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Navios e aeronaves de outros Estados são proibidos de sobrevoar áreas perigosas à navegação divulgadas?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Não são proibidos, mas são obrigados a evitar interferir nas atividades em andamento.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O Tratado de Proibição de Uso de Armas Nucleares da América Latina (Tratado de Tlatelolco) é um exemplo de que tipo de zona?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Uma zona livre de armamento nuclear.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pág 42</t>
+  </si>
+  <si>
+    <t xml:space="preserve">De acordo com o Direito Internacional (DI), sobre quais áreas o Estado tem soberania completa e exclusiva no espaço aéreo sobrejacente?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Seu território, águas interiores, Mar Territorial (MT) e, no caso de Estado arquipélago, sobre as águas arquipelágicas.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Existe o direito de passagem inocente aplicado à aeronave em voo no espaço aéreo sobrejacente ao Mar Territorial (MT) ou águas arquipelágicas?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Não existe o direito de passagem inocente aplicado à aeronave nessas áreas.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Qual direito de passagem as aeronaves, inclusive militares, gozam sobre o espaço aéreo acima de estreitos internacionais que ligam partes da ZEE ou alto-mar?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gozam do direito de passagem em trânsito sem impedimentos.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pág 43</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O direito de passagem em trânsito exercido por aeronaves sobre o estreito internacional pode ser impedido ou suspenso em tempo de paz?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Não pode ser impedido ou suspenso em tempo de paz.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A passagem em trânsito de aeronaves pelo espaço aéreo acima de rotas marítimas arquipelágicas tem qual natureza?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">É um direito de passagem contínua e rápida, essencialmente idêntico à passagem em trânsito acima de estreitos internacionais.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O que as aeronaves militares podem realizar livremente no espaço aéreo internacional?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Podem se engajar em operações aéreas, realizando exercícios de tiro, testes de munição, operações de esclarecimento e coleta de inteligência.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pág 44</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Qual é a distinção estabelecida pelo Código Brasileiro de Aeronáutica (Lei nº 7.565/1986) ao definir aeronaves civis, e como ele categoriza as aeronaves públicas e privadas?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O Código Brasileiro de Aeronáutica estabelece que aeronaves civis podem ser públicas ou privadas. As aeronaves públicas são aquelas que se destinam ao serviço do poder público, incluindo as requisitadas na forma da lei. As aeronaves privadas são todas as demais, exceto as militares.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Qual a exigência do Brasil para aeronaves militares estrangeiras no espaço aéreo internacional dentro de suas Regiões de Informação de Voo (FIR)?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Exige que cumpram os procedimentos da FIR, independentemente da utilização dos serviços ou da intenção de entrar no espaço aéreo nacional.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O Brasil reconhece o direito de o Estado costeiro aplicar procedimentos de identificação na sua Zona de Identificação de Defesa Aérea sobre aeronaves brasileiras que não tenham a intenção de entrar no espaço aéreo nacional desse Estado?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Não, o Brasil não reconhece esse direito, a menos que tenha especificamente concordado em fazê-lo.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pág 45</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Qual direito inerente um Estado está exercendo ao repelir a invasão de seu espaço aéreo por uma aeronave militar estrangeira?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O direito inerente de legítima defesa.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No caso de emergência ou erro de navegação sem permissão, o que o costume internacional estipula que pode ser ordenado a uma aeronave estrangeira em espaço aéreo nacional?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pode ser ordenada a guinar para dele sair ou aterrizar.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Qual é o principal conjunto de regras de segurança da navegação aplicável a navios de superfície e submarinos no alto-mar, na ZEE e na ZC?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O Regulamento Internacional para Evitar Abalroamento no Mar (RIPEAM), de 1972.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pág 46</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Em quais áreas sujeitas à soberania o RIPEAM também se aplica, exceto se o Estado costeiro estabelecer regras distintas?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No Mar Territorial (MT), águas arquipelágicas e águas interiores.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Onde são normalmente publicadas as regras especiais de navegação adotadas pelos Estados costeiros em suas águas soberanas?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nos AVISOS AOS NAVEGANTES (NOTICE TO MARINERS) ou constam das cartas náuticas.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">As regras de navegação no espaço aéreo internacional aplicáveis às aeronaves civis são as previstas em qual convenção?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Convenção de Chicago de 1944.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pág 47</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Existe uma definição internacionalmente aceita sobre o limite inferior do espaço exterior?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Não existe uma definição internacionalmente aceita.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">De acordo com o DI, o espaço exterior pode ser apropriado por algum Estado?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Não, o espaço exterior não é sujeito a reclamações de soberania e não pode ser apropriado por nenhum Estado.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">De acordo com o DI, o que é proibido nos corpos celestes naturais em termos de atividades militares?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Levantar bases e instalações militares, e conduzir manobras ou testes com armas.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pág 48</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O que a legislação dos Estados Unidos (U.S. Commercial Space Launch Competitiveness Act de 2015) admite em relação aos recursos de corpos celestes?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Admite que os recursos de corpos celestes estejam sujeitos a direito de propriedade.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cite um dos quatro principais acordos multilaterais que contêm os princípios legais relativos às atividades desenvolvidas no espaço exterior.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O Tratado do Espaço Exterior, de 1967 (ou Acordo de Retorno e Resgate de Astronautas, de 1968, ou Tratado de Responsabilidade, de 1972, ou Tratado de Registro de Objetos Espaciais, de 1975).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Um navio de guerra está sujeito às normas de controle de tráfego, controle de alijamento de dejetos, sanitários e de quarentena do Estado costeiro. Os respectivos agentes podem subir a bordo mesmo sem a permissão do Comandante?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Não, mesmo quando em trânsito por mares territoriais alheios ou ancorados em portos estrangeiros.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Em que se baseia o fundamento da imunidade do navio de guerra?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Seu caráter representativo e respeito mútuo entre Estados.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quais são os temperamentos ou restrições à imunidade dos navios de guerra?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Necessidade da observância de leis e regulamentos impostos pelo Estado costeiro para a passagem inocente no mar territorial; Responsabilidade por danos causados em violação à legislação vigente.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Em caso de Descumprimento das normas de DI por parte de um navio de guerra de outro Estado, quais as medidas que podem ser tomadas?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Emissão de protesto diplomático ou de ordem, para que se retire imediatamente do Mar Territorial do Estado costeiro.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Navios de Estado também gozam de imunidade e extraterritorialidade?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sim.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nenhum agente de autoridade estrangeira pode subir a bordo sem o consentimento do Comandante, porém caso ele não tenha como comprovar o cumprimento das normas alfandegárias, de imigração ou de quarentena, cite a medida que o Estado pode tomar.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Determinar deixar imediatamente o território e o espaço aéreo nacionais</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Navios de Guerra e todas as aeronaves devem solicitar autorização com antecedência para a entrada em águas interiores e espaço aéreo sobrejacente. Cite as duas exceções.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Situação de emergência ou força maior; Quando Linhas de Base retas encerram, como águas interiores, águas que antes se constituíam Mar Territorial ou alto-mar. Nesse caso, será aplicado o direito de Passagem Inocente.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Defina Passagem Inocente.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Passagem pelo mar territorial com o propósito de Atravessar o MT sem penetrar nas águas interiores ou fazer escala em um ancoradouro ou instalação portuária situada fora das águas interiores; Entrar ou sair das águas interiores, ou fazer escala num desses ancoradouros ou instalações portuárias.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dê um exemplo de suspensão temporária do direito de passagem inocente.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Interdição de área marítima para realização de tiro real.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Defina passagem em Trânsito.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Exercício da liberdade de navegação e sobrevoo, exclusivamente para fins de trânsito contínuo e rápido pelo estreito entre uma parte do alto-mar ou de uma ZEE e uma outra parte do alto-mar ou uma ZEE</t>
   </si>
   <si>
     <t xml:space="preserve">A teoria política; as instituições políticas; os partidos, grupos e opinião pública; e as relações internacionais.</t>
@@ -8563,7 +9451,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -8607,18 +9495,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -8676,7 +9552,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="18">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -8729,36 +9605,16 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
@@ -8923,8 +9779,8 @@
   </sheetPr>
   <dimension ref="A1:F1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1299" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1286" activeCellId="0" sqref="1286:1286"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1400" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="K1407" activeCellId="0" sqref="K1407"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.62890625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -28800,7 +29656,7 @@
         <v>2367</v>
       </c>
     </row>
-    <row r="1215" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1215" customFormat="false" ht="31.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1215" s="11" t="n">
         <v>9</v>
       </c>
@@ -28816,7 +29672,7 @@
         <v>2446</v>
       </c>
     </row>
-    <row r="1216" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1216" customFormat="false" ht="31.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1216" s="11" t="n">
         <v>9</v>
       </c>
@@ -28832,7 +29688,7 @@
         <v>2446</v>
       </c>
     </row>
-    <row r="1217" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1217" customFormat="false" ht="46.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1217" s="11" t="n">
         <v>9</v>
       </c>
@@ -28848,7 +29704,7 @@
         <v>2446</v>
       </c>
     </row>
-    <row r="1218" customFormat="false" ht="61.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1218" customFormat="false" ht="61.15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1218" s="11" t="n">
         <v>9</v>
       </c>
@@ -28864,7 +29720,7 @@
         <v>2446</v>
       </c>
     </row>
-    <row r="1219" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1219" customFormat="false" ht="46.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1219" s="11" t="n">
         <v>9</v>
       </c>
@@ -28880,7 +29736,7 @@
         <v>2446</v>
       </c>
     </row>
-    <row r="1220" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1220" customFormat="false" ht="31.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1220" s="11" t="n">
         <v>9</v>
       </c>
@@ -28896,7 +29752,7 @@
         <v>2446</v>
       </c>
     </row>
-    <row r="1221" customFormat="false" ht="61.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1221" customFormat="false" ht="61.15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1221" s="11" t="n">
         <v>9</v>
       </c>
@@ -28912,7 +29768,7 @@
         <v>2446</v>
       </c>
     </row>
-    <row r="1222" customFormat="false" ht="61.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1222" customFormat="false" ht="61.15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1222" s="11" t="n">
         <v>9</v>
       </c>
@@ -28928,7 +29784,7 @@
         <v>2446</v>
       </c>
     </row>
-    <row r="1223" customFormat="false" ht="76.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1223" customFormat="false" ht="76.1" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1223" s="11" t="n">
         <v>9</v>
       </c>
@@ -28944,7 +29800,7 @@
         <v>2446</v>
       </c>
     </row>
-    <row r="1224" customFormat="false" ht="76.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1224" customFormat="false" ht="76.1" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1224" s="11" t="n">
         <v>9</v>
       </c>
@@ -28960,7 +29816,7 @@
         <v>2446</v>
       </c>
     </row>
-    <row r="1225" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1225" customFormat="false" ht="31.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1225" s="11" t="n">
         <v>9</v>
       </c>
@@ -28976,7 +29832,7 @@
         <v>2446</v>
       </c>
     </row>
-    <row r="1226" customFormat="false" ht="61.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1226" customFormat="false" ht="61.15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1226" s="11" t="n">
         <v>9</v>
       </c>
@@ -28992,7 +29848,7 @@
         <v>2446</v>
       </c>
     </row>
-    <row r="1227" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1227" customFormat="false" ht="46.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1227" s="11" t="n">
         <v>9</v>
       </c>
@@ -29008,7 +29864,7 @@
         <v>2446</v>
       </c>
     </row>
-    <row r="1228" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1228" customFormat="false" ht="31.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1228" s="11" t="n">
         <v>9</v>
       </c>
@@ -29024,7 +29880,7 @@
         <v>2446</v>
       </c>
     </row>
-    <row r="1229" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1229" customFormat="false" ht="46.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1229" s="11" t="n">
         <v>9</v>
       </c>
@@ -29040,7 +29896,7 @@
         <v>2446</v>
       </c>
     </row>
-    <row r="1230" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1230" customFormat="false" ht="31.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1230" s="11" t="n">
         <v>9</v>
       </c>
@@ -29056,7 +29912,7 @@
         <v>2446</v>
       </c>
     </row>
-    <row r="1231" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1231" customFormat="false" ht="46.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1231" s="11" t="n">
         <v>9</v>
       </c>
@@ -29072,7 +29928,7 @@
         <v>2446</v>
       </c>
     </row>
-    <row r="1232" customFormat="false" ht="61.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1232" customFormat="false" ht="61.15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1232" s="11" t="n">
         <v>9</v>
       </c>
@@ -29088,7 +29944,7 @@
         <v>2446</v>
       </c>
     </row>
-    <row r="1233" customFormat="false" ht="61.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1233" customFormat="false" ht="61.15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1233" s="11" t="n">
         <v>9</v>
       </c>
@@ -29104,7 +29960,7 @@
         <v>2446</v>
       </c>
     </row>
-    <row r="1234" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1234" customFormat="false" ht="46.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1234" s="11" t="n">
         <v>9</v>
       </c>
@@ -29120,7 +29976,7 @@
         <v>2446</v>
       </c>
     </row>
-    <row r="1235" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1235" customFormat="false" ht="46.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1235" s="11" t="n">
         <v>9</v>
       </c>
@@ -29136,7 +29992,7 @@
         <v>2446</v>
       </c>
     </row>
-    <row r="1236" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1236" customFormat="false" ht="31.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1236" s="11" t="n">
         <v>9</v>
       </c>
@@ -29152,7 +30008,7 @@
         <v>2446</v>
       </c>
     </row>
-    <row r="1237" customFormat="false" ht="76.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1237" customFormat="false" ht="76.1" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1237" s="11" t="n">
         <v>9</v>
       </c>
@@ -29168,7 +30024,7 @@
         <v>2446</v>
       </c>
     </row>
-    <row r="1238" customFormat="false" ht="76.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1238" customFormat="false" ht="76.1" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1238" s="11" t="n">
         <v>9</v>
       </c>
@@ -29184,7 +30040,7 @@
         <v>2446</v>
       </c>
     </row>
-    <row r="1239" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1239" customFormat="false" ht="46.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1239" s="11" t="n">
         <v>9</v>
       </c>
@@ -29200,7 +30056,7 @@
         <v>2446</v>
       </c>
     </row>
-    <row r="1240" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1240" customFormat="false" ht="31.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1240" s="11" t="n">
         <v>9</v>
       </c>
@@ -29216,7 +30072,7 @@
         <v>2446</v>
       </c>
     </row>
-    <row r="1241" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1241" customFormat="false" ht="16.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1241" s="11" t="n">
         <v>9</v>
       </c>
@@ -29232,7 +30088,7 @@
         <v>2446</v>
       </c>
     </row>
-    <row r="1242" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1242" customFormat="false" ht="16.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1242" s="11" t="n">
         <v>9</v>
       </c>
@@ -29248,7 +30104,7 @@
         <v>2446</v>
       </c>
     </row>
-    <row r="1243" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1243" customFormat="false" ht="31.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1243" s="11" t="n">
         <v>9</v>
       </c>
@@ -29264,7 +30120,7 @@
         <v>2446</v>
       </c>
     </row>
-    <row r="1244" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1244" customFormat="false" ht="23.85" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1244" s="11" t="n">
         <v>9</v>
       </c>
@@ -29280,91 +30136,91 @@
         <v>2446</v>
       </c>
     </row>
-    <row r="1245" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1245" customFormat="false" ht="46.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1245" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="B1245" s="13" t="s">
+      <c r="B1245" s="12" t="s">
         <v>2504</v>
       </c>
-      <c r="C1245" s="13" t="s">
+      <c r="C1245" s="12" t="s">
         <v>2505</v>
       </c>
       <c r="D1245" s="1"/>
-      <c r="E1245" s="0"/>
+      <c r="E1245" s="3"/>
       <c r="F1245" s="12" t="s">
         <v>2506</v>
       </c>
     </row>
-    <row r="1246" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1246" customFormat="false" ht="46.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1246" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="B1246" s="13" t="s">
+      <c r="B1246" s="12" t="s">
         <v>2507</v>
       </c>
-      <c r="C1246" s="13" t="s">
+      <c r="C1246" s="12" t="s">
         <v>2508</v>
       </c>
       <c r="D1246" s="1"/>
-      <c r="E1246" s="0"/>
+      <c r="E1246" s="3"/>
       <c r="F1246" s="12" t="s">
         <v>2506</v>
       </c>
     </row>
-    <row r="1247" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1247" customFormat="false" ht="46.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1247" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="B1247" s="13" t="s">
+      <c r="B1247" s="12" t="s">
         <v>2509</v>
       </c>
-      <c r="C1247" s="13" t="s">
+      <c r="C1247" s="12" t="s">
         <v>2510</v>
       </c>
       <c r="D1247" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="E1247" s="0" t="n">
+      <c r="E1247" s="3" t="n">
         <v>2019</v>
       </c>
       <c r="F1247" s="12" t="s">
         <v>2506</v>
       </c>
     </row>
-    <row r="1248" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1248" customFormat="false" ht="46.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1248" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="B1248" s="13" t="s">
+      <c r="B1248" s="12" t="s">
         <v>2511</v>
       </c>
-      <c r="C1248" s="13" t="s">
+      <c r="C1248" s="12" t="s">
         <v>2512</v>
       </c>
       <c r="D1248" s="1"/>
-      <c r="E1248" s="0"/>
+      <c r="E1248" s="3"/>
       <c r="F1248" s="12" t="s">
         <v>2506</v>
       </c>
     </row>
-    <row r="1249" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1249" customFormat="false" ht="46.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1249" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="B1249" s="13" t="s">
+      <c r="B1249" s="12" t="s">
         <v>2513</v>
       </c>
-      <c r="C1249" s="13" t="s">
+      <c r="C1249" s="12" t="s">
         <v>2514</v>
       </c>
       <c r="D1249" s="1"/>
-      <c r="E1249" s="0"/>
+      <c r="E1249" s="3"/>
       <c r="F1249" s="12" t="s">
         <v>2506</v>
       </c>
     </row>
-    <row r="1250" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1250" customFormat="false" ht="35.05" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1250" s="11" t="n">
         <v>9</v>
       </c>
@@ -29380,7 +30236,7 @@
         <v>2517</v>
       </c>
     </row>
-    <row r="1251" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1251" customFormat="false" ht="23.85" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1251" s="11" t="n">
         <v>9</v>
       </c>
@@ -29396,7 +30252,7 @@
         <v>2517</v>
       </c>
     </row>
-    <row r="1252" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1252" customFormat="false" ht="16.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1252" s="11" t="n">
         <v>9</v>
       </c>
@@ -29412,7 +30268,7 @@
         <v>2517</v>
       </c>
     </row>
-    <row r="1253" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1253" customFormat="false" ht="16.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1253" s="11" t="n">
         <v>9</v>
       </c>
@@ -29428,7 +30284,7 @@
         <v>2517</v>
       </c>
     </row>
-    <row r="1254" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1254" customFormat="false" ht="23.85" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1254" s="11" t="n">
         <v>9</v>
       </c>
@@ -29444,7 +30300,7 @@
         <v>2517</v>
       </c>
     </row>
-    <row r="1255" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1255" customFormat="false" ht="16.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1255" s="11" t="n">
         <v>9</v>
       </c>
@@ -29460,7 +30316,7 @@
         <v>2517</v>
       </c>
     </row>
-    <row r="1256" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1256" customFormat="false" ht="16.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1256" s="11" t="n">
         <v>9</v>
       </c>
@@ -29476,7 +30332,7 @@
         <v>2517</v>
       </c>
     </row>
-    <row r="1257" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1257" customFormat="false" ht="23.85" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1257" s="11" t="n">
         <v>9</v>
       </c>
@@ -29496,7 +30352,7 @@
         <v>2517</v>
       </c>
     </row>
-    <row r="1258" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1258" customFormat="false" ht="16.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1258" s="11" t="n">
         <v>9</v>
       </c>
@@ -29512,7 +30368,7 @@
         <v>2517</v>
       </c>
     </row>
-    <row r="1259" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1259" customFormat="false" ht="16.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1259" s="11" t="n">
         <v>9</v>
       </c>
@@ -29528,7 +30384,7 @@
         <v>2517</v>
       </c>
     </row>
-    <row r="1260" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1260" customFormat="false" ht="16.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1260" s="11" t="n">
         <v>9</v>
       </c>
@@ -29544,7 +30400,7 @@
         <v>2517</v>
       </c>
     </row>
-    <row r="1261" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1261" customFormat="false" ht="16.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1261" s="11" t="n">
         <v>9</v>
       </c>
@@ -29564,7 +30420,7 @@
         <v>2517</v>
       </c>
     </row>
-    <row r="1262" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1262" customFormat="false" ht="23.85" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1262" s="11" t="n">
         <v>9</v>
       </c>
@@ -29580,7 +30436,7 @@
         <v>2517</v>
       </c>
     </row>
-    <row r="1263" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1263" customFormat="false" ht="46.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1263" s="11" t="n">
         <v>9</v>
       </c>
@@ -29596,7 +30452,7 @@
         <v>2517</v>
       </c>
     </row>
-    <row r="1264" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1264" customFormat="false" ht="57.45" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1264" s="11" t="n">
         <v>9</v>
       </c>
@@ -29612,7 +30468,7 @@
         <v>2517</v>
       </c>
     </row>
-    <row r="1265" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1265" customFormat="false" ht="79.85" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1265" s="11" t="n">
         <v>9</v>
       </c>
@@ -29632,7 +30488,7 @@
         <v>2517</v>
       </c>
     </row>
-    <row r="1266" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1266" customFormat="false" ht="23.85" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1266" s="11" t="n">
         <v>9</v>
       </c>
@@ -29648,7 +30504,7 @@
         <v>2517</v>
       </c>
     </row>
-    <row r="1267" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1267" customFormat="false" ht="35.05" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1267" s="11" t="n">
         <v>9</v>
       </c>
@@ -29668,14 +30524,14 @@
         <v>2517</v>
       </c>
     </row>
-    <row r="1268" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1268" customFormat="false" ht="79.85" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1268" s="11" t="n">
         <v>9</v>
       </c>
       <c r="B1268" s="8" t="s">
         <v>2552</v>
       </c>
-      <c r="C1268" s="14" t="s">
+      <c r="C1268" s="13" t="s">
         <v>2553</v>
       </c>
       <c r="D1268" s="1" t="n">
@@ -29688,7 +30544,7 @@
         <v>2517</v>
       </c>
     </row>
-    <row r="1269" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1269" customFormat="false" ht="23.85" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1269" s="11" t="n">
         <v>9</v>
       </c>
@@ -29704,7 +30560,7 @@
         <v>2517</v>
       </c>
     </row>
-    <row r="1270" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1270" customFormat="false" ht="79.85" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1270" s="11" t="n">
         <v>9</v>
       </c>
@@ -29720,7 +30576,7 @@
         <v>2517</v>
       </c>
     </row>
-    <row r="1271" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1271" customFormat="false" ht="23.85" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1271" s="11" t="n">
         <v>9</v>
       </c>
@@ -29736,7 +30592,7 @@
         <v>2517</v>
       </c>
     </row>
-    <row r="1272" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1272" customFormat="false" ht="91" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1272" s="11" t="n">
         <v>9</v>
       </c>
@@ -29752,1364 +30608,4124 @@
         <v>2517</v>
       </c>
     </row>
-    <row r="1273" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1273" customFormat="false" ht="57.45" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1273" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="B1273" s="15" t="s">
+      <c r="B1273" s="8" t="s">
         <v>2562</v>
       </c>
-      <c r="C1273" s="16" t="s">
+      <c r="C1273" s="10" t="s">
         <v>2563</v>
       </c>
       <c r="D1273" s="1"/>
-      <c r="E1273" s="0"/>
-      <c r="F1273" s="17" t="s">
+      <c r="E1273" s="3"/>
+      <c r="F1273" s="14" t="s">
         <v>2564</v>
       </c>
     </row>
-    <row r="1274" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1274" customFormat="false" ht="35.05" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1274" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="B1274" s="15" t="s">
+      <c r="B1274" s="8" t="s">
         <v>2565</v>
       </c>
-      <c r="C1274" s="16" t="s">
+      <c r="C1274" s="10" t="s">
         <v>2566</v>
       </c>
       <c r="D1274" s="1"/>
-      <c r="E1274" s="0"/>
-      <c r="F1274" s="17" t="s">
+      <c r="E1274" s="3"/>
+      <c r="F1274" s="14" t="s">
         <v>2564</v>
       </c>
     </row>
-    <row r="1275" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1275" customFormat="false" ht="23.85" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1275" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="B1275" s="15" t="s">
+      <c r="B1275" s="8" t="s">
         <v>2567</v>
       </c>
       <c r="C1275" s="10" t="s">
         <v>2568</v>
       </c>
       <c r="D1275" s="1"/>
-      <c r="E1275" s="0"/>
-      <c r="F1275" s="17" t="s">
+      <c r="E1275" s="3"/>
+      <c r="F1275" s="14" t="s">
         <v>2564</v>
       </c>
     </row>
-    <row r="1276" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1276" customFormat="false" ht="35.05" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1276" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="B1276" s="15" t="s">
+      <c r="B1276" s="8" t="s">
         <v>2569</v>
       </c>
       <c r="C1276" s="8" t="s">
         <v>2570</v>
       </c>
       <c r="D1276" s="1"/>
-      <c r="E1276" s="0"/>
-      <c r="F1276" s="17" t="s">
+      <c r="E1276" s="3"/>
+      <c r="F1276" s="14" t="s">
         <v>2564</v>
       </c>
     </row>
-    <row r="1277" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1277" customFormat="false" ht="35.05" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1277" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="B1277" s="15" t="s">
+      <c r="B1277" s="8" t="s">
         <v>2571</v>
       </c>
       <c r="C1277" s="10" t="s">
         <v>2572</v>
       </c>
       <c r="D1277" s="1"/>
-      <c r="E1277" s="0"/>
-      <c r="F1277" s="17" t="s">
+      <c r="E1277" s="3"/>
+      <c r="F1277" s="14" t="s">
         <v>2564</v>
       </c>
     </row>
-    <row r="1278" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1278" customFormat="false" ht="35.05" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1278" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="B1278" s="15" t="s">
+      <c r="B1278" s="8" t="s">
         <v>2573</v>
       </c>
       <c r="C1278" s="8" t="s">
         <v>2574</v>
       </c>
       <c r="D1278" s="1"/>
-      <c r="E1278" s="0"/>
-      <c r="F1278" s="17" t="s">
+      <c r="E1278" s="3"/>
+      <c r="F1278" s="14" t="s">
         <v>2564</v>
       </c>
     </row>
-    <row r="1279" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1279" customFormat="false" ht="35.05" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1279" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="B1279" s="15" t="s">
+      <c r="B1279" s="8" t="s">
         <v>2575</v>
       </c>
       <c r="C1279" s="8" t="s">
         <v>2576</v>
       </c>
       <c r="D1279" s="1"/>
-      <c r="E1279" s="0"/>
-      <c r="F1279" s="17" t="s">
+      <c r="E1279" s="3"/>
+      <c r="F1279" s="14" t="s">
         <v>2564</v>
       </c>
     </row>
-    <row r="1280" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1280" customFormat="false" ht="23.85" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1280" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="B1280" s="15" t="s">
+      <c r="B1280" s="8" t="s">
         <v>2577</v>
       </c>
       <c r="C1280" s="8" t="s">
         <v>2578</v>
       </c>
       <c r="D1280" s="1"/>
-      <c r="E1280" s="0"/>
-      <c r="F1280" s="17" t="s">
+      <c r="E1280" s="3"/>
+      <c r="F1280" s="14" t="s">
         <v>2564</v>
       </c>
     </row>
-    <row r="1281" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1281" customFormat="false" ht="23.85" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1281" s="2" t="n">
         <v>9</v>
       </c>
       <c r="B1281" s="8" t="s">
         <v>2579</v>
       </c>
-      <c r="C1281" s="16" t="s">
+      <c r="C1281" s="10" t="s">
         <v>2580</v>
       </c>
       <c r="D1281" s="1"/>
-      <c r="E1281" s="0"/>
-      <c r="F1281" s="17" t="s">
+      <c r="E1281" s="3"/>
+      <c r="F1281" s="14" t="s">
         <v>2564</v>
       </c>
     </row>
-    <row r="1282" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1282" customFormat="false" ht="31.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1282" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="B1282" s="13" t="s">
+      <c r="B1282" s="12" t="s">
         <v>2581</v>
       </c>
-      <c r="C1282" s="13" t="s">
+      <c r="C1282" s="12" t="s">
         <v>2582</v>
       </c>
       <c r="D1282" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="E1282" s="0" t="n">
+      <c r="E1282" s="3" t="n">
         <v>2022</v>
       </c>
-      <c r="F1282" s="17" t="s">
+      <c r="F1282" s="14" t="s">
         <v>2564</v>
       </c>
     </row>
-    <row r="1283" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1283" customFormat="false" ht="31.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1283" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="B1283" s="13" t="s">
+      <c r="B1283" s="12" t="s">
         <v>2583</v>
       </c>
-      <c r="C1283" s="13" t="s">
+      <c r="C1283" s="12" t="s">
         <v>2584</v>
       </c>
       <c r="D1283" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="E1283" s="0" t="n">
+      <c r="E1283" s="3" t="n">
         <v>2013</v>
       </c>
-      <c r="F1283" s="17" t="s">
+      <c r="F1283" s="14" t="s">
         <v>2564</v>
       </c>
     </row>
-    <row r="1284" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1284" customFormat="false" ht="46.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1284" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="B1284" s="13" t="s">
+      <c r="B1284" s="12" t="s">
         <v>2585</v>
       </c>
-      <c r="C1284" s="18" t="s">
+      <c r="C1284" s="12" t="s">
         <v>2586</v>
       </c>
       <c r="D1284" s="1"/>
-      <c r="E1284" s="0"/>
-      <c r="F1284" s="17" t="s">
+      <c r="E1284" s="3"/>
+      <c r="F1284" s="14" t="s">
         <v>2564</v>
       </c>
     </row>
-    <row r="1285" customFormat="false" ht="56.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1285" customFormat="false" ht="56.7" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1285" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="B1285" s="19" t="s">
+      <c r="B1285" s="15" t="s">
         <v>2587</v>
       </c>
-      <c r="C1285" s="19" t="s">
+      <c r="C1285" s="15" t="s">
         <v>2588</v>
       </c>
       <c r="D1285" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="E1285" s="0" t="n">
+      <c r="E1285" s="3" t="n">
         <v>2013</v>
       </c>
-      <c r="F1285" s="17" t="s">
+      <c r="F1285" s="14" t="s">
         <v>2564</v>
       </c>
     </row>
-    <row r="1286" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1286" customFormat="false" ht="16.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1286" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="B1286" s="13" t="s">
+      <c r="B1286" s="12" t="s">
         <v>2589</v>
       </c>
-      <c r="C1286" s="13" t="s">
+      <c r="C1286" s="12" t="s">
         <v>2590</v>
       </c>
       <c r="D1286" s="1"/>
-      <c r="E1286" s="0"/>
-      <c r="F1286" s="17" t="s">
+      <c r="E1286" s="3"/>
+      <c r="F1286" s="14" t="s">
         <v>2564</v>
       </c>
     </row>
-    <row r="1287" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1287" customFormat="false" ht="16.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1287" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="B1287" s="13" t="s">
+      <c r="B1287" s="12" t="s">
         <v>2591</v>
       </c>
-      <c r="C1287" s="13" t="s">
+      <c r="C1287" s="12" t="s">
         <v>2592</v>
       </c>
       <c r="D1287" s="1"/>
-      <c r="E1287" s="0"/>
-      <c r="F1287" s="17" t="s">
+      <c r="E1287" s="3"/>
+      <c r="F1287" s="14" t="s">
         <v>2564</v>
       </c>
     </row>
-    <row r="1288" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1288" customFormat="false" ht="16.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1288" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="B1288" s="13" t="s">
+      <c r="B1288" s="12" t="s">
         <v>2593</v>
       </c>
-      <c r="C1288" s="13" t="s">
+      <c r="C1288" s="12" t="s">
         <v>2594</v>
       </c>
       <c r="D1288" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="E1288" s="0" t="n">
+      <c r="E1288" s="3" t="n">
         <v>2018</v>
       </c>
-      <c r="F1288" s="17" t="s">
+      <c r="F1288" s="14" t="s">
         <v>2564</v>
       </c>
     </row>
-    <row r="1289" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1289" customFormat="false" ht="16.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1289" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="B1289" s="13" t="s">
+      <c r="B1289" s="12" t="s">
         <v>2595</v>
       </c>
-      <c r="C1289" s="13" t="s">
+      <c r="C1289" s="12" t="s">
         <v>2596</v>
       </c>
       <c r="D1289" s="1"/>
-      <c r="E1289" s="0"/>
-      <c r="F1289" s="17" t="s">
+      <c r="E1289" s="3"/>
+      <c r="F1289" s="14" t="s">
         <v>2564</v>
       </c>
     </row>
-    <row r="1290" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1290" customFormat="false" ht="16.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1290" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="B1290" s="13" t="s">
+      <c r="B1290" s="12" t="s">
         <v>2597</v>
       </c>
-      <c r="C1290" s="13" t="s">
+      <c r="C1290" s="12" t="s">
         <v>2598</v>
       </c>
       <c r="D1290" s="1"/>
-      <c r="E1290" s="0"/>
-      <c r="F1290" s="17" t="s">
+      <c r="E1290" s="3"/>
+      <c r="F1290" s="14" t="s">
         <v>2564</v>
       </c>
     </row>
-    <row r="1291" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1291" customFormat="false" ht="16.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1291" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="B1291" s="13" t="s">
+      <c r="B1291" s="12" t="s">
         <v>2599</v>
       </c>
-      <c r="C1291" s="13" t="s">
+      <c r="C1291" s="12" t="s">
         <v>2600</v>
       </c>
       <c r="D1291" s="1"/>
-      <c r="E1291" s="0"/>
-      <c r="F1291" s="17" t="s">
+      <c r="E1291" s="3"/>
+      <c r="F1291" s="14" t="s">
         <v>2564</v>
       </c>
     </row>
-    <row r="1292" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1292" customFormat="false" ht="16.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1292" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="B1292" s="13" t="s">
+      <c r="B1292" s="12" t="s">
         <v>2601</v>
       </c>
-      <c r="C1292" s="13" t="s">
+      <c r="C1292" s="12" t="s">
         <v>2602</v>
       </c>
       <c r="D1292" s="1"/>
-      <c r="E1292" s="0"/>
-      <c r="F1292" s="17" t="s">
+      <c r="E1292" s="3"/>
+      <c r="F1292" s="14" t="s">
         <v>2564</v>
       </c>
     </row>
-    <row r="1293" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1293" customFormat="false" ht="16.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1293" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="B1293" s="13" t="s">
+      <c r="B1293" s="12" t="s">
         <v>2603</v>
       </c>
-      <c r="C1293" s="13" t="s">
+      <c r="C1293" s="12" t="s">
         <v>2604</v>
       </c>
       <c r="D1293" s="1"/>
-      <c r="E1293" s="0"/>
-      <c r="F1293" s="17" t="s">
+      <c r="E1293" s="3"/>
+      <c r="F1293" s="14" t="s">
         <v>2564</v>
       </c>
     </row>
-    <row r="1294" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1294" customFormat="false" ht="16.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1294" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="B1294" s="13" t="s">
+      <c r="B1294" s="12" t="s">
         <v>2605</v>
       </c>
-      <c r="C1294" s="13" t="s">
+      <c r="C1294" s="12" t="s">
         <v>2606</v>
       </c>
       <c r="D1294" s="1"/>
-      <c r="E1294" s="0"/>
-      <c r="F1294" s="17" t="s">
+      <c r="E1294" s="3"/>
+      <c r="F1294" s="14" t="s">
         <v>2564</v>
       </c>
     </row>
-    <row r="1295" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1295" customFormat="false" ht="31.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1295" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="B1295" s="13" t="s">
+      <c r="B1295" s="12" t="s">
         <v>2607</v>
       </c>
-      <c r="C1295" s="13" t="s">
+      <c r="C1295" s="12" t="s">
         <v>2608</v>
       </c>
       <c r="D1295" s="1"/>
-      <c r="E1295" s="0"/>
-      <c r="F1295" s="17" t="s">
+      <c r="E1295" s="3"/>
+      <c r="F1295" s="14" t="s">
         <v>2564</v>
       </c>
     </row>
-    <row r="1296" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1296" customFormat="false" ht="46.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1296" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="B1296" s="13" t="s">
+      <c r="B1296" s="12" t="s">
         <v>2609</v>
       </c>
-      <c r="C1296" s="13" t="s">
+      <c r="C1296" s="12" t="s">
         <v>2610</v>
       </c>
       <c r="D1296" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="E1296" s="0" t="n">
+      <c r="E1296" s="3" t="n">
         <v>2022</v>
       </c>
-      <c r="F1296" s="17" t="s">
+      <c r="F1296" s="14" t="s">
         <v>2564</v>
       </c>
     </row>
-    <row r="1297" customFormat="false" ht="61.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1297" customFormat="false" ht="61.15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1297" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="B1297" s="13" t="s">
+      <c r="B1297" s="12" t="s">
         <v>2611</v>
       </c>
-      <c r="C1297" s="13" t="s">
+      <c r="C1297" s="12" t="s">
         <v>2612</v>
       </c>
       <c r="D1297" s="1"/>
-      <c r="E1297" s="0"/>
-      <c r="F1297" s="17" t="s">
+      <c r="E1297" s="3"/>
+      <c r="F1297" s="14" t="s">
         <v>2564</v>
       </c>
     </row>
-    <row r="1298" customFormat="false" ht="61.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1298" customFormat="false" ht="61.15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1298" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="B1298" s="13" t="s">
+      <c r="B1298" s="12" t="s">
         <v>2613</v>
       </c>
-      <c r="C1298" s="13" t="s">
+      <c r="C1298" s="12" t="s">
         <v>2614</v>
       </c>
       <c r="D1298" s="1"/>
-      <c r="E1298" s="0"/>
-      <c r="F1298" s="17" t="s">
+      <c r="E1298" s="3"/>
+      <c r="F1298" s="14" t="s">
         <v>2564</v>
       </c>
     </row>
-    <row r="1299" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1299" customFormat="false" ht="46.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1299" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="B1299" s="13" t="s">
+      <c r="B1299" s="12" t="s">
         <v>2615</v>
       </c>
-      <c r="C1299" s="13" t="s">
+      <c r="C1299" s="12" t="s">
         <v>2616</v>
       </c>
       <c r="D1299" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="E1299" s="0" t="n">
+      <c r="E1299" s="3" t="n">
         <v>2023</v>
       </c>
-      <c r="F1299" s="17" t="s">
+      <c r="F1299" s="14" t="s">
         <v>2564</v>
       </c>
     </row>
-    <row r="1300" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1300" customFormat="false" ht="31.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1300" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="B1300" s="13" t="s">
+      <c r="B1300" s="12" t="s">
         <v>2617</v>
       </c>
-      <c r="C1300" s="13" t="s">
+      <c r="C1300" s="12" t="s">
         <v>2618</v>
       </c>
       <c r="D1300" s="1"/>
-      <c r="E1300" s="0"/>
-      <c r="F1300" s="17" t="s">
+      <c r="E1300" s="3"/>
+      <c r="F1300" s="14" t="s">
         <v>2564</v>
       </c>
     </row>
-    <row r="1301" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1301" customFormat="false" ht="31.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1301" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="B1301" s="13" t="s">
+      <c r="B1301" s="12" t="s">
         <v>2619</v>
       </c>
-      <c r="C1301" s="13" t="s">
+      <c r="C1301" s="12" t="s">
         <v>2620</v>
       </c>
       <c r="D1301" s="1"/>
-      <c r="E1301" s="0"/>
-      <c r="F1301" s="17" t="s">
+      <c r="E1301" s="3"/>
+      <c r="F1301" s="14" t="s">
         <v>2564</v>
       </c>
     </row>
-    <row r="1302" customFormat="false" ht="61.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1302" customFormat="false" ht="61.15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1302" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="B1302" s="13" t="s">
+      <c r="B1302" s="12" t="s">
         <v>2621</v>
       </c>
-      <c r="C1302" s="13" t="s">
+      <c r="C1302" s="12" t="s">
         <v>2622</v>
       </c>
       <c r="D1302" s="1"/>
-      <c r="E1302" s="0"/>
-      <c r="F1302" s="17" t="s">
+      <c r="E1302" s="3"/>
+      <c r="F1302" s="14" t="s">
         <v>2564</v>
       </c>
     </row>
-    <row r="1303" customFormat="false" ht="76.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1303" customFormat="false" ht="76.1" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1303" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="B1303" s="13" t="s">
+      <c r="B1303" s="12" t="s">
         <v>2623</v>
       </c>
-      <c r="C1303" s="13" t="s">
+      <c r="C1303" s="12" t="s">
         <v>2624</v>
       </c>
       <c r="D1303" s="1"/>
-      <c r="E1303" s="0"/>
-      <c r="F1303" s="17" t="s">
+      <c r="E1303" s="3"/>
+      <c r="F1303" s="14" t="s">
         <v>2564</v>
       </c>
     </row>
-    <row r="1304" customFormat="false" ht="165.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1304" customFormat="false" ht="165.65" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1304" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="B1304" s="13" t="s">
+      <c r="B1304" s="12" t="s">
         <v>2625</v>
       </c>
-      <c r="C1304" s="13" t="s">
+      <c r="C1304" s="12" t="s">
         <v>2626</v>
       </c>
       <c r="D1304" s="1"/>
-      <c r="E1304" s="0"/>
-      <c r="F1304" s="17" t="s">
+      <c r="E1304" s="3"/>
+      <c r="F1304" s="14" t="s">
         <v>2564</v>
       </c>
     </row>
-    <row r="1305" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1305" customFormat="false" ht="31.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1305" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="B1305" s="13" t="s">
+      <c r="B1305" s="12" t="s">
         <v>2627</v>
       </c>
-      <c r="C1305" s="13" t="s">
+      <c r="C1305" s="12" t="s">
         <v>2628</v>
       </c>
       <c r="D1305" s="1"/>
-      <c r="E1305" s="0"/>
-      <c r="F1305" s="17" t="s">
+      <c r="E1305" s="3"/>
+      <c r="F1305" s="14" t="s">
         <v>2564</v>
       </c>
     </row>
-    <row r="1306" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1306" customFormat="false" ht="91" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1306" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="B1306" s="13" t="s">
+      <c r="B1306" s="12" t="s">
         <v>2629</v>
       </c>
-      <c r="C1306" s="13" t="s">
+      <c r="C1306" s="12" t="s">
         <v>2630</v>
       </c>
       <c r="D1306" s="1"/>
-      <c r="E1306" s="0"/>
-      <c r="F1306" s="17" t="s">
+      <c r="E1306" s="3"/>
+      <c r="F1306" s="14" t="s">
         <v>2564</v>
       </c>
     </row>
-    <row r="1307" customFormat="false" ht="61.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1307" customFormat="false" ht="61.15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1307" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="B1307" s="13" t="s">
+      <c r="B1307" s="12" t="s">
         <v>2631</v>
       </c>
-      <c r="C1307" s="13" t="s">
+      <c r="C1307" s="12" t="s">
         <v>2632</v>
       </c>
       <c r="D1307" s="1"/>
-      <c r="E1307" s="0"/>
-      <c r="F1307" s="17" t="s">
+      <c r="E1307" s="3"/>
+      <c r="F1307" s="14" t="s">
         <v>2564</v>
       </c>
     </row>
-    <row r="1308" customFormat="false" ht="61.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1308" customFormat="false" ht="61.15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1308" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="B1308" s="13" t="s">
+      <c r="B1308" s="12" t="s">
         <v>2633</v>
       </c>
-      <c r="C1308" s="13" t="s">
+      <c r="C1308" s="12" t="s">
         <v>2634</v>
       </c>
       <c r="D1308" s="1"/>
-      <c r="E1308" s="0"/>
-      <c r="F1308" s="17" t="s">
+      <c r="E1308" s="3"/>
+      <c r="F1308" s="14" t="s">
         <v>2564</v>
       </c>
     </row>
-    <row r="1309" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1309" customFormat="false" ht="46.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1309" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="B1309" s="13" t="s">
+      <c r="B1309" s="12" t="s">
         <v>2635</v>
       </c>
-      <c r="C1309" s="13" t="s">
+      <c r="C1309" s="12" t="s">
         <v>2636</v>
       </c>
       <c r="D1309" s="1"/>
-      <c r="E1309" s="0"/>
-      <c r="F1309" s="17" t="s">
+      <c r="E1309" s="3"/>
+      <c r="F1309" s="14" t="s">
         <v>2564</v>
       </c>
     </row>
-    <row r="1310" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1310" customFormat="false" ht="91" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1310" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="B1310" s="13" t="s">
+      <c r="B1310" s="12" t="s">
         <v>2637</v>
       </c>
-      <c r="C1310" s="13" t="s">
+      <c r="C1310" s="12" t="s">
         <v>2638</v>
       </c>
       <c r="D1310" s="1"/>
-      <c r="E1310" s="0"/>
-      <c r="F1310" s="17" t="s">
+      <c r="E1310" s="3"/>
+      <c r="F1310" s="14" t="s">
         <v>2564</v>
       </c>
     </row>
-    <row r="1311" customFormat="false" ht="76.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1311" customFormat="false" ht="76.1" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1311" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="B1311" s="13" t="s">
+      <c r="B1311" s="12" t="s">
         <v>2639</v>
       </c>
-      <c r="C1311" s="13" t="s">
+      <c r="C1311" s="12" t="s">
         <v>2640</v>
       </c>
       <c r="D1311" s="1"/>
-      <c r="E1311" s="0"/>
-      <c r="F1311" s="17" t="s">
+      <c r="E1311" s="3"/>
+      <c r="F1311" s="14" t="s">
         <v>2564</v>
       </c>
     </row>
-    <row r="1312" customFormat="false" ht="61.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1312" customFormat="false" ht="61.15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1312" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="B1312" s="13" t="s">
+      <c r="B1312" s="12" t="s">
         <v>2641</v>
       </c>
-      <c r="C1312" s="13" t="s">
+      <c r="C1312" s="12" t="s">
         <v>2642</v>
       </c>
       <c r="D1312" s="1"/>
-      <c r="E1312" s="0"/>
-      <c r="F1312" s="17" t="s">
+      <c r="E1312" s="3"/>
+      <c r="F1312" s="14" t="s">
         <v>2564</v>
       </c>
     </row>
-    <row r="1313" customFormat="false" ht="195.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1313" customFormat="false" ht="195.5" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1313" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="B1313" s="13" t="s">
+      <c r="B1313" s="12" t="s">
         <v>2643</v>
       </c>
-      <c r="C1313" s="13" t="s">
+      <c r="C1313" s="12" t="s">
         <v>2644</v>
       </c>
       <c r="D1313" s="1"/>
-      <c r="E1313" s="0"/>
-      <c r="F1313" s="17" t="s">
+      <c r="E1313" s="3"/>
+      <c r="F1313" s="14" t="s">
         <v>2564</v>
       </c>
     </row>
-    <row r="1314" customFormat="false" ht="61.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1314" customFormat="false" ht="61.15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1314" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="B1314" s="13" t="s">
+      <c r="B1314" s="12" t="s">
         <v>2645</v>
       </c>
-      <c r="C1314" s="13" t="s">
+      <c r="C1314" s="12" t="s">
         <v>2646</v>
       </c>
       <c r="D1314" s="1"/>
-      <c r="E1314" s="0"/>
-      <c r="F1314" s="17" t="s">
+      <c r="E1314" s="3"/>
+      <c r="F1314" s="14" t="s">
         <v>2564</v>
       </c>
     </row>
-    <row r="1315" customFormat="false" ht="76.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1315" customFormat="false" ht="76.1" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1315" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="B1315" s="13" t="s">
+      <c r="B1315" s="12" t="s">
         <v>2647</v>
       </c>
-      <c r="C1315" s="13" t="s">
+      <c r="C1315" s="12" t="s">
         <v>2648</v>
       </c>
       <c r="D1315" s="1"/>
-      <c r="E1315" s="0"/>
-      <c r="F1315" s="17" t="s">
+      <c r="E1315" s="3"/>
+      <c r="F1315" s="14" t="s">
         <v>2564</v>
       </c>
     </row>
-    <row r="1316" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1316" customFormat="false" ht="23.85" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1316" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="B1316" s="15" t="s">
+      <c r="B1316" s="8" t="s">
         <v>2649</v>
       </c>
-      <c r="C1316" s="16" t="s">
+      <c r="C1316" s="10" t="s">
         <v>2650</v>
       </c>
       <c r="D1316" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="E1316" s="0" t="n">
+      <c r="E1316" s="3" t="n">
         <v>2019</v>
       </c>
-      <c r="F1316" s="17" t="s">
+      <c r="F1316" s="14" t="s">
         <v>2651</v>
       </c>
     </row>
-    <row r="1317" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1317" customFormat="false" ht="23.85" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1317" s="2" t="n">
         <v>9</v>
       </c>
       <c r="B1317" s="8" t="s">
         <v>2652</v>
       </c>
-      <c r="C1317" s="16" t="s">
+      <c r="C1317" s="10" t="s">
         <v>2653</v>
       </c>
       <c r="D1317" s="1"/>
-      <c r="E1317" s="0"/>
-      <c r="F1317" s="17" t="s">
+      <c r="E1317" s="3"/>
+      <c r="F1317" s="14" t="s">
         <v>2651</v>
       </c>
     </row>
-    <row r="1318" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1318" customFormat="false" ht="31.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1318" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="B1318" s="13" t="s">
+      <c r="B1318" s="12" t="s">
         <v>2654</v>
       </c>
-      <c r="C1318" s="13" t="s">
+      <c r="C1318" s="12" t="s">
         <v>2655</v>
       </c>
       <c r="D1318" s="1"/>
-      <c r="E1318" s="0"/>
-      <c r="F1318" s="17" t="s">
+      <c r="E1318" s="3"/>
+      <c r="F1318" s="14" t="s">
         <v>2651</v>
       </c>
     </row>
-    <row r="1319" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1319" customFormat="false" ht="31.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1319" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="B1319" s="13" t="s">
+      <c r="B1319" s="12" t="s">
         <v>2656</v>
       </c>
-      <c r="C1319" s="13" t="s">
+      <c r="C1319" s="12" t="s">
         <v>2657</v>
       </c>
       <c r="D1319" s="1"/>
-      <c r="E1319" s="0"/>
-      <c r="F1319" s="17" t="s">
+      <c r="E1319" s="3"/>
+      <c r="F1319" s="14" t="s">
         <v>2651</v>
       </c>
     </row>
-    <row r="1320" customFormat="false" ht="61.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1320" customFormat="false" ht="61.15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1320" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="B1320" s="13" t="s">
+      <c r="B1320" s="12" t="s">
         <v>2658</v>
       </c>
-      <c r="C1320" s="13" t="s">
+      <c r="C1320" s="12" t="s">
         <v>2659</v>
       </c>
       <c r="D1320" s="1"/>
-      <c r="E1320" s="0"/>
-      <c r="F1320" s="17" t="s">
+      <c r="E1320" s="3"/>
+      <c r="F1320" s="14" t="s">
         <v>2651</v>
       </c>
     </row>
-    <row r="1321" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1321" customFormat="false" ht="31.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1321" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="B1321" s="13" t="s">
+      <c r="B1321" s="12" t="s">
         <v>2660</v>
       </c>
-      <c r="C1321" s="13" t="s">
+      <c r="C1321" s="12" t="s">
         <v>2539</v>
       </c>
       <c r="D1321" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="E1321" s="0" t="n">
+      <c r="E1321" s="3" t="n">
         <v>2008</v>
       </c>
-      <c r="F1321" s="17" t="s">
+      <c r="F1321" s="14" t="s">
         <v>2651</v>
       </c>
     </row>
-    <row r="1322" customFormat="false" ht="76.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1322" customFormat="false" ht="76.1" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1322" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="B1322" s="13" t="s">
+      <c r="B1322" s="12" t="s">
         <v>2661</v>
       </c>
-      <c r="C1322" s="13" t="s">
+      <c r="C1322" s="12" t="s">
         <v>2662</v>
       </c>
       <c r="D1322" s="1"/>
-      <c r="E1322" s="0"/>
-      <c r="F1322" s="17" t="s">
+      <c r="E1322" s="3"/>
+      <c r="F1322" s="14" t="s">
         <v>2651</v>
       </c>
     </row>
-    <row r="1323" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1323" customFormat="false" ht="91" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1323" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="B1323" s="13" t="s">
+      <c r="B1323" s="12" t="s">
         <v>2663</v>
       </c>
-      <c r="C1323" s="13" t="s">
+      <c r="C1323" s="12" t="s">
         <v>2664</v>
       </c>
-      <c r="D1323" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E1323" s="0" t="n">
+      <c r="D1323" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1323" s="3" t="n">
         <v>2008</v>
       </c>
-      <c r="F1323" s="17" t="s">
+      <c r="F1323" s="14" t="s">
         <v>2651</v>
       </c>
     </row>
-    <row r="1324" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1324" customFormat="false" ht="31.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1324" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="B1324" s="13" t="s">
+      <c r="B1324" s="12" t="s">
         <v>2665</v>
       </c>
-      <c r="C1324" s="13" t="s">
+      <c r="C1324" s="12" t="s">
         <v>2666</v>
       </c>
-      <c r="D1324" s="0"/>
-      <c r="E1324" s="0"/>
-      <c r="F1324" s="17" t="s">
+      <c r="D1324" s="3"/>
+      <c r="E1324" s="3"/>
+      <c r="F1324" s="14" t="s">
         <v>2651</v>
       </c>
     </row>
-    <row r="1325" customFormat="false" ht="61.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1325" customFormat="false" ht="61.15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1325" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="B1325" s="13" t="s">
+      <c r="B1325" s="12" t="s">
         <v>2667</v>
       </c>
-      <c r="C1325" s="13" t="s">
+      <c r="C1325" s="12" t="s">
         <v>2668</v>
       </c>
-      <c r="D1325" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E1325" s="0" t="n">
+      <c r="D1325" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1325" s="3" t="n">
         <v>2023</v>
       </c>
-      <c r="F1325" s="17" t="s">
+      <c r="F1325" s="14" t="s">
         <v>2651</v>
       </c>
     </row>
-    <row r="1326" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1326" customFormat="false" ht="16.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1326" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="B1326" s="13" t="s">
+      <c r="B1326" s="12" t="s">
         <v>2669</v>
       </c>
-      <c r="C1326" s="13" t="s">
+      <c r="C1326" s="12" t="s">
         <v>2670</v>
       </c>
       <c r="D1326" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="E1326" s="0" t="n">
+      <c r="E1326" s="3" t="n">
         <v>2019</v>
       </c>
-      <c r="F1326" s="17" t="s">
+      <c r="F1326" s="14" t="s">
         <v>2651</v>
       </c>
     </row>
-    <row r="1327" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1327" customFormat="false" ht="16.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1327" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="B1327" s="13" t="s">
+      <c r="B1327" s="12" t="s">
         <v>2671</v>
       </c>
-      <c r="C1327" s="13" t="s">
+      <c r="C1327" s="12" t="s">
         <v>2672</v>
       </c>
       <c r="D1327" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="E1327" s="0" t="n">
+      <c r="E1327" s="3" t="n">
         <v>2023</v>
       </c>
-      <c r="F1327" s="17" t="s">
+      <c r="F1327" s="14" t="s">
         <v>2651</v>
       </c>
     </row>
-    <row r="1328" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1328" customFormat="false" ht="31.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1328" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="B1328" s="13" t="s">
+      <c r="B1328" s="12" t="s">
         <v>2673</v>
       </c>
-      <c r="C1328" s="13" t="s">
+      <c r="C1328" s="12" t="s">
         <v>2674</v>
       </c>
       <c r="D1328" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="E1328" s="0" t="n">
+      <c r="E1328" s="3" t="n">
         <v>2013</v>
       </c>
-      <c r="F1328" s="17" t="s">
+      <c r="F1328" s="14" t="s">
         <v>2651</v>
       </c>
     </row>
-    <row r="1329" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1329" customFormat="false" ht="16.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1329" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="B1329" s="13" t="s">
+      <c r="B1329" s="12" t="s">
         <v>2675</v>
       </c>
-      <c r="C1329" s="13" t="s">
+      <c r="C1329" s="12" t="s">
         <v>2676</v>
       </c>
       <c r="D1329" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="E1329" s="0" t="n">
+      <c r="E1329" s="3" t="n">
         <v>2013</v>
       </c>
-      <c r="F1329" s="17" t="s">
+      <c r="F1329" s="14" t="s">
         <v>2651</v>
       </c>
     </row>
-    <row r="1330" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1330" customFormat="false" ht="31.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1330" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="B1330" s="13" t="s">
+      <c r="B1330" s="12" t="s">
         <v>2677</v>
       </c>
-      <c r="C1330" s="13" t="s">
+      <c r="C1330" s="12" t="s">
         <v>2678</v>
       </c>
       <c r="D1330" s="1"/>
-      <c r="E1330" s="0"/>
-      <c r="F1330" s="17" t="s">
+      <c r="E1330" s="3"/>
+      <c r="F1330" s="14" t="s">
         <v>2651</v>
       </c>
     </row>
-    <row r="1331" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1331" customFormat="false" ht="46.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1331" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="B1331" s="13" t="s">
+      <c r="B1331" s="12" t="s">
         <v>2679</v>
       </c>
-      <c r="C1331" s="13" t="s">
+      <c r="C1331" s="12" t="s">
         <v>2582</v>
       </c>
-      <c r="D1331" s="0"/>
-      <c r="E1331" s="0"/>
+      <c r="D1331" s="3"/>
+      <c r="E1331" s="3"/>
       <c r="F1331" s="12" t="s">
         <v>2680</v>
       </c>
     </row>
-    <row r="1332" customFormat="false" ht="61.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1332" customFormat="false" ht="61.15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1332" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="B1332" s="13" t="s">
+      <c r="B1332" s="12" t="s">
         <v>2681</v>
       </c>
-      <c r="C1332" s="13" t="s">
+      <c r="C1332" s="12" t="s">
         <v>2682</v>
       </c>
-      <c r="D1332" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E1332" s="0" t="n">
+      <c r="D1332" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1332" s="3" t="n">
         <v>2018</v>
       </c>
       <c r="F1332" s="12" t="s">
         <v>2680</v>
       </c>
     </row>
-    <row r="1333" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1333" customFormat="false" ht="46.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1333" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="B1333" s="13" t="s">
+      <c r="B1333" s="12" t="s">
         <v>2683</v>
       </c>
-      <c r="C1333" s="13" t="s">
+      <c r="C1333" s="12" t="s">
         <v>2684</v>
       </c>
-      <c r="D1333" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E1333" s="0" t="n">
+      <c r="D1333" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1333" s="3" t="n">
         <v>2021</v>
       </c>
       <c r="F1333" s="12" t="s">
         <v>2680</v>
       </c>
     </row>
-    <row r="1334" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1334" customFormat="false" ht="46.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1334" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="B1334" s="13" t="s">
+      <c r="B1334" s="12" t="s">
         <v>2685</v>
       </c>
-      <c r="C1334" s="20" t="s">
+      <c r="C1334" s="14" t="s">
         <v>2686</v>
       </c>
       <c r="D1334" s="1"/>
-      <c r="E1334" s="0"/>
+      <c r="E1334" s="3"/>
       <c r="F1334" s="12" t="s">
         <v>2680</v>
       </c>
     </row>
-    <row r="1335" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1335" customFormat="false" ht="46.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1335" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="B1335" s="13" t="s">
+      <c r="B1335" s="12" t="s">
         <v>2687</v>
       </c>
-      <c r="C1335" s="13" t="s">
+      <c r="C1335" s="12" t="s">
         <v>2688</v>
       </c>
       <c r="D1335" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="E1335" s="0" t="n">
+      <c r="E1335" s="3" t="n">
         <v>2006</v>
       </c>
       <c r="F1335" s="12" t="s">
         <v>2680</v>
       </c>
     </row>
-    <row r="1336" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1336" customFormat="false" ht="46.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1336" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="B1336" s="13" t="s">
+      <c r="B1336" s="12" t="s">
         <v>2689</v>
       </c>
-      <c r="C1336" s="13" t="s">
+      <c r="C1336" s="12" t="s">
         <v>2690</v>
       </c>
       <c r="D1336" s="1"/>
-      <c r="E1336" s="0"/>
+      <c r="E1336" s="3"/>
       <c r="F1336" s="12" t="s">
         <v>2680</v>
       </c>
     </row>
-    <row r="1337" customFormat="false" ht="61.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1337" customFormat="false" ht="61.15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1337" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="B1337" s="13" t="s">
+      <c r="B1337" s="12" t="s">
         <v>2691</v>
       </c>
-      <c r="C1337" s="13" t="s">
+      <c r="C1337" s="12" t="s">
         <v>2537</v>
       </c>
       <c r="D1337" s="1"/>
-      <c r="E1337" s="0"/>
+      <c r="E1337" s="3"/>
       <c r="F1337" s="12" t="s">
         <v>2692</v>
       </c>
     </row>
-    <row r="1338" customFormat="false" ht="61.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1338" customFormat="false" ht="61.15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1338" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="B1338" s="13" t="s">
+      <c r="B1338" s="12" t="s">
         <v>2693</v>
       </c>
-      <c r="C1338" s="13" t="s">
+      <c r="C1338" s="12" t="s">
         <v>2694</v>
       </c>
       <c r="D1338" s="1"/>
-      <c r="E1338" s="0"/>
+      <c r="E1338" s="3"/>
       <c r="F1338" s="12" t="s">
         <v>2692</v>
       </c>
     </row>
-    <row r="1339" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1339" customFormat="false" ht="46.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1339" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="B1339" s="13" t="s">
+      <c r="B1339" s="12" t="s">
         <v>2695</v>
       </c>
-      <c r="C1339" s="13" t="s">
+      <c r="C1339" s="12" t="s">
         <v>2537</v>
       </c>
       <c r="D1339" s="1"/>
-      <c r="E1339" s="0"/>
+      <c r="E1339" s="3"/>
       <c r="F1339" s="12" t="s">
         <v>2692</v>
       </c>
     </row>
-    <row r="1340" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1340" customFormat="false" ht="46.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1340" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="B1340" s="13" t="s">
+      <c r="B1340" s="12" t="s">
         <v>2696</v>
       </c>
-      <c r="C1340" s="13" t="s">
+      <c r="C1340" s="12" t="s">
         <v>2537</v>
       </c>
       <c r="D1340" s="1"/>
-      <c r="E1340" s="0"/>
+      <c r="E1340" s="3"/>
       <c r="F1340" s="12" t="s">
         <v>2692</v>
       </c>
     </row>
-    <row r="1341" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1341" customFormat="false" ht="46.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1341" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="B1341" s="13" t="s">
+      <c r="B1341" s="12" t="s">
         <v>2697</v>
       </c>
-      <c r="C1341" s="13" t="s">
+      <c r="C1341" s="12" t="s">
         <v>2698</v>
       </c>
       <c r="D1341" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="E1341" s="0" t="n">
+      <c r="E1341" s="3" t="n">
         <v>2023</v>
       </c>
       <c r="F1341" s="12" t="s">
         <v>2692</v>
       </c>
     </row>
-    <row r="1342" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1342" customFormat="false" ht="46.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1342" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="B1342" s="13" t="s">
+      <c r="B1342" s="12" t="s">
         <v>2699</v>
       </c>
-      <c r="C1342" s="13" t="s">
+      <c r="C1342" s="12" t="s">
         <v>2700</v>
       </c>
       <c r="D1342" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="E1342" s="0" t="n">
+      <c r="E1342" s="3" t="n">
         <v>2010</v>
       </c>
       <c r="F1342" s="12" t="s">
         <v>2692</v>
       </c>
     </row>
-    <row r="1343" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1343" customFormat="false" ht="46.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1343" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="B1343" s="13" t="s">
+      <c r="B1343" s="12" t="s">
         <v>2701</v>
       </c>
-      <c r="C1343" s="13" t="s">
+      <c r="C1343" s="12" t="s">
         <v>2702</v>
       </c>
       <c r="D1343" s="1"/>
-      <c r="E1343" s="0"/>
+      <c r="E1343" s="3"/>
       <c r="F1343" s="12" t="s">
         <v>2692</v>
       </c>
     </row>
-    <row r="1344" customFormat="false" ht="76.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1344" customFormat="false" ht="76.1" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1344" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="B1344" s="13" t="s">
+      <c r="B1344" s="12" t="s">
         <v>2703</v>
       </c>
-      <c r="C1344" s="13" t="s">
+      <c r="C1344" s="12" t="s">
         <v>2704</v>
       </c>
       <c r="D1344" s="1"/>
-      <c r="E1344" s="0"/>
+      <c r="E1344" s="3"/>
       <c r="F1344" s="12" t="s">
         <v>2705</v>
       </c>
     </row>
-    <row r="1345" customFormat="false" ht="76.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1345" customFormat="false" ht="76.1" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1345" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="B1345" s="13" t="s">
+      <c r="B1345" s="12" t="s">
         <v>2706</v>
       </c>
-      <c r="C1345" s="13" t="s">
+      <c r="C1345" s="12" t="s">
         <v>2707</v>
       </c>
       <c r="D1345" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="E1345" s="0" t="n">
+      <c r="E1345" s="3" t="n">
         <v>2011</v>
       </c>
       <c r="F1345" s="12" t="s">
         <v>2705</v>
       </c>
     </row>
-    <row r="1346" customFormat="false" ht="76.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1346" customFormat="false" ht="76.1" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1346" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="B1346" s="13" t="s">
+      <c r="B1346" s="12" t="s">
         <v>2708</v>
       </c>
-      <c r="C1346" s="13" t="s">
+      <c r="C1346" s="12" t="s">
         <v>2709</v>
       </c>
       <c r="D1346" s="1"/>
-      <c r="E1346" s="0"/>
+      <c r="E1346" s="3"/>
       <c r="F1346" s="12" t="s">
         <v>2710</v>
       </c>
     </row>
-    <row r="1347" customFormat="false" ht="61.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1347" customFormat="false" ht="61.15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1347" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="B1347" s="13" t="s">
+      <c r="B1347" s="12" t="s">
         <v>2711</v>
       </c>
-      <c r="C1347" s="13" t="s">
+      <c r="C1347" s="12" t="s">
         <v>2712</v>
       </c>
       <c r="D1347" s="1"/>
-      <c r="E1347" s="0"/>
+      <c r="E1347" s="3"/>
       <c r="F1347" s="12" t="s">
         <v>2710</v>
       </c>
     </row>
-    <row r="1348" customFormat="false" ht="61.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1348" customFormat="false" ht="61.15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1348" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="B1348" s="13" t="s">
+      <c r="B1348" s="12" t="s">
         <v>2713</v>
       </c>
-      <c r="C1348" s="13" t="s">
+      <c r="C1348" s="12" t="s">
         <v>2714</v>
       </c>
-      <c r="D1348" s="0"/>
-      <c r="E1348" s="0"/>
+      <c r="D1348" s="3"/>
+      <c r="E1348" s="3"/>
       <c r="F1348" s="12" t="s">
         <v>2710</v>
       </c>
     </row>
-    <row r="1349" customFormat="false" ht="61.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1349" customFormat="false" ht="61.15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1349" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="B1349" s="13" t="s">
+      <c r="B1349" s="12" t="s">
         <v>2715</v>
       </c>
-      <c r="C1349" s="13" t="s">
+      <c r="C1349" s="12" t="s">
         <v>2716</v>
       </c>
       <c r="D1349" s="1"/>
-      <c r="E1349" s="0"/>
+      <c r="E1349" s="3"/>
       <c r="F1349" s="12" t="s">
         <v>2710</v>
       </c>
     </row>
-    <row r="1350" customFormat="false" ht="61.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1350" customFormat="false" ht="61.15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1350" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="B1350" s="13" t="s">
+      <c r="B1350" s="12" t="s">
         <v>2717</v>
       </c>
-      <c r="C1350" s="13" t="s">
+      <c r="C1350" s="12" t="s">
         <v>2718</v>
       </c>
       <c r="D1350" s="1"/>
-      <c r="E1350" s="0"/>
+      <c r="E1350" s="3"/>
       <c r="F1350" s="12" t="s">
         <v>2710</v>
       </c>
     </row>
-    <row r="1351" customFormat="false" ht="61.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1351" customFormat="false" ht="61.15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1351" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="B1351" s="13" t="s">
+      <c r="B1351" s="12" t="s">
         <v>2719</v>
       </c>
-      <c r="C1351" s="13" t="s">
+      <c r="C1351" s="12" t="s">
         <v>2720</v>
       </c>
       <c r="D1351" s="1"/>
-      <c r="E1351" s="0"/>
+      <c r="E1351" s="3"/>
       <c r="F1351" s="12" t="s">
         <v>2710</v>
       </c>
     </row>
-    <row r="1352" customFormat="false" ht="61.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1352" customFormat="false" ht="61.15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1352" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="B1352" s="13" t="s">
+      <c r="B1352" s="12" t="s">
         <v>2721</v>
       </c>
-      <c r="C1352" s="13" t="s">
+      <c r="C1352" s="12" t="s">
         <v>2722</v>
       </c>
       <c r="D1352" s="1"/>
-      <c r="E1352" s="0"/>
+      <c r="E1352" s="3"/>
       <c r="F1352" s="12" t="s">
         <v>2710</v>
+      </c>
+    </row>
+    <row r="1353" customFormat="false" ht="61.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1353" s="12" t="n">
+        <v>18</v>
+      </c>
+      <c r="B1353" s="12" t="s">
+        <v>2723</v>
+      </c>
+      <c r="C1353" s="12" t="s">
+        <v>2724</v>
+      </c>
+      <c r="D1353" s="12" t="s">
+        <v>2725</v>
+      </c>
+      <c r="E1353" s="12" t="s">
+        <v>2726</v>
+      </c>
+      <c r="F1353" s="12" t="s">
+        <v>2727</v>
+      </c>
+    </row>
+    <row r="1354" customFormat="false" ht="61.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1354" s="12" t="n">
+        <v>18</v>
+      </c>
+      <c r="B1354" s="12" t="s">
+        <v>2728</v>
+      </c>
+      <c r="C1354" s="12" t="s">
+        <v>2729</v>
+      </c>
+      <c r="D1354" s="12" t="s">
+        <v>2725</v>
+      </c>
+      <c r="E1354" s="12" t="s">
+        <v>2726</v>
+      </c>
+      <c r="F1354" s="12" t="s">
+        <v>2727</v>
+      </c>
+    </row>
+    <row r="1355" customFormat="false" ht="61.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1355" s="12" t="n">
+        <v>18</v>
+      </c>
+      <c r="B1355" s="12" t="s">
+        <v>2730</v>
+      </c>
+      <c r="C1355" s="12" t="s">
+        <v>2731</v>
+      </c>
+      <c r="D1355" s="12" t="s">
+        <v>2725</v>
+      </c>
+      <c r="E1355" s="12" t="s">
+        <v>2726</v>
+      </c>
+      <c r="F1355" s="12" t="s">
+        <v>2727</v>
+      </c>
+    </row>
+    <row r="1356" customFormat="false" ht="61.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1356" s="12" t="n">
+        <v>18</v>
+      </c>
+      <c r="B1356" s="12" t="s">
+        <v>2732</v>
+      </c>
+      <c r="C1356" s="12" t="s">
+        <v>2733</v>
+      </c>
+      <c r="D1356" s="12" t="s">
+        <v>2725</v>
+      </c>
+      <c r="E1356" s="12" t="s">
+        <v>2734</v>
+      </c>
+      <c r="F1356" s="12" t="s">
+        <v>2727</v>
+      </c>
+    </row>
+    <row r="1357" customFormat="false" ht="61.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1357" s="12" t="n">
+        <v>18</v>
+      </c>
+      <c r="B1357" s="12" t="s">
+        <v>2735</v>
+      </c>
+      <c r="C1357" s="12" t="s">
+        <v>2736</v>
+      </c>
+      <c r="D1357" s="12" t="s">
+        <v>2725</v>
+      </c>
+      <c r="E1357" s="12" t="s">
+        <v>2734</v>
+      </c>
+      <c r="F1357" s="12" t="s">
+        <v>2727</v>
+      </c>
+    </row>
+    <row r="1358" customFormat="false" ht="61.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1358" s="12" t="n">
+        <v>18</v>
+      </c>
+      <c r="B1358" s="12" t="s">
+        <v>2737</v>
+      </c>
+      <c r="C1358" s="12" t="s">
+        <v>2738</v>
+      </c>
+      <c r="D1358" s="12" t="s">
+        <v>2725</v>
+      </c>
+      <c r="E1358" s="12" t="s">
+        <v>2734</v>
+      </c>
+      <c r="F1358" s="12" t="s">
+        <v>2727</v>
+      </c>
+    </row>
+    <row r="1359" customFormat="false" ht="61.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1359" s="12" t="n">
+        <v>18</v>
+      </c>
+      <c r="B1359" s="12" t="s">
+        <v>2739</v>
+      </c>
+      <c r="C1359" s="12" t="s">
+        <v>2740</v>
+      </c>
+      <c r="D1359" s="12" t="s">
+        <v>2725</v>
+      </c>
+      <c r="E1359" s="12" t="s">
+        <v>2741</v>
+      </c>
+      <c r="F1359" s="12" t="s">
+        <v>2727</v>
+      </c>
+    </row>
+    <row r="1360" customFormat="false" ht="61.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1360" s="12" t="n">
+        <v>18</v>
+      </c>
+      <c r="B1360" s="12" t="s">
+        <v>2742</v>
+      </c>
+      <c r="C1360" s="12" t="s">
+        <v>2743</v>
+      </c>
+      <c r="D1360" s="12" t="s">
+        <v>2725</v>
+      </c>
+      <c r="E1360" s="12" t="s">
+        <v>2741</v>
+      </c>
+      <c r="F1360" s="12" t="s">
+        <v>2727</v>
+      </c>
+    </row>
+    <row r="1361" customFormat="false" ht="61.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1361" s="12" t="n">
+        <v>18</v>
+      </c>
+      <c r="B1361" s="12" t="s">
+        <v>2744</v>
+      </c>
+      <c r="C1361" s="12" t="s">
+        <v>2745</v>
+      </c>
+      <c r="D1361" s="12" t="s">
+        <v>2725</v>
+      </c>
+      <c r="E1361" s="12" t="s">
+        <v>2741</v>
+      </c>
+      <c r="F1361" s="12" t="s">
+        <v>2727</v>
+      </c>
+    </row>
+    <row r="1362" customFormat="false" ht="61.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1362" s="12" t="n">
+        <v>18</v>
+      </c>
+      <c r="B1362" s="12" t="s">
+        <v>2746</v>
+      </c>
+      <c r="C1362" s="12" t="s">
+        <v>2747</v>
+      </c>
+      <c r="D1362" s="12" t="s">
+        <v>2725</v>
+      </c>
+      <c r="E1362" s="12" t="s">
+        <v>2741</v>
+      </c>
+      <c r="F1362" s="12" t="s">
+        <v>2727</v>
+      </c>
+    </row>
+    <row r="1363" customFormat="false" ht="61.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1363" s="12" t="n">
+        <v>18</v>
+      </c>
+      <c r="B1363" s="12" t="s">
+        <v>2748</v>
+      </c>
+      <c r="C1363" s="12" t="s">
+        <v>2749</v>
+      </c>
+      <c r="D1363" s="12" t="s">
+        <v>2725</v>
+      </c>
+      <c r="E1363" s="12" t="s">
+        <v>2750</v>
+      </c>
+      <c r="F1363" s="12" t="s">
+        <v>2727</v>
+      </c>
+    </row>
+    <row r="1364" customFormat="false" ht="61.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1364" s="12" t="n">
+        <v>18</v>
+      </c>
+      <c r="B1364" s="12" t="s">
+        <v>2751</v>
+      </c>
+      <c r="C1364" s="12" t="s">
+        <v>2752</v>
+      </c>
+      <c r="D1364" s="12" t="s">
+        <v>2725</v>
+      </c>
+      <c r="E1364" s="12" t="s">
+        <v>2753</v>
+      </c>
+      <c r="F1364" s="12" t="s">
+        <v>2727</v>
+      </c>
+    </row>
+    <row r="1365" customFormat="false" ht="61.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1365" s="12" t="n">
+        <v>18</v>
+      </c>
+      <c r="B1365" s="12" t="s">
+        <v>2754</v>
+      </c>
+      <c r="C1365" s="12" t="s">
+        <v>2755</v>
+      </c>
+      <c r="D1365" s="12" t="s">
+        <v>2725</v>
+      </c>
+      <c r="E1365" s="12" t="s">
+        <v>2753</v>
+      </c>
+      <c r="F1365" s="12" t="s">
+        <v>2727</v>
+      </c>
+    </row>
+    <row r="1366" customFormat="false" ht="61.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1366" s="12" t="n">
+        <v>18</v>
+      </c>
+      <c r="B1366" s="12" t="s">
+        <v>2756</v>
+      </c>
+      <c r="C1366" s="12" t="s">
+        <v>2757</v>
+      </c>
+      <c r="D1366" s="12" t="s">
+        <v>2725</v>
+      </c>
+      <c r="E1366" s="12" t="s">
+        <v>2753</v>
+      </c>
+      <c r="F1366" s="12" t="s">
+        <v>2727</v>
+      </c>
+    </row>
+    <row r="1367" customFormat="false" ht="61.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1367" s="12" t="n">
+        <v>18</v>
+      </c>
+      <c r="B1367" s="12" t="s">
+        <v>2758</v>
+      </c>
+      <c r="C1367" s="12" t="s">
+        <v>2759</v>
+      </c>
+      <c r="D1367" s="12" t="s">
+        <v>2725</v>
+      </c>
+      <c r="E1367" s="12" t="s">
+        <v>2760</v>
+      </c>
+      <c r="F1367" s="12" t="s">
+        <v>2727</v>
+      </c>
+    </row>
+    <row r="1368" customFormat="false" ht="61.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1368" s="12" t="n">
+        <v>18</v>
+      </c>
+      <c r="B1368" s="12" t="s">
+        <v>2761</v>
+      </c>
+      <c r="C1368" s="12" t="s">
+        <v>2762</v>
+      </c>
+      <c r="D1368" s="12" t="s">
+        <v>2725</v>
+      </c>
+      <c r="E1368" s="12" t="s">
+        <v>2763</v>
+      </c>
+      <c r="F1368" s="12" t="s">
+        <v>2727</v>
+      </c>
+    </row>
+    <row r="1369" customFormat="false" ht="61.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1369" s="12" t="n">
+        <v>18</v>
+      </c>
+      <c r="B1369" s="12" t="s">
+        <v>2764</v>
+      </c>
+      <c r="C1369" s="12" t="s">
+        <v>2765</v>
+      </c>
+      <c r="D1369" s="12" t="s">
+        <v>2725</v>
+      </c>
+      <c r="E1369" s="12" t="s">
+        <v>2763</v>
+      </c>
+      <c r="F1369" s="12" t="s">
+        <v>2727</v>
+      </c>
+    </row>
+    <row r="1370" customFormat="false" ht="61.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1370" s="12" t="n">
+        <v>18</v>
+      </c>
+      <c r="B1370" s="12" t="s">
+        <v>2766</v>
+      </c>
+      <c r="C1370" s="12" t="s">
+        <v>2767</v>
+      </c>
+      <c r="D1370" s="12" t="s">
+        <v>2725</v>
+      </c>
+      <c r="E1370" s="12" t="s">
+        <v>2763</v>
+      </c>
+      <c r="F1370" s="12" t="s">
+        <v>2727</v>
+      </c>
+    </row>
+    <row r="1371" customFormat="false" ht="61.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1371" s="12" t="n">
+        <v>18</v>
+      </c>
+      <c r="B1371" s="12" t="s">
+        <v>2768</v>
+      </c>
+      <c r="C1371" s="12" t="s">
+        <v>2769</v>
+      </c>
+      <c r="D1371" s="12" t="s">
+        <v>2725</v>
+      </c>
+      <c r="E1371" s="12" t="s">
+        <v>2770</v>
+      </c>
+      <c r="F1371" s="12" t="s">
+        <v>2727</v>
+      </c>
+    </row>
+    <row r="1372" customFormat="false" ht="61.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1372" s="12" t="n">
+        <v>18</v>
+      </c>
+      <c r="B1372" s="12" t="s">
+        <v>2771</v>
+      </c>
+      <c r="C1372" s="12" t="s">
+        <v>2772</v>
+      </c>
+      <c r="D1372" s="12" t="s">
+        <v>2725</v>
+      </c>
+      <c r="E1372" s="12" t="s">
+        <v>2773</v>
+      </c>
+      <c r="F1372" s="12" t="s">
+        <v>2727</v>
+      </c>
+    </row>
+    <row r="1373" customFormat="false" ht="61.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1373" s="12" t="n">
+        <v>18</v>
+      </c>
+      <c r="B1373" s="12" t="s">
+        <v>2774</v>
+      </c>
+      <c r="C1373" s="12" t="s">
+        <v>2775</v>
+      </c>
+      <c r="D1373" s="12" t="s">
+        <v>2725</v>
+      </c>
+      <c r="E1373" s="12" t="s">
+        <v>2776</v>
+      </c>
+      <c r="F1373" s="12" t="s">
+        <v>2727</v>
+      </c>
+    </row>
+    <row r="1374" customFormat="false" ht="61.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1374" s="12" t="n">
+        <v>18</v>
+      </c>
+      <c r="B1374" s="12" t="s">
+        <v>2777</v>
+      </c>
+      <c r="C1374" s="12" t="s">
+        <v>2778</v>
+      </c>
+      <c r="D1374" s="12" t="s">
+        <v>2725</v>
+      </c>
+      <c r="E1374" s="12" t="s">
+        <v>2776</v>
+      </c>
+      <c r="F1374" s="12" t="s">
+        <v>2727</v>
+      </c>
+    </row>
+    <row r="1375" customFormat="false" ht="61.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1375" s="12" t="n">
+        <v>18</v>
+      </c>
+      <c r="B1375" s="12" t="s">
+        <v>2779</v>
+      </c>
+      <c r="C1375" s="12" t="s">
+        <v>2780</v>
+      </c>
+      <c r="D1375" s="12" t="s">
+        <v>2725</v>
+      </c>
+      <c r="E1375" s="12" t="s">
+        <v>2776</v>
+      </c>
+      <c r="F1375" s="12" t="s">
+        <v>2727</v>
+      </c>
+    </row>
+    <row r="1376" customFormat="false" ht="61.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1376" s="12" t="n">
+        <v>18</v>
+      </c>
+      <c r="B1376" s="12" t="s">
+        <v>2781</v>
+      </c>
+      <c r="C1376" s="12" t="s">
+        <v>2782</v>
+      </c>
+      <c r="D1376" s="12" t="s">
+        <v>2725</v>
+      </c>
+      <c r="E1376" s="12" t="s">
+        <v>2783</v>
+      </c>
+      <c r="F1376" s="12" t="s">
+        <v>2727</v>
+      </c>
+    </row>
+    <row r="1377" customFormat="false" ht="61.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1377" s="12" t="n">
+        <v>18</v>
+      </c>
+      <c r="B1377" s="12" t="s">
+        <v>2784</v>
+      </c>
+      <c r="C1377" s="12" t="s">
+        <v>2785</v>
+      </c>
+      <c r="D1377" s="12" t="s">
+        <v>2725</v>
+      </c>
+      <c r="E1377" s="12" t="s">
+        <v>2786</v>
+      </c>
+      <c r="F1377" s="12" t="s">
+        <v>2727</v>
+      </c>
+    </row>
+    <row r="1378" customFormat="false" ht="61.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1378" s="12" t="n">
+        <v>18</v>
+      </c>
+      <c r="B1378" s="12" t="s">
+        <v>2787</v>
+      </c>
+      <c r="C1378" s="12" t="s">
+        <v>2788</v>
+      </c>
+      <c r="D1378" s="12" t="s">
+        <v>2725</v>
+      </c>
+      <c r="E1378" s="12" t="s">
+        <v>2786</v>
+      </c>
+      <c r="F1378" s="12" t="s">
+        <v>2727</v>
+      </c>
+    </row>
+    <row r="1379" customFormat="false" ht="61.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1379" s="12" t="n">
+        <v>18</v>
+      </c>
+      <c r="B1379" s="12" t="s">
+        <v>2789</v>
+      </c>
+      <c r="C1379" s="12" t="s">
+        <v>2790</v>
+      </c>
+      <c r="D1379" s="12" t="s">
+        <v>2725</v>
+      </c>
+      <c r="E1379" s="12" t="s">
+        <v>2791</v>
+      </c>
+      <c r="F1379" s="12" t="s">
+        <v>2727</v>
+      </c>
+    </row>
+    <row r="1380" customFormat="false" ht="61.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1380" s="12" t="n">
+        <v>18</v>
+      </c>
+      <c r="B1380" s="12" t="s">
+        <v>2792</v>
+      </c>
+      <c r="C1380" s="12" t="s">
+        <v>2793</v>
+      </c>
+      <c r="D1380" s="12" t="s">
+        <v>2725</v>
+      </c>
+      <c r="E1380" s="12" t="s">
+        <v>2794</v>
+      </c>
+      <c r="F1380" s="12" t="s">
+        <v>2727</v>
+      </c>
+    </row>
+    <row r="1381" customFormat="false" ht="61.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1381" s="12" t="n">
+        <v>18</v>
+      </c>
+      <c r="B1381" s="12" t="s">
+        <v>2795</v>
+      </c>
+      <c r="C1381" s="12" t="s">
+        <v>2796</v>
+      </c>
+      <c r="D1381" s="12" t="s">
+        <v>2725</v>
+      </c>
+      <c r="E1381" s="12" t="s">
+        <v>2797</v>
+      </c>
+      <c r="F1381" s="12" t="s">
+        <v>2727</v>
+      </c>
+    </row>
+    <row r="1382" customFormat="false" ht="61.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1382" s="12" t="n">
+        <v>18</v>
+      </c>
+      <c r="B1382" s="12" t="s">
+        <v>2798</v>
+      </c>
+      <c r="C1382" s="12" t="s">
+        <v>2799</v>
+      </c>
+      <c r="D1382" s="12" t="s">
+        <v>2725</v>
+      </c>
+      <c r="E1382" s="12" t="s">
+        <v>2800</v>
+      </c>
+      <c r="F1382" s="12" t="s">
+        <v>2727</v>
+      </c>
+    </row>
+    <row r="1383" customFormat="false" ht="61.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1383" s="12" t="n">
+        <v>18</v>
+      </c>
+      <c r="B1383" s="12" t="s">
+        <v>2801</v>
+      </c>
+      <c r="C1383" s="12" t="s">
+        <v>2802</v>
+      </c>
+      <c r="D1383" s="12" t="s">
+        <v>2725</v>
+      </c>
+      <c r="E1383" s="12" t="s">
+        <v>2803</v>
+      </c>
+      <c r="F1383" s="12" t="s">
+        <v>2727</v>
+      </c>
+    </row>
+    <row r="1384" customFormat="false" ht="61.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1384" s="12" t="n">
+        <v>18</v>
+      </c>
+      <c r="B1384" s="12" t="s">
+        <v>2804</v>
+      </c>
+      <c r="C1384" s="12" t="s">
+        <v>2805</v>
+      </c>
+      <c r="D1384" s="12" t="s">
+        <v>2725</v>
+      </c>
+      <c r="E1384" s="12" t="s">
+        <v>2803</v>
+      </c>
+      <c r="F1384" s="12" t="s">
+        <v>2727</v>
+      </c>
+    </row>
+    <row r="1385" customFormat="false" ht="61.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1385" s="12" t="n">
+        <v>18</v>
+      </c>
+      <c r="B1385" s="12" t="s">
+        <v>2806</v>
+      </c>
+      <c r="C1385" s="12" t="s">
+        <v>2807</v>
+      </c>
+      <c r="D1385" s="12" t="s">
+        <v>2725</v>
+      </c>
+      <c r="E1385" s="12" t="s">
+        <v>2808</v>
+      </c>
+      <c r="F1385" s="12" t="s">
+        <v>2727</v>
+      </c>
+    </row>
+    <row r="1386" customFormat="false" ht="61.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1386" s="12" t="n">
+        <v>18</v>
+      </c>
+      <c r="B1386" s="12" t="s">
+        <v>2809</v>
+      </c>
+      <c r="C1386" s="12" t="s">
+        <v>2810</v>
+      </c>
+      <c r="D1386" s="12" t="s">
+        <v>2725</v>
+      </c>
+      <c r="E1386" s="12" t="s">
+        <v>2803</v>
+      </c>
+      <c r="F1386" s="12" t="s">
+        <v>2727</v>
+      </c>
+    </row>
+    <row r="1387" customFormat="false" ht="61.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1387" s="12" t="n">
+        <v>18</v>
+      </c>
+      <c r="B1387" s="12" t="s">
+        <v>2811</v>
+      </c>
+      <c r="C1387" s="12" t="s">
+        <v>2812</v>
+      </c>
+      <c r="D1387" s="12" t="s">
+        <v>2725</v>
+      </c>
+      <c r="E1387" s="12" t="s">
+        <v>2734</v>
+      </c>
+      <c r="F1387" s="12" t="s">
+        <v>2727</v>
+      </c>
+    </row>
+    <row r="1388" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1388" s="12" t="n">
+        <v>18</v>
+      </c>
+      <c r="B1388" s="12" t="s">
+        <v>2813</v>
+      </c>
+      <c r="C1388" s="12" t="s">
+        <v>2814</v>
+      </c>
+      <c r="D1388" s="12" t="s">
+        <v>2725</v>
+      </c>
+      <c r="E1388" s="12" t="s">
+        <v>2741</v>
+      </c>
+      <c r="F1388" s="12" t="s">
+        <v>2727</v>
+      </c>
+    </row>
+    <row r="1389" customFormat="false" ht="61.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1389" s="12" t="n">
+        <v>18</v>
+      </c>
+      <c r="B1389" s="12" t="s">
+        <v>2815</v>
+      </c>
+      <c r="C1389" s="12" t="s">
+        <v>2816</v>
+      </c>
+      <c r="D1389" s="12" t="s">
+        <v>2725</v>
+      </c>
+      <c r="E1389" s="12" t="s">
+        <v>2741</v>
+      </c>
+      <c r="F1389" s="12" t="s">
+        <v>2727</v>
+      </c>
+    </row>
+    <row r="1390" customFormat="false" ht="61.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1390" s="12" t="n">
+        <v>18</v>
+      </c>
+      <c r="B1390" s="12" t="s">
+        <v>2817</v>
+      </c>
+      <c r="C1390" s="12" t="s">
+        <v>2818</v>
+      </c>
+      <c r="D1390" s="12" t="s">
+        <v>2725</v>
+      </c>
+      <c r="E1390" s="12" t="s">
+        <v>2783</v>
+      </c>
+      <c r="F1390" s="12" t="s">
+        <v>2727</v>
+      </c>
+    </row>
+    <row r="1391" customFormat="false" ht="61.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1391" s="12" t="n">
+        <v>18</v>
+      </c>
+      <c r="B1391" s="12" t="s">
+        <v>2819</v>
+      </c>
+      <c r="C1391" s="12" t="s">
+        <v>2820</v>
+      </c>
+      <c r="D1391" s="12" t="s">
+        <v>2725</v>
+      </c>
+      <c r="E1391" s="12" t="s">
+        <v>2783</v>
+      </c>
+      <c r="F1391" s="12" t="s">
+        <v>2727</v>
+      </c>
+    </row>
+    <row r="1392" customFormat="false" ht="61.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1392" s="12" t="n">
+        <v>18</v>
+      </c>
+      <c r="B1392" s="12" t="s">
+        <v>2821</v>
+      </c>
+      <c r="C1392" s="12" t="s">
+        <v>2822</v>
+      </c>
+      <c r="D1392" s="12" t="s">
+        <v>2725</v>
+      </c>
+      <c r="E1392" s="12" t="s">
+        <v>2786</v>
+      </c>
+      <c r="F1392" s="12" t="s">
+        <v>2727</v>
+      </c>
+    </row>
+    <row r="1393" customFormat="false" ht="61.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1393" s="12" t="n">
+        <v>18</v>
+      </c>
+      <c r="B1393" s="12" t="s">
+        <v>2823</v>
+      </c>
+      <c r="C1393" s="12" t="s">
+        <v>2824</v>
+      </c>
+      <c r="D1393" s="12" t="s">
+        <v>2725</v>
+      </c>
+      <c r="E1393" s="12" t="s">
+        <v>2791</v>
+      </c>
+      <c r="F1393" s="12" t="s">
+        <v>2727</v>
+      </c>
+    </row>
+    <row r="1394" customFormat="false" ht="61.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1394" s="12" t="n">
+        <v>18</v>
+      </c>
+      <c r="B1394" s="12" t="s">
+        <v>2825</v>
+      </c>
+      <c r="C1394" s="12" t="s">
+        <v>2826</v>
+      </c>
+      <c r="D1394" s="12" t="s">
+        <v>2725</v>
+      </c>
+      <c r="E1394" s="12" t="s">
+        <v>2791</v>
+      </c>
+      <c r="F1394" s="12" t="s">
+        <v>2727</v>
+      </c>
+    </row>
+    <row r="1395" customFormat="false" ht="61.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1395" s="12" t="n">
+        <v>18</v>
+      </c>
+      <c r="B1395" s="12" t="s">
+        <v>2827</v>
+      </c>
+      <c r="C1395" s="12" t="s">
+        <v>2828</v>
+      </c>
+      <c r="D1395" s="12" t="s">
+        <v>2725</v>
+      </c>
+      <c r="E1395" s="12" t="s">
+        <v>2794</v>
+      </c>
+      <c r="F1395" s="12" t="s">
+        <v>2727</v>
+      </c>
+    </row>
+    <row r="1396" customFormat="false" ht="61.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1396" s="12" t="n">
+        <v>18</v>
+      </c>
+      <c r="B1396" s="12" t="s">
+        <v>2829</v>
+      </c>
+      <c r="C1396" s="12" t="s">
+        <v>2830</v>
+      </c>
+      <c r="D1396" s="12" t="s">
+        <v>2725</v>
+      </c>
+      <c r="E1396" s="12" t="s">
+        <v>2791</v>
+      </c>
+      <c r="F1396" s="12" t="s">
+        <v>2727</v>
+      </c>
+    </row>
+    <row r="1397" customFormat="false" ht="61.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1397" s="12" t="n">
+        <v>18</v>
+      </c>
+      <c r="B1397" s="12" t="s">
+        <v>2831</v>
+      </c>
+      <c r="C1397" s="12" t="s">
+        <v>2832</v>
+      </c>
+      <c r="D1397" s="12" t="s">
+        <v>2725</v>
+      </c>
+      <c r="E1397" s="12" t="s">
+        <v>2833</v>
+      </c>
+      <c r="F1397" s="12" t="s">
+        <v>2727</v>
+      </c>
+    </row>
+    <row r="1398" customFormat="false" ht="61.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1398" s="12" t="n">
+        <v>18</v>
+      </c>
+      <c r="B1398" s="12" t="s">
+        <v>2834</v>
+      </c>
+      <c r="C1398" s="12" t="s">
+        <v>2835</v>
+      </c>
+      <c r="D1398" s="12" t="s">
+        <v>2725</v>
+      </c>
+      <c r="E1398" s="12" t="s">
+        <v>2797</v>
+      </c>
+      <c r="F1398" s="12" t="s">
+        <v>2727</v>
+      </c>
+    </row>
+    <row r="1399" customFormat="false" ht="61.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1399" s="12" t="n">
+        <v>18</v>
+      </c>
+      <c r="B1399" s="12" t="s">
+        <v>2836</v>
+      </c>
+      <c r="C1399" s="12" t="s">
+        <v>2837</v>
+      </c>
+      <c r="D1399" s="12" t="s">
+        <v>2725</v>
+      </c>
+      <c r="E1399" s="12" t="s">
+        <v>2797</v>
+      </c>
+      <c r="F1399" s="12" t="s">
+        <v>2727</v>
+      </c>
+    </row>
+    <row r="1400" customFormat="false" ht="61.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1400" s="12" t="n">
+        <v>18</v>
+      </c>
+      <c r="B1400" s="12" t="s">
+        <v>2838</v>
+      </c>
+      <c r="C1400" s="12" t="s">
+        <v>2839</v>
+      </c>
+      <c r="D1400" s="12" t="s">
+        <v>2725</v>
+      </c>
+      <c r="E1400" s="12" t="s">
+        <v>2776</v>
+      </c>
+      <c r="F1400" s="12" t="s">
+        <v>2727</v>
+      </c>
+    </row>
+    <row r="1401" customFormat="false" ht="61.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1401" s="12" t="n">
+        <v>18</v>
+      </c>
+      <c r="B1401" s="12" t="s">
+        <v>2840</v>
+      </c>
+      <c r="C1401" s="12" t="s">
+        <v>2841</v>
+      </c>
+      <c r="D1401" s="12" t="s">
+        <v>2725</v>
+      </c>
+      <c r="E1401" s="12" t="s">
+        <v>2783</v>
+      </c>
+      <c r="F1401" s="12" t="s">
+        <v>2727</v>
+      </c>
+    </row>
+    <row r="1402" customFormat="false" ht="61.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1402" s="12" t="n">
+        <v>18</v>
+      </c>
+      <c r="B1402" s="12" t="s">
+        <v>2842</v>
+      </c>
+      <c r="C1402" s="12" t="s">
+        <v>2843</v>
+      </c>
+      <c r="D1402" s="12" t="s">
+        <v>2725</v>
+      </c>
+      <c r="E1402" s="12" t="s">
+        <v>2797</v>
+      </c>
+      <c r="F1402" s="12" t="s">
+        <v>2727</v>
+      </c>
+    </row>
+    <row r="1403" customFormat="false" ht="61.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1403" s="12" t="n">
+        <v>18</v>
+      </c>
+      <c r="B1403" s="12" t="s">
+        <v>2844</v>
+      </c>
+      <c r="C1403" s="12" t="s">
+        <v>2845</v>
+      </c>
+      <c r="D1403" s="12" t="s">
+        <v>2725</v>
+      </c>
+      <c r="E1403" s="12" t="s">
+        <v>2797</v>
+      </c>
+      <c r="F1403" s="12" t="s">
+        <v>2727</v>
+      </c>
+    </row>
+    <row r="1404" customFormat="false" ht="61.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1404" s="12" t="n">
+        <v>18</v>
+      </c>
+      <c r="B1404" s="12" t="s">
+        <v>2846</v>
+      </c>
+      <c r="C1404" s="12" t="s">
+        <v>2847</v>
+      </c>
+      <c r="D1404" s="12" t="s">
+        <v>2725</v>
+      </c>
+      <c r="E1404" s="12" t="s">
+        <v>2791</v>
+      </c>
+      <c r="F1404" s="12" t="s">
+        <v>2727</v>
+      </c>
+    </row>
+    <row r="1405" customFormat="false" ht="61.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1405" s="12" t="n">
+        <v>18</v>
+      </c>
+      <c r="B1405" s="12" t="s">
+        <v>2848</v>
+      </c>
+      <c r="C1405" s="12" t="s">
+        <v>2849</v>
+      </c>
+      <c r="D1405" s="12" t="s">
+        <v>2725</v>
+      </c>
+      <c r="E1405" s="12" t="s">
+        <v>2803</v>
+      </c>
+      <c r="F1405" s="12" t="s">
+        <v>2727</v>
+      </c>
+    </row>
+    <row r="1406" customFormat="false" ht="61.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1406" s="12" t="n">
+        <v>18</v>
+      </c>
+      <c r="B1406" s="12" t="s">
+        <v>2850</v>
+      </c>
+      <c r="C1406" s="12" t="s">
+        <v>2851</v>
+      </c>
+      <c r="D1406" s="12" t="s">
+        <v>2725</v>
+      </c>
+      <c r="E1406" s="12" t="s">
+        <v>2803</v>
+      </c>
+      <c r="F1406" s="12" t="s">
+        <v>2727</v>
+      </c>
+    </row>
+    <row r="1407" customFormat="false" ht="121.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1407" s="12" t="n">
+        <v>18</v>
+      </c>
+      <c r="B1407" s="12" t="s">
+        <v>2852</v>
+      </c>
+      <c r="C1407" s="12" t="s">
+        <v>2853</v>
+      </c>
+      <c r="D1407" s="12" t="s">
+        <v>2725</v>
+      </c>
+      <c r="E1407" s="12" t="s">
+        <v>2854</v>
+      </c>
+      <c r="F1407" s="12" t="s">
+        <v>2855</v>
+      </c>
+    </row>
+    <row r="1408" customFormat="false" ht="121.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1408" s="12" t="n">
+        <v>18</v>
+      </c>
+      <c r="B1408" s="12" t="s">
+        <v>2856</v>
+      </c>
+      <c r="C1408" s="12" t="s">
+        <v>2857</v>
+      </c>
+      <c r="D1408" s="12" t="s">
+        <v>2725</v>
+      </c>
+      <c r="E1408" s="12" t="s">
+        <v>2854</v>
+      </c>
+      <c r="F1408" s="12" t="s">
+        <v>2855</v>
+      </c>
+    </row>
+    <row r="1409" customFormat="false" ht="121.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1409" s="12" t="n">
+        <v>18</v>
+      </c>
+      <c r="B1409" s="12" t="s">
+        <v>2858</v>
+      </c>
+      <c r="C1409" s="12" t="s">
+        <v>2859</v>
+      </c>
+      <c r="D1409" s="12" t="s">
+        <v>2725</v>
+      </c>
+      <c r="E1409" s="12" t="s">
+        <v>2854</v>
+      </c>
+      <c r="F1409" s="12" t="s">
+        <v>2855</v>
+      </c>
+    </row>
+    <row r="1410" customFormat="false" ht="121.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1410" s="12" t="n">
+        <v>18</v>
+      </c>
+      <c r="B1410" s="12" t="s">
+        <v>2860</v>
+      </c>
+      <c r="C1410" s="12" t="s">
+        <v>2861</v>
+      </c>
+      <c r="D1410" s="12" t="s">
+        <v>2725</v>
+      </c>
+      <c r="E1410" s="12" t="s">
+        <v>2854</v>
+      </c>
+      <c r="F1410" s="12" t="s">
+        <v>2855</v>
+      </c>
+    </row>
+    <row r="1411" customFormat="false" ht="121.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1411" s="12" t="n">
+        <v>18</v>
+      </c>
+      <c r="B1411" s="12" t="s">
+        <v>2862</v>
+      </c>
+      <c r="C1411" s="12" t="s">
+        <v>2863</v>
+      </c>
+      <c r="D1411" s="12" t="s">
+        <v>2725</v>
+      </c>
+      <c r="E1411" s="12" t="s">
+        <v>2864</v>
+      </c>
+      <c r="F1411" s="12" t="s">
+        <v>2855</v>
+      </c>
+    </row>
+    <row r="1412" customFormat="false" ht="121.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1412" s="12" t="n">
+        <v>18</v>
+      </c>
+      <c r="B1412" s="12" t="s">
+        <v>2865</v>
+      </c>
+      <c r="C1412" s="12" t="s">
+        <v>2866</v>
+      </c>
+      <c r="D1412" s="12" t="s">
+        <v>2725</v>
+      </c>
+      <c r="E1412" s="12" t="s">
+        <v>2864</v>
+      </c>
+      <c r="F1412" s="12" t="s">
+        <v>2855</v>
+      </c>
+    </row>
+    <row r="1413" customFormat="false" ht="121.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1413" s="12" t="n">
+        <v>18</v>
+      </c>
+      <c r="B1413" s="12" t="s">
+        <v>2867</v>
+      </c>
+      <c r="C1413" s="12" t="s">
+        <v>2868</v>
+      </c>
+      <c r="D1413" s="12" t="s">
+        <v>2725</v>
+      </c>
+      <c r="E1413" s="12" t="s">
+        <v>2864</v>
+      </c>
+      <c r="F1413" s="12" t="s">
+        <v>2855</v>
+      </c>
+    </row>
+    <row r="1414" customFormat="false" ht="121.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1414" s="12" t="n">
+        <v>18</v>
+      </c>
+      <c r="B1414" s="12" t="s">
+        <v>2869</v>
+      </c>
+      <c r="C1414" s="12" t="s">
+        <v>2870</v>
+      </c>
+      <c r="D1414" s="12" t="s">
+        <v>2725</v>
+      </c>
+      <c r="E1414" s="12" t="s">
+        <v>2871</v>
+      </c>
+      <c r="F1414" s="12" t="s">
+        <v>2855</v>
+      </c>
+    </row>
+    <row r="1415" customFormat="false" ht="121.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1415" s="12" t="n">
+        <v>18</v>
+      </c>
+      <c r="B1415" s="12" t="s">
+        <v>2872</v>
+      </c>
+      <c r="C1415" s="12" t="s">
+        <v>2873</v>
+      </c>
+      <c r="D1415" s="12" t="s">
+        <v>2725</v>
+      </c>
+      <c r="E1415" s="12" t="s">
+        <v>2864</v>
+      </c>
+      <c r="F1415" s="12" t="s">
+        <v>2855</v>
+      </c>
+    </row>
+    <row r="1416" customFormat="false" ht="121.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1416" s="12" t="n">
+        <v>18</v>
+      </c>
+      <c r="B1416" s="12" t="s">
+        <v>2874</v>
+      </c>
+      <c r="C1416" s="12" t="s">
+        <v>2875</v>
+      </c>
+      <c r="D1416" s="12" t="s">
+        <v>2725</v>
+      </c>
+      <c r="E1416" s="12" t="s">
+        <v>2864</v>
+      </c>
+      <c r="F1416" s="12" t="s">
+        <v>2855</v>
+      </c>
+    </row>
+    <row r="1417" customFormat="false" ht="121.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1417" s="12" t="n">
+        <v>18</v>
+      </c>
+      <c r="B1417" s="12" t="s">
+        <v>2876</v>
+      </c>
+      <c r="C1417" s="12" t="s">
+        <v>2877</v>
+      </c>
+      <c r="D1417" s="12" t="s">
+        <v>2725</v>
+      </c>
+      <c r="E1417" s="12" t="s">
+        <v>2864</v>
+      </c>
+      <c r="F1417" s="12" t="s">
+        <v>2855</v>
+      </c>
+    </row>
+    <row r="1418" customFormat="false" ht="121.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1418" s="12" t="n">
+        <v>18</v>
+      </c>
+      <c r="B1418" s="12" t="s">
+        <v>2878</v>
+      </c>
+      <c r="C1418" s="12" t="s">
+        <v>2879</v>
+      </c>
+      <c r="D1418" s="12" t="s">
+        <v>2725</v>
+      </c>
+      <c r="E1418" s="12" t="s">
+        <v>2864</v>
+      </c>
+      <c r="F1418" s="12" t="s">
+        <v>2855</v>
+      </c>
+    </row>
+    <row r="1419" customFormat="false" ht="121.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1419" s="12" t="n">
+        <v>18</v>
+      </c>
+      <c r="B1419" s="12" t="s">
+        <v>2880</v>
+      </c>
+      <c r="C1419" s="12" t="s">
+        <v>2881</v>
+      </c>
+      <c r="D1419" s="12" t="s">
+        <v>2725</v>
+      </c>
+      <c r="E1419" s="12" t="s">
+        <v>2882</v>
+      </c>
+      <c r="F1419" s="12" t="s">
+        <v>2855</v>
+      </c>
+    </row>
+    <row r="1420" customFormat="false" ht="121.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1420" s="12" t="n">
+        <v>18</v>
+      </c>
+      <c r="B1420" s="12" t="s">
+        <v>2883</v>
+      </c>
+      <c r="C1420" s="12" t="s">
+        <v>2884</v>
+      </c>
+      <c r="D1420" s="12" t="s">
+        <v>2725</v>
+      </c>
+      <c r="E1420" s="12" t="s">
+        <v>2882</v>
+      </c>
+      <c r="F1420" s="12" t="s">
+        <v>2855</v>
+      </c>
+    </row>
+    <row r="1421" customFormat="false" ht="121.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1421" s="12" t="n">
+        <v>18</v>
+      </c>
+      <c r="B1421" s="12" t="s">
+        <v>2885</v>
+      </c>
+      <c r="C1421" s="12" t="s">
+        <v>2886</v>
+      </c>
+      <c r="D1421" s="12" t="s">
+        <v>2725</v>
+      </c>
+      <c r="E1421" s="12" t="s">
+        <v>2882</v>
+      </c>
+      <c r="F1421" s="12" t="s">
+        <v>2855</v>
+      </c>
+    </row>
+    <row r="1422" customFormat="false" ht="121.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1422" s="12" t="n">
+        <v>18</v>
+      </c>
+      <c r="B1422" s="12" t="s">
+        <v>2887</v>
+      </c>
+      <c r="C1422" s="12" t="s">
+        <v>2888</v>
+      </c>
+      <c r="D1422" s="12" t="s">
+        <v>2725</v>
+      </c>
+      <c r="E1422" s="12" t="s">
+        <v>2882</v>
+      </c>
+      <c r="F1422" s="12" t="s">
+        <v>2855</v>
+      </c>
+    </row>
+    <row r="1423" customFormat="false" ht="121.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1423" s="12" t="n">
+        <v>18</v>
+      </c>
+      <c r="B1423" s="12" t="s">
+        <v>2889</v>
+      </c>
+      <c r="C1423" s="12" t="s">
+        <v>2890</v>
+      </c>
+      <c r="D1423" s="12" t="s">
+        <v>2725</v>
+      </c>
+      <c r="E1423" s="12" t="s">
+        <v>2882</v>
+      </c>
+      <c r="F1423" s="12" t="s">
+        <v>2855</v>
+      </c>
+    </row>
+    <row r="1424" customFormat="false" ht="121.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1424" s="12" t="n">
+        <v>18</v>
+      </c>
+      <c r="B1424" s="12" t="s">
+        <v>2891</v>
+      </c>
+      <c r="C1424" s="12" t="s">
+        <v>2892</v>
+      </c>
+      <c r="D1424" s="12" t="s">
+        <v>2725</v>
+      </c>
+      <c r="E1424" s="12" t="s">
+        <v>2871</v>
+      </c>
+      <c r="F1424" s="12" t="s">
+        <v>2855</v>
+      </c>
+    </row>
+    <row r="1425" customFormat="false" ht="121.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1425" s="12" t="n">
+        <v>18</v>
+      </c>
+      <c r="B1425" s="12" t="s">
+        <v>2893</v>
+      </c>
+      <c r="C1425" s="12" t="s">
+        <v>2894</v>
+      </c>
+      <c r="D1425" s="12" t="s">
+        <v>2725</v>
+      </c>
+      <c r="E1425" s="12" t="s">
+        <v>2871</v>
+      </c>
+      <c r="F1425" s="12" t="s">
+        <v>2855</v>
+      </c>
+    </row>
+    <row r="1426" customFormat="false" ht="121.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1426" s="12" t="n">
+        <v>18</v>
+      </c>
+      <c r="B1426" s="12" t="s">
+        <v>2895</v>
+      </c>
+      <c r="C1426" s="12" t="s">
+        <v>2896</v>
+      </c>
+      <c r="D1426" s="12" t="s">
+        <v>2725</v>
+      </c>
+      <c r="E1426" s="12" t="s">
+        <v>2871</v>
+      </c>
+      <c r="F1426" s="12" t="s">
+        <v>2855</v>
+      </c>
+    </row>
+    <row r="1427" customFormat="false" ht="121.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1427" s="12" t="n">
+        <v>18</v>
+      </c>
+      <c r="B1427" s="12" t="s">
+        <v>2897</v>
+      </c>
+      <c r="C1427" s="12" t="s">
+        <v>2898</v>
+      </c>
+      <c r="D1427" s="12" t="s">
+        <v>2725</v>
+      </c>
+      <c r="E1427" s="12" t="s">
+        <v>2899</v>
+      </c>
+      <c r="F1427" s="12" t="s">
+        <v>2855</v>
+      </c>
+    </row>
+    <row r="1428" customFormat="false" ht="121.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1428" s="12" t="n">
+        <v>18</v>
+      </c>
+      <c r="B1428" s="12" t="s">
+        <v>2900</v>
+      </c>
+      <c r="C1428" s="12" t="s">
+        <v>2901</v>
+      </c>
+      <c r="D1428" s="12" t="s">
+        <v>2725</v>
+      </c>
+      <c r="E1428" s="12" t="s">
+        <v>2899</v>
+      </c>
+      <c r="F1428" s="12" t="s">
+        <v>2855</v>
+      </c>
+    </row>
+    <row r="1429" customFormat="false" ht="121.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1429" s="12" t="n">
+        <v>18</v>
+      </c>
+      <c r="B1429" s="12" t="s">
+        <v>2902</v>
+      </c>
+      <c r="C1429" s="12" t="s">
+        <v>2903</v>
+      </c>
+      <c r="D1429" s="12" t="s">
+        <v>2725</v>
+      </c>
+      <c r="E1429" s="12" t="s">
+        <v>2899</v>
+      </c>
+      <c r="F1429" s="12" t="s">
+        <v>2855</v>
+      </c>
+    </row>
+    <row r="1430" customFormat="false" ht="121.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1430" s="12" t="n">
+        <v>18</v>
+      </c>
+      <c r="B1430" s="12" t="s">
+        <v>2904</v>
+      </c>
+      <c r="C1430" s="12" t="s">
+        <v>2905</v>
+      </c>
+      <c r="D1430" s="12" t="s">
+        <v>2725</v>
+      </c>
+      <c r="E1430" s="12" t="s">
+        <v>2899</v>
+      </c>
+      <c r="F1430" s="12" t="s">
+        <v>2855</v>
+      </c>
+    </row>
+    <row r="1431" customFormat="false" ht="121.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1431" s="12" t="n">
+        <v>18</v>
+      </c>
+      <c r="B1431" s="12" t="s">
+        <v>2906</v>
+      </c>
+      <c r="C1431" s="12" t="s">
+        <v>2907</v>
+      </c>
+      <c r="D1431" s="12" t="s">
+        <v>2725</v>
+      </c>
+      <c r="E1431" s="12" t="s">
+        <v>2899</v>
+      </c>
+      <c r="F1431" s="12" t="s">
+        <v>2855</v>
+      </c>
+    </row>
+    <row r="1432" customFormat="false" ht="121.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1432" s="12" t="n">
+        <v>18</v>
+      </c>
+      <c r="B1432" s="12" t="s">
+        <v>2908</v>
+      </c>
+      <c r="C1432" s="12" t="s">
+        <v>2909</v>
+      </c>
+      <c r="D1432" s="12" t="s">
+        <v>2725</v>
+      </c>
+      <c r="E1432" s="12" t="s">
+        <v>2910</v>
+      </c>
+      <c r="F1432" s="12" t="s">
+        <v>2855</v>
+      </c>
+    </row>
+    <row r="1433" customFormat="false" ht="121.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1433" s="12" t="n">
+        <v>18</v>
+      </c>
+      <c r="B1433" s="12" t="s">
+        <v>2911</v>
+      </c>
+      <c r="C1433" s="12" t="s">
+        <v>2912</v>
+      </c>
+      <c r="D1433" s="12" t="s">
+        <v>2725</v>
+      </c>
+      <c r="E1433" s="12" t="s">
+        <v>2910</v>
+      </c>
+      <c r="F1433" s="12" t="s">
+        <v>2855</v>
+      </c>
+    </row>
+    <row r="1434" customFormat="false" ht="121.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1434" s="12" t="n">
+        <v>18</v>
+      </c>
+      <c r="B1434" s="12" t="s">
+        <v>2913</v>
+      </c>
+      <c r="C1434" s="12" t="s">
+        <v>2914</v>
+      </c>
+      <c r="D1434" s="12" t="s">
+        <v>2725</v>
+      </c>
+      <c r="E1434" s="12" t="s">
+        <v>2910</v>
+      </c>
+      <c r="F1434" s="12" t="s">
+        <v>2855</v>
+      </c>
+    </row>
+    <row r="1435" customFormat="false" ht="121.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1435" s="12" t="n">
+        <v>18</v>
+      </c>
+      <c r="B1435" s="12" t="s">
+        <v>2915</v>
+      </c>
+      <c r="C1435" s="12" t="s">
+        <v>2916</v>
+      </c>
+      <c r="D1435" s="12" t="s">
+        <v>2725</v>
+      </c>
+      <c r="E1435" s="12" t="s">
+        <v>2910</v>
+      </c>
+      <c r="F1435" s="12" t="s">
+        <v>2855</v>
+      </c>
+    </row>
+    <row r="1436" customFormat="false" ht="121.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1436" s="12" t="n">
+        <v>18</v>
+      </c>
+      <c r="B1436" s="12" t="s">
+        <v>2917</v>
+      </c>
+      <c r="C1436" s="12" t="s">
+        <v>2918</v>
+      </c>
+      <c r="D1436" s="12" t="s">
+        <v>2725</v>
+      </c>
+      <c r="E1436" s="12" t="s">
+        <v>2910</v>
+      </c>
+      <c r="F1436" s="12" t="s">
+        <v>2855</v>
+      </c>
+    </row>
+    <row r="1437" customFormat="false" ht="121.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1437" s="12" t="n">
+        <v>18</v>
+      </c>
+      <c r="B1437" s="12" t="s">
+        <v>2919</v>
+      </c>
+      <c r="C1437" s="12" t="s">
+        <v>2920</v>
+      </c>
+      <c r="D1437" s="12" t="s">
+        <v>2725</v>
+      </c>
+      <c r="E1437" s="12" t="s">
+        <v>2921</v>
+      </c>
+      <c r="F1437" s="12" t="s">
+        <v>2855</v>
+      </c>
+    </row>
+    <row r="1438" customFormat="false" ht="121.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1438" s="12" t="n">
+        <v>18</v>
+      </c>
+      <c r="B1438" s="12" t="s">
+        <v>2922</v>
+      </c>
+      <c r="C1438" s="12" t="s">
+        <v>2923</v>
+      </c>
+      <c r="D1438" s="12" t="s">
+        <v>2725</v>
+      </c>
+      <c r="E1438" s="12" t="s">
+        <v>2921</v>
+      </c>
+      <c r="F1438" s="12" t="s">
+        <v>2855</v>
+      </c>
+    </row>
+    <row r="1439" customFormat="false" ht="121.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1439" s="12" t="n">
+        <v>18</v>
+      </c>
+      <c r="B1439" s="12" t="s">
+        <v>2924</v>
+      </c>
+      <c r="C1439" s="12" t="s">
+        <v>2925</v>
+      </c>
+      <c r="D1439" s="12" t="s">
+        <v>2725</v>
+      </c>
+      <c r="E1439" s="12" t="s">
+        <v>2921</v>
+      </c>
+      <c r="F1439" s="12" t="s">
+        <v>2855</v>
+      </c>
+    </row>
+    <row r="1440" customFormat="false" ht="121.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1440" s="12" t="n">
+        <v>18</v>
+      </c>
+      <c r="B1440" s="12" t="s">
+        <v>2926</v>
+      </c>
+      <c r="C1440" s="12" t="s">
+        <v>2927</v>
+      </c>
+      <c r="D1440" s="12" t="s">
+        <v>2725</v>
+      </c>
+      <c r="E1440" s="12" t="s">
+        <v>2921</v>
+      </c>
+      <c r="F1440" s="12" t="s">
+        <v>2855</v>
+      </c>
+    </row>
+    <row r="1441" customFormat="false" ht="121.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1441" s="12" t="n">
+        <v>18</v>
+      </c>
+      <c r="B1441" s="12" t="s">
+        <v>2928</v>
+      </c>
+      <c r="C1441" s="12" t="s">
+        <v>2929</v>
+      </c>
+      <c r="D1441" s="12" t="s">
+        <v>2725</v>
+      </c>
+      <c r="E1441" s="12" t="s">
+        <v>2930</v>
+      </c>
+      <c r="F1441" s="12" t="s">
+        <v>2855</v>
+      </c>
+    </row>
+    <row r="1442" customFormat="false" ht="121.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1442" s="12" t="n">
+        <v>18</v>
+      </c>
+      <c r="B1442" s="12" t="s">
+        <v>2931</v>
+      </c>
+      <c r="C1442" s="12" t="s">
+        <v>2932</v>
+      </c>
+      <c r="D1442" s="12" t="s">
+        <v>2725</v>
+      </c>
+      <c r="E1442" s="12" t="s">
+        <v>2930</v>
+      </c>
+      <c r="F1442" s="12" t="s">
+        <v>2855</v>
+      </c>
+    </row>
+    <row r="1443" customFormat="false" ht="121.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1443" s="12" t="n">
+        <v>18</v>
+      </c>
+      <c r="B1443" s="12" t="s">
+        <v>2933</v>
+      </c>
+      <c r="C1443" s="12" t="s">
+        <v>2934</v>
+      </c>
+      <c r="D1443" s="12" t="s">
+        <v>2725</v>
+      </c>
+      <c r="E1443" s="12" t="s">
+        <v>2930</v>
+      </c>
+      <c r="F1443" s="12" t="s">
+        <v>2855</v>
+      </c>
+    </row>
+    <row r="1444" customFormat="false" ht="121.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1444" s="12" t="n">
+        <v>18</v>
+      </c>
+      <c r="B1444" s="12" t="s">
+        <v>2935</v>
+      </c>
+      <c r="C1444" s="12" t="s">
+        <v>2936</v>
+      </c>
+      <c r="D1444" s="12" t="s">
+        <v>2725</v>
+      </c>
+      <c r="E1444" s="12" t="s">
+        <v>2937</v>
+      </c>
+      <c r="F1444" s="12" t="s">
+        <v>2855</v>
+      </c>
+    </row>
+    <row r="1445" customFormat="false" ht="121.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1445" s="12" t="n">
+        <v>18</v>
+      </c>
+      <c r="B1445" s="12" t="s">
+        <v>2938</v>
+      </c>
+      <c r="C1445" s="12" t="s">
+        <v>2916</v>
+      </c>
+      <c r="D1445" s="12" t="s">
+        <v>2725</v>
+      </c>
+      <c r="E1445" s="12" t="s">
+        <v>2937</v>
+      </c>
+      <c r="F1445" s="12" t="s">
+        <v>2855</v>
+      </c>
+    </row>
+    <row r="1446" customFormat="false" ht="121.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1446" s="12" t="n">
+        <v>18</v>
+      </c>
+      <c r="B1446" s="12" t="s">
+        <v>2939</v>
+      </c>
+      <c r="C1446" s="12" t="s">
+        <v>2940</v>
+      </c>
+      <c r="D1446" s="12" t="s">
+        <v>2725</v>
+      </c>
+      <c r="E1446" s="12" t="s">
+        <v>2937</v>
+      </c>
+      <c r="F1446" s="12" t="s">
+        <v>2855</v>
+      </c>
+    </row>
+    <row r="1447" customFormat="false" ht="121.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1447" s="12" t="n">
+        <v>18</v>
+      </c>
+      <c r="B1447" s="12" t="s">
+        <v>2941</v>
+      </c>
+      <c r="C1447" s="12" t="s">
+        <v>2942</v>
+      </c>
+      <c r="D1447" s="12" t="s">
+        <v>2725</v>
+      </c>
+      <c r="E1447" s="12" t="s">
+        <v>2943</v>
+      </c>
+      <c r="F1447" s="12" t="s">
+        <v>2855</v>
+      </c>
+    </row>
+    <row r="1448" customFormat="false" ht="121.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1448" s="12" t="n">
+        <v>18</v>
+      </c>
+      <c r="B1448" s="12" t="s">
+        <v>2944</v>
+      </c>
+      <c r="C1448" s="12" t="s">
+        <v>2945</v>
+      </c>
+      <c r="D1448" s="12" t="s">
+        <v>2725</v>
+      </c>
+      <c r="E1448" s="12" t="s">
+        <v>2943</v>
+      </c>
+      <c r="F1448" s="12" t="s">
+        <v>2855</v>
+      </c>
+    </row>
+    <row r="1449" customFormat="false" ht="121.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1449" s="12" t="n">
+        <v>18</v>
+      </c>
+      <c r="B1449" s="12" t="s">
+        <v>2946</v>
+      </c>
+      <c r="C1449" s="12" t="s">
+        <v>2947</v>
+      </c>
+      <c r="D1449" s="12" t="s">
+        <v>2725</v>
+      </c>
+      <c r="E1449" s="12" t="s">
+        <v>2943</v>
+      </c>
+      <c r="F1449" s="12" t="s">
+        <v>2855</v>
+      </c>
+    </row>
+    <row r="1450" customFormat="false" ht="121.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1450" s="12" t="n">
+        <v>18</v>
+      </c>
+      <c r="B1450" s="12" t="s">
+        <v>2948</v>
+      </c>
+      <c r="C1450" s="12" t="s">
+        <v>2949</v>
+      </c>
+      <c r="D1450" s="12" t="s">
+        <v>2725</v>
+      </c>
+      <c r="E1450" s="12" t="s">
+        <v>2943</v>
+      </c>
+      <c r="F1450" s="12" t="s">
+        <v>2855</v>
+      </c>
+    </row>
+    <row r="1451" customFormat="false" ht="121.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1451" s="12" t="n">
+        <v>18</v>
+      </c>
+      <c r="B1451" s="12" t="s">
+        <v>2950</v>
+      </c>
+      <c r="C1451" s="12" t="s">
+        <v>2951</v>
+      </c>
+      <c r="D1451" s="12" t="s">
+        <v>2725</v>
+      </c>
+      <c r="E1451" s="12" t="s">
+        <v>2952</v>
+      </c>
+      <c r="F1451" s="12" t="s">
+        <v>2855</v>
+      </c>
+    </row>
+    <row r="1452" customFormat="false" ht="121.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1452" s="12" t="n">
+        <v>18</v>
+      </c>
+      <c r="B1452" s="12" t="s">
+        <v>2953</v>
+      </c>
+      <c r="C1452" s="12" t="s">
+        <v>2954</v>
+      </c>
+      <c r="D1452" s="12" t="s">
+        <v>2725</v>
+      </c>
+      <c r="E1452" s="12" t="s">
+        <v>2952</v>
+      </c>
+      <c r="F1452" s="12" t="s">
+        <v>2855</v>
+      </c>
+    </row>
+    <row r="1453" customFormat="false" ht="121.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1453" s="12" t="n">
+        <v>18</v>
+      </c>
+      <c r="B1453" s="12" t="s">
+        <v>2955</v>
+      </c>
+      <c r="C1453" s="12" t="s">
+        <v>2956</v>
+      </c>
+      <c r="D1453" s="12" t="s">
+        <v>2725</v>
+      </c>
+      <c r="E1453" s="12" t="s">
+        <v>2952</v>
+      </c>
+      <c r="F1453" s="12" t="s">
+        <v>2855</v>
+      </c>
+    </row>
+    <row r="1454" customFormat="false" ht="121.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1454" s="12" t="n">
+        <v>18</v>
+      </c>
+      <c r="B1454" s="12" t="s">
+        <v>2957</v>
+      </c>
+      <c r="C1454" s="12" t="s">
+        <v>2958</v>
+      </c>
+      <c r="D1454" s="12" t="s">
+        <v>2725</v>
+      </c>
+      <c r="E1454" s="12" t="s">
+        <v>2959</v>
+      </c>
+      <c r="F1454" s="12" t="s">
+        <v>2855</v>
+      </c>
+    </row>
+    <row r="1455" customFormat="false" ht="121.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1455" s="12" t="n">
+        <v>18</v>
+      </c>
+      <c r="B1455" s="12" t="s">
+        <v>2960</v>
+      </c>
+      <c r="C1455" s="12" t="s">
+        <v>2961</v>
+      </c>
+      <c r="D1455" s="12" t="s">
+        <v>2725</v>
+      </c>
+      <c r="E1455" s="12" t="s">
+        <v>2959</v>
+      </c>
+      <c r="F1455" s="12" t="s">
+        <v>2855</v>
+      </c>
+    </row>
+    <row r="1456" customFormat="false" ht="121.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1456" s="12" t="n">
+        <v>18</v>
+      </c>
+      <c r="B1456" s="12" t="s">
+        <v>2962</v>
+      </c>
+      <c r="C1456" s="12" t="s">
+        <v>2963</v>
+      </c>
+      <c r="D1456" s="12" t="s">
+        <v>2725</v>
+      </c>
+      <c r="E1456" s="12" t="s">
+        <v>2959</v>
+      </c>
+      <c r="F1456" s="12" t="s">
+        <v>2855</v>
+      </c>
+    </row>
+    <row r="1457" customFormat="false" ht="121.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1457" s="12" t="n">
+        <v>18</v>
+      </c>
+      <c r="B1457" s="12" t="s">
+        <v>2964</v>
+      </c>
+      <c r="C1457" s="12" t="s">
+        <v>2965</v>
+      </c>
+      <c r="D1457" s="12" t="s">
+        <v>2725</v>
+      </c>
+      <c r="E1457" s="12" t="s">
+        <v>2966</v>
+      </c>
+      <c r="F1457" s="12" t="s">
+        <v>2855</v>
+      </c>
+    </row>
+    <row r="1458" customFormat="false" ht="121.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1458" s="12" t="n">
+        <v>18</v>
+      </c>
+      <c r="B1458" s="12" t="s">
+        <v>2967</v>
+      </c>
+      <c r="C1458" s="12" t="s">
+        <v>2968</v>
+      </c>
+      <c r="D1458" s="12" t="s">
+        <v>2725</v>
+      </c>
+      <c r="E1458" s="12" t="s">
+        <v>2966</v>
+      </c>
+      <c r="F1458" s="12" t="s">
+        <v>2855</v>
+      </c>
+    </row>
+    <row r="1459" customFormat="false" ht="121.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1459" s="12" t="n">
+        <v>18</v>
+      </c>
+      <c r="B1459" s="12" t="s">
+        <v>2969</v>
+      </c>
+      <c r="C1459" s="12" t="s">
+        <v>2970</v>
+      </c>
+      <c r="D1459" s="12" t="s">
+        <v>2725</v>
+      </c>
+      <c r="E1459" s="12" t="s">
+        <v>2966</v>
+      </c>
+      <c r="F1459" s="12" t="s">
+        <v>2855</v>
+      </c>
+    </row>
+    <row r="1460" customFormat="false" ht="121.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1460" s="12" t="n">
+        <v>18</v>
+      </c>
+      <c r="B1460" s="12" t="s">
+        <v>2971</v>
+      </c>
+      <c r="C1460" s="12" t="s">
+        <v>2972</v>
+      </c>
+      <c r="D1460" s="12" t="s">
+        <v>2725</v>
+      </c>
+      <c r="E1460" s="12" t="s">
+        <v>2973</v>
+      </c>
+      <c r="F1460" s="12" t="s">
+        <v>2855</v>
+      </c>
+    </row>
+    <row r="1461" customFormat="false" ht="121.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1461" s="12" t="n">
+        <v>18</v>
+      </c>
+      <c r="B1461" s="12" t="s">
+        <v>2974</v>
+      </c>
+      <c r="C1461" s="12" t="s">
+        <v>2975</v>
+      </c>
+      <c r="D1461" s="12" t="s">
+        <v>2725</v>
+      </c>
+      <c r="E1461" s="12" t="s">
+        <v>2973</v>
+      </c>
+      <c r="F1461" s="12" t="s">
+        <v>2855</v>
+      </c>
+    </row>
+    <row r="1462" customFormat="false" ht="121.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1462" s="12" t="n">
+        <v>18</v>
+      </c>
+      <c r="B1462" s="12" t="s">
+        <v>2976</v>
+      </c>
+      <c r="C1462" s="12" t="s">
+        <v>2977</v>
+      </c>
+      <c r="D1462" s="12" t="s">
+        <v>2725</v>
+      </c>
+      <c r="E1462" s="12" t="s">
+        <v>2973</v>
+      </c>
+      <c r="F1462" s="12" t="s">
+        <v>2855</v>
+      </c>
+    </row>
+    <row r="1463" customFormat="false" ht="121.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1463" s="12" t="n">
+        <v>18</v>
+      </c>
+      <c r="B1463" s="12" t="s">
+        <v>2978</v>
+      </c>
+      <c r="C1463" s="12" t="s">
+        <v>2979</v>
+      </c>
+      <c r="D1463" s="12" t="s">
+        <v>2725</v>
+      </c>
+      <c r="E1463" s="12" t="s">
+        <v>2980</v>
+      </c>
+      <c r="F1463" s="12" t="s">
+        <v>2855</v>
+      </c>
+    </row>
+    <row r="1464" customFormat="false" ht="121.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1464" s="12" t="n">
+        <v>18</v>
+      </c>
+      <c r="B1464" s="12" t="s">
+        <v>2981</v>
+      </c>
+      <c r="C1464" s="12" t="s">
+        <v>2982</v>
+      </c>
+      <c r="D1464" s="12" t="s">
+        <v>2725</v>
+      </c>
+      <c r="E1464" s="12" t="s">
+        <v>2980</v>
+      </c>
+      <c r="F1464" s="12" t="s">
+        <v>2855</v>
+      </c>
+    </row>
+    <row r="1465" customFormat="false" ht="121.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1465" s="12" t="n">
+        <v>18</v>
+      </c>
+      <c r="B1465" s="12" t="s">
+        <v>2983</v>
+      </c>
+      <c r="C1465" s="12" t="s">
+        <v>2984</v>
+      </c>
+      <c r="D1465" s="12" t="s">
+        <v>2725</v>
+      </c>
+      <c r="E1465" s="12" t="s">
+        <v>2980</v>
+      </c>
+      <c r="F1465" s="12" t="s">
+        <v>2855</v>
+      </c>
+    </row>
+    <row r="1466" customFormat="false" ht="121.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1466" s="12" t="n">
+        <v>18</v>
+      </c>
+      <c r="B1466" s="12" t="s">
+        <v>2985</v>
+      </c>
+      <c r="C1466" s="12" t="s">
+        <v>2986</v>
+      </c>
+      <c r="D1466" s="12" t="s">
+        <v>2725</v>
+      </c>
+      <c r="E1466" s="12" t="s">
+        <v>2987</v>
+      </c>
+      <c r="F1466" s="12" t="s">
+        <v>2855</v>
+      </c>
+    </row>
+    <row r="1467" customFormat="false" ht="121.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1467" s="12" t="n">
+        <v>18</v>
+      </c>
+      <c r="B1467" s="12" t="s">
+        <v>2988</v>
+      </c>
+      <c r="C1467" s="12" t="s">
+        <v>2989</v>
+      </c>
+      <c r="D1467" s="12" t="s">
+        <v>2725</v>
+      </c>
+      <c r="E1467" s="12" t="s">
+        <v>2871</v>
+      </c>
+      <c r="F1467" s="12" t="s">
+        <v>2855</v>
+      </c>
+    </row>
+    <row r="1468" customFormat="false" ht="121.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1468" s="12" t="n">
+        <v>18</v>
+      </c>
+      <c r="B1468" s="12" t="s">
+        <v>2990</v>
+      </c>
+      <c r="C1468" s="12" t="s">
+        <v>2991</v>
+      </c>
+      <c r="D1468" s="12" t="s">
+        <v>2725</v>
+      </c>
+      <c r="E1468" s="12" t="s">
+        <v>2987</v>
+      </c>
+      <c r="F1468" s="12" t="s">
+        <v>2855</v>
+      </c>
+    </row>
+    <row r="1469" customFormat="false" ht="121.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1469" s="12" t="n">
+        <v>18</v>
+      </c>
+      <c r="B1469" s="12" t="s">
+        <v>2992</v>
+      </c>
+      <c r="C1469" s="12" t="s">
+        <v>2993</v>
+      </c>
+      <c r="D1469" s="12" t="s">
+        <v>2725</v>
+      </c>
+      <c r="E1469" s="12" t="s">
+        <v>2994</v>
+      </c>
+      <c r="F1469" s="12" t="s">
+        <v>2855</v>
+      </c>
+    </row>
+    <row r="1470" customFormat="false" ht="121.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1470" s="12" t="n">
+        <v>18</v>
+      </c>
+      <c r="B1470" s="12" t="s">
+        <v>2995</v>
+      </c>
+      <c r="C1470" s="12" t="s">
+        <v>2996</v>
+      </c>
+      <c r="D1470" s="12" t="s">
+        <v>2725</v>
+      </c>
+      <c r="E1470" s="12" t="s">
+        <v>2994</v>
+      </c>
+      <c r="F1470" s="12" t="s">
+        <v>2855</v>
+      </c>
+    </row>
+    <row r="1471" customFormat="false" ht="121.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1471" s="12" t="n">
+        <v>18</v>
+      </c>
+      <c r="B1471" s="12" t="s">
+        <v>2997</v>
+      </c>
+      <c r="C1471" s="12" t="s">
+        <v>2998</v>
+      </c>
+      <c r="D1471" s="12" t="s">
+        <v>2725</v>
+      </c>
+      <c r="E1471" s="12" t="s">
+        <v>2994</v>
+      </c>
+      <c r="F1471" s="12" t="s">
+        <v>2855</v>
+      </c>
+    </row>
+    <row r="1472" customFormat="false" ht="121.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1472" s="12" t="n">
+        <v>18</v>
+      </c>
+      <c r="B1472" s="12" t="s">
+        <v>2999</v>
+      </c>
+      <c r="C1472" s="12" t="s">
+        <v>3000</v>
+      </c>
+      <c r="D1472" s="12" t="s">
+        <v>2725</v>
+      </c>
+      <c r="E1472" s="12" t="s">
+        <v>3001</v>
+      </c>
+      <c r="F1472" s="12" t="s">
+        <v>2855</v>
+      </c>
+    </row>
+    <row r="1473" customFormat="false" ht="121.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1473" s="12" t="n">
+        <v>18</v>
+      </c>
+      <c r="B1473" s="12" t="s">
+        <v>3002</v>
+      </c>
+      <c r="C1473" s="12" t="s">
+        <v>3003</v>
+      </c>
+      <c r="D1473" s="12" t="s">
+        <v>2725</v>
+      </c>
+      <c r="E1473" s="12" t="s">
+        <v>3001</v>
+      </c>
+      <c r="F1473" s="12" t="s">
+        <v>2855</v>
+      </c>
+    </row>
+    <row r="1474" customFormat="false" ht="121.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1474" s="12" t="n">
+        <v>18</v>
+      </c>
+      <c r="B1474" s="12" t="s">
+        <v>3004</v>
+      </c>
+      <c r="C1474" s="12" t="s">
+        <v>3005</v>
+      </c>
+      <c r="D1474" s="12" t="s">
+        <v>2725</v>
+      </c>
+      <c r="E1474" s="12" t="s">
+        <v>3001</v>
+      </c>
+      <c r="F1474" s="12" t="s">
+        <v>2855</v>
+      </c>
+    </row>
+    <row r="1475" customFormat="false" ht="121.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1475" s="12" t="n">
+        <v>18</v>
+      </c>
+      <c r="B1475" s="12" t="s">
+        <v>3006</v>
+      </c>
+      <c r="C1475" s="12" t="s">
+        <v>3007</v>
+      </c>
+      <c r="D1475" s="12" t="s">
+        <v>2725</v>
+      </c>
+      <c r="E1475" s="12" t="s">
+        <v>3008</v>
+      </c>
+      <c r="F1475" s="12" t="s">
+        <v>2855</v>
+      </c>
+    </row>
+    <row r="1476" customFormat="false" ht="121.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1476" s="12" t="n">
+        <v>18</v>
+      </c>
+      <c r="B1476" s="12" t="s">
+        <v>3009</v>
+      </c>
+      <c r="C1476" s="12" t="s">
+        <v>3010</v>
+      </c>
+      <c r="D1476" s="12" t="s">
+        <v>2725</v>
+      </c>
+      <c r="E1476" s="12" t="s">
+        <v>3008</v>
+      </c>
+      <c r="F1476" s="12" t="s">
+        <v>2855</v>
+      </c>
+    </row>
+    <row r="1477" customFormat="false" ht="121.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1477" s="12" t="n">
+        <v>18</v>
+      </c>
+      <c r="B1477" s="12" t="s">
+        <v>3011</v>
+      </c>
+      <c r="C1477" s="12" t="s">
+        <v>3012</v>
+      </c>
+      <c r="D1477" s="12" t="s">
+        <v>2725</v>
+      </c>
+      <c r="E1477" s="12" t="s">
+        <v>3008</v>
+      </c>
+      <c r="F1477" s="12" t="s">
+        <v>2855</v>
+      </c>
+    </row>
+    <row r="1478" customFormat="false" ht="121.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1478" s="12" t="n">
+        <v>18</v>
+      </c>
+      <c r="B1478" s="12" t="s">
+        <v>3013</v>
+      </c>
+      <c r="C1478" s="12" t="s">
+        <v>3014</v>
+      </c>
+      <c r="D1478" s="12" t="s">
+        <v>2725</v>
+      </c>
+      <c r="E1478" s="12" t="s">
+        <v>3015</v>
+      </c>
+      <c r="F1478" s="12" t="s">
+        <v>2855</v>
+      </c>
+    </row>
+    <row r="1479" customFormat="false" ht="121.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1479" s="12" t="n">
+        <v>18</v>
+      </c>
+      <c r="B1479" s="12" t="s">
+        <v>3016</v>
+      </c>
+      <c r="C1479" s="12" t="s">
+        <v>3017</v>
+      </c>
+      <c r="D1479" s="12" t="s">
+        <v>2725</v>
+      </c>
+      <c r="E1479" s="12" t="s">
+        <v>3015</v>
+      </c>
+      <c r="F1479" s="12" t="s">
+        <v>2855</v>
+      </c>
+    </row>
+    <row r="1480" customFormat="false" ht="121.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1480" s="12" t="n">
+        <v>18</v>
+      </c>
+      <c r="B1480" s="12" t="s">
+        <v>3018</v>
+      </c>
+      <c r="C1480" s="12" t="s">
+        <v>3019</v>
+      </c>
+      <c r="D1480" s="12" t="s">
+        <v>2725</v>
+      </c>
+      <c r="E1480" s="12" t="s">
+        <v>3015</v>
+      </c>
+      <c r="F1480" s="12" t="s">
+        <v>2855</v>
+      </c>
+    </row>
+    <row r="1481" customFormat="false" ht="121.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1481" s="12" t="n">
+        <v>18</v>
+      </c>
+      <c r="B1481" s="12" t="s">
+        <v>3020</v>
+      </c>
+      <c r="C1481" s="12" t="s">
+        <v>3021</v>
+      </c>
+      <c r="D1481" s="12" t="s">
+        <v>2725</v>
+      </c>
+      <c r="E1481" s="12" t="s">
+        <v>2973</v>
+      </c>
+      <c r="F1481" s="12" t="s">
+        <v>2855</v>
+      </c>
+    </row>
+    <row r="1482" customFormat="false" ht="121.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1482" s="12" t="n">
+        <v>18</v>
+      </c>
+      <c r="B1482" s="12" t="s">
+        <v>3022</v>
+      </c>
+      <c r="C1482" s="12" t="s">
+        <v>3023</v>
+      </c>
+      <c r="D1482" s="12" t="s">
+        <v>2725</v>
+      </c>
+      <c r="E1482" s="12" t="s">
+        <v>2854</v>
+      </c>
+      <c r="F1482" s="12" t="s">
+        <v>2855</v>
+      </c>
+    </row>
+    <row r="1483" customFormat="false" ht="121.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1483" s="12" t="n">
+        <v>18</v>
+      </c>
+      <c r="B1483" s="12" t="s">
+        <v>3024</v>
+      </c>
+      <c r="C1483" s="12" t="s">
+        <v>3025</v>
+      </c>
+      <c r="D1483" s="12" t="s">
+        <v>2725</v>
+      </c>
+      <c r="E1483" s="12" t="s">
+        <v>2864</v>
+      </c>
+      <c r="F1483" s="12" t="s">
+        <v>2855</v>
+      </c>
+    </row>
+    <row r="1484" customFormat="false" ht="121.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1484" s="12" t="n">
+        <v>18</v>
+      </c>
+      <c r="B1484" s="12" t="s">
+        <v>3026</v>
+      </c>
+      <c r="C1484" s="12" t="s">
+        <v>3027</v>
+      </c>
+      <c r="D1484" s="12" t="s">
+        <v>2725</v>
+      </c>
+      <c r="E1484" s="12" t="s">
+        <v>2864</v>
+      </c>
+      <c r="F1484" s="12" t="s">
+        <v>2855</v>
+      </c>
+    </row>
+    <row r="1485" customFormat="false" ht="121.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1485" s="12" t="n">
+        <v>18</v>
+      </c>
+      <c r="B1485" s="12" t="s">
+        <v>3028</v>
+      </c>
+      <c r="C1485" s="12" t="s">
+        <v>3029</v>
+      </c>
+      <c r="D1485" s="12" t="s">
+        <v>2725</v>
+      </c>
+      <c r="E1485" s="12" t="s">
+        <v>2854</v>
+      </c>
+      <c r="F1485" s="12" t="s">
+        <v>2855</v>
+      </c>
+    </row>
+    <row r="1486" customFormat="false" ht="121.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1486" s="12" t="n">
+        <v>18</v>
+      </c>
+      <c r="B1486" s="12" t="s">
+        <v>3030</v>
+      </c>
+      <c r="C1486" s="12" t="s">
+        <v>3031</v>
+      </c>
+      <c r="D1486" s="12" t="s">
+        <v>2725</v>
+      </c>
+      <c r="E1486" s="12" t="s">
+        <v>2871</v>
+      </c>
+      <c r="F1486" s="12" t="s">
+        <v>2855</v>
+      </c>
+    </row>
+    <row r="1487" customFormat="false" ht="121.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1487" s="12" t="n">
+        <v>18</v>
+      </c>
+      <c r="B1487" s="12" t="s">
+        <v>3032</v>
+      </c>
+      <c r="C1487" s="12" t="s">
+        <v>3033</v>
+      </c>
+      <c r="D1487" s="12" t="s">
+        <v>2725</v>
+      </c>
+      <c r="E1487" s="12" t="s">
+        <v>2973</v>
+      </c>
+      <c r="F1487" s="12" t="s">
+        <v>2855</v>
+      </c>
+    </row>
+    <row r="1488" customFormat="false" ht="121.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1488" s="12" t="n">
+        <v>18</v>
+      </c>
+      <c r="B1488" s="12" t="s">
+        <v>3034</v>
+      </c>
+      <c r="C1488" s="12" t="s">
+        <v>3035</v>
+      </c>
+      <c r="D1488" s="12" t="s">
+        <v>2725</v>
+      </c>
+      <c r="E1488" s="12" t="s">
+        <v>2899</v>
+      </c>
+      <c r="F1488" s="12" t="s">
+        <v>2855</v>
+      </c>
+    </row>
+    <row r="1489" customFormat="false" ht="121.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1489" s="12" t="n">
+        <v>18</v>
+      </c>
+      <c r="B1489" s="12" t="s">
+        <v>3036</v>
+      </c>
+      <c r="C1489" s="12" t="s">
+        <v>3037</v>
+      </c>
+      <c r="D1489" s="12" t="s">
+        <v>2725</v>
+      </c>
+      <c r="E1489" s="12" t="s">
+        <v>2930</v>
+      </c>
+      <c r="F1489" s="12" t="s">
+        <v>2855</v>
+      </c>
+    </row>
+    <row r="1490" customFormat="false" ht="121.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1490" s="12" t="n">
+        <v>18</v>
+      </c>
+      <c r="B1490" s="12" t="s">
+        <v>3038</v>
+      </c>
+      <c r="C1490" s="12" t="s">
+        <v>3039</v>
+      </c>
+      <c r="D1490" s="12" t="s">
+        <v>2725</v>
+      </c>
+      <c r="E1490" s="12" t="s">
+        <v>2937</v>
+      </c>
+      <c r="F1490" s="12" t="s">
+        <v>2855</v>
       </c>
     </row>
     <row r="1048569" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -31147,7 +34763,7 @@
   <dimension ref="A1:G1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F86" activeCellId="1" sqref="1286:1286 F86"/>
+      <selection pane="topLeft" activeCell="F86" activeCellId="0" sqref="F86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -31179,18 +34795,18 @@
       </c>
       <c r="G1" s="3"/>
     </row>
-    <row r="2" customFormat="false" ht="69.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="8" t="s">
         <v>2562</v>
       </c>
-      <c r="C2" s="16" t="s">
+      <c r="C2" s="10" t="s">
         <v>2563</v>
       </c>
       <c r="D2" s="1"/>
-      <c r="F2" s="17" t="s">
+      <c r="F2" s="14" t="s">
         <v>2564</v>
       </c>
     </row>
@@ -31198,14 +34814,14 @@
       <c r="A3" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="8" t="s">
         <v>2565</v>
       </c>
-      <c r="C3" s="16" t="s">
+      <c r="C3" s="10" t="s">
         <v>2566</v>
       </c>
       <c r="D3" s="1"/>
-      <c r="F3" s="17" t="s">
+      <c r="F3" s="14" t="s">
         <v>2564</v>
       </c>
     </row>
@@ -31213,14 +34829,14 @@
       <c r="A4" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="B4" s="15" t="s">
+      <c r="B4" s="8" t="s">
         <v>2567</v>
       </c>
       <c r="C4" s="10" t="s">
         <v>2568</v>
       </c>
       <c r="D4" s="1"/>
-      <c r="F4" s="17" t="s">
+      <c r="F4" s="14" t="s">
         <v>2564</v>
       </c>
     </row>
@@ -31228,14 +34844,14 @@
       <c r="A5" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="B5" s="15" t="s">
+      <c r="B5" s="8" t="s">
         <v>2569</v>
       </c>
       <c r="C5" s="8" t="s">
         <v>2570</v>
       </c>
       <c r="D5" s="1"/>
-      <c r="F5" s="17" t="s">
+      <c r="F5" s="14" t="s">
         <v>2564</v>
       </c>
     </row>
@@ -31243,14 +34859,14 @@
       <c r="A6" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="B6" s="15" t="s">
+      <c r="B6" s="8" t="s">
         <v>2571</v>
       </c>
       <c r="C6" s="10" t="s">
         <v>2572</v>
       </c>
       <c r="D6" s="1"/>
-      <c r="F6" s="17" t="s">
+      <c r="F6" s="14" t="s">
         <v>2564</v>
       </c>
     </row>
@@ -31258,59 +34874,59 @@
       <c r="A7" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="B7" s="15" t="s">
+      <c r="B7" s="8" t="s">
         <v>2573</v>
       </c>
       <c r="C7" s="8" t="s">
         <v>2574</v>
       </c>
       <c r="D7" s="1"/>
-      <c r="F7" s="17" t="s">
+      <c r="F7" s="14" t="s">
         <v>2564</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="35.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="B8" s="15" t="s">
+      <c r="B8" s="8" t="s">
         <v>2575</v>
       </c>
       <c r="C8" s="8" t="s">
         <v>2576</v>
       </c>
       <c r="D8" s="1"/>
-      <c r="F8" s="17" t="s">
+      <c r="F8" s="14" t="s">
         <v>2564</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="24.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="B9" s="15" t="s">
+      <c r="B9" s="8" t="s">
         <v>2577</v>
       </c>
       <c r="C9" s="8" t="s">
         <v>2578</v>
       </c>
       <c r="D9" s="1"/>
-      <c r="F9" s="17" t="s">
+      <c r="F9" s="14" t="s">
         <v>2564</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="35.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="n">
         <v>9</v>
       </c>
       <c r="B10" s="8" t="s">
         <v>2579</v>
       </c>
-      <c r="C10" s="16" t="s">
+      <c r="C10" s="10" t="s">
         <v>2580</v>
       </c>
       <c r="D10" s="1"/>
-      <c r="F10" s="17" t="s">
+      <c r="F10" s="14" t="s">
         <v>2564</v>
       </c>
     </row>
@@ -31318,34 +34934,34 @@
       <c r="A11" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="B11" s="15" t="s">
+      <c r="B11" s="8" t="s">
         <v>2649</v>
       </c>
-      <c r="C11" s="16" t="s">
+      <c r="C11" s="10" t="s">
         <v>2650</v>
       </c>
       <c r="D11" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="E11" s="0" t="n">
+      <c r="E11" s="3" t="n">
         <v>2019</v>
       </c>
-      <c r="F11" s="17" t="s">
+      <c r="F11" s="14" t="s">
         <v>2651</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="24.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="2" t="n">
         <v>9</v>
       </c>
       <c r="B12" s="8" t="s">
         <v>2652</v>
       </c>
-      <c r="C12" s="16" t="s">
+      <c r="C12" s="10" t="s">
         <v>2653</v>
       </c>
       <c r="D12" s="1"/>
-      <c r="F12" s="17" t="s">
+      <c r="F12" s="14" t="s">
         <v>2651</v>
       </c>
     </row>
@@ -31353,14 +34969,14 @@
       <c r="A13" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="B13" s="13" t="s">
+      <c r="B13" s="12" t="s">
         <v>2654</v>
       </c>
-      <c r="C13" s="13" t="s">
+      <c r="C13" s="12" t="s">
         <v>2655</v>
       </c>
       <c r="D13" s="1"/>
-      <c r="F13" s="17" t="s">
+      <c r="F13" s="14" t="s">
         <v>2651</v>
       </c>
     </row>
@@ -31368,171 +34984,171 @@
       <c r="A14" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="B14" s="13" t="s">
+      <c r="B14" s="12" t="s">
         <v>2656</v>
       </c>
-      <c r="C14" s="13" t="s">
+      <c r="C14" s="12" t="s">
         <v>2657</v>
       </c>
       <c r="D14" s="1"/>
-      <c r="F14" s="17" t="s">
+      <c r="F14" s="14" t="s">
         <v>2651</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="76.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="76.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="B15" s="13" t="s">
+      <c r="B15" s="12" t="s">
         <v>2658</v>
       </c>
-      <c r="C15" s="13" t="s">
+      <c r="C15" s="12" t="s">
         <v>2659</v>
       </c>
       <c r="D15" s="1"/>
-      <c r="F15" s="17" t="s">
+      <c r="F15" s="14" t="s">
         <v>2651</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="31.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="B16" s="13" t="s">
+      <c r="B16" s="12" t="s">
         <v>2660</v>
       </c>
-      <c r="C16" s="13" t="s">
+      <c r="C16" s="12" t="s">
         <v>2539</v>
       </c>
       <c r="D16" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="E16" s="0" t="n">
+      <c r="E16" s="3" t="n">
         <v>2008</v>
       </c>
-      <c r="F16" s="17" t="s">
+      <c r="F16" s="14" t="s">
         <v>2651</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="91.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="B17" s="13" t="s">
+      <c r="B17" s="12" t="s">
         <v>2661</v>
       </c>
-      <c r="C17" s="13" t="s">
+      <c r="C17" s="12" t="s">
         <v>2662</v>
       </c>
       <c r="D17" s="1"/>
-      <c r="F17" s="17" t="s">
+      <c r="F17" s="14" t="s">
         <v>2651</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="106.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="105.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="B18" s="13" t="s">
+      <c r="B18" s="12" t="s">
         <v>2663</v>
       </c>
-      <c r="C18" s="13" t="s">
+      <c r="C18" s="12" t="s">
         <v>2664</v>
       </c>
-      <c r="D18" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E18" s="0" t="n">
+      <c r="D18" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E18" s="3" t="n">
         <v>2008</v>
       </c>
-      <c r="F18" s="17" t="s">
+      <c r="F18" s="14" t="s">
         <v>2651</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="31.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="B19" s="13" t="s">
+      <c r="B19" s="12" t="s">
         <v>2665</v>
       </c>
-      <c r="C19" s="13" t="s">
+      <c r="C19" s="12" t="s">
         <v>2666</v>
       </c>
-      <c r="D19" s="0"/>
-      <c r="F19" s="17" t="s">
+      <c r="D19" s="3"/>
+      <c r="F19" s="14" t="s">
         <v>2651</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="76.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="76.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="B20" s="13" t="s">
+      <c r="B20" s="12" t="s">
         <v>2667</v>
       </c>
-      <c r="C20" s="13" t="s">
+      <c r="C20" s="12" t="s">
         <v>2668</v>
       </c>
-      <c r="D20" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E20" s="0" t="n">
+      <c r="D20" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E20" s="3" t="n">
         <v>2023</v>
       </c>
-      <c r="F20" s="17" t="s">
+      <c r="F20" s="14" t="s">
         <v>2651</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="46.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="B21" s="13" t="s">
+      <c r="B21" s="12" t="s">
         <v>2679</v>
       </c>
-      <c r="C21" s="13" t="s">
+      <c r="C21" s="12" t="s">
         <v>2582</v>
       </c>
-      <c r="D21" s="0"/>
+      <c r="D21" s="3"/>
       <c r="F21" s="12" t="s">
         <v>2680</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="76.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="76.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="B22" s="13" t="s">
+      <c r="B22" s="12" t="s">
         <v>2681</v>
       </c>
-      <c r="C22" s="13" t="s">
+      <c r="C22" s="12" t="s">
         <v>2682</v>
       </c>
-      <c r="D22" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E22" s="0" t="n">
+      <c r="D22" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E22" s="3" t="n">
         <v>2018</v>
       </c>
       <c r="F22" s="12" t="s">
         <v>2680</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="61.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="61.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="B23" s="13" t="s">
+      <c r="B23" s="12" t="s">
         <v>2683</v>
       </c>
-      <c r="C23" s="13" t="s">
+      <c r="C23" s="12" t="s">
         <v>2684</v>
       </c>
-      <c r="D23" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E23" s="0" t="n">
+      <c r="D23" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E23" s="3" t="n">
         <v>2021</v>
       </c>
       <c r="F23" s="12" t="s">
@@ -31543,10 +35159,10 @@
       <c r="A24" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="B24" s="13" t="s">
+      <c r="B24" s="12" t="s">
         <v>2691</v>
       </c>
-      <c r="C24" s="13" t="s">
+      <c r="C24" s="12" t="s">
         <v>2537</v>
       </c>
       <c r="D24" s="1"/>
@@ -31558,10 +35174,10 @@
       <c r="A25" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="B25" s="13" t="s">
+      <c r="B25" s="12" t="s">
         <v>2693</v>
       </c>
-      <c r="C25" s="13" t="s">
+      <c r="C25" s="12" t="s">
         <v>2694</v>
       </c>
       <c r="D25" s="1"/>
@@ -31573,10 +35189,10 @@
       <c r="A26" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="B26" s="13" t="s">
+      <c r="B26" s="12" t="s">
         <v>2708</v>
       </c>
-      <c r="C26" s="13" t="s">
+      <c r="C26" s="12" t="s">
         <v>2709</v>
       </c>
       <c r="D26" s="1"/>
@@ -31588,10 +35204,10 @@
       <c r="A27" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="B27" s="13" t="s">
+      <c r="B27" s="12" t="s">
         <v>2504</v>
       </c>
-      <c r="C27" s="13" t="s">
+      <c r="C27" s="12" t="s">
         <v>2505</v>
       </c>
       <c r="D27" s="1"/>
@@ -31599,14 +35215,14 @@
         <v>2506</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="61.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" ht="61.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="B28" s="13" t="s">
+      <c r="B28" s="12" t="s">
         <v>2507</v>
       </c>
-      <c r="C28" s="13" t="s">
+      <c r="C28" s="12" t="s">
         <v>2508</v>
       </c>
       <c r="D28" s="1"/>
@@ -31614,43 +35230,43 @@
         <v>2506</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="46.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="B29" s="13" t="s">
+      <c r="B29" s="12" t="s">
         <v>2581</v>
       </c>
-      <c r="C29" s="13" t="s">
+      <c r="C29" s="12" t="s">
         <v>2582</v>
       </c>
       <c r="D29" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="E29" s="0" t="n">
+      <c r="E29" s="3" t="n">
         <v>2022</v>
       </c>
-      <c r="F29" s="17" t="s">
+      <c r="F29" s="14" t="s">
         <v>2564</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="46.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="B30" s="13" t="s">
+      <c r="B30" s="12" t="s">
         <v>2583</v>
       </c>
-      <c r="C30" s="13" t="s">
+      <c r="C30" s="12" t="s">
         <v>2584</v>
       </c>
       <c r="D30" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="E30" s="0" t="n">
+      <c r="E30" s="3" t="n">
         <v>2013</v>
       </c>
-      <c r="F30" s="17" t="s">
+      <c r="F30" s="14" t="s">
         <v>2564</v>
       </c>
     </row>
@@ -31658,34 +35274,34 @@
       <c r="A31" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="B31" s="13" t="s">
+      <c r="B31" s="12" t="s">
         <v>2585</v>
       </c>
-      <c r="C31" s="18" t="s">
+      <c r="C31" s="12" t="s">
         <v>2586</v>
       </c>
       <c r="D31" s="1"/>
-      <c r="F31" s="17" t="s">
+      <c r="F31" s="14" t="s">
         <v>2564</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="58.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" customFormat="false" ht="56.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="B32" s="19" t="s">
+      <c r="B32" s="15" t="s">
         <v>2587</v>
       </c>
-      <c r="C32" s="19" t="s">
+      <c r="C32" s="15" t="s">
         <v>2588</v>
       </c>
       <c r="D32" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="E32" s="0" t="n">
+      <c r="E32" s="3" t="n">
         <v>2013</v>
       </c>
-      <c r="F32" s="17" t="s">
+      <c r="F32" s="14" t="s">
         <v>2564</v>
       </c>
     </row>
@@ -31693,14 +35309,14 @@
       <c r="A33" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="B33" s="13" t="s">
+      <c r="B33" s="12" t="s">
         <v>2589</v>
       </c>
-      <c r="C33" s="13" t="s">
+      <c r="C33" s="12" t="s">
         <v>2590</v>
       </c>
       <c r="D33" s="1"/>
-      <c r="F33" s="17" t="s">
+      <c r="F33" s="14" t="s">
         <v>2564</v>
       </c>
     </row>
@@ -31708,14 +35324,14 @@
       <c r="A34" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="B34" s="13" t="s">
+      <c r="B34" s="12" t="s">
         <v>2591</v>
       </c>
-      <c r="C34" s="13" t="s">
+      <c r="C34" s="12" t="s">
         <v>2592</v>
       </c>
       <c r="D34" s="1"/>
-      <c r="F34" s="17" t="s">
+      <c r="F34" s="14" t="s">
         <v>2564</v>
       </c>
     </row>
@@ -31723,19 +35339,19 @@
       <c r="A35" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="B35" s="13" t="s">
+      <c r="B35" s="12" t="s">
         <v>2593</v>
       </c>
-      <c r="C35" s="13" t="s">
+      <c r="C35" s="12" t="s">
         <v>2594</v>
       </c>
       <c r="D35" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="E35" s="0" t="n">
+      <c r="E35" s="3" t="n">
         <v>2018</v>
       </c>
-      <c r="F35" s="17" t="s">
+      <c r="F35" s="14" t="s">
         <v>2564</v>
       </c>
     </row>
@@ -31743,14 +35359,14 @@
       <c r="A36" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="B36" s="13" t="s">
+      <c r="B36" s="12" t="s">
         <v>2595</v>
       </c>
-      <c r="C36" s="13" t="s">
+      <c r="C36" s="12" t="s">
         <v>2596</v>
       </c>
       <c r="D36" s="1"/>
-      <c r="F36" s="17" t="s">
+      <c r="F36" s="14" t="s">
         <v>2564</v>
       </c>
     </row>
@@ -31758,14 +35374,14 @@
       <c r="A37" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="B37" s="13" t="s">
+      <c r="B37" s="12" t="s">
         <v>2597</v>
       </c>
-      <c r="C37" s="13" t="s">
+      <c r="C37" s="12" t="s">
         <v>2598</v>
       </c>
       <c r="D37" s="1"/>
-      <c r="F37" s="17" t="s">
+      <c r="F37" s="14" t="s">
         <v>2564</v>
       </c>
     </row>
@@ -31773,14 +35389,14 @@
       <c r="A38" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="B38" s="13" t="s">
+      <c r="B38" s="12" t="s">
         <v>2599</v>
       </c>
-      <c r="C38" s="13" t="s">
+      <c r="C38" s="12" t="s">
         <v>2600</v>
       </c>
       <c r="D38" s="1"/>
-      <c r="F38" s="17" t="s">
+      <c r="F38" s="14" t="s">
         <v>2564</v>
       </c>
     </row>
@@ -31788,14 +35404,14 @@
       <c r="A39" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="B39" s="13" t="s">
+      <c r="B39" s="12" t="s">
         <v>2601</v>
       </c>
-      <c r="C39" s="13" t="s">
+      <c r="C39" s="12" t="s">
         <v>2602</v>
       </c>
       <c r="D39" s="1"/>
-      <c r="F39" s="17" t="s">
+      <c r="F39" s="14" t="s">
         <v>2564</v>
       </c>
     </row>
@@ -31803,29 +35419,29 @@
       <c r="A40" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="B40" s="13" t="s">
+      <c r="B40" s="12" t="s">
         <v>2603</v>
       </c>
-      <c r="C40" s="13" t="s">
+      <c r="C40" s="12" t="s">
         <v>2604</v>
       </c>
       <c r="D40" s="1"/>
-      <c r="F40" s="17" t="s">
+      <c r="F40" s="14" t="s">
         <v>2564</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="16.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="B41" s="13" t="s">
+      <c r="B41" s="12" t="s">
         <v>2605</v>
       </c>
-      <c r="C41" s="13" t="s">
+      <c r="C41" s="12" t="s">
         <v>2606</v>
       </c>
       <c r="D41" s="1"/>
-      <c r="F41" s="17" t="s">
+      <c r="F41" s="14" t="s">
         <v>2564</v>
       </c>
     </row>
@@ -31833,19 +35449,19 @@
       <c r="A42" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="B42" s="13" t="s">
+      <c r="B42" s="12" t="s">
         <v>2669</v>
       </c>
-      <c r="C42" s="13" t="s">
+      <c r="C42" s="12" t="s">
         <v>2670</v>
       </c>
       <c r="D42" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="E42" s="0" t="n">
+      <c r="E42" s="3" t="n">
         <v>2019</v>
       </c>
-      <c r="F42" s="17" t="s">
+      <c r="F42" s="14" t="s">
         <v>2651</v>
       </c>
     </row>
@@ -31853,85 +35469,85 @@
       <c r="A43" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="B43" s="13" t="s">
+      <c r="B43" s="12" t="s">
         <v>2671</v>
       </c>
-      <c r="C43" s="13" t="s">
+      <c r="C43" s="12" t="s">
         <v>2672</v>
       </c>
       <c r="D43" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="E43" s="0" t="n">
+      <c r="E43" s="3" t="n">
         <v>2023</v>
       </c>
-      <c r="F43" s="17" t="s">
+      <c r="F43" s="14" t="s">
         <v>2651</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="31.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="B44" s="13" t="s">
+      <c r="B44" s="12" t="s">
         <v>2673</v>
       </c>
-      <c r="C44" s="13" t="s">
+      <c r="C44" s="12" t="s">
         <v>2674</v>
       </c>
       <c r="D44" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="E44" s="0" t="n">
+      <c r="E44" s="3" t="n">
         <v>2013</v>
       </c>
-      <c r="F44" s="17" t="s">
+      <c r="F44" s="14" t="s">
         <v>2651</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="31.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="45" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="B45" s="13" t="s">
+      <c r="B45" s="12" t="s">
         <v>2675</v>
       </c>
-      <c r="C45" s="13" t="s">
+      <c r="C45" s="12" t="s">
         <v>2676</v>
       </c>
       <c r="D45" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="E45" s="0" t="n">
+      <c r="E45" s="3" t="n">
         <v>2013</v>
       </c>
-      <c r="F45" s="17" t="s">
+      <c r="F45" s="14" t="s">
         <v>2651</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="31.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="46" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="B46" s="13" t="s">
+      <c r="B46" s="12" t="s">
         <v>2677</v>
       </c>
-      <c r="C46" s="13" t="s">
+      <c r="C46" s="12" t="s">
         <v>2678</v>
       </c>
       <c r="D46" s="1"/>
-      <c r="F46" s="17" t="s">
+      <c r="F46" s="14" t="s">
         <v>2651</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="46.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="47" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="B47" s="13" t="s">
+      <c r="B47" s="12" t="s">
         <v>2685</v>
       </c>
-      <c r="C47" s="20" t="s">
+      <c r="C47" s="14" t="s">
         <v>2686</v>
       </c>
       <c r="D47" s="1"/>
@@ -31939,34 +35555,34 @@
         <v>2680</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="46.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="48" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="B48" s="13" t="s">
+      <c r="B48" s="12" t="s">
         <v>2687</v>
       </c>
-      <c r="C48" s="13" t="s">
+      <c r="C48" s="12" t="s">
         <v>2688</v>
       </c>
       <c r="D48" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="E48" s="0" t="n">
+      <c r="E48" s="3" t="n">
         <v>2006</v>
       </c>
       <c r="F48" s="12" t="s">
         <v>2680</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="46.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="49" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="B49" s="13" t="s">
+      <c r="B49" s="12" t="s">
         <v>2689</v>
       </c>
-      <c r="C49" s="13" t="s">
+      <c r="C49" s="12" t="s">
         <v>2690</v>
       </c>
       <c r="D49" s="1"/>
@@ -31978,10 +35594,10 @@
       <c r="A50" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="B50" s="13" t="s">
+      <c r="B50" s="12" t="s">
         <v>2695</v>
       </c>
-      <c r="C50" s="13" t="s">
+      <c r="C50" s="12" t="s">
         <v>2537</v>
       </c>
       <c r="D50" s="1"/>
@@ -31993,10 +35609,10 @@
       <c r="A51" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="B51" s="13" t="s">
+      <c r="B51" s="12" t="s">
         <v>2696</v>
       </c>
-      <c r="C51" s="13" t="s">
+      <c r="C51" s="12" t="s">
         <v>2537</v>
       </c>
       <c r="D51" s="1"/>
@@ -32008,16 +35624,16 @@
       <c r="A52" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="B52" s="13" t="s">
+      <c r="B52" s="12" t="s">
         <v>2697</v>
       </c>
-      <c r="C52" s="13" t="s">
+      <c r="C52" s="12" t="s">
         <v>2698</v>
       </c>
       <c r="D52" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="E52" s="0" t="n">
+      <c r="E52" s="3" t="n">
         <v>2023</v>
       </c>
       <c r="F52" s="12" t="s">
@@ -32028,16 +35644,16 @@
       <c r="A53" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="B53" s="13" t="s">
+      <c r="B53" s="12" t="s">
         <v>2699</v>
       </c>
-      <c r="C53" s="13" t="s">
+      <c r="C53" s="12" t="s">
         <v>2700</v>
       </c>
       <c r="D53" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="E53" s="0" t="n">
+      <c r="E53" s="3" t="n">
         <v>2010</v>
       </c>
       <c r="F53" s="12" t="s">
@@ -32048,10 +35664,10 @@
       <c r="A54" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="B54" s="13" t="s">
+      <c r="B54" s="12" t="s">
         <v>2701</v>
       </c>
-      <c r="C54" s="13" t="s">
+      <c r="C54" s="12" t="s">
         <v>2702</v>
       </c>
       <c r="D54" s="1"/>
@@ -32063,10 +35679,10 @@
       <c r="A55" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="B55" s="13" t="s">
+      <c r="B55" s="12" t="s">
         <v>2703</v>
       </c>
-      <c r="C55" s="13" t="s">
+      <c r="C55" s="12" t="s">
         <v>2704</v>
       </c>
       <c r="D55" s="1"/>
@@ -32074,34 +35690,34 @@
         <v>2705</v>
       </c>
     </row>
-    <row r="56" customFormat="false" ht="91.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="56" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="B56" s="13" t="s">
+      <c r="B56" s="12" t="s">
         <v>2706</v>
       </c>
-      <c r="C56" s="13" t="s">
+      <c r="C56" s="12" t="s">
         <v>2707</v>
       </c>
       <c r="D56" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="E56" s="0" t="n">
+      <c r="E56" s="3" t="n">
         <v>2011</v>
       </c>
       <c r="F56" s="12" t="s">
         <v>2705</v>
       </c>
     </row>
-    <row r="57" customFormat="false" ht="61.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="57" customFormat="false" ht="61.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="B57" s="13" t="s">
+      <c r="B57" s="12" t="s">
         <v>2711</v>
       </c>
-      <c r="C57" s="13" t="s">
+      <c r="C57" s="12" t="s">
         <v>2712</v>
       </c>
       <c r="D57" s="1"/>
@@ -32109,29 +35725,29 @@
         <v>2710</v>
       </c>
     </row>
-    <row r="58" customFormat="false" ht="61.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="58" customFormat="false" ht="61.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="B58" s="13" t="s">
+      <c r="B58" s="12" t="s">
         <v>2713</v>
       </c>
-      <c r="C58" s="13" t="s">
+      <c r="C58" s="12" t="s">
         <v>2714</v>
       </c>
-      <c r="D58" s="0"/>
+      <c r="D58" s="3"/>
       <c r="F58" s="12" t="s">
         <v>2710</v>
       </c>
     </row>
-    <row r="59" customFormat="false" ht="61.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="59" customFormat="false" ht="61.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="B59" s="13" t="s">
+      <c r="B59" s="12" t="s">
         <v>2715</v>
       </c>
-      <c r="C59" s="13" t="s">
+      <c r="C59" s="12" t="s">
         <v>2716</v>
       </c>
       <c r="D59" s="1"/>
@@ -32139,14 +35755,14 @@
         <v>2710</v>
       </c>
     </row>
-    <row r="60" customFormat="false" ht="61.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="60" customFormat="false" ht="61.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="B60" s="13" t="s">
+      <c r="B60" s="12" t="s">
         <v>2717</v>
       </c>
-      <c r="C60" s="13" t="s">
+      <c r="C60" s="12" t="s">
         <v>2718</v>
       </c>
       <c r="D60" s="1"/>
@@ -32154,14 +35770,14 @@
         <v>2710</v>
       </c>
     </row>
-    <row r="61" customFormat="false" ht="61.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="61" customFormat="false" ht="61.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="B61" s="13" t="s">
+      <c r="B61" s="12" t="s">
         <v>2719</v>
       </c>
-      <c r="C61" s="13" t="s">
+      <c r="C61" s="12" t="s">
         <v>2720</v>
       </c>
       <c r="D61" s="1"/>
@@ -32169,14 +35785,14 @@
         <v>2710</v>
       </c>
     </row>
-    <row r="62" customFormat="false" ht="61.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="62" customFormat="false" ht="61.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="B62" s="13" t="s">
+      <c r="B62" s="12" t="s">
         <v>2721</v>
       </c>
-      <c r="C62" s="13" t="s">
+      <c r="C62" s="12" t="s">
         <v>2722</v>
       </c>
       <c r="D62" s="1"/>
@@ -32184,34 +35800,34 @@
         <v>2710</v>
       </c>
     </row>
-    <row r="63" customFormat="false" ht="61.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="63" customFormat="false" ht="61.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="B63" s="13" t="s">
+      <c r="B63" s="12" t="s">
         <v>2509</v>
       </c>
-      <c r="C63" s="13" t="s">
+      <c r="C63" s="12" t="s">
         <v>2510</v>
       </c>
       <c r="D63" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="E63" s="0" t="n">
+      <c r="E63" s="3" t="n">
         <v>2019</v>
       </c>
       <c r="F63" s="12" t="s">
         <v>2506</v>
       </c>
     </row>
-    <row r="64" customFormat="false" ht="61.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="64" customFormat="false" ht="61.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="B64" s="13" t="s">
+      <c r="B64" s="12" t="s">
         <v>2511</v>
       </c>
-      <c r="C64" s="13" t="s">
+      <c r="C64" s="12" t="s">
         <v>2512</v>
       </c>
       <c r="D64" s="1"/>
@@ -32219,14 +35835,14 @@
         <v>2506</v>
       </c>
     </row>
-    <row r="65" customFormat="false" ht="61.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="65" customFormat="false" ht="61.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="B65" s="13" t="s">
+      <c r="B65" s="12" t="s">
         <v>2513</v>
       </c>
-      <c r="C65" s="13" t="s">
+      <c r="C65" s="12" t="s">
         <v>2514</v>
       </c>
       <c r="D65" s="1"/>
@@ -32234,38 +35850,38 @@
         <v>2506</v>
       </c>
     </row>
-    <row r="66" customFormat="false" ht="31.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="66" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="B66" s="13" t="s">
+      <c r="B66" s="12" t="s">
         <v>2607</v>
       </c>
-      <c r="C66" s="13" t="s">
+      <c r="C66" s="12" t="s">
         <v>2608</v>
       </c>
       <c r="D66" s="1"/>
-      <c r="F66" s="17" t="s">
+      <c r="F66" s="14" t="s">
         <v>2564</v>
       </c>
     </row>
-    <row r="67" customFormat="false" ht="61.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="67" customFormat="false" ht="61.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="B67" s="13" t="s">
+      <c r="B67" s="12" t="s">
         <v>2609</v>
       </c>
-      <c r="C67" s="13" t="s">
+      <c r="C67" s="12" t="s">
         <v>2610</v>
       </c>
       <c r="D67" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="E67" s="0" t="n">
+      <c r="E67" s="3" t="n">
         <v>2022</v>
       </c>
-      <c r="F67" s="17" t="s">
+      <c r="F67" s="14" t="s">
         <v>2564</v>
       </c>
     </row>
@@ -32273,14 +35889,14 @@
       <c r="A68" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="B68" s="13" t="s">
+      <c r="B68" s="12" t="s">
         <v>2611</v>
       </c>
-      <c r="C68" s="13" t="s">
+      <c r="C68" s="12" t="s">
         <v>2612</v>
       </c>
       <c r="D68" s="1"/>
-      <c r="F68" s="17" t="s">
+      <c r="F68" s="14" t="s">
         <v>2564</v>
       </c>
     </row>
@@ -32288,64 +35904,64 @@
       <c r="A69" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="B69" s="13" t="s">
+      <c r="B69" s="12" t="s">
         <v>2613</v>
       </c>
-      <c r="C69" s="13" t="s">
+      <c r="C69" s="12" t="s">
         <v>2614</v>
       </c>
       <c r="D69" s="1"/>
-      <c r="F69" s="17" t="s">
+      <c r="F69" s="14" t="s">
         <v>2564</v>
       </c>
     </row>
-    <row r="70" customFormat="false" ht="61.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="70" customFormat="false" ht="61.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="B70" s="13" t="s">
+      <c r="B70" s="12" t="s">
         <v>2615</v>
       </c>
-      <c r="C70" s="13" t="s">
+      <c r="C70" s="12" t="s">
         <v>2616</v>
       </c>
       <c r="D70" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="E70" s="0" t="n">
+      <c r="E70" s="3" t="n">
         <v>2023</v>
       </c>
-      <c r="F70" s="17" t="s">
+      <c r="F70" s="14" t="s">
         <v>2564</v>
       </c>
     </row>
-    <row r="71" customFormat="false" ht="46.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="71" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="B71" s="13" t="s">
+      <c r="B71" s="12" t="s">
         <v>2617</v>
       </c>
-      <c r="C71" s="13" t="s">
+      <c r="C71" s="12" t="s">
         <v>2618</v>
       </c>
       <c r="D71" s="1"/>
-      <c r="F71" s="17" t="s">
+      <c r="F71" s="14" t="s">
         <v>2564</v>
       </c>
     </row>
-    <row r="72" customFormat="false" ht="46.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="72" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="B72" s="13" t="s">
+      <c r="B72" s="12" t="s">
         <v>2619</v>
       </c>
-      <c r="C72" s="13" t="s">
+      <c r="C72" s="12" t="s">
         <v>2620</v>
       </c>
       <c r="D72" s="1"/>
-      <c r="F72" s="17" t="s">
+      <c r="F72" s="14" t="s">
         <v>2564</v>
       </c>
     </row>
@@ -32353,14 +35969,14 @@
       <c r="A73" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="B73" s="13" t="s">
+      <c r="B73" s="12" t="s">
         <v>2621</v>
       </c>
-      <c r="C73" s="13" t="s">
+      <c r="C73" s="12" t="s">
         <v>2622</v>
       </c>
       <c r="D73" s="1"/>
-      <c r="F73" s="17" t="s">
+      <c r="F73" s="14" t="s">
         <v>2564</v>
       </c>
     </row>
@@ -32368,14 +35984,14 @@
       <c r="A74" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="B74" s="13" t="s">
+      <c r="B74" s="12" t="s">
         <v>2623</v>
       </c>
-      <c r="C74" s="13" t="s">
+      <c r="C74" s="12" t="s">
         <v>2624</v>
       </c>
       <c r="D74" s="1"/>
-      <c r="F74" s="17" t="s">
+      <c r="F74" s="14" t="s">
         <v>2564</v>
       </c>
     </row>
@@ -32383,14 +35999,14 @@
       <c r="A75" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="B75" s="13" t="s">
+      <c r="B75" s="12" t="s">
         <v>2625</v>
       </c>
-      <c r="C75" s="13" t="s">
+      <c r="C75" s="12" t="s">
         <v>2626</v>
       </c>
       <c r="D75" s="1"/>
-      <c r="F75" s="17" t="s">
+      <c r="F75" s="14" t="s">
         <v>2564</v>
       </c>
     </row>
@@ -32398,14 +36014,14 @@
       <c r="A76" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="B76" s="13" t="s">
+      <c r="B76" s="12" t="s">
         <v>2627</v>
       </c>
-      <c r="C76" s="13" t="s">
+      <c r="C76" s="12" t="s">
         <v>2628</v>
       </c>
       <c r="D76" s="1"/>
-      <c r="F76" s="17" t="s">
+      <c r="F76" s="14" t="s">
         <v>2564</v>
       </c>
     </row>
@@ -32413,14 +36029,14 @@
       <c r="A77" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="B77" s="13" t="s">
+      <c r="B77" s="12" t="s">
         <v>2629</v>
       </c>
-      <c r="C77" s="13" t="s">
+      <c r="C77" s="12" t="s">
         <v>2630</v>
       </c>
       <c r="D77" s="1"/>
-      <c r="F77" s="17" t="s">
+      <c r="F77" s="14" t="s">
         <v>2564</v>
       </c>
     </row>
@@ -32428,14 +36044,14 @@
       <c r="A78" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="B78" s="13" t="s">
+      <c r="B78" s="12" t="s">
         <v>2631</v>
       </c>
-      <c r="C78" s="13" t="s">
+      <c r="C78" s="12" t="s">
         <v>2632</v>
       </c>
       <c r="D78" s="1"/>
-      <c r="F78" s="17" t="s">
+      <c r="F78" s="14" t="s">
         <v>2564</v>
       </c>
     </row>
@@ -32443,14 +36059,14 @@
       <c r="A79" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="B79" s="13" t="s">
+      <c r="B79" s="12" t="s">
         <v>2633</v>
       </c>
-      <c r="C79" s="13" t="s">
+      <c r="C79" s="12" t="s">
         <v>2634</v>
       </c>
       <c r="D79" s="1"/>
-      <c r="F79" s="17" t="s">
+      <c r="F79" s="14" t="s">
         <v>2564</v>
       </c>
     </row>
@@ -32458,14 +36074,14 @@
       <c r="A80" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="B80" s="13" t="s">
+      <c r="B80" s="12" t="s">
         <v>2635</v>
       </c>
-      <c r="C80" s="13" t="s">
+      <c r="C80" s="12" t="s">
         <v>2636</v>
       </c>
       <c r="D80" s="1"/>
-      <c r="F80" s="17" t="s">
+      <c r="F80" s="14" t="s">
         <v>2564</v>
       </c>
     </row>
@@ -32473,14 +36089,14 @@
       <c r="A81" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="B81" s="13" t="s">
+      <c r="B81" s="12" t="s">
         <v>2637</v>
       </c>
-      <c r="C81" s="13" t="s">
+      <c r="C81" s="12" t="s">
         <v>2638</v>
       </c>
       <c r="D81" s="1"/>
-      <c r="F81" s="17" t="s">
+      <c r="F81" s="14" t="s">
         <v>2564</v>
       </c>
     </row>
@@ -32488,14 +36104,14 @@
       <c r="A82" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="B82" s="13" t="s">
+      <c r="B82" s="12" t="s">
         <v>2639</v>
       </c>
-      <c r="C82" s="13" t="s">
+      <c r="C82" s="12" t="s">
         <v>2640</v>
       </c>
       <c r="D82" s="1"/>
-      <c r="F82" s="17" t="s">
+      <c r="F82" s="14" t="s">
         <v>2564</v>
       </c>
     </row>
@@ -32503,14 +36119,14 @@
       <c r="A83" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="B83" s="13" t="s">
+      <c r="B83" s="12" t="s">
         <v>2641</v>
       </c>
-      <c r="C83" s="13" t="s">
+      <c r="C83" s="12" t="s">
         <v>2642</v>
       </c>
       <c r="D83" s="1"/>
-      <c r="F83" s="17" t="s">
+      <c r="F83" s="14" t="s">
         <v>2564</v>
       </c>
     </row>
@@ -32518,14 +36134,14 @@
       <c r="A84" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="B84" s="13" t="s">
+      <c r="B84" s="12" t="s">
         <v>2643</v>
       </c>
-      <c r="C84" s="13" t="s">
+      <c r="C84" s="12" t="s">
         <v>2644</v>
       </c>
       <c r="D84" s="1"/>
-      <c r="F84" s="17" t="s">
+      <c r="F84" s="14" t="s">
         <v>2564</v>
       </c>
     </row>
@@ -32533,14 +36149,14 @@
       <c r="A85" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="B85" s="13" t="s">
+      <c r="B85" s="12" t="s">
         <v>2645</v>
       </c>
-      <c r="C85" s="13" t="s">
+      <c r="C85" s="12" t="s">
         <v>2646</v>
       </c>
       <c r="D85" s="1"/>
-      <c r="F85" s="17" t="s">
+      <c r="F85" s="14" t="s">
         <v>2564</v>
       </c>
     </row>
@@ -32548,14 +36164,14 @@
       <c r="A86" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="B86" s="13" t="s">
+      <c r="B86" s="12" t="s">
         <v>2647</v>
       </c>
-      <c r="C86" s="13" t="s">
+      <c r="C86" s="12" t="s">
         <v>2648</v>
       </c>
       <c r="D86" s="1"/>
-      <c r="F86" s="17" t="s">
+      <c r="F86" s="14" t="s">
         <v>2564</v>
       </c>
     </row>
@@ -32621,7 +36237,7 @@
     </row>
     <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B97" s="8"/>
-      <c r="C97" s="21"/>
+      <c r="C97" s="16"/>
       <c r="D97" s="1"/>
       <c r="F97" s="12"/>
     </row>
@@ -32825,7 +36441,7 @@
     </row>
     <row r="131" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B131" s="8"/>
-      <c r="C131" s="14"/>
+      <c r="C131" s="13"/>
       <c r="D131" s="1"/>
       <c r="F131" s="12"/>
     </row>
@@ -32848,7 +36464,7 @@
       <c r="F134" s="12"/>
     </row>
     <row r="135" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B135" s="14"/>
+      <c r="B135" s="13"/>
       <c r="C135" s="12"/>
       <c r="D135" s="3"/>
       <c r="F135" s="12"/>
@@ -32861,7 +36477,7 @@
     </row>
     <row r="137" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B137" s="8"/>
-      <c r="C137" s="21"/>
+      <c r="C137" s="16"/>
       <c r="D137" s="1"/>
       <c r="F137" s="12"/>
     </row>
@@ -32879,7 +36495,7 @@
     </row>
     <row r="140" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B140" s="12"/>
-      <c r="C140" s="14"/>
+      <c r="C140" s="13"/>
       <c r="D140" s="1"/>
       <c r="F140" s="12"/>
     </row>
@@ -32963,7 +36579,7 @@
     </row>
     <row r="154" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B154" s="8"/>
-      <c r="C154" s="21"/>
+      <c r="C154" s="16"/>
       <c r="D154" s="1"/>
       <c r="F154" s="12"/>
     </row>
@@ -32981,19 +36597,19 @@
     </row>
     <row r="157" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B157" s="8"/>
-      <c r="C157" s="14"/>
+      <c r="C157" s="13"/>
       <c r="D157" s="1"/>
       <c r="F157" s="12"/>
     </row>
     <row r="158" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B158" s="8"/>
-      <c r="C158" s="14"/>
+      <c r="C158" s="13"/>
       <c r="D158" s="1"/>
       <c r="F158" s="12"/>
     </row>
     <row r="159" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B159" s="8"/>
-      <c r="C159" s="22"/>
+      <c r="C159" s="17"/>
       <c r="F159" s="12"/>
     </row>
     <row r="160" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33083,7 +36699,7 @@
     </row>
     <row r="177" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B177" s="8"/>
-      <c r="C177" s="22"/>
+      <c r="C177" s="17"/>
       <c r="F177" s="12"/>
     </row>
     <row r="178" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -33271,7 +36887,7 @@
   <dimension ref="A1:F29"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F29" activeCellId="1" sqref="1286:1286 F29"/>
+      <selection pane="topLeft" activeCell="F29" activeCellId="0" sqref="F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.16015625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -33472,8 +37088,8 @@
         <v>2446</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B18" s="17" t="s">
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B18" s="14" t="s">
         <v>2477</v>
       </c>
       <c r="C18" s="3" t="s">
@@ -33483,8 +37099,8 @@
         <v>2446</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B19" s="17" t="s">
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B19" s="14" t="s">
         <v>2478</v>
       </c>
       <c r="C19" s="3" t="s">
@@ -33494,8 +37110,8 @@
         <v>2446</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B20" s="17" t="s">
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B20" s="14" t="s">
         <v>2480</v>
       </c>
       <c r="C20" s="3" t="s">
@@ -33543,7 +37159,7 @@
         <v>2490</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>2723</v>
+        <v>3040</v>
       </c>
       <c r="F24" s="3" t="s">
         <v>2446</v>

--- a/backend/django_cemos2028/apps/perguntas/fixtures/flashcards.xlsx
+++ b/backend/django_cemos2028/apps/perguntas/fixtures/flashcards.xlsx
@@ -8615,25 +8615,7 @@
     <t xml:space="preserve">Extensão natural de terra rodeada de água, que, na baixa-mar, fica a descoberto, mas que submerge na preamar.  Se parcialmente ou totalmente dentro do MT, terá MT próprio. Se **totalmente fora** do MT, **não terá MT próprio**.</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">O que são </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Águas interiores (rios, baías, lagos e lagoas) e sua diferença para Águas Arquipelágicas?</t>
-    </r>
+    <t xml:space="preserve">O que são Águas interiores (rios, baías, lagos e lagoas) e sua diferença para Águas Arquipelágicas?</t>
   </si>
   <si>
     <t xml:space="preserve">Águas vinculadas ao domínio terrestre de um Estado, incluindo as situadas entre a linha de costa e as linhas de base retas. Possui **soberania plena do Estado**, diferente de **Águas Arquipelágicas que possuem regime especial**.</t>
@@ -12888,7 +12870,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -12932,12 +12914,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -13222,8 +13198,8 @@
   </sheetPr>
   <dimension ref="A1:G1990"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1368" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B1372" activeCellId="0" sqref="B1372"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1362" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B1370" activeCellId="0" sqref="B1370"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.62890625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -13232,7 +13208,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="57.23"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="58.07"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="4" style="2" width="14.91"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="2" width="57.02"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="2" width="57.03"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="3" width="16.9"/>
   </cols>
   <sheetData>
@@ -33583,7 +33559,7 @@
         <v>2447</v>
       </c>
     </row>
-    <row r="1245" customFormat="false" ht="46.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1245" customFormat="false" ht="31.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1245" s="2" t="n">
         <v>9</v>
       </c>
@@ -33599,7 +33575,7 @@
         <v>2507</v>
       </c>
     </row>
-    <row r="1246" customFormat="false" ht="46.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1246" customFormat="false" ht="31.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1246" s="2" t="n">
         <v>9</v>
       </c>
@@ -33615,7 +33591,7 @@
         <v>2507</v>
       </c>
     </row>
-    <row r="1247" customFormat="false" ht="46.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1247" customFormat="false" ht="16.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1247" s="2" t="n">
         <v>9</v>
       </c>
@@ -33635,7 +33611,7 @@
         <v>2507</v>
       </c>
     </row>
-    <row r="1248" customFormat="false" ht="46.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1248" customFormat="false" ht="31.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1248" s="2" t="n">
         <v>9</v>
       </c>
@@ -33651,7 +33627,7 @@
         <v>2507</v>
       </c>
     </row>
-    <row r="1249" customFormat="false" ht="46.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1249" customFormat="false" ht="31.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1249" s="2" t="n">
         <v>9</v>
       </c>
@@ -35039,7 +35015,7 @@
         <v>2652</v>
       </c>
     </row>
-    <row r="1331" customFormat="false" ht="46.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1331" customFormat="false" ht="31.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1331" s="2" t="n">
         <v>9</v>
       </c>
@@ -35095,7 +35071,7 @@
         <v>2681</v>
       </c>
     </row>
-    <row r="1334" customFormat="false" ht="46.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1334" customFormat="false" ht="31.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1334" s="2" t="n">
         <v>9</v>
       </c>
@@ -35111,7 +35087,7 @@
         <v>2681</v>
       </c>
     </row>
-    <row r="1335" customFormat="false" ht="46.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1335" customFormat="false" ht="31.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1335" s="2" t="n">
         <v>9</v>
       </c>
@@ -35131,7 +35107,7 @@
         <v>2681</v>
       </c>
     </row>
-    <row r="1336" customFormat="false" ht="46.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1336" customFormat="false" ht="16.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1336" s="2" t="n">
         <v>9</v>
       </c>
@@ -35179,7 +35155,7 @@
         <v>2693</v>
       </c>
     </row>
-    <row r="1339" customFormat="false" ht="46.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1339" customFormat="false" ht="16.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1339" s="2" t="n">
         <v>9</v>
       </c>
@@ -35195,7 +35171,7 @@
         <v>2693</v>
       </c>
     </row>
-    <row r="1340" customFormat="false" ht="46.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1340" customFormat="false" ht="31.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1340" s="2" t="n">
         <v>9</v>
       </c>
@@ -35211,7 +35187,7 @@
         <v>2693</v>
       </c>
     </row>
-    <row r="1341" customFormat="false" ht="46.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1341" customFormat="false" ht="16.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1341" s="2" t="n">
         <v>9</v>
       </c>
@@ -35231,7 +35207,7 @@
         <v>2693</v>
       </c>
     </row>
-    <row r="1342" customFormat="false" ht="46.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1342" customFormat="false" ht="31.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1342" s="2" t="n">
         <v>9</v>
       </c>
@@ -35251,7 +35227,7 @@
         <v>2693</v>
       </c>
     </row>
-    <row r="1343" customFormat="false" ht="46.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1343" customFormat="false" ht="16.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1343" s="2" t="n">
         <v>9</v>
       </c>
@@ -35267,7 +35243,7 @@
         <v>2693</v>
       </c>
     </row>
-    <row r="1344" customFormat="false" ht="76.1" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1344" customFormat="false" ht="31.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1344" s="2" t="n">
         <v>9</v>
       </c>
@@ -35283,7 +35259,7 @@
         <v>2706</v>
       </c>
     </row>
-    <row r="1345" customFormat="false" ht="76.1" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1345" customFormat="false" ht="31.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1345" s="2" t="n">
         <v>9</v>
       </c>
@@ -35319,7 +35295,7 @@
         <v>2711</v>
       </c>
     </row>
-    <row r="1347" customFormat="false" ht="61.15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1347" customFormat="false" ht="31.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1347" s="2" t="n">
         <v>9</v>
       </c>
@@ -35335,7 +35311,7 @@
         <v>2711</v>
       </c>
     </row>
-    <row r="1348" customFormat="false" ht="61.15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1348" customFormat="false" ht="46.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1348" s="2" t="n">
         <v>9</v>
       </c>
@@ -35351,7 +35327,7 @@
         <v>2711</v>
       </c>
     </row>
-    <row r="1349" customFormat="false" ht="61.15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1349" customFormat="false" ht="46.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1349" s="2" t="n">
         <v>9</v>
       </c>
@@ -35367,7 +35343,7 @@
         <v>2711</v>
       </c>
     </row>
-    <row r="1350" customFormat="false" ht="61.15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1350" customFormat="false" ht="46.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1350" s="2" t="n">
         <v>9</v>
       </c>
@@ -35399,7 +35375,7 @@
         <v>2711</v>
       </c>
     </row>
-    <row r="1352" customFormat="false" ht="61.15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1352" customFormat="false" ht="46.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1352" s="2" t="n">
         <v>9</v>
       </c>
@@ -35415,7 +35391,7 @@
         <v>2711</v>
       </c>
     </row>
-    <row r="1353" customFormat="false" ht="46.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1353" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1353" s="12" t="n">
         <v>18</v>
       </c>
@@ -35438,7 +35414,7 @@
         <v>2729</v>
       </c>
     </row>
-    <row r="1354" customFormat="false" ht="31.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1354" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1354" s="12" t="n">
         <v>18</v>
       </c>
@@ -35461,7 +35437,7 @@
         <v>2726</v>
       </c>
     </row>
-    <row r="1355" customFormat="false" ht="31.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1355" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1355" s="12" t="n">
         <v>18</v>
       </c>
@@ -35484,7 +35460,7 @@
         <v>2726</v>
       </c>
     </row>
-    <row r="1356" customFormat="false" ht="31.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1356" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1356" s="12" t="n">
         <v>18</v>
       </c>
@@ -35507,7 +35483,7 @@
         <v>2729</v>
       </c>
     </row>
-    <row r="1357" customFormat="false" ht="46.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1357" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1357" s="12" t="n">
         <v>18</v>
       </c>
@@ -35530,7 +35506,7 @@
         <v>2726</v>
       </c>
     </row>
-    <row r="1358" customFormat="false" ht="91.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1358" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1358" s="12" t="n">
         <v>18</v>
       </c>
@@ -35553,7 +35529,7 @@
         <v>2729</v>
       </c>
     </row>
-    <row r="1359" customFormat="false" ht="76.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1359" customFormat="false" ht="76.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1359" s="12" t="n">
         <v>18</v>
       </c>
@@ -35576,7 +35552,7 @@
         <v>2729</v>
       </c>
     </row>
-    <row r="1360" customFormat="false" ht="46.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1360" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1360" s="12" t="n">
         <v>18</v>
       </c>
@@ -35599,7 +35575,7 @@
         <v>2726</v>
       </c>
     </row>
-    <row r="1361" customFormat="false" ht="46.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1361" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1361" s="12" t="n">
         <v>18</v>
       </c>
@@ -35622,7 +35598,7 @@
         <v>2729</v>
       </c>
     </row>
-    <row r="1362" customFormat="false" ht="46.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1362" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1362" s="12" t="n">
         <v>18</v>
       </c>
@@ -35668,7 +35644,7 @@
         <v>2726</v>
       </c>
     </row>
-    <row r="1364" customFormat="false" ht="31.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1364" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1364" s="12" t="n">
         <v>18</v>
       </c>
@@ -35691,7 +35667,7 @@
         <v>2726</v>
       </c>
     </row>
-    <row r="1365" customFormat="false" ht="106" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1365" customFormat="false" ht="105.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1365" s="12" t="n">
         <v>18</v>
       </c>
@@ -35714,7 +35690,7 @@
         <v>2729</v>
       </c>
     </row>
-    <row r="1366" customFormat="false" ht="46.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1366" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1366" s="12" t="n">
         <v>18</v>
       </c>
@@ -35737,7 +35713,7 @@
         <v>2729</v>
       </c>
     </row>
-    <row r="1367" customFormat="false" ht="105.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1367" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1367" s="12" t="n">
         <v>18</v>
       </c>
@@ -35783,7 +35759,7 @@
         <v>2726</v>
       </c>
     </row>
-    <row r="1369" customFormat="false" ht="61.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1369" customFormat="false" ht="61.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1369" s="12" t="n">
         <v>18</v>
       </c>
@@ -35829,7 +35805,7 @@
         <v>2729</v>
       </c>
     </row>
-    <row r="1371" customFormat="false" ht="46.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1371" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1371" s="12" t="n">
         <v>18</v>
       </c>
@@ -35852,7 +35828,7 @@
         <v>2726</v>
       </c>
     </row>
-    <row r="1372" customFormat="false" ht="106" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1372" customFormat="false" ht="105.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1372" s="12" t="n">
         <v>18</v>
       </c>
@@ -35921,7 +35897,7 @@
         <v>2726</v>
       </c>
     </row>
-    <row r="1375" customFormat="false" ht="46.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1375" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1375" s="12" t="n">
         <v>18</v>
       </c>
@@ -35967,7 +35943,7 @@
         <v>2726</v>
       </c>
     </row>
-    <row r="1377" customFormat="false" ht="46.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1377" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1377" s="12" t="n">
         <v>18</v>
       </c>
@@ -35990,7 +35966,7 @@
         <v>2726</v>
       </c>
     </row>
-    <row r="1378" customFormat="false" ht="31.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1378" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1378" s="12" t="n">
         <v>18</v>
       </c>
@@ -36013,7 +35989,7 @@
         <v>2726</v>
       </c>
     </row>
-    <row r="1379" customFormat="false" ht="46.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1379" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1379" s="12" t="n">
         <v>18</v>
       </c>
@@ -36036,7 +36012,7 @@
         <v>2726</v>
       </c>
     </row>
-    <row r="1380" customFormat="false" ht="46.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1380" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1380" s="12" t="n">
         <v>18</v>
       </c>
@@ -36059,7 +36035,7 @@
         <v>2726</v>
       </c>
     </row>
-    <row r="1381" customFormat="false" ht="46.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1381" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1381" s="12" t="n">
         <v>18</v>
       </c>
@@ -36082,7 +36058,7 @@
         <v>2726</v>
       </c>
     </row>
-    <row r="1382" customFormat="false" ht="46.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1382" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1382" s="12" t="n">
         <v>18</v>
       </c>
@@ -36105,7 +36081,7 @@
         <v>2726</v>
       </c>
     </row>
-    <row r="1383" customFormat="false" ht="31.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1383" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1383" s="12" t="n">
         <v>18</v>
       </c>
@@ -36128,7 +36104,7 @@
         <v>2726</v>
       </c>
     </row>
-    <row r="1384" customFormat="false" ht="31.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1384" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1384" s="12" t="n">
         <v>18</v>
       </c>
@@ -36151,7 +36127,7 @@
         <v>2726</v>
       </c>
     </row>
-    <row r="1385" customFormat="false" ht="46.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1385" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1385" s="12" t="n">
         <v>18</v>
       </c>
@@ -36174,7 +36150,7 @@
         <v>2726</v>
       </c>
     </row>
-    <row r="1386" customFormat="false" ht="46.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1386" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1386" s="12" t="n">
         <v>18</v>
       </c>
@@ -36220,7 +36196,7 @@
         <v>2729</v>
       </c>
     </row>
-    <row r="1388" customFormat="false" ht="105.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1388" customFormat="false" ht="61.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1388" s="12" t="n">
         <v>18</v>
       </c>
@@ -36243,7 +36219,7 @@
         <v>2726</v>
       </c>
     </row>
-    <row r="1389" customFormat="false" ht="46.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1389" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1389" s="12" t="n">
         <v>18</v>
       </c>
@@ -36266,7 +36242,7 @@
         <v>2726</v>
       </c>
     </row>
-    <row r="1390" customFormat="false" ht="31.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1390" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1390" s="12" t="n">
         <v>18</v>
       </c>
@@ -36289,7 +36265,7 @@
         <v>2726</v>
       </c>
     </row>
-    <row r="1391" customFormat="false" ht="31.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1391" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1391" s="12" t="n">
         <v>18</v>
       </c>
@@ -36312,7 +36288,7 @@
         <v>2726</v>
       </c>
     </row>
-    <row r="1392" customFormat="false" ht="31.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1392" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1392" s="12" t="n">
         <v>18</v>
       </c>
@@ -36335,7 +36311,7 @@
         <v>2726</v>
       </c>
     </row>
-    <row r="1393" customFormat="false" ht="31.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1393" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1393" s="12" t="n">
         <v>18</v>
       </c>
@@ -36358,7 +36334,7 @@
         <v>2726</v>
       </c>
     </row>
-    <row r="1394" customFormat="false" ht="31.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1394" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1394" s="12" t="n">
         <v>18</v>
       </c>
@@ -36381,7 +36357,7 @@
         <v>2726</v>
       </c>
     </row>
-    <row r="1395" customFormat="false" ht="31.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1395" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1395" s="12" t="n">
         <v>18</v>
       </c>
@@ -36404,7 +36380,7 @@
         <v>2726</v>
       </c>
     </row>
-    <row r="1396" customFormat="false" ht="31.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1396" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1396" s="12" t="n">
         <v>18</v>
       </c>
@@ -36427,7 +36403,7 @@
         <v>2726</v>
       </c>
     </row>
-    <row r="1397" customFormat="false" ht="31.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1397" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1397" s="12" t="n">
         <v>18</v>
       </c>
@@ -36450,7 +36426,7 @@
         <v>2726</v>
       </c>
     </row>
-    <row r="1398" customFormat="false" ht="46.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1398" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1398" s="12" t="n">
         <v>18</v>
       </c>
@@ -36473,7 +36449,7 @@
         <v>2726</v>
       </c>
     </row>
-    <row r="1399" customFormat="false" ht="31.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1399" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1399" s="12" t="n">
         <v>18</v>
       </c>
@@ -36496,7 +36472,7 @@
         <v>2726</v>
       </c>
     </row>
-    <row r="1400" customFormat="false" ht="16.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1400" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1400" s="12" t="n">
         <v>18</v>
       </c>
@@ -36519,7 +36495,7 @@
         <v>2726</v>
       </c>
     </row>
-    <row r="1401" customFormat="false" ht="31.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1401" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1401" s="12" t="n">
         <v>18</v>
       </c>
@@ -36565,7 +36541,7 @@
         <v>2729</v>
       </c>
     </row>
-    <row r="1403" customFormat="false" ht="135.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1403" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1403" s="12" t="n">
         <v>18</v>
       </c>
@@ -36588,7 +36564,7 @@
         <v>2729</v>
       </c>
     </row>
-    <row r="1404" customFormat="false" ht="46.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1404" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1404" s="12" t="n">
         <v>18</v>
       </c>
@@ -36608,7 +36584,7 @@
         <v>2728</v>
       </c>
     </row>
-    <row r="1405" customFormat="false" ht="31.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1405" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1405" s="12" t="n">
         <v>18</v>
       </c>
@@ -36628,7 +36604,7 @@
         <v>2728</v>
       </c>
     </row>
-    <row r="1406" customFormat="false" ht="31.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1406" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1406" s="12" t="n">
         <v>18</v>
       </c>
@@ -36648,7 +36624,7 @@
         <v>2728</v>
       </c>
     </row>
-    <row r="1407" customFormat="false" ht="46.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1407" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1407" s="12" t="n">
         <v>18</v>
       </c>
@@ -36668,7 +36644,7 @@
         <v>2728</v>
       </c>
     </row>
-    <row r="1408" customFormat="false" ht="31.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1408" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1408" s="12" t="n">
         <v>18</v>
       </c>
@@ -36688,7 +36664,7 @@
         <v>2728</v>
       </c>
     </row>
-    <row r="1409" customFormat="false" ht="31.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1409" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1409" s="12" t="n">
         <v>18</v>
       </c>
@@ -36708,7 +36684,7 @@
         <v>2728</v>
       </c>
     </row>
-    <row r="1410" customFormat="false" ht="31.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1410" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1410" s="12" t="n">
         <v>18</v>
       </c>
@@ -36728,7 +36704,7 @@
         <v>2728</v>
       </c>
     </row>
-    <row r="1411" customFormat="false" ht="31.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1411" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1411" s="12" t="n">
         <v>18</v>
       </c>
@@ -36748,7 +36724,7 @@
         <v>2728</v>
       </c>
     </row>
-    <row r="1412" customFormat="false" ht="31.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1412" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1412" s="12" t="n">
         <v>18</v>
       </c>
@@ -36768,7 +36744,7 @@
         <v>2728</v>
       </c>
     </row>
-    <row r="1413" customFormat="false" ht="31.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1413" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1413" s="12" t="n">
         <v>18</v>
       </c>
@@ -36788,7 +36764,7 @@
         <v>2728</v>
       </c>
     </row>
-    <row r="1414" customFormat="false" ht="31.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1414" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1414" s="12" t="n">
         <v>18</v>
       </c>
@@ -36811,7 +36787,7 @@
         <v>2729</v>
       </c>
     </row>
-    <row r="1415" customFormat="false" ht="46.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1415" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1415" s="12" t="n">
         <v>18</v>
       </c>
@@ -36831,7 +36807,7 @@
         <v>2728</v>
       </c>
     </row>
-    <row r="1416" customFormat="false" ht="31.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1416" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1416" s="12" t="n">
         <v>18</v>
       </c>
@@ -36871,7 +36847,7 @@
         <v>2728</v>
       </c>
     </row>
-    <row r="1418" customFormat="false" ht="31.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1418" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1418" s="12" t="n">
         <v>18</v>
       </c>
@@ -36891,7 +36867,7 @@
         <v>2728</v>
       </c>
     </row>
-    <row r="1419" customFormat="false" ht="31.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1419" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1419" s="12" t="n">
         <v>18</v>
       </c>
@@ -36911,7 +36887,7 @@
         <v>2728</v>
       </c>
     </row>
-    <row r="1420" customFormat="false" ht="120.85" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1420" customFormat="false" ht="61.15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1420" s="12" t="n">
         <v>18</v>
       </c>
@@ -36931,7 +36907,7 @@
         <v>2884</v>
       </c>
     </row>
-    <row r="1421" customFormat="false" ht="120.85" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1421" customFormat="false" ht="31.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1421" s="12" t="n">
         <v>18</v>
       </c>
@@ -36951,7 +36927,7 @@
         <v>2884</v>
       </c>
     </row>
-    <row r="1422" customFormat="false" ht="120.85" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1422" customFormat="false" ht="76.1" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1422" s="12" t="n">
         <v>18</v>
       </c>
@@ -36971,7 +36947,7 @@
         <v>2884</v>
       </c>
     </row>
-    <row r="1423" customFormat="false" ht="120.85" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1423" customFormat="false" ht="31.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1423" s="12" t="n">
         <v>18</v>
       </c>
@@ -36991,7 +36967,7 @@
         <v>2884</v>
       </c>
     </row>
-    <row r="1424" customFormat="false" ht="120.85" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1424" customFormat="false" ht="31.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1424" s="12" t="n">
         <v>18</v>
       </c>
@@ -37011,7 +36987,7 @@
         <v>2884</v>
       </c>
     </row>
-    <row r="1425" customFormat="false" ht="120.85" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1425" customFormat="false" ht="31.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1425" s="12" t="n">
         <v>18</v>
       </c>
@@ -37031,7 +37007,7 @@
         <v>2884</v>
       </c>
     </row>
-    <row r="1426" customFormat="false" ht="120.85" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1426" customFormat="false" ht="91" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1426" s="12" t="n">
         <v>18</v>
       </c>
@@ -37051,7 +37027,7 @@
         <v>2884</v>
       </c>
     </row>
-    <row r="1427" customFormat="false" ht="120.85" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1427" customFormat="false" ht="46.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1427" s="12" t="n">
         <v>18</v>
       </c>
@@ -37071,7 +37047,7 @@
         <v>2884</v>
       </c>
     </row>
-    <row r="1428" customFormat="false" ht="120.85" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1428" customFormat="false" ht="61.15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1428" s="12" t="n">
         <v>18</v>
       </c>
@@ -37091,7 +37067,7 @@
         <v>2884</v>
       </c>
     </row>
-    <row r="1429" customFormat="false" ht="120.85" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1429" customFormat="false" ht="46.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1429" s="12" t="n">
         <v>18</v>
       </c>
@@ -37111,7 +37087,7 @@
         <v>2884</v>
       </c>
     </row>
-    <row r="1430" customFormat="false" ht="120.85" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1430" customFormat="false" ht="46.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1430" s="12" t="n">
         <v>18</v>
       </c>
@@ -37131,7 +37107,7 @@
         <v>2884</v>
       </c>
     </row>
-    <row r="1431" customFormat="false" ht="120.85" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1431" customFormat="false" ht="46.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1431" s="12" t="n">
         <v>18</v>
       </c>
@@ -37151,7 +37127,7 @@
         <v>2884</v>
       </c>
     </row>
-    <row r="1432" customFormat="false" ht="120.85" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1432" customFormat="false" ht="31.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1432" s="12" t="n">
         <v>18</v>
       </c>
@@ -37171,7 +37147,7 @@
         <v>2884</v>
       </c>
     </row>
-    <row r="1433" customFormat="false" ht="120.85" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1433" customFormat="false" ht="31.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1433" s="12" t="n">
         <v>18</v>
       </c>
@@ -37191,7 +37167,7 @@
         <v>2884</v>
       </c>
     </row>
-    <row r="1434" customFormat="false" ht="120.85" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1434" customFormat="false" ht="46.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1434" s="12" t="n">
         <v>18</v>
       </c>
@@ -37211,7 +37187,7 @@
         <v>2884</v>
       </c>
     </row>
-    <row r="1435" customFormat="false" ht="120.85" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1435" customFormat="false" ht="46.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1435" s="12" t="n">
         <v>18</v>
       </c>
@@ -37231,7 +37207,7 @@
         <v>2884</v>
       </c>
     </row>
-    <row r="1436" customFormat="false" ht="120.85" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1436" customFormat="false" ht="61.15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1436" s="12" t="n">
         <v>18</v>
       </c>
@@ -37251,7 +37227,7 @@
         <v>2884</v>
       </c>
     </row>
-    <row r="1437" customFormat="false" ht="120.85" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1437" customFormat="false" ht="31.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1437" s="12" t="n">
         <v>18</v>
       </c>
@@ -37271,7 +37247,7 @@
         <v>2884</v>
       </c>
     </row>
-    <row r="1438" customFormat="false" ht="120.85" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1438" customFormat="false" ht="31.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1438" s="12" t="n">
         <v>18</v>
       </c>
@@ -37291,7 +37267,7 @@
         <v>2884</v>
       </c>
     </row>
-    <row r="1439" customFormat="false" ht="120.85" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1439" customFormat="false" ht="31.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1439" s="12" t="n">
         <v>18</v>
       </c>
@@ -37311,7 +37287,7 @@
         <v>2884</v>
       </c>
     </row>
-    <row r="1440" customFormat="false" ht="120.85" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1440" customFormat="false" ht="31.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1440" s="12" t="n">
         <v>18</v>
       </c>
@@ -37331,7 +37307,7 @@
         <v>2884</v>
       </c>
     </row>
-    <row r="1441" customFormat="false" ht="120.85" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1441" customFormat="false" ht="31.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1441" s="12" t="n">
         <v>18</v>
       </c>
@@ -37351,7 +37327,7 @@
         <v>2884</v>
       </c>
     </row>
-    <row r="1442" customFormat="false" ht="120.85" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1442" customFormat="false" ht="105.95" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1442" s="12" t="n">
         <v>18</v>
       </c>
@@ -37371,7 +37347,7 @@
         <v>2884</v>
       </c>
     </row>
-    <row r="1443" customFormat="false" ht="120.85" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1443" customFormat="false" ht="91" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1443" s="12" t="n">
         <v>18</v>
       </c>
@@ -37391,7 +37367,7 @@
         <v>2884</v>
       </c>
     </row>
-    <row r="1444" customFormat="false" ht="120.85" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1444" customFormat="false" ht="31.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1444" s="12" t="n">
         <v>18</v>
       </c>
@@ -37411,7 +37387,7 @@
         <v>2884</v>
       </c>
     </row>
-    <row r="1445" customFormat="false" ht="120.85" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1445" customFormat="false" ht="61.15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1445" s="12" t="n">
         <v>18</v>
       </c>
@@ -37431,7 +37407,7 @@
         <v>2884</v>
       </c>
     </row>
-    <row r="1446" customFormat="false" ht="120.85" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1446" customFormat="false" ht="46.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1446" s="12" t="n">
         <v>18</v>
       </c>
@@ -37451,7 +37427,7 @@
         <v>2884</v>
       </c>
     </row>
-    <row r="1447" customFormat="false" ht="120.85" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1447" customFormat="false" ht="46.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1447" s="12" t="n">
         <v>18</v>
       </c>
@@ -37471,7 +37447,7 @@
         <v>2884</v>
       </c>
     </row>
-    <row r="1448" customFormat="false" ht="120.85" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1448" customFormat="false" ht="31.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1448" s="12" t="n">
         <v>18</v>
       </c>
@@ -37491,7 +37467,7 @@
         <v>2884</v>
       </c>
     </row>
-    <row r="1449" customFormat="false" ht="120.85" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1449" customFormat="false" ht="46.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1449" s="12" t="n">
         <v>18</v>
       </c>
@@ -37511,7 +37487,7 @@
         <v>2884</v>
       </c>
     </row>
-    <row r="1450" customFormat="false" ht="120.85" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1450" customFormat="false" ht="31.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1450" s="12" t="n">
         <v>18</v>
       </c>
@@ -37531,7 +37507,7 @@
         <v>2884</v>
       </c>
     </row>
-    <row r="1451" customFormat="false" ht="120.85" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1451" customFormat="false" ht="31.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1451" s="12" t="n">
         <v>18</v>
       </c>
@@ -37551,7 +37527,7 @@
         <v>2884</v>
       </c>
     </row>
-    <row r="1452" customFormat="false" ht="120.85" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1452" customFormat="false" ht="76.1" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1452" s="12" t="n">
         <v>18</v>
       </c>
@@ -37571,7 +37547,7 @@
         <v>2884</v>
       </c>
     </row>
-    <row r="1453" customFormat="false" ht="120.85" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1453" customFormat="false" ht="31.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1453" s="12" t="n">
         <v>18</v>
       </c>
@@ -37591,7 +37567,7 @@
         <v>2884</v>
       </c>
     </row>
-    <row r="1454" customFormat="false" ht="120.85" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1454" customFormat="false" ht="31.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1454" s="12" t="n">
         <v>18</v>
       </c>
@@ -37611,7 +37587,7 @@
         <v>2884</v>
       </c>
     </row>
-    <row r="1455" customFormat="false" ht="120.85" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1455" customFormat="false" ht="46.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1455" s="12" t="n">
         <v>18</v>
       </c>
@@ -37631,7 +37607,7 @@
         <v>2884</v>
       </c>
     </row>
-    <row r="1456" customFormat="false" ht="120.85" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1456" customFormat="false" ht="46.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1456" s="12" t="n">
         <v>18</v>
       </c>
@@ -37651,7 +37627,7 @@
         <v>2884</v>
       </c>
     </row>
-    <row r="1457" customFormat="false" ht="120.85" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1457" customFormat="false" ht="46.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1457" s="12" t="n">
         <v>18</v>
       </c>
@@ -37671,7 +37647,7 @@
         <v>2884</v>
       </c>
     </row>
-    <row r="1458" customFormat="false" ht="120.85" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1458" customFormat="false" ht="46.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1458" s="12" t="n">
         <v>18</v>
       </c>
@@ -37691,7 +37667,7 @@
         <v>2884</v>
       </c>
     </row>
-    <row r="1459" customFormat="false" ht="120.85" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1459" customFormat="false" ht="31.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1459" s="12" t="n">
         <v>18</v>
       </c>
@@ -37711,7 +37687,7 @@
         <v>2884</v>
       </c>
     </row>
-    <row r="1460" customFormat="false" ht="120.85" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1460" customFormat="false" ht="46.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1460" s="12" t="n">
         <v>18</v>
       </c>
@@ -37731,7 +37707,7 @@
         <v>2884</v>
       </c>
     </row>
-    <row r="1461" customFormat="false" ht="120.85" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1461" customFormat="false" ht="91" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1461" s="12" t="n">
         <v>18</v>
       </c>
@@ -37751,7 +37727,7 @@
         <v>2884</v>
       </c>
     </row>
-    <row r="1462" customFormat="false" ht="120.85" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1462" customFormat="false" ht="31.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1462" s="12" t="n">
         <v>18</v>
       </c>
@@ -37771,7 +37747,7 @@
         <v>2884</v>
       </c>
     </row>
-    <row r="1463" customFormat="false" ht="120.85" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1463" customFormat="false" ht="31.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1463" s="12" t="n">
         <v>18</v>
       </c>
@@ -37791,7 +37767,7 @@
         <v>2884</v>
       </c>
     </row>
-    <row r="1464" customFormat="false" ht="120.85" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1464" customFormat="false" ht="46.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1464" s="12" t="n">
         <v>18</v>
       </c>
@@ -37811,7 +37787,7 @@
         <v>2884</v>
       </c>
     </row>
-    <row r="1465" customFormat="false" ht="120.85" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1465" customFormat="false" ht="31.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1465" s="12" t="n">
         <v>18</v>
       </c>
@@ -37831,7 +37807,7 @@
         <v>2884</v>
       </c>
     </row>
-    <row r="1466" customFormat="false" ht="120.85" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1466" customFormat="false" ht="31.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1466" s="12" t="n">
         <v>18</v>
       </c>
@@ -37851,7 +37827,7 @@
         <v>2884</v>
       </c>
     </row>
-    <row r="1467" customFormat="false" ht="120.85" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1467" customFormat="false" ht="31.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1467" s="12" t="n">
         <v>18</v>
       </c>
@@ -37871,7 +37847,7 @@
         <v>2884</v>
       </c>
     </row>
-    <row r="1468" customFormat="false" ht="120.85" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1468" customFormat="false" ht="31.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1468" s="12" t="n">
         <v>18</v>
       </c>
@@ -37891,7 +37867,7 @@
         <v>2884</v>
       </c>
     </row>
-    <row r="1469" customFormat="false" ht="120.85" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1469" customFormat="false" ht="46.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1469" s="12" t="n">
         <v>18</v>
       </c>
@@ -37911,7 +37887,7 @@
         <v>2884</v>
       </c>
     </row>
-    <row r="1470" customFormat="false" ht="120.85" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1470" customFormat="false" ht="31.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1470" s="12" t="n">
         <v>18</v>
       </c>
@@ -37931,7 +37907,7 @@
         <v>2884</v>
       </c>
     </row>
-    <row r="1471" customFormat="false" ht="120.85" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1471" customFormat="false" ht="31.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1471" s="12" t="n">
         <v>18</v>
       </c>
@@ -37951,7 +37927,7 @@
         <v>2884</v>
       </c>
     </row>
-    <row r="1472" customFormat="false" ht="120.85" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1472" customFormat="false" ht="31.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1472" s="12" t="n">
         <v>18</v>
       </c>
@@ -37971,7 +37947,7 @@
         <v>2884</v>
       </c>
     </row>
-    <row r="1473" customFormat="false" ht="120.85" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1473" customFormat="false" ht="31.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1473" s="12" t="n">
         <v>18</v>
       </c>
@@ -37991,7 +37967,7 @@
         <v>2884</v>
       </c>
     </row>
-    <row r="1474" customFormat="false" ht="120.85" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1474" customFormat="false" ht="46.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1474" s="12" t="n">
         <v>18</v>
       </c>
@@ -38011,7 +37987,7 @@
         <v>2884</v>
       </c>
     </row>
-    <row r="1475" customFormat="false" ht="120.85" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1475" customFormat="false" ht="46.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1475" s="12" t="n">
         <v>18</v>
       </c>
@@ -38031,7 +38007,7 @@
         <v>2884</v>
       </c>
     </row>
-    <row r="1476" customFormat="false" ht="120.85" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1476" customFormat="false" ht="46.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1476" s="12" t="n">
         <v>18</v>
       </c>
@@ -38051,7 +38027,7 @@
         <v>2884</v>
       </c>
     </row>
-    <row r="1477" customFormat="false" ht="120.85" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1477" customFormat="false" ht="46.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1477" s="12" t="n">
         <v>18</v>
       </c>
@@ -38071,7 +38047,7 @@
         <v>2884</v>
       </c>
     </row>
-    <row r="1478" customFormat="false" ht="120.85" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1478" customFormat="false" ht="46.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1478" s="12" t="n">
         <v>18</v>
       </c>
@@ -38091,7 +38067,7 @@
         <v>2884</v>
       </c>
     </row>
-    <row r="1479" customFormat="false" ht="120.85" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1479" customFormat="false" ht="46.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1479" s="12" t="n">
         <v>18</v>
       </c>
@@ -38111,7 +38087,7 @@
         <v>2884</v>
       </c>
     </row>
-    <row r="1480" customFormat="false" ht="120.85" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1480" customFormat="false" ht="76.1" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1480" s="12" t="n">
         <v>18</v>
       </c>
@@ -38131,7 +38107,7 @@
         <v>2884</v>
       </c>
     </row>
-    <row r="1481" customFormat="false" ht="120.85" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1481" customFormat="false" ht="46.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1481" s="12" t="n">
         <v>18</v>
       </c>
@@ -38151,7 +38127,7 @@
         <v>2884</v>
       </c>
     </row>
-    <row r="1482" customFormat="false" ht="120.85" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1482" customFormat="false" ht="61.15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1482" s="12" t="n">
         <v>18</v>
       </c>
@@ -38171,7 +38147,7 @@
         <v>2884</v>
       </c>
     </row>
-    <row r="1483" customFormat="false" ht="120.85" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1483" customFormat="false" ht="46.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1483" s="12" t="n">
         <v>18</v>
       </c>
@@ -38191,7 +38167,7 @@
         <v>2884</v>
       </c>
     </row>
-    <row r="1484" customFormat="false" ht="120.85" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1484" customFormat="false" ht="46.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1484" s="12" t="n">
         <v>18</v>
       </c>
@@ -38211,7 +38187,7 @@
         <v>2884</v>
       </c>
     </row>
-    <row r="1485" customFormat="false" ht="120.85" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1485" customFormat="false" ht="46.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1485" s="12" t="n">
         <v>18</v>
       </c>
@@ -38231,7 +38207,7 @@
         <v>2884</v>
       </c>
     </row>
-    <row r="1486" customFormat="false" ht="120.85" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1486" customFormat="false" ht="31.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1486" s="12" t="n">
         <v>18</v>
       </c>
@@ -38251,7 +38227,7 @@
         <v>2884</v>
       </c>
     </row>
-    <row r="1487" customFormat="false" ht="120.85" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1487" customFormat="false" ht="46.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1487" s="12" t="n">
         <v>18</v>
       </c>
@@ -38271,7 +38247,7 @@
         <v>2884</v>
       </c>
     </row>
-    <row r="1488" customFormat="false" ht="120.85" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1488" customFormat="false" ht="31.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1488" s="12" t="n">
         <v>18</v>
       </c>
@@ -38291,7 +38267,7 @@
         <v>2884</v>
       </c>
     </row>
-    <row r="1489" customFormat="false" ht="120.85" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1489" customFormat="false" ht="31.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1489" s="12" t="n">
         <v>18</v>
       </c>
@@ -38311,7 +38287,7 @@
         <v>2884</v>
       </c>
     </row>
-    <row r="1490" customFormat="false" ht="120.85" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1490" customFormat="false" ht="31.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1490" s="12" t="n">
         <v>18</v>
       </c>
@@ -38331,7 +38307,7 @@
         <v>2884</v>
       </c>
     </row>
-    <row r="1491" customFormat="false" ht="120.85" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1491" customFormat="false" ht="31.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1491" s="12" t="n">
         <v>18</v>
       </c>
@@ -38351,7 +38327,7 @@
         <v>2884</v>
       </c>
     </row>
-    <row r="1492" customFormat="false" ht="120.85" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1492" customFormat="false" ht="46.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1492" s="12" t="n">
         <v>18</v>
       </c>
@@ -38371,7 +38347,7 @@
         <v>2884</v>
       </c>
     </row>
-    <row r="1493" customFormat="false" ht="120.85" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1493" customFormat="false" ht="61.15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1493" s="12" t="n">
         <v>18</v>
       </c>
@@ -38391,7 +38367,7 @@
         <v>2884</v>
       </c>
     </row>
-    <row r="1494" customFormat="false" ht="120.85" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1494" customFormat="false" ht="61.15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1494" s="12" t="n">
         <v>18</v>
       </c>
@@ -38411,7 +38387,7 @@
         <v>2884</v>
       </c>
     </row>
-    <row r="1495" customFormat="false" ht="120.85" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1495" customFormat="false" ht="31.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1495" s="12" t="n">
         <v>18</v>
       </c>
@@ -38431,7 +38407,7 @@
         <v>2884</v>
       </c>
     </row>
-    <row r="1496" customFormat="false" ht="120.85" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1496" customFormat="false" ht="61.15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1496" s="12" t="n">
         <v>18</v>
       </c>
@@ -38451,7 +38427,7 @@
         <v>2884</v>
       </c>
     </row>
-    <row r="1497" customFormat="false" ht="120.85" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1497" customFormat="false" ht="46.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1497" s="12" t="n">
         <v>18</v>
       </c>
@@ -38471,7 +38447,7 @@
         <v>2884</v>
       </c>
     </row>
-    <row r="1498" customFormat="false" ht="120.85" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1498" customFormat="false" ht="31.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1498" s="12" t="n">
         <v>18</v>
       </c>
@@ -38491,7 +38467,7 @@
         <v>2884</v>
       </c>
     </row>
-    <row r="1499" customFormat="false" ht="120.85" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1499" customFormat="false" ht="76.1" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1499" s="12" t="n">
         <v>18</v>
       </c>
@@ -38511,7 +38487,7 @@
         <v>2884</v>
       </c>
     </row>
-    <row r="1500" customFormat="false" ht="120.85" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1500" customFormat="false" ht="61.15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1500" s="12" t="n">
         <v>18</v>
       </c>
@@ -38531,7 +38507,7 @@
         <v>2884</v>
       </c>
     </row>
-    <row r="1501" customFormat="false" ht="120.85" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1501" customFormat="false" ht="76.1" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1501" s="12" t="n">
         <v>18</v>
       </c>
@@ -38551,7 +38527,7 @@
         <v>2884</v>
       </c>
     </row>
-    <row r="1502" customFormat="false" ht="120.85" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1502" customFormat="false" ht="31.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1502" s="12" t="n">
         <v>18</v>
       </c>
@@ -38571,7 +38547,7 @@
         <v>2884</v>
       </c>
     </row>
-    <row r="1503" customFormat="false" ht="120.85" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1503" customFormat="false" ht="61.15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1503" s="12" t="n">
         <v>18</v>
       </c>
@@ -41507,7 +41483,7 @@
         <v>3348</v>
       </c>
     </row>
-    <row r="1666" customFormat="false" ht="61.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1666" customFormat="false" ht="61.15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1666" s="3" t="s">
         <v>3069</v>
       </c>
@@ -41525,7 +41501,7 @@
         <v>3433</v>
       </c>
     </row>
-    <row r="1667" customFormat="false" ht="46.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1667" customFormat="false" ht="46.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1667" s="3" t="s">
         <v>3069</v>
       </c>
@@ -41543,7 +41519,7 @@
         <v>3433</v>
       </c>
     </row>
-    <row r="1668" customFormat="false" ht="31.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1668" customFormat="false" ht="31.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1668" s="3" t="s">
         <v>3069</v>
       </c>
@@ -41561,7 +41537,7 @@
         <v>3433</v>
       </c>
     </row>
-    <row r="1669" customFormat="false" ht="31.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1669" customFormat="false" ht="31.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1669" s="3" t="s">
         <v>3069</v>
       </c>
@@ -41579,7 +41555,7 @@
         <v>3433</v>
       </c>
     </row>
-    <row r="1670" customFormat="false" ht="31.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1670" customFormat="false" ht="31.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1670" s="3" t="s">
         <v>3069</v>
       </c>
@@ -41597,7 +41573,7 @@
         <v>3433</v>
       </c>
     </row>
-    <row r="1671" customFormat="false" ht="46.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1671" customFormat="false" ht="46.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1671" s="3" t="s">
         <v>3069</v>
       </c>
@@ -41615,7 +41591,7 @@
         <v>3433</v>
       </c>
     </row>
-    <row r="1672" customFormat="false" ht="31.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1672" customFormat="false" ht="31.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1672" s="3" t="s">
         <v>3069</v>
       </c>
@@ -41633,7 +41609,7 @@
         <v>3433</v>
       </c>
     </row>
-    <row r="1673" customFormat="false" ht="31.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1673" customFormat="false" ht="31.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1673" s="3" t="s">
         <v>3069</v>
       </c>
@@ -41651,7 +41627,7 @@
         <v>3433</v>
       </c>
     </row>
-    <row r="1674" customFormat="false" ht="46.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1674" customFormat="false" ht="46.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1674" s="3" t="s">
         <v>3069</v>
       </c>
@@ -41669,7 +41645,7 @@
         <v>3433</v>
       </c>
     </row>
-    <row r="1675" customFormat="false" ht="31.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1675" customFormat="false" ht="31.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1675" s="3" t="s">
         <v>3069</v>
       </c>
@@ -41687,7 +41663,7 @@
         <v>3433</v>
       </c>
     </row>
-    <row r="1676" customFormat="false" ht="31.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1676" customFormat="false" ht="31.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1676" s="3" t="s">
         <v>3069</v>
       </c>
@@ -41705,7 +41681,7 @@
         <v>3433</v>
       </c>
     </row>
-    <row r="1677" customFormat="false" ht="46.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1677" customFormat="false" ht="46.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1677" s="3" t="s">
         <v>3069</v>
       </c>
@@ -41723,7 +41699,7 @@
         <v>3433</v>
       </c>
     </row>
-    <row r="1678" customFormat="false" ht="31.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1678" customFormat="false" ht="31.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1678" s="3" t="s">
         <v>3069</v>
       </c>
@@ -41741,7 +41717,7 @@
         <v>3433</v>
       </c>
     </row>
-    <row r="1679" customFormat="false" ht="31.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1679" customFormat="false" ht="31.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1679" s="3" t="s">
         <v>3069</v>
       </c>
@@ -41759,7 +41735,7 @@
         <v>3433</v>
       </c>
     </row>
-    <row r="1680" customFormat="false" ht="46.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1680" customFormat="false" ht="46.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1680" s="3" t="s">
         <v>3069</v>
       </c>
@@ -41777,7 +41753,7 @@
         <v>3433</v>
       </c>
     </row>
-    <row r="1681" customFormat="false" ht="61.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1681" customFormat="false" ht="61.15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1681" s="3" t="s">
         <v>3069</v>
       </c>
@@ -41795,7 +41771,7 @@
         <v>3433</v>
       </c>
     </row>
-    <row r="1682" customFormat="false" ht="46.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1682" customFormat="false" ht="46.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1682" s="3" t="s">
         <v>3069</v>
       </c>
@@ -41813,7 +41789,7 @@
         <v>3433</v>
       </c>
     </row>
-    <row r="1683" customFormat="false" ht="46.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1683" customFormat="false" ht="46.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1683" s="3" t="s">
         <v>3069</v>
       </c>
@@ -41831,7 +41807,7 @@
         <v>3433</v>
       </c>
     </row>
-    <row r="1684" customFormat="false" ht="31.4" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1684" customFormat="false" ht="31.3" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1684" s="3" t="s">
         <v>3069</v>
       </c>
